--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,21 +4,81 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="26" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="28" r:id="rId3"/>
+    <sheet name="每月" sheetId="29" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>收益走势</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计流入</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>流入</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>流出</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>净流入</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收益率</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300收益率</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金资产</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +405,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1037,11 +1105,20 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1478,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -1757,5 +1834,524 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>6.23</v>
+      </c>
+      <c r="B2">
+        <v>4.45</v>
+      </c>
+      <c r="C2">
+        <f>A2-B2</f>
+        <v>1.7800000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>30624.35</v>
+      </c>
+      <c r="B4">
+        <f>A4-C4</f>
+        <v>30203.21</v>
+      </c>
+      <c r="C4">
+        <v>421.14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6">
+        <v>30203.21</v>
+      </c>
+      <c r="C6">
+        <v>15.37</v>
+      </c>
+      <c r="D6">
+        <f>B6/C6*100</f>
+        <v>196507.54716981133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>988698.37</v>
+      </c>
+      <c r="B2">
+        <v>366</v>
+      </c>
+      <c r="C2">
+        <v>250</v>
+      </c>
+      <c r="D2">
+        <f>A2/C2</f>
+        <v>3954.7934799999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>202012</v>
+      </c>
+      <c r="C1">
+        <v>202011</v>
+      </c>
+      <c r="D1">
+        <v>202010</v>
+      </c>
+      <c r="E1">
+        <v>201209</v>
+      </c>
+      <c r="F1">
+        <v>202008</v>
+      </c>
+      <c r="G1">
+        <v>202007</v>
+      </c>
+      <c r="H1">
+        <v>202006</v>
+      </c>
+      <c r="I1">
+        <v>202005</v>
+      </c>
+      <c r="J1">
+        <v>202004</v>
+      </c>
+      <c r="K1">
+        <v>201203</v>
+      </c>
+      <c r="L1">
+        <v>202002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>219702.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>194008.42</v>
+      </c>
+      <c r="D2" s="1">
+        <v>188987.24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184099.85</v>
+      </c>
+      <c r="F2" s="1">
+        <v>164759.56</v>
+      </c>
+      <c r="G2" s="1">
+        <v>134926.57999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>95661.82</v>
+      </c>
+      <c r="I2" s="1">
+        <v>79288.210000000006</v>
+      </c>
+      <c r="J2" s="1">
+        <v>54471.86</v>
+      </c>
+      <c r="K2" s="1">
+        <v>17124.080000000002</v>
+      </c>
+      <c r="L2" s="1">
+        <v>97.49</v>
+      </c>
+      <c r="N2" s="1">
+        <f>SUM(B2:L2)/10</f>
+        <v>133312.74100000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>194013.76</v>
+      </c>
+      <c r="C3" s="4">
+        <v>194008.42</v>
+      </c>
+      <c r="D3" s="4">
+        <v>188987.24</v>
+      </c>
+      <c r="E3" s="4">
+        <v>184099.85</v>
+      </c>
+      <c r="F3" s="4">
+        <v>164759.56</v>
+      </c>
+      <c r="G3" s="4">
+        <v>134926.57999999999</v>
+      </c>
+      <c r="H3" s="4">
+        <v>95661.82</v>
+      </c>
+      <c r="I3" s="4">
+        <v>79288.210000000006</v>
+      </c>
+      <c r="J3" s="4">
+        <v>54471.86</v>
+      </c>
+      <c r="K3" s="1">
+        <v>17300</v>
+      </c>
+      <c r="L3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>219211.26</v>
+      </c>
+      <c r="C4" s="1">
+        <v>146392.93</v>
+      </c>
+      <c r="D4" s="1">
+        <v>92495.26</v>
+      </c>
+      <c r="E4" s="1">
+        <v>162561.74</v>
+      </c>
+      <c r="F4" s="1">
+        <v>126237.95</v>
+      </c>
+      <c r="G4" s="1">
+        <v>98723.17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>25782.74</v>
+      </c>
+      <c r="I4" s="1">
+        <v>32293.32</v>
+      </c>
+      <c r="J4" s="1">
+        <v>67600</v>
+      </c>
+      <c r="K4" s="1">
+        <v>17300</v>
+      </c>
+      <c r="L4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>207003.39</v>
+      </c>
+      <c r="C5" s="1">
+        <v>146418.4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>92469.79</v>
+      </c>
+      <c r="E5" s="1">
+        <v>132569.23000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>96241.66</v>
+      </c>
+      <c r="G5" s="1">
+        <v>69045.48</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16050.17</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7522.3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>32300</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:K6" si="0">B4-B5</f>
+        <v>12207.869999999995</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>-25.470000000001164</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>25.470000000001164</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>29992.50999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>29996.289999999994</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>29677.690000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>9732.5700000000015</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>24771.02</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>35300</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>17300</v>
+      </c>
+      <c r="L6" s="1">
+        <f>L4-L5</f>
+        <v>100</v>
+      </c>
+      <c r="N6" s="1">
+        <f>SUM(B6:L6)</f>
+        <v>189077.94999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13486.01</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5046.6400000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4861.92</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-10652.23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-163.32</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9587.07</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6641.03</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45.33</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2047.78</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-273.42</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <f>SUM(B7:M7)</f>
+        <v>30624.300000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-5.47</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-1.58</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.64</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-4.75</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="G9" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7.68</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-6.44</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1.59</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="N12" s="1">
+        <v>189077.95</v>
+      </c>
+      <c r="O12">
+        <v>30624.35</v>
+      </c>
+      <c r="P12">
+        <f>O12/N12*100</f>
+        <v>16.196679729180477</v>
+      </c>
+      <c r="Q12">
+        <v>15.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="26" r:id="rId1"/>
+    <sheet name="sql计算" sheetId="26" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="27" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="28" r:id="rId3"/>
     <sheet name="每月" sheetId="29" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>收益走势</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -70,13 +70,26 @@
     <t>基金资产</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
+  <si>
+    <t>上期基金持仓</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日收益</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日收益率</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1105,7 +1118,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1119,6 +1132,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1555,281 +1574,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="5" max="5" width="8.7265625" style="6"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1">
-        <v>522.27</v>
-      </c>
-      <c r="B1">
-        <v>508.69</v>
-      </c>
-      <c r="C1">
-        <v>5.4436</v>
-      </c>
-      <c r="D1">
-        <f>SUM(B1:C1)</f>
-        <v>514.1336</v>
-      </c>
-      <c r="E1">
-        <f>A1-C1</f>
-        <v>516.82640000000004</v>
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>427.41</v>
-      </c>
-      <c r="B2">
-        <v>421.98</v>
-      </c>
-      <c r="C2">
-        <v>5.4253</v>
+        <v>194013.76</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D6" si="0">SUM(B2:C2)</f>
-        <v>427.40530000000001</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E6" si="1">A2-C2</f>
-        <v>421.98470000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>-1693.14</v>
-      </c>
-      <c r="B3">
-        <v>-1698.57</v>
-      </c>
-      <c r="C3">
-        <v>4.5366999999999997</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>-1694.0332999999998</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="1"/>
-        <v>-1697.6767000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>511.58</v>
-      </c>
-      <c r="B4">
-        <v>507.05</v>
-      </c>
-      <c r="C4">
-        <v>3.3597999999999999</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>510.40980000000002</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>508.22019999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>-1423.33</v>
-      </c>
-      <c r="B5">
-        <v>-1422.82</v>
-      </c>
-      <c r="C5">
-        <v>3.8771</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-1418.9429</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>-1427.2070999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>3.35</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>3.3532999999999999</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>3.3532999999999999</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>-3.2999999999998586E-3</v>
+        <v>3167.96</v>
+      </c>
+      <c r="E2" s="6">
+        <f>D2/A2*100</f>
+        <v>1.6328532574184429</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
-        <v>-99.14</v>
-      </c>
-      <c r="B12">
-        <v>150000</v>
-      </c>
-      <c r="C12" s="1">
-        <f>A12/B12*100</f>
-        <v>-6.6093333333333337E-2</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
-        <v>702.92</v>
-      </c>
-      <c r="B13">
-        <v>150000</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" ref="C13:C24" si="2">A13/B13*100</f>
-        <v>0.46861333333333333</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
-        <v>-4093.66</v>
-      </c>
-      <c r="B14">
-        <v>150000</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="2"/>
-        <v>-2.7291066666666666</v>
-      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
-        <v>-2853.41</v>
-      </c>
-      <c r="B15">
-        <v>150000</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.9022733333333333</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
-        <v>4991.75</v>
-      </c>
-      <c r="B16">
-        <v>150000</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="2"/>
-        <v>3.3278333333333334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>150000</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>150000</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>-298.16000000000003</v>
-      </c>
-      <c r="B19">
-        <v>150000</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.19877333333333333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>3046.18</v>
-      </c>
-      <c r="B20">
-        <v>150000</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0307866666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>409.42</v>
-      </c>
-      <c r="B21">
-        <v>150000</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="2"/>
-        <v>0.27294666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>2290.69</v>
-      </c>
-      <c r="B22">
-        <v>150000</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5271266666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>1685.32</v>
-      </c>
-      <c r="B23">
-        <v>150000</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="2"/>
-        <v>1.1235466666666665</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>155162.74</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
@@ -1947,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -2353,5 +2167,6 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1604,6 +1604,18 @@
       <c r="E2" s="6">
         <f>D2/A2*100</f>
         <v>1.6328532574184429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>197281.73</v>
+      </c>
+      <c r="D3">
+        <v>3490.6</v>
+      </c>
+      <c r="E3" s="6">
+        <f>D3/A3*100</f>
+        <v>1.7693478255690478</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1616,6 +1616,18 @@
       <c r="E3" s="6">
         <f>D3/A3*100</f>
         <v>1.7693478255690478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>185730.9</v>
+      </c>
+      <c r="D4">
+        <v>460.8</v>
+      </c>
+      <c r="E4" s="6">
+        <f>D4/A4*100</f>
+        <v>0.24810088143652995</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1628,6 +1628,18 @@
       <c r="E4" s="6">
         <f>D4/A4*100</f>
         <v>0.24810088143652995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>185664.2</v>
+      </c>
+      <c r="D5">
+        <v>1474.72</v>
+      </c>
+      <c r="E5" s="6">
+        <f>D5/A5*100</f>
+        <v>0.79429421503984066</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1572,114 +1572,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" width="8.7265625" style="6"/>
+    <col min="6" max="6" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" spans="2:6">
+      <c r="B2">
         <v>194013.76</v>
       </c>
-      <c r="D2">
-        <v>3167.96</v>
-      </c>
-      <c r="E2" s="6">
-        <f>D2/A2*100</f>
-        <v>1.6328532574184429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="E2">
+        <v>3173.17</v>
+      </c>
+      <c r="F2" s="6">
+        <f>E2/B2*100</f>
+        <v>1.6355386339608078</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3">
         <v>197281.73</v>
       </c>
-      <c r="D3">
-        <v>3490.6</v>
-      </c>
-      <c r="E3" s="6">
-        <f>D3/A3*100</f>
-        <v>1.7693478255690478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="E3">
+        <v>3491.77</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F5" si="0">E3/B3*100</f>
+        <v>1.7699408860617758</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4">
         <v>185730.9</v>
       </c>
-      <c r="D4">
-        <v>460.8</v>
-      </c>
-      <c r="E4" s="6">
-        <f>D4/A4*100</f>
-        <v>0.24810088143652995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="E4">
+        <v>462.04</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.24876851401678451</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
         <v>185664.2</v>
       </c>
-      <c r="D5">
-        <v>1474.72</v>
-      </c>
-      <c r="E5" s="6">
-        <f>D5/A5*100</f>
-        <v>0.79429421503984066</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="1"/>
+      <c r="E5">
+        <v>1476.54</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.79527447940960072</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6">
+        <v>185188.2</v>
+      </c>
+      <c r="E6">
+        <v>-203.04</v>
+      </c>
+      <c r="F6" s="6">
+        <f>E6/B6*100</f>
+        <v>-0.10963981506381074</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <f>SUM(B2:B6)/5</f>
+        <v>189575.758</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E2:E6)</f>
+        <v>8400.48</v>
+      </c>
+      <c r="F7" s="6">
+        <f>E7/B7*100</f>
+        <v>4.4311994785746815</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>收益走势</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>今日收益率</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1572,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1583,7 +1587,10 @@
     <col min="6" max="6" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1601,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>222851.84</v>
+      </c>
       <c r="B2">
         <v>194013.76</v>
       </c>
@@ -1606,7 +1616,10 @@
         <v>1.6355386339608078</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>226343.62</v>
+      </c>
       <c r="B3">
         <v>197281.73</v>
       </c>
@@ -1618,7 +1631,10 @@
         <v>1.7699408860617758</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>226805.66</v>
+      </c>
       <c r="B4">
         <v>185730.9</v>
       </c>
@@ -1630,7 +1646,10 @@
         <v>0.24876851401678451</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>228282.2</v>
+      </c>
       <c r="B5">
         <v>185664.2</v>
       </c>
@@ -1642,7 +1661,10 @@
         <v>0.79527447940960072</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>228079.17</v>
+      </c>
       <c r="B6">
         <v>185188.2</v>
       </c>
@@ -1654,7 +1676,11 @@
         <v>-0.10963981506381074</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f>SUM(A2:A6)/5</f>
+        <v>226472.49799999999</v>
+      </c>
       <c r="B7">
         <f>SUM(B2:B6)/5</f>
         <v>189575.758</v>
@@ -1668,19 +1694,19 @@
         <v>4.4311994785746815</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:6">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="1:6">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:6">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="1:6">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="1:6">
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="4:4">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1692,6 +1692,21 @@
       <c r="F7" s="6">
         <f>E7/B7*100</f>
         <v>4.4311994785746815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>185016.92</v>
+      </c>
+      <c r="B9">
+        <v>185517.14</v>
+      </c>
+      <c r="E9">
+        <v>-935.62</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" ref="F8:F9" si="1">E9/B9*100</f>
+        <v>-0.50433075887219903</v>
       </c>
     </row>
     <row r="12" spans="1:6">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1705,8 +1705,20 @@
         <v>-935.62</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F8:F9" si="1">E9/B9*100</f>
+        <f t="shared" ref="F9:F10" si="1">E9/B9*100</f>
         <v>-0.50433075887219903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10">
+        <v>185016.92</v>
+      </c>
+      <c r="E10">
+        <v>4420.7</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3893490389960008</v>
       </c>
     </row>
     <row r="12" spans="1:6">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1122,7 +1122,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,6 +1142,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,189 +1579,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="6" max="6" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>44200</v>
+      </c>
+      <c r="C2">
         <v>222851.84</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>194013.76</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>3173.17</v>
       </c>
-      <c r="F2" s="6">
-        <f>E2/B2*100</f>
+      <c r="H2" s="6">
+        <f>G2/D2*100</f>
         <v>1.6355386339608078</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" s="7">
+        <v>44201</v>
+      </c>
+      <c r="C3">
         <v>226343.62</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>197281.73</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>3491.77</v>
       </c>
-      <c r="F3" s="6">
-        <f t="shared" ref="F3:F5" si="0">E3/B3*100</f>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H5" si="0">G3/D3*100</f>
         <v>1.7699408860617758</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+    <row r="4" spans="1:8">
+      <c r="A4" s="7">
+        <v>44202</v>
+      </c>
+      <c r="C4">
         <v>226805.66</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>185730.9</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>462.04</v>
       </c>
-      <c r="F4" s="6">
+      <c r="H4" s="6">
         <f t="shared" si="0"/>
         <v>0.24876851401678451</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+    <row r="5" spans="1:8">
+      <c r="A5" s="7">
+        <v>44203</v>
+      </c>
+      <c r="C5">
         <v>228282.2</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>185664.2</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1476.54</v>
       </c>
-      <c r="F5" s="6">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>0.79527447940960072</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+    <row r="6" spans="1:8">
+      <c r="A6" s="7">
+        <v>44204</v>
+      </c>
+      <c r="C6">
         <v>228079.17</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>185188.2</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>-203.04</v>
       </c>
-      <c r="F6" s="6">
-        <f>E6/B6*100</f>
+      <c r="H6" s="6">
+        <f>G6/D6*100</f>
         <v>-0.10963981506381074</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <f>SUM(A2:A6)/5</f>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7">
+        <v>44204</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)/5</f>
         <v>226472.49799999999</v>
       </c>
-      <c r="B7">
-        <f>SUM(B2:B6)/5</f>
+      <c r="D7">
+        <f>SUM(D2:D6)/5</f>
         <v>189575.758</v>
       </c>
-      <c r="E7">
-        <f>SUM(E2:E6)</f>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
         <v>8400.48</v>
       </c>
-      <c r="F7" s="6">
-        <f>E7/B7*100</f>
+      <c r="H7" s="6">
+        <f>G7/D7*100</f>
         <v>4.4311994785746815</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
+        <v>44207</v>
+      </c>
+      <c r="C9">
         <v>185016.92</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>185517.14</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>-935.62</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" ref="F9:F10" si="1">E9/B9*100</f>
+      <c r="H9" s="6">
+        <f t="shared" ref="H9:H13" si="1">G9/D9*100</f>
         <v>-0.50433075887219903</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10">
+    <row r="10" spans="1:8">
+      <c r="A10" s="7">
+        <v>44208</v>
+      </c>
+      <c r="C10">
+        <v>176713.29</v>
+      </c>
+      <c r="D10">
         <v>185016.92</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>4420.7</v>
       </c>
-      <c r="F10" s="6">
+      <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>2.3893490389960008</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="1"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
+        <v>44209</v>
+      </c>
+      <c r="C11">
+        <v>173637.16</v>
+      </c>
+      <c r="D11">
+        <v>176713.29</v>
+      </c>
+      <c r="G11">
+        <v>-422.3</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.23897466908119924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7">
+        <v>44210</v>
+      </c>
+      <c r="C12">
+        <v>169616.79</v>
+      </c>
+      <c r="D12">
+        <v>173637.16</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12">
+        <v>-1816.05</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.0458878733100678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7">
+        <v>44211</v>
+      </c>
+      <c r="B13">
+        <v>238882.29</v>
+      </c>
+      <c r="C13">
+        <v>162555.70000000001</v>
+      </c>
+      <c r="D13">
+        <v>169616.79</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13">
+        <v>-468.66</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.27630519360730738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7">
+        <v>44211</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C9:C13)/5</f>
+        <v>173507.97200000001</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D9:D13)/5</f>
+        <v>178100.26000000004</v>
+      </c>
+      <c r="G14">
+        <f>SUM(G9:G13)</f>
+        <v>778.06999999999971</v>
+      </c>
+      <c r="H14" s="6">
+        <f>G14/D14*100</f>
+        <v>0.43687190574567358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24" s="1"/>
+      <c r="G24">
+        <f>SUM(G7,G14)</f>
+        <v>9178.5499999999993</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1579,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1833,35 +1833,70 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="F15" s="1"/>
+      <c r="A15" s="7"/>
     </row>
     <row r="16" spans="1:8">
+      <c r="B16">
+        <v>242193.92000000001</v>
+      </c>
+      <c r="C16">
+        <v>164916.76999999999</v>
+      </c>
+      <c r="D16">
+        <v>162555.70000000001</v>
+      </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:7">
+      <c r="G16">
+        <v>3587.65</v>
+      </c>
+      <c r="H16" s="6">
+        <f>G16/D16*100</f>
+        <v>2.2070281140556745</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
+        <v>240002.07</v>
+      </c>
+      <c r="C17">
+        <v>137122.72</v>
+      </c>
+      <c r="D17">
+        <v>164916.76999999999</v>
+      </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:7">
+      <c r="G17">
+        <v>-2191.9</v>
+      </c>
+      <c r="H17" s="6">
+        <f>G17/D17*100</f>
+        <v>-1.3290946699962656</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="2:8">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="2:8">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="2:8">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="2:8">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="2:8">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" spans="2:8">
       <c r="F24" s="1"/>
-      <c r="G24">
+    </row>
+    <row r="25" spans="2:8">
+      <c r="F25" s="1"/>
+      <c r="G25">
         <f>SUM(G7,G14)</f>
         <v>9178.5499999999993</v>
       </c>
@@ -1983,7 +2018,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1993,6 +2028,7 @@
     <col min="8" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.26953125" customWidth="1"/>
     <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -2285,6 +2321,10 @@
       <c r="N7" s="1">
         <f>SUM(B7:M7)</f>
         <v>30624.300000000003</v>
+      </c>
+      <c r="O7" s="1">
+        <f>SUM(B7,C7,D7)/3</f>
+        <v>7798.19</v>
       </c>
     </row>
     <row r="8" spans="1:17">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sql计算" sheetId="26" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="27" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="28" r:id="rId3"/>
     <sheet name="每月" sheetId="29" r:id="rId4"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>收益走势</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -84,6 +85,18 @@
   </si>
   <si>
     <t>总金额</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>份额</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>每份分红</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1581,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1874,7 +1887,23 @@
       </c>
     </row>
     <row r="18" spans="2:8">
+      <c r="B18">
+        <v>241718.73</v>
+      </c>
+      <c r="C18">
+        <v>142333.87</v>
+      </c>
+      <c r="D18">
+        <v>137122.72</v>
+      </c>
       <c r="F18" s="1"/>
+      <c r="G18">
+        <v>1711.15</v>
+      </c>
+      <c r="H18" s="6">
+        <f>G18/D18*100</f>
+        <v>1.247896774509724</v>
+      </c>
     </row>
     <row r="19" spans="2:8">
       <c r="F19" s="1"/>
@@ -2430,4 +2459,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>149.97</v>
+      </c>
+      <c r="B2">
+        <v>3.5310000000000001E-2</v>
+      </c>
+      <c r="C2">
+        <f>A2*B2</f>
+        <v>5.2954407000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>447.09</v>
+      </c>
+      <c r="B3">
+        <v>3.5310000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="0">A3*B3</f>
+        <v>15.7867479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>608.64</v>
+      </c>
+      <c r="B4">
+        <v>3.5310000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>21.491078399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>650.20000000000005</v>
+      </c>
+      <c r="B5">
+        <v>3.5310000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>22.958562000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>505.05</v>
+      </c>
+      <c r="B6">
+        <v>3.5310000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>17.833315500000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>350.14</v>
+      </c>
+      <c r="B7">
+        <v>3.5310000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>12.3634434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <f>SUM(A2:A7)</f>
+        <v>2711.0899999999997</v>
+      </c>
+      <c r="B9">
+        <v>3.5310000000000001E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>95.728587899999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="sql计算" sheetId="26" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>收益走势</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>金额</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>原订单金额</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红后订单金额</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金持仓</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1592,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1605,8 +1617,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -1729,205 +1744,359 @@
         <v>4.4311994785746815</v>
       </c>
     </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7">
+        <v>44205</v>
+      </c>
+    </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7">
-        <v>44207</v>
-      </c>
-      <c r="C9">
-        <v>185016.92</v>
-      </c>
-      <c r="D9">
-        <v>185517.14</v>
-      </c>
-      <c r="G9">
-        <v>-935.62</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" ref="H9:H13" si="1">G9/D9*100</f>
-        <v>-0.50433075887219903</v>
+        <v>44206</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7">
+        <v>44207</v>
+      </c>
+      <c r="C10">
+        <v>185016.92</v>
+      </c>
+      <c r="D10">
+        <v>185517.14</v>
+      </c>
+      <c r="G10">
+        <v>-935.62</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" ref="H10:H14" si="1">G10/D10*100</f>
+        <v>-0.50433075887219903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
         <v>44208</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>176713.29</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>185016.92</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>4420.7</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>2.3893490389960008</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="7">
+    <row r="12" spans="1:8">
+      <c r="A12" s="7">
         <v>44209</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>173637.16</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>176713.29</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-422.3</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H12" s="6">
         <f t="shared" si="1"/>
         <v>-0.23897466908119924</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7">
+    <row r="13" spans="1:8">
+      <c r="A13" s="7">
         <v>44210</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>169616.79</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>173637.16</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12">
+      <c r="F13" s="1"/>
+      <c r="G13">
         <v>-1816.05</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>-1.0458878733100678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="7">
-        <v>44211</v>
-      </c>
-      <c r="B13">
-        <v>238882.29</v>
-      </c>
-      <c r="C13">
-        <v>162555.70000000001</v>
-      </c>
-      <c r="D13">
-        <v>169616.79</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13">
-        <v>-468.66</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.27630519360730738</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7">
         <v>44211</v>
       </c>
+      <c r="B14">
+        <v>238882.29</v>
+      </c>
       <c r="C14">
-        <f>SUM(C9:C13)/5</f>
+        <v>162555.70000000001</v>
+      </c>
+      <c r="D14">
+        <v>169616.79</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14">
+        <v>-468.66</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.27630519360730738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7">
+        <v>44211</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C10:C14)/5</f>
         <v>173507.97200000001</v>
       </c>
-      <c r="D14">
-        <f>SUM(D9:D13)/5</f>
+      <c r="D15">
+        <f>SUM(D10:D14)/5</f>
         <v>178100.26000000004</v>
       </c>
-      <c r="G14">
-        <f>SUM(G9:G13)</f>
+      <c r="G15">
+        <f>SUM(G10:G14)</f>
         <v>778.06999999999971</v>
       </c>
-      <c r="H14" s="6">
-        <f>G14/D14*100</f>
+      <c r="H15" s="6">
+        <f>G15/D15*100</f>
         <v>0.43687190574567358</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="7"/>
-    </row>
     <row r="16" spans="1:8">
-      <c r="B16">
+      <c r="A16" s="7">
+        <v>44212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
+        <v>44213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7">
+        <v>44214</v>
+      </c>
+      <c r="B18">
         <v>242193.92000000001</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>164916.76999999999</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>162555.70000000001</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16">
-        <v>3587.65</v>
-      </c>
-      <c r="H16" s="6">
-        <f>G16/D16*100</f>
-        <v>2.2070281140556745</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17">
-        <v>240002.07</v>
-      </c>
-      <c r="C17">
-        <v>137122.72</v>
-      </c>
-      <c r="D17">
-        <v>164916.76999999999</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17">
-        <v>-2191.9</v>
-      </c>
-      <c r="H17" s="6">
-        <f>G17/D17*100</f>
-        <v>-1.3290946699962656</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18">
-        <v>241718.73</v>
-      </c>
-      <c r="C18">
-        <v>142333.87</v>
-      </c>
-      <c r="D18">
-        <v>137122.72</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18">
+        <v>3587.65</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" ref="H18:H27" si="2">G18/D18*100</f>
+        <v>2.2070281140556745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>44215</v>
+      </c>
+      <c r="B19">
+        <v>240002.07</v>
+      </c>
+      <c r="C19">
+        <v>137122.72</v>
+      </c>
+      <c r="D19">
+        <v>164916.76999999999</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19">
+        <v>-2191.9</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.3290946699962656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7">
+        <v>44216</v>
+      </c>
+      <c r="B20">
+        <v>241718.73</v>
+      </c>
+      <c r="C20">
+        <v>142333.87</v>
+      </c>
+      <c r="D20">
+        <v>137122.72</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20">
         <v>1711.15</v>
       </c>
-      <c r="H18" s="6">
-        <f>G18/D18*100</f>
+      <c r="H20" s="6">
+        <f t="shared" si="2"/>
         <v>1.247896774509724</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="1:8">
+      <c r="A21" s="7">
+        <v>44217</v>
+      </c>
+      <c r="B21">
+        <v>243467.46</v>
+      </c>
+      <c r="C21">
+        <v>140551.12</v>
+      </c>
+      <c r="D21">
+        <v>142333.87</v>
+      </c>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="G21">
+        <v>1743.95</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2252529914348567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7">
+        <v>44218</v>
+      </c>
+      <c r="B22">
+        <v>243565.09</v>
+      </c>
+      <c r="C22">
+        <v>135733.26</v>
+      </c>
+      <c r="D22">
+        <v>140551.12</v>
+      </c>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="G22">
+        <v>92.55</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="2"/>
+        <v>6.5847927785989899E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7"/>
+      <c r="B23">
+        <f>SUM(B18:B22)/5</f>
+        <v>242189.454</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C18:C22)/5</f>
+        <v>144131.54800000001</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D18:D22)/5</f>
+        <v>149496.03599999999</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G18:G22)</f>
+        <v>4943.4000000000005</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="2"/>
+        <v>3.3067097511535359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7">
+        <v>44219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7">
+        <v>44220</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25">
-        <f>SUM(G7,G14)</f>
-        <v>9178.5499999999993</v>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7">
+        <v>44221</v>
+      </c>
+      <c r="B26">
+        <v>244251.64</v>
+      </c>
+      <c r="C26">
+        <v>136405.26</v>
+      </c>
+      <c r="D26">
+        <v>144131.54800000001</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26">
+        <v>679.48</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.47143044630312303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7">
+        <v>44222</v>
+      </c>
+      <c r="B27">
+        <v>241479.45</v>
+      </c>
+      <c r="C27">
+        <v>150888.88</v>
+      </c>
+      <c r="D27">
+        <v>136405.26</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27">
+        <v>-2782.19</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="2"/>
+        <v>-2.0396500838750646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7">
+        <v>44223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7">
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33">
+        <f>SUM(G7,G15,G23)</f>
+        <v>14121.95</v>
       </c>
     </row>
   </sheetData>
@@ -2463,15 +2632,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -2481,94 +2650,168 @@
       <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>149.97</v>
+        <v>186</v>
       </c>
       <c r="B2">
-        <v>3.5310000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C2">
         <f>A2*B2</f>
-        <v>5.2954407000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>490.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>447.09</v>
+        <v>363.01</v>
       </c>
       <c r="B3">
-        <v>3.5310000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C9" si="0">A3*B3</f>
-        <v>15.7867479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>18.150500000000001</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="1">D3-C3</f>
+        <v>981.84950000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>608.64</v>
+        <v>369.84</v>
       </c>
       <c r="B4">
-        <v>3.5310000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>21.491078399999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>18.492000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>981.50800000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>650.20000000000005</v>
+        <v>368.28</v>
       </c>
       <c r="B5">
-        <v>3.5310000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>22.958562000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>18.413999999999998</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>981.58600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>505.05</v>
+        <v>816.75</v>
       </c>
       <c r="B6">
-        <v>3.5310000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>17.833315500000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>40.837500000000006</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1959.1624999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
-        <v>350.14</v>
+        <v>638.27</v>
       </c>
       <c r="B7">
-        <v>3.5310000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>12.3634434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>31.913499999999999</v>
+      </c>
+      <c r="D7">
+        <v>1500</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1468.0864999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>421.67</v>
+      </c>
+      <c r="B8">
+        <v>0.05</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>21.083500000000001</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>978.91650000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
-        <f>SUM(A2:A7)</f>
-        <v>2711.0899999999997</v>
+        <v>631.91999999999996</v>
       </c>
       <c r="B9">
-        <v>3.5310000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>95.728587899999994</v>
+        <v>31.596</v>
+      </c>
+      <c r="D9">
+        <v>1500</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1468.404</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1607,7 +1607,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1898,7 +1898,7 @@
         <v>3587.65</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" ref="H18:H27" si="2">G18/D18*100</f>
+        <f t="shared" ref="H18:H28" si="2">G18/D18*100</f>
         <v>2.2070281140556745</v>
       </c>
     </row>
@@ -2071,6 +2071,22 @@
     <row r="28" spans="1:8">
       <c r="A28" s="7">
         <v>44223</v>
+      </c>
+      <c r="B28">
+        <v>242182.63</v>
+      </c>
+      <c r="C28">
+        <v>154085.84</v>
+      </c>
+      <c r="D28">
+        <v>150888.88</v>
+      </c>
+      <c r="G28">
+        <v>696.96</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="2"/>
+        <v>0.46190282544346545</v>
       </c>
     </row>
     <row r="29" spans="1:8">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1607,7 +1607,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1898,7 +1898,7 @@
         <v>3587.65</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" ref="H18:H28" si="2">G18/D18*100</f>
+        <f t="shared" ref="H18:H29" si="2">G18/D18*100</f>
         <v>2.2070281140556745</v>
       </c>
     </row>
@@ -2092,6 +2092,22 @@
     <row r="29" spans="1:8">
       <c r="A29" s="7">
         <v>44224</v>
+      </c>
+      <c r="B29">
+        <v>237857.53</v>
+      </c>
+      <c r="C29">
+        <v>157103.31</v>
+      </c>
+      <c r="D29">
+        <v>154085.84</v>
+      </c>
+      <c r="G29">
+        <v>-4356.6899999999996</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="2"/>
+        <v>-2.8274434561929893</v>
       </c>
     </row>
     <row r="30" spans="1:8">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1604,16 +1604,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="6"/>
+    <col min="8" max="8" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1898,7 +1898,7 @@
         <v>3587.65</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" ref="H18:H29" si="2">G18/D18*100</f>
+        <f t="shared" ref="H18:H30" si="2">G18/D18*100</f>
         <v>2.2070281140556745</v>
       </c>
     </row>
@@ -2114,21 +2114,74 @@
       <c r="A30" s="7">
         <v>44225</v>
       </c>
+      <c r="B30">
+        <v>236462.25</v>
+      </c>
+      <c r="C30">
+        <v>162701.5</v>
+      </c>
+      <c r="D30">
+        <v>157103.31</v>
+      </c>
+      <c r="G30">
+        <v>-1395.67</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.88837720860241576</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7">
-        <v>44226</v>
+      <c r="A31" s="7"/>
+      <c r="B31">
+        <f>SUM(B26:B30)/5</f>
+        <v>240446.7</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C26:C30)/5</f>
+        <v>152236.95800000001</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D26:D30)/5</f>
+        <v>148522.9676</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G26:G30)</f>
+        <v>-7158.11</v>
+      </c>
+      <c r="H31" s="6">
+        <f>G31/D30*100</f>
+        <v>-4.5563075660213652</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7">
         <v>44227</v>
       </c>
     </row>
-    <row r="33" spans="7:7">
-      <c r="G33">
-        <f>SUM(G7,G15,G23)</f>
-        <v>14121.95</v>
+    <row r="34" spans="1:8">
+      <c r="B34">
+        <v>236462.25</v>
+      </c>
+      <c r="C34" s="2">
+        <f>SUM(C7,C15,C23,C31)/4</f>
+        <v>174087.24399999998</v>
+      </c>
+      <c r="D34">
+        <v>192519.69</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G7,G15,G23,G31)</f>
+        <v>6963.8400000000011</v>
+      </c>
+      <c r="H34" s="6">
+        <f>G34/C34*100</f>
+        <v>4.0002011864809592</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -7,34 +7,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="sql计算" sheetId="26" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="27" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="28" r:id="rId3"/>
-    <sheet name="每月" sheetId="29" r:id="rId4"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId5"/>
+    <sheet name="2101" sheetId="26" r:id="rId1"/>
+    <sheet name="每月" sheetId="29" r:id="rId2"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>收益走势</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计流入</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>天数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1147,7 +1129,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,9 +1137,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1604,37 +1583,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="7">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6">
         <v>44200</v>
       </c>
       <c r="C2">
@@ -1643,16 +1624,23 @@
       <c r="D2">
         <v>194013.76</v>
       </c>
+      <c r="F2" s="1">
+        <f>G2+H2</f>
+        <v>3173.17</v>
+      </c>
       <c r="G2">
-        <v>3173.17</v>
-      </c>
-      <c r="H2" s="6">
+        <v>3167.96</v>
+      </c>
+      <c r="H2">
+        <v>5.21</v>
+      </c>
+      <c r="I2" s="5">
         <f>G2/D2*100</f>
-        <v>1.6355386339608078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="7">
+        <v>1.6328532574184429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6">
         <v>44201</v>
       </c>
       <c r="C3">
@@ -1661,16 +1649,23 @@
       <c r="D3">
         <v>197281.73</v>
       </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F7" si="0">G3+H3</f>
+        <v>3491.77</v>
+      </c>
       <c r="G3">
-        <v>3491.77</v>
-      </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H5" si="0">G3/D3*100</f>
-        <v>1.7699408860617758</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7">
+        <v>3490.6</v>
+      </c>
+      <c r="H3">
+        <v>1.17</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I5" si="1">G3/D3*100</f>
+        <v>1.7693478255690478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6">
         <v>44202</v>
       </c>
       <c r="C4">
@@ -1679,16 +1674,23 @@
       <c r="D4">
         <v>185730.9</v>
       </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>462.04</v>
+      </c>
       <c r="G4">
-        <v>462.04</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24876851401678451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="7">
+        <v>460.8</v>
+      </c>
+      <c r="H4">
+        <v>1.24</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.24810088143652995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6">
         <v>44203</v>
       </c>
       <c r="C5">
@@ -1697,16 +1699,23 @@
       <c r="D5">
         <v>185664.2</v>
       </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>1476.54</v>
+      </c>
       <c r="G5">
-        <v>1476.54</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.79527447940960072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7">
+        <v>1474.72</v>
+      </c>
+      <c r="H5">
+        <v>1.82</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.79429421503984066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6">
         <v>44204</v>
       </c>
       <c r="C6">
@@ -1715,16 +1724,23 @@
       <c r="D6">
         <v>185188.2</v>
       </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>-203.04000000000002</v>
+      </c>
       <c r="G6">
-        <v>-203.04</v>
-      </c>
-      <c r="H6" s="6">
+        <v>-204.83</v>
+      </c>
+      <c r="H6">
+        <v>1.79</v>
+      </c>
+      <c r="I6" s="5">
         <f>G6/D6*100</f>
-        <v>-0.10963981506381074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="7">
+        <v>-0.11060639932781895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6">
         <v>44204</v>
       </c>
       <c r="C7">
@@ -1735,27 +1751,35 @@
         <f>SUM(D2:D6)/5</f>
         <v>189575.758</v>
       </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>8400.48</v>
+      </c>
       <c r="G7">
         <f>SUM(G2:G6)</f>
-        <v>8400.48</v>
-      </c>
-      <c r="H7" s="6">
+        <v>8389.25</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>11.23</v>
+      </c>
+      <c r="I7" s="5">
         <f>G7/D7*100</f>
-        <v>4.4311994785746815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7">
+        <v>4.4252757253910069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
         <v>44205</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="7">
+    <row r="9" spans="1:9">
+      <c r="A9" s="6">
         <v>44206</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7">
+    <row r="10" spans="1:9">
+      <c r="A10" s="6">
         <v>44207</v>
       </c>
       <c r="C10">
@@ -1764,16 +1788,23 @@
       <c r="D10">
         <v>185517.14</v>
       </c>
+      <c r="F10" s="1">
+        <f>G10+H10</f>
+        <v>-919.07</v>
+      </c>
       <c r="G10">
         <v>-935.62</v>
       </c>
-      <c r="H10" s="6">
-        <f t="shared" ref="H10:H14" si="1">G10/D10*100</f>
+      <c r="H10">
+        <v>16.55</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10:I14" si="2">G10/D10*100</f>
         <v>-0.50433075887219903</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="7">
+    <row r="11" spans="1:9">
+      <c r="A11" s="6">
         <v>44208</v>
       </c>
       <c r="C11">
@@ -1782,16 +1813,23 @@
       <c r="D11">
         <v>185016.92</v>
       </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:F15" si="3">G11+H11</f>
+        <v>4422.71</v>
+      </c>
       <c r="G11">
         <v>4420.7</v>
       </c>
-      <c r="H11" s="6">
-        <f t="shared" si="1"/>
+      <c r="H11">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
         <v>2.3893490389960008</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7">
+    <row r="12" spans="1:9">
+      <c r="A12" s="6">
         <v>44209</v>
       </c>
       <c r="C12">
@@ -1800,16 +1838,23 @@
       <c r="D12">
         <v>176713.29</v>
       </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>-420.3</v>
+      </c>
       <c r="G12">
         <v>-422.3</v>
       </c>
-      <c r="H12" s="6">
-        <f t="shared" si="1"/>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
         <v>-0.23897466908119924</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="7">
+    <row r="13" spans="1:9">
+      <c r="A13" s="6">
         <v>44210</v>
       </c>
       <c r="C13">
@@ -1818,17 +1863,23 @@
       <c r="D13">
         <v>173637.16</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>-1814.05</v>
+      </c>
       <c r="G13">
         <v>-1816.05</v>
       </c>
-      <c r="H13" s="6">
-        <f t="shared" si="1"/>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
         <v>-1.0458878733100678</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="7">
+    <row r="14" spans="1:9">
+      <c r="A14" s="6">
         <v>44211</v>
       </c>
       <c r="B14">
@@ -1840,17 +1891,23 @@
       <c r="D14">
         <v>169616.79</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>-466.19</v>
+      </c>
       <c r="G14">
         <v>-468.66</v>
       </c>
-      <c r="H14" s="6">
-        <f t="shared" si="1"/>
+      <c r="H14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
         <v>-0.27630519360730738</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="7">
+    <row r="15" spans="1:9">
+      <c r="A15" s="6">
         <v>44211</v>
       </c>
       <c r="C15">
@@ -1861,27 +1918,35 @@
         <f>SUM(D10:D14)/5</f>
         <v>178100.26000000004</v>
       </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>803.09999999999968</v>
+      </c>
       <c r="G15">
         <f>SUM(G10:G14)</f>
         <v>778.06999999999971</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
+        <f>SUM(H10:H14)</f>
+        <v>25.03</v>
+      </c>
+      <c r="I15" s="5">
         <f>G15/D15*100</f>
         <v>0.43687190574567358</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7">
+    <row r="16" spans="1:9">
+      <c r="A16" s="6">
         <v>44212</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="7">
+    <row r="17" spans="1:9">
+      <c r="A17" s="6">
         <v>44213</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="7">
+    <row r="18" spans="1:9">
+      <c r="A18" s="6">
         <v>44214</v>
       </c>
       <c r="B18">
@@ -1893,17 +1958,23 @@
       <c r="D18">
         <v>162555.70000000001</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <f>G18+H18</f>
+        <v>3311.6299999999997</v>
+      </c>
       <c r="G18">
-        <v>3587.65</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" ref="H18:H30" si="2">G18/D18*100</f>
-        <v>2.2070281140556745</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="7">
+        <v>3302.14</v>
+      </c>
+      <c r="H18">
+        <v>9.49</v>
+      </c>
+      <c r="I18" s="5">
+        <f>G18/D18*100</f>
+        <v>2.0313898559078516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6">
         <v>44215</v>
       </c>
       <c r="B19">
@@ -1915,17 +1986,23 @@
       <c r="D19">
         <v>164916.76999999999</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19:F23" si="4">G19+H19</f>
+        <v>-1906.3400000000001</v>
+      </c>
       <c r="G19">
-        <v>-2191.9</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="2"/>
-        <v>-1.3290946699962656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="7">
+        <v>-1909.38</v>
+      </c>
+      <c r="H19">
+        <v>3.04</v>
+      </c>
+      <c r="I19" s="5">
+        <f>G19/D19*100</f>
+        <v>-1.1577840143243165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6">
         <v>44216</v>
       </c>
       <c r="B20">
@@ -1937,17 +2014,23 @@
       <c r="D20">
         <v>137122.72</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <f t="shared" si="4"/>
+        <v>1716.66</v>
+      </c>
       <c r="G20">
         <v>1711.15</v>
       </c>
-      <c r="H20" s="6">
-        <f t="shared" si="2"/>
+      <c r="H20">
+        <v>5.51</v>
+      </c>
+      <c r="I20" s="5">
+        <f>G20/D20*100</f>
         <v>1.247896774509724</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="7">
+    <row r="21" spans="1:9">
+      <c r="A21" s="6">
         <v>44217</v>
       </c>
       <c r="B21">
@@ -1959,17 +2042,23 @@
       <c r="D21">
         <v>142333.87</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <f t="shared" si="4"/>
+        <v>1748.72</v>
+      </c>
       <c r="G21">
         <v>1743.95</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="2"/>
+      <c r="H21">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I21" s="5">
+        <f>G21/D21*100</f>
         <v>1.2252529914348567</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="7">
+    <row r="22" spans="1:9">
+      <c r="A22" s="6">
         <v>44218</v>
       </c>
       <c r="B22">
@@ -1981,17 +2070,23 @@
       <c r="D22">
         <v>140551.12</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <f t="shared" si="4"/>
+        <v>97.63</v>
+      </c>
       <c r="G22">
         <v>92.55</v>
       </c>
-      <c r="H22" s="6">
-        <f t="shared" si="2"/>
+      <c r="H22">
+        <v>5.08</v>
+      </c>
+      <c r="I22" s="5">
+        <f>G22/D22*100</f>
         <v>6.5847927785989899E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6"/>
       <c r="B23">
         <f>SUM(B18:B22)/5</f>
         <v>242189.454</v>
@@ -2004,28 +2099,36 @@
         <f>SUM(D18:D22)/5</f>
         <v>149496.03599999999</v>
       </c>
+      <c r="F23" s="1">
+        <f t="shared" si="4"/>
+        <v>4968.3</v>
+      </c>
       <c r="G23">
         <f>SUM(G18:G22)</f>
-        <v>4943.4000000000005</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="2"/>
-        <v>3.3067097511535359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="7">
+        <v>4940.41</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H18:H22)</f>
+        <v>27.89</v>
+      </c>
+      <c r="I23" s="5">
+        <f>G23/D23*100</f>
+        <v>3.304709698122029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="6">
         <v>44219</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="7">
+    <row r="25" spans="1:9">
+      <c r="A25" s="6">
         <v>44220</v>
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="7">
+    <row r="26" spans="1:9">
+      <c r="A26" s="6">
         <v>44221</v>
       </c>
       <c r="B26">
@@ -2037,17 +2140,23 @@
       <c r="D26">
         <v>144131.54800000001</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1">
+        <f>G26+H26</f>
+        <v>690.41</v>
+      </c>
       <c r="G26">
-        <v>679.48</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="2"/>
-        <v>0.47143044630312303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="7">
+        <v>671.99</v>
+      </c>
+      <c r="H26">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="I26" s="5">
+        <f>G26/D26*100</f>
+        <v>0.46623380469069819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6">
         <v>44222</v>
       </c>
       <c r="B27">
@@ -2059,17 +2168,23 @@
       <c r="D27">
         <v>136405.26</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1">
+        <f t="shared" ref="F27:F31" si="5">G27+H27</f>
+        <v>-2776.07</v>
+      </c>
       <c r="G27">
         <v>-2782.19</v>
       </c>
-      <c r="H27" s="6">
-        <f t="shared" si="2"/>
+      <c r="H27">
+        <v>6.12</v>
+      </c>
+      <c r="I27" s="5">
+        <f>G27/D27*100</f>
         <v>-2.0396500838750646</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="7">
+    <row r="28" spans="1:9">
+      <c r="A28" s="6">
         <v>44223</v>
       </c>
       <c r="B28">
@@ -2081,16 +2196,23 @@
       <c r="D28">
         <v>150888.88</v>
       </c>
+      <c r="F28" s="1">
+        <f t="shared" si="5"/>
+        <v>728.51</v>
+      </c>
       <c r="G28">
         <v>696.96</v>
       </c>
-      <c r="H28" s="6">
-        <f t="shared" si="2"/>
+      <c r="H28">
+        <v>31.55</v>
+      </c>
+      <c r="I28" s="5">
+        <f>G28/D28*100</f>
         <v>0.46190282544346545</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="7">
+    <row r="29" spans="1:9">
+      <c r="A29" s="6">
         <v>44224</v>
       </c>
       <c r="B29">
@@ -2102,16 +2224,23 @@
       <c r="D29">
         <v>154085.84</v>
       </c>
+      <c r="F29" s="1">
+        <f t="shared" si="5"/>
+        <v>-4350.4399999999996</v>
+      </c>
       <c r="G29">
         <v>-4356.6899999999996</v>
       </c>
-      <c r="H29" s="6">
-        <f t="shared" si="2"/>
+      <c r="H29">
+        <v>6.25</v>
+      </c>
+      <c r="I29" s="5">
+        <f>G29/D29*100</f>
         <v>-2.8274434561929893</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="7">
+    <row r="30" spans="1:9">
+      <c r="A30" s="6">
         <v>44225</v>
       </c>
       <c r="B30">
@@ -2123,16 +2252,23 @@
       <c r="D30">
         <v>157103.31</v>
       </c>
+      <c r="F30" s="1">
+        <f t="shared" si="5"/>
+        <v>-1395.29</v>
+      </c>
       <c r="G30">
-        <v>-1395.67</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" si="2"/>
-        <v>-0.88837720860241576</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="7"/>
+        <v>-1401.82</v>
+      </c>
+      <c r="H30">
+        <v>6.53</v>
+      </c>
+      <c r="I30" s="5">
+        <f>G30/D30*100</f>
+        <v>-0.89229183013394175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="6"/>
       <c r="B31">
         <f>SUM(B26:B30)/5</f>
         <v>240446.7</v>
@@ -2145,43 +2281,215 @@
         <f>SUM(D26:D30)/5</f>
         <v>148522.9676</v>
       </c>
+      <c r="F31" s="1">
+        <f t="shared" si="5"/>
+        <v>-7102.8799999999992</v>
+      </c>
       <c r="G31">
         <f>SUM(G26:G30)</f>
-        <v>-7158.11</v>
-      </c>
-      <c r="H31" s="6">
+        <v>-7171.7499999999991</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H26:H30)</f>
+        <v>68.87</v>
+      </c>
+      <c r="I31" s="5">
         <f>G31/D30*100</f>
-        <v>-4.5563075660213652</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="7">
+        <v>-4.5649897510116109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6">
         <v>44226</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="7">
+    <row r="33" spans="1:9">
+      <c r="A33" s="6">
         <v>44227</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="B34">
         <v>236462.25</v>
       </c>
       <c r="C34" s="2">
-        <f>SUM(C7,C15,C23,C31)/4</f>
+        <f>SUM(C2,C3,C4,C5,C6,C10,C11,C12,C13,C14,C18,C19,C20,C21,C22,C26,C27,C28,C29,C30)/20</f>
         <v>174087.24399999998</v>
       </c>
       <c r="D34">
         <v>192519.69</v>
       </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34" si="6">G34+H34</f>
+        <v>7069.0000000000009</v>
+      </c>
       <c r="G34">
         <f>SUM(G7,G15,G23,G31)</f>
-        <v>6963.8400000000011</v>
-      </c>
-      <c r="H34" s="6">
+        <v>6935.9800000000005</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H7,H15,H23,H31)</f>
+        <v>133.02000000000001</v>
+      </c>
+      <c r="I34" s="5">
         <f>G34/C34*100</f>
-        <v>4.0002011864809592</v>
+        <v>3.9841977164047706</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="D37">
+        <f>G37*100/I37</f>
+        <v>214572.39165329051</v>
+      </c>
+      <c r="G37">
+        <v>13367.86</v>
+      </c>
+      <c r="I37" s="5">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="D39">
+        <v>97.49</v>
+      </c>
+      <c r="G39">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="I39" s="5">
+        <f>G39/D39*100</f>
+        <v>-2.5746230382603343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="D40">
+        <v>17124.080000000002</v>
+      </c>
+      <c r="G40">
+        <v>-273.42</v>
+      </c>
+      <c r="I40" s="5">
+        <f>G40/D40*100</f>
+        <v>-1.5966989175476871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="D41">
+        <v>54471.86</v>
+      </c>
+      <c r="G41">
+        <v>2047.78</v>
+      </c>
+      <c r="I41" s="5">
+        <f>G41/D41*100</f>
+        <v>3.7593355541742106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="D42">
+        <v>79288.210000000006</v>
+      </c>
+      <c r="G42">
+        <v>45.33</v>
+      </c>
+      <c r="I42" s="5">
+        <f>G42/D42*100</f>
+        <v>5.7171173368650893E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="D43">
+        <v>95661.82</v>
+      </c>
+      <c r="G43">
+        <v>6641.03</v>
+      </c>
+      <c r="I43" s="5">
+        <f>G43/D43*100</f>
+        <v>6.9421949111986363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="D44">
+        <v>134926.57999999999</v>
+      </c>
+      <c r="G44">
+        <v>9587.07</v>
+      </c>
+      <c r="I44" s="5">
+        <f>G44/D44*100</f>
+        <v>7.1053976169854742</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="D45">
+        <v>164759.56</v>
+      </c>
+      <c r="G45">
+        <v>-163.32</v>
+      </c>
+      <c r="I45" s="5">
+        <f>G45/D45*100</f>
+        <v>-9.9126266178423891E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="D46">
+        <v>184099.85</v>
+      </c>
+      <c r="G46">
+        <v>-10652.23</v>
+      </c>
+      <c r="I46" s="5">
+        <f>G46/D46*100</f>
+        <v>-5.7861155237225885</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="D47">
+        <v>188987.24</v>
+      </c>
+      <c r="G47">
+        <v>4861.92</v>
+      </c>
+      <c r="I47" s="5">
+        <f>G47/D47*100</f>
+        <v>2.5726181301975735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="D48">
+        <v>188987.24</v>
+      </c>
+      <c r="G48">
+        <v>5046.6400000000003</v>
+      </c>
+      <c r="I48" s="5">
+        <f>G48/D48*100</f>
+        <v>2.6703601788141889</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9">
+      <c r="D49">
+        <v>214572.39170000001</v>
+      </c>
+      <c r="G49">
+        <v>13367.86</v>
+      </c>
+      <c r="I49" s="5">
+        <f>G49/D49*100</f>
+        <v>6.2299999986438142</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9">
+      <c r="D51">
+        <f>G51*100/I51</f>
+        <v>226835.17915309448</v>
+      </c>
+      <c r="G51">
+        <v>6963.84</v>
+      </c>
+      <c r="I51" s="5">
+        <v>3.07</v>
       </c>
     </row>
   </sheetData>
@@ -2193,115 +2501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>6.23</v>
-      </c>
-      <c r="B2">
-        <v>4.45</v>
-      </c>
-      <c r="C2">
-        <f>A2-B2</f>
-        <v>1.7800000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>30624.35</v>
-      </c>
-      <c r="B4">
-        <f>A4-C4</f>
-        <v>30203.21</v>
-      </c>
-      <c r="C4">
-        <v>421.14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6">
-        <v>30203.21</v>
-      </c>
-      <c r="C6">
-        <v>15.37</v>
-      </c>
-      <c r="D6">
-        <f>B6/C6*100</f>
-        <v>196507.54716981133</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="17.1796875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>988698.37</v>
-      </c>
-      <c r="B2">
-        <v>366</v>
-      </c>
-      <c r="C2">
-        <v>250</v>
-      </c>
-      <c r="D2">
-        <f>A2/C2</f>
-        <v>3954.7934799999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B17" sqref="B17:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2316,7 +2519,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>202012</v>
@@ -2354,7 +2557,7 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>219702.3</v>
@@ -2396,33 +2599,33 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>194013.76</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>194008.42</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>188987.24</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>184099.85</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>164759.56</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>134926.57999999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>95661.82</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>79288.210000000006</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>54471.86</v>
       </c>
       <c r="K3" s="1">
@@ -2434,7 +2637,7 @@
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>219211.26</v>
@@ -2472,7 +2675,7 @@
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>207003.39</v>
@@ -2510,7 +2713,7 @@
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:K6" si="0">B4-B5</f>
@@ -2563,7 +2766,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>13486.01</v>
@@ -2612,7 +2815,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>6.23</v>
@@ -2654,7 +2857,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>5.0599999999999996</v>
@@ -2708,14 +2911,105 @@
         <v>15.37</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>202002</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>202003</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-273.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>202004</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2047.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>202005</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>202006</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6641.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>202007</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9587.07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>202008</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-163.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>202009</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-10652.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>202010</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4861.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>202011</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5046.6400000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>202012</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13486.01</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A17:Q27">
+    <sortCondition ref="A17:A27"/>
+  </sortState>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2727,19 +3021,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="2101" sheetId="26" r:id="rId1"/>
-    <sheet name="每月" sheetId="29" r:id="rId2"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId3"/>
+    <sheet name="2102" sheetId="31" r:id="rId1"/>
+    <sheet name="2101" sheetId="26" r:id="rId2"/>
+    <sheet name="每月" sheetId="29" r:id="rId3"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -91,6 +92,10 @@
   </si>
   <si>
     <t>基金持仓</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>活期宝收益</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1583,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1609,887 +1614,37 @@
       <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6">
-        <v>44200</v>
+        <v>44228</v>
+      </c>
+      <c r="B2">
+        <v>238036.01</v>
       </c>
       <c r="C2">
-        <v>222851.84</v>
+        <v>164254.16</v>
       </c>
       <c r="D2">
-        <v>194013.76</v>
-      </c>
-      <c r="F2" s="1">
-        <f>G2+H2</f>
-        <v>3173.17</v>
+        <v>162701.5</v>
       </c>
       <c r="G2">
-        <v>3167.96</v>
-      </c>
-      <c r="H2">
-        <v>5.21</v>
+        <v>1552.66</v>
       </c>
       <c r="I2" s="5">
         <f>G2/D2*100</f>
-        <v>1.6328532574184429</v>
+        <v>0.95429974523898076</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6">
-        <v>44201</v>
-      </c>
-      <c r="C3">
-        <v>226343.62</v>
-      </c>
-      <c r="D3">
-        <v>197281.73</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F7" si="0">G3+H3</f>
-        <v>3491.77</v>
-      </c>
-      <c r="G3">
-        <v>3490.6</v>
-      </c>
-      <c r="H3">
-        <v>1.17</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I5" si="1">G3/D3*100</f>
-        <v>1.7693478255690478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6">
-        <v>44202</v>
-      </c>
-      <c r="C4">
-        <v>226805.66</v>
-      </c>
-      <c r="D4">
-        <v>185730.9</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>462.04</v>
-      </c>
-      <c r="G4">
-        <v>460.8</v>
-      </c>
-      <c r="H4">
-        <v>1.24</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="1"/>
-        <v>0.24810088143652995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6">
-        <v>44203</v>
-      </c>
-      <c r="C5">
-        <v>228282.2</v>
-      </c>
-      <c r="D5">
-        <v>185664.2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>1476.54</v>
-      </c>
-      <c r="G5">
-        <v>1474.72</v>
-      </c>
-      <c r="H5">
-        <v>1.82</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="1"/>
-        <v>0.79429421503984066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6">
-        <v>44204</v>
-      </c>
-      <c r="C6">
-        <v>228079.17</v>
-      </c>
-      <c r="D6">
-        <v>185188.2</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>-203.04000000000002</v>
-      </c>
-      <c r="G6">
-        <v>-204.83</v>
-      </c>
-      <c r="H6">
-        <v>1.79</v>
-      </c>
-      <c r="I6" s="5">
-        <f>G6/D6*100</f>
-        <v>-0.11060639932781895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6">
-        <v>44204</v>
-      </c>
-      <c r="C7">
-        <f>SUM(C2:C6)/5</f>
-        <v>226472.49799999999</v>
-      </c>
-      <c r="D7">
-        <f>SUM(D2:D6)/5</f>
-        <v>189575.758</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>8400.48</v>
-      </c>
-      <c r="G7">
-        <f>SUM(G2:G6)</f>
-        <v>8389.25</v>
-      </c>
-      <c r="H7">
-        <f>SUM(H2:H6)</f>
-        <v>11.23</v>
-      </c>
-      <c r="I7" s="5">
-        <f>G7/D7*100</f>
-        <v>4.4252757253910069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6">
-        <v>44205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6">
-        <v>44206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6">
-        <v>44207</v>
-      </c>
-      <c r="C10">
-        <v>185016.92</v>
-      </c>
-      <c r="D10">
-        <v>185517.14</v>
-      </c>
-      <c r="F10" s="1">
-        <f>G10+H10</f>
-        <v>-919.07</v>
-      </c>
-      <c r="G10">
-        <v>-935.62</v>
-      </c>
-      <c r="H10">
-        <v>16.55</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" ref="I10:I14" si="2">G10/D10*100</f>
-        <v>-0.50433075887219903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6">
-        <v>44208</v>
-      </c>
-      <c r="C11">
-        <v>176713.29</v>
-      </c>
-      <c r="D11">
-        <v>185016.92</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" ref="F11:F15" si="3">G11+H11</f>
-        <v>4422.71</v>
-      </c>
-      <c r="G11">
-        <v>4420.7</v>
-      </c>
-      <c r="H11">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3893490389960008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6">
-        <v>44209</v>
-      </c>
-      <c r="C12">
-        <v>173637.16</v>
-      </c>
-      <c r="D12">
-        <v>176713.29</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="3"/>
-        <v>-420.3</v>
-      </c>
-      <c r="G12">
-        <v>-422.3</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.23897466908119924</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6">
-        <v>44210</v>
-      </c>
-      <c r="C13">
-        <v>169616.79</v>
-      </c>
-      <c r="D13">
-        <v>173637.16</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="3"/>
-        <v>-1814.05</v>
-      </c>
-      <c r="G13">
-        <v>-1816.05</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.0458878733100678</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6">
-        <v>44211</v>
-      </c>
-      <c r="B14">
-        <v>238882.29</v>
-      </c>
-      <c r="C14">
-        <v>162555.70000000001</v>
-      </c>
-      <c r="D14">
-        <v>169616.79</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="3"/>
-        <v>-466.19</v>
-      </c>
-      <c r="G14">
-        <v>-468.66</v>
-      </c>
-      <c r="H14">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.27630519360730738</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6">
-        <v>44211</v>
-      </c>
-      <c r="C15">
-        <f>SUM(C10:C14)/5</f>
-        <v>173507.97200000001</v>
-      </c>
-      <c r="D15">
-        <f>SUM(D10:D14)/5</f>
-        <v>178100.26000000004</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="3"/>
-        <v>803.09999999999968</v>
-      </c>
-      <c r="G15">
-        <f>SUM(G10:G14)</f>
-        <v>778.06999999999971</v>
-      </c>
-      <c r="H15">
-        <f>SUM(H10:H14)</f>
-        <v>25.03</v>
-      </c>
-      <c r="I15" s="5">
-        <f>G15/D15*100</f>
-        <v>0.43687190574567358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6">
-        <v>44212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6">
-        <v>44213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6">
-        <v>44214</v>
-      </c>
-      <c r="B18">
-        <v>242193.92000000001</v>
-      </c>
-      <c r="C18">
-        <v>164916.76999999999</v>
-      </c>
-      <c r="D18">
-        <v>162555.70000000001</v>
-      </c>
-      <c r="F18" s="1">
-        <f>G18+H18</f>
-        <v>3311.6299999999997</v>
-      </c>
-      <c r="G18">
-        <v>3302.14</v>
-      </c>
-      <c r="H18">
-        <v>9.49</v>
-      </c>
-      <c r="I18" s="5">
-        <f>G18/D18*100</f>
-        <v>2.0313898559078516</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6">
-        <v>44215</v>
-      </c>
-      <c r="B19">
-        <v>240002.07</v>
-      </c>
-      <c r="C19">
-        <v>137122.72</v>
-      </c>
-      <c r="D19">
-        <v>164916.76999999999</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" ref="F19:F23" si="4">G19+H19</f>
-        <v>-1906.3400000000001</v>
-      </c>
-      <c r="G19">
-        <v>-1909.38</v>
-      </c>
-      <c r="H19">
-        <v>3.04</v>
-      </c>
-      <c r="I19" s="5">
-        <f>G19/D19*100</f>
-        <v>-1.1577840143243165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6">
-        <v>44216</v>
-      </c>
-      <c r="B20">
-        <v>241718.73</v>
-      </c>
-      <c r="C20">
-        <v>142333.87</v>
-      </c>
-      <c r="D20">
-        <v>137122.72</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="4"/>
-        <v>1716.66</v>
-      </c>
-      <c r="G20">
-        <v>1711.15</v>
-      </c>
-      <c r="H20">
-        <v>5.51</v>
-      </c>
-      <c r="I20" s="5">
-        <f>G20/D20*100</f>
-        <v>1.247896774509724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6">
-        <v>44217</v>
-      </c>
-      <c r="B21">
-        <v>243467.46</v>
-      </c>
-      <c r="C21">
-        <v>140551.12</v>
-      </c>
-      <c r="D21">
-        <v>142333.87</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="4"/>
-        <v>1748.72</v>
-      </c>
-      <c r="G21">
-        <v>1743.95</v>
-      </c>
-      <c r="H21">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="I21" s="5">
-        <f>G21/D21*100</f>
-        <v>1.2252529914348567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6">
-        <v>44218</v>
-      </c>
-      <c r="B22">
-        <v>243565.09</v>
-      </c>
-      <c r="C22">
-        <v>135733.26</v>
-      </c>
-      <c r="D22">
-        <v>140551.12</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="4"/>
-        <v>97.63</v>
-      </c>
-      <c r="G22">
-        <v>92.55</v>
-      </c>
-      <c r="H22">
-        <v>5.08</v>
-      </c>
-      <c r="I22" s="5">
-        <f>G22/D22*100</f>
-        <v>6.5847927785989899E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="B23">
-        <f>SUM(B18:B22)/5</f>
-        <v>242189.454</v>
-      </c>
-      <c r="C23">
-        <f>SUM(C18:C22)/5</f>
-        <v>144131.54800000001</v>
-      </c>
-      <c r="D23">
-        <f>SUM(D18:D22)/5</f>
-        <v>149496.03599999999</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="4"/>
-        <v>4968.3</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G18:G22)</f>
-        <v>4940.41</v>
-      </c>
-      <c r="H23">
-        <f>SUM(H18:H22)</f>
-        <v>27.89</v>
-      </c>
-      <c r="I23" s="5">
-        <f>G23/D23*100</f>
-        <v>3.304709698122029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="6">
-        <v>44219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="6">
-        <v>44220</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="6">
-        <v>44221</v>
-      </c>
-      <c r="B26">
-        <v>244251.64</v>
-      </c>
-      <c r="C26">
-        <v>136405.26</v>
-      </c>
-      <c r="D26">
-        <v>144131.54800000001</v>
-      </c>
-      <c r="F26" s="1">
-        <f>G26+H26</f>
-        <v>690.41</v>
-      </c>
-      <c r="G26">
-        <v>671.99</v>
-      </c>
-      <c r="H26">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="I26" s="5">
-        <f>G26/D26*100</f>
-        <v>0.46623380469069819</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="6">
-        <v>44222</v>
-      </c>
-      <c r="B27">
-        <v>241479.45</v>
-      </c>
-      <c r="C27">
-        <v>150888.88</v>
-      </c>
-      <c r="D27">
-        <v>136405.26</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" ref="F27:F31" si="5">G27+H27</f>
-        <v>-2776.07</v>
-      </c>
-      <c r="G27">
-        <v>-2782.19</v>
-      </c>
-      <c r="H27">
-        <v>6.12</v>
-      </c>
-      <c r="I27" s="5">
-        <f>G27/D27*100</f>
-        <v>-2.0396500838750646</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6">
-        <v>44223</v>
-      </c>
-      <c r="B28">
-        <v>242182.63</v>
-      </c>
-      <c r="C28">
-        <v>154085.84</v>
-      </c>
-      <c r="D28">
-        <v>150888.88</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="5"/>
-        <v>728.51</v>
-      </c>
-      <c r="G28">
-        <v>696.96</v>
-      </c>
-      <c r="H28">
-        <v>31.55</v>
-      </c>
-      <c r="I28" s="5">
-        <f>G28/D28*100</f>
-        <v>0.46190282544346545</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="6">
-        <v>44224</v>
-      </c>
-      <c r="B29">
-        <v>237857.53</v>
-      </c>
-      <c r="C29">
-        <v>157103.31</v>
-      </c>
-      <c r="D29">
-        <v>154085.84</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="5"/>
-        <v>-4350.4399999999996</v>
-      </c>
-      <c r="G29">
-        <v>-4356.6899999999996</v>
-      </c>
-      <c r="H29">
-        <v>6.25</v>
-      </c>
-      <c r="I29" s="5">
-        <f>G29/D29*100</f>
-        <v>-2.8274434561929893</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="6">
-        <v>44225</v>
-      </c>
-      <c r="B30">
-        <v>236462.25</v>
-      </c>
-      <c r="C30">
-        <v>162701.5</v>
-      </c>
-      <c r="D30">
-        <v>157103.31</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="5"/>
-        <v>-1395.29</v>
-      </c>
-      <c r="G30">
-        <v>-1401.82</v>
-      </c>
-      <c r="H30">
-        <v>6.53</v>
-      </c>
-      <c r="I30" s="5">
-        <f>G30/D30*100</f>
-        <v>-0.89229183013394175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="6"/>
-      <c r="B31">
-        <f>SUM(B26:B30)/5</f>
-        <v>240446.7</v>
-      </c>
-      <c r="C31">
-        <f>SUM(C26:C30)/5</f>
-        <v>152236.95800000001</v>
-      </c>
-      <c r="D31">
-        <f>SUM(D26:D30)/5</f>
-        <v>148522.9676</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="5"/>
-        <v>-7102.8799999999992</v>
-      </c>
-      <c r="G31">
-        <f>SUM(G26:G30)</f>
-        <v>-7171.7499999999991</v>
-      </c>
-      <c r="H31">
-        <f>SUM(H26:H30)</f>
-        <v>68.87</v>
-      </c>
-      <c r="I31" s="5">
-        <f>G31/D30*100</f>
-        <v>-4.5649897510116109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="6">
-        <v>44226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="6">
-        <v>44227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34">
-        <v>236462.25</v>
-      </c>
-      <c r="C34" s="2">
-        <f>SUM(C2,C3,C4,C5,C6,C10,C11,C12,C13,C14,C18,C19,C20,C21,C22,C26,C27,C28,C29,C30)/20</f>
-        <v>174087.24399999998</v>
-      </c>
-      <c r="D34">
-        <v>192519.69</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" ref="F34" si="6">G34+H34</f>
-        <v>7069.0000000000009</v>
-      </c>
-      <c r="G34">
-        <f>SUM(G7,G15,G23,G31)</f>
-        <v>6935.9800000000005</v>
-      </c>
-      <c r="H34">
-        <f>SUM(H7,H15,H23,H31)</f>
-        <v>133.02000000000001</v>
-      </c>
-      <c r="I34" s="5">
-        <f>G34/C34*100</f>
-        <v>3.9841977164047706</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="D37">
-        <f>G37*100/I37</f>
-        <v>214572.39165329051</v>
-      </c>
-      <c r="G37">
-        <v>13367.86</v>
-      </c>
-      <c r="I37" s="5">
-        <v>6.23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="D39">
-        <v>97.49</v>
-      </c>
-      <c r="G39">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="I39" s="5">
-        <f>G39/D39*100</f>
-        <v>-2.5746230382603343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="D40">
-        <v>17124.080000000002</v>
-      </c>
-      <c r="G40">
-        <v>-273.42</v>
-      </c>
-      <c r="I40" s="5">
-        <f>G40/D40*100</f>
-        <v>-1.5966989175476871</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="D41">
-        <v>54471.86</v>
-      </c>
-      <c r="G41">
-        <v>2047.78</v>
-      </c>
-      <c r="I41" s="5">
-        <f>G41/D41*100</f>
-        <v>3.7593355541742106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="D42">
-        <v>79288.210000000006</v>
-      </c>
-      <c r="G42">
-        <v>45.33</v>
-      </c>
-      <c r="I42" s="5">
-        <f>G42/D42*100</f>
-        <v>5.7171173368650893E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="D43">
-        <v>95661.82</v>
-      </c>
-      <c r="G43">
-        <v>6641.03</v>
-      </c>
-      <c r="I43" s="5">
-        <f>G43/D43*100</f>
-        <v>6.9421949111986363</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="D44">
-        <v>134926.57999999999</v>
-      </c>
-      <c r="G44">
-        <v>9587.07</v>
-      </c>
-      <c r="I44" s="5">
-        <f>G44/D44*100</f>
-        <v>7.1053976169854742</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="D45">
-        <v>164759.56</v>
-      </c>
-      <c r="G45">
-        <v>-163.32</v>
-      </c>
-      <c r="I45" s="5">
-        <f>G45/D45*100</f>
-        <v>-9.9126266178423891E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="D46">
-        <v>184099.85</v>
-      </c>
-      <c r="G46">
-        <v>-10652.23</v>
-      </c>
-      <c r="I46" s="5">
-        <f>G46/D46*100</f>
-        <v>-5.7861155237225885</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="D47">
-        <v>188987.24</v>
-      </c>
-      <c r="G47">
-        <v>4861.92</v>
-      </c>
-      <c r="I47" s="5">
-        <f>G47/D47*100</f>
-        <v>2.5726181301975735</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="D48">
-        <v>188987.24</v>
-      </c>
-      <c r="G48">
-        <v>5046.6400000000003</v>
-      </c>
-      <c r="I48" s="5">
-        <f>G48/D48*100</f>
-        <v>2.6703601788141889</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9">
-      <c r="D49">
-        <v>214572.39170000001</v>
-      </c>
-      <c r="G49">
-        <v>13367.86</v>
-      </c>
-      <c r="I49" s="5">
-        <f>G49/D49*100</f>
-        <v>6.2299999986438142</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9">
-      <c r="D51">
-        <f>G51*100/I51</f>
-        <v>226835.17915309448</v>
-      </c>
-      <c r="G51">
-        <v>6963.84</v>
-      </c>
-      <c r="I51" s="5">
-        <v>3.07</v>
+        <v>44229</v>
       </c>
     </row>
   </sheetData>
@@ -2500,6 +1655,924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6">
+        <v>44200</v>
+      </c>
+      <c r="C2">
+        <v>222851.84</v>
+      </c>
+      <c r="D2">
+        <v>194013.76</v>
+      </c>
+      <c r="F2" s="1">
+        <f>G2+H2</f>
+        <v>3173.17</v>
+      </c>
+      <c r="G2">
+        <v>3167.96</v>
+      </c>
+      <c r="H2">
+        <v>5.21</v>
+      </c>
+      <c r="I2" s="5">
+        <f>G2/D2*100</f>
+        <v>1.6328532574184429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6">
+        <v>44201</v>
+      </c>
+      <c r="C3">
+        <v>226343.62</v>
+      </c>
+      <c r="D3">
+        <v>197281.73</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F7" si="0">G3+H3</f>
+        <v>3491.77</v>
+      </c>
+      <c r="G3">
+        <v>3490.6</v>
+      </c>
+      <c r="H3">
+        <v>1.17</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I5" si="1">G3/D3*100</f>
+        <v>1.7693478255690478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6">
+        <v>44202</v>
+      </c>
+      <c r="C4">
+        <v>226805.66</v>
+      </c>
+      <c r="D4">
+        <v>185730.9</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>462.04</v>
+      </c>
+      <c r="G4">
+        <v>460.8</v>
+      </c>
+      <c r="H4">
+        <v>1.24</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.24810088143652995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6">
+        <v>44203</v>
+      </c>
+      <c r="C5">
+        <v>228282.2</v>
+      </c>
+      <c r="D5">
+        <v>185664.2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>1476.54</v>
+      </c>
+      <c r="G5">
+        <v>1474.72</v>
+      </c>
+      <c r="H5">
+        <v>1.82</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.79429421503984066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6">
+        <v>44204</v>
+      </c>
+      <c r="C6">
+        <v>228079.17</v>
+      </c>
+      <c r="D6">
+        <v>185188.2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>-203.04000000000002</v>
+      </c>
+      <c r="G6">
+        <v>-204.83</v>
+      </c>
+      <c r="H6">
+        <v>1.79</v>
+      </c>
+      <c r="I6" s="5">
+        <f>G6/D6*100</f>
+        <v>-0.11060639932781895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6">
+        <v>44204</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)/5</f>
+        <v>226472.49799999999</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)/5</f>
+        <v>189575.758</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>8400.48</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>8389.25</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>11.23</v>
+      </c>
+      <c r="I7" s="5">
+        <f>G7/D7*100</f>
+        <v>4.4252757253910069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
+        <v>44205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6">
+        <v>44207</v>
+      </c>
+      <c r="C10">
+        <v>185016.92</v>
+      </c>
+      <c r="D10">
+        <v>185517.14</v>
+      </c>
+      <c r="F10" s="1">
+        <f>G10+H10</f>
+        <v>-919.07</v>
+      </c>
+      <c r="G10">
+        <v>-935.62</v>
+      </c>
+      <c r="H10">
+        <v>16.55</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10:I14" si="2">G10/D10*100</f>
+        <v>-0.50433075887219903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6">
+        <v>44208</v>
+      </c>
+      <c r="C11">
+        <v>176713.29</v>
+      </c>
+      <c r="D11">
+        <v>185016.92</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:F15" si="3">G11+H11</f>
+        <v>4422.71</v>
+      </c>
+      <c r="G11">
+        <v>4420.7</v>
+      </c>
+      <c r="H11">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3893490389960008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6">
+        <v>44209</v>
+      </c>
+      <c r="C12">
+        <v>173637.16</v>
+      </c>
+      <c r="D12">
+        <v>176713.29</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>-420.3</v>
+      </c>
+      <c r="G12">
+        <v>-422.3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.23897466908119924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6">
+        <v>44210</v>
+      </c>
+      <c r="C13">
+        <v>169616.79</v>
+      </c>
+      <c r="D13">
+        <v>173637.16</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>-1814.05</v>
+      </c>
+      <c r="G13">
+        <v>-1816.05</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.0458878733100678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6">
+        <v>44211</v>
+      </c>
+      <c r="B14">
+        <v>238882.29</v>
+      </c>
+      <c r="C14">
+        <v>162555.70000000001</v>
+      </c>
+      <c r="D14">
+        <v>169616.79</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>-466.19</v>
+      </c>
+      <c r="G14">
+        <v>-468.66</v>
+      </c>
+      <c r="H14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.27630519360730738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6">
+        <v>44211</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C10:C14)/5</f>
+        <v>173507.97200000001</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D10:D14)/5</f>
+        <v>178100.26000000004</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>803.09999999999968</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G10:G14)</f>
+        <v>778.06999999999971</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H10:H14)</f>
+        <v>25.03</v>
+      </c>
+      <c r="I15" s="5">
+        <f>G15/D15*100</f>
+        <v>0.43687190574567358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6">
+        <v>44212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6">
+        <v>44213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6">
+        <v>44214</v>
+      </c>
+      <c r="B18">
+        <v>242193.92000000001</v>
+      </c>
+      <c r="C18">
+        <v>164916.76999999999</v>
+      </c>
+      <c r="D18">
+        <v>162555.70000000001</v>
+      </c>
+      <c r="F18" s="1">
+        <f>G18+H18</f>
+        <v>3311.6299999999997</v>
+      </c>
+      <c r="G18">
+        <v>3302.14</v>
+      </c>
+      <c r="H18">
+        <v>9.49</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" ref="I18:I23" si="4">G18/D18*100</f>
+        <v>2.0313898559078516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6">
+        <v>44215</v>
+      </c>
+      <c r="B19">
+        <v>240002.07</v>
+      </c>
+      <c r="C19">
+        <v>137122.72</v>
+      </c>
+      <c r="D19">
+        <v>164916.76999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19:F23" si="5">G19+H19</f>
+        <v>-1906.3400000000001</v>
+      </c>
+      <c r="G19">
+        <v>-1909.38</v>
+      </c>
+      <c r="H19">
+        <v>3.04</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.1577840143243165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6">
+        <v>44216</v>
+      </c>
+      <c r="B20">
+        <v>241718.73</v>
+      </c>
+      <c r="C20">
+        <v>142333.87</v>
+      </c>
+      <c r="D20">
+        <v>137122.72</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="5"/>
+        <v>1716.66</v>
+      </c>
+      <c r="G20">
+        <v>1711.15</v>
+      </c>
+      <c r="H20">
+        <v>5.51</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="4"/>
+        <v>1.247896774509724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6">
+        <v>44217</v>
+      </c>
+      <c r="B21">
+        <v>243467.46</v>
+      </c>
+      <c r="C21">
+        <v>140551.12</v>
+      </c>
+      <c r="D21">
+        <v>142333.87</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="5"/>
+        <v>1748.72</v>
+      </c>
+      <c r="G21">
+        <v>1743.95</v>
+      </c>
+      <c r="H21">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2252529914348567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6">
+        <v>44218</v>
+      </c>
+      <c r="B22">
+        <v>243565.09</v>
+      </c>
+      <c r="C22">
+        <v>135733.26</v>
+      </c>
+      <c r="D22">
+        <v>140551.12</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="5"/>
+        <v>97.63</v>
+      </c>
+      <c r="G22">
+        <v>92.55</v>
+      </c>
+      <c r="H22">
+        <v>5.08</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="4"/>
+        <v>6.5847927785989899E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6"/>
+      <c r="B23">
+        <f>SUM(B18:B22)/5</f>
+        <v>242189.454</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C18:C22)/5</f>
+        <v>144131.54800000001</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D18:D22)/5</f>
+        <v>149496.03599999999</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="5"/>
+        <v>4968.3</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G18:G22)</f>
+        <v>4940.41</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H18:H22)</f>
+        <v>27.89</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="4"/>
+        <v>3.304709698122029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="6">
+        <v>44219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6">
+        <v>44220</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="6">
+        <v>44221</v>
+      </c>
+      <c r="B26">
+        <v>244251.64</v>
+      </c>
+      <c r="C26">
+        <v>136405.26</v>
+      </c>
+      <c r="D26">
+        <v>144131.54800000001</v>
+      </c>
+      <c r="F26" s="1">
+        <f>G26+H26</f>
+        <v>690.41</v>
+      </c>
+      <c r="G26">
+        <v>671.99</v>
+      </c>
+      <c r="H26">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="I26" s="5">
+        <f>G26/D26*100</f>
+        <v>0.46623380469069819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6">
+        <v>44222</v>
+      </c>
+      <c r="B27">
+        <v>241479.45</v>
+      </c>
+      <c r="C27">
+        <v>150888.88</v>
+      </c>
+      <c r="D27">
+        <v>136405.26</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ref="F27:F31" si="6">G27+H27</f>
+        <v>-2776.07</v>
+      </c>
+      <c r="G27">
+        <v>-2782.19</v>
+      </c>
+      <c r="H27">
+        <v>6.12</v>
+      </c>
+      <c r="I27" s="5">
+        <f>G27/D27*100</f>
+        <v>-2.0396500838750646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B28">
+        <v>242182.63</v>
+      </c>
+      <c r="C28">
+        <v>154085.84</v>
+      </c>
+      <c r="D28">
+        <v>150888.88</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="6"/>
+        <v>728.51</v>
+      </c>
+      <c r="G28">
+        <v>696.96</v>
+      </c>
+      <c r="H28">
+        <v>31.55</v>
+      </c>
+      <c r="I28" s="5">
+        <f>G28/D28*100</f>
+        <v>0.46190282544346545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="6">
+        <v>44224</v>
+      </c>
+      <c r="B29">
+        <v>237857.53</v>
+      </c>
+      <c r="C29">
+        <v>157103.31</v>
+      </c>
+      <c r="D29">
+        <v>154085.84</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="6"/>
+        <v>-4350.4399999999996</v>
+      </c>
+      <c r="G29">
+        <v>-4356.6899999999996</v>
+      </c>
+      <c r="H29">
+        <v>6.25</v>
+      </c>
+      <c r="I29" s="5">
+        <f>G29/D29*100</f>
+        <v>-2.8274434561929893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6">
+        <v>44225</v>
+      </c>
+      <c r="B30">
+        <v>236462.25</v>
+      </c>
+      <c r="C30">
+        <v>162701.5</v>
+      </c>
+      <c r="D30">
+        <v>157103.31</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="6"/>
+        <v>-1395.29</v>
+      </c>
+      <c r="G30">
+        <v>-1401.82</v>
+      </c>
+      <c r="H30">
+        <v>6.53</v>
+      </c>
+      <c r="I30" s="5">
+        <f>G30/D30*100</f>
+        <v>-0.89229183013394175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="6"/>
+      <c r="B31">
+        <f>SUM(B26:B30)/5</f>
+        <v>240446.7</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C26:C30)/5</f>
+        <v>152236.95800000001</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D26:D30)/5</f>
+        <v>148522.9676</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="6"/>
+        <v>-7102.8799999999992</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G26:G30)</f>
+        <v>-7171.7499999999991</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H26:H30)</f>
+        <v>68.87</v>
+      </c>
+      <c r="I31" s="5">
+        <f>G31/D30*100</f>
+        <v>-4.5649897510116109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34">
+        <v>236462.25</v>
+      </c>
+      <c r="C34" s="2">
+        <f>SUM(C2,C3,C4,C5,C6,C10,C11,C12,C13,C14,C18,C19,C20,C21,C22,C26,C27,C28,C29,C30)/20</f>
+        <v>174087.24399999998</v>
+      </c>
+      <c r="D34">
+        <v>192519.69</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34" si="7">G34+H34</f>
+        <v>7069.0000000000009</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G7,G15,G23,G31)</f>
+        <v>6935.9800000000005</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H7,H15,H23,H31)</f>
+        <v>133.02000000000001</v>
+      </c>
+      <c r="I34" s="5">
+        <f>G34/C34*100</f>
+        <v>3.9841977164047706</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="D37">
+        <f>G37*100/I37</f>
+        <v>214572.39165329051</v>
+      </c>
+      <c r="G37">
+        <v>13367.86</v>
+      </c>
+      <c r="I37" s="5">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="D39">
+        <v>97.49</v>
+      </c>
+      <c r="G39">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" ref="I39:I49" si="8">G39/D39*100</f>
+        <v>-2.5746230382603343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="D40">
+        <v>17124.080000000002</v>
+      </c>
+      <c r="G40">
+        <v>-273.42</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="8"/>
+        <v>-1.5966989175476871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="D41">
+        <v>54471.86</v>
+      </c>
+      <c r="G41">
+        <v>2047.78</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="8"/>
+        <v>3.7593355541742106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="D42">
+        <v>79288.210000000006</v>
+      </c>
+      <c r="G42">
+        <v>45.33</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="8"/>
+        <v>5.7171173368650893E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="D43">
+        <v>95661.82</v>
+      </c>
+      <c r="G43">
+        <v>6641.03</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="8"/>
+        <v>6.9421949111986363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="D44">
+        <v>134926.57999999999</v>
+      </c>
+      <c r="G44">
+        <v>9587.07</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="8"/>
+        <v>7.1053976169854742</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="D45">
+        <v>164759.56</v>
+      </c>
+      <c r="G45">
+        <v>-163.32</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="8"/>
+        <v>-9.9126266178423891E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="D46">
+        <v>184099.85</v>
+      </c>
+      <c r="G46">
+        <v>-10652.23</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="8"/>
+        <v>-5.7861155237225885</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="D47">
+        <v>188987.24</v>
+      </c>
+      <c r="G47">
+        <v>4861.92</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="8"/>
+        <v>2.5726181301975735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="D48">
+        <v>188987.24</v>
+      </c>
+      <c r="G48">
+        <v>5046.6400000000003</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="8"/>
+        <v>2.6703601788141889</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9">
+      <c r="D49">
+        <v>214572.39170000001</v>
+      </c>
+      <c r="G49">
+        <v>13367.86</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="8"/>
+        <v>6.2299999986438142</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9">
+      <c r="D51">
+        <f>G51*100/I51</f>
+        <v>226835.17915309448</v>
+      </c>
+      <c r="G51">
+        <v>6963.84</v>
+      </c>
+      <c r="I51" s="5">
+        <v>3.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -3009,7 +3082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1591,7 +1591,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1645,6 +1645,22 @@
     <row r="3" spans="1:9">
       <c r="A3" s="6">
         <v>44229</v>
+      </c>
+      <c r="B3">
+        <v>240484.06</v>
+      </c>
+      <c r="C3">
+        <v>161171.70000000001</v>
+      </c>
+      <c r="D3">
+        <v>164254.16</v>
+      </c>
+      <c r="G3">
+        <v>2448.6999999999998</v>
+      </c>
+      <c r="I3" s="5">
+        <f>G3/D3*100</f>
+        <v>1.4907993806671318</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1588,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1661,6 +1661,147 @@
       <c r="I3" s="5">
         <f>G3/D3*100</f>
         <v>1.4907993806671318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6">
+        <v>44230</v>
+      </c>
+      <c r="B4">
+        <v>239645.11</v>
+      </c>
+      <c r="C4">
+        <v>153949.04</v>
+      </c>
+      <c r="D4">
+        <v>161171.70000000001</v>
+      </c>
+      <c r="G4">
+        <v>-844.91</v>
+      </c>
+      <c r="I4" s="5">
+        <f>G4/D4*100</f>
+        <v>-0.52422975001194372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6">
+        <v>44231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6">
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
+        <v>44234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6">
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6">
+        <v>44240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6">
+        <v>44245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6">
+        <v>44246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6">
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6">
+        <v>44248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6">
+        <v>44249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="6">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="6">
+        <v>44251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="6">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="6">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="6">
+        <v>44254</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>活期宝收益</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1588,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1611,6 +1615,9 @@
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1634,6 +1641,9 @@
       <c r="D2">
         <v>162701.5</v>
       </c>
+      <c r="F2">
+        <v>1573.76</v>
+      </c>
       <c r="G2">
         <v>1552.66</v>
       </c>
@@ -1655,6 +1665,9 @@
       <c r="D3">
         <v>164254.16</v>
       </c>
+      <c r="F3">
+        <v>2448.04</v>
+      </c>
       <c r="G3">
         <v>2448.6999999999998</v>
       </c>
@@ -1676,6 +1689,9 @@
       <c r="D4">
         <v>161171.70000000001</v>
       </c>
+      <c r="F4">
+        <v>-838.95</v>
+      </c>
       <c r="G4">
         <v>-844.91</v>
       </c>
@@ -1688,119 +1704,188 @@
       <c r="A5" s="6">
         <v>44231</v>
       </c>
+      <c r="B5">
+        <v>239227.84</v>
+      </c>
+      <c r="C5">
+        <v>167521.74</v>
+      </c>
+      <c r="D5">
+        <v>153949.04</v>
+      </c>
+      <c r="F5">
+        <v>-417.28</v>
+      </c>
+      <c r="G5">
+        <v>-422.81</v>
+      </c>
+      <c r="I5" s="5">
+        <f>G5/D5*100</f>
+        <v>-0.27464282986110211</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6">
         <v>44232</v>
       </c>
+      <c r="B6">
+        <v>238383.6</v>
+      </c>
+      <c r="C6">
+        <v>175171.83</v>
+      </c>
+      <c r="D6">
+        <v>167521.74</v>
+      </c>
+      <c r="F6">
+        <v>-844.24</v>
+      </c>
+      <c r="G6">
+        <v>-845.12</v>
+      </c>
+      <c r="I6" s="5">
+        <f>G6/D6*100</f>
+        <v>-0.50448377625495056</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6">
-        <v>44233</v>
+      <c r="A7" s="6"/>
+      <c r="B7">
+        <f>SUM(B2:B6)/5</f>
+        <v>239155.32399999996</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)/5</f>
+        <v>164413.69399999999</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)/5</f>
+        <v>161919.628</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>1921.3300000000006</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>1888.52</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f>G7/D7*100</f>
+        <v>1.166331730949876</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6">
-        <v>44234</v>
+        <v>44233</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6">
-        <v>44235</v>
+        <v>44234</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6">
-        <v>44236</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6">
-        <v>44237</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6">
-        <v>44238</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6">
-        <v>44239</v>
+        <v>44238</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6">
-        <v>44240</v>
+        <v>44239</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6">
-        <v>44241</v>
+        <v>44240</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6">
-        <v>44242</v>
+        <v>44241</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6">
-        <v>44243</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6">
-        <v>44244</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6">
-        <v>44245</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6">
-        <v>44246</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6">
-        <v>44247</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6">
-        <v>44248</v>
+        <v>44247</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6">
-        <v>44249</v>
+        <v>44248</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6">
-        <v>44250</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6">
-        <v>44251</v>
+        <v>44250</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6">
-        <v>44252</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6">
-        <v>44253</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="6">
         <v>44254</v>
       </c>
     </row>
@@ -1816,7 +1901,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34:I34"/>
+      <selection activeCell="C15" sqref="C15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
@@ -12,7 +12,7 @@
     <sheet name="每月" sheetId="29" r:id="rId3"/>
     <sheet name="分红计算" sheetId="30" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1592,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1648,7 +1648,7 @@
         <v>1552.66</v>
       </c>
       <c r="I2" s="5">
-        <f>G2/D2*100</f>
+        <f t="shared" ref="I2:I7" si="0">G2/D2*100</f>
         <v>0.95429974523898076</v>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
         <v>2448.6999999999998</v>
       </c>
       <c r="I3" s="5">
-        <f>G3/D3*100</f>
+        <f t="shared" si="0"/>
         <v>1.4907993806671318</v>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
         <v>-844.91</v>
       </c>
       <c r="I4" s="5">
-        <f>G4/D4*100</f>
+        <f t="shared" si="0"/>
         <v>-0.52422975001194372</v>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
         <v>-422.81</v>
       </c>
       <c r="I5" s="5">
-        <f>G5/D5*100</f>
+        <f t="shared" si="0"/>
         <v>-0.27464282986110211</v>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>-845.12</v>
       </c>
       <c r="I6" s="5">
-        <f>G6/D6*100</f>
+        <f t="shared" si="0"/>
         <v>-0.50448377625495056</v>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f>G7/D7*100</f>
+        <f t="shared" si="0"/>
         <v>1.166331730949876</v>
       </c>
     </row>
@@ -1793,16 +1793,64 @@
       <c r="A10" s="6">
         <v>44235</v>
       </c>
+      <c r="B10">
+        <v>241079.12</v>
+      </c>
+      <c r="C10">
+        <v>177666.72</v>
+      </c>
+      <c r="D10">
+        <v>175171.83</v>
+      </c>
+      <c r="G10">
+        <v>2681.56</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10:I12" si="1">G10/D10*100</f>
+        <v>1.5308169127421916</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6">
         <v>44236</v>
       </c>
+      <c r="B11">
+        <v>245659.54</v>
+      </c>
+      <c r="C11">
+        <v>205242.87</v>
+      </c>
+      <c r="D11">
+        <v>177666.72</v>
+      </c>
+      <c r="G11">
+        <v>4576.1499999999996</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5756934106736478</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6">
         <v>44237</v>
       </c>
+      <c r="B12">
+        <v>249229.69</v>
+      </c>
+      <c r="C12">
+        <v>208809.09</v>
+      </c>
+      <c r="D12">
+        <v>205242.87</v>
+      </c>
+      <c r="G12">
+        <v>3566.21</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7375560963457586</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6">
@@ -1824,68 +1872,131 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:9">
       <c r="A17" s="6">
         <v>44242</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:9">
       <c r="A18" s="6">
         <v>44243</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:9">
       <c r="A19" s="6">
         <v>44244</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:9">
       <c r="A20" s="6">
         <v>44245</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>248666.85</v>
+      </c>
+      <c r="C20">
+        <v>200236.96</v>
+      </c>
+      <c r="D20">
+        <v>208809.09</v>
+      </c>
+      <c r="G20">
+        <v>-584.24</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" ref="I20:I22" si="2">G20/D20*100</f>
+        <v>-0.27979624833382494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="6">
         <v>44246</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="6">
+      <c r="B21">
+        <v>248015.29</v>
+      </c>
+      <c r="C21">
+        <v>195374.49</v>
+      </c>
+      <c r="D21">
+        <v>200236.96</v>
+      </c>
+      <c r="G21">
+        <v>-654.16</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.32669293421154616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6"/>
+      <c r="B22">
+        <f>SUM(B17:B21)/2</f>
+        <v>248341.07</v>
+      </c>
+      <c r="C22">
+        <f>SUM(C17:C21)/2</f>
+        <v>197805.72499999998</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D17:D21)/2</f>
+        <v>204523.02499999999</v>
+      </c>
+      <c r="F22">
+        <f>SUM(F17:F21)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>SUM(G17:G21)</f>
+        <v>-1238.4000000000001</v>
+      </c>
+      <c r="H22">
+        <f>SUM(H17:H21)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.60550639714037091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6">
         <v>44247</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="6">
+    <row r="24" spans="1:9">
+      <c r="A24" s="6">
         <v>44248</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="6">
+    <row r="25" spans="1:9">
+      <c r="A25" s="6">
         <v>44249</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="6">
+    <row r="26" spans="1:9">
+      <c r="A26" s="6">
         <v>44250</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="6">
+    <row r="27" spans="1:9">
+      <c r="A27" s="6">
         <v>44251</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="6">
+    <row r="28" spans="1:9">
+      <c r="A28" s="6">
         <v>44252</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="6">
+    <row r="29" spans="1:9">
+      <c r="A29" s="6">
         <v>44253</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="6">
+    <row r="30" spans="1:9">
+      <c r="A30" s="6">
         <v>44254</v>
       </c>
     </row>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1592,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1806,7 +1806,7 @@
         <v>2681.56</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ref="I10:I12" si="1">G10/D10*100</f>
+        <f t="shared" ref="I10:I13" si="1">G10/D10*100</f>
         <v>1.5308169127421916</v>
       </c>
     </row>
@@ -1853,151 +1853,209 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="6">
-        <v>44238</v>
+      <c r="A13" s="6"/>
+      <c r="B13">
+        <f>SUM(B8:B12)/3</f>
+        <v>245322.78333333335</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C8:C12)/3</f>
+        <v>197239.55999999997</v>
+      </c>
+      <c r="D13">
+        <f>SUM(D8:D12)/3</f>
+        <v>186027.13999999998</v>
+      </c>
+      <c r="F13">
+        <f>SUM(F8:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>SUM(G8:G12)</f>
+        <v>10823.919999999998</v>
+      </c>
+      <c r="H13">
+        <f>SUM(H8:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>5.8184628328963175</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6">
-        <v>44239</v>
+        <v>44238</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6">
-        <v>44240</v>
+        <v>44239</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6">
-        <v>44241</v>
+        <v>44240</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6">
-        <v>44242</v>
+        <v>44241</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6">
-        <v>44243</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6">
-        <v>44244</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6">
-        <v>44245</v>
-      </c>
-      <c r="B20">
-        <v>248666.85</v>
-      </c>
-      <c r="C20">
-        <v>200236.96</v>
-      </c>
-      <c r="D20">
-        <v>208809.09</v>
-      </c>
-      <c r="G20">
-        <v>-584.24</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" ref="I20:I22" si="2">G20/D20*100</f>
-        <v>-0.27979624833382494</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6">
+        <v>44245</v>
+      </c>
+      <c r="B21">
+        <v>248666.85</v>
+      </c>
+      <c r="C21">
+        <v>200236.96</v>
+      </c>
+      <c r="D21">
+        <v>208809.09</v>
+      </c>
+      <c r="G21">
+        <v>-584.24</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" ref="I21:I23" si="2">G21/D21*100</f>
+        <v>-0.27979624833382494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6">
         <v>44246</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>248015.29</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>195374.49</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>200236.96</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>-654.16</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I22" s="5">
         <f t="shared" si="2"/>
         <v>-0.32669293421154616</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6"/>
-      <c r="B22">
-        <f>SUM(B17:B21)/2</f>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6"/>
+      <c r="B23">
+        <f>SUM(B18:B22)/2</f>
         <v>248341.07</v>
       </c>
-      <c r="C22">
-        <f>SUM(C17:C21)/2</f>
+      <c r="C23">
+        <f>SUM(C18:C22)/2</f>
         <v>197805.72499999998</v>
       </c>
-      <c r="D22">
-        <f>SUM(D17:D21)/2</f>
+      <c r="D23">
+        <f>SUM(D18:D22)/2</f>
         <v>204523.02499999999</v>
       </c>
-      <c r="F22">
-        <f>SUM(F17:F21)</f>
+      <c r="F23">
+        <f>SUM(F18:F22)</f>
         <v>0</v>
       </c>
-      <c r="G22">
-        <f>SUM(G17:G21)</f>
+      <c r="G23">
+        <f>SUM(G18:G22)</f>
         <v>-1238.4000000000001</v>
       </c>
-      <c r="H22">
-        <f>SUM(H17:H21)</f>
+      <c r="H23">
+        <f>SUM(H18:H22)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I23" s="5">
         <f t="shared" si="2"/>
         <v>-0.60550639714037091</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6">
-        <v>44247</v>
-      </c>
-    </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6">
-        <v>44248</v>
+        <v>44247</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="6">
-        <v>44249</v>
+        <v>44248</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6">
-        <v>44250</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6">
-        <v>44251</v>
+        <v>44250</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6">
-        <v>44252</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="6">
-        <v>44253</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="6">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="6">
         <v>44254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="2">
+        <f>SUM(C2,C3,C4,C5,C6,C10,C11,C12,C21,C22)/10</f>
+        <v>180939.86000000002</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" ref="F33" si="3">G33+H33</f>
+        <v>1147.404</v>
+      </c>
+      <c r="G33">
+        <f>SUM(G2,G3,G4,G5,G6,G10,G11,G12,G21,G22)/10</f>
+        <v>1147.404</v>
+      </c>
+      <c r="H33">
+        <f>SUM(H6,H14,H22,H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f>G33/C33*100</f>
+        <v>0.63413556305393404</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2070,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:I15"/>
+      <selection activeCell="B34" sqref="B34:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2005,10 +2005,42 @@
       <c r="A26" s="6">
         <v>44249</v>
       </c>
+      <c r="B26">
+        <v>242685.02</v>
+      </c>
+      <c r="C26">
+        <v>162695.51</v>
+      </c>
+      <c r="D26">
+        <v>195374.49</v>
+      </c>
+      <c r="G26">
+        <v>-5338.18</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" ref="I26:I27" si="3">G26/D26*100</f>
+        <v>-2.7322809646233757</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6">
         <v>44250</v>
+      </c>
+      <c r="B27">
+        <v>242112.11</v>
+      </c>
+      <c r="C27">
+        <v>163379.64000000001</v>
+      </c>
+      <c r="D27">
+        <v>162695.51</v>
+      </c>
+      <c r="G27">
+        <v>-577.67999999999995</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.35506818842142596</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2042,7 +2074,7 @@
         <v>180939.86000000002</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" ref="F33" si="3">G33+H33</f>
+        <f t="shared" ref="F33" si="4">G33+H33</f>
         <v>1147.404</v>
       </c>
       <c r="G33">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1592,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2018,7 +2018,7 @@
         <v>-5338.18</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" ref="I26:I27" si="3">G26/D26*100</f>
+        <f t="shared" ref="I26:I28" si="3">G26/D26*100</f>
         <v>-2.7322809646233757</v>
       </c>
     </row>
@@ -2047,6 +2047,22 @@
       <c r="A28" s="6">
         <v>44251</v>
       </c>
+      <c r="B28">
+        <v>237257.81</v>
+      </c>
+      <c r="C28">
+        <v>159088.54999999999</v>
+      </c>
+      <c r="D28">
+        <v>163379.64000000001</v>
+      </c>
+      <c r="G28">
+        <v>-4858.92</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.9740058185952667</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="6">
@@ -2059,35 +2075,66 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="6">
-        <v>44254</v>
+      <c r="A31" s="6"/>
+      <c r="B31">
+        <f>SUM(B26:B30)/3</f>
+        <v>240684.97999999998</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C26:C30)/3</f>
+        <v>161721.23333333334</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D26:D30)/3</f>
+        <v>173816.54666666666</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F26:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G26:G30)</f>
+        <v>-10774.78</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H26:H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" ref="I31" si="4">G31/D31*100</f>
+        <v>-6.1989380220878099</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6">
+        <v>44254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6">
         <v>44255</v>
       </c>
     </row>
-    <row r="33" spans="3:9">
-      <c r="C33" s="2">
+    <row r="34" spans="1:9">
+      <c r="C34" s="2">
         <f>SUM(C2,C3,C4,C5,C6,C10,C11,C12,C21,C22)/10</f>
         <v>180939.86000000002</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" ref="F33" si="4">G33+H33</f>
-        <v>1147.404</v>
-      </c>
-      <c r="G33">
-        <f>SUM(G2,G3,G4,G5,G6,G10,G11,G12,G21,G22)/10</f>
-        <v>1147.404</v>
-      </c>
-      <c r="H33">
+      <c r="F34" s="1">
+        <f t="shared" ref="F34" si="5">G34+H34</f>
+        <v>174.8149999999996</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G7,G13,G23,G31)/4</f>
+        <v>174.8149999999996</v>
+      </c>
+      <c r="H34">
         <f>SUM(H6,H14,H22,H30)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="5">
-        <f>G33/C33*100</f>
-        <v>0.63413556305393404</v>
+      <c r="I34" s="5">
+        <f>G34/C34*100</f>
+        <v>9.6614974721434835E-2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2018,7 +2018,7 @@
         <v>-5338.18</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" ref="I26:I28" si="3">G26/D26*100</f>
+        <f t="shared" ref="I26:I29" si="3">G26/D26*100</f>
         <v>-2.7322809646233757</v>
       </c>
     </row>
@@ -2067,6 +2067,22 @@
     <row r="29" spans="1:9">
       <c r="A29" s="6">
         <v>44252</v>
+      </c>
+      <c r="B29">
+        <v>236689.25</v>
+      </c>
+      <c r="C29">
+        <v>144640.23000000001</v>
+      </c>
+      <c r="D29">
+        <v>159088.54999999999</v>
+      </c>
+      <c r="G29">
+        <v>-33.72</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.1195742874015763E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2078,15 +2094,15 @@
       <c r="A31" s="6"/>
       <c r="B31">
         <f>SUM(B26:B30)/3</f>
-        <v>240684.97999999998</v>
+        <v>319581.39666666667</v>
       </c>
       <c r="C31">
         <f>SUM(C26:C30)/3</f>
-        <v>161721.23333333334</v>
+        <v>209934.64333333334</v>
       </c>
       <c r="D31">
         <f>SUM(D26:D30)/3</f>
-        <v>173816.54666666666</v>
+        <v>226846.06333333332</v>
       </c>
       <c r="F31">
         <f>SUM(F26:F30)</f>
@@ -2094,7 +2110,7 @@
       </c>
       <c r="G31">
         <f>SUM(G26:G30)</f>
-        <v>-10774.78</v>
+        <v>-10808.5</v>
       </c>
       <c r="H31">
         <f>SUM(H26:H30)</f>
@@ -2102,7 +2118,7 @@
       </c>
       <c r="I31" s="5">
         <f t="shared" ref="I31" si="4">G31/D31*100</f>
-        <v>-6.1989380220878099</v>
+        <v>-4.7646848445051999</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2122,11 +2138,11 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" ref="F34" si="5">G34+H34</f>
-        <v>174.8149999999996</v>
+        <v>166.38499999999976</v>
       </c>
       <c r="G34">
         <f>SUM(G7,G13,G23,G31)/4</f>
-        <v>174.8149999999996</v>
+        <v>166.38499999999976</v>
       </c>
       <c r="H34">
         <f>SUM(H6,H14,H22,H30)</f>
@@ -2134,7 +2150,7 @@
       </c>
       <c r="I34" s="5">
         <f>G34/C34*100</f>
-        <v>9.6614974721434835E-2</v>
+        <v>9.1955968132173715E-2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2018,7 +2018,7 @@
         <v>-5338.18</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" ref="I26:I29" si="3">G26/D26*100</f>
+        <f t="shared" ref="I26:I30" si="3">G26/D26*100</f>
         <v>-2.7322809646233757</v>
       </c>
     </row>
@@ -2089,20 +2089,36 @@
       <c r="A30" s="6">
         <v>44253</v>
       </c>
+      <c r="B30">
+        <v>232996.36</v>
+      </c>
+      <c r="C30">
+        <v>141884.51999999999</v>
+      </c>
+      <c r="D30">
+        <v>144640.23000000001</v>
+      </c>
+      <c r="G30">
+        <v>-3691.96</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.5525125340301242</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="6"/>
       <c r="B31">
-        <f>SUM(B26:B30)/3</f>
-        <v>319581.39666666667</v>
+        <f>SUM(B26:B30)/5</f>
+        <v>238348.10999999996</v>
       </c>
       <c r="C31">
-        <f>SUM(C26:C30)/3</f>
-        <v>209934.64333333334</v>
+        <f>SUM(C26:C30)/5</f>
+        <v>154337.69</v>
       </c>
       <c r="D31">
-        <f>SUM(D26:D30)/3</f>
-        <v>226846.06333333332</v>
+        <f>SUM(D26:D30)/5</f>
+        <v>165035.68399999998</v>
       </c>
       <c r="F31">
         <f>SUM(F26:F30)</f>
@@ -2110,7 +2126,7 @@
       </c>
       <c r="G31">
         <f>SUM(G26:G30)</f>
-        <v>-10808.5</v>
+        <v>-14500.46</v>
       </c>
       <c r="H31">
         <f>SUM(H26:H30)</f>
@@ -2118,7 +2134,7 @@
       </c>
       <c r="I31" s="5">
         <f t="shared" ref="I31" si="4">G31/D31*100</f>
-        <v>-4.7646848445051999</v>
+        <v>-8.7862574011569521</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2132,17 +2148,25 @@
       </c>
     </row>
     <row r="34" spans="1:9">
+      <c r="B34" s="2">
+        <f>SUM(B7,B13,B23,B31)/4</f>
+        <v>242791.82183333332</v>
+      </c>
       <c r="C34" s="2">
-        <f>SUM(C2,C3,C4,C5,C6,C10,C11,C12,C21,C22)/10</f>
-        <v>180939.86000000002</v>
+        <f>SUM(C7,C13,C23,C31)/4</f>
+        <v>178449.16725</v>
+      </c>
+      <c r="D34" s="2">
+        <f>SUM(D7,D13,D23,D31)/4</f>
+        <v>179376.36924999999</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ref="F34" si="5">G34+H34</f>
-        <v>166.38499999999976</v>
+        <v>-3026.42</v>
       </c>
       <c r="G34">
-        <f>SUM(G7,G13,G23,G31)/4</f>
-        <v>166.38499999999976</v>
+        <f>SUM(G7,G13,G23,G31)</f>
+        <v>-3026.42</v>
       </c>
       <c r="H34">
         <f>SUM(H6,H14,H22,H30)</f>
@@ -2150,7 +2174,7 @@
       </c>
       <c r="I34" s="5">
         <f>G34/C34*100</f>
-        <v>9.1955968132173715E-2</v>
+        <v>-1.6959563592471738</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2102" sheetId="31" r:id="rId1"/>
     <sheet name="2101" sheetId="26" r:id="rId2"/>
     <sheet name="每月" sheetId="29" r:id="rId3"/>
     <sheet name="分红计算" sheetId="30" r:id="rId4"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -100,6 +101,22 @@
   </si>
   <si>
     <t>收益</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>份额</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>赎回单价</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入金额</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>单份赎回费</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1138,7 +1155,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1159,6 +1176,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="131">
@@ -1594,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -3617,7 +3637,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3796,4 +3816,164 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="5" max="5" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>26.86</v>
+      </c>
+      <c r="D2">
+        <v>3.3831000000000002</v>
+      </c>
+      <c r="E2" s="7">
+        <f>D2*C2</f>
+        <v>90.870066000000008</v>
+      </c>
+      <c r="F2" s="1">
+        <f>E2-B2</f>
+        <v>-9.1299339999999916</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-9.1300000000000008</v>
+      </c>
+      <c r="H2">
+        <v>2.3832221163012392E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>280.58999999999997</v>
+      </c>
+      <c r="D3">
+        <v>3.3831000000000002</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E7" si="0">D3*C3</f>
+        <v>949.26402899999994</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F5" si="1">E3-B3</f>
+        <v>-50.735971000000063</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-50.74</v>
+      </c>
+      <c r="H3">
+        <v>2.3832221163012392E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4">
+        <v>546.61</v>
+      </c>
+      <c r="D4">
+        <v>3.3831000000000002</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>1849.2362910000002</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>-150.76370899999984</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-150.76</v>
+      </c>
+      <c r="H4">
+        <v>2.3832221163012392E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>1500</v>
+      </c>
+      <c r="C5">
+        <v>421.11</v>
+      </c>
+      <c r="D5">
+        <v>3.3831000000000002</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>1424.6572410000001</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>-75.342758999999887</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-75.34</v>
+      </c>
+      <c r="H5">
+        <v>2.3832221163012392E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="C7">
+        <f>SUM(C2:C5)</f>
+        <v>1275.17</v>
+      </c>
+      <c r="D7">
+        <v>3.3831000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>4314.0276270000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="C8">
+        <f>SUM(C3:C6)</f>
+        <v>1248.31</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29.75</v>
+      </c>
+      <c r="H8">
+        <f>E8/C8</f>
+        <v>2.3832221163012392E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="2102" sheetId="31" r:id="rId1"/>
-    <sheet name="2101" sheetId="26" r:id="rId2"/>
-    <sheet name="每月" sheetId="29" r:id="rId3"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId4"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId5"/>
+    <sheet name="2103" sheetId="33" r:id="rId1"/>
+    <sheet name="2102" sheetId="31" r:id="rId2"/>
+    <sheet name="2101" sheetId="26" r:id="rId3"/>
+    <sheet name="每月" sheetId="29" r:id="rId4"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId5"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -117,6 +118,18 @@
   </si>
   <si>
     <t>单份赎回费</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>赎回金额</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益计算</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1168,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1177,8 +1190,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="131">
@@ -1612,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1636,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>10</v>
@@ -1650,551 +1669,190 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6">
-        <v>44228</v>
-      </c>
-      <c r="B2">
-        <v>238036.01</v>
-      </c>
-      <c r="C2">
-        <v>164254.16</v>
-      </c>
-      <c r="D2">
-        <v>162701.5</v>
-      </c>
-      <c r="F2">
-        <v>1573.76</v>
-      </c>
+        <v>44256</v>
+      </c>
+      <c r="B2" s="2">
+        <v>235270.13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>144481.22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>141884.51999999999</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2">
-        <v>1552.66</v>
+        <v>2258.36</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I7" si="0">G2/D2*100</f>
-        <v>0.95429974523898076</v>
+        <f t="shared" ref="I2:I3" si="0">G2/D2*100</f>
+        <v>1.5916887902922745</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6">
-        <v>44229</v>
+        <v>44257</v>
       </c>
       <c r="B3">
-        <v>240484.06</v>
+        <v>233987.04</v>
       </c>
       <c r="C3">
-        <v>161171.70000000001</v>
+        <v>141545.63</v>
       </c>
       <c r="D3">
-        <v>164254.16</v>
-      </c>
-      <c r="F3">
-        <v>2448.04</v>
+        <v>144481.22</v>
       </c>
       <c r="G3">
-        <v>2448.6999999999998</v>
+        <v>-1288.79</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="0"/>
-        <v>1.4907993806671318</v>
+        <v>-0.89201212448233747</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6">
-        <v>44230</v>
-      </c>
-      <c r="B4">
-        <v>239645.11</v>
-      </c>
-      <c r="C4">
-        <v>153949.04</v>
-      </c>
-      <c r="D4">
-        <v>161171.70000000001</v>
-      </c>
-      <c r="F4">
-        <v>-838.95</v>
-      </c>
-      <c r="G4">
-        <v>-844.91</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.52422975001194372</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6">
-        <v>44231</v>
-      </c>
-      <c r="B5">
-        <v>239227.84</v>
-      </c>
-      <c r="C5">
-        <v>167521.74</v>
-      </c>
-      <c r="D5">
-        <v>153949.04</v>
-      </c>
-      <c r="F5">
-        <v>-417.28</v>
-      </c>
-      <c r="G5">
-        <v>-422.81</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.27464282986110211</v>
+        <v>44259</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6">
-        <v>44232</v>
-      </c>
-      <c r="B6">
-        <v>238383.6</v>
-      </c>
-      <c r="C6">
-        <v>175171.83</v>
-      </c>
-      <c r="D6">
-        <v>167521.74</v>
-      </c>
-      <c r="F6">
-        <v>-844.24</v>
-      </c>
-      <c r="G6">
-        <v>-845.12</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.50448377625495056</v>
+        <v>44260</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6"/>
-      <c r="B7">
-        <f>SUM(B2:B6)/5</f>
-        <v>239155.32399999996</v>
-      </c>
-      <c r="C7">
-        <f>SUM(C2:C6)/5</f>
-        <v>164413.69399999999</v>
-      </c>
-      <c r="D7">
-        <f>SUM(D2:D6)/5</f>
-        <v>161919.628</v>
-      </c>
-      <c r="F7">
-        <f>SUM(F2:F6)</f>
-        <v>1921.3300000000006</v>
-      </c>
-      <c r="G7">
-        <f>SUM(G2:G6)</f>
-        <v>1888.52</v>
-      </c>
-      <c r="H7">
-        <f>SUM(H2:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>1.166331730949876</v>
+      <c r="A7" s="6">
+        <v>44261</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6">
-        <v>44233</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6">
-        <v>44234</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6">
-        <v>44235</v>
-      </c>
-      <c r="B10">
-        <v>241079.12</v>
-      </c>
-      <c r="C10">
-        <v>177666.72</v>
-      </c>
-      <c r="D10">
-        <v>175171.83</v>
-      </c>
-      <c r="G10">
-        <v>2681.56</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" ref="I10:I13" si="1">G10/D10*100</f>
-        <v>1.5308169127421916</v>
+        <v>44264</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6">
-        <v>44236</v>
-      </c>
-      <c r="B11">
-        <v>245659.54</v>
-      </c>
-      <c r="C11">
-        <v>205242.87</v>
-      </c>
-      <c r="D11">
-        <v>177666.72</v>
-      </c>
-      <c r="G11">
-        <v>4576.1499999999996</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="1"/>
-        <v>2.5756934106736478</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6">
-        <v>44237</v>
-      </c>
-      <c r="B12">
-        <v>249229.69</v>
-      </c>
-      <c r="C12">
-        <v>208809.09</v>
-      </c>
-      <c r="D12">
-        <v>205242.87</v>
-      </c>
-      <c r="G12">
-        <v>3566.21</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7375560963457586</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="B13">
-        <f>SUM(B8:B12)/3</f>
-        <v>245322.78333333335</v>
-      </c>
-      <c r="C13">
-        <f>SUM(C8:C12)/3</f>
-        <v>197239.55999999997</v>
-      </c>
-      <c r="D13">
-        <f>SUM(D8:D12)/3</f>
-        <v>186027.13999999998</v>
-      </c>
-      <c r="F13">
-        <f>SUM(F8:F12)</f>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f>SUM(G8:G12)</f>
-        <v>10823.919999999998</v>
-      </c>
-      <c r="H13">
-        <f>SUM(H8:H12)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="1"/>
-        <v>5.8184628328963175</v>
+      <c r="A13" s="6">
+        <v>44267</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6">
-        <v>44238</v>
+        <v>44268</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6">
-        <v>44239</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6">
-        <v>44240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="6">
-        <v>44241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="6">
-        <v>44242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="6">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="6">
-        <v>44244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="6">
-        <v>44245</v>
-      </c>
-      <c r="B21">
-        <v>248666.85</v>
-      </c>
-      <c r="C21">
-        <v>200236.96</v>
-      </c>
-      <c r="D21">
-        <v>208809.09</v>
-      </c>
-      <c r="G21">
-        <v>-584.24</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" ref="I21:I23" si="2">G21/D21*100</f>
-        <v>-0.27979624833382494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="6">
-        <v>44246</v>
-      </c>
-      <c r="B22">
-        <v>248015.29</v>
-      </c>
-      <c r="C22">
-        <v>195374.49</v>
-      </c>
-      <c r="D22">
-        <v>200236.96</v>
-      </c>
-      <c r="G22">
-        <v>-654.16</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.32669293421154616</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="B23">
-        <f>SUM(B18:B22)/2</f>
-        <v>248341.07</v>
-      </c>
-      <c r="C23">
-        <f>SUM(C18:C22)/2</f>
-        <v>197805.72499999998</v>
-      </c>
-      <c r="D23">
-        <f>SUM(D18:D22)/2</f>
-        <v>204523.02499999999</v>
-      </c>
-      <c r="F23">
-        <f>SUM(F18:F22)</f>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G18:G22)</f>
-        <v>-1238.4000000000001</v>
-      </c>
-      <c r="H23">
-        <f>SUM(H18:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.60550639714037091</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>44276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="6">
-        <v>44247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="6">
-        <v>44248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="6">
-        <v>44249</v>
-      </c>
-      <c r="B26">
-        <v>242685.02</v>
-      </c>
-      <c r="C26">
-        <v>162695.51</v>
-      </c>
-      <c r="D26">
-        <v>195374.49</v>
-      </c>
-      <c r="G26">
-        <v>-5338.18</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" ref="I26:I30" si="3">G26/D26*100</f>
-        <v>-2.7322809646233757</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="6">
-        <v>44250</v>
-      </c>
-      <c r="B27">
-        <v>242112.11</v>
-      </c>
-      <c r="C27">
-        <v>163379.64000000001</v>
-      </c>
-      <c r="D27">
-        <v>162695.51</v>
-      </c>
-      <c r="G27">
-        <v>-577.67999999999995</v>
-      </c>
-      <c r="I27" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.35506818842142596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="6">
-        <v>44251</v>
-      </c>
-      <c r="B28">
-        <v>237257.81</v>
-      </c>
-      <c r="C28">
-        <v>159088.54999999999</v>
-      </c>
-      <c r="D28">
-        <v>163379.64000000001</v>
-      </c>
-      <c r="G28">
-        <v>-4858.92</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.9740058185952667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>44282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="6">
-        <v>44252</v>
-      </c>
-      <c r="B29">
-        <v>236689.25</v>
-      </c>
-      <c r="C29">
-        <v>144640.23000000001</v>
-      </c>
-      <c r="D29">
-        <v>159088.54999999999</v>
-      </c>
-      <c r="G29">
-        <v>-33.72</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1195742874015763E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="6">
-        <v>44253</v>
-      </c>
-      <c r="B30">
-        <v>232996.36</v>
-      </c>
-      <c r="C30">
-        <v>141884.51999999999</v>
-      </c>
-      <c r="D30">
-        <v>144640.23000000001</v>
-      </c>
-      <c r="G30">
-        <v>-3691.96</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.5525125340301242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="6"/>
-      <c r="B31">
-        <f>SUM(B26:B30)/5</f>
-        <v>238348.10999999996</v>
-      </c>
-      <c r="C31">
-        <f>SUM(C26:C30)/5</f>
-        <v>154337.69</v>
-      </c>
-      <c r="D31">
-        <f>SUM(D26:D30)/5</f>
-        <v>165035.68399999998</v>
-      </c>
-      <c r="F31">
-        <f>SUM(F26:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f>SUM(G26:G30)</f>
-        <v>-14500.46</v>
-      </c>
-      <c r="H31">
-        <f>SUM(H26:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" ref="I31" si="4">G31/D31*100</f>
-        <v>-8.7862574011569521</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="6">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="6">
-        <v>44254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="6">
-        <v>44255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="2">
-        <f>SUM(B7,B13,B23,B31)/4</f>
-        <v>242791.82183333332</v>
-      </c>
-      <c r="C34" s="2">
-        <f>SUM(C7,C13,C23,C31)/4</f>
-        <v>178449.16725</v>
-      </c>
-      <c r="D34" s="2">
-        <f>SUM(D7,D13,D23,D31)/4</f>
-        <v>179376.36924999999</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" ref="F34" si="5">G34+H34</f>
-        <v>-3026.42</v>
-      </c>
-      <c r="G34">
-        <f>SUM(G7,G13,G23,G31)</f>
-        <v>-3026.42</v>
-      </c>
-      <c r="H34">
-        <f>SUM(H6,H14,H22,H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <f>G34/C34*100</f>
-        <v>-1.6959563592471738</v>
+        <v>44286</v>
       </c>
     </row>
   </sheetData>
@@ -2205,6 +1863,600 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6">
+        <v>44228</v>
+      </c>
+      <c r="B2">
+        <v>238036.01</v>
+      </c>
+      <c r="C2">
+        <v>164254.16</v>
+      </c>
+      <c r="D2">
+        <v>162701.5</v>
+      </c>
+      <c r="F2">
+        <v>1573.76</v>
+      </c>
+      <c r="G2">
+        <v>1552.66</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I7" si="0">G2/D2*100</f>
+        <v>0.95429974523898076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6">
+        <v>44229</v>
+      </c>
+      <c r="B3">
+        <v>240484.06</v>
+      </c>
+      <c r="C3">
+        <v>161171.70000000001</v>
+      </c>
+      <c r="D3">
+        <v>164254.16</v>
+      </c>
+      <c r="F3">
+        <v>2448.04</v>
+      </c>
+      <c r="G3">
+        <v>2448.6999999999998</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4907993806671318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6">
+        <v>44230</v>
+      </c>
+      <c r="B4">
+        <v>239645.11</v>
+      </c>
+      <c r="C4">
+        <v>153949.04</v>
+      </c>
+      <c r="D4">
+        <v>161171.70000000001</v>
+      </c>
+      <c r="F4">
+        <v>-838.95</v>
+      </c>
+      <c r="G4">
+        <v>-844.91</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.52422975001194372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6">
+        <v>44231</v>
+      </c>
+      <c r="B5">
+        <v>239227.84</v>
+      </c>
+      <c r="C5">
+        <v>167521.74</v>
+      </c>
+      <c r="D5">
+        <v>153949.04</v>
+      </c>
+      <c r="F5">
+        <v>-417.28</v>
+      </c>
+      <c r="G5">
+        <v>-422.81</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.27464282986110211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6">
+        <v>44232</v>
+      </c>
+      <c r="B6">
+        <v>238383.6</v>
+      </c>
+      <c r="C6">
+        <v>175171.83</v>
+      </c>
+      <c r="D6">
+        <v>167521.74</v>
+      </c>
+      <c r="F6">
+        <v>-844.24</v>
+      </c>
+      <c r="G6">
+        <v>-845.12</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.50448377625495056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6"/>
+      <c r="B7">
+        <f>SUM(B2:B6)/5</f>
+        <v>239155.32399999996</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)/5</f>
+        <v>164413.69399999999</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)/5</f>
+        <v>161919.628</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>1921.3300000000006</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>1888.52</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.166331730949876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6">
+        <v>44234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6">
+        <v>44235</v>
+      </c>
+      <c r="B10">
+        <v>241079.12</v>
+      </c>
+      <c r="C10">
+        <v>177666.72</v>
+      </c>
+      <c r="D10">
+        <v>175171.83</v>
+      </c>
+      <c r="G10">
+        <v>2681.56</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10:I13" si="1">G10/D10*100</f>
+        <v>1.5308169127421916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6">
+        <v>44236</v>
+      </c>
+      <c r="B11">
+        <v>245659.54</v>
+      </c>
+      <c r="C11">
+        <v>205242.87</v>
+      </c>
+      <c r="D11">
+        <v>177666.72</v>
+      </c>
+      <c r="G11">
+        <v>4576.1499999999996</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5756934106736478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6">
+        <v>44237</v>
+      </c>
+      <c r="B12">
+        <v>249229.69</v>
+      </c>
+      <c r="C12">
+        <v>208809.09</v>
+      </c>
+      <c r="D12">
+        <v>205242.87</v>
+      </c>
+      <c r="G12">
+        <v>3566.21</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7375560963457586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6"/>
+      <c r="B13">
+        <f>SUM(B8:B12)/3</f>
+        <v>245322.78333333335</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C8:C12)/3</f>
+        <v>197239.55999999997</v>
+      </c>
+      <c r="D13">
+        <f>SUM(D8:D12)/3</f>
+        <v>186027.13999999998</v>
+      </c>
+      <c r="F13">
+        <f>SUM(F8:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>SUM(G8:G12)</f>
+        <v>10823.919999999998</v>
+      </c>
+      <c r="H13">
+        <f>SUM(H8:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>5.8184628328963175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6">
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6">
+        <v>44240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6">
+        <v>44245</v>
+      </c>
+      <c r="B21">
+        <v>248666.85</v>
+      </c>
+      <c r="C21">
+        <v>200236.96</v>
+      </c>
+      <c r="D21">
+        <v>208809.09</v>
+      </c>
+      <c r="G21">
+        <v>-584.24</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" ref="I21:I23" si="2">G21/D21*100</f>
+        <v>-0.27979624833382494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6">
+        <v>44246</v>
+      </c>
+      <c r="B22">
+        <v>248015.29</v>
+      </c>
+      <c r="C22">
+        <v>195374.49</v>
+      </c>
+      <c r="D22">
+        <v>200236.96</v>
+      </c>
+      <c r="G22">
+        <v>-654.16</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.32669293421154616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6"/>
+      <c r="B23">
+        <f>SUM(B18:B22)/2</f>
+        <v>248341.07</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C18:C22)/2</f>
+        <v>197805.72499999998</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D18:D22)/2</f>
+        <v>204523.02499999999</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F18:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G18:G22)</f>
+        <v>-1238.4000000000001</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H18:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.60550639714037091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="6">
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6">
+        <v>44248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="6">
+        <v>44249</v>
+      </c>
+      <c r="B26">
+        <v>242685.02</v>
+      </c>
+      <c r="C26">
+        <v>162695.51</v>
+      </c>
+      <c r="D26">
+        <v>195374.49</v>
+      </c>
+      <c r="G26">
+        <v>-5338.18</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" ref="I26:I30" si="3">G26/D26*100</f>
+        <v>-2.7322809646233757</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6">
+        <v>44250</v>
+      </c>
+      <c r="B27">
+        <v>242112.11</v>
+      </c>
+      <c r="C27">
+        <v>163379.64000000001</v>
+      </c>
+      <c r="D27">
+        <v>162695.51</v>
+      </c>
+      <c r="G27">
+        <v>-577.67999999999995</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.35506818842142596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6">
+        <v>44251</v>
+      </c>
+      <c r="B28">
+        <v>237257.81</v>
+      </c>
+      <c r="C28">
+        <v>159088.54999999999</v>
+      </c>
+      <c r="D28">
+        <v>163379.64000000001</v>
+      </c>
+      <c r="G28">
+        <v>-4858.92</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.9740058185952667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="6">
+        <v>44252</v>
+      </c>
+      <c r="B29">
+        <v>236689.25</v>
+      </c>
+      <c r="C29">
+        <v>144640.23000000001</v>
+      </c>
+      <c r="D29">
+        <v>159088.54999999999</v>
+      </c>
+      <c r="G29">
+        <v>-33.72</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.1195742874015763E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6">
+        <v>44253</v>
+      </c>
+      <c r="B30">
+        <v>232996.36</v>
+      </c>
+      <c r="C30">
+        <v>141884.51999999999</v>
+      </c>
+      <c r="D30">
+        <v>144640.23000000001</v>
+      </c>
+      <c r="G30">
+        <v>-3691.96</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.5525125340301242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="6"/>
+      <c r="B31">
+        <f>SUM(B26:B30)/5</f>
+        <v>238348.10999999996</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C26:C30)/5</f>
+        <v>154337.69</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D26:D30)/5</f>
+        <v>165035.68399999998</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F26:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G26:G30)</f>
+        <v>-14500.46</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H26:H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" ref="I31" si="4">G31/D31*100</f>
+        <v>-8.7862574011569521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6">
+        <v>44254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="2">
+        <f>SUM(B7,B13,B23,B31)/4</f>
+        <v>242791.82183333332</v>
+      </c>
+      <c r="C34" s="2">
+        <f>SUM(C7,C13,C23,C31)/4</f>
+        <v>178449.16725</v>
+      </c>
+      <c r="D34" s="2">
+        <f>SUM(D7,D13,D23,D31)/4</f>
+        <v>179376.36924999999</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34" si="5">G34+H34</f>
+        <v>-3026.42</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G7,G13,G23,G31)</f>
+        <v>-3026.42</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H6,H14,H22,H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f>G34/C34*100</f>
+        <v>-1.6959563592471738</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -3122,7 +3374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -3632,7 +3884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -3818,21 +4070,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H8"/>
+  <dimension ref="B1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:9">
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
@@ -3842,138 +4095,99 @@
       <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
       <c r="B2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>26.86</v>
+        <v>861.52</v>
       </c>
       <c r="D2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E2" s="8">
+        <f>D2*C2</f>
+        <v>961.45632000000012</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2-B2</f>
+        <v>-38.543679999999881</v>
+      </c>
+      <c r="H2">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I2">
+        <f>H2*C2</f>
+        <v>5.41256299844183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>1744.1</v>
+      </c>
+      <c r="D3">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3" si="0">D3*C3</f>
+        <v>1946.4156</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3" si="1">E3-B3</f>
+        <v>-53.58439999999996</v>
+      </c>
+      <c r="H3">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3" si="2">H3*C3</f>
+        <v>10.957437001558171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6">
+        <f>SUM(C2:C4)</f>
+        <v>2605.62</v>
+      </c>
+      <c r="D6">
         <v>3.3831000000000002</v>
       </c>
-      <c r="E2" s="7">
-        <f>D2*C2</f>
-        <v>90.870066000000008</v>
-      </c>
-      <c r="F2" s="1">
-        <f>E2-B2</f>
-        <v>-9.1299339999999916</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-9.1300000000000008</v>
-      </c>
-      <c r="H2">
-        <v>2.3832221163012392E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3">
-        <v>1000</v>
-      </c>
-      <c r="C3">
-        <v>280.58999999999997</v>
-      </c>
-      <c r="D3">
-        <v>3.3831000000000002</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" ref="E3:E7" si="0">D3*C3</f>
-        <v>949.26402899999994</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F5" si="1">E3-B3</f>
-        <v>-50.735971000000063</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-50.74</v>
-      </c>
-      <c r="H3">
-        <v>2.3832221163012392E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4">
-        <v>2000</v>
-      </c>
-      <c r="C4">
-        <v>546.61</v>
-      </c>
-      <c r="D4">
-        <v>3.3831000000000002</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>1849.2362910000002</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="1"/>
-        <v>-150.76370899999984</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-150.76</v>
-      </c>
-      <c r="H4">
-        <v>2.3832221163012392E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5">
-        <v>1500</v>
-      </c>
-      <c r="C5">
-        <v>421.11</v>
-      </c>
-      <c r="D5">
-        <v>3.3831000000000002</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>1424.6572410000001</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>-75.342758999999887</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-75.34</v>
-      </c>
-      <c r="H5">
-        <v>2.3832221163012392E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="C7">
-        <f>SUM(C2:C5)</f>
-        <v>1275.17</v>
-      </c>
-      <c r="D7">
-        <v>3.3831000000000002</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>4314.0276270000004</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="C8">
-        <f>SUM(C3:C6)</f>
-        <v>1248.31</v>
-      </c>
-      <c r="E8" s="1">
-        <v>29.75</v>
-      </c>
-      <c r="H8">
-        <f>E8/C8</f>
-        <v>2.3832221163012392E-2</v>
+      <c r="E6" s="9">
+        <f t="shared" ref="E6" si="3">D6*C6</f>
+        <v>8815.0730220000005</v>
+      </c>
+      <c r="F6" s="9">
+        <v>16.37</v>
+      </c>
+      <c r="H6">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -13,13 +13,14 @@
     <sheet name="每月" sheetId="29" r:id="rId4"/>
     <sheet name="分红计算" sheetId="30" r:id="rId5"/>
     <sheet name="赎回中" sheetId="32" r:id="rId6"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -130,6 +131,59 @@
   </si>
   <si>
     <t>服务费</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>外盘</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>国债逆回购</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午开盘休息</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午开盘</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>休市</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>富士A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>港股</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1168,7 +1222,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,6 +1251,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1631,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1685,7 +1742,7 @@
         <v>2258.36</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I3" si="0">G2/D2*100</f>
+        <f t="shared" ref="I2:I6" si="0">G2/D2*100</f>
         <v>1.5916887902922745</v>
       </c>
     </row>
@@ -1714,144 +1771,223 @@
       <c r="A4" s="6">
         <v>44258</v>
       </c>
+      <c r="B4">
+        <v>235334.7</v>
+      </c>
+      <c r="C4">
+        <v>121781.53</v>
+      </c>
+      <c r="D4">
+        <v>141545.63</v>
+      </c>
+      <c r="G4">
+        <v>1341.73</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.94791340432057136</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6">
         <v>44259</v>
       </c>
+      <c r="B5">
+        <v>231718.48</v>
+      </c>
+      <c r="C5">
+        <v>107799.67</v>
+      </c>
+      <c r="D5">
+        <v>121781.53</v>
+      </c>
+      <c r="G5">
+        <v>-3623.24</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.9751966492784248</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6">
         <v>44260</v>
       </c>
+      <c r="B6">
+        <v>181291.19</v>
+      </c>
+      <c r="C6">
+        <v>107364.03</v>
+      </c>
+      <c r="D6">
+        <v>107799.67</v>
+      </c>
+      <c r="G6">
+        <v>-429.84</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.39873962508419547</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6">
-        <v>44261</v>
+      <c r="A7" s="6"/>
+      <c r="B7">
+        <f>SUM(B2:B6)/5</f>
+        <v>223520.30800000002</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)/5</f>
+        <v>124594.416</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)/5</f>
+        <v>131498.51400000002</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>-1741.7799999999995</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" ref="I7" si="1">G7/D7*100</f>
+        <v>-1.3245624965769569</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6">
-        <v>44262</v>
+        <v>44261</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6">
-        <v>44263</v>
+        <v>44262</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6">
-        <v>44264</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6">
-        <v>44265</v>
+        <v>44264</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6">
-        <v>44266</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6">
-        <v>44267</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6">
-        <v>44268</v>
+        <v>44267</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6">
-        <v>44269</v>
+        <v>44268</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6">
-        <v>44270</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6">
-        <v>44271</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6">
-        <v>44272</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6">
-        <v>44273</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6">
-        <v>44274</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6">
-        <v>44275</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6">
-        <v>44276</v>
+        <v>44275</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6">
-        <v>44277</v>
+        <v>44276</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6">
-        <v>44278</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6">
-        <v>44279</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6">
-        <v>44280</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6">
-        <v>44281</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6">
-        <v>44282</v>
+        <v>44281</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="6">
-        <v>44283</v>
+        <v>44282</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6">
-        <v>44284</v>
+        <v>44283</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6">
-        <v>44285</v>
+        <v>44284</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6">
         <v>44286</v>
       </c>
     </row>
@@ -1867,7 +2003,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4190,4 +4326,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1691,7 +1691,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1875,10 +1875,42 @@
       <c r="A10" s="6">
         <v>44263</v>
       </c>
+      <c r="B10">
+        <v>177449.31</v>
+      </c>
+      <c r="C10">
+        <v>102570.05</v>
+      </c>
+      <c r="D10">
+        <v>124594.416</v>
+      </c>
+      <c r="G10">
+        <v>-3857.44</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10:I11" si="2">G10/D10*100</f>
+        <v>-3.0959974963886023</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6">
         <v>44264</v>
+      </c>
+      <c r="B11">
+        <v>174553.39</v>
+      </c>
+      <c r="C11">
+        <v>99669.3</v>
+      </c>
+      <c r="D11">
+        <v>102570.05</v>
+      </c>
+      <c r="G11">
+        <v>-2900.76</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.8280770068845635</v>
       </c>
     </row>
     <row r="12" spans="1:9">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1691,7 +1691,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1888,7 +1888,7 @@
         <v>-3857.44</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ref="I10:I11" si="2">G10/D10*100</f>
+        <f t="shared" ref="I10:I12" si="2">G10/D10*100</f>
         <v>-3.0959974963886023</v>
       </c>
     </row>
@@ -1916,6 +1916,22 @@
     <row r="12" spans="1:9">
       <c r="A12" s="6">
         <v>44265</v>
+      </c>
+      <c r="B12">
+        <v>145172.67000000001</v>
+      </c>
+      <c r="C12">
+        <v>85578.68</v>
+      </c>
+      <c r="D12">
+        <v>99669.3</v>
+      </c>
+      <c r="G12">
+        <v>610.9</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.61292694942173764</v>
       </c>
     </row>
     <row r="13" spans="1:9">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1691,7 +1691,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1888,7 +1888,7 @@
         <v>-3857.44</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ref="I10:I12" si="2">G10/D10*100</f>
+        <f t="shared" ref="I10:I13" si="2">G10/D10*100</f>
         <v>-3.0959974963886023</v>
       </c>
     </row>
@@ -1937,6 +1937,22 @@
     <row r="13" spans="1:9">
       <c r="A13" s="6">
         <v>44266</v>
+      </c>
+      <c r="B13">
+        <v>147127.25</v>
+      </c>
+      <c r="C13">
+        <v>87730.34</v>
+      </c>
+      <c r="D13">
+        <v>85578.68</v>
+      </c>
+      <c r="G13">
+        <v>1951.65</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>2.2805329551706106</v>
       </c>
     </row>
     <row r="14" spans="1:9">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -14,13 +14,14 @@
     <sheet name="分红计算" sheetId="30" r:id="rId5"/>
     <sheet name="赎回中" sheetId="32" r:id="rId6"/>
     <sheet name="每日时间表" sheetId="34" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -184,6 +185,51 @@
   </si>
   <si>
     <t>港股</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票-日收益率</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票-日收益</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票-持仓</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富-总金额</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国建筑</t>
+  </si>
+  <si>
+    <t>证券买入(卖出)</t>
+  </si>
+  <si>
+    <t>工程建设</t>
+  </si>
+  <si>
+    <t>中青旅</t>
+  </si>
+  <si>
+    <t>旅游酒店</t>
+  </si>
+  <si>
+    <t>分众传媒</t>
+  </si>
+  <si>
+    <t>传媒</t>
+  </si>
+  <si>
+    <t>已卖出</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>已买入</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1222,7 +1268,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1254,6 +1300,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1688,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1699,9 +1748,10 @@
     <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1723,8 +1773,20 @@
       <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="6">
         <v>44256</v>
       </c>
@@ -1745,8 +1807,18 @@
         <f t="shared" ref="I2:I6" si="0">G2/D2*100</f>
         <v>1.5916887902922745</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2">
+        <v>2744</v>
+      </c>
+      <c r="L2">
+        <v>85</v>
+      </c>
+      <c r="M2" s="5">
+        <f>L2/K2*100</f>
+        <v>3.0976676384839652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="6">
         <v>44257</v>
       </c>
@@ -1766,8 +1838,18 @@
         <f t="shared" si="0"/>
         <v>-0.89201212448233747</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3">
+        <v>9534.1</v>
+      </c>
+      <c r="L3">
+        <v>-53.55</v>
+      </c>
+      <c r="M3" s="5">
+        <f>L3/K3*100</f>
+        <v>-0.56166811759893431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="6">
         <v>44258</v>
       </c>
@@ -1787,8 +1869,18 @@
         <f t="shared" si="0"/>
         <v>0.94791340432057136</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4">
+        <v>10594.1</v>
+      </c>
+      <c r="L4">
+        <v>185.88</v>
+      </c>
+      <c r="M4" s="5">
+        <f>L4/K4*100</f>
+        <v>1.7545615012129392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="6">
         <v>44259</v>
       </c>
@@ -1808,8 +1900,18 @@
         <f t="shared" si="0"/>
         <v>-2.9751966492784248</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5">
+        <v>33814.300000000003</v>
+      </c>
+      <c r="L5">
+        <v>-334.41</v>
+      </c>
+      <c r="M5" s="5">
+        <f>L5/K5*100</f>
+        <v>-0.98896029194748958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="6">
         <v>44260</v>
       </c>
@@ -1829,8 +1931,18 @@
         <f t="shared" si="0"/>
         <v>-0.39873962508419547</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6">
+        <v>41238.300000000003</v>
+      </c>
+      <c r="L6">
+        <v>-420.61</v>
+      </c>
+      <c r="M6" s="5">
+        <f>L6/K6*100</f>
+        <v>-1.0199499009416004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="6"/>
       <c r="B7">
         <f>SUM(B2:B6)/5</f>
@@ -1860,18 +1972,30 @@
         <f t="shared" ref="I7" si="1">G7/D7*100</f>
         <v>-1.3245624965769569</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7">
+        <f>SUM(K2:K6)/5</f>
+        <v>19584.96</v>
+      </c>
+      <c r="L7">
+        <f>SUM(L2:L6)</f>
+        <v>-537.69000000000005</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-2.7454230184794866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="6">
         <v>44261</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13">
       <c r="A9" s="6">
         <v>44262</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13">
       <c r="A10" s="6">
         <v>44263</v>
       </c>
@@ -1888,11 +2012,21 @@
         <v>-3857.44</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ref="I10:I13" si="2">G10/D10*100</f>
+        <f t="shared" ref="I10:I15" si="2">G10/D10*100</f>
         <v>-3.0959974963886023</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10">
+        <v>57983.3</v>
+      </c>
+      <c r="L10">
+        <v>-537.69000000000005</v>
+      </c>
+      <c r="M10" s="5">
+        <f>L10/K10*100</f>
+        <v>-0.92731872797857318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="6">
         <v>44264</v>
       </c>
@@ -1912,8 +2046,18 @@
         <f t="shared" si="2"/>
         <v>-2.8280770068845635</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11">
+        <v>65921</v>
+      </c>
+      <c r="L11">
+        <v>-1745.37</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" ref="M11:M14" si="3">L11/K11*100</f>
+        <v>-2.6476691797757921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="6">
         <v>44265</v>
       </c>
@@ -1933,8 +2077,18 @@
         <f t="shared" si="2"/>
         <v>0.61292694942173764</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12">
+        <v>65921</v>
+      </c>
+      <c r="L12">
+        <v>-1047.8</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.5894783149527463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="6">
         <v>44266</v>
       </c>
@@ -1954,104 +2108,365 @@
         <f t="shared" si="2"/>
         <v>2.2805329551706106</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13">
+        <v>78588.2</v>
+      </c>
+      <c r="L13">
+        <v>240.1</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.30551660427392408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="6">
         <v>44267</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6">
+      <c r="B14">
+        <v>147127.25</v>
+      </c>
+      <c r="C14">
+        <v>87730.34</v>
+      </c>
+      <c r="D14">
+        <v>87730.34</v>
+      </c>
+      <c r="G14">
+        <v>300.25</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34224191995608361</v>
+      </c>
+      <c r="K14">
+        <v>93784.2</v>
+      </c>
+      <c r="L14">
+        <v>1503.02</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="3"/>
+        <v>1.6026366914682857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6"/>
+      <c r="B15">
+        <f>SUM(B10:B14)/5</f>
+        <v>158285.97399999999</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C10:C14)/5</f>
+        <v>92655.741999999998</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D10:D14)/5</f>
+        <v>100028.5572</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F10:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G10:G14)</f>
+        <v>-3895.4000000000015</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H10:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="2"/>
+        <v>-3.8942879004157041</v>
+      </c>
+      <c r="K15">
+        <f>SUM(K10:K14)/5</f>
+        <v>72439.540000000008</v>
+      </c>
+      <c r="L15">
+        <f>SUM(L10:L14)</f>
+        <v>-1587.7399999999998</v>
+      </c>
+      <c r="M15" s="5">
+        <f>L15/K15*100</f>
+        <v>-2.1918140286368462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
         <v>44268</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6">
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
         <v>44269</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="6">
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
         <v>44270</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6">
+      <c r="B18">
+        <v>100575.5</v>
+      </c>
+      <c r="C18">
+        <v>86168.59</v>
+      </c>
+      <c r="D18">
+        <v>86168.59</v>
+      </c>
+      <c r="G18">
+        <v>-2337.02</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" ref="I18" si="4">G18/D18*100</f>
+        <v>-2.7121483593963882</v>
+      </c>
+      <c r="K18">
+        <v>108354.3</v>
+      </c>
+      <c r="L18">
+        <v>-1861.58</v>
+      </c>
+      <c r="M18" s="5">
+        <f>L18/K18*100</f>
+        <v>-1.7180490298954447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
         <v>44271</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="6">
+      <c r="B19">
+        <v>100575.5</v>
+      </c>
+      <c r="C19">
+        <v>86168.59</v>
+      </c>
+      <c r="D19">
+        <v>86168.59</v>
+      </c>
+      <c r="G19">
+        <v>482.95</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" ref="I19:I23" si="5">G19/D19*100</f>
+        <v>0.56047104867330422</v>
+      </c>
+      <c r="K19">
+        <v>119793.70000000003</v>
+      </c>
+      <c r="L19">
+        <v>129.28</v>
+      </c>
+      <c r="M19" s="5">
+        <f>L19/K19*100</f>
+        <v>0.1079188638467632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
         <v>44272</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="6">
+      <c r="B20">
+        <v>101179.25</v>
+      </c>
+      <c r="C20">
+        <v>86771.38</v>
+      </c>
+      <c r="D20">
+        <v>86168.59</v>
+      </c>
+      <c r="G20">
+        <v>602.79</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="5"/>
+        <v>0.69954724801693979</v>
+      </c>
+      <c r="J20">
+        <v>158224.62</v>
+      </c>
+      <c r="K20">
+        <v>86816.8</v>
+      </c>
+      <c r="L20">
+        <v>1098.74</v>
+      </c>
+      <c r="M20" s="5">
+        <f>L20/K20*100</f>
+        <v>1.2655845412408657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
         <v>44273</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="6">
+      <c r="B21">
+        <v>101783.73</v>
+      </c>
+      <c r="C21">
+        <v>86483.12</v>
+      </c>
+      <c r="D21">
+        <v>86771.38</v>
+      </c>
+      <c r="G21">
+        <v>603.51</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="5"/>
+        <v>0.69551734684869593</v>
+      </c>
+      <c r="J21">
+        <v>159255.79999999999</v>
+      </c>
+      <c r="K21">
+        <v>95976.9</v>
+      </c>
+      <c r="L21">
+        <v>1028.8499999999999</v>
+      </c>
+      <c r="M21" s="5">
+        <f>L21/K21*100</f>
+        <v>1.0719766943920881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
         <v>44274</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="6">
+      <c r="B22">
+        <v>100001.12</v>
+      </c>
+      <c r="C22">
+        <v>84699.42</v>
+      </c>
+      <c r="D22">
+        <v>86483.12</v>
+      </c>
+      <c r="G22">
+        <v>-1782.69</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.0613155492077531</v>
+      </c>
+      <c r="J22">
+        <v>156767.73000000001</v>
+      </c>
+      <c r="K22">
+        <v>143030.29999999999</v>
+      </c>
+      <c r="L22">
+        <v>-2493.06</v>
+      </c>
+      <c r="M22" s="5">
+        <f>L22/K22*100</f>
+        <v>-1.7430292742167219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6"/>
+      <c r="B23">
+        <f>SUM(B18:B22)/5</f>
+        <v>100823.01999999999</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C18:C22)/5</f>
+        <v>86058.22</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D18:D22)/5</f>
+        <v>86352.054000000004</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F18:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G18:G22)</f>
+        <v>-2430.46</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H18:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.8145943117925136</v>
+      </c>
+      <c r="K23">
+        <f>SUM(K18:K22)/5</f>
+        <v>110794.4</v>
+      </c>
+      <c r="L23">
+        <f>SUM(L18:L22)</f>
+        <v>-2097.77</v>
+      </c>
+      <c r="M23" s="5">
+        <f>L23/K23*100</f>
+        <v>-1.8933899186240462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6">
         <v>44275</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="6">
+    <row r="25" spans="1:13">
+      <c r="A25" s="6">
         <v>44276</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="6">
+    <row r="26" spans="1:13">
+      <c r="A26" s="6">
         <v>44277</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="6">
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
         <v>44278</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="6">
+    <row r="28" spans="1:13">
+      <c r="A28" s="6">
         <v>44279</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="6">
+    <row r="29" spans="1:13">
+      <c r="A29" s="6">
         <v>44280</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="6">
+    <row r="30" spans="1:13">
+      <c r="A30" s="6">
         <v>44281</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="6">
+    <row r="31" spans="1:13">
+      <c r="A31" s="6">
         <v>44282</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="6">
+    <row r="32" spans="1:13">
+      <c r="A32" s="6">
         <v>44283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="6">
-        <v>44284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="6">
-        <v>44285</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6">
         <v>44286</v>
       </c>
     </row>
@@ -4472,4 +4887,340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>236</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2">
+        <v>473</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" s="11">
+        <v>44232.041666666664</v>
+      </c>
+      <c r="J2">
+        <v>473</v>
+      </c>
+      <c r="K2">
+        <f>SUM(F:F)</f>
+        <v>143581.00000000003</v>
+      </c>
+      <c r="L2">
+        <f>SUM(J:J)</f>
+        <v>23787.3</v>
+      </c>
+      <c r="M2">
+        <f>K2-L2</f>
+        <v>119793.70000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3">
+        <v>1147</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3" s="11">
+        <v>44252.112685185188</v>
+      </c>
+      <c r="J3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>1124</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="11">
+        <v>44252.115937499999</v>
+      </c>
+      <c r="J4">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="F5">
+        <v>2390</v>
+      </c>
+      <c r="J5">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="F6">
+        <v>1720.5</v>
+      </c>
+      <c r="J6">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="F7">
+        <v>2679.6</v>
+      </c>
+      <c r="J7">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="F8">
+        <v>1060</v>
+      </c>
+      <c r="J8">
+        <v>2980.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="F9">
+        <v>2914</v>
+      </c>
+      <c r="J9">
+        <v>1720.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="F10">
+        <v>2100</v>
+      </c>
+      <c r="J10">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="F11">
+        <v>5892.8</v>
+      </c>
+      <c r="J11">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="F12">
+        <v>1190</v>
+      </c>
+      <c r="J12">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="F13">
+        <v>833</v>
+      </c>
+      <c r="J13">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="F14">
+        <v>5568</v>
+      </c>
+      <c r="J14">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="F15">
+        <v>5195.3999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="F16">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="F17">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="F18">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>3.8</v>
+      </c>
+      <c r="F20">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="F21">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="F22">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="F23">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="F24">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="F25">
+        <v>4319.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="F26">
+        <v>4066.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="F27">
+        <v>2980.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="F28">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="F29">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="F30">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="F31">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="F32">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35">
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38">
+        <v>5055.6000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40">
+        <v>5029.2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41">
+        <v>3045.2</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42">
+        <v>3150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1739,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1814,7 +1814,7 @@
         <v>85</v>
       </c>
       <c r="M2" s="5">
-        <f>L2/K2*100</f>
+        <f t="shared" ref="M2:M7" si="1">L2/K2*100</f>
         <v>3.0976676384839652</v>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
         <v>-53.55</v>
       </c>
       <c r="M3" s="5">
-        <f>L3/K3*100</f>
+        <f t="shared" si="1"/>
         <v>-0.56166811759893431</v>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
         <v>185.88</v>
       </c>
       <c r="M4" s="5">
-        <f>L4/K4*100</f>
+        <f t="shared" si="1"/>
         <v>1.7545615012129392</v>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
         <v>-334.41</v>
       </c>
       <c r="M5" s="5">
-        <f>L5/K5*100</f>
+        <f t="shared" si="1"/>
         <v>-0.98896029194748958</v>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
         <v>-420.61</v>
       </c>
       <c r="M6" s="5">
-        <f>L6/K6*100</f>
+        <f t="shared" si="1"/>
         <v>-1.0199499009416004</v>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" ref="I7" si="1">G7/D7*100</f>
+        <f t="shared" ref="I7" si="2">G7/D7*100</f>
         <v>-1.3245624965769569</v>
       </c>
       <c r="K7">
@@ -1981,7 +1981,7 @@
         <v>-537.69000000000005</v>
       </c>
       <c r="M7" s="5">
-        <f>L7/K7*100</f>
+        <f t="shared" si="1"/>
         <v>-2.7454230184794866</v>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
         <v>-3857.44</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ref="I10:I15" si="2">G10/D10*100</f>
+        <f t="shared" ref="I10:I15" si="3">G10/D10*100</f>
         <v>-3.0959974963886023</v>
       </c>
       <c r="K10">
@@ -2043,7 +2043,7 @@
         <v>-2900.76</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.8280770068845635</v>
       </c>
       <c r="K11">
@@ -2053,7 +2053,7 @@
         <v>-1745.37</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" ref="M11:M14" si="3">L11/K11*100</f>
+        <f t="shared" ref="M11:M14" si="4">L11/K11*100</f>
         <v>-2.6476691797757921</v>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
         <v>610.9</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61292694942173764</v>
       </c>
       <c r="K12">
@@ -2084,7 +2084,7 @@
         <v>-1047.8</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.5894783149527463</v>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
         <v>1951.65</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2805329551706106</v>
       </c>
       <c r="K13">
@@ -2115,7 +2115,7 @@
         <v>240.1</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30551660427392408</v>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
         <v>300.25</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34224191995608361</v>
       </c>
       <c r="K14">
@@ -2146,7 +2146,7 @@
         <v>1503.02</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6026366914682857</v>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.8942879004157041</v>
       </c>
       <c r="K15">
@@ -2220,7 +2220,7 @@
         <v>-2337.02</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" ref="I18" si="4">G18/D18*100</f>
+        <f t="shared" ref="I18" si="5">G18/D18*100</f>
         <v>-2.7121483593963882</v>
       </c>
       <c r="K18">
@@ -2230,7 +2230,7 @@
         <v>-1861.58</v>
       </c>
       <c r="M18" s="5">
-        <f>L18/K18*100</f>
+        <f t="shared" ref="M18:M23" si="6">L18/K18*100</f>
         <v>-1.7180490298954447</v>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
         <v>482.95</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" ref="I19:I23" si="5">G19/D19*100</f>
+        <f t="shared" ref="I19:I23" si="7">G19/D19*100</f>
         <v>0.56047104867330422</v>
       </c>
       <c r="K19">
@@ -2261,7 +2261,7 @@
         <v>129.28</v>
       </c>
       <c r="M19" s="5">
-        <f>L19/K19*100</f>
+        <f t="shared" si="6"/>
         <v>0.1079188638467632</v>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
         <v>602.79</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.69954724801693979</v>
       </c>
       <c r="J20">
@@ -2295,7 +2295,7 @@
         <v>1098.74</v>
       </c>
       <c r="M20" s="5">
-        <f>L20/K20*100</f>
+        <f t="shared" si="6"/>
         <v>1.2655845412408657</v>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
         <v>603.51</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.69551734684869593</v>
       </c>
       <c r="J21">
@@ -2329,7 +2329,7 @@
         <v>1028.8499999999999</v>
       </c>
       <c r="M21" s="5">
-        <f>L21/K21*100</f>
+        <f t="shared" si="6"/>
         <v>1.0719766943920881</v>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
         <v>-1782.69</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0613155492077531</v>
       </c>
       <c r="J22">
@@ -2363,7 +2363,7 @@
         <v>-2493.06</v>
       </c>
       <c r="M22" s="5">
-        <f>L22/K22*100</f>
+        <f t="shared" si="6"/>
         <v>-1.7430292742167219</v>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.8145943117925136</v>
       </c>
       <c r="K23">
@@ -2406,7 +2406,7 @@
         <v>-2097.77</v>
       </c>
       <c r="M23" s="5">
-        <f>L23/K23*100</f>
+        <f t="shared" si="6"/>
         <v>-1.8933899186240462</v>
       </c>
     </row>
@@ -2424,10 +2424,68 @@
       <c r="A26" s="6">
         <v>44277</v>
       </c>
+      <c r="B26">
+        <v>100750.93</v>
+      </c>
+      <c r="C26">
+        <v>85446.16</v>
+      </c>
+      <c r="D26">
+        <v>84699.42</v>
+      </c>
+      <c r="G26">
+        <v>825.3</v>
+      </c>
+      <c r="I26" s="5">
+        <f>G26/D26*100</f>
+        <v>0.97438683759581823</v>
+      </c>
+      <c r="J26">
+        <v>178921.15</v>
+      </c>
+      <c r="K26">
+        <v>139330.6</v>
+      </c>
+      <c r="L26">
+        <v>2167.1</v>
+      </c>
+      <c r="M26" s="5">
+        <f>L26/K26*100</f>
+        <v>1.5553654401832762</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6">
         <v>44278</v>
+      </c>
+      <c r="B27">
+        <v>100095.84</v>
+      </c>
+      <c r="C27">
+        <v>82616.759999999995</v>
+      </c>
+      <c r="D27">
+        <v>85446.16</v>
+      </c>
+      <c r="G27">
+        <v>-734.81</v>
+      </c>
+      <c r="I27" s="5">
+        <f>G27/D27*100</f>
+        <v>-0.85996842924246086</v>
+      </c>
+      <c r="J27">
+        <v>177161.7</v>
+      </c>
+      <c r="K27">
+        <v>170976.5</v>
+      </c>
+      <c r="L27">
+        <v>-1737.1</v>
+      </c>
+      <c r="M27" s="5">
+        <f>L27/K27*100</f>
+        <v>-1.015987577240147</v>
       </c>
     </row>
     <row r="28" spans="1:13">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1268,7 +1268,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,6 +1303,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1737,22 +1740,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1773,13 +1778,13 @@
       <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>41</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1790,7 +1795,7 @@
       <c r="A2" s="6">
         <v>44256</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>235270.13</v>
       </c>
       <c r="C2" s="2">
@@ -1810,7 +1815,7 @@
       <c r="K2">
         <v>2744</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>85</v>
       </c>
       <c r="M2" s="5">
@@ -1841,7 +1846,7 @@
       <c r="K3">
         <v>9534.1</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>-53.55</v>
       </c>
       <c r="M3" s="5">
@@ -1872,7 +1877,7 @@
       <c r="K4">
         <v>10594.1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>185.88</v>
       </c>
       <c r="M4" s="5">
@@ -1903,7 +1908,7 @@
       <c r="K5">
         <v>33814.300000000003</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>-334.41</v>
       </c>
       <c r="M5" s="5">
@@ -1934,7 +1939,7 @@
       <c r="K6">
         <v>41238.300000000003</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>-420.61</v>
       </c>
       <c r="M6" s="5">
@@ -1976,7 +1981,7 @@
         <f>SUM(K2:K6)/5</f>
         <v>19584.96</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <f>SUM(L2:L6)</f>
         <v>-537.69000000000005</v>
       </c>
@@ -2018,7 +2023,7 @@
       <c r="K10">
         <v>57983.3</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>-537.69000000000005</v>
       </c>
       <c r="M10" s="5">
@@ -2049,7 +2054,7 @@
       <c r="K11">
         <v>65921</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>-1745.37</v>
       </c>
       <c r="M11" s="5">
@@ -2080,7 +2085,7 @@
       <c r="K12">
         <v>65921</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>-1047.8</v>
       </c>
       <c r="M12" s="5">
@@ -2111,7 +2116,7 @@
       <c r="K13">
         <v>78588.2</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>240.1</v>
       </c>
       <c r="M13" s="5">
@@ -2142,7 +2147,7 @@
       <c r="K14">
         <v>93784.2</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>1503.02</v>
       </c>
       <c r="M14" s="5">
@@ -2184,7 +2189,7 @@
         <f>SUM(K10:K14)/5</f>
         <v>72439.540000000008</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <f>SUM(L10:L14)</f>
         <v>-1587.7399999999998</v>
       </c>
@@ -2226,7 +2231,7 @@
       <c r="K18">
         <v>108354.3</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>-1861.58</v>
       </c>
       <c r="M18" s="5">
@@ -2257,7 +2262,7 @@
       <c r="K19">
         <v>119793.70000000003</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>129.28</v>
       </c>
       <c r="M19" s="5">
@@ -2285,13 +2290,13 @@
         <f t="shared" si="7"/>
         <v>0.69954724801693979</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>158224.62</v>
       </c>
       <c r="K20">
         <v>86816.8</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>1098.74</v>
       </c>
       <c r="M20" s="5">
@@ -2319,13 +2324,13 @@
         <f t="shared" si="7"/>
         <v>0.69551734684869593</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>159255.79999999999</v>
       </c>
       <c r="K21">
         <v>95976.9</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>1028.8499999999999</v>
       </c>
       <c r="M21" s="5">
@@ -2353,13 +2358,13 @@
         <f t="shared" si="7"/>
         <v>-2.0613155492077531</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>156767.73000000001</v>
       </c>
       <c r="K22">
         <v>143030.29999999999</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <v>-2493.06</v>
       </c>
       <c r="M22" s="5">
@@ -2401,7 +2406,7 @@
         <f>SUM(K18:K22)/5</f>
         <v>110794.4</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <f>SUM(L18:L22)</f>
         <v>-2097.77</v>
       </c>
@@ -2440,13 +2445,13 @@
         <f>G26/D26*100</f>
         <v>0.97438683759581823</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>178921.15</v>
       </c>
       <c r="K26">
         <v>139330.6</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>2167.1</v>
       </c>
       <c r="M26" s="5">
@@ -2474,13 +2479,13 @@
         <f>G27/D27*100</f>
         <v>-0.85996842924246086</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>177161.7</v>
       </c>
       <c r="K27">
         <v>170976.5</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <v>-1737.1</v>
       </c>
       <c r="M27" s="5">
@@ -2492,39 +2497,169 @@
       <c r="A28" s="6">
         <v>44279</v>
       </c>
+      <c r="B28">
+        <v>98973.77</v>
+      </c>
+      <c r="C28">
+        <v>81493.539999999994</v>
+      </c>
+      <c r="D28">
+        <v>82616.759999999995</v>
+      </c>
+      <c r="G28">
+        <v>-1123.22</v>
+      </c>
+      <c r="I28" s="5">
+        <f>G28/D28*100</f>
+        <v>-1.3595546472652766</v>
+      </c>
+      <c r="J28" s="1">
+        <v>193698.86</v>
+      </c>
+      <c r="K28">
+        <v>168127.4</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-3425.1</v>
+      </c>
+      <c r="M28" s="5">
+        <f>L28/K28*100</f>
+        <v>-2.037205119451083</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6">
         <v>44280</v>
       </c>
+      <c r="B29">
+        <v>98987.89</v>
+      </c>
+      <c r="C29">
+        <v>74482.63</v>
+      </c>
+      <c r="D29">
+        <v>81493.539999999994</v>
+      </c>
+      <c r="G29">
+        <v>12.93</v>
+      </c>
+      <c r="I29" s="5">
+        <f>G29/D29*100</f>
+        <v>1.5866288297207362E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>193558.2</v>
+      </c>
+      <c r="K29">
+        <v>171719</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-105.7</v>
+      </c>
+      <c r="M29" s="5">
+        <f>L29/K29*100</f>
+        <v>-6.1554050512756309E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6">
         <v>44281</v>
       </c>
+      <c r="B30">
+        <v>80455.62</v>
+      </c>
+      <c r="C30">
+        <v>75948.679999999993</v>
+      </c>
+      <c r="D30">
+        <v>74482.63</v>
+      </c>
+      <c r="G30">
+        <v>1466.05</v>
+      </c>
+      <c r="I30" s="5">
+        <f>G30/D30*100</f>
+        <v>1.9683112693523308</v>
+      </c>
+      <c r="J30" s="1">
+        <v>237818.16</v>
+      </c>
+      <c r="K30">
+        <v>164466.70000000001</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4288.8999999999996</v>
+      </c>
+      <c r="M30" s="5">
+        <f>L30/K30*100</f>
+        <v>2.6077619360028499</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="6">
-        <v>44282</v>
+      <c r="A31" s="6"/>
+      <c r="B31">
+        <f>SUM(B26:B30)/5</f>
+        <v>95852.81</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C26:C30)/5</f>
+        <v>79997.553999999989</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D26:D30)/5</f>
+        <v>81747.702000000005</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F26:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G26:G30)</f>
+        <v>446.24999999999989</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H26:H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" ref="I31" si="8">G31/D31*100</f>
+        <v>0.54588690456399602</v>
+      </c>
+      <c r="K31">
+        <f>SUM(K26:K30)/5</f>
+        <v>162924.03999999998</v>
+      </c>
+      <c r="L31" s="1">
+        <f>SUM(L26:L30)</f>
+        <v>1188.0999999999999</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" ref="M31" si="9">L31/K31*100</f>
+        <v>0.7292355382299629</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6">
-        <v>44283</v>
+        <v>44282</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6">
-        <v>44284</v>
+        <v>44283</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6">
-        <v>44285</v>
+        <v>44284</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6">
         <v>44286</v>
       </c>
     </row>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2643,24 +2643,111 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:13">
       <c r="A33" s="6">
         <v>44283</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:13">
       <c r="A34" s="6">
         <v>44284</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>80623.28</v>
+      </c>
+      <c r="C34">
+        <v>76115.47</v>
+      </c>
+      <c r="D34">
+        <v>75948.679999999993</v>
+      </c>
+      <c r="G34">
+        <v>166.78</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" ref="I34:I36" si="10">G34/D34*100</f>
+        <v>0.21959565327534331</v>
+      </c>
+      <c r="J34" s="1">
+        <v>236449.43</v>
+      </c>
+      <c r="K34">
+        <v>178111.2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>-1355.5</v>
+      </c>
+      <c r="M34" s="5">
+        <f t="shared" ref="M34:M35" si="11">L34/K34*100</f>
+        <v>-0.76104141682274884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="6">
         <v>44285</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>81243.5</v>
+      </c>
+      <c r="C35">
+        <v>72230.64</v>
+      </c>
+      <c r="D35">
+        <v>76115.47</v>
+      </c>
+      <c r="G35">
+        <v>619.82000000000005</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="10"/>
+        <v>0.81431540789277146</v>
+      </c>
+      <c r="J35" s="1">
+        <v>238006.58</v>
+      </c>
+      <c r="K35">
+        <v>196525.1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1573.9</v>
+      </c>
+      <c r="M35" s="5">
+        <f>L35/K35*100</f>
+        <v>0.80086462238156864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="6">
         <v>44286</v>
+      </c>
+      <c r="B36">
+        <v>80539.89</v>
+      </c>
+      <c r="C36">
+        <v>69870.09</v>
+      </c>
+      <c r="D36">
+        <v>72230.64</v>
+      </c>
+      <c r="G36">
+        <v>-703.92</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="10"/>
+        <v>-0.9745448745850791</v>
+      </c>
+      <c r="J36" s="1">
+        <v>235847.35</v>
+      </c>
+      <c r="K36">
+        <v>222700.7</v>
+      </c>
+      <c r="L36" s="1">
+        <v>-2148.4</v>
+      </c>
+      <c r="M36" s="5">
+        <f>L36/K36*100</f>
+        <v>-0.96470285005839673</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1740,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2665,7 +2665,7 @@
         <v>166.78</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" ref="I34:I36" si="10">G34/D34*100</f>
+        <f t="shared" ref="I34:I40" si="10">G34/D34*100</f>
         <v>0.21959565327534331</v>
       </c>
       <c r="J34" s="1">
@@ -2678,7 +2678,7 @@
         <v>-1355.5</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" ref="M34:M35" si="11">L34/K34*100</f>
+        <f t="shared" ref="M34" si="11">L34/K34*100</f>
         <v>-0.76104141682274884</v>
       </c>
     </row>
@@ -2748,6 +2748,165 @@
       <c r="M36" s="5">
         <f>L36/K36*100</f>
         <v>-0.96470285005839673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="6">
+        <v>44287</v>
+      </c>
+      <c r="B37">
+        <v>81873.73</v>
+      </c>
+      <c r="C37">
+        <v>71203.61</v>
+      </c>
+      <c r="D37">
+        <v>69870.09</v>
+      </c>
+      <c r="G37">
+        <v>1333.52</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="10"/>
+        <v>1.9085706058200296</v>
+      </c>
+      <c r="J37" s="1">
+        <v>248497.97</v>
+      </c>
+      <c r="K37">
+        <v>220660.5</v>
+      </c>
+      <c r="L37" s="1">
+        <v>2657.8</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" ref="M37:M40" si="12">L37/K37*100</f>
+        <v>1.2044747474060833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="6">
+        <v>44288</v>
+      </c>
+      <c r="B38">
+        <v>82889.789999999994</v>
+      </c>
+      <c r="C38">
+        <v>69251.38</v>
+      </c>
+      <c r="D38">
+        <v>71203.61</v>
+      </c>
+      <c r="G38">
+        <v>1015.76</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4265568838433895</v>
+      </c>
+      <c r="J38" s="1">
+        <v>251400.16</v>
+      </c>
+      <c r="K38">
+        <v>220808.3</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2923.8</v>
+      </c>
+      <c r="M38" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3241350076061456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="6"/>
+      <c r="B39">
+        <f>SUM(B34:B38)/5</f>
+        <v>81434.037999999986</v>
+      </c>
+      <c r="C39">
+        <f>SUM(C34:C38)/5</f>
+        <v>71734.237999999998</v>
+      </c>
+      <c r="D39">
+        <f>SUM(D34:D38)/5</f>
+        <v>73073.698000000004</v>
+      </c>
+      <c r="F39">
+        <f>SUM(F34:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>SUM(G34:G38)</f>
+        <v>2431.96</v>
+      </c>
+      <c r="H39">
+        <f>SUM(H34:H38)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f>G39/D39*100</f>
+        <v>3.3280921406221977</v>
+      </c>
+      <c r="K39">
+        <f>SUM(K34:K38)/5</f>
+        <v>207761.16</v>
+      </c>
+      <c r="L39" s="1">
+        <f>SUM(L34:L38)</f>
+        <v>3651.6000000000004</v>
+      </c>
+      <c r="M39" s="5">
+        <f>L39/K39*100</f>
+        <v>1.7575951154681655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="6">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="6">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42">
+        <f>SUM(B2,B3,B4,B5,B6,B10,B11,B12,B13,B14,B18,B19,B20,B21,B22,B26,B27,B28,B29,B30,B34,B35,B36)/23</f>
+        <v>136296.40130434785</v>
+      </c>
+      <c r="C42">
+        <f>SUM(C2,C3,C4,C5,C6,C10,C11,C12,C13,C14,C18,C19,C20,C21,C22,C26,C27,C28,C29,C30,C34,C35,C36)/23</f>
+        <v>92815.037391304344</v>
+      </c>
+      <c r="D42">
+        <f>SUM(D2,D3,D4,D5,D6,D10,D11,D12,D13,D14,D18,D19,D20,D21,D22,D26,D27,D29,D28,D30,D34,D35,D36)/23</f>
+        <v>96627.344608695668</v>
+      </c>
+      <c r="G42">
+        <f>SUM(G2,G3,G4,G5,G6,G10,G11,G12,G13,G14,G18,G19,G20,G21,G22,G26,G27,G28,G29,G30,G34,G35,G36)</f>
+        <v>-7538.7100000000009</v>
+      </c>
+      <c r="H42">
+        <f>SUM(H37:H41)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <f>G42/D42*100</f>
+        <v>-7.80183914866846</v>
+      </c>
+      <c r="K42">
+        <f>SUM(K2,K3,K4,K5,K6,K10,K11,K12,K13,K14,K18,K19,K20,K21,K22,K26,K27,K28,K29,K30,K34,K35,K36)/23</f>
+        <v>105480.50869565218</v>
+      </c>
+      <c r="L42" s="1">
+        <f>SUM(L2,L3,L4,L5,L6,L10,L11,L12,L13,L14,L18,L19,L20,L21,L22,L26,L27,L28,L29,L30,L34,L35,L36)</f>
+        <v>-4965.0999999999995</v>
+      </c>
+      <c r="M42" s="5">
+        <f>L42/K42*100</f>
+        <v>-4.7071255736223581</v>
       </c>
     </row>
   </sheetData>
@@ -2762,7 +2921,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I7"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3356,7 +3515,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:I34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -7,21 +7,22 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="2103" sheetId="33" r:id="rId1"/>
-    <sheet name="2102" sheetId="31" r:id="rId2"/>
-    <sheet name="2101" sheetId="26" r:id="rId3"/>
-    <sheet name="每月" sheetId="29" r:id="rId4"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId5"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId6"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId8"/>
+    <sheet name="2104" sheetId="36" r:id="rId1"/>
+    <sheet name="2103" sheetId="33" r:id="rId2"/>
+    <sheet name="2102" sheetId="31" r:id="rId3"/>
+    <sheet name="2101" sheetId="26" r:id="rId4"/>
+    <sheet name="每月" sheetId="29" r:id="rId5"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId6"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId7"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1740,9 +1741,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44287</v>
+      </c>
+      <c r="B2">
+        <v>81873.73</v>
+      </c>
+      <c r="C2">
+        <v>71203.61</v>
+      </c>
+      <c r="D2">
+        <v>69870.09</v>
+      </c>
+      <c r="G2">
+        <v>1333.52</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I3" si="0">G2/D2*100</f>
+        <v>1.9085706058200296</v>
+      </c>
+      <c r="J2" s="1">
+        <v>248497.97</v>
+      </c>
+      <c r="K2">
+        <v>220660.5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2657.8</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ref="M2:M3" si="1">L2/K2*100</f>
+        <v>1.2044747474060833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44288</v>
+      </c>
+      <c r="B3">
+        <v>82889.789999999994</v>
+      </c>
+      <c r="C3">
+        <v>69251.38</v>
+      </c>
+      <c r="D3">
+        <v>71203.61</v>
+      </c>
+      <c r="G3">
+        <v>1015.76</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4265568838433895</v>
+      </c>
+      <c r="J3" s="1">
+        <v>251400.16</v>
+      </c>
+      <c r="K3">
+        <v>220808.3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2923.8</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3241350076061456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6"/>
+      <c r="B4">
+        <f>SUM(B2:B3)/5</f>
+        <v>32952.703999999998</v>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)/5</f>
+        <v>28090.998</v>
+      </c>
+      <c r="D4">
+        <f>SUM(D2:D3)/5</f>
+        <v>28214.74</v>
+      </c>
+      <c r="F4">
+        <f>SUM(F2:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>SUM(G2:G3)</f>
+        <v>2349.2799999999997</v>
+      </c>
+      <c r="H4">
+        <f>SUM(H2:H3)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f>G4/D4*100</f>
+        <v>8.3264279592865282</v>
+      </c>
+      <c r="K4">
+        <f>SUM(K2:K3)/5</f>
+        <v>88293.759999999995</v>
+      </c>
+      <c r="L4" s="1">
+        <f>SUM(L2:L3)</f>
+        <v>5581.6</v>
+      </c>
+      <c r="M4" s="5">
+        <f>L4/K4*100</f>
+        <v>6.3216245406243887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44292</v>
+      </c>
+      <c r="B8">
+        <v>82754.09</v>
+      </c>
+      <c r="C8">
+        <v>69114.460000000006</v>
+      </c>
+      <c r="D8">
+        <v>69251.38</v>
+      </c>
+      <c r="G8">
+        <v>-136.91999999999999</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" ref="I8" si="2">G8/D8*100</f>
+        <v>-0.19771447153832888</v>
+      </c>
+      <c r="J8" s="1">
+        <v>249950.07999999999</v>
+      </c>
+      <c r="K8">
+        <v>218557.1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1445.6</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" ref="M8:M11" si="3">L8/K8*100</f>
+        <v>-0.66142898125935967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44293</v>
+      </c>
+      <c r="B9">
+        <v>82142.600000000006</v>
+      </c>
+      <c r="C9">
+        <v>68502.69</v>
+      </c>
+      <c r="D9">
+        <v>69114.460000000006</v>
+      </c>
+      <c r="G9">
+        <v>-611.78</v>
+      </c>
+      <c r="I9" s="5">
+        <v>-0.88519999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>250295.26</v>
+      </c>
+      <c r="K9">
+        <v>228939.5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>364.4</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15916868867102443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44294</v>
+      </c>
+      <c r="B10">
+        <v>72315.02</v>
+      </c>
+      <c r="C10">
+        <v>66789.38</v>
+      </c>
+      <c r="D10">
+        <v>68502.69</v>
+      </c>
+      <c r="G10">
+        <v>172.1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="J10" s="1">
+        <v>249841.05</v>
+      </c>
+      <c r="K10">
+        <v>241206.6</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-431.9</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.17905811864186136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44295</v>
+      </c>
+      <c r="B11">
+        <v>71418.84</v>
+      </c>
+      <c r="C11">
+        <v>65892.83</v>
+      </c>
+      <c r="D11">
+        <v>66789.38</v>
+      </c>
+      <c r="G11">
+        <v>-894.93</v>
+      </c>
+      <c r="I11" s="5">
+        <v>-1.3399000000000001</v>
+      </c>
+      <c r="J11" s="1">
+        <v>247395.6</v>
+      </c>
+      <c r="K11">
+        <v>234575.4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-2446.65</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.0430121828631649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6"/>
+      <c r="B12">
+        <f>SUM(B8:B11)/4</f>
+        <v>77157.637500000012</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C8:C11)/4</f>
+        <v>67574.840000000011</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D8:D11)/4</f>
+        <v>68414.477500000008</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F10:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G8:G11)</f>
+        <v>-1471.5299999999997</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H10:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f>G12/D12*100</f>
+        <v>-2.1509043900832241</v>
+      </c>
+      <c r="J12">
+        <f>SUM(J8:J11)/4</f>
+        <v>249370.49749999997</v>
+      </c>
+      <c r="K12">
+        <f>SUM(K8:K11)/4</f>
+        <v>230819.65</v>
+      </c>
+      <c r="L12" s="1">
+        <f>SUM(L8:L11)</f>
+        <v>-3959.75</v>
+      </c>
+      <c r="M12" s="5">
+        <f>L12/K12*100</f>
+        <v>-1.7155168548258346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44297</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G12" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -2665,7 +3045,7 @@
         <v>166.78</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" ref="I34:I40" si="10">G34/D34*100</f>
+        <f t="shared" ref="I34:I38" si="10">G34/D34*100</f>
         <v>0.21959565327534331</v>
       </c>
       <c r="J34" s="1">
@@ -2780,7 +3160,7 @@
         <v>2657.8</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" ref="M37:M40" si="12">L37/K37*100</f>
+        <f t="shared" ref="M37:M38" si="12">L37/K37*100</f>
         <v>1.2044747474060833</v>
       </c>
     </row>
@@ -2916,7 +3296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -3510,7 +3890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -4428,7 +4808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -4938,7 +5318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -5124,7 +5504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -5246,7 +5626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -5328,7 +5708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1741,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2106,6 +2106,268 @@
     <row r="14" spans="1:13">
       <c r="A14" s="6">
         <v>44297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44298</v>
+      </c>
+      <c r="C15">
+        <v>64657.39</v>
+      </c>
+      <c r="D15">
+        <v>65892.83</v>
+      </c>
+      <c r="G15">
+        <v>-1235.45</v>
+      </c>
+      <c r="I15" s="5">
+        <v>-1.8749</v>
+      </c>
+      <c r="J15" s="1">
+        <v>243009.14</v>
+      </c>
+      <c r="K15">
+        <v>235464.5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-4387.1000000000004</v>
+      </c>
+      <c r="M15">
+        <v>-1.8632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44299</v>
+      </c>
+      <c r="C16">
+        <v>64450.32</v>
+      </c>
+      <c r="D16">
+        <v>64657.39</v>
+      </c>
+      <c r="G16">
+        <v>-207.07</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-0.32029999999999997</v>
+      </c>
+      <c r="J16" s="1">
+        <v>242582.7</v>
+      </c>
+      <c r="K16">
+        <v>225036</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-415.5</v>
+      </c>
+      <c r="M16">
+        <v>-0.18459999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44300</v>
+      </c>
+      <c r="C17">
+        <v>65162.16</v>
+      </c>
+      <c r="D17">
+        <v>64450.32</v>
+      </c>
+      <c r="G17">
+        <v>711.83</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1.1045</v>
+      </c>
+      <c r="J17" s="1">
+        <v>245637.69</v>
+      </c>
+      <c r="K17">
+        <v>223558.5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3066.5</v>
+      </c>
+      <c r="M17">
+        <v>1.3716999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44301</v>
+      </c>
+      <c r="C18">
+        <v>64805.83</v>
+      </c>
+      <c r="D18">
+        <v>65162.16</v>
+      </c>
+      <c r="G18">
+        <v>-356.34</v>
+      </c>
+      <c r="I18" s="5">
+        <v>-0.54690000000000005</v>
+      </c>
+      <c r="J18" s="1">
+        <v>243589.84</v>
+      </c>
+      <c r="K18">
+        <v>232982.6</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-2042.7</v>
+      </c>
+      <c r="M18">
+        <v>-0.87680000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44302</v>
+      </c>
+      <c r="C19">
+        <v>64855.11</v>
+      </c>
+      <c r="D19">
+        <v>64805.83</v>
+      </c>
+      <c r="G19">
+        <v>49.28</v>
+      </c>
+      <c r="I19" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>265543.67</v>
+      </c>
+      <c r="K19">
+        <v>234968.9</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1980.8</v>
+      </c>
+      <c r="M19">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6"/>
+      <c r="B20">
+        <f>SUM(B15:B19)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C15:C19)/5</f>
+        <v>64786.161999999997</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D15:D19)/5</f>
+        <v>64993.706000000006</v>
+      </c>
+      <c r="F20">
+        <f>SUM(F15:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>SUM(G15:G19)</f>
+        <v>-1037.75</v>
+      </c>
+      <c r="H20">
+        <f>SUM(H18:H19)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <f>G20/D20*100</f>
+        <v>-1.5966930705567088</v>
+      </c>
+      <c r="J20">
+        <f>SUM(J15:J19)/5</f>
+        <v>248072.60800000001</v>
+      </c>
+      <c r="K20">
+        <f>SUM(K15:K19)/5</f>
+        <v>230402.1</v>
+      </c>
+      <c r="L20" s="1">
+        <f>SUM(L15:L19)</f>
+        <v>-1798.0000000000002</v>
+      </c>
+      <c r="M20" s="5">
+        <f>L20/K20*100</f>
+        <v>-0.78037483165301014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6">
+        <v>44310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="6">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6">
+        <v>44316</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1741,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1755,6 +1755,7 @@
     <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1863,16 +1864,16 @@
     <row r="4" spans="1:13">
       <c r="A4" s="6"/>
       <c r="B4">
-        <f>SUM(B2:B3)/5</f>
-        <v>32952.703999999998</v>
+        <f>SUM(B2:B3)/2</f>
+        <v>82381.759999999995</v>
       </c>
       <c r="C4">
-        <f>SUM(C2:C3)/5</f>
-        <v>28090.998</v>
+        <f>SUM(C2:C3)/2</f>
+        <v>70227.494999999995</v>
       </c>
       <c r="D4">
-        <f>SUM(D2:D3)/5</f>
-        <v>28214.74</v>
+        <f>SUM(D2:D3)/2</f>
+        <v>70536.850000000006</v>
       </c>
       <c r="F4">
         <f>SUM(F2:F3)</f>
@@ -1888,11 +1889,15 @@
       </c>
       <c r="I4" s="5">
         <f>G4/D4*100</f>
-        <v>8.3264279592865282</v>
+        <v>3.330571183714611</v>
+      </c>
+      <c r="J4">
+        <f>SUM(J2,J3)/2</f>
+        <v>249949.065</v>
       </c>
       <c r="K4">
-        <f>SUM(K2:K3)/5</f>
-        <v>88293.759999999995</v>
+        <f>SUM(K2:K3)/2</f>
+        <v>220734.4</v>
       </c>
       <c r="L4" s="1">
         <f>SUM(L2:L3)</f>
@@ -1900,7 +1905,7 @@
       </c>
       <c r="M4" s="5">
         <f>L4/K4*100</f>
-        <v>6.3216245406243887</v>
+        <v>2.5286498162497555</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2314,60 +2319,266 @@
       <c r="A23" s="6">
         <v>44305</v>
       </c>
+      <c r="B23">
+        <v>71733.67</v>
+      </c>
+      <c r="C23">
+        <v>66200.67</v>
+      </c>
+      <c r="D23">
+        <v>64855.11</v>
+      </c>
+      <c r="G23">
+        <v>1345.55</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2.0747</v>
+      </c>
+      <c r="J23" s="1">
+        <v>271999.55</v>
+      </c>
+      <c r="K23">
+        <v>176364.6</v>
+      </c>
+      <c r="L23" s="1">
+        <v>6540.4</v>
+      </c>
+      <c r="M23">
+        <v>3.7084999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6">
         <v>44306</v>
       </c>
+      <c r="B24">
+        <v>61621.15</v>
+      </c>
+      <c r="C24">
+        <v>57150.1</v>
+      </c>
+      <c r="D24">
+        <v>66200.67</v>
+      </c>
+      <c r="G24">
+        <v>-112.89</v>
+      </c>
+      <c r="I24" s="5">
+        <v>-0.17050000000000001</v>
+      </c>
+      <c r="J24" s="1">
+        <v>271106.71999999997</v>
+      </c>
+      <c r="K24">
+        <v>173467</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-893.96</v>
+      </c>
+      <c r="M24">
+        <v>-0.51529999999999998</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6">
         <v>44307</v>
       </c>
+      <c r="C25">
+        <v>57362.12</v>
+      </c>
+      <c r="D25">
+        <v>57150.1</v>
+      </c>
+      <c r="G25">
+        <v>212.01</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.371</v>
+      </c>
+      <c r="J25" s="1">
+        <v>281105.17</v>
+      </c>
+      <c r="K25">
+        <v>149788.29999999999</v>
+      </c>
+      <c r="L25" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="M25">
+        <v>8.8999999999999999E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="6">
         <v>44308</v>
       </c>
+      <c r="C26">
+        <v>54305.1</v>
+      </c>
+      <c r="D26">
+        <v>57362.12</v>
+      </c>
+      <c r="G26">
+        <v>163.34</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.2848</v>
+      </c>
+      <c r="J26" s="1">
+        <v>281383.8</v>
+      </c>
+      <c r="K26">
+        <v>147988</v>
+      </c>
+      <c r="L26" s="1">
+        <v>302.7</v>
+      </c>
+      <c r="M26">
+        <v>0.20449999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6">
         <v>44309</v>
       </c>
+      <c r="B27">
+        <v>62555.69</v>
+      </c>
+      <c r="C27">
+        <v>52832.54</v>
+      </c>
+      <c r="D27">
+        <v>54305.1</v>
+      </c>
+      <c r="G27">
+        <v>557.47</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1.0266</v>
+      </c>
+      <c r="J27" s="1">
+        <v>281829.95</v>
+      </c>
+      <c r="K27">
+        <v>160247.20000000001</v>
+      </c>
+      <c r="L27" s="1">
+        <v>456.2</v>
+      </c>
+      <c r="M27">
+        <v>0.28470000000000001</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="6">
-        <v>44310</v>
+      <c r="A28" s="6"/>
+      <c r="C28">
+        <f>SUM(C23:C27)/5</f>
+        <v>57570.105999999992</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D23:D27)/5</f>
+        <v>59974.619999999995</v>
+      </c>
+      <c r="F28">
+        <f>SUM(F23:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>SUM(G23:G27)</f>
+        <v>2165.4799999999996</v>
+      </c>
+      <c r="H28">
+        <f>SUM(H26:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <f>G28/D28*100</f>
+        <v>3.610660642785231</v>
+      </c>
+      <c r="J28">
+        <f>SUM(J23:J27)/5</f>
+        <v>277485.038</v>
+      </c>
+      <c r="K28">
+        <f>SUM(K23:K27)/5</f>
+        <v>161571.01999999996</v>
+      </c>
+      <c r="L28" s="1">
+        <f>SUM(L23:L27)</f>
+        <v>6418.6399999999994</v>
+      </c>
+      <c r="M28" s="5">
+        <f>L28/K28*100</f>
+        <v>3.9726431138455407</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6">
-        <v>44311</v>
+        <v>44310</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6">
-        <v>44312</v>
+        <v>44311</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="6">
-        <v>44313</v>
+        <v>44312</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6">
         <v>44314</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="6">
+    <row r="34" spans="1:14">
+      <c r="A34" s="6">
         <v>44315</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="6">
+    <row r="35" spans="1:14">
+      <c r="A35" s="6">
         <v>44316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="C36">
+        <f>SUM(C2,C3,C8,C9,C10,C11,C15,C16,C17,C18,C19,C23,C24,C25,C26,C27)/16</f>
+        <v>63908.480625000004</v>
+      </c>
+      <c r="D36">
+        <f>SUM(D2,D3,D8,D9,D10,D11,D15,D16,D17,D18,D19,D23,D24,D25,D26,D27)/16</f>
+        <v>64973.327499999999</v>
+      </c>
+      <c r="G36">
+        <f>SUM(G2,G3,G8,G9,G10,G11,G15,G16,G17,G18,G19,G23,G24,G25,G26,G27)</f>
+        <v>2005.4799999999993</v>
+      </c>
+      <c r="I36" s="5">
+        <f>G36/D36*100</f>
+        <v>3.0866204289752579</v>
+      </c>
+      <c r="K36">
+        <f>SUM(K2,K3,K8,K9,K10,K11,K15,K16,K17,K18,K19,K23,K24,K25,K26,K27)/16</f>
+        <v>207788.3125</v>
+      </c>
+      <c r="L36" s="1">
+        <f>SUM(L2,L3,L8,L9,L10,L11,L15,L16,L17,L18,L19,L23,L24,L25,L26,L27)</f>
+        <v>6242.4899999999989</v>
+      </c>
+      <c r="M36" s="5">
+        <f>L36/K36*100</f>
+        <v>3.0042546305389521</v>
+      </c>
+      <c r="N36" s="12">
+        <f>G36+L36</f>
+        <v>8247.9699999999975</v>
       </c>
     </row>
   </sheetData>
@@ -2385,7 +2596,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="B42" sqref="B42:M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1743,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2530,6 +2530,31 @@
     <row r="32" spans="1:13">
       <c r="A32" s="6">
         <v>44313</v>
+      </c>
+      <c r="C32">
+        <v>52416.17</v>
+      </c>
+      <c r="D32">
+        <v>52553.56</v>
+      </c>
+      <c r="G32">
+        <v>137.38</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.26140000000000002</v>
+      </c>
+      <c r="J32" s="1">
+        <v>280950.14</v>
+      </c>
+      <c r="K32">
+        <v>122029.7</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="M32" s="5">
+        <f>L32/K32*100</f>
+        <v>-2.8681542280280946E-3</v>
       </c>
     </row>
     <row r="33" spans="1:14">

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1741,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2526,6 +2526,30 @@
       <c r="A31" s="6">
         <v>44312</v>
       </c>
+      <c r="C31">
+        <v>52416.17</v>
+      </c>
+      <c r="D31">
+        <v>52832.54</v>
+      </c>
+      <c r="G31">
+        <v>-416.38</v>
+      </c>
+      <c r="I31" s="5">
+        <v>-0.78810000000000002</v>
+      </c>
+      <c r="J31" s="1">
+        <v>280973.92</v>
+      </c>
+      <c r="K31">
+        <v>159482.5</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-848.8</v>
+      </c>
+      <c r="M31">
+        <v>-0.53220000000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6">
@@ -2553,57 +2577,250 @@
         <v>-3.5</v>
       </c>
       <c r="M32" s="5">
-        <f>L32/K32*100</f>
-        <v>-2.8681542280280946E-3</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="6">
         <v>44314</v>
       </c>
+      <c r="C33">
+        <v>52946.96</v>
+      </c>
+      <c r="D33">
+        <v>52416.17</v>
+      </c>
+      <c r="G33">
+        <v>393.4</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="J33" s="1">
+        <v>281757.98</v>
+      </c>
+      <c r="K33">
+        <v>132110.9</v>
+      </c>
+      <c r="L33" s="1">
+        <v>811.7</v>
+      </c>
+      <c r="M33">
+        <v>0.61439999999999995</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="6">
         <v>44315</v>
       </c>
+      <c r="C34">
+        <v>53293.86</v>
+      </c>
+      <c r="D34">
+        <v>52416.17</v>
+      </c>
+      <c r="G34">
+        <v>346.9</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="J34" s="1">
+        <v>273135.23</v>
+      </c>
+      <c r="K34">
+        <v>118045.6</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1366.93</v>
+      </c>
+      <c r="M34">
+        <v>1.1579999999999999</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="6">
         <v>44316</v>
       </c>
+      <c r="C35">
+        <v>53141.46</v>
+      </c>
+      <c r="D35">
+        <v>52946.96</v>
+      </c>
+      <c r="G35">
+        <v>-152.4</v>
+      </c>
+      <c r="I35" s="5">
+        <v>-0.2878</v>
+      </c>
+      <c r="J35" s="1">
+        <v>271971.20000000001</v>
+      </c>
+      <c r="K35">
+        <v>154999.20000000001</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-1144.9000000000001</v>
+      </c>
+      <c r="M35">
+        <v>-0.73860000000000003</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="C36">
-        <f>SUM(C2,C3,C8,C9,C10,C11,C15,C16,C17,C18,C19,C23,C24,C25,C26,C27)/16</f>
-        <v>63908.480625000004</v>
+        <f>SUM(C31:C35)/5</f>
+        <v>52842.923999999999</v>
       </c>
       <c r="D36">
-        <f>SUM(D2,D3,D8,D9,D10,D11,D15,D16,D17,D18,D19,D23,D24,D25,D26,D27)/16</f>
-        <v>64973.327499999999</v>
+        <f>SUM(D31:D35)/5</f>
+        <v>52633.08</v>
+      </c>
+      <c r="F36">
+        <f>SUM(F31:F35)</f>
+        <v>0</v>
       </c>
       <c r="G36">
-        <f>SUM(G2,G3,G8,G9,G10,G11,G15,G16,G17,G18,G19,G23,G24,G25,G26,G27)</f>
-        <v>2005.4799999999993</v>
+        <f>SUM(G31:G35)</f>
+        <v>308.89999999999998</v>
+      </c>
+      <c r="H36">
+        <f>SUM(H34:H35)</f>
+        <v>0</v>
       </c>
       <c r="I36" s="5">
         <f>G36/D36*100</f>
-        <v>3.0866204289752579</v>
+        <v>0.58689326180417323</v>
+      </c>
+      <c r="J36">
+        <f>SUM(J31:J35)/5</f>
+        <v>277757.69400000002</v>
       </c>
       <c r="K36">
-        <f>SUM(K2,K3,K8,K9,K10,K11,K15,K16,K17,K18,K19,K23,K24,K25,K26,K27)/16</f>
-        <v>207788.3125</v>
+        <f>SUM(K31:K35)/5</f>
+        <v>137333.57999999999</v>
       </c>
       <c r="L36" s="1">
-        <f>SUM(L2,L3,L8,L9,L10,L11,L15,L16,L17,L18,L19,L23,L24,L25,L26,L27)</f>
-        <v>6242.4899999999989</v>
+        <f>SUM(L31:L35)</f>
+        <v>181.43000000000006</v>
       </c>
       <c r="M36" s="5">
         <f>L36/K36*100</f>
-        <v>3.0042546305389521</v>
-      </c>
-      <c r="N36" s="12">
-        <f>G36+L36</f>
-        <v>8247.9699999999975</v>
+        <v>0.13210898601784071</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="C38">
+        <f>SUM(C2,C3,C8,C9,C10,C11,C15,C16,C17,C18,C19,C23,C24,C25,C26,C27,C31,C32,C33,C34,C35)/21</f>
+        <v>61273.82428571429</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D2,D3,D8,D9,D10,D11,D15,D16,D17,D18,D19,D23,D24,D25,D26,D27,D31,D32,D33,D34,D35)/21</f>
+        <v>62035.173333333325</v>
+      </c>
+      <c r="G38">
+        <f>SUM(G2,G3,G8,G9,G10,G11,G15,G16,G17,G18,G19,G23,G24,G25,G26,G27,G31,G32,G33,G34,G35)</f>
+        <v>2314.3799999999997</v>
+      </c>
+      <c r="I38" s="5">
+        <f>G38/D38*100</f>
+        <v>3.730754466605827</v>
+      </c>
+      <c r="K38">
+        <f>SUM(K2,K3,K8,K9,K10,K11,K15,K16,K17,K18,K19,K23,K24,K25,K26,K27,K31,K32,K33,K34,K35)/21</f>
+        <v>191013.37619047621</v>
+      </c>
+      <c r="L38" s="1">
+        <f>SUM(L2,L3,L8,L9,L10,L11,L15,L16,L17,L18,L19,L23,L24,L25,L26,L27,L31,L32,L33,L34,L35)</f>
+        <v>6423.9199999999983</v>
+      </c>
+      <c r="M38" s="5">
+        <f>L38/K38*100</f>
+        <v>3.3630733763870775</v>
+      </c>
+      <c r="N38" s="12">
+        <f>G38+L38</f>
+        <v>8738.2999999999975</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="C42">
+        <v>8738.2999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="C43">
+        <v>-12503.81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="C44">
+        <v>1147.4000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="C45">
+        <v>6963.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="C46">
+        <v>13367.86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="C47">
+        <v>5046.6400000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="C48">
+        <v>4861.92</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49">
+        <v>-10652.23</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50">
+        <v>-163.32</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51">
+        <v>9587.07</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52">
+        <v>6641.03</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53">
+        <v>45.33</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54">
+        <v>2047.78</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55">
+        <v>-273.42</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56">
+        <v>-2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -7,22 +7,23 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="2104" sheetId="36" r:id="rId1"/>
-    <sheet name="2103" sheetId="33" r:id="rId2"/>
-    <sheet name="2102" sheetId="31" r:id="rId3"/>
-    <sheet name="2101" sheetId="26" r:id="rId4"/>
-    <sheet name="每月" sheetId="29" r:id="rId5"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId6"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId7"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId9"/>
+    <sheet name="5" sheetId="37" r:id="rId1"/>
+    <sheet name="2104" sheetId="36" r:id="rId2"/>
+    <sheet name="2103" sheetId="33" r:id="rId3"/>
+    <sheet name="2102" sheetId="31" r:id="rId4"/>
+    <sheet name="2101" sheetId="26" r:id="rId5"/>
+    <sheet name="每月" sheetId="29" r:id="rId6"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId7"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId8"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1741,10 +1742,750 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6"/>
+      <c r="J4"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6"/>
+      <c r="J12"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6"/>
+      <c r="J20"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6">
+        <v>44319</v>
+      </c>
+      <c r="J28"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="6">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6">
+        <v>44322</v>
+      </c>
+      <c r="C32">
+        <v>52744.99</v>
+      </c>
+      <c r="D32">
+        <v>53141.46</v>
+      </c>
+      <c r="G32">
+        <v>-396.48</v>
+      </c>
+      <c r="I32" s="5">
+        <v>-0.74609999999999999</v>
+      </c>
+      <c r="J32" s="1">
+        <v>270816.58</v>
+      </c>
+      <c r="K32">
+        <v>211425.9</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-1195.3</v>
+      </c>
+      <c r="M32">
+        <v>-0.56540000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6">
+        <v>44323</v>
+      </c>
+      <c r="C33">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="D33">
+        <v>52744.99</v>
+      </c>
+      <c r="G33">
+        <v>-839.05</v>
+      </c>
+      <c r="I33" s="5">
+        <v>-1.5908</v>
+      </c>
+      <c r="J33" s="1">
+        <v>269379.71999999997</v>
+      </c>
+      <c r="K33">
+        <v>229187</v>
+      </c>
+      <c r="L33" s="1">
+        <v>-1411.4</v>
+      </c>
+      <c r="M33" s="5">
+        <v>-0.61580000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6"/>
+      <c r="C34">
+        <f>SUM(C30:C33)/2</f>
+        <v>52299.455000000002</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D30:D33)/2</f>
+        <v>52943.224999999999</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G30:G33)</f>
+        <v>-1235.53</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H32:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f>G34/D34*100</f>
+        <v>-2.3336885881054656</v>
+      </c>
+      <c r="J34">
+        <f>SUM(J30:J33)/2</f>
+        <v>270098.15000000002</v>
+      </c>
+      <c r="K34">
+        <f>SUM(K30:K33)/2</f>
+        <v>220306.45</v>
+      </c>
+      <c r="L34" s="1">
+        <f>SUM(L30:L33)</f>
+        <v>-2606.6999999999998</v>
+      </c>
+      <c r="M34" s="5">
+        <f>L34/K34*100</f>
+        <v>-1.1832154709950615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="6">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="6">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="6">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="6">
+        <v>44327</v>
+      </c>
+      <c r="J38"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="6">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="6">
+        <v>44329</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="6">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="6">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="6">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="6">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="6">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="6">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="6">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="6">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="6">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="6">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="6">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="6">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="6">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="6">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="6">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="6">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="6">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="6">
+        <v>44347</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>236</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2">
+        <v>473</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" s="11">
+        <v>44232.041666666664</v>
+      </c>
+      <c r="J2">
+        <v>473</v>
+      </c>
+      <c r="K2">
+        <f>SUM(F:F)</f>
+        <v>143581.00000000003</v>
+      </c>
+      <c r="L2">
+        <f>SUM(J:J)</f>
+        <v>23787.3</v>
+      </c>
+      <c r="M2">
+        <f>K2-L2</f>
+        <v>119793.70000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3">
+        <v>1147</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3" s="11">
+        <v>44252.112685185188</v>
+      </c>
+      <c r="J3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>1124</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="11">
+        <v>44252.115937499999</v>
+      </c>
+      <c r="J4">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="F5">
+        <v>2390</v>
+      </c>
+      <c r="J5">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="F6">
+        <v>1720.5</v>
+      </c>
+      <c r="J6">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="F7">
+        <v>2679.6</v>
+      </c>
+      <c r="J7">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="F8">
+        <v>1060</v>
+      </c>
+      <c r="J8">
+        <v>2980.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="F9">
+        <v>2914</v>
+      </c>
+      <c r="J9">
+        <v>1720.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="F10">
+        <v>2100</v>
+      </c>
+      <c r="J10">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="F11">
+        <v>5892.8</v>
+      </c>
+      <c r="J11">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="F12">
+        <v>1190</v>
+      </c>
+      <c r="J12">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="F13">
+        <v>833</v>
+      </c>
+      <c r="J13">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="F14">
+        <v>5568</v>
+      </c>
+      <c r="J14">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="F15">
+        <v>5195.3999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="F16">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="F17">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="F18">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>3.8</v>
+      </c>
+      <c r="F20">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="F21">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="F22">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="F23">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="F24">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="F25">
+        <v>4319.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="F26">
+        <v>4066.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="F27">
+        <v>2980.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="F28">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="F29">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="F30">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="F31">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="F32">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35">
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38">
+        <v>5055.6000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40">
+        <v>5029.2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41">
+        <v>3045.2</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42">
+        <v>3150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2833,7 +3574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -4011,7 +4752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -4605,7 +5346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -5523,7 +6264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -6033,7 +6774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -6219,7 +6960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -6341,7 +7082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -6421,340 +7162,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13">
-      <c r="F1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13">
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2">
-        <v>236</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>473</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2" s="11">
-        <v>44232.041666666664</v>
-      </c>
-      <c r="J2">
-        <v>473</v>
-      </c>
-      <c r="K2">
-        <f>SUM(F:F)</f>
-        <v>143581.00000000003</v>
-      </c>
-      <c r="L2">
-        <f>SUM(J:J)</f>
-        <v>23787.3</v>
-      </c>
-      <c r="M2">
-        <f>K2-L2</f>
-        <v>119793.70000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>235</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>1147</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3" s="11">
-        <v>44252.112685185188</v>
-      </c>
-      <c r="J3">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4">
-        <v>234</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4">
-        <v>1124</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4" s="11">
-        <v>44252.115937499999</v>
-      </c>
-      <c r="J4">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="F5">
-        <v>2390</v>
-      </c>
-      <c r="J5">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="F6">
-        <v>1720.5</v>
-      </c>
-      <c r="J6">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="F7">
-        <v>2679.6</v>
-      </c>
-      <c r="J7">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="F8">
-        <v>1060</v>
-      </c>
-      <c r="J8">
-        <v>2980.8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="F9">
-        <v>2914</v>
-      </c>
-      <c r="J9">
-        <v>1720.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="F10">
-        <v>2100</v>
-      </c>
-      <c r="J10">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="F11">
-        <v>5892.8</v>
-      </c>
-      <c r="J11">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="F12">
-        <v>1190</v>
-      </c>
-      <c r="J12">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="F13">
-        <v>833</v>
-      </c>
-      <c r="J13">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="F14">
-        <v>5568</v>
-      </c>
-      <c r="J14">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="F15">
-        <v>5195.3999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="F16">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="F17">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="F18">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>3.8</v>
-      </c>
-      <c r="F20">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="F21">
-        <v>2994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="F22">
-        <v>4727</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="F23">
-        <v>4788</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="F24">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="F25">
-        <v>4319.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="F26">
-        <v>4066.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="F27">
-        <v>2980.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="F28">
-        <v>4425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="F29">
-        <v>4895</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="F30">
-        <v>5148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="F31">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="F32">
-        <v>4658</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33">
-        <v>5398</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35">
-        <v>4886</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36">
-        <v>4556</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37">
-        <v>4192</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38">
-        <v>5055.6000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39">
-        <v>7515</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40">
-        <v>5029.2</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41">
-        <v>3045.2</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42">
-        <v>3150</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1742,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2027,113 +2027,277 @@
       <c r="A37" s="6">
         <v>44326</v>
       </c>
+      <c r="C37">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="D37">
+        <v>51599.76</v>
+      </c>
+      <c r="G37">
+        <v>-254.17</v>
+      </c>
+      <c r="I37" s="5">
+        <v>-0.49259999999999998</v>
+      </c>
+      <c r="J37" s="1">
+        <v>279653.94</v>
+      </c>
+      <c r="K37">
+        <v>230066.8</v>
+      </c>
+      <c r="L37" s="1">
+        <v>286.8</v>
+      </c>
+      <c r="M37">
+        <v>0.12470000000000001</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="6">
         <v>44327</v>
       </c>
-      <c r="J38"/>
-      <c r="M38" s="5"/>
+      <c r="C38">
+        <v>46231.79</v>
+      </c>
+      <c r="D38">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="G38">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.1497</v>
+      </c>
+      <c r="J38">
+        <v>280255.06</v>
+      </c>
+      <c r="K38">
+        <v>237959.7</v>
+      </c>
+      <c r="L38" s="1">
+        <v>656.7</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0.27600000000000002</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="6">
         <v>44328</v>
       </c>
+      <c r="C39">
+        <v>46542.3</v>
+      </c>
+      <c r="D39">
+        <v>46231.79</v>
+      </c>
+      <c r="G39">
+        <v>310.5</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="J39" s="1">
+        <v>281489.68</v>
+      </c>
+      <c r="K39">
+        <v>245088.3</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1235.0999999999999</v>
+      </c>
+      <c r="M39">
+        <v>0.50390000000000001</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="6">
         <v>44329</v>
       </c>
-      <c r="M40" s="5"/>
+      <c r="C40">
+        <v>45103.88</v>
+      </c>
+      <c r="D40">
+        <v>46542.3</v>
+      </c>
+      <c r="G40">
+        <v>-427.94</v>
+      </c>
+      <c r="I40" s="5">
+        <v>-0.91949999999999998</v>
+      </c>
+      <c r="J40" s="1">
+        <v>278597.86</v>
+      </c>
+      <c r="K40">
+        <v>235865.5</v>
+      </c>
+      <c r="L40" s="1">
+        <v>-2882.8</v>
+      </c>
+      <c r="M40" s="5">
+        <v>-1.2222</v>
+      </c>
       <c r="N40" s="12"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="6">
         <v>44330</v>
       </c>
+      <c r="C41">
+        <v>45914.8</v>
+      </c>
+      <c r="D41">
+        <v>45103.88</v>
+      </c>
+      <c r="G41">
+        <v>810.92</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1.7979000000000001</v>
+      </c>
+      <c r="J41" s="1">
+        <v>297075.5</v>
+      </c>
+      <c r="K41">
+        <v>254312.9</v>
+      </c>
+      <c r="L41" s="1">
+        <v>4993</v>
+      </c>
+      <c r="M41">
+        <v>1.9633</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="6">
-        <v>44331</v>
+      <c r="A42" s="6"/>
+      <c r="B42">
+        <f>SUM(B37:B41)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f>SUM(C37:C41)/5</f>
+        <v>47129.338000000003</v>
+      </c>
+      <c r="D42">
+        <f>SUM(D37:D41)/5</f>
+        <v>48266.33</v>
+      </c>
+      <c r="F42">
+        <f>SUM(F37:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f>SUM(G37:G41)</f>
+        <v>516.96</v>
+      </c>
+      <c r="H42">
+        <f>SUM(H40:H41)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <f>G42/D42*100</f>
+        <v>1.0710571945287741</v>
+      </c>
+      <c r="J42">
+        <f>SUM(J37:J41)/5</f>
+        <v>283414.408</v>
+      </c>
+      <c r="K42">
+        <f>SUM(K37:K41)/5</f>
+        <v>240658.63999999998</v>
+      </c>
+      <c r="L42" s="1">
+        <f>SUM(L37:L41)</f>
+        <v>4288.7999999999993</v>
+      </c>
+      <c r="M42" s="5">
+        <f>L42/K42*100</f>
+        <v>1.7821092980497186</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="6">
-        <v>44332</v>
+        <v>44331</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="6">
-        <v>44333</v>
+        <v>44332</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="6">
-        <v>44334</v>
+        <v>44333</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="6">
-        <v>44335</v>
+        <v>44334</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="6">
-        <v>44336</v>
+        <v>44335</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="6">
-        <v>44337</v>
+        <v>44336</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="6">
-        <v>44338</v>
+        <v>44337</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="6">
-        <v>44339</v>
+        <v>44338</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6">
-        <v>44340</v>
+        <v>44339</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="6">
-        <v>44341</v>
+        <v>44340</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="6">
-        <v>44342</v>
+        <v>44341</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="6">
-        <v>44343</v>
+        <v>44342</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="6">
-        <v>44344</v>
+        <v>44343</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="6">
-        <v>44345</v>
+        <v>44344</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6">
-        <v>44346</v>
+        <v>44345</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="6">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="6">
         <v>44347</v>
       </c>
     </row>
@@ -2485,7 +2649,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:M12"/>
+      <selection activeCell="B20" sqref="B20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1742,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="B50" sqref="B50:M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2230,74 +2230,241 @@
       <c r="A45" s="6">
         <v>44333</v>
       </c>
+      <c r="C45">
+        <v>46705.27</v>
+      </c>
+      <c r="D45">
+        <v>45914.8</v>
+      </c>
+      <c r="G45">
+        <v>713.61</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1.5542</v>
+      </c>
+      <c r="J45" s="1">
+        <v>287180.42</v>
+      </c>
+      <c r="K45">
+        <v>223809.4</v>
+      </c>
+      <c r="L45" s="1">
+        <v>3361.6</v>
+      </c>
+      <c r="M45">
+        <v>1.502</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="6">
         <v>44334</v>
       </c>
+      <c r="C46">
+        <v>42036.67</v>
+      </c>
+      <c r="D46">
+        <v>46705.27</v>
+      </c>
+      <c r="G46">
+        <v>-35.5</v>
+      </c>
+      <c r="I46" s="5">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>287508.09000000003</v>
+      </c>
+      <c r="K46">
+        <v>209781.2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>345.8</v>
+      </c>
+      <c r="M46">
+        <v>0.1648</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="6">
         <v>44335</v>
       </c>
+      <c r="C47">
+        <v>41928.78</v>
+      </c>
+      <c r="D47">
+        <v>42036.67</v>
+      </c>
+      <c r="G47">
+        <v>-107.89</v>
+      </c>
+      <c r="I47" s="5">
+        <v>-0.25669999999999998</v>
+      </c>
+      <c r="J47" s="1">
+        <v>286918.05</v>
+      </c>
+      <c r="K47">
+        <v>187404.9</v>
+      </c>
+      <c r="L47" s="1">
+        <v>-576.79999999999995</v>
+      </c>
+      <c r="M47">
+        <v>-0.30780000000000002</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="6">
         <v>44336</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="C48">
+        <v>41986.080000000002</v>
+      </c>
+      <c r="D48">
+        <v>41928.78</v>
+      </c>
+      <c r="G48">
+        <v>57.29</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.1366</v>
+      </c>
+      <c r="J48" s="1">
+        <v>287399.69</v>
+      </c>
+      <c r="K48">
+        <v>209008.7</v>
+      </c>
+      <c r="L48" s="1">
+        <v>494.8</v>
+      </c>
+      <c r="M48">
+        <v>0.23669999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="6">
         <v>44337</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="6">
+      <c r="C49">
+        <v>41495.85</v>
+      </c>
+      <c r="D49">
+        <v>41986.080000000002</v>
+      </c>
+      <c r="G49">
+        <v>-490.23</v>
+      </c>
+      <c r="I49" s="5">
+        <v>-1.1676</v>
+      </c>
+      <c r="J49" s="1">
+        <v>286188.42</v>
+      </c>
+      <c r="K49">
+        <v>250057.5</v>
+      </c>
+      <c r="L49" s="1">
+        <v>-1197.8</v>
+      </c>
+      <c r="M49">
+        <v>-0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="6"/>
+      <c r="B50">
+        <f>SUM(B45:B49)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>SUM(C45:C49)/5</f>
+        <v>42830.53</v>
+      </c>
+      <c r="D50">
+        <f>SUM(D45:D49)/5</f>
+        <v>43714.319999999992</v>
+      </c>
+      <c r="F50">
+        <f>SUM(F45:F49)</f>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f>SUM(G45:G49)</f>
+        <v>137.27999999999997</v>
+      </c>
+      <c r="H50">
+        <f>SUM(H48:H49)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <f>G50/D50*100</f>
+        <v>0.31403896938120046</v>
+      </c>
+      <c r="J50">
+        <f>SUM(J45:J49)/5</f>
+        <v>287038.93400000001</v>
+      </c>
+      <c r="K50">
+        <f>SUM(K45:K49)/5</f>
+        <v>216012.34</v>
+      </c>
+      <c r="L50" s="1">
+        <f>SUM(L45:L49)</f>
+        <v>2427.6000000000004</v>
+      </c>
+      <c r="M50" s="5">
+        <f>L50/K50*100</f>
+        <v>1.1238246852008549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="6">
         <v>44338</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="6">
+    <row r="52" spans="1:13">
+      <c r="A52" s="6">
         <v>44339</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="6">
+    <row r="53" spans="1:13">
+      <c r="A53" s="6">
         <v>44340</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="6">
+    <row r="54" spans="1:13">
+      <c r="A54" s="6">
         <v>44341</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="6">
+    <row r="55" spans="1:13">
+      <c r="A55" s="6">
         <v>44342</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="6">
+    <row r="56" spans="1:13">
+      <c r="A56" s="6">
         <v>44343</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="6">
+    <row r="57" spans="1:13">
+      <c r="A57" s="6">
         <v>44344</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="6">
+    <row r="58" spans="1:13">
+      <c r="A58" s="6">
         <v>44345</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="6">
+    <row r="59" spans="1:13">
+      <c r="A59" s="6">
         <v>44346</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="6">
+    <row r="60" spans="1:13">
+      <c r="A60" s="6">
         <v>44347</v>
       </c>
     </row>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -1742,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:M50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1756,237 +1756,752 @@
     <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6"/>
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="6">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6">
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6">
+        <v>44319</v>
+      </c>
       <c r="J4"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:13">
+    <row r="5" spans="1:14">
+      <c r="A5" s="6">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
+    <row r="8" spans="1:14">
+      <c r="A8" s="6">
+        <v>44322</v>
+      </c>
+      <c r="C8">
+        <v>52744.99</v>
+      </c>
+      <c r="D8">
+        <v>53141.46</v>
+      </c>
+      <c r="G8">
+        <v>-396.48</v>
+      </c>
+      <c r="I8" s="5">
+        <v>-0.74609999999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>270816.58</v>
+      </c>
+      <c r="K8">
+        <v>211425.9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1195.3</v>
+      </c>
+      <c r="M8">
+        <v>-0.56540000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6">
+        <v>44323</v>
+      </c>
+      <c r="C9">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="D9">
+        <v>52744.99</v>
+      </c>
+      <c r="G9">
+        <v>-839.05</v>
+      </c>
+      <c r="I9" s="5">
+        <v>-1.5908</v>
+      </c>
+      <c r="J9" s="1">
+        <v>269379.71999999997</v>
+      </c>
+      <c r="K9">
+        <v>229187</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1411.4</v>
+      </c>
+      <c r="M9" s="5">
+        <v>-0.61580000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="6"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6"/>
-      <c r="J12"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6"/>
+      <c r="C10">
+        <f>SUM(C6:C9)/2</f>
+        <v>52299.455000000002</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D6:D9)/2</f>
+        <v>52943.224999999999</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G6:G9)</f>
+        <v>-1235.53</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H8:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f>G10/D10*100</f>
+        <v>-2.3336885881054656</v>
+      </c>
+      <c r="J10">
+        <f>SUM(J6:J9)/2</f>
+        <v>270098.15000000002</v>
+      </c>
+      <c r="K10">
+        <f>SUM(K6:K9)/2</f>
+        <v>220306.45</v>
+      </c>
+      <c r="L10" s="1">
+        <f>SUM(L6:L9)</f>
+        <v>-2606.6999999999998</v>
+      </c>
+      <c r="M10" s="5">
+        <f>L10/K10*100</f>
+        <v>-1.1832154709950615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="6">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6">
+        <v>44326</v>
+      </c>
+      <c r="C13">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="D13">
+        <v>51599.76</v>
+      </c>
+      <c r="G13">
+        <v>-254.17</v>
+      </c>
+      <c r="I13" s="5">
+        <v>-0.49259999999999998</v>
+      </c>
+      <c r="J13" s="1">
+        <v>279653.94</v>
+      </c>
+      <c r="K13">
+        <v>230066.8</v>
+      </c>
+      <c r="L13" s="1">
+        <v>286.8</v>
+      </c>
+      <c r="M13">
+        <v>0.12470000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6">
+        <v>44327</v>
+      </c>
+      <c r="C14">
+        <v>46231.79</v>
+      </c>
+      <c r="D14">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="G14">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.1497</v>
+      </c>
+      <c r="J14">
+        <v>280255.06</v>
+      </c>
+      <c r="K14">
+        <v>237959.7</v>
+      </c>
+      <c r="L14" s="1">
+        <v>656.7</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6">
+        <v>44328</v>
+      </c>
+      <c r="C15">
+        <v>46542.3</v>
+      </c>
+      <c r="D15">
+        <v>46231.79</v>
+      </c>
+      <c r="G15">
+        <v>310.5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="J15" s="1">
+        <v>281489.68</v>
+      </c>
+      <c r="K15">
+        <v>245088.3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1235.0999999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.50390000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6">
+        <v>44329</v>
+      </c>
+      <c r="C16">
+        <v>45103.88</v>
+      </c>
+      <c r="D16">
+        <v>46542.3</v>
+      </c>
+      <c r="G16">
+        <v>-427.94</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-0.91949999999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>278597.86</v>
+      </c>
+      <c r="K16">
+        <v>235865.5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-2882.8</v>
+      </c>
+      <c r="M16" s="5">
+        <v>-1.2222</v>
+      </c>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6">
+        <v>44330</v>
+      </c>
+      <c r="C17">
+        <v>45914.8</v>
+      </c>
+      <c r="D17">
+        <v>45103.88</v>
+      </c>
+      <c r="G17">
+        <v>810.92</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1.7979000000000001</v>
+      </c>
+      <c r="J17" s="1">
+        <v>297075.5</v>
+      </c>
+      <c r="K17">
+        <v>254312.9</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4993</v>
+      </c>
+      <c r="M17">
+        <v>1.9633</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6"/>
+      <c r="B18">
+        <f>SUM(B13:B17)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C13:C17)/5</f>
+        <v>47129.338000000003</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D13:D17)/5</f>
+        <v>48266.33</v>
+      </c>
+      <c r="F18">
+        <f>SUM(F13:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G13:G17)</f>
+        <v>516.96</v>
+      </c>
+      <c r="H18">
+        <f>SUM(H16:H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f>G18/D18*100</f>
+        <v>1.0710571945287741</v>
+      </c>
+      <c r="J18">
+        <f>SUM(J13:J17)/5</f>
+        <v>283414.408</v>
+      </c>
+      <c r="K18">
+        <f>SUM(K13:K17)/5</f>
+        <v>240658.63999999998</v>
+      </c>
+      <c r="L18" s="1">
+        <f>SUM(L13:L17)</f>
+        <v>4288.7999999999993</v>
+      </c>
+      <c r="M18" s="5">
+        <f>L18/K18*100</f>
+        <v>1.7821092980497186</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="6"/>
+      <c r="A19" s="6">
+        <v>44331</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="6"/>
-      <c r="J20"/>
-      <c r="M20" s="5"/>
+      <c r="A20" s="6">
+        <v>44332</v>
+      </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6">
+        <v>44333</v>
+      </c>
+      <c r="C21">
+        <v>46705.27</v>
+      </c>
+      <c r="D21">
+        <v>45914.8</v>
+      </c>
+      <c r="G21">
+        <v>713.61</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1.5542</v>
+      </c>
+      <c r="J21" s="1">
+        <v>287180.42</v>
+      </c>
+      <c r="K21">
+        <v>223809.4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3361.6</v>
+      </c>
+      <c r="M21">
+        <v>1.502</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6">
+        <v>44334</v>
+      </c>
+      <c r="C22">
+        <v>42036.67</v>
+      </c>
+      <c r="D22">
+        <v>46705.27</v>
+      </c>
+      <c r="G22">
+        <v>-35.5</v>
+      </c>
+      <c r="I22" s="5">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>287508.09000000003</v>
+      </c>
+      <c r="K22">
+        <v>209781.2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>345.8</v>
+      </c>
+      <c r="M22">
+        <v>0.1648</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6">
+        <v>44335</v>
+      </c>
+      <c r="C23">
+        <v>41928.78</v>
+      </c>
+      <c r="D23">
+        <v>42036.67</v>
+      </c>
+      <c r="G23">
+        <v>-107.89</v>
+      </c>
+      <c r="I23" s="5">
+        <v>-0.25669999999999998</v>
+      </c>
+      <c r="J23" s="1">
+        <v>286918.05</v>
+      </c>
+      <c r="K23">
+        <v>187404.9</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-576.79999999999995</v>
+      </c>
+      <c r="M23">
+        <v>-0.30780000000000002</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6">
+        <v>44336</v>
+      </c>
+      <c r="C24">
+        <v>41986.080000000002</v>
+      </c>
+      <c r="D24">
+        <v>41928.78</v>
+      </c>
+      <c r="G24">
+        <v>57.29</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.1366</v>
+      </c>
+      <c r="J24" s="1">
+        <v>287399.69</v>
+      </c>
+      <c r="K24">
+        <v>209008.7</v>
+      </c>
+      <c r="L24" s="1">
+        <v>494.8</v>
+      </c>
+      <c r="M24">
+        <v>0.23669999999999999</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>38</v>
+      <c r="A25" s="6">
+        <v>44337</v>
+      </c>
+      <c r="C25">
+        <v>41495.85</v>
+      </c>
+      <c r="D25">
+        <v>41986.080000000002</v>
+      </c>
+      <c r="G25">
+        <v>-490.23</v>
+      </c>
+      <c r="I25" s="5">
+        <v>-1.1676</v>
+      </c>
+      <c r="J25" s="1">
+        <v>286188.42</v>
+      </c>
+      <c r="K25">
+        <v>250057.5</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-1197.8</v>
+      </c>
+      <c r="M25">
+        <v>-0.47899999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="6">
-        <v>44317</v>
+      <c r="A26" s="6"/>
+      <c r="B26">
+        <f>SUM(B21:B25)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C21:C25)/5</f>
+        <v>42830.53</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D21:D25)/5</f>
+        <v>43714.319999999992</v>
+      </c>
+      <c r="F26">
+        <f>SUM(F21:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>SUM(G21:G25)</f>
+        <v>137.27999999999997</v>
+      </c>
+      <c r="H26">
+        <f>SUM(H24:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f>G26/D26*100</f>
+        <v>0.31403896938120046</v>
+      </c>
+      <c r="J26">
+        <f>SUM(J21:J25)/5</f>
+        <v>287038.93400000001</v>
+      </c>
+      <c r="K26">
+        <f>SUM(K21:K25)/5</f>
+        <v>216012.34</v>
+      </c>
+      <c r="L26" s="1">
+        <f>SUM(L21:L25)</f>
+        <v>2427.6000000000004</v>
+      </c>
+      <c r="M26" s="5">
+        <f>L26/K26*100</f>
+        <v>1.1238246852008549</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6">
-        <v>44318</v>
+        <v>44338</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6">
-        <v>44319</v>
-      </c>
-      <c r="J28"/>
-      <c r="M28" s="5"/>
+        <v>44339</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6">
-        <v>44320</v>
+        <v>44340</v>
+      </c>
+      <c r="C29">
+        <v>41767.35</v>
+      </c>
+      <c r="D29">
+        <v>41495.85</v>
+      </c>
+      <c r="G29">
+        <v>271.49</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>288233.01</v>
+      </c>
+      <c r="K29">
+        <v>218947.20000000001</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2057.6</v>
+      </c>
+      <c r="M29">
+        <v>0.93979999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6">
-        <v>44321</v>
+        <v>44341</v>
+      </c>
+      <c r="C30">
+        <v>43060.94</v>
+      </c>
+      <c r="D30">
+        <v>41495.85</v>
+      </c>
+      <c r="G30">
+        <v>1294.31</v>
+      </c>
+      <c r="I30" s="5">
+        <v>3.1191</v>
+      </c>
+      <c r="J30" s="1">
+        <v>292592.21000000002</v>
+      </c>
+      <c r="K30">
+        <v>132408.4</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4431.1000000000004</v>
+      </c>
+      <c r="M30">
+        <v>3.3464999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="6"/>
+      <c r="A31" s="6">
+        <v>44342</v>
+      </c>
+      <c r="C31">
+        <v>20204.55</v>
+      </c>
+      <c r="D31">
+        <v>43060.94</v>
+      </c>
+      <c r="G31">
+        <v>-115.24</v>
+      </c>
+      <c r="I31" s="5">
+        <v>-0.2676</v>
+      </c>
+      <c r="J31" s="1">
+        <v>292136.73</v>
+      </c>
+      <c r="K31">
+        <v>188449.3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-438</v>
+      </c>
+      <c r="M31">
+        <v>-0.2324</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6">
-        <v>44322</v>
+        <v>44343</v>
       </c>
       <c r="C32">
-        <v>52744.99</v>
+        <v>20341.8</v>
       </c>
       <c r="D32">
-        <v>53141.46</v>
+        <v>20204.55</v>
       </c>
       <c r="G32">
-        <v>-396.48</v>
+        <v>139.37</v>
       </c>
       <c r="I32" s="5">
-        <v>-0.74609999999999999</v>
+        <v>0.68979999999999997</v>
       </c>
       <c r="J32" s="1">
-        <v>270816.58</v>
+        <v>314726.03000000003</v>
       </c>
       <c r="K32">
-        <v>211425.9</v>
+        <v>183115.3</v>
       </c>
       <c r="L32" s="1">
-        <v>-1195.3</v>
+        <v>2628.9</v>
       </c>
       <c r="M32">
-        <v>-0.56540000000000001</v>
+        <v>1.4357</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="6">
-        <v>44323</v>
+        <v>44344</v>
       </c>
       <c r="C33">
-        <v>51853.919999999998</v>
+        <v>20252.02</v>
       </c>
       <c r="D33">
-        <v>52744.99</v>
+        <v>20341.8</v>
       </c>
       <c r="G33">
-        <v>-839.05</v>
+        <v>-89.79</v>
       </c>
       <c r="I33" s="5">
-        <v>-1.5908</v>
+        <v>-0.44140000000000001</v>
       </c>
       <c r="J33" s="1">
-        <v>269379.71999999997</v>
+        <v>314122.90999999997</v>
       </c>
       <c r="K33">
-        <v>229187</v>
+        <v>251310.4</v>
       </c>
       <c r="L33" s="1">
-        <v>-1411.4</v>
-      </c>
-      <c r="M33" s="5">
-        <v>-0.61580000000000001</v>
+        <v>-585.9</v>
+      </c>
+      <c r="M33">
+        <v>-0.2331</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="6"/>
+      <c r="B34">
+        <f>SUM(B29:B33)/5</f>
+        <v>0</v>
+      </c>
       <c r="C34">
-        <f>SUM(C30:C33)/2</f>
-        <v>52299.455000000002</v>
+        <f>SUM(C29:C33)/5</f>
+        <v>29125.332000000002</v>
       </c>
       <c r="D34">
-        <f>SUM(D30:D33)/2</f>
-        <v>52943.224999999999</v>
+        <f>SUM(D29:D33)/5</f>
+        <v>33319.797999999995</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F29:F33)</f>
+        <v>0</v>
       </c>
       <c r="G34">
-        <f>SUM(G30:G33)</f>
-        <v>-1235.53</v>
+        <f>SUM(G29:G33)</f>
+        <v>1500.1399999999999</v>
       </c>
       <c r="H34">
         <f>SUM(H32:H33)</f>
@@ -1994,478 +2509,96 @@
       </c>
       <c r="I34" s="5">
         <f>G34/D34*100</f>
-        <v>-2.3336885881054656</v>
+        <v>4.5022481828971479</v>
       </c>
       <c r="J34">
-        <f>SUM(J30:J33)/2</f>
-        <v>270098.15000000002</v>
+        <f>SUM(J29:J33)/5</f>
+        <v>300362.17799999996</v>
       </c>
       <c r="K34">
-        <f>SUM(K30:K33)/2</f>
-        <v>220306.45</v>
+        <f>SUM(K29:K33)/5</f>
+        <v>194846.12</v>
       </c>
       <c r="L34" s="1">
-        <f>SUM(L30:L33)</f>
-        <v>-2606.6999999999998</v>
+        <f>SUM(L29:L33)</f>
+        <v>8093.7000000000007</v>
       </c>
       <c r="M34" s="5">
         <f>L34/K34*100</f>
-        <v>-1.1832154709950615</v>
+        <v>4.1538933390102919</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="6">
-        <v>44324</v>
+        <v>44345</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="6">
-        <v>44325</v>
+        <v>44346</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="6">
-        <v>44326</v>
+        <v>44347</v>
       </c>
       <c r="C37">
-        <v>51853.919999999998</v>
+        <v>20384.36</v>
       </c>
       <c r="D37">
-        <v>51599.76</v>
+        <v>20252.02</v>
       </c>
       <c r="G37">
-        <v>-254.17</v>
+        <v>132.34</v>
       </c>
       <c r="I37" s="5">
-        <v>-0.49259999999999998</v>
+        <v>0.65349999999999997</v>
       </c>
       <c r="J37" s="1">
-        <v>279653.94</v>
+        <v>367430.22</v>
       </c>
       <c r="K37">
-        <v>230066.8</v>
+        <v>200865</v>
       </c>
       <c r="L37" s="1">
-        <v>286.8</v>
+        <v>3330.1</v>
       </c>
       <c r="M37">
-        <v>0.12470000000000001</v>
+        <v>1.6578999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="6">
-        <v>44327</v>
-      </c>
       <c r="C38">
-        <v>46231.79</v>
+        <f>SUM(C8,C9,C13,C14,C15,C16,C17,C21,C22,C23,C24,C25,C29,C30,C31,C32,C33,C37)/17</f>
+        <v>42377.015882352949</v>
       </c>
       <c r="D38">
-        <v>51853.919999999998</v>
+        <f>SUM(D8,D9,D13,D14,D15,D16,D17,D21,D22,D23,D24,D25,D29,D30,D31,D32,D33,D37)/17</f>
+        <v>44272.982941176466</v>
       </c>
       <c r="G38">
-        <v>77.650000000000006</v>
+        <f>SUM(G8,G9,G13,G14,G15,G16,G17,G21,G22,G23,G24,G25,G29,G30,G31,G32,G33,G37)</f>
+        <v>1051.1899999999998</v>
       </c>
       <c r="I38" s="5">
-        <v>0.1497</v>
-      </c>
-      <c r="J38">
-        <v>280255.06</v>
+        <f>G38/D38*100</f>
+        <v>2.3743374179161796</v>
       </c>
       <c r="K38">
-        <v>237959.7</v>
-      </c>
-      <c r="L38" s="1">
-        <v>656.7</v>
+        <f>SUM(K8,K9,K13,K14,K15,K16,K17,K21,K22,K23,K24,K25,K29,K30,K31,K32,K33,K37)/18</f>
+        <v>216614.6333333333</v>
+      </c>
+      <c r="L38">
+        <f>SUM(L8,L9,L13,L14,L15,L16,L17,L21,L22,L23,L24,L25,L29,L30,L31,L32,L33,L37)</f>
+        <v>15533.500000000002</v>
       </c>
       <c r="M38" s="5">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="6">
-        <v>44328</v>
-      </c>
-      <c r="C39">
-        <v>46542.3</v>
-      </c>
-      <c r="D39">
-        <v>46231.79</v>
-      </c>
-      <c r="G39">
-        <v>310.5</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0.67159999999999997</v>
-      </c>
-      <c r="J39" s="1">
-        <v>281489.68</v>
-      </c>
-      <c r="K39">
-        <v>245088.3</v>
-      </c>
-      <c r="L39" s="1">
-        <v>1235.0999999999999</v>
-      </c>
-      <c r="M39">
-        <v>0.50390000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="6">
-        <v>44329</v>
-      </c>
-      <c r="C40">
-        <v>45103.88</v>
-      </c>
-      <c r="D40">
-        <v>46542.3</v>
-      </c>
-      <c r="G40">
-        <v>-427.94</v>
-      </c>
-      <c r="I40" s="5">
-        <v>-0.91949999999999998</v>
-      </c>
-      <c r="J40" s="1">
-        <v>278597.86</v>
-      </c>
-      <c r="K40">
-        <v>235865.5</v>
-      </c>
-      <c r="L40" s="1">
-        <v>-2882.8</v>
-      </c>
-      <c r="M40" s="5">
-        <v>-1.2222</v>
-      </c>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="6">
-        <v>44330</v>
-      </c>
-      <c r="C41">
-        <v>45914.8</v>
-      </c>
-      <c r="D41">
-        <v>45103.88</v>
-      </c>
-      <c r="G41">
-        <v>810.92</v>
-      </c>
-      <c r="I41" s="5">
-        <v>1.7979000000000001</v>
-      </c>
-      <c r="J41" s="1">
-        <v>297075.5</v>
-      </c>
-      <c r="K41">
-        <v>254312.9</v>
-      </c>
-      <c r="L41" s="1">
-        <v>4993</v>
-      </c>
-      <c r="M41">
-        <v>1.9633</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="6"/>
-      <c r="B42">
-        <f>SUM(B37:B41)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <f>SUM(C37:C41)/5</f>
-        <v>47129.338000000003</v>
-      </c>
-      <c r="D42">
-        <f>SUM(D37:D41)/5</f>
-        <v>48266.33</v>
-      </c>
-      <c r="F42">
-        <f>SUM(F37:F41)</f>
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <f>SUM(G37:G41)</f>
-        <v>516.96</v>
-      </c>
-      <c r="H42">
-        <f>SUM(H40:H41)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="5">
-        <f>G42/D42*100</f>
-        <v>1.0710571945287741</v>
-      </c>
-      <c r="J42">
-        <f>SUM(J37:J41)/5</f>
-        <v>283414.408</v>
-      </c>
-      <c r="K42">
-        <f>SUM(K37:K41)/5</f>
-        <v>240658.63999999998</v>
-      </c>
-      <c r="L42" s="1">
-        <f>SUM(L37:L41)</f>
-        <v>4288.7999999999993</v>
-      </c>
-      <c r="M42" s="5">
-        <f>L42/K42*100</f>
-        <v>1.7821092980497186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="6">
-        <v>44331</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="6">
-        <v>44332</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="6">
-        <v>44333</v>
-      </c>
-      <c r="C45">
-        <v>46705.27</v>
-      </c>
-      <c r="D45">
-        <v>45914.8</v>
-      </c>
-      <c r="G45">
-        <v>713.61</v>
-      </c>
-      <c r="I45" s="5">
-        <v>1.5542</v>
-      </c>
-      <c r="J45" s="1">
-        <v>287180.42</v>
-      </c>
-      <c r="K45">
-        <v>223809.4</v>
-      </c>
-      <c r="L45" s="1">
-        <v>3361.6</v>
-      </c>
-      <c r="M45">
-        <v>1.502</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="6">
-        <v>44334</v>
-      </c>
-      <c r="C46">
-        <v>42036.67</v>
-      </c>
-      <c r="D46">
-        <v>46705.27</v>
-      </c>
-      <c r="G46">
-        <v>-35.5</v>
-      </c>
-      <c r="I46" s="5">
-        <v>-7.5999999999999998E-2</v>
-      </c>
-      <c r="J46" s="1">
-        <v>287508.09000000003</v>
-      </c>
-      <c r="K46">
-        <v>209781.2</v>
-      </c>
-      <c r="L46" s="1">
-        <v>345.8</v>
-      </c>
-      <c r="M46">
-        <v>0.1648</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="6">
-        <v>44335</v>
-      </c>
-      <c r="C47">
-        <v>41928.78</v>
-      </c>
-      <c r="D47">
-        <v>42036.67</v>
-      </c>
-      <c r="G47">
-        <v>-107.89</v>
-      </c>
-      <c r="I47" s="5">
-        <v>-0.25669999999999998</v>
-      </c>
-      <c r="J47" s="1">
-        <v>286918.05</v>
-      </c>
-      <c r="K47">
-        <v>187404.9</v>
-      </c>
-      <c r="L47" s="1">
-        <v>-576.79999999999995</v>
-      </c>
-      <c r="M47">
-        <v>-0.30780000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="6">
-        <v>44336</v>
-      </c>
-      <c r="C48">
-        <v>41986.080000000002</v>
-      </c>
-      <c r="D48">
-        <v>41928.78</v>
-      </c>
-      <c r="G48">
-        <v>57.29</v>
-      </c>
-      <c r="I48" s="5">
-        <v>0.1366</v>
-      </c>
-      <c r="J48" s="1">
-        <v>287399.69</v>
-      </c>
-      <c r="K48">
-        <v>209008.7</v>
-      </c>
-      <c r="L48" s="1">
-        <v>494.8</v>
-      </c>
-      <c r="M48">
-        <v>0.23669999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="6">
-        <v>44337</v>
-      </c>
-      <c r="C49">
-        <v>41495.85</v>
-      </c>
-      <c r="D49">
-        <v>41986.080000000002</v>
-      </c>
-      <c r="G49">
-        <v>-490.23</v>
-      </c>
-      <c r="I49" s="5">
-        <v>-1.1676</v>
-      </c>
-      <c r="J49" s="1">
-        <v>286188.42</v>
-      </c>
-      <c r="K49">
-        <v>250057.5</v>
-      </c>
-      <c r="L49" s="1">
-        <v>-1197.8</v>
-      </c>
-      <c r="M49">
-        <v>-0.47899999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="6"/>
-      <c r="B50">
-        <f>SUM(B45:B49)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <f>SUM(C45:C49)/5</f>
-        <v>42830.53</v>
-      </c>
-      <c r="D50">
-        <f>SUM(D45:D49)/5</f>
-        <v>43714.319999999992</v>
-      </c>
-      <c r="F50">
-        <f>SUM(F45:F49)</f>
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f>SUM(G45:G49)</f>
-        <v>137.27999999999997</v>
-      </c>
-      <c r="H50">
-        <f>SUM(H48:H49)</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="5">
-        <f>G50/D50*100</f>
-        <v>0.31403896938120046</v>
-      </c>
-      <c r="J50">
-        <f>SUM(J45:J49)/5</f>
-        <v>287038.93400000001</v>
-      </c>
-      <c r="K50">
-        <f>SUM(K45:K49)/5</f>
-        <v>216012.34</v>
-      </c>
-      <c r="L50" s="1">
-        <f>SUM(L45:L49)</f>
-        <v>2427.6000000000004</v>
-      </c>
-      <c r="M50" s="5">
-        <f>L50/K50*100</f>
-        <v>1.1238246852008549</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="6">
-        <v>44338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="6">
-        <v>44339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="6">
-        <v>44340</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="6">
-        <v>44341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="6">
-        <v>44342</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="6">
-        <v>44343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="6">
-        <v>44344</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="6">
-        <v>44345</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="6">
-        <v>44346</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="6">
-        <v>44347</v>
+        <f>L38/K38*100</f>
+        <v>7.1710298427053036</v>
+      </c>
+      <c r="N38" s="12">
+        <f>G38+L38</f>
+        <v>16584.690000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2815,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:M20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -7,23 +7,24 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="5" sheetId="37" r:id="rId1"/>
-    <sheet name="2104" sheetId="36" r:id="rId2"/>
-    <sheet name="2103" sheetId="33" r:id="rId3"/>
-    <sheet name="2102" sheetId="31" r:id="rId4"/>
-    <sheet name="2101" sheetId="26" r:id="rId5"/>
-    <sheet name="每月" sheetId="29" r:id="rId6"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId7"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId8"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId10"/>
+    <sheet name="6" sheetId="38" r:id="rId1"/>
+    <sheet name="5" sheetId="37" r:id="rId2"/>
+    <sheet name="2104" sheetId="36" r:id="rId3"/>
+    <sheet name="2103" sheetId="33" r:id="rId4"/>
+    <sheet name="2102" sheetId="31" r:id="rId5"/>
+    <sheet name="2101" sheetId="26" r:id="rId6"/>
+    <sheet name="每月" sheetId="29" r:id="rId7"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId8"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId9"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1742,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1796,809 +1797,181 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="6">
-        <v>44317</v>
+        <v>44347</v>
+      </c>
+      <c r="C2">
+        <v>20384.36</v>
+      </c>
+      <c r="D2">
+        <v>20252.02</v>
+      </c>
+      <c r="G2">
+        <v>132.34</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="J2" s="1">
+        <v>367430.22</v>
+      </c>
+      <c r="K2">
+        <v>200865</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3330.1</v>
+      </c>
+      <c r="M2">
+        <v>1.6578999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="6">
-        <v>44318</v>
-      </c>
+        <v>44348</v>
+      </c>
+      <c r="J3" s="1">
+        <v>369566.62</v>
+      </c>
+      <c r="K3">
+        <v>235801.1</v>
+      </c>
+      <c r="L3">
+        <v>2159.6</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="6">
-        <v>44319</v>
-      </c>
-      <c r="J4"/>
-      <c r="M4" s="5"/>
+        <v>44349</v>
+      </c>
+      <c r="J4" s="1">
+        <v>365120.57</v>
+      </c>
+      <c r="K4">
+        <v>296728</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-4436.1000000000004</v>
+      </c>
+      <c r="M4">
+        <v>-1.4950000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="6">
-        <v>44320</v>
+        <v>44350</v>
+      </c>
+      <c r="J5" s="1">
+        <v>363781.23</v>
+      </c>
+      <c r="K5">
+        <v>259382.2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1330.1</v>
+      </c>
+      <c r="M5">
+        <v>-0.51280000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6">
-        <v>44321</v>
+        <v>44351</v>
+      </c>
+      <c r="J6" s="1">
+        <v>366580.88</v>
+      </c>
+      <c r="K6">
+        <v>209187.4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2829.7</v>
+      </c>
+      <c r="M6">
+        <v>1.3527</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="6"/>
+      <c r="B7">
+        <f>SUM(B2:B6)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>132.34</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>SUM(J2:J6)/5</f>
+        <v>366495.90399999998</v>
+      </c>
+      <c r="K7">
+        <f>SUM(K2:K6)/5</f>
+        <v>240392.74</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L2:L6)</f>
+        <v>2553.1999999999994</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>1.062095302878115</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6">
-        <v>44322</v>
-      </c>
-      <c r="C8">
-        <v>52744.99</v>
-      </c>
-      <c r="D8">
-        <v>53141.46</v>
-      </c>
-      <c r="G8">
-        <v>-396.48</v>
-      </c>
-      <c r="I8" s="5">
-        <v>-0.74609999999999999</v>
-      </c>
-      <c r="J8" s="1">
-        <v>270816.58</v>
-      </c>
-      <c r="K8">
-        <v>211425.9</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-1195.3</v>
-      </c>
-      <c r="M8">
-        <v>-0.56540000000000001</v>
+        <v>44352</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6">
-        <v>44323</v>
-      </c>
-      <c r="C9">
-        <v>51853.919999999998</v>
-      </c>
-      <c r="D9">
-        <v>52744.99</v>
-      </c>
-      <c r="G9">
-        <v>-839.05</v>
-      </c>
-      <c r="I9" s="5">
-        <v>-1.5908</v>
-      </c>
-      <c r="J9" s="1">
-        <v>269379.71999999997</v>
-      </c>
-      <c r="K9">
-        <v>229187</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-1411.4</v>
-      </c>
-      <c r="M9" s="5">
-        <v>-0.61580000000000001</v>
+        <v>44353</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="6"/>
-      <c r="C10">
-        <f>SUM(C6:C9)/2</f>
-        <v>52299.455000000002</v>
-      </c>
-      <c r="D10">
-        <f>SUM(D6:D9)/2</f>
-        <v>52943.224999999999</v>
-      </c>
-      <c r="G10">
-        <f>SUM(G6:G9)</f>
-        <v>-1235.53</v>
-      </c>
-      <c r="H10">
-        <f>SUM(H8:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <f>G10/D10*100</f>
-        <v>-2.3336885881054656</v>
-      </c>
-      <c r="J10">
-        <f>SUM(J6:J9)/2</f>
-        <v>270098.15000000002</v>
-      </c>
-      <c r="K10">
-        <f>SUM(K6:K9)/2</f>
-        <v>220306.45</v>
-      </c>
-      <c r="L10" s="1">
-        <f>SUM(L6:L9)</f>
-        <v>-2606.6999999999998</v>
-      </c>
-      <c r="M10" s="5">
-        <f>L10/K10*100</f>
-        <v>-1.1832154709950615</v>
+      <c r="A10" s="6">
+        <v>44354</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="6">
-        <v>44324</v>
+        <v>44355</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="6">
-        <v>44325</v>
+        <v>44356</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6">
-        <v>44326</v>
-      </c>
-      <c r="C13">
-        <v>51853.919999999998</v>
-      </c>
-      <c r="D13">
-        <v>51599.76</v>
-      </c>
-      <c r="G13">
-        <v>-254.17</v>
-      </c>
-      <c r="I13" s="5">
-        <v>-0.49259999999999998</v>
-      </c>
-      <c r="J13" s="1">
-        <v>279653.94</v>
-      </c>
-      <c r="K13">
-        <v>230066.8</v>
-      </c>
-      <c r="L13" s="1">
-        <v>286.8</v>
-      </c>
-      <c r="M13">
-        <v>0.12470000000000001</v>
+        <v>44357</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6">
-        <v>44327</v>
-      </c>
-      <c r="C14">
-        <v>46231.79</v>
-      </c>
-      <c r="D14">
-        <v>51853.919999999998</v>
-      </c>
-      <c r="G14">
-        <v>77.650000000000006</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.1497</v>
-      </c>
-      <c r="J14">
-        <v>280255.06</v>
-      </c>
-      <c r="K14">
-        <v>237959.7</v>
-      </c>
-      <c r="L14" s="1">
-        <v>656.7</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.27600000000000002</v>
+        <v>44358</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6">
-        <v>44328</v>
-      </c>
-      <c r="C15">
-        <v>46542.3</v>
-      </c>
-      <c r="D15">
-        <v>46231.79</v>
-      </c>
-      <c r="G15">
-        <v>310.5</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.67159999999999997</v>
-      </c>
-      <c r="J15" s="1">
-        <v>281489.68</v>
-      </c>
-      <c r="K15">
-        <v>245088.3</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1235.0999999999999</v>
-      </c>
-      <c r="M15">
-        <v>0.50390000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="6">
-        <v>44329</v>
-      </c>
-      <c r="C16">
-        <v>45103.88</v>
-      </c>
-      <c r="D16">
-        <v>46542.3</v>
-      </c>
-      <c r="G16">
-        <v>-427.94</v>
-      </c>
-      <c r="I16" s="5">
-        <v>-0.91949999999999998</v>
-      </c>
-      <c r="J16" s="1">
-        <v>278597.86</v>
-      </c>
-      <c r="K16">
-        <v>235865.5</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-2882.8</v>
-      </c>
-      <c r="M16" s="5">
-        <v>-1.2222</v>
-      </c>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44330</v>
-      </c>
-      <c r="C17">
-        <v>45914.8</v>
-      </c>
-      <c r="D17">
-        <v>45103.88</v>
-      </c>
-      <c r="G17">
-        <v>810.92</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1.7979000000000001</v>
-      </c>
-      <c r="J17" s="1">
-        <v>297075.5</v>
-      </c>
-      <c r="K17">
-        <v>254312.9</v>
-      </c>
-      <c r="L17" s="1">
-        <v>4993</v>
-      </c>
-      <c r="M17">
-        <v>1.9633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6"/>
-      <c r="B18">
-        <f>SUM(B13:B17)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <f>SUM(C13:C17)/5</f>
-        <v>47129.338000000003</v>
-      </c>
-      <c r="D18">
-        <f>SUM(D13:D17)/5</f>
-        <v>48266.33</v>
-      </c>
-      <c r="F18">
-        <f>SUM(F13:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f>SUM(G13:G17)</f>
-        <v>516.96</v>
-      </c>
-      <c r="H18">
-        <f>SUM(H16:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <f>G18/D18*100</f>
-        <v>1.0710571945287741</v>
-      </c>
-      <c r="J18">
-        <f>SUM(J13:J17)/5</f>
-        <v>283414.408</v>
-      </c>
-      <c r="K18">
-        <f>SUM(K13:K17)/5</f>
-        <v>240658.63999999998</v>
-      </c>
-      <c r="L18" s="1">
-        <f>SUM(L13:L17)</f>
-        <v>4288.7999999999993</v>
-      </c>
-      <c r="M18" s="5">
-        <f>L18/K18*100</f>
-        <v>1.7821092980497186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>44332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44333</v>
-      </c>
-      <c r="C21">
-        <v>46705.27</v>
-      </c>
-      <c r="D21">
-        <v>45914.8</v>
-      </c>
-      <c r="G21">
-        <v>713.61</v>
-      </c>
-      <c r="I21" s="5">
-        <v>1.5542</v>
-      </c>
-      <c r="J21" s="1">
-        <v>287180.42</v>
-      </c>
-      <c r="K21">
-        <v>223809.4</v>
-      </c>
-      <c r="L21" s="1">
-        <v>3361.6</v>
-      </c>
-      <c r="M21">
-        <v>1.502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44334</v>
-      </c>
-      <c r="C22">
-        <v>42036.67</v>
-      </c>
-      <c r="D22">
-        <v>46705.27</v>
-      </c>
-      <c r="G22">
-        <v>-35.5</v>
-      </c>
-      <c r="I22" s="5">
-        <v>-7.5999999999999998E-2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>287508.09000000003</v>
-      </c>
-      <c r="K22">
-        <v>209781.2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>345.8</v>
-      </c>
-      <c r="M22">
-        <v>0.1648</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6">
-        <v>44335</v>
-      </c>
-      <c r="C23">
-        <v>41928.78</v>
-      </c>
-      <c r="D23">
-        <v>42036.67</v>
-      </c>
-      <c r="G23">
-        <v>-107.89</v>
-      </c>
-      <c r="I23" s="5">
-        <v>-0.25669999999999998</v>
-      </c>
-      <c r="J23" s="1">
-        <v>286918.05</v>
-      </c>
-      <c r="K23">
-        <v>187404.9</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-576.79999999999995</v>
-      </c>
-      <c r="M23">
-        <v>-0.30780000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6">
-        <v>44336</v>
-      </c>
-      <c r="C24">
-        <v>41986.080000000002</v>
-      </c>
-      <c r="D24">
-        <v>41928.78</v>
-      </c>
-      <c r="G24">
-        <v>57.29</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0.1366</v>
-      </c>
-      <c r="J24" s="1">
-        <v>287399.69</v>
-      </c>
-      <c r="K24">
-        <v>209008.7</v>
-      </c>
-      <c r="L24" s="1">
-        <v>494.8</v>
-      </c>
-      <c r="M24">
-        <v>0.23669999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="6">
-        <v>44337</v>
-      </c>
-      <c r="C25">
-        <v>41495.85</v>
-      </c>
-      <c r="D25">
-        <v>41986.080000000002</v>
-      </c>
-      <c r="G25">
-        <v>-490.23</v>
-      </c>
-      <c r="I25" s="5">
-        <v>-1.1676</v>
-      </c>
-      <c r="J25" s="1">
-        <v>286188.42</v>
-      </c>
-      <c r="K25">
-        <v>250057.5</v>
-      </c>
-      <c r="L25" s="1">
-        <v>-1197.8</v>
-      </c>
-      <c r="M25">
-        <v>-0.47899999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="6"/>
-      <c r="B26">
-        <f>SUM(B21:B25)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <f>SUM(C21:C25)/5</f>
-        <v>42830.53</v>
-      </c>
-      <c r="D26">
-        <f>SUM(D21:D25)/5</f>
-        <v>43714.319999999992</v>
-      </c>
-      <c r="F26">
-        <f>SUM(F21:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f>SUM(G21:G25)</f>
-        <v>137.27999999999997</v>
-      </c>
-      <c r="H26">
-        <f>SUM(H24:H25)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <f>G26/D26*100</f>
-        <v>0.31403896938120046</v>
-      </c>
-      <c r="J26">
-        <f>SUM(J21:J25)/5</f>
-        <v>287038.93400000001</v>
-      </c>
-      <c r="K26">
-        <f>SUM(K21:K25)/5</f>
-        <v>216012.34</v>
-      </c>
-      <c r="L26" s="1">
-        <f>SUM(L21:L25)</f>
-        <v>2427.6000000000004</v>
-      </c>
-      <c r="M26" s="5">
-        <f>L26/K26*100</f>
-        <v>1.1238246852008549</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="6">
-        <v>44338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="6">
-        <v>44339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="6">
-        <v>44340</v>
-      </c>
-      <c r="C29">
-        <v>41767.35</v>
-      </c>
-      <c r="D29">
-        <v>41495.85</v>
-      </c>
-      <c r="G29">
-        <v>271.49</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0.65429999999999999</v>
-      </c>
-      <c r="J29" s="1">
-        <v>288233.01</v>
-      </c>
-      <c r="K29">
-        <v>218947.20000000001</v>
-      </c>
-      <c r="L29" s="1">
-        <v>2057.6</v>
-      </c>
-      <c r="M29">
-        <v>0.93979999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="6">
-        <v>44341</v>
-      </c>
-      <c r="C30">
-        <v>43060.94</v>
-      </c>
-      <c r="D30">
-        <v>41495.85</v>
-      </c>
-      <c r="G30">
-        <v>1294.31</v>
-      </c>
-      <c r="I30" s="5">
-        <v>3.1191</v>
-      </c>
-      <c r="J30" s="1">
-        <v>292592.21000000002</v>
-      </c>
-      <c r="K30">
-        <v>132408.4</v>
-      </c>
-      <c r="L30" s="1">
-        <v>4431.1000000000004</v>
-      </c>
-      <c r="M30">
-        <v>3.3464999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="6">
-        <v>44342</v>
-      </c>
-      <c r="C31">
-        <v>20204.55</v>
-      </c>
-      <c r="D31">
-        <v>43060.94</v>
-      </c>
-      <c r="G31">
-        <v>-115.24</v>
-      </c>
-      <c r="I31" s="5">
-        <v>-0.2676</v>
-      </c>
-      <c r="J31" s="1">
-        <v>292136.73</v>
-      </c>
-      <c r="K31">
-        <v>188449.3</v>
-      </c>
-      <c r="L31" s="1">
-        <v>-438</v>
-      </c>
-      <c r="M31">
-        <v>-0.2324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="6">
-        <v>44343</v>
-      </c>
-      <c r="C32">
-        <v>20341.8</v>
-      </c>
-      <c r="D32">
-        <v>20204.55</v>
-      </c>
-      <c r="G32">
-        <v>139.37</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0.68979999999999997</v>
-      </c>
-      <c r="J32" s="1">
-        <v>314726.03000000003</v>
-      </c>
-      <c r="K32">
-        <v>183115.3</v>
-      </c>
-      <c r="L32" s="1">
-        <v>2628.9</v>
-      </c>
-      <c r="M32">
-        <v>1.4357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="6">
-        <v>44344</v>
-      </c>
-      <c r="C33">
-        <v>20252.02</v>
-      </c>
-      <c r="D33">
-        <v>20341.8</v>
-      </c>
-      <c r="G33">
-        <v>-89.79</v>
-      </c>
-      <c r="I33" s="5">
-        <v>-0.44140000000000001</v>
-      </c>
-      <c r="J33" s="1">
-        <v>314122.90999999997</v>
-      </c>
-      <c r="K33">
-        <v>251310.4</v>
-      </c>
-      <c r="L33" s="1">
-        <v>-585.9</v>
-      </c>
-      <c r="M33">
-        <v>-0.2331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="6"/>
-      <c r="B34">
-        <f>SUM(B29:B33)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <f>SUM(C29:C33)/5</f>
-        <v>29125.332000000002</v>
-      </c>
-      <c r="D34">
-        <f>SUM(D29:D33)/5</f>
-        <v>33319.797999999995</v>
-      </c>
-      <c r="F34">
-        <f>SUM(F29:F33)</f>
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <f>SUM(G29:G33)</f>
-        <v>1500.1399999999999</v>
-      </c>
-      <c r="H34">
-        <f>SUM(H32:H33)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <f>G34/D34*100</f>
-        <v>4.5022481828971479</v>
-      </c>
-      <c r="J34">
-        <f>SUM(J29:J33)/5</f>
-        <v>300362.17799999996</v>
-      </c>
-      <c r="K34">
-        <f>SUM(K29:K33)/5</f>
-        <v>194846.12</v>
-      </c>
-      <c r="L34" s="1">
-        <f>SUM(L29:L33)</f>
-        <v>8093.7000000000007</v>
-      </c>
-      <c r="M34" s="5">
-        <f>L34/K34*100</f>
-        <v>4.1538933390102919</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="6">
-        <v>44345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="6">
-        <v>44346</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="6">
-        <v>44347</v>
-      </c>
-      <c r="C37">
-        <v>20384.36</v>
-      </c>
-      <c r="D37">
-        <v>20252.02</v>
-      </c>
-      <c r="G37">
-        <v>132.34</v>
-      </c>
-      <c r="I37" s="5">
-        <v>0.65349999999999997</v>
-      </c>
-      <c r="J37" s="1">
-        <v>367430.22</v>
-      </c>
-      <c r="K37">
-        <v>200865</v>
-      </c>
-      <c r="L37" s="1">
-        <v>3330.1</v>
-      </c>
-      <c r="M37">
-        <v>1.6578999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="C38">
-        <f>SUM(C8,C9,C13,C14,C15,C16,C17,C21,C22,C23,C24,C25,C29,C30,C31,C32,C33,C37)/17</f>
-        <v>42377.015882352949</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D8,D9,D13,D14,D15,D16,D17,D21,D22,D23,D24,D25,D29,D30,D31,D32,D33,D37)/17</f>
-        <v>44272.982941176466</v>
-      </c>
-      <c r="G38">
-        <f>SUM(G8,G9,G13,G14,G15,G16,G17,G21,G22,G23,G24,G25,G29,G30,G31,G32,G33,G37)</f>
-        <v>1051.1899999999998</v>
-      </c>
-      <c r="I38" s="5">
-        <f>G38/D38*100</f>
-        <v>2.3743374179161796</v>
-      </c>
-      <c r="K38">
-        <f>SUM(K8,K9,K13,K14,K15,K16,K17,K21,K22,K23,K24,K25,K29,K30,K31,K32,K33,K37)/18</f>
-        <v>216614.6333333333</v>
-      </c>
-      <c r="L38">
-        <f>SUM(L8,L9,L13,L14,L15,L16,L17,L21,L22,L23,L24,L25,L29,L30,L31,L32,L33,L37)</f>
-        <v>15533.500000000002</v>
-      </c>
-      <c r="M38" s="5">
-        <f>L38/K38*100</f>
-        <v>7.1710298427053036</v>
-      </c>
-      <c r="N38" s="12">
-        <f>G38+L38</f>
-        <v>16584.690000000002</v>
+        <v>44359</v>
       </c>
     </row>
   </sheetData>
@@ -2609,6 +1982,88 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -2945,6 +2400,875 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="6">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6">
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6">
+        <v>44319</v>
+      </c>
+      <c r="J4"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6">
+        <v>44322</v>
+      </c>
+      <c r="C8">
+        <v>52744.99</v>
+      </c>
+      <c r="D8">
+        <v>53141.46</v>
+      </c>
+      <c r="G8">
+        <v>-396.48</v>
+      </c>
+      <c r="I8" s="5">
+        <v>-0.74609999999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>270816.58</v>
+      </c>
+      <c r="K8">
+        <v>211425.9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1195.3</v>
+      </c>
+      <c r="M8">
+        <v>-0.56540000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6">
+        <v>44323</v>
+      </c>
+      <c r="C9">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="D9">
+        <v>52744.99</v>
+      </c>
+      <c r="G9">
+        <v>-839.05</v>
+      </c>
+      <c r="I9" s="5">
+        <v>-1.5908</v>
+      </c>
+      <c r="J9" s="1">
+        <v>269379.71999999997</v>
+      </c>
+      <c r="K9">
+        <v>229187</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1411.4</v>
+      </c>
+      <c r="M9" s="5">
+        <v>-0.61580000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6"/>
+      <c r="C10">
+        <f>SUM(C6:C9)/2</f>
+        <v>52299.455000000002</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D6:D9)/2</f>
+        <v>52943.224999999999</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G6:G9)</f>
+        <v>-1235.53</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H8:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f>G10/D10*100</f>
+        <v>-2.3336885881054656</v>
+      </c>
+      <c r="J10">
+        <f>SUM(J6:J9)/2</f>
+        <v>270098.15000000002</v>
+      </c>
+      <c r="K10">
+        <f>SUM(K6:K9)/2</f>
+        <v>220306.45</v>
+      </c>
+      <c r="L10" s="1">
+        <f>SUM(L6:L9)</f>
+        <v>-2606.6999999999998</v>
+      </c>
+      <c r="M10" s="5">
+        <f>L10/K10*100</f>
+        <v>-1.1832154709950615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="6">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6">
+        <v>44326</v>
+      </c>
+      <c r="C13">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="D13">
+        <v>51599.76</v>
+      </c>
+      <c r="G13">
+        <v>-254.17</v>
+      </c>
+      <c r="I13" s="5">
+        <v>-0.49259999999999998</v>
+      </c>
+      <c r="J13" s="1">
+        <v>279653.94</v>
+      </c>
+      <c r="K13">
+        <v>230066.8</v>
+      </c>
+      <c r="L13" s="1">
+        <v>286.8</v>
+      </c>
+      <c r="M13">
+        <v>0.12470000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6">
+        <v>44327</v>
+      </c>
+      <c r="C14">
+        <v>46231.79</v>
+      </c>
+      <c r="D14">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="G14">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.1497</v>
+      </c>
+      <c r="J14">
+        <v>280255.06</v>
+      </c>
+      <c r="K14">
+        <v>237959.7</v>
+      </c>
+      <c r="L14" s="1">
+        <v>656.7</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6">
+        <v>44328</v>
+      </c>
+      <c r="C15">
+        <v>46542.3</v>
+      </c>
+      <c r="D15">
+        <v>46231.79</v>
+      </c>
+      <c r="G15">
+        <v>310.5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="J15" s="1">
+        <v>281489.68</v>
+      </c>
+      <c r="K15">
+        <v>245088.3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1235.0999999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.50390000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6">
+        <v>44329</v>
+      </c>
+      <c r="C16">
+        <v>45103.88</v>
+      </c>
+      <c r="D16">
+        <v>46542.3</v>
+      </c>
+      <c r="G16">
+        <v>-427.94</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-0.91949999999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>278597.86</v>
+      </c>
+      <c r="K16">
+        <v>235865.5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-2882.8</v>
+      </c>
+      <c r="M16" s="5">
+        <v>-1.2222</v>
+      </c>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44330</v>
+      </c>
+      <c r="C17">
+        <v>45914.8</v>
+      </c>
+      <c r="D17">
+        <v>45103.88</v>
+      </c>
+      <c r="G17">
+        <v>810.92</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1.7979000000000001</v>
+      </c>
+      <c r="J17" s="1">
+        <v>297075.5</v>
+      </c>
+      <c r="K17">
+        <v>254312.9</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4993</v>
+      </c>
+      <c r="M17">
+        <v>1.9633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6"/>
+      <c r="B18">
+        <f>SUM(B13:B17)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C13:C17)/5</f>
+        <v>47129.338000000003</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D13:D17)/5</f>
+        <v>48266.33</v>
+      </c>
+      <c r="F18">
+        <f>SUM(F13:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G13:G17)</f>
+        <v>516.96</v>
+      </c>
+      <c r="H18">
+        <f>SUM(H16:H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f>G18/D18*100</f>
+        <v>1.0710571945287741</v>
+      </c>
+      <c r="J18">
+        <f>SUM(J13:J17)/5</f>
+        <v>283414.408</v>
+      </c>
+      <c r="K18">
+        <f>SUM(K13:K17)/5</f>
+        <v>240658.63999999998</v>
+      </c>
+      <c r="L18" s="1">
+        <f>SUM(L13:L17)</f>
+        <v>4288.7999999999993</v>
+      </c>
+      <c r="M18" s="5">
+        <f>L18/K18*100</f>
+        <v>1.7821092980497186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44333</v>
+      </c>
+      <c r="C21">
+        <v>46705.27</v>
+      </c>
+      <c r="D21">
+        <v>45914.8</v>
+      </c>
+      <c r="G21">
+        <v>713.61</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1.5542</v>
+      </c>
+      <c r="J21" s="1">
+        <v>287180.42</v>
+      </c>
+      <c r="K21">
+        <v>223809.4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3361.6</v>
+      </c>
+      <c r="M21">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44334</v>
+      </c>
+      <c r="C22">
+        <v>42036.67</v>
+      </c>
+      <c r="D22">
+        <v>46705.27</v>
+      </c>
+      <c r="G22">
+        <v>-35.5</v>
+      </c>
+      <c r="I22" s="5">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>287508.09000000003</v>
+      </c>
+      <c r="K22">
+        <v>209781.2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>345.8</v>
+      </c>
+      <c r="M22">
+        <v>0.1648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44335</v>
+      </c>
+      <c r="C23">
+        <v>41928.78</v>
+      </c>
+      <c r="D23">
+        <v>42036.67</v>
+      </c>
+      <c r="G23">
+        <v>-107.89</v>
+      </c>
+      <c r="I23" s="5">
+        <v>-0.25669999999999998</v>
+      </c>
+      <c r="J23" s="1">
+        <v>286918.05</v>
+      </c>
+      <c r="K23">
+        <v>187404.9</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-576.79999999999995</v>
+      </c>
+      <c r="M23">
+        <v>-0.30780000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6">
+        <v>44336</v>
+      </c>
+      <c r="C24">
+        <v>41986.080000000002</v>
+      </c>
+      <c r="D24">
+        <v>41928.78</v>
+      </c>
+      <c r="G24">
+        <v>57.29</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.1366</v>
+      </c>
+      <c r="J24" s="1">
+        <v>287399.69</v>
+      </c>
+      <c r="K24">
+        <v>209008.7</v>
+      </c>
+      <c r="L24" s="1">
+        <v>494.8</v>
+      </c>
+      <c r="M24">
+        <v>0.23669999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6">
+        <v>44337</v>
+      </c>
+      <c r="C25">
+        <v>41495.85</v>
+      </c>
+      <c r="D25">
+        <v>41986.080000000002</v>
+      </c>
+      <c r="G25">
+        <v>-490.23</v>
+      </c>
+      <c r="I25" s="5">
+        <v>-1.1676</v>
+      </c>
+      <c r="J25" s="1">
+        <v>286188.42</v>
+      </c>
+      <c r="K25">
+        <v>250057.5</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-1197.8</v>
+      </c>
+      <c r="M25">
+        <v>-0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6"/>
+      <c r="B26">
+        <f>SUM(B21:B25)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C21:C25)/5</f>
+        <v>42830.53</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D21:D25)/5</f>
+        <v>43714.319999999992</v>
+      </c>
+      <c r="F26">
+        <f>SUM(F21:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>SUM(G21:G25)</f>
+        <v>137.27999999999997</v>
+      </c>
+      <c r="H26">
+        <f>SUM(H24:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f>G26/D26*100</f>
+        <v>0.31403896938120046</v>
+      </c>
+      <c r="J26">
+        <f>SUM(J21:J25)/5</f>
+        <v>287038.93400000001</v>
+      </c>
+      <c r="K26">
+        <f>SUM(K21:K25)/5</f>
+        <v>216012.34</v>
+      </c>
+      <c r="L26" s="1">
+        <f>SUM(L21:L25)</f>
+        <v>2427.6000000000004</v>
+      </c>
+      <c r="M26" s="5">
+        <f>L26/K26*100</f>
+        <v>1.1238246852008549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="6">
+        <v>44340</v>
+      </c>
+      <c r="C29">
+        <v>41767.35</v>
+      </c>
+      <c r="D29">
+        <v>41495.85</v>
+      </c>
+      <c r="G29">
+        <v>271.49</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>288233.01</v>
+      </c>
+      <c r="K29">
+        <v>218947.20000000001</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2057.6</v>
+      </c>
+      <c r="M29">
+        <v>0.93979999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6">
+        <v>44341</v>
+      </c>
+      <c r="C30">
+        <v>43060.94</v>
+      </c>
+      <c r="D30">
+        <v>41495.85</v>
+      </c>
+      <c r="G30">
+        <v>1294.31</v>
+      </c>
+      <c r="I30" s="5">
+        <v>3.1191</v>
+      </c>
+      <c r="J30" s="1">
+        <v>292592.21000000002</v>
+      </c>
+      <c r="K30">
+        <v>132408.4</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4431.1000000000004</v>
+      </c>
+      <c r="M30">
+        <v>3.3464999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6">
+        <v>44342</v>
+      </c>
+      <c r="C31">
+        <v>20204.55</v>
+      </c>
+      <c r="D31">
+        <v>43060.94</v>
+      </c>
+      <c r="G31">
+        <v>-115.24</v>
+      </c>
+      <c r="I31" s="5">
+        <v>-0.2676</v>
+      </c>
+      <c r="J31" s="1">
+        <v>292136.73</v>
+      </c>
+      <c r="K31">
+        <v>188449.3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-438</v>
+      </c>
+      <c r="M31">
+        <v>-0.2324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6">
+        <v>44343</v>
+      </c>
+      <c r="C32">
+        <v>20341.8</v>
+      </c>
+      <c r="D32">
+        <v>20204.55</v>
+      </c>
+      <c r="G32">
+        <v>139.37</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.68979999999999997</v>
+      </c>
+      <c r="J32" s="1">
+        <v>314726.03000000003</v>
+      </c>
+      <c r="K32">
+        <v>183115.3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2628.9</v>
+      </c>
+      <c r="M32">
+        <v>1.4357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6">
+        <v>44344</v>
+      </c>
+      <c r="C33">
+        <v>20252.02</v>
+      </c>
+      <c r="D33">
+        <v>20341.8</v>
+      </c>
+      <c r="G33">
+        <v>-89.79</v>
+      </c>
+      <c r="I33" s="5">
+        <v>-0.44140000000000001</v>
+      </c>
+      <c r="J33" s="1">
+        <v>314122.90999999997</v>
+      </c>
+      <c r="K33">
+        <v>251310.4</v>
+      </c>
+      <c r="L33" s="1">
+        <v>-585.9</v>
+      </c>
+      <c r="M33">
+        <v>-0.2331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6"/>
+      <c r="B34">
+        <f>SUM(B29:B33)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C29:C33)/5</f>
+        <v>29125.332000000002</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D29:D33)/5</f>
+        <v>33319.797999999995</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F29:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G29:G33)</f>
+        <v>1500.1399999999999</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H32:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f>G34/D34*100</f>
+        <v>4.5022481828971479</v>
+      </c>
+      <c r="J34">
+        <f>SUM(J29:J33)/5</f>
+        <v>300362.17799999996</v>
+      </c>
+      <c r="K34">
+        <f>SUM(K29:K33)/5</f>
+        <v>194846.12</v>
+      </c>
+      <c r="L34" s="1">
+        <f>SUM(L29:L33)</f>
+        <v>8093.7000000000007</v>
+      </c>
+      <c r="M34" s="5">
+        <f>L34/K34*100</f>
+        <v>4.1538933390102919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="6">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="6">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="6">
+        <v>44347</v>
+      </c>
+      <c r="C37">
+        <v>20384.36</v>
+      </c>
+      <c r="D37">
+        <v>20252.02</v>
+      </c>
+      <c r="G37">
+        <v>132.34</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="J37" s="1">
+        <v>367430.22</v>
+      </c>
+      <c r="K37">
+        <v>200865</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3330.1</v>
+      </c>
+      <c r="M37">
+        <v>1.6578999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="6"/>
+      <c r="C38">
+        <f>SUM(C8,C9,C13,C14,C15,C16,C17,C21,C22,C23,C24,C25,C29,C30,C31,C32,C33,C37)/17</f>
+        <v>42377.015882352949</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D8,D9,D13,D14,D15,D16,D17,D21,D22,D23,D24,D25,D29,D30,D31,D32,D33,D37)/17</f>
+        <v>44272.982941176466</v>
+      </c>
+      <c r="G38">
+        <f>SUM(G8,G9,G13,G14,G15,G16,G17,G21,G22,G23,G24,G25,G29,G30,G31,G32,G33,G37)</f>
+        <v>1051.1899999999998</v>
+      </c>
+      <c r="I38" s="5">
+        <f>G38/D38*100</f>
+        <v>2.3743374179161796</v>
+      </c>
+      <c r="K38">
+        <f>SUM(K8,K9,K13,K14,K15,K16,K17,K21,K22,K23,K24,K25,K29,K30,K31,K32,K33,K37)/18</f>
+        <v>216614.6333333333</v>
+      </c>
+      <c r="L38">
+        <f>SUM(L8,L9,L13,L14,L15,L16,L17,L21,L22,L23,L24,L25,L29,L30,L31,L32,L33,L37)</f>
+        <v>15533.500000000002</v>
+      </c>
+      <c r="M38" s="5">
+        <f>L38/K38*100</f>
+        <v>7.1710298427053036</v>
+      </c>
+      <c r="N38" s="12">
+        <f>G38+L38</f>
+        <v>16584.690000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -4038,7 +4362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -5216,7 +5540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -5810,7 +6134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -6728,7 +7052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -7238,7 +7562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -7424,7 +7748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -7544,86 +7868,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,27 +4,29 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="6" sheetId="38" r:id="rId1"/>
-    <sheet name="5" sheetId="37" r:id="rId2"/>
-    <sheet name="2104" sheetId="36" r:id="rId3"/>
-    <sheet name="2103" sheetId="33" r:id="rId4"/>
-    <sheet name="2102" sheetId="31" r:id="rId5"/>
-    <sheet name="2101" sheetId="26" r:id="rId6"/>
-    <sheet name="每月" sheetId="29" r:id="rId7"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId8"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId9"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId11"/>
+    <sheet name="6A" sheetId="40" r:id="rId1"/>
+    <sheet name="62" sheetId="39" r:id="rId2"/>
+    <sheet name="61" sheetId="38" r:id="rId3"/>
+    <sheet name="5" sheetId="37" r:id="rId4"/>
+    <sheet name="2104" sheetId="36" r:id="rId5"/>
+    <sheet name="2103" sheetId="33" r:id="rId6"/>
+    <sheet name="2102" sheetId="31" r:id="rId7"/>
+    <sheet name="2101" sheetId="26" r:id="rId8"/>
+    <sheet name="每月" sheetId="29" r:id="rId9"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId10"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId11"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1743,10 +1745,1177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="6">
+        <v>44348</v>
+      </c>
+      <c r="J2" s="1">
+        <v>369566.62</v>
+      </c>
+      <c r="K2">
+        <v>235801.1</v>
+      </c>
+      <c r="L2">
+        <v>2159.6</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6">
+        <v>44349</v>
+      </c>
+      <c r="J3" s="1">
+        <v>365120.57</v>
+      </c>
+      <c r="K3">
+        <v>296728</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-4436.1000000000004</v>
+      </c>
+      <c r="M3">
+        <v>-1.4950000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6">
+        <v>44350</v>
+      </c>
+      <c r="J4" s="1">
+        <v>363781.23</v>
+      </c>
+      <c r="K4">
+        <v>259382.2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1330.1</v>
+      </c>
+      <c r="M4">
+        <v>-0.51280000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6">
+        <v>44351</v>
+      </c>
+      <c r="J5" s="1">
+        <v>366580.88</v>
+      </c>
+      <c r="K5">
+        <v>209187.4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2829.7</v>
+      </c>
+      <c r="M5">
+        <v>1.3527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6">
+        <v>44354</v>
+      </c>
+      <c r="J6" s="1">
+        <v>418141.49</v>
+      </c>
+      <c r="K6">
+        <v>246536.6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1562.6</v>
+      </c>
+      <c r="M6">
+        <v>0.63380000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6">
+        <v>44355</v>
+      </c>
+      <c r="J7" s="1">
+        <v>414310.09</v>
+      </c>
+      <c r="K7">
+        <v>318721.40000000002</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-3812.1</v>
+      </c>
+      <c r="M7">
+        <v>-1.1960999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6">
+        <v>44356</v>
+      </c>
+      <c r="J8" s="1">
+        <v>413741.94</v>
+      </c>
+      <c r="K8">
+        <v>324161.7</v>
+      </c>
+      <c r="L8" s="1">
+        <v>427.2</v>
+      </c>
+      <c r="M8">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6">
+        <v>44357</v>
+      </c>
+      <c r="J9" s="1">
+        <v>417812.38</v>
+      </c>
+      <c r="K9">
+        <v>282917</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4087.1</v>
+      </c>
+      <c r="M9">
+        <v>1.4446000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6">
+        <v>44358</v>
+      </c>
+      <c r="J10" s="1">
+        <v>394905.9</v>
+      </c>
+      <c r="K10">
+        <v>322514</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-3902.2</v>
+      </c>
+      <c r="M10">
+        <v>-1.2099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6"/>
+      <c r="B11">
+        <f>SUM(B6:B10)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F6:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G6:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H6:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <f>AVERAGE(J2:J10)</f>
+        <v>391551.23333333328</v>
+      </c>
+      <c r="K11" s="1">
+        <f>AVERAGE(K2:K10)</f>
+        <v>277327.71111111116</v>
+      </c>
+      <c r="L11" s="1">
+        <f>SUM(L1:L10)</f>
+        <v>-2414.3000000000006</v>
+      </c>
+      <c r="M11" s="5">
+        <f>L11/K11*100</f>
+        <v>-0.87055851372628001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>186</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+      <c r="C2">
+        <f>A2*B2</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>490.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>363.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="0">A3*B3</f>
+        <v>18.150500000000001</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="1">D3-C3</f>
+        <v>981.84950000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>369.84</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>18.492000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>981.50800000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>368.28</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>18.413999999999998</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>981.58600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>816.75</v>
+      </c>
+      <c r="B6">
+        <v>0.05</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>40.837500000000006</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1959.1624999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>638.27</v>
+      </c>
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>31.913499999999999</v>
+      </c>
+      <c r="D7">
+        <v>1500</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1468.0864999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>421.67</v>
+      </c>
+      <c r="B8">
+        <v>0.05</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>21.083500000000001</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>978.91650000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>631.91999999999996</v>
+      </c>
+      <c r="B9">
+        <v>0.05</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>31.596</v>
+      </c>
+      <c r="D9">
+        <v>1500</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1468.404</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="5" max="5" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>861.52</v>
+      </c>
+      <c r="D2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E2" s="8">
+        <f>D2*C2</f>
+        <v>961.45632000000012</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2-B2</f>
+        <v>-38.543679999999881</v>
+      </c>
+      <c r="H2">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I2">
+        <f>H2*C2</f>
+        <v>5.41256299844183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>1744.1</v>
+      </c>
+      <c r="D3">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3" si="0">D3*C3</f>
+        <v>1946.4156</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3" si="1">E3-B3</f>
+        <v>-53.58439999999996</v>
+      </c>
+      <c r="H3">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3" si="2">H3*C3</f>
+        <v>10.957437001558171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6">
+        <f>SUM(C2:C4)</f>
+        <v>2605.62</v>
+      </c>
+      <c r="D6">
+        <v>3.3831000000000002</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" ref="E6" si="3">D6*C6</f>
+        <v>8815.0730220000005</v>
+      </c>
+      <c r="F6" s="9">
+        <v>16.37</v>
+      </c>
+      <c r="H6">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>236</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2">
+        <v>473</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" s="11">
+        <v>44232.041666666664</v>
+      </c>
+      <c r="J2">
+        <v>473</v>
+      </c>
+      <c r="K2">
+        <f>SUM(F:F)</f>
+        <v>143581.00000000003</v>
+      </c>
+      <c r="L2">
+        <f>SUM(J:J)</f>
+        <v>23787.3</v>
+      </c>
+      <c r="M2">
+        <f>K2-L2</f>
+        <v>119793.70000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3">
+        <v>1147</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3" s="11">
+        <v>44252.112685185188</v>
+      </c>
+      <c r="J3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>1124</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="11">
+        <v>44252.115937499999</v>
+      </c>
+      <c r="J4">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="F5">
+        <v>2390</v>
+      </c>
+      <c r="J5">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="F6">
+        <v>1720.5</v>
+      </c>
+      <c r="J6">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="F7">
+        <v>2679.6</v>
+      </c>
+      <c r="J7">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="F8">
+        <v>1060</v>
+      </c>
+      <c r="J8">
+        <v>2980.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="F9">
+        <v>2914</v>
+      </c>
+      <c r="J9">
+        <v>1720.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="F10">
+        <v>2100</v>
+      </c>
+      <c r="J10">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="F11">
+        <v>5892.8</v>
+      </c>
+      <c r="J11">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="F12">
+        <v>1190</v>
+      </c>
+      <c r="J12">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="F13">
+        <v>833</v>
+      </c>
+      <c r="J13">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="F14">
+        <v>5568</v>
+      </c>
+      <c r="J14">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="F15">
+        <v>5195.3999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="F16">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="F17">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="F18">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>3.8</v>
+      </c>
+      <c r="F20">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="F21">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="F22">
+        <v>4727</v>
+      </c>
+      <c r="M22">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="F23">
+        <v>4788</v>
+      </c>
+      <c r="M23">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="F24">
+        <v>2366</v>
+      </c>
+      <c r="M24">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="F25">
+        <v>4319.7</v>
+      </c>
+      <c r="M25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="F26">
+        <v>4066.2</v>
+      </c>
+      <c r="M26">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="F27">
+        <v>2980.8</v>
+      </c>
+      <c r="M27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="F28">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="F29">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="F30">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="F31">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="F32">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35">
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38">
+        <v>5055.6000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40">
+        <v>5029.2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41">
+        <v>3045.2</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42">
+        <v>3150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44354</v>
+      </c>
+      <c r="J2" s="1">
+        <v>418141.49</v>
+      </c>
+      <c r="K2">
+        <v>246536.6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1562.6</v>
+      </c>
+      <c r="M2">
+        <v>0.63380000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44355</v>
+      </c>
+      <c r="J3" s="1">
+        <v>414310.09</v>
+      </c>
+      <c r="K3">
+        <v>318721.40000000002</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-3812.1</v>
+      </c>
+      <c r="M3">
+        <v>-1.1960999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44356</v>
+      </c>
+      <c r="J4" s="1">
+        <v>413741.94</v>
+      </c>
+      <c r="K4">
+        <v>324161.7</v>
+      </c>
+      <c r="L4" s="1">
+        <v>427.2</v>
+      </c>
+      <c r="M4">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44357</v>
+      </c>
+      <c r="J5" s="1">
+        <v>417812.38</v>
+      </c>
+      <c r="K5">
+        <v>282917</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4087.1</v>
+      </c>
+      <c r="M5">
+        <v>1.4446000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44358</v>
+      </c>
+      <c r="J6" s="1">
+        <v>394905.9</v>
+      </c>
+      <c r="K6">
+        <v>322514</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-3902.2</v>
+      </c>
+      <c r="M6">
+        <v>-1.2099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6"/>
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>411782.36</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>298970.14</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-1637.3999999999996</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-0.54768011280323836</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1934,46 +3103,6 @@
         <v>1.062095302878115</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6">
-        <v>44352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6">
-        <v>44353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="6">
-        <v>44354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6">
-        <v>44355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="6">
-        <v>44356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="6">
-        <v>44357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="6">
-        <v>44358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="6">
-        <v>44359</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1981,430 +3110,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13">
-      <c r="F1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13">
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2">
-        <v>236</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>473</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2" s="11">
-        <v>44232.041666666664</v>
-      </c>
-      <c r="J2">
-        <v>473</v>
-      </c>
-      <c r="K2">
-        <f>SUM(F:F)</f>
-        <v>143581.00000000003</v>
-      </c>
-      <c r="L2">
-        <f>SUM(J:J)</f>
-        <v>23787.3</v>
-      </c>
-      <c r="M2">
-        <f>K2-L2</f>
-        <v>119793.70000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>235</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>1147</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3" s="11">
-        <v>44252.112685185188</v>
-      </c>
-      <c r="J3">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4">
-        <v>234</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4">
-        <v>1124</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4" s="11">
-        <v>44252.115937499999</v>
-      </c>
-      <c r="J4">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="F5">
-        <v>2390</v>
-      </c>
-      <c r="J5">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="F6">
-        <v>1720.5</v>
-      </c>
-      <c r="J6">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="F7">
-        <v>2679.6</v>
-      </c>
-      <c r="J7">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="F8">
-        <v>1060</v>
-      </c>
-      <c r="J8">
-        <v>2980.8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="F9">
-        <v>2914</v>
-      </c>
-      <c r="J9">
-        <v>1720.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="F10">
-        <v>2100</v>
-      </c>
-      <c r="J10">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="F11">
-        <v>5892.8</v>
-      </c>
-      <c r="J11">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="F12">
-        <v>1190</v>
-      </c>
-      <c r="J12">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="F13">
-        <v>833</v>
-      </c>
-      <c r="J13">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="F14">
-        <v>5568</v>
-      </c>
-      <c r="J14">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="F15">
-        <v>5195.3999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="F16">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="F17">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="F18">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>3.8</v>
-      </c>
-      <c r="F20">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="F21">
-        <v>2994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="F22">
-        <v>4727</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="F23">
-        <v>4788</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="F24">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="F25">
-        <v>4319.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="F26">
-        <v>4066.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="F27">
-        <v>2980.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="F28">
-        <v>4425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="F29">
-        <v>4895</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="F30">
-        <v>5148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="F31">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="F32">
-        <v>4658</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33">
-        <v>5398</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35">
-        <v>4886</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36">
-        <v>4556</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37">
-        <v>4192</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38">
-        <v>5055.6000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39">
-        <v>7515</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40">
-        <v>5029.2</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41">
-        <v>3045.2</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42">
-        <v>3150</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:M34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3268,7 +3979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -4362,7 +5073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -5540,7 +6251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -6134,7 +6845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -7052,7 +7763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -7560,312 +8271,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>186</v>
-      </c>
-      <c r="B2">
-        <v>0.05</v>
-      </c>
-      <c r="C2">
-        <f>A2*B2</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D2">
-        <v>500</v>
-      </c>
-      <c r="E2">
-        <f>D2-C2</f>
-        <v>490.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>363.01</v>
-      </c>
-      <c r="B3">
-        <v>0.05</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">A3*B3</f>
-        <v>18.150500000000001</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">D3-C3</f>
-        <v>981.84950000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>369.84</v>
-      </c>
-      <c r="B4">
-        <v>0.05</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>18.492000000000001</v>
-      </c>
-      <c r="D4">
-        <v>1000</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>981.50800000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>368.28</v>
-      </c>
-      <c r="B5">
-        <v>0.05</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>18.413999999999998</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>981.58600000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>816.75</v>
-      </c>
-      <c r="B6">
-        <v>0.05</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>40.837500000000006</v>
-      </c>
-      <c r="D6">
-        <v>2000</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>1959.1624999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>638.27</v>
-      </c>
-      <c r="B7">
-        <v>0.05</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>31.913499999999999</v>
-      </c>
-      <c r="D7">
-        <v>1500</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>1468.0864999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>421.67</v>
-      </c>
-      <c r="B8">
-        <v>0.05</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>21.083500000000001</v>
-      </c>
-      <c r="D8">
-        <v>1000</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>978.91650000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>631.91999999999996</v>
-      </c>
-      <c r="B9">
-        <v>0.05</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>31.596</v>
-      </c>
-      <c r="D9">
-        <v>1500</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>1468.404</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="5" max="5" width="12.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>861.52</v>
-      </c>
-      <c r="D2">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E2" s="8">
-        <f>D2*C2</f>
-        <v>961.45632000000012</v>
-      </c>
-      <c r="F2" s="9">
-        <f>E2-B2</f>
-        <v>-38.543679999999881</v>
-      </c>
-      <c r="H2">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-      <c r="I2">
-        <f>H2*C2</f>
-        <v>5.41256299844183</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3">
-        <v>2000</v>
-      </c>
-      <c r="C3">
-        <v>1744.1</v>
-      </c>
-      <c r="D3">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3" si="0">D3*C3</f>
-        <v>1946.4156</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3" si="1">E3-B3</f>
-        <v>-53.58439999999996</v>
-      </c>
-      <c r="H3">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3" si="2">H3*C3</f>
-        <v>10.957437001558171</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="E4" s="8"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="C6">
-        <f>SUM(C2:C4)</f>
-        <v>2605.62</v>
-      </c>
-      <c r="D6">
-        <v>3.3831000000000002</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" ref="E6" si="3">D6*C6</f>
-        <v>8815.0730220000005</v>
-      </c>
-      <c r="F6" s="9">
-        <v>16.37</v>
-      </c>
-      <c r="H6">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,29 +4,30 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="6A" sheetId="40" r:id="rId1"/>
-    <sheet name="62" sheetId="39" r:id="rId2"/>
-    <sheet name="61" sheetId="38" r:id="rId3"/>
-    <sheet name="5" sheetId="37" r:id="rId4"/>
-    <sheet name="2104" sheetId="36" r:id="rId5"/>
-    <sheet name="2103" sheetId="33" r:id="rId6"/>
-    <sheet name="2102" sheetId="31" r:id="rId7"/>
-    <sheet name="2101" sheetId="26" r:id="rId8"/>
-    <sheet name="每月" sheetId="29" r:id="rId9"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId10"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId11"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId13"/>
+    <sheet name="63" sheetId="41" r:id="rId2"/>
+    <sheet name="62" sheetId="39" r:id="rId3"/>
+    <sheet name="61" sheetId="38" r:id="rId4"/>
+    <sheet name="5" sheetId="37" r:id="rId5"/>
+    <sheet name="2104" sheetId="36" r:id="rId6"/>
+    <sheet name="2103" sheetId="33" r:id="rId7"/>
+    <sheet name="2102" sheetId="31" r:id="rId8"/>
+    <sheet name="2101" sheetId="26" r:id="rId9"/>
+    <sheet name="每月" sheetId="29" r:id="rId10"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId11"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId12"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -208,43 +209,15 @@
     <t>东方财富-总金额</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
-  <si>
-    <t>中国建筑</t>
-  </si>
-  <si>
-    <t>证券买入(卖出)</t>
-  </si>
-  <si>
-    <t>工程建设</t>
-  </si>
-  <si>
-    <t>中青旅</t>
-  </si>
-  <si>
-    <t>旅游酒店</t>
-  </si>
-  <si>
-    <t>分众传媒</t>
-  </si>
-  <si>
-    <t>传媒</t>
-  </si>
-  <si>
-    <t>已卖出</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>已买入</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1273,7 +1246,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1311,6 +1284,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1745,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:M11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1758,8 +1737,9 @@
     <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
     <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1788,7 +1768,7 @@
       <c r="J1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="13" t="s">
         <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1805,10 +1785,10 @@
       <c r="J2" s="1">
         <v>369566.62</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="14">
         <v>235801.1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>2159.6</v>
       </c>
       <c r="M2" s="5">
@@ -1823,13 +1803,13 @@
       <c r="J3" s="1">
         <v>365120.57</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="14">
         <v>296728</v>
       </c>
       <c r="L3" s="1">
         <v>-4436.1000000000004</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
         <v>-1.4950000000000001</v>
       </c>
     </row>
@@ -1840,13 +1820,13 @@
       <c r="J4" s="1">
         <v>363781.23</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="14">
         <v>259382.2</v>
       </c>
       <c r="L4" s="1">
         <v>-1330.1</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <v>-0.51280000000000003</v>
       </c>
     </row>
@@ -1857,13 +1837,13 @@
       <c r="J5" s="1">
         <v>366580.88</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="14">
         <v>209187.4</v>
       </c>
       <c r="L5" s="1">
         <v>2829.7</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <v>1.3527</v>
       </c>
     </row>
@@ -1874,13 +1854,13 @@
       <c r="J6" s="1">
         <v>418141.49</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="14">
         <v>246536.6</v>
       </c>
       <c r="L6" s="1">
         <v>1562.6</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <v>0.63380000000000003</v>
       </c>
     </row>
@@ -1891,13 +1871,13 @@
       <c r="J7" s="1">
         <v>414310.09</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="14">
         <v>318721.40000000002</v>
       </c>
       <c r="L7" s="1">
         <v>-3812.1</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>-1.1960999999999999</v>
       </c>
     </row>
@@ -1908,13 +1888,13 @@
       <c r="J8" s="1">
         <v>413741.94</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="14">
         <v>324161.7</v>
       </c>
       <c r="L8" s="1">
         <v>427.2</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>0.1318</v>
       </c>
     </row>
@@ -1925,13 +1905,13 @@
       <c r="J9" s="1">
         <v>417812.38</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="14">
         <v>282917</v>
       </c>
       <c r="L9" s="1">
         <v>4087.1</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <v>1.4446000000000001</v>
       </c>
     </row>
@@ -1942,55 +1922,123 @@
       <c r="J10" s="1">
         <v>394905.9</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="14">
         <v>322514</v>
       </c>
       <c r="L10" s="1">
         <v>-3902.2</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="5">
         <v>-1.2099</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="6"/>
-      <c r="B11">
+      <c r="A11" s="6">
+        <v>44362</v>
+      </c>
+      <c r="J11" s="1">
+        <v>412797.08</v>
+      </c>
+      <c r="K11" s="14">
+        <v>329797.90000000002</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-2089.4</v>
+      </c>
+      <c r="M11" s="5">
+        <v>-0.63349999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="6">
+        <v>44363</v>
+      </c>
+      <c r="J12" s="1">
+        <v>400806.78</v>
+      </c>
+      <c r="K12" s="14">
+        <v>353970.5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-8960.5</v>
+      </c>
+      <c r="M12" s="5">
+        <v>-2.5314000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6">
+        <v>44364</v>
+      </c>
+      <c r="J13" s="1">
+        <v>408254.99</v>
+      </c>
+      <c r="K13" s="14">
+        <v>270435.7</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6487.1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2.3988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6">
+        <v>44365</v>
+      </c>
+      <c r="J14" s="1">
+        <v>412532.63</v>
+      </c>
+      <c r="K14" s="14">
+        <v>273539.59999999998</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2301.3000000000002</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.84130000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6"/>
+      <c r="B15">
         <f>SUM(B6:B10)/5</f>
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C15">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D15">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F15">
         <f>SUM(F6:F10)</f>
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G15">
         <f>SUM(G6:G10)</f>
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="H15">
         <f>SUM(H6:H10)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="1">
-        <f>AVERAGE(J2:J10)</f>
-        <v>391551.23333333328</v>
-      </c>
-      <c r="K11" s="1">
-        <f>AVERAGE(K2:K10)</f>
-        <v>277327.71111111116</v>
-      </c>
-      <c r="L11" s="1">
-        <f>SUM(L1:L10)</f>
-        <v>-2414.3000000000006</v>
-      </c>
-      <c r="M11" s="5">
-        <f>L11/K11*100</f>
-        <v>-0.87055851372628001</v>
+      <c r="J15" s="1">
+        <f>AVERAGE(J2:J14)</f>
+        <v>396796.35230769229</v>
+      </c>
+      <c r="K15" s="14">
+        <f>AVERAGE(K2:K14)</f>
+        <v>286437.93076923082</v>
+      </c>
+      <c r="L15" s="1">
+        <f>SUM(L1:L14)</f>
+        <v>-4675.8</v>
+      </c>
+      <c r="M15" s="5">
+        <f>L15/K15*100</f>
+        <v>-1.6323955376451402</v>
       </c>
     </row>
   </sheetData>
@@ -2001,6 +2049,516 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>202012</v>
+      </c>
+      <c r="C1">
+        <v>202011</v>
+      </c>
+      <c r="D1">
+        <v>202010</v>
+      </c>
+      <c r="E1">
+        <v>201209</v>
+      </c>
+      <c r="F1">
+        <v>202008</v>
+      </c>
+      <c r="G1">
+        <v>202007</v>
+      </c>
+      <c r="H1">
+        <v>202006</v>
+      </c>
+      <c r="I1">
+        <v>202005</v>
+      </c>
+      <c r="J1">
+        <v>202004</v>
+      </c>
+      <c r="K1">
+        <v>201203</v>
+      </c>
+      <c r="L1">
+        <v>202002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>219702.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>194008.42</v>
+      </c>
+      <c r="D2" s="1">
+        <v>188987.24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184099.85</v>
+      </c>
+      <c r="F2" s="1">
+        <v>164759.56</v>
+      </c>
+      <c r="G2" s="1">
+        <v>134926.57999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>95661.82</v>
+      </c>
+      <c r="I2" s="1">
+        <v>79288.210000000006</v>
+      </c>
+      <c r="J2" s="1">
+        <v>54471.86</v>
+      </c>
+      <c r="K2" s="1">
+        <v>17124.080000000002</v>
+      </c>
+      <c r="L2" s="1">
+        <v>97.49</v>
+      </c>
+      <c r="N2" s="1">
+        <f>SUM(B2:L2)/10</f>
+        <v>133312.74100000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>194013.76</v>
+      </c>
+      <c r="C3" s="3">
+        <v>194008.42</v>
+      </c>
+      <c r="D3" s="3">
+        <v>188987.24</v>
+      </c>
+      <c r="E3" s="3">
+        <v>184099.85</v>
+      </c>
+      <c r="F3" s="3">
+        <v>164759.56</v>
+      </c>
+      <c r="G3" s="3">
+        <v>134926.57999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>95661.82</v>
+      </c>
+      <c r="I3" s="3">
+        <v>79288.210000000006</v>
+      </c>
+      <c r="J3" s="3">
+        <v>54471.86</v>
+      </c>
+      <c r="K3" s="1">
+        <v>17300</v>
+      </c>
+      <c r="L3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>219211.26</v>
+      </c>
+      <c r="C4" s="1">
+        <v>146392.93</v>
+      </c>
+      <c r="D4" s="1">
+        <v>92495.26</v>
+      </c>
+      <c r="E4" s="1">
+        <v>162561.74</v>
+      </c>
+      <c r="F4" s="1">
+        <v>126237.95</v>
+      </c>
+      <c r="G4" s="1">
+        <v>98723.17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>25782.74</v>
+      </c>
+      <c r="I4" s="1">
+        <v>32293.32</v>
+      </c>
+      <c r="J4" s="1">
+        <v>67600</v>
+      </c>
+      <c r="K4" s="1">
+        <v>17300</v>
+      </c>
+      <c r="L4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>207003.39</v>
+      </c>
+      <c r="C5" s="1">
+        <v>146418.4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>92469.79</v>
+      </c>
+      <c r="E5" s="1">
+        <v>132569.23000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>96241.66</v>
+      </c>
+      <c r="G5" s="1">
+        <v>69045.48</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16050.17</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7522.3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>32300</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:K6" si="0">B4-B5</f>
+        <v>12207.869999999995</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>-25.470000000001164</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>25.470000000001164</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>29992.50999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>29996.289999999994</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>29677.690000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>9732.5700000000015</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>24771.02</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>35300</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>17300</v>
+      </c>
+      <c r="L6" s="1">
+        <f>L4-L5</f>
+        <v>100</v>
+      </c>
+      <c r="N6" s="1">
+        <f>SUM(B6:L6)</f>
+        <v>189077.94999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13486.01</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5046.6400000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4861.92</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-10652.23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-163.32</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9587.07</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6641.03</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45.33</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2047.78</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-273.42</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <f>SUM(B7:M7)</f>
+        <v>30624.300000000003</v>
+      </c>
+      <c r="O7" s="1">
+        <f>SUM(B7,C7,D7)/3</f>
+        <v>7798.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-5.47</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-1.58</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.64</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-4.75</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="G9" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7.68</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-6.44</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1.59</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="N12" s="1">
+        <v>189077.95</v>
+      </c>
+      <c r="O12">
+        <v>30624.35</v>
+      </c>
+      <c r="P12">
+        <f>O12/N12*100</f>
+        <v>16.196679729180477</v>
+      </c>
+      <c r="Q12">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>202002</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>202003</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-273.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>202004</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2047.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>202005</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>202006</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6641.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>202007</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9587.07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>202008</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-163.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>202009</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-10652.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>202010</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4861.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>202011</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5046.6400000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>202012</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13486.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A17:Q27">
+    <sortCondition ref="A17:A27"/>
+  </sortState>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2186,7 +2744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -2308,7 +2866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2390,351 +2948,213 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
-      <c r="F1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13">
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2">
-        <v>236</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>473</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2" s="11">
-        <v>44232.041666666664</v>
-      </c>
-      <c r="J2">
-        <v>473</v>
-      </c>
-      <c r="K2">
-        <f>SUM(F:F)</f>
-        <v>143581.00000000003</v>
-      </c>
-      <c r="L2">
-        <f>SUM(J:J)</f>
-        <v>23787.3</v>
-      </c>
-      <c r="M2">
-        <f>K2-L2</f>
-        <v>119793.70000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>235</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>1147</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3" s="11">
-        <v>44252.112685185188</v>
-      </c>
-      <c r="J3">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4">
-        <v>234</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4">
-        <v>1124</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4" s="11">
-        <v>44252.115937499999</v>
-      </c>
-      <c r="J4">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="F5">
-        <v>2390</v>
-      </c>
-      <c r="J5">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="F6">
-        <v>1720.5</v>
-      </c>
-      <c r="J6">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="F7">
-        <v>2679.6</v>
-      </c>
-      <c r="J7">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="F8">
-        <v>1060</v>
-      </c>
-      <c r="J8">
-        <v>2980.8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="F9">
-        <v>2914</v>
-      </c>
-      <c r="J9">
-        <v>1720.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="F10">
-        <v>2100</v>
-      </c>
-      <c r="J10">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="F11">
-        <v>5892.8</v>
-      </c>
-      <c r="J11">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="F12">
-        <v>1190</v>
-      </c>
-      <c r="J12">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="F13">
-        <v>833</v>
-      </c>
-      <c r="J13">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="F14">
-        <v>5568</v>
-      </c>
-      <c r="J14">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="F15">
-        <v>5195.3999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="F16">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="F17">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="F18">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
-        <v>3.8</v>
-      </c>
-      <c r="F20">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="F21">
-        <v>2994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="F22">
-        <v>4727</v>
-      </c>
-      <c r="M22">
+    <row r="1" spans="1:16">
+      <c r="A1">
+        <v>51300</v>
+      </c>
+      <c r="B1">
+        <v>5600</v>
+      </c>
+      <c r="C1">
+        <f>A1-B1</f>
+        <v>45700</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="H13">
+        <v>4700</v>
+      </c>
+      <c r="K13">
+        <v>5100</v>
+      </c>
+      <c r="L13">
+        <v>7196.1</v>
+      </c>
+      <c r="M13">
+        <v>5100</v>
+      </c>
+      <c r="N13">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <f>M13*N13</f>
+        <v>7150.2</v>
+      </c>
+      <c r="P13" s="1">
+        <f>O13-L13</f>
+        <v>-45.900000000000546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="H14">
+        <v>2200</v>
+      </c>
+      <c r="K14">
+        <v>5500</v>
+      </c>
+      <c r="L14">
+        <v>7980.5</v>
+      </c>
+      <c r="M14">
+        <v>5500</v>
+      </c>
+      <c r="N14">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O19" si="0">M14*N14</f>
+        <v>7710.9999999999991</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" ref="P14:P19" si="1">O14-L14</f>
+        <v>-269.50000000000091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="H15">
+        <v>3400</v>
+      </c>
+      <c r="K15">
+        <v>5700</v>
+      </c>
+      <c r="L15">
+        <v>8367.6</v>
+      </c>
+      <c r="M15">
+        <v>5700</v>
+      </c>
+      <c r="N15">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>7991.4</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="1"/>
+        <v>-376.20000000000073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="H16">
         <v>3000</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="F23">
-        <v>4788</v>
-      </c>
-      <c r="M23">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="F24">
-        <v>2366</v>
-      </c>
-      <c r="M24">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="F25">
-        <v>4319.7</v>
-      </c>
-      <c r="M25">
+      <c r="K16">
+        <v>5900</v>
+      </c>
+      <c r="L16">
+        <v>8796.9</v>
+      </c>
+      <c r="M16">
+        <v>5900</v>
+      </c>
+      <c r="N16">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>8271.7999999999993</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>-525.10000000000036</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16">
+      <c r="H17">
+        <v>3800</v>
+      </c>
+      <c r="K17">
+        <v>5000</v>
+      </c>
+      <c r="L17">
+        <v>7505</v>
+      </c>
+      <c r="M17">
+        <v>5000</v>
+      </c>
+      <c r="N17">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>7010</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="1"/>
+        <v>-495</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16">
+      <c r="H18">
         <v>3000</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="F26">
-        <v>4066.2</v>
-      </c>
-      <c r="M26">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="F27">
-        <v>2980.8</v>
-      </c>
-      <c r="M27">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="F28">
-        <v>4425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="F29">
-        <v>4895</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="F30">
-        <v>5148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="F31">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="F32">
-        <v>4658</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33">
-        <v>5398</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35">
-        <v>4886</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36">
-        <v>4556</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37">
-        <v>4192</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38">
-        <v>5055.6000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39">
-        <v>7515</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40">
-        <v>5029.2</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41">
-        <v>3045.2</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42">
-        <v>3150</v>
+      <c r="K18">
+        <v>5100</v>
+      </c>
+      <c r="L18">
+        <v>7706.1</v>
+      </c>
+      <c r="M18">
+        <v>5100</v>
+      </c>
+      <c r="N18">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>7150.2</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="1"/>
+        <v>-555.90000000000055</v>
+      </c>
+    </row>
+    <row r="19" spans="8:16">
+      <c r="K19">
+        <v>5100</v>
+      </c>
+      <c r="L19">
+        <v>7706.1</v>
+      </c>
+      <c r="M19">
+        <v>5100</v>
+      </c>
+      <c r="N19">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>7150.2</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="1"/>
+        <v>-555.90000000000055</v>
       </c>
     </row>
   </sheetData>
@@ -2745,6 +3165,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44362</v>
+      </c>
+      <c r="J2" s="1">
+        <v>412797.08</v>
+      </c>
+      <c r="K2">
+        <v>329797.90000000002</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-2089.4</v>
+      </c>
+      <c r="M2">
+        <v>-0.63349999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44363</v>
+      </c>
+      <c r="J3" s="1">
+        <v>400806.78</v>
+      </c>
+      <c r="K3">
+        <v>353970.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-8960.5</v>
+      </c>
+      <c r="M3">
+        <v>-2.5314000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44364</v>
+      </c>
+      <c r="J4" s="1">
+        <v>408254.99</v>
+      </c>
+      <c r="K4">
+        <v>270435.7</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6487.1</v>
+      </c>
+      <c r="M4">
+        <v>2.3988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44365</v>
+      </c>
+      <c r="J5" s="1">
+        <v>412532.63</v>
+      </c>
+      <c r="K5">
+        <v>273539.59999999998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2301.3000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.84130000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6"/>
+      <c r="J6" s="1">
+        <f>AVERAGE(J2:J5)</f>
+        <v>408597.87</v>
+      </c>
+      <c r="K6" s="1">
+        <f>AVERAGE(K2:K5)</f>
+        <v>306935.92500000005</v>
+      </c>
+      <c r="L6" s="1">
+        <f>SUM(L1:L5)</f>
+        <v>-2261.4999999999991</v>
+      </c>
+      <c r="M6" s="5">
+        <f>L6/K6*100</f>
+        <v>-0.73679873087518144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -2910,7 +3479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -3110,7 +3679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -3979,7 +4548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -5073,7 +5642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -6251,7 +6820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -6845,7 +7414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -7761,514 +8330,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.26953125" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>202012</v>
-      </c>
-      <c r="C1">
-        <v>202011</v>
-      </c>
-      <c r="D1">
-        <v>202010</v>
-      </c>
-      <c r="E1">
-        <v>201209</v>
-      </c>
-      <c r="F1">
-        <v>202008</v>
-      </c>
-      <c r="G1">
-        <v>202007</v>
-      </c>
-      <c r="H1">
-        <v>202006</v>
-      </c>
-      <c r="I1">
-        <v>202005</v>
-      </c>
-      <c r="J1">
-        <v>202004</v>
-      </c>
-      <c r="K1">
-        <v>201203</v>
-      </c>
-      <c r="L1">
-        <v>202002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>219702.3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>194008.42</v>
-      </c>
-      <c r="D2" s="1">
-        <v>188987.24</v>
-      </c>
-      <c r="E2" s="1">
-        <v>184099.85</v>
-      </c>
-      <c r="F2" s="1">
-        <v>164759.56</v>
-      </c>
-      <c r="G2" s="1">
-        <v>134926.57999999999</v>
-      </c>
-      <c r="H2" s="1">
-        <v>95661.82</v>
-      </c>
-      <c r="I2" s="1">
-        <v>79288.210000000006</v>
-      </c>
-      <c r="J2" s="1">
-        <v>54471.86</v>
-      </c>
-      <c r="K2" s="1">
-        <v>17124.080000000002</v>
-      </c>
-      <c r="L2" s="1">
-        <v>97.49</v>
-      </c>
-      <c r="N2" s="1">
-        <f>SUM(B2:L2)/10</f>
-        <v>133312.74100000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>194013.76</v>
-      </c>
-      <c r="C3" s="3">
-        <v>194008.42</v>
-      </c>
-      <c r="D3" s="3">
-        <v>188987.24</v>
-      </c>
-      <c r="E3" s="3">
-        <v>184099.85</v>
-      </c>
-      <c r="F3" s="3">
-        <v>164759.56</v>
-      </c>
-      <c r="G3" s="3">
-        <v>134926.57999999999</v>
-      </c>
-      <c r="H3" s="3">
-        <v>95661.82</v>
-      </c>
-      <c r="I3" s="3">
-        <v>79288.210000000006</v>
-      </c>
-      <c r="J3" s="3">
-        <v>54471.86</v>
-      </c>
-      <c r="K3" s="1">
-        <v>17300</v>
-      </c>
-      <c r="L3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>219211.26</v>
-      </c>
-      <c r="C4" s="1">
-        <v>146392.93</v>
-      </c>
-      <c r="D4" s="1">
-        <v>92495.26</v>
-      </c>
-      <c r="E4" s="1">
-        <v>162561.74</v>
-      </c>
-      <c r="F4" s="1">
-        <v>126237.95</v>
-      </c>
-      <c r="G4" s="1">
-        <v>98723.17</v>
-      </c>
-      <c r="H4" s="1">
-        <v>25782.74</v>
-      </c>
-      <c r="I4" s="1">
-        <v>32293.32</v>
-      </c>
-      <c r="J4" s="1">
-        <v>67600</v>
-      </c>
-      <c r="K4" s="1">
-        <v>17300</v>
-      </c>
-      <c r="L4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>207003.39</v>
-      </c>
-      <c r="C5" s="1">
-        <v>146418.4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>92469.79</v>
-      </c>
-      <c r="E5" s="1">
-        <v>132569.23000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>96241.66</v>
-      </c>
-      <c r="G5" s="1">
-        <v>69045.48</v>
-      </c>
-      <c r="H5" s="1">
-        <v>16050.17</v>
-      </c>
-      <c r="I5" s="1">
-        <v>7522.3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>32300</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" ref="B6:K6" si="0">B4-B5</f>
-        <v>12207.869999999995</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>-25.470000000001164</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>25.470000000001164</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>29992.50999999998</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>29996.289999999994</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>29677.690000000002</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>9732.5700000000015</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>24771.02</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="0"/>
-        <v>35300</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="0"/>
-        <v>17300</v>
-      </c>
-      <c r="L6" s="1">
-        <f>L4-L5</f>
-        <v>100</v>
-      </c>
-      <c r="N6" s="1">
-        <f>SUM(B6:L6)</f>
-        <v>189077.94999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>13486.01</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5046.6400000000003</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4861.92</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-10652.23</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-163.32</v>
-      </c>
-      <c r="G7" s="1">
-        <v>9587.07</v>
-      </c>
-      <c r="H7" s="1">
-        <v>6641.03</v>
-      </c>
-      <c r="I7" s="1">
-        <v>45.33</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2047.78</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-273.42</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <f>SUM(B7:M7)</f>
-        <v>30624.300000000003</v>
-      </c>
-      <c r="O7" s="1">
-        <f>SUM(B7,C7,D7)/3</f>
-        <v>7798.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6.23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.66</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.63</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-5.47</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7.64</v>
-      </c>
-      <c r="H8" s="1">
-        <v>7.46</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-1.58</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5.64</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.35</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-4.75</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.58</v>
-      </c>
-      <c r="G9" s="1">
-        <v>12.75</v>
-      </c>
-      <c r="H9" s="1">
-        <v>7.68</v>
-      </c>
-      <c r="I9" s="1">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6.14</v>
-      </c>
-      <c r="K9" s="1">
-        <v>-6.44</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-1.59</v>
-      </c>
-      <c r="M9" s="1">
-        <v>-2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="N12" s="1">
-        <v>189077.95</v>
-      </c>
-      <c r="O12">
-        <v>30624.35</v>
-      </c>
-      <c r="P12">
-        <f>O12/N12*100</f>
-        <v>16.196679729180477</v>
-      </c>
-      <c r="Q12">
-        <v>15.37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>202002</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>202003</v>
-      </c>
-      <c r="B18" s="1">
-        <v>-273.42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>202004</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2047.78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>202005</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45.33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>202006</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6641.03</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>202007</v>
-      </c>
-      <c r="B22" s="1">
-        <v>9587.07</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>202008</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-163.32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>202009</v>
-      </c>
-      <c r="B24" s="1">
-        <v>-10652.23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>202010</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4861.92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>202011</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5046.6400000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>202012</v>
-      </c>
-      <c r="B27" s="1">
-        <v>13486.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A17:Q27">
-    <sortCondition ref="A17:A27"/>
-  </sortState>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,30 +4,31 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="6A" sheetId="40" r:id="rId1"/>
-    <sheet name="63" sheetId="41" r:id="rId2"/>
-    <sheet name="62" sheetId="39" r:id="rId3"/>
-    <sheet name="61" sheetId="38" r:id="rId4"/>
-    <sheet name="5" sheetId="37" r:id="rId5"/>
-    <sheet name="2104" sheetId="36" r:id="rId6"/>
-    <sheet name="2103" sheetId="33" r:id="rId7"/>
-    <sheet name="2102" sheetId="31" r:id="rId8"/>
-    <sheet name="2101" sheetId="26" r:id="rId9"/>
-    <sheet name="每月" sheetId="29" r:id="rId10"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId11"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId12"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId14"/>
+    <sheet name="64" sheetId="42" r:id="rId2"/>
+    <sheet name="63" sheetId="41" r:id="rId3"/>
+    <sheet name="62" sheetId="39" r:id="rId4"/>
+    <sheet name="61" sheetId="38" r:id="rId5"/>
+    <sheet name="5" sheetId="37" r:id="rId6"/>
+    <sheet name="2104" sheetId="36" r:id="rId7"/>
+    <sheet name="2103" sheetId="33" r:id="rId8"/>
+    <sheet name="2102" sheetId="31" r:id="rId9"/>
+    <sheet name="2101" sheetId="26" r:id="rId10"/>
+    <sheet name="每月" sheetId="29" r:id="rId11"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId12"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId13"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1724,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2001,44 +2002,129 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="6"/>
-      <c r="B15">
+      <c r="A15" s="6">
+        <v>44368</v>
+      </c>
+      <c r="J15" s="1">
+        <v>412210.07</v>
+      </c>
+      <c r="K15">
+        <v>276387.59999999998</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-319.3</v>
+      </c>
+      <c r="M15">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6">
+        <v>44369</v>
+      </c>
+      <c r="J16" s="1">
+        <v>413594.91</v>
+      </c>
+      <c r="K16">
+        <v>319069.5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1400.4</v>
+      </c>
+      <c r="M16">
+        <v>0.43890000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44370</v>
+      </c>
+      <c r="J17" s="1">
+        <v>416573.23</v>
+      </c>
+      <c r="K17">
+        <v>244798.4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3015</v>
+      </c>
+      <c r="M17">
+        <v>1.2316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44371</v>
+      </c>
+      <c r="J18" s="1">
+        <v>413177.05</v>
+      </c>
+      <c r="K18">
+        <v>315915.2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-3368.2</v>
+      </c>
+      <c r="M18">
+        <v>-1.0662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44372</v>
+      </c>
+      <c r="J19" s="1">
+        <v>412872.75</v>
+      </c>
+      <c r="K19">
+        <v>319013.59999999998</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5398.4</v>
+      </c>
+      <c r="M19">
+        <v>1.6921999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6"/>
+      <c r="B20">
         <f>SUM(B6:B10)/5</f>
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C20">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F20">
         <f>SUM(F6:F10)</f>
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="G20">
         <f>SUM(G6:G10)</f>
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="H20">
         <f>SUM(H6:H10)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="1">
-        <f>AVERAGE(J2:J14)</f>
-        <v>396796.35230769229</v>
-      </c>
-      <c r="K15" s="14">
-        <f>AVERAGE(K2:K14)</f>
-        <v>286437.93076923082</v>
-      </c>
-      <c r="L15" s="1">
-        <f>SUM(L1:L14)</f>
-        <v>-4675.8</v>
-      </c>
-      <c r="M15" s="5">
-        <f>L15/K15*100</f>
-        <v>-1.6323955376451402</v>
+      <c r="J20" s="1">
+        <f>AVERAGE(J2:J19)</f>
+        <v>401487.81055555562</v>
+      </c>
+      <c r="K20" s="1">
+        <f>AVERAGE(K2:K19)</f>
+        <v>288826.52222222229</v>
+      </c>
+      <c r="L20" s="1">
+        <f>SUM(L1:L19)</f>
+        <v>1450.4999999999995</v>
+      </c>
+      <c r="M20" s="5">
+        <f>L20/K20*100</f>
+        <v>0.50220457208704294</v>
       </c>
     </row>
   </sheetData>
@@ -2049,6 +2135,924 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6">
+        <v>44200</v>
+      </c>
+      <c r="C2">
+        <v>222851.84</v>
+      </c>
+      <c r="D2">
+        <v>194013.76</v>
+      </c>
+      <c r="F2" s="1">
+        <f>G2+H2</f>
+        <v>3173.17</v>
+      </c>
+      <c r="G2">
+        <v>3167.96</v>
+      </c>
+      <c r="H2">
+        <v>5.21</v>
+      </c>
+      <c r="I2" s="5">
+        <f>G2/D2*100</f>
+        <v>1.6328532574184429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6">
+        <v>44201</v>
+      </c>
+      <c r="C3">
+        <v>226343.62</v>
+      </c>
+      <c r="D3">
+        <v>197281.73</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F7" si="0">G3+H3</f>
+        <v>3491.77</v>
+      </c>
+      <c r="G3">
+        <v>3490.6</v>
+      </c>
+      <c r="H3">
+        <v>1.17</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I5" si="1">G3/D3*100</f>
+        <v>1.7693478255690478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6">
+        <v>44202</v>
+      </c>
+      <c r="C4">
+        <v>226805.66</v>
+      </c>
+      <c r="D4">
+        <v>185730.9</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>462.04</v>
+      </c>
+      <c r="G4">
+        <v>460.8</v>
+      </c>
+      <c r="H4">
+        <v>1.24</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.24810088143652995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6">
+        <v>44203</v>
+      </c>
+      <c r="C5">
+        <v>228282.2</v>
+      </c>
+      <c r="D5">
+        <v>185664.2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>1476.54</v>
+      </c>
+      <c r="G5">
+        <v>1474.72</v>
+      </c>
+      <c r="H5">
+        <v>1.82</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.79429421503984066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6">
+        <v>44204</v>
+      </c>
+      <c r="C6">
+        <v>228079.17</v>
+      </c>
+      <c r="D6">
+        <v>185188.2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>-203.04000000000002</v>
+      </c>
+      <c r="G6">
+        <v>-204.83</v>
+      </c>
+      <c r="H6">
+        <v>1.79</v>
+      </c>
+      <c r="I6" s="5">
+        <f>G6/D6*100</f>
+        <v>-0.11060639932781895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6">
+        <v>44204</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)/5</f>
+        <v>226472.49799999999</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)/5</f>
+        <v>189575.758</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>8400.48</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>8389.25</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>11.23</v>
+      </c>
+      <c r="I7" s="5">
+        <f>G7/D7*100</f>
+        <v>4.4252757253910069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
+        <v>44205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6">
+        <v>44207</v>
+      </c>
+      <c r="C10">
+        <v>185016.92</v>
+      </c>
+      <c r="D10">
+        <v>185517.14</v>
+      </c>
+      <c r="F10" s="1">
+        <f>G10+H10</f>
+        <v>-919.07</v>
+      </c>
+      <c r="G10">
+        <v>-935.62</v>
+      </c>
+      <c r="H10">
+        <v>16.55</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10:I14" si="2">G10/D10*100</f>
+        <v>-0.50433075887219903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6">
+        <v>44208</v>
+      </c>
+      <c r="C11">
+        <v>176713.29</v>
+      </c>
+      <c r="D11">
+        <v>185016.92</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:F15" si="3">G11+H11</f>
+        <v>4422.71</v>
+      </c>
+      <c r="G11">
+        <v>4420.7</v>
+      </c>
+      <c r="H11">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3893490389960008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6">
+        <v>44209</v>
+      </c>
+      <c r="C12">
+        <v>173637.16</v>
+      </c>
+      <c r="D12">
+        <v>176713.29</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>-420.3</v>
+      </c>
+      <c r="G12">
+        <v>-422.3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.23897466908119924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6">
+        <v>44210</v>
+      </c>
+      <c r="C13">
+        <v>169616.79</v>
+      </c>
+      <c r="D13">
+        <v>173637.16</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>-1814.05</v>
+      </c>
+      <c r="G13">
+        <v>-1816.05</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.0458878733100678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6">
+        <v>44211</v>
+      </c>
+      <c r="B14">
+        <v>238882.29</v>
+      </c>
+      <c r="C14">
+        <v>162555.70000000001</v>
+      </c>
+      <c r="D14">
+        <v>169616.79</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>-466.19</v>
+      </c>
+      <c r="G14">
+        <v>-468.66</v>
+      </c>
+      <c r="H14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.27630519360730738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6">
+        <v>44211</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C10:C14)/5</f>
+        <v>173507.97200000001</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D10:D14)/5</f>
+        <v>178100.26000000004</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>803.09999999999968</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G10:G14)</f>
+        <v>778.06999999999971</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H10:H14)</f>
+        <v>25.03</v>
+      </c>
+      <c r="I15" s="5">
+        <f>G15/D15*100</f>
+        <v>0.43687190574567358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6">
+        <v>44212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6">
+        <v>44213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6">
+        <v>44214</v>
+      </c>
+      <c r="B18">
+        <v>242193.92000000001</v>
+      </c>
+      <c r="C18">
+        <v>164916.76999999999</v>
+      </c>
+      <c r="D18">
+        <v>162555.70000000001</v>
+      </c>
+      <c r="F18" s="1">
+        <f>G18+H18</f>
+        <v>3311.6299999999997</v>
+      </c>
+      <c r="G18">
+        <v>3302.14</v>
+      </c>
+      <c r="H18">
+        <v>9.49</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" ref="I18:I23" si="4">G18/D18*100</f>
+        <v>2.0313898559078516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6">
+        <v>44215</v>
+      </c>
+      <c r="B19">
+        <v>240002.07</v>
+      </c>
+      <c r="C19">
+        <v>137122.72</v>
+      </c>
+      <c r="D19">
+        <v>164916.76999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19:F23" si="5">G19+H19</f>
+        <v>-1906.3400000000001</v>
+      </c>
+      <c r="G19">
+        <v>-1909.38</v>
+      </c>
+      <c r="H19">
+        <v>3.04</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.1577840143243165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6">
+        <v>44216</v>
+      </c>
+      <c r="B20">
+        <v>241718.73</v>
+      </c>
+      <c r="C20">
+        <v>142333.87</v>
+      </c>
+      <c r="D20">
+        <v>137122.72</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="5"/>
+        <v>1716.66</v>
+      </c>
+      <c r="G20">
+        <v>1711.15</v>
+      </c>
+      <c r="H20">
+        <v>5.51</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="4"/>
+        <v>1.247896774509724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6">
+        <v>44217</v>
+      </c>
+      <c r="B21">
+        <v>243467.46</v>
+      </c>
+      <c r="C21">
+        <v>140551.12</v>
+      </c>
+      <c r="D21">
+        <v>142333.87</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="5"/>
+        <v>1748.72</v>
+      </c>
+      <c r="G21">
+        <v>1743.95</v>
+      </c>
+      <c r="H21">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2252529914348567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6">
+        <v>44218</v>
+      </c>
+      <c r="B22">
+        <v>243565.09</v>
+      </c>
+      <c r="C22">
+        <v>135733.26</v>
+      </c>
+      <c r="D22">
+        <v>140551.12</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="5"/>
+        <v>97.63</v>
+      </c>
+      <c r="G22">
+        <v>92.55</v>
+      </c>
+      <c r="H22">
+        <v>5.08</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="4"/>
+        <v>6.5847927785989899E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6"/>
+      <c r="B23">
+        <f>SUM(B18:B22)/5</f>
+        <v>242189.454</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C18:C22)/5</f>
+        <v>144131.54800000001</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D18:D22)/5</f>
+        <v>149496.03599999999</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="5"/>
+        <v>4968.3</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G18:G22)</f>
+        <v>4940.41</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H18:H22)</f>
+        <v>27.89</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="4"/>
+        <v>3.304709698122029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="6">
+        <v>44219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6">
+        <v>44220</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="6">
+        <v>44221</v>
+      </c>
+      <c r="B26">
+        <v>244251.64</v>
+      </c>
+      <c r="C26">
+        <v>136405.26</v>
+      </c>
+      <c r="D26">
+        <v>144131.54800000001</v>
+      </c>
+      <c r="F26" s="1">
+        <f>G26+H26</f>
+        <v>690.41</v>
+      </c>
+      <c r="G26">
+        <v>671.99</v>
+      </c>
+      <c r="H26">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="I26" s="5">
+        <f>G26/D26*100</f>
+        <v>0.46623380469069819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6">
+        <v>44222</v>
+      </c>
+      <c r="B27">
+        <v>241479.45</v>
+      </c>
+      <c r="C27">
+        <v>150888.88</v>
+      </c>
+      <c r="D27">
+        <v>136405.26</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ref="F27:F31" si="6">G27+H27</f>
+        <v>-2776.07</v>
+      </c>
+      <c r="G27">
+        <v>-2782.19</v>
+      </c>
+      <c r="H27">
+        <v>6.12</v>
+      </c>
+      <c r="I27" s="5">
+        <f>G27/D27*100</f>
+        <v>-2.0396500838750646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B28">
+        <v>242182.63</v>
+      </c>
+      <c r="C28">
+        <v>154085.84</v>
+      </c>
+      <c r="D28">
+        <v>150888.88</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="6"/>
+        <v>728.51</v>
+      </c>
+      <c r="G28">
+        <v>696.96</v>
+      </c>
+      <c r="H28">
+        <v>31.55</v>
+      </c>
+      <c r="I28" s="5">
+        <f>G28/D28*100</f>
+        <v>0.46190282544346545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="6">
+        <v>44224</v>
+      </c>
+      <c r="B29">
+        <v>237857.53</v>
+      </c>
+      <c r="C29">
+        <v>157103.31</v>
+      </c>
+      <c r="D29">
+        <v>154085.84</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="6"/>
+        <v>-4350.4399999999996</v>
+      </c>
+      <c r="G29">
+        <v>-4356.6899999999996</v>
+      </c>
+      <c r="H29">
+        <v>6.25</v>
+      </c>
+      <c r="I29" s="5">
+        <f>G29/D29*100</f>
+        <v>-2.8274434561929893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6">
+        <v>44225</v>
+      </c>
+      <c r="B30">
+        <v>236462.25</v>
+      </c>
+      <c r="C30">
+        <v>162701.5</v>
+      </c>
+      <c r="D30">
+        <v>157103.31</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="6"/>
+        <v>-1395.29</v>
+      </c>
+      <c r="G30">
+        <v>-1401.82</v>
+      </c>
+      <c r="H30">
+        <v>6.53</v>
+      </c>
+      <c r="I30" s="5">
+        <f>G30/D30*100</f>
+        <v>-0.89229183013394175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="6"/>
+      <c r="B31">
+        <f>SUM(B26:B30)/5</f>
+        <v>240446.7</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C26:C30)/5</f>
+        <v>152236.95800000001</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D26:D30)/5</f>
+        <v>148522.9676</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="6"/>
+        <v>-7102.8799999999992</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G26:G30)</f>
+        <v>-7171.7499999999991</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H26:H30)</f>
+        <v>68.87</v>
+      </c>
+      <c r="I31" s="5">
+        <f>G31/D30*100</f>
+        <v>-4.5649897510116109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34">
+        <v>236462.25</v>
+      </c>
+      <c r="C34" s="2">
+        <f>SUM(C2,C3,C4,C5,C6,C10,C11,C12,C13,C14,C18,C19,C20,C21,C22,C26,C27,C28,C29,C30)/20</f>
+        <v>174087.24399999998</v>
+      </c>
+      <c r="D34">
+        <v>192519.69</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34" si="7">G34+H34</f>
+        <v>7069.0000000000009</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G7,G15,G23,G31)</f>
+        <v>6935.9800000000005</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H7,H15,H23,H31)</f>
+        <v>133.02000000000001</v>
+      </c>
+      <c r="I34" s="5">
+        <f>G34/C34*100</f>
+        <v>3.9841977164047706</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="D37">
+        <f>G37*100/I37</f>
+        <v>214572.39165329051</v>
+      </c>
+      <c r="G37">
+        <v>13367.86</v>
+      </c>
+      <c r="I37" s="5">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="D39">
+        <v>97.49</v>
+      </c>
+      <c r="G39">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" ref="I39:I49" si="8">G39/D39*100</f>
+        <v>-2.5746230382603343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="D40">
+        <v>17124.080000000002</v>
+      </c>
+      <c r="G40">
+        <v>-273.42</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="8"/>
+        <v>-1.5966989175476871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="D41">
+        <v>54471.86</v>
+      </c>
+      <c r="G41">
+        <v>2047.78</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="8"/>
+        <v>3.7593355541742106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="D42">
+        <v>79288.210000000006</v>
+      </c>
+      <c r="G42">
+        <v>45.33</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="8"/>
+        <v>5.7171173368650893E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="D43">
+        <v>95661.82</v>
+      </c>
+      <c r="G43">
+        <v>6641.03</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="8"/>
+        <v>6.9421949111986363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="D44">
+        <v>134926.57999999999</v>
+      </c>
+      <c r="G44">
+        <v>9587.07</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="8"/>
+        <v>7.1053976169854742</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="D45">
+        <v>164759.56</v>
+      </c>
+      <c r="G45">
+        <v>-163.32</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="8"/>
+        <v>-9.9126266178423891E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="D46">
+        <v>184099.85</v>
+      </c>
+      <c r="G46">
+        <v>-10652.23</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="8"/>
+        <v>-5.7861155237225885</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="D47">
+        <v>188987.24</v>
+      </c>
+      <c r="G47">
+        <v>4861.92</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="8"/>
+        <v>2.5726181301975735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="D48">
+        <v>188987.24</v>
+      </c>
+      <c r="G48">
+        <v>5046.6400000000003</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="8"/>
+        <v>2.6703601788141889</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9">
+      <c r="D49">
+        <v>214572.39170000001</v>
+      </c>
+      <c r="G49">
+        <v>13367.86</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="8"/>
+        <v>6.2299999986438142</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9">
+      <c r="D51">
+        <f>G51*100/I51</f>
+        <v>226835.17915309448</v>
+      </c>
+      <c r="G51">
+        <v>6963.84</v>
+      </c>
+      <c r="I51" s="5">
+        <v>3.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -2558,7 +3562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2744,7 +3748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -2866,7 +3870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2948,11 +3952,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -3166,10 +4170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3221,89 +4225,106 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44362</v>
+        <v>44368</v>
       </c>
       <c r="J2" s="1">
-        <v>412797.08</v>
+        <v>412210.07</v>
       </c>
       <c r="K2">
-        <v>329797.90000000002</v>
+        <v>276387.59999999998</v>
       </c>
       <c r="L2" s="1">
-        <v>-2089.4</v>
+        <v>-319.3</v>
       </c>
       <c r="M2">
-        <v>-0.63349999999999995</v>
+        <v>-0.11550000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44363</v>
+        <v>44369</v>
       </c>
       <c r="J3" s="1">
-        <v>400806.78</v>
+        <v>413594.91</v>
       </c>
       <c r="K3">
-        <v>353970.5</v>
+        <v>319069.5</v>
       </c>
       <c r="L3" s="1">
-        <v>-8960.5</v>
+        <v>1400.4</v>
       </c>
       <c r="M3">
-        <v>-2.5314000000000001</v>
+        <v>0.43890000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44364</v>
+        <v>44370</v>
       </c>
       <c r="J4" s="1">
-        <v>408254.99</v>
+        <v>416573.23</v>
       </c>
       <c r="K4">
-        <v>270435.7</v>
+        <v>244798.4</v>
       </c>
       <c r="L4" s="1">
-        <v>6487.1</v>
+        <v>3015</v>
       </c>
       <c r="M4">
-        <v>2.3988</v>
+        <v>1.2316</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="J5" s="1">
-        <v>412532.63</v>
+        <v>413177.05</v>
       </c>
       <c r="K5">
-        <v>273539.59999999998</v>
+        <v>315915.2</v>
       </c>
       <c r="L5" s="1">
-        <v>2301.3000000000002</v>
+        <v>-3368.2</v>
       </c>
       <c r="M5">
-        <v>0.84130000000000005</v>
+        <v>-1.0662</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6">
+        <v>44372</v>
+      </c>
       <c r="J6" s="1">
-        <f>AVERAGE(J2:J5)</f>
-        <v>408597.87</v>
-      </c>
-      <c r="K6" s="1">
-        <f>AVERAGE(K2:K5)</f>
-        <v>306935.92500000005</v>
+        <v>412872.75</v>
+      </c>
+      <c r="K6">
+        <v>319013.59999999998</v>
       </c>
       <c r="L6" s="1">
-        <f>SUM(L1:L5)</f>
-        <v>-2261.4999999999991</v>
-      </c>
-      <c r="M6" s="5">
-        <f>L6/K6*100</f>
-        <v>-0.73679873087518144</v>
+        <v>5398.4</v>
+      </c>
+      <c r="M6">
+        <v>1.6921999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6"/>
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>413685.60200000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>295036.86</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>6126.3</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>2.0764524134374263</v>
       </c>
     </row>
   </sheetData>
@@ -3314,6 +4335,155 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44362</v>
+      </c>
+      <c r="J2" s="1">
+        <v>412797.08</v>
+      </c>
+      <c r="K2">
+        <v>329797.90000000002</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-2089.4</v>
+      </c>
+      <c r="M2">
+        <v>-0.63349999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44363</v>
+      </c>
+      <c r="J3" s="1">
+        <v>400806.78</v>
+      </c>
+      <c r="K3">
+        <v>353970.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-8960.5</v>
+      </c>
+      <c r="M3">
+        <v>-2.5314000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44364</v>
+      </c>
+      <c r="J4" s="1">
+        <v>408254.99</v>
+      </c>
+      <c r="K4">
+        <v>270435.7</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6487.1</v>
+      </c>
+      <c r="M4">
+        <v>2.3988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44365</v>
+      </c>
+      <c r="J5" s="1">
+        <v>412532.63</v>
+      </c>
+      <c r="K5">
+        <v>273539.59999999998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2301.3000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.84130000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6"/>
+      <c r="J6" s="1">
+        <f>AVERAGE(J2:J5)</f>
+        <v>408597.87</v>
+      </c>
+      <c r="K6" s="1">
+        <f>AVERAGE(K2:K5)</f>
+        <v>306935.92500000005</v>
+      </c>
+      <c r="L6" s="1">
+        <f>SUM(L1:L5)</f>
+        <v>-2261.4999999999991</v>
+      </c>
+      <c r="M6" s="5">
+        <f>L6/K6*100</f>
+        <v>-0.73679873087518144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -3479,7 +4649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -3679,7 +4849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -4548,7 +5718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -5642,7 +6812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -6820,7 +7990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -7412,922 +8582,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6">
-        <v>44200</v>
-      </c>
-      <c r="C2">
-        <v>222851.84</v>
-      </c>
-      <c r="D2">
-        <v>194013.76</v>
-      </c>
-      <c r="F2" s="1">
-        <f>G2+H2</f>
-        <v>3173.17</v>
-      </c>
-      <c r="G2">
-        <v>3167.96</v>
-      </c>
-      <c r="H2">
-        <v>5.21</v>
-      </c>
-      <c r="I2" s="5">
-        <f>G2/D2*100</f>
-        <v>1.6328532574184429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6">
-        <v>44201</v>
-      </c>
-      <c r="C3">
-        <v>226343.62</v>
-      </c>
-      <c r="D3">
-        <v>197281.73</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F7" si="0">G3+H3</f>
-        <v>3491.77</v>
-      </c>
-      <c r="G3">
-        <v>3490.6</v>
-      </c>
-      <c r="H3">
-        <v>1.17</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I5" si="1">G3/D3*100</f>
-        <v>1.7693478255690478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6">
-        <v>44202</v>
-      </c>
-      <c r="C4">
-        <v>226805.66</v>
-      </c>
-      <c r="D4">
-        <v>185730.9</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>462.04</v>
-      </c>
-      <c r="G4">
-        <v>460.8</v>
-      </c>
-      <c r="H4">
-        <v>1.24</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="1"/>
-        <v>0.24810088143652995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6">
-        <v>44203</v>
-      </c>
-      <c r="C5">
-        <v>228282.2</v>
-      </c>
-      <c r="D5">
-        <v>185664.2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>1476.54</v>
-      </c>
-      <c r="G5">
-        <v>1474.72</v>
-      </c>
-      <c r="H5">
-        <v>1.82</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="1"/>
-        <v>0.79429421503984066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6">
-        <v>44204</v>
-      </c>
-      <c r="C6">
-        <v>228079.17</v>
-      </c>
-      <c r="D6">
-        <v>185188.2</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>-203.04000000000002</v>
-      </c>
-      <c r="G6">
-        <v>-204.83</v>
-      </c>
-      <c r="H6">
-        <v>1.79</v>
-      </c>
-      <c r="I6" s="5">
-        <f>G6/D6*100</f>
-        <v>-0.11060639932781895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6">
-        <v>44204</v>
-      </c>
-      <c r="C7">
-        <f>SUM(C2:C6)/5</f>
-        <v>226472.49799999999</v>
-      </c>
-      <c r="D7">
-        <f>SUM(D2:D6)/5</f>
-        <v>189575.758</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>8400.48</v>
-      </c>
-      <c r="G7">
-        <f>SUM(G2:G6)</f>
-        <v>8389.25</v>
-      </c>
-      <c r="H7">
-        <f>SUM(H2:H6)</f>
-        <v>11.23</v>
-      </c>
-      <c r="I7" s="5">
-        <f>G7/D7*100</f>
-        <v>4.4252757253910069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6">
-        <v>44205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6">
-        <v>44206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6">
-        <v>44207</v>
-      </c>
-      <c r="C10">
-        <v>185016.92</v>
-      </c>
-      <c r="D10">
-        <v>185517.14</v>
-      </c>
-      <c r="F10" s="1">
-        <f>G10+H10</f>
-        <v>-919.07</v>
-      </c>
-      <c r="G10">
-        <v>-935.62</v>
-      </c>
-      <c r="H10">
-        <v>16.55</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" ref="I10:I14" si="2">G10/D10*100</f>
-        <v>-0.50433075887219903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6">
-        <v>44208</v>
-      </c>
-      <c r="C11">
-        <v>176713.29</v>
-      </c>
-      <c r="D11">
-        <v>185016.92</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" ref="F11:F15" si="3">G11+H11</f>
-        <v>4422.71</v>
-      </c>
-      <c r="G11">
-        <v>4420.7</v>
-      </c>
-      <c r="H11">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3893490389960008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6">
-        <v>44209</v>
-      </c>
-      <c r="C12">
-        <v>173637.16</v>
-      </c>
-      <c r="D12">
-        <v>176713.29</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="3"/>
-        <v>-420.3</v>
-      </c>
-      <c r="G12">
-        <v>-422.3</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.23897466908119924</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6">
-        <v>44210</v>
-      </c>
-      <c r="C13">
-        <v>169616.79</v>
-      </c>
-      <c r="D13">
-        <v>173637.16</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="3"/>
-        <v>-1814.05</v>
-      </c>
-      <c r="G13">
-        <v>-1816.05</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.0458878733100678</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6">
-        <v>44211</v>
-      </c>
-      <c r="B14">
-        <v>238882.29</v>
-      </c>
-      <c r="C14">
-        <v>162555.70000000001</v>
-      </c>
-      <c r="D14">
-        <v>169616.79</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="3"/>
-        <v>-466.19</v>
-      </c>
-      <c r="G14">
-        <v>-468.66</v>
-      </c>
-      <c r="H14">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.27630519360730738</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6">
-        <v>44211</v>
-      </c>
-      <c r="C15">
-        <f>SUM(C10:C14)/5</f>
-        <v>173507.97200000001</v>
-      </c>
-      <c r="D15">
-        <f>SUM(D10:D14)/5</f>
-        <v>178100.26000000004</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="3"/>
-        <v>803.09999999999968</v>
-      </c>
-      <c r="G15">
-        <f>SUM(G10:G14)</f>
-        <v>778.06999999999971</v>
-      </c>
-      <c r="H15">
-        <f>SUM(H10:H14)</f>
-        <v>25.03</v>
-      </c>
-      <c r="I15" s="5">
-        <f>G15/D15*100</f>
-        <v>0.43687190574567358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6">
-        <v>44212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6">
-        <v>44213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6">
-        <v>44214</v>
-      </c>
-      <c r="B18">
-        <v>242193.92000000001</v>
-      </c>
-      <c r="C18">
-        <v>164916.76999999999</v>
-      </c>
-      <c r="D18">
-        <v>162555.70000000001</v>
-      </c>
-      <c r="F18" s="1">
-        <f>G18+H18</f>
-        <v>3311.6299999999997</v>
-      </c>
-      <c r="G18">
-        <v>3302.14</v>
-      </c>
-      <c r="H18">
-        <v>9.49</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" ref="I18:I23" si="4">G18/D18*100</f>
-        <v>2.0313898559078516</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6">
-        <v>44215</v>
-      </c>
-      <c r="B19">
-        <v>240002.07</v>
-      </c>
-      <c r="C19">
-        <v>137122.72</v>
-      </c>
-      <c r="D19">
-        <v>164916.76999999999</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" ref="F19:F23" si="5">G19+H19</f>
-        <v>-1906.3400000000001</v>
-      </c>
-      <c r="G19">
-        <v>-1909.38</v>
-      </c>
-      <c r="H19">
-        <v>3.04</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.1577840143243165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6">
-        <v>44216</v>
-      </c>
-      <c r="B20">
-        <v>241718.73</v>
-      </c>
-      <c r="C20">
-        <v>142333.87</v>
-      </c>
-      <c r="D20">
-        <v>137122.72</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="5"/>
-        <v>1716.66</v>
-      </c>
-      <c r="G20">
-        <v>1711.15</v>
-      </c>
-      <c r="H20">
-        <v>5.51</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="4"/>
-        <v>1.247896774509724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6">
-        <v>44217</v>
-      </c>
-      <c r="B21">
-        <v>243467.46</v>
-      </c>
-      <c r="C21">
-        <v>140551.12</v>
-      </c>
-      <c r="D21">
-        <v>142333.87</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="5"/>
-        <v>1748.72</v>
-      </c>
-      <c r="G21">
-        <v>1743.95</v>
-      </c>
-      <c r="H21">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="4"/>
-        <v>1.2252529914348567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6">
-        <v>44218</v>
-      </c>
-      <c r="B22">
-        <v>243565.09</v>
-      </c>
-      <c r="C22">
-        <v>135733.26</v>
-      </c>
-      <c r="D22">
-        <v>140551.12</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="5"/>
-        <v>97.63</v>
-      </c>
-      <c r="G22">
-        <v>92.55</v>
-      </c>
-      <c r="H22">
-        <v>5.08</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="4"/>
-        <v>6.5847927785989899E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="B23">
-        <f>SUM(B18:B22)/5</f>
-        <v>242189.454</v>
-      </c>
-      <c r="C23">
-        <f>SUM(C18:C22)/5</f>
-        <v>144131.54800000001</v>
-      </c>
-      <c r="D23">
-        <f>SUM(D18:D22)/5</f>
-        <v>149496.03599999999</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="5"/>
-        <v>4968.3</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G18:G22)</f>
-        <v>4940.41</v>
-      </c>
-      <c r="H23">
-        <f>SUM(H18:H22)</f>
-        <v>27.89</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="4"/>
-        <v>3.304709698122029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="6">
-        <v>44219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="6">
-        <v>44220</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="6">
-        <v>44221</v>
-      </c>
-      <c r="B26">
-        <v>244251.64</v>
-      </c>
-      <c r="C26">
-        <v>136405.26</v>
-      </c>
-      <c r="D26">
-        <v>144131.54800000001</v>
-      </c>
-      <c r="F26" s="1">
-        <f>G26+H26</f>
-        <v>690.41</v>
-      </c>
-      <c r="G26">
-        <v>671.99</v>
-      </c>
-      <c r="H26">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="I26" s="5">
-        <f>G26/D26*100</f>
-        <v>0.46623380469069819</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="6">
-        <v>44222</v>
-      </c>
-      <c r="B27">
-        <v>241479.45</v>
-      </c>
-      <c r="C27">
-        <v>150888.88</v>
-      </c>
-      <c r="D27">
-        <v>136405.26</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" ref="F27:F31" si="6">G27+H27</f>
-        <v>-2776.07</v>
-      </c>
-      <c r="G27">
-        <v>-2782.19</v>
-      </c>
-      <c r="H27">
-        <v>6.12</v>
-      </c>
-      <c r="I27" s="5">
-        <f>G27/D27*100</f>
-        <v>-2.0396500838750646</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6">
-        <v>44223</v>
-      </c>
-      <c r="B28">
-        <v>242182.63</v>
-      </c>
-      <c r="C28">
-        <v>154085.84</v>
-      </c>
-      <c r="D28">
-        <v>150888.88</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="6"/>
-        <v>728.51</v>
-      </c>
-      <c r="G28">
-        <v>696.96</v>
-      </c>
-      <c r="H28">
-        <v>31.55</v>
-      </c>
-      <c r="I28" s="5">
-        <f>G28/D28*100</f>
-        <v>0.46190282544346545</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="6">
-        <v>44224</v>
-      </c>
-      <c r="B29">
-        <v>237857.53</v>
-      </c>
-      <c r="C29">
-        <v>157103.31</v>
-      </c>
-      <c r="D29">
-        <v>154085.84</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="6"/>
-        <v>-4350.4399999999996</v>
-      </c>
-      <c r="G29">
-        <v>-4356.6899999999996</v>
-      </c>
-      <c r="H29">
-        <v>6.25</v>
-      </c>
-      <c r="I29" s="5">
-        <f>G29/D29*100</f>
-        <v>-2.8274434561929893</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="6">
-        <v>44225</v>
-      </c>
-      <c r="B30">
-        <v>236462.25</v>
-      </c>
-      <c r="C30">
-        <v>162701.5</v>
-      </c>
-      <c r="D30">
-        <v>157103.31</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="6"/>
-        <v>-1395.29</v>
-      </c>
-      <c r="G30">
-        <v>-1401.82</v>
-      </c>
-      <c r="H30">
-        <v>6.53</v>
-      </c>
-      <c r="I30" s="5">
-        <f>G30/D30*100</f>
-        <v>-0.89229183013394175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="6"/>
-      <c r="B31">
-        <f>SUM(B26:B30)/5</f>
-        <v>240446.7</v>
-      </c>
-      <c r="C31">
-        <f>SUM(C26:C30)/5</f>
-        <v>152236.95800000001</v>
-      </c>
-      <c r="D31">
-        <f>SUM(D26:D30)/5</f>
-        <v>148522.9676</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="6"/>
-        <v>-7102.8799999999992</v>
-      </c>
-      <c r="G31">
-        <f>SUM(G26:G30)</f>
-        <v>-7171.7499999999991</v>
-      </c>
-      <c r="H31">
-        <f>SUM(H26:H30)</f>
-        <v>68.87</v>
-      </c>
-      <c r="I31" s="5">
-        <f>G31/D30*100</f>
-        <v>-4.5649897510116109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="6">
-        <v>44226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="6">
-        <v>44227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34">
-        <v>236462.25</v>
-      </c>
-      <c r="C34" s="2">
-        <f>SUM(C2,C3,C4,C5,C6,C10,C11,C12,C13,C14,C18,C19,C20,C21,C22,C26,C27,C28,C29,C30)/20</f>
-        <v>174087.24399999998</v>
-      </c>
-      <c r="D34">
-        <v>192519.69</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" ref="F34" si="7">G34+H34</f>
-        <v>7069.0000000000009</v>
-      </c>
-      <c r="G34">
-        <f>SUM(G7,G15,G23,G31)</f>
-        <v>6935.9800000000005</v>
-      </c>
-      <c r="H34">
-        <f>SUM(H7,H15,H23,H31)</f>
-        <v>133.02000000000001</v>
-      </c>
-      <c r="I34" s="5">
-        <f>G34/C34*100</f>
-        <v>3.9841977164047706</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="D37">
-        <f>G37*100/I37</f>
-        <v>214572.39165329051</v>
-      </c>
-      <c r="G37">
-        <v>13367.86</v>
-      </c>
-      <c r="I37" s="5">
-        <v>6.23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="D39">
-        <v>97.49</v>
-      </c>
-      <c r="G39">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="I39" s="5">
-        <f t="shared" ref="I39:I49" si="8">G39/D39*100</f>
-        <v>-2.5746230382603343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="D40">
-        <v>17124.080000000002</v>
-      </c>
-      <c r="G40">
-        <v>-273.42</v>
-      </c>
-      <c r="I40" s="5">
-        <f t="shared" si="8"/>
-        <v>-1.5966989175476871</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="D41">
-        <v>54471.86</v>
-      </c>
-      <c r="G41">
-        <v>2047.78</v>
-      </c>
-      <c r="I41" s="5">
-        <f t="shared" si="8"/>
-        <v>3.7593355541742106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="D42">
-        <v>79288.210000000006</v>
-      </c>
-      <c r="G42">
-        <v>45.33</v>
-      </c>
-      <c r="I42" s="5">
-        <f t="shared" si="8"/>
-        <v>5.7171173368650893E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="D43">
-        <v>95661.82</v>
-      </c>
-      <c r="G43">
-        <v>6641.03</v>
-      </c>
-      <c r="I43" s="5">
-        <f t="shared" si="8"/>
-        <v>6.9421949111986363</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="D44">
-        <v>134926.57999999999</v>
-      </c>
-      <c r="G44">
-        <v>9587.07</v>
-      </c>
-      <c r="I44" s="5">
-        <f t="shared" si="8"/>
-        <v>7.1053976169854742</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="D45">
-        <v>164759.56</v>
-      </c>
-      <c r="G45">
-        <v>-163.32</v>
-      </c>
-      <c r="I45" s="5">
-        <f t="shared" si="8"/>
-        <v>-9.9126266178423891E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="D46">
-        <v>184099.85</v>
-      </c>
-      <c r="G46">
-        <v>-10652.23</v>
-      </c>
-      <c r="I46" s="5">
-        <f t="shared" si="8"/>
-        <v>-5.7861155237225885</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="D47">
-        <v>188987.24</v>
-      </c>
-      <c r="G47">
-        <v>4861.92</v>
-      </c>
-      <c r="I47" s="5">
-        <f t="shared" si="8"/>
-        <v>2.5726181301975735</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="D48">
-        <v>188987.24</v>
-      </c>
-      <c r="G48">
-        <v>5046.6400000000003</v>
-      </c>
-      <c r="I48" s="5">
-        <f t="shared" si="8"/>
-        <v>2.6703601788141889</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9">
-      <c r="D49">
-        <v>214572.39170000001</v>
-      </c>
-      <c r="G49">
-        <v>13367.86</v>
-      </c>
-      <c r="I49" s="5">
-        <f t="shared" si="8"/>
-        <v>6.2299999986438142</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9">
-      <c r="D51">
-        <f>G51*100/I51</f>
-        <v>226835.17915309448</v>
-      </c>
-      <c r="G51">
-        <v>6963.84</v>
-      </c>
-      <c r="I51" s="5">
-        <v>3.07</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -8,27 +8,28 @@
   </bookViews>
   <sheets>
     <sheet name="6A" sheetId="40" r:id="rId1"/>
-    <sheet name="64" sheetId="42" r:id="rId2"/>
-    <sheet name="63" sheetId="41" r:id="rId3"/>
-    <sheet name="62" sheetId="39" r:id="rId4"/>
-    <sheet name="61" sheetId="38" r:id="rId5"/>
-    <sheet name="5" sheetId="37" r:id="rId6"/>
-    <sheet name="2104" sheetId="36" r:id="rId7"/>
-    <sheet name="2103" sheetId="33" r:id="rId8"/>
-    <sheet name="2102" sheetId="31" r:id="rId9"/>
-    <sheet name="2101" sheetId="26" r:id="rId10"/>
-    <sheet name="每月" sheetId="29" r:id="rId11"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId12"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId13"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId15"/>
+    <sheet name="65" sheetId="43" r:id="rId2"/>
+    <sheet name="64" sheetId="42" r:id="rId3"/>
+    <sheet name="63" sheetId="41" r:id="rId4"/>
+    <sheet name="62" sheetId="39" r:id="rId5"/>
+    <sheet name="61" sheetId="38" r:id="rId6"/>
+    <sheet name="5" sheetId="37" r:id="rId7"/>
+    <sheet name="2104" sheetId="36" r:id="rId8"/>
+    <sheet name="2103" sheetId="33" r:id="rId9"/>
+    <sheet name="2102" sheetId="31" r:id="rId10"/>
+    <sheet name="2101" sheetId="26" r:id="rId11"/>
+    <sheet name="每月" sheetId="29" r:id="rId12"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId13"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId14"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1725,7 +1726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
@@ -2087,44 +2088,104 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="6"/>
-      <c r="B20">
+      <c r="A20" s="6">
+        <v>44375</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="1"/>
+      <c r="I20"/>
+      <c r="J20" s="1">
+        <v>421680.23</v>
+      </c>
+      <c r="K20">
+        <v>235082.9</v>
+      </c>
+      <c r="L20">
+        <v>3167.1</v>
+      </c>
+      <c r="M20">
+        <v>1.3472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44376</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1"/>
+      <c r="I21"/>
+      <c r="J21" s="1">
+        <v>420854.97</v>
+      </c>
+      <c r="K21">
+        <v>334427.98</v>
+      </c>
+      <c r="L21">
+        <v>-777.6</v>
+      </c>
+      <c r="M21">
+        <v>-0.23250000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44377</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1"/>
+      <c r="I22"/>
+      <c r="J22" s="1">
+        <v>424153.89</v>
+      </c>
+      <c r="K22">
+        <v>281291</v>
+      </c>
+      <c r="L22">
+        <v>3372.42</v>
+      </c>
+      <c r="M22">
+        <v>1.1989000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6"/>
+      <c r="B23">
         <f>SUM(B6:B10)/5</f>
         <v>0</v>
       </c>
-      <c r="C20">
+      <c r="C23">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D23">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F23">
         <f>SUM(F6:F10)</f>
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="G23">
         <f>SUM(G6:G10)</f>
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="H23">
         <f>SUM(H6:H10)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="1">
-        <f>AVERAGE(J2:J19)</f>
-        <v>401487.81055555562</v>
-      </c>
-      <c r="K20" s="1">
-        <f>AVERAGE(K2:K19)</f>
-        <v>288826.52222222229</v>
-      </c>
-      <c r="L20" s="1">
-        <f>SUM(L1:L19)</f>
-        <v>1450.4999999999995</v>
-      </c>
-      <c r="M20" s="5">
-        <f>L20/K20*100</f>
-        <v>0.50220457208704294</v>
+      <c r="J23" s="1">
+        <f>AVERAGE(J2:J22)</f>
+        <v>404450.93714285712</v>
+      </c>
+      <c r="K23" s="1">
+        <f>AVERAGE(K2:K22)</f>
+        <v>288079.96571428579</v>
+      </c>
+      <c r="L23" s="1">
+        <f>SUM(L1:L22)</f>
+        <v>7212.42</v>
+      </c>
+      <c r="M23" s="5">
+        <f>L23/K23*100</f>
+        <v>2.5036173487861317</v>
       </c>
     </row>
   </sheetData>
@@ -2135,6 +2196,600 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6">
+        <v>44228</v>
+      </c>
+      <c r="B2">
+        <v>238036.01</v>
+      </c>
+      <c r="C2">
+        <v>164254.16</v>
+      </c>
+      <c r="D2">
+        <v>162701.5</v>
+      </c>
+      <c r="F2">
+        <v>1573.76</v>
+      </c>
+      <c r="G2">
+        <v>1552.66</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I7" si="0">G2/D2*100</f>
+        <v>0.95429974523898076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6">
+        <v>44229</v>
+      </c>
+      <c r="B3">
+        <v>240484.06</v>
+      </c>
+      <c r="C3">
+        <v>161171.70000000001</v>
+      </c>
+      <c r="D3">
+        <v>164254.16</v>
+      </c>
+      <c r="F3">
+        <v>2448.04</v>
+      </c>
+      <c r="G3">
+        <v>2448.6999999999998</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4907993806671318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6">
+        <v>44230</v>
+      </c>
+      <c r="B4">
+        <v>239645.11</v>
+      </c>
+      <c r="C4">
+        <v>153949.04</v>
+      </c>
+      <c r="D4">
+        <v>161171.70000000001</v>
+      </c>
+      <c r="F4">
+        <v>-838.95</v>
+      </c>
+      <c r="G4">
+        <v>-844.91</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.52422975001194372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6">
+        <v>44231</v>
+      </c>
+      <c r="B5">
+        <v>239227.84</v>
+      </c>
+      <c r="C5">
+        <v>167521.74</v>
+      </c>
+      <c r="D5">
+        <v>153949.04</v>
+      </c>
+      <c r="F5">
+        <v>-417.28</v>
+      </c>
+      <c r="G5">
+        <v>-422.81</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.27464282986110211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6">
+        <v>44232</v>
+      </c>
+      <c r="B6">
+        <v>238383.6</v>
+      </c>
+      <c r="C6">
+        <v>175171.83</v>
+      </c>
+      <c r="D6">
+        <v>167521.74</v>
+      </c>
+      <c r="F6">
+        <v>-844.24</v>
+      </c>
+      <c r="G6">
+        <v>-845.12</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.50448377625495056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6"/>
+      <c r="B7">
+        <f>SUM(B2:B6)/5</f>
+        <v>239155.32399999996</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)/5</f>
+        <v>164413.69399999999</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)/5</f>
+        <v>161919.628</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>1921.3300000000006</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>1888.52</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.166331730949876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6">
+        <v>44234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6">
+        <v>44235</v>
+      </c>
+      <c r="B10">
+        <v>241079.12</v>
+      </c>
+      <c r="C10">
+        <v>177666.72</v>
+      </c>
+      <c r="D10">
+        <v>175171.83</v>
+      </c>
+      <c r="G10">
+        <v>2681.56</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10:I13" si="1">G10/D10*100</f>
+        <v>1.5308169127421916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6">
+        <v>44236</v>
+      </c>
+      <c r="B11">
+        <v>245659.54</v>
+      </c>
+      <c r="C11">
+        <v>205242.87</v>
+      </c>
+      <c r="D11">
+        <v>177666.72</v>
+      </c>
+      <c r="G11">
+        <v>4576.1499999999996</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5756934106736478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6">
+        <v>44237</v>
+      </c>
+      <c r="B12">
+        <v>249229.69</v>
+      </c>
+      <c r="C12">
+        <v>208809.09</v>
+      </c>
+      <c r="D12">
+        <v>205242.87</v>
+      </c>
+      <c r="G12">
+        <v>3566.21</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7375560963457586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6"/>
+      <c r="B13">
+        <f>SUM(B8:B12)/3</f>
+        <v>245322.78333333335</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C8:C12)/3</f>
+        <v>197239.55999999997</v>
+      </c>
+      <c r="D13">
+        <f>SUM(D8:D12)/3</f>
+        <v>186027.13999999998</v>
+      </c>
+      <c r="F13">
+        <f>SUM(F8:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>SUM(G8:G12)</f>
+        <v>10823.919999999998</v>
+      </c>
+      <c r="H13">
+        <f>SUM(H8:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>5.8184628328963175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6">
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6">
+        <v>44240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6">
+        <v>44245</v>
+      </c>
+      <c r="B21">
+        <v>248666.85</v>
+      </c>
+      <c r="C21">
+        <v>200236.96</v>
+      </c>
+      <c r="D21">
+        <v>208809.09</v>
+      </c>
+      <c r="G21">
+        <v>-584.24</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" ref="I21:I23" si="2">G21/D21*100</f>
+        <v>-0.27979624833382494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6">
+        <v>44246</v>
+      </c>
+      <c r="B22">
+        <v>248015.29</v>
+      </c>
+      <c r="C22">
+        <v>195374.49</v>
+      </c>
+      <c r="D22">
+        <v>200236.96</v>
+      </c>
+      <c r="G22">
+        <v>-654.16</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.32669293421154616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6"/>
+      <c r="B23">
+        <f>SUM(B18:B22)/2</f>
+        <v>248341.07</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C18:C22)/2</f>
+        <v>197805.72499999998</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D18:D22)/2</f>
+        <v>204523.02499999999</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F18:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G18:G22)</f>
+        <v>-1238.4000000000001</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H18:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.60550639714037091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="6">
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6">
+        <v>44248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="6">
+        <v>44249</v>
+      </c>
+      <c r="B26">
+        <v>242685.02</v>
+      </c>
+      <c r="C26">
+        <v>162695.51</v>
+      </c>
+      <c r="D26">
+        <v>195374.49</v>
+      </c>
+      <c r="G26">
+        <v>-5338.18</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" ref="I26:I30" si="3">G26/D26*100</f>
+        <v>-2.7322809646233757</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6">
+        <v>44250</v>
+      </c>
+      <c r="B27">
+        <v>242112.11</v>
+      </c>
+      <c r="C27">
+        <v>163379.64000000001</v>
+      </c>
+      <c r="D27">
+        <v>162695.51</v>
+      </c>
+      <c r="G27">
+        <v>-577.67999999999995</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.35506818842142596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6">
+        <v>44251</v>
+      </c>
+      <c r="B28">
+        <v>237257.81</v>
+      </c>
+      <c r="C28">
+        <v>159088.54999999999</v>
+      </c>
+      <c r="D28">
+        <v>163379.64000000001</v>
+      </c>
+      <c r="G28">
+        <v>-4858.92</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.9740058185952667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="6">
+        <v>44252</v>
+      </c>
+      <c r="B29">
+        <v>236689.25</v>
+      </c>
+      <c r="C29">
+        <v>144640.23000000001</v>
+      </c>
+      <c r="D29">
+        <v>159088.54999999999</v>
+      </c>
+      <c r="G29">
+        <v>-33.72</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.1195742874015763E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6">
+        <v>44253</v>
+      </c>
+      <c r="B30">
+        <v>232996.36</v>
+      </c>
+      <c r="C30">
+        <v>141884.51999999999</v>
+      </c>
+      <c r="D30">
+        <v>144640.23000000001</v>
+      </c>
+      <c r="G30">
+        <v>-3691.96</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.5525125340301242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="6"/>
+      <c r="B31">
+        <f>SUM(B26:B30)/5</f>
+        <v>238348.10999999996</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C26:C30)/5</f>
+        <v>154337.69</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D26:D30)/5</f>
+        <v>165035.68399999998</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F26:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G26:G30)</f>
+        <v>-14500.46</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H26:H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" ref="I31" si="4">G31/D31*100</f>
+        <v>-8.7862574011569521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6">
+        <v>44254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="2">
+        <f>SUM(B7,B13,B23,B31)/4</f>
+        <v>242791.82183333332</v>
+      </c>
+      <c r="C34" s="2">
+        <f>SUM(C7,C13,C23,C31)/4</f>
+        <v>178449.16725</v>
+      </c>
+      <c r="D34" s="2">
+        <f>SUM(D7,D13,D23,D31)/4</f>
+        <v>179376.36924999999</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34" si="5">G34+H34</f>
+        <v>-3026.42</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G7,G13,G23,G31)</f>
+        <v>-3026.42</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H6,H14,H22,H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f>G34/C34*100</f>
+        <v>-1.6959563592471738</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -3052,7 +3707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -3562,7 +4217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -3748,7 +4403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -3870,7 +4525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3952,7 +4607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -4170,10 +4825,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44375</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1"/>
+      <c r="I2"/>
+      <c r="J2" s="1">
+        <v>421680.23</v>
+      </c>
+      <c r="K2">
+        <v>235082.9</v>
+      </c>
+      <c r="L2">
+        <v>3167.1</v>
+      </c>
+      <c r="M2">
+        <v>1.3472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44376</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1"/>
+      <c r="I3"/>
+      <c r="J3" s="1">
+        <v>420854.97</v>
+      </c>
+      <c r="K3">
+        <v>334427.98</v>
+      </c>
+      <c r="L3">
+        <v>-777.6</v>
+      </c>
+      <c r="M3">
+        <v>-0.23250000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44377</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="1"/>
+      <c r="I4"/>
+      <c r="J4" s="1">
+        <v>424153.89</v>
+      </c>
+      <c r="K4">
+        <v>281291</v>
+      </c>
+      <c r="L4">
+        <v>3372.42</v>
+      </c>
+      <c r="M4">
+        <v>1.1989000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="J5" s="1">
+        <f>AVERAGE(J2:J4)</f>
+        <v>422229.6966666666</v>
+      </c>
+      <c r="K5" s="1">
+        <f>AVERAGE(K2:K4)</f>
+        <v>283600.62666666665</v>
+      </c>
+      <c r="L5" s="1">
+        <f>SUM(L2:L4)</f>
+        <v>5761.92</v>
+      </c>
+      <c r="M5" s="5">
+        <f>L5/K5*100</f>
+        <v>2.0317021396332602</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4334,7 +5130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -4483,12 +5279,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4649,12 +5445,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4849,7 +5645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -5718,7 +6514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -6812,7 +7608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -7988,598 +8784,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6">
-        <v>44228</v>
-      </c>
-      <c r="B2">
-        <v>238036.01</v>
-      </c>
-      <c r="C2">
-        <v>164254.16</v>
-      </c>
-      <c r="D2">
-        <v>162701.5</v>
-      </c>
-      <c r="F2">
-        <v>1573.76</v>
-      </c>
-      <c r="G2">
-        <v>1552.66</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:I7" si="0">G2/D2*100</f>
-        <v>0.95429974523898076</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6">
-        <v>44229</v>
-      </c>
-      <c r="B3">
-        <v>240484.06</v>
-      </c>
-      <c r="C3">
-        <v>161171.70000000001</v>
-      </c>
-      <c r="D3">
-        <v>164254.16</v>
-      </c>
-      <c r="F3">
-        <v>2448.04</v>
-      </c>
-      <c r="G3">
-        <v>2448.6999999999998</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>1.4907993806671318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6">
-        <v>44230</v>
-      </c>
-      <c r="B4">
-        <v>239645.11</v>
-      </c>
-      <c r="C4">
-        <v>153949.04</v>
-      </c>
-      <c r="D4">
-        <v>161171.70000000001</v>
-      </c>
-      <c r="F4">
-        <v>-838.95</v>
-      </c>
-      <c r="G4">
-        <v>-844.91</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.52422975001194372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6">
-        <v>44231</v>
-      </c>
-      <c r="B5">
-        <v>239227.84</v>
-      </c>
-      <c r="C5">
-        <v>167521.74</v>
-      </c>
-      <c r="D5">
-        <v>153949.04</v>
-      </c>
-      <c r="F5">
-        <v>-417.28</v>
-      </c>
-      <c r="G5">
-        <v>-422.81</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.27464282986110211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6">
-        <v>44232</v>
-      </c>
-      <c r="B6">
-        <v>238383.6</v>
-      </c>
-      <c r="C6">
-        <v>175171.83</v>
-      </c>
-      <c r="D6">
-        <v>167521.74</v>
-      </c>
-      <c r="F6">
-        <v>-844.24</v>
-      </c>
-      <c r="G6">
-        <v>-845.12</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.50448377625495056</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6"/>
-      <c r="B7">
-        <f>SUM(B2:B6)/5</f>
-        <v>239155.32399999996</v>
-      </c>
-      <c r="C7">
-        <f>SUM(C2:C6)/5</f>
-        <v>164413.69399999999</v>
-      </c>
-      <c r="D7">
-        <f>SUM(D2:D6)/5</f>
-        <v>161919.628</v>
-      </c>
-      <c r="F7">
-        <f>SUM(F2:F6)</f>
-        <v>1921.3300000000006</v>
-      </c>
-      <c r="G7">
-        <f>SUM(G2:G6)</f>
-        <v>1888.52</v>
-      </c>
-      <c r="H7">
-        <f>SUM(H2:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>1.166331730949876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6">
-        <v>44233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6">
-        <v>44234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6">
-        <v>44235</v>
-      </c>
-      <c r="B10">
-        <v>241079.12</v>
-      </c>
-      <c r="C10">
-        <v>177666.72</v>
-      </c>
-      <c r="D10">
-        <v>175171.83</v>
-      </c>
-      <c r="G10">
-        <v>2681.56</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" ref="I10:I13" si="1">G10/D10*100</f>
-        <v>1.5308169127421916</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6">
-        <v>44236</v>
-      </c>
-      <c r="B11">
-        <v>245659.54</v>
-      </c>
-      <c r="C11">
-        <v>205242.87</v>
-      </c>
-      <c r="D11">
-        <v>177666.72</v>
-      </c>
-      <c r="G11">
-        <v>4576.1499999999996</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="1"/>
-        <v>2.5756934106736478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6">
-        <v>44237</v>
-      </c>
-      <c r="B12">
-        <v>249229.69</v>
-      </c>
-      <c r="C12">
-        <v>208809.09</v>
-      </c>
-      <c r="D12">
-        <v>205242.87</v>
-      </c>
-      <c r="G12">
-        <v>3566.21</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7375560963457586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="B13">
-        <f>SUM(B8:B12)/3</f>
-        <v>245322.78333333335</v>
-      </c>
-      <c r="C13">
-        <f>SUM(C8:C12)/3</f>
-        <v>197239.55999999997</v>
-      </c>
-      <c r="D13">
-        <f>SUM(D8:D12)/3</f>
-        <v>186027.13999999998</v>
-      </c>
-      <c r="F13">
-        <f>SUM(F8:F12)</f>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f>SUM(G8:G12)</f>
-        <v>10823.919999999998</v>
-      </c>
-      <c r="H13">
-        <f>SUM(H8:H12)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="1"/>
-        <v>5.8184628328963175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6">
-        <v>44238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6">
-        <v>44239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6">
-        <v>44240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6">
-        <v>44241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6">
-        <v>44242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6">
-        <v>44244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6">
-        <v>44245</v>
-      </c>
-      <c r="B21">
-        <v>248666.85</v>
-      </c>
-      <c r="C21">
-        <v>200236.96</v>
-      </c>
-      <c r="D21">
-        <v>208809.09</v>
-      </c>
-      <c r="G21">
-        <v>-584.24</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" ref="I21:I23" si="2">G21/D21*100</f>
-        <v>-0.27979624833382494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6">
-        <v>44246</v>
-      </c>
-      <c r="B22">
-        <v>248015.29</v>
-      </c>
-      <c r="C22">
-        <v>195374.49</v>
-      </c>
-      <c r="D22">
-        <v>200236.96</v>
-      </c>
-      <c r="G22">
-        <v>-654.16</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.32669293421154616</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="B23">
-        <f>SUM(B18:B22)/2</f>
-        <v>248341.07</v>
-      </c>
-      <c r="C23">
-        <f>SUM(C18:C22)/2</f>
-        <v>197805.72499999998</v>
-      </c>
-      <c r="D23">
-        <f>SUM(D18:D22)/2</f>
-        <v>204523.02499999999</v>
-      </c>
-      <c r="F23">
-        <f>SUM(F18:F22)</f>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G18:G22)</f>
-        <v>-1238.4000000000001</v>
-      </c>
-      <c r="H23">
-        <f>SUM(H18:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.60550639714037091</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="6">
-        <v>44247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="6">
-        <v>44248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="6">
-        <v>44249</v>
-      </c>
-      <c r="B26">
-        <v>242685.02</v>
-      </c>
-      <c r="C26">
-        <v>162695.51</v>
-      </c>
-      <c r="D26">
-        <v>195374.49</v>
-      </c>
-      <c r="G26">
-        <v>-5338.18</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" ref="I26:I30" si="3">G26/D26*100</f>
-        <v>-2.7322809646233757</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="6">
-        <v>44250</v>
-      </c>
-      <c r="B27">
-        <v>242112.11</v>
-      </c>
-      <c r="C27">
-        <v>163379.64000000001</v>
-      </c>
-      <c r="D27">
-        <v>162695.51</v>
-      </c>
-      <c r="G27">
-        <v>-577.67999999999995</v>
-      </c>
-      <c r="I27" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.35506818842142596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6">
-        <v>44251</v>
-      </c>
-      <c r="B28">
-        <v>237257.81</v>
-      </c>
-      <c r="C28">
-        <v>159088.54999999999</v>
-      </c>
-      <c r="D28">
-        <v>163379.64000000001</v>
-      </c>
-      <c r="G28">
-        <v>-4858.92</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.9740058185952667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="6">
-        <v>44252</v>
-      </c>
-      <c r="B29">
-        <v>236689.25</v>
-      </c>
-      <c r="C29">
-        <v>144640.23000000001</v>
-      </c>
-      <c r="D29">
-        <v>159088.54999999999</v>
-      </c>
-      <c r="G29">
-        <v>-33.72</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1195742874015763E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="6">
-        <v>44253</v>
-      </c>
-      <c r="B30">
-        <v>232996.36</v>
-      </c>
-      <c r="C30">
-        <v>141884.51999999999</v>
-      </c>
-      <c r="D30">
-        <v>144640.23000000001</v>
-      </c>
-      <c r="G30">
-        <v>-3691.96</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.5525125340301242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="6"/>
-      <c r="B31">
-        <f>SUM(B26:B30)/5</f>
-        <v>238348.10999999996</v>
-      </c>
-      <c r="C31">
-        <f>SUM(C26:C30)/5</f>
-        <v>154337.69</v>
-      </c>
-      <c r="D31">
-        <f>SUM(D26:D30)/5</f>
-        <v>165035.68399999998</v>
-      </c>
-      <c r="F31">
-        <f>SUM(F26:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f>SUM(G26:G30)</f>
-        <v>-14500.46</v>
-      </c>
-      <c r="H31">
-        <f>SUM(H26:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" ref="I31" si="4">G31/D31*100</f>
-        <v>-8.7862574011569521</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="6">
-        <v>44254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="6">
-        <v>44255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="2">
-        <f>SUM(B7,B13,B23,B31)/4</f>
-        <v>242791.82183333332</v>
-      </c>
-      <c r="C34" s="2">
-        <f>SUM(C7,C13,C23,C31)/4</f>
-        <v>178449.16725</v>
-      </c>
-      <c r="D34" s="2">
-        <f>SUM(D7,D13,D23,D31)/4</f>
-        <v>179376.36924999999</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" ref="F34" si="5">G34+H34</f>
-        <v>-3026.42</v>
-      </c>
-      <c r="G34">
-        <f>SUM(G7,G13,G23,G31)</f>
-        <v>-3026.42</v>
-      </c>
-      <c r="H34">
-        <f>SUM(H6,H14,H22,H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <f>G34/C34*100</f>
-        <v>-1.6959563592471738</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,32 +4,33 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="6A" sheetId="40" r:id="rId1"/>
-    <sheet name="65" sheetId="43" r:id="rId2"/>
-    <sheet name="64" sheetId="42" r:id="rId3"/>
-    <sheet name="63" sheetId="41" r:id="rId4"/>
-    <sheet name="62" sheetId="39" r:id="rId5"/>
-    <sheet name="61" sheetId="38" r:id="rId6"/>
-    <sheet name="5" sheetId="37" r:id="rId7"/>
-    <sheet name="2104" sheetId="36" r:id="rId8"/>
-    <sheet name="2103" sheetId="33" r:id="rId9"/>
-    <sheet name="2102" sheetId="31" r:id="rId10"/>
-    <sheet name="2101" sheetId="26" r:id="rId11"/>
-    <sheet name="每月" sheetId="29" r:id="rId12"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId13"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId14"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId16"/>
+    <sheet name="71" sheetId="44" r:id="rId1"/>
+    <sheet name="6A" sheetId="40" r:id="rId2"/>
+    <sheet name="65" sheetId="43" r:id="rId3"/>
+    <sheet name="64" sheetId="42" r:id="rId4"/>
+    <sheet name="63" sheetId="41" r:id="rId5"/>
+    <sheet name="62" sheetId="39" r:id="rId6"/>
+    <sheet name="61" sheetId="38" r:id="rId7"/>
+    <sheet name="5" sheetId="37" r:id="rId8"/>
+    <sheet name="2104" sheetId="36" r:id="rId9"/>
+    <sheet name="2103" sheetId="33" r:id="rId10"/>
+    <sheet name="2102" sheetId="31" r:id="rId11"/>
+    <sheet name="2101" sheetId="26" r:id="rId12"/>
+    <sheet name="每月" sheetId="29" r:id="rId13"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId14"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId15"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -221,7 +222,7 @@
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +558,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFC41A16"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1248,7 +1255,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,6 +1299,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1726,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1739,13 +1749,13 @@
     <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
     <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
     <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -1770,7 +1780,7 @@
       <c r="J1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1780,413 +1790,122 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44348</v>
-      </c>
+        <v>44375</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1"/>
+      <c r="I2"/>
       <c r="J2" s="1">
-        <v>369566.62</v>
-      </c>
-      <c r="K2" s="14">
-        <v>235801.1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2159.6</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.91590000000000005</v>
-      </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14">
+        <v>421680.23</v>
+      </c>
+      <c r="K2">
+        <v>235082.9</v>
+      </c>
+      <c r="L2">
+        <v>3167.1</v>
+      </c>
+      <c r="M2">
+        <v>1.3472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44349</v>
-      </c>
+        <v>44376</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1"/>
+      <c r="I3"/>
       <c r="J3" s="1">
-        <v>365120.57</v>
-      </c>
-      <c r="K3" s="14">
-        <v>296728</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-4436.1000000000004</v>
-      </c>
-      <c r="M3" s="5">
-        <v>-1.4950000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>420854.97</v>
+      </c>
+      <c r="K3">
+        <v>334427.98</v>
+      </c>
+      <c r="L3">
+        <v>-777.6</v>
+      </c>
+      <c r="M3">
+        <v>-0.23250000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44350</v>
-      </c>
+        <v>44377</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="1"/>
+      <c r="I4"/>
       <c r="J4" s="1">
-        <v>363781.23</v>
-      </c>
-      <c r="K4" s="14">
-        <v>259382.2</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1330.1</v>
-      </c>
-      <c r="M4" s="5">
-        <v>-0.51280000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>424153.89</v>
+      </c>
+      <c r="K4">
+        <v>281291</v>
+      </c>
+      <c r="L4">
+        <v>3372.42</v>
+      </c>
+      <c r="M4">
+        <v>1.1989000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44351</v>
+        <v>44378</v>
       </c>
       <c r="J5" s="1">
-        <v>366580.88</v>
-      </c>
-      <c r="K5" s="14">
-        <v>209187.4</v>
+        <v>400968.2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>221650.6</v>
       </c>
       <c r="L5" s="1">
-        <v>2829.7</v>
+        <v>-3191.21</v>
       </c>
       <c r="M5" s="5">
-        <v>1.3527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-1.4145000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44354</v>
+        <v>44379</v>
       </c>
       <c r="J6" s="1">
-        <v>418141.49</v>
-      </c>
-      <c r="K6" s="14">
-        <v>246536.6</v>
+        <v>394703.57</v>
+      </c>
+      <c r="K6">
+        <v>282622.7</v>
       </c>
       <c r="L6" s="1">
-        <v>1562.6</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.63380000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="6">
-        <v>44355</v>
-      </c>
+        <v>-6272.86</v>
+      </c>
+      <c r="M6">
+        <v>-2.2845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6"/>
       <c r="J7" s="1">
-        <v>414310.09</v>
-      </c>
-      <c r="K7" s="14">
-        <v>318721.40000000002</v>
+        <f>AVERAGE(J2:J6)</f>
+        <v>412472.17199999996</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>271015.03599999996</v>
       </c>
       <c r="L7" s="1">
-        <v>-3812.1</v>
+        <f>SUM(L1:L6)</f>
+        <v>-3702.1499999999996</v>
       </c>
       <c r="M7" s="5">
-        <v>-1.1960999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6">
-        <v>44356</v>
-      </c>
-      <c r="J8" s="1">
-        <v>413741.94</v>
-      </c>
-      <c r="K8" s="14">
-        <v>324161.7</v>
-      </c>
-      <c r="L8" s="1">
-        <v>427.2</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0.1318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6">
-        <v>44357</v>
-      </c>
-      <c r="J9" s="1">
-        <v>417812.38</v>
-      </c>
-      <c r="K9" s="14">
-        <v>282917</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4087.1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1.4446000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="6">
-        <v>44358</v>
-      </c>
-      <c r="J10" s="1">
-        <v>394905.9</v>
-      </c>
-      <c r="K10" s="14">
-        <v>322514</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-3902.2</v>
-      </c>
-      <c r="M10" s="5">
-        <v>-1.2099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6">
-        <v>44362</v>
-      </c>
-      <c r="J11" s="1">
-        <v>412797.08</v>
-      </c>
-      <c r="K11" s="14">
-        <v>329797.90000000002</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-2089.4</v>
-      </c>
-      <c r="M11" s="5">
-        <v>-0.63349999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="6">
-        <v>44363</v>
-      </c>
-      <c r="J12" s="1">
-        <v>400806.78</v>
-      </c>
-      <c r="K12" s="14">
-        <v>353970.5</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-8960.5</v>
-      </c>
-      <c r="M12" s="5">
-        <v>-2.5314000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="6">
-        <v>44364</v>
-      </c>
-      <c r="J13" s="1">
-        <v>408254.99</v>
-      </c>
-      <c r="K13" s="14">
-        <v>270435.7</v>
-      </c>
-      <c r="L13" s="1">
-        <v>6487.1</v>
-      </c>
-      <c r="M13" s="5">
-        <v>2.3988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="6">
-        <v>44365</v>
-      </c>
-      <c r="J14" s="1">
-        <v>412532.63</v>
-      </c>
-      <c r="K14" s="14">
-        <v>273539.59999999998</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2301.3000000000002</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.84130000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="6">
-        <v>44368</v>
-      </c>
-      <c r="J15" s="1">
-        <v>412210.07</v>
-      </c>
-      <c r="K15">
-        <v>276387.59999999998</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-319.3</v>
-      </c>
-      <c r="M15">
-        <v>-0.11550000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="6">
-        <v>44369</v>
-      </c>
-      <c r="J16" s="1">
-        <v>413594.91</v>
-      </c>
-      <c r="K16">
-        <v>319069.5</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1400.4</v>
-      </c>
-      <c r="M16">
-        <v>0.43890000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44370</v>
-      </c>
-      <c r="J17" s="1">
-        <v>416573.23</v>
-      </c>
-      <c r="K17">
-        <v>244798.4</v>
-      </c>
-      <c r="L17" s="1">
-        <v>3015</v>
-      </c>
-      <c r="M17">
-        <v>1.2316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6">
-        <v>44371</v>
-      </c>
-      <c r="J18" s="1">
-        <v>413177.05</v>
-      </c>
-      <c r="K18">
-        <v>315915.2</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-3368.2</v>
-      </c>
-      <c r="M18">
-        <v>-1.0662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44372</v>
-      </c>
-      <c r="J19" s="1">
-        <v>412872.75</v>
-      </c>
-      <c r="K19">
-        <v>319013.59999999998</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5398.4</v>
-      </c>
-      <c r="M19">
-        <v>1.6921999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>44375</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="1"/>
-      <c r="I20"/>
-      <c r="J20" s="1">
-        <v>421680.23</v>
-      </c>
-      <c r="K20">
-        <v>235082.9</v>
-      </c>
-      <c r="L20">
-        <v>3167.1</v>
-      </c>
-      <c r="M20">
-        <v>1.3472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44376</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="1"/>
-      <c r="I21"/>
-      <c r="J21" s="1">
-        <v>420854.97</v>
-      </c>
-      <c r="K21">
-        <v>334427.98</v>
-      </c>
-      <c r="L21">
-        <v>-777.6</v>
-      </c>
-      <c r="M21">
-        <v>-0.23250000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44377</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="1"/>
-      <c r="I22"/>
-      <c r="J22" s="1">
-        <v>424153.89</v>
-      </c>
-      <c r="K22">
-        <v>281291</v>
-      </c>
-      <c r="L22">
-        <v>3372.42</v>
-      </c>
-      <c r="M22">
-        <v>1.1989000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6"/>
-      <c r="B23">
-        <f>SUM(B6:B10)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f>SUM(F6:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G6:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f>SUM(H6:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <f>AVERAGE(J2:J22)</f>
-        <v>404450.93714285712</v>
-      </c>
-      <c r="K23" s="1">
-        <f>AVERAGE(K2:K22)</f>
-        <v>288079.96571428579</v>
-      </c>
-      <c r="L23" s="1">
-        <f>SUM(L1:L22)</f>
-        <v>7212.42</v>
-      </c>
-      <c r="M23" s="5">
-        <f>L23/K23*100</f>
-        <v>2.5036173487861317</v>
-      </c>
+        <f>L7/K7*100</f>
+        <v>-1.3660312190206303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
@@ -2196,6 +1915,1184 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:M42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44256</v>
+      </c>
+      <c r="B2">
+        <v>235270.13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>144481.22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>141884.51999999999</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2">
+        <v>2258.36</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I6" si="0">G2/D2*100</f>
+        <v>1.5916887902922745</v>
+      </c>
+      <c r="K2">
+        <v>2744</v>
+      </c>
+      <c r="L2" s="1">
+        <v>85</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ref="M2:M7" si="1">L2/K2*100</f>
+        <v>3.0976676384839652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44257</v>
+      </c>
+      <c r="B3">
+        <v>233987.04</v>
+      </c>
+      <c r="C3">
+        <v>141545.63</v>
+      </c>
+      <c r="D3">
+        <v>144481.22</v>
+      </c>
+      <c r="G3">
+        <v>-1288.79</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.89201212448233747</v>
+      </c>
+      <c r="K3">
+        <v>9534.1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-53.55</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.56166811759893431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44258</v>
+      </c>
+      <c r="B4">
+        <v>235334.7</v>
+      </c>
+      <c r="C4">
+        <v>121781.53</v>
+      </c>
+      <c r="D4">
+        <v>141545.63</v>
+      </c>
+      <c r="G4">
+        <v>1341.73</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.94791340432057136</v>
+      </c>
+      <c r="K4">
+        <v>10594.1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>185.88</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7545615012129392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44259</v>
+      </c>
+      <c r="B5">
+        <v>231718.48</v>
+      </c>
+      <c r="C5">
+        <v>107799.67</v>
+      </c>
+      <c r="D5">
+        <v>121781.53</v>
+      </c>
+      <c r="G5">
+        <v>-3623.24</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.9751966492784248</v>
+      </c>
+      <c r="K5">
+        <v>33814.300000000003</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-334.41</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.98896029194748958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44260</v>
+      </c>
+      <c r="B6">
+        <v>181291.19</v>
+      </c>
+      <c r="C6">
+        <v>107364.03</v>
+      </c>
+      <c r="D6">
+        <v>107799.67</v>
+      </c>
+      <c r="G6">
+        <v>-429.84</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.39873962508419547</v>
+      </c>
+      <c r="K6">
+        <v>41238.300000000003</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-420.61</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.0199499009416004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6"/>
+      <c r="B7">
+        <f>SUM(B2:B6)/5</f>
+        <v>223520.30800000002</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)/5</f>
+        <v>124594.416</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)/5</f>
+        <v>131498.51400000002</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>-1741.7799999999995</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" ref="I7" si="2">G7/D7*100</f>
+        <v>-1.3245624965769569</v>
+      </c>
+      <c r="K7">
+        <f>SUM(K2:K6)/5</f>
+        <v>19584.96</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L2:L6)</f>
+        <v>-537.69000000000005</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.7454230184794866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44263</v>
+      </c>
+      <c r="B10">
+        <v>177449.31</v>
+      </c>
+      <c r="C10">
+        <v>102570.05</v>
+      </c>
+      <c r="D10">
+        <v>124594.416</v>
+      </c>
+      <c r="G10">
+        <v>-3857.44</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10:I15" si="3">G10/D10*100</f>
+        <v>-3.0959974963886023</v>
+      </c>
+      <c r="K10">
+        <v>57983.3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-537.69000000000005</v>
+      </c>
+      <c r="M10" s="5">
+        <f>L10/K10*100</f>
+        <v>-0.92731872797857318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44264</v>
+      </c>
+      <c r="B11">
+        <v>174553.39</v>
+      </c>
+      <c r="C11">
+        <v>99669.3</v>
+      </c>
+      <c r="D11">
+        <v>102570.05</v>
+      </c>
+      <c r="G11">
+        <v>-2900.76</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.8280770068845635</v>
+      </c>
+      <c r="K11">
+        <v>65921</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1745.37</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" ref="M11:M14" si="4">L11/K11*100</f>
+        <v>-2.6476691797757921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44265</v>
+      </c>
+      <c r="B12">
+        <v>145172.67000000001</v>
+      </c>
+      <c r="C12">
+        <v>85578.68</v>
+      </c>
+      <c r="D12">
+        <v>99669.3</v>
+      </c>
+      <c r="G12">
+        <v>610.9</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.61292694942173764</v>
+      </c>
+      <c r="K12">
+        <v>65921</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1047.8</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.5894783149527463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44266</v>
+      </c>
+      <c r="B13">
+        <v>147127.25</v>
+      </c>
+      <c r="C13">
+        <v>87730.34</v>
+      </c>
+      <c r="D13">
+        <v>85578.68</v>
+      </c>
+      <c r="G13">
+        <v>1951.65</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2805329551706106</v>
+      </c>
+      <c r="K13">
+        <v>78588.2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>240.1</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="4"/>
+        <v>0.30551660427392408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44267</v>
+      </c>
+      <c r="B14">
+        <v>147127.25</v>
+      </c>
+      <c r="C14">
+        <v>87730.34</v>
+      </c>
+      <c r="D14">
+        <v>87730.34</v>
+      </c>
+      <c r="G14">
+        <v>300.25</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="3"/>
+        <v>0.34224191995608361</v>
+      </c>
+      <c r="K14">
+        <v>93784.2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1503.02</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6026366914682857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6"/>
+      <c r="B15">
+        <f>SUM(B10:B14)/5</f>
+        <v>158285.97399999999</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C10:C14)/5</f>
+        <v>92655.741999999998</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D10:D14)/5</f>
+        <v>100028.5572</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F10:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G10:G14)</f>
+        <v>-3895.4000000000015</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H10:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.8942879004157041</v>
+      </c>
+      <c r="K15">
+        <f>SUM(K10:K14)/5</f>
+        <v>72439.540000000008</v>
+      </c>
+      <c r="L15" s="1">
+        <f>SUM(L10:L14)</f>
+        <v>-1587.7399999999998</v>
+      </c>
+      <c r="M15" s="5">
+        <f>L15/K15*100</f>
+        <v>-2.1918140286368462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44270</v>
+      </c>
+      <c r="B18">
+        <v>100575.5</v>
+      </c>
+      <c r="C18">
+        <v>86168.59</v>
+      </c>
+      <c r="D18">
+        <v>86168.59</v>
+      </c>
+      <c r="G18">
+        <v>-2337.02</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" ref="I18" si="5">G18/D18*100</f>
+        <v>-2.7121483593963882</v>
+      </c>
+      <c r="K18">
+        <v>108354.3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-1861.58</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" ref="M18:M23" si="6">L18/K18*100</f>
+        <v>-1.7180490298954447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44271</v>
+      </c>
+      <c r="B19">
+        <v>100575.5</v>
+      </c>
+      <c r="C19">
+        <v>86168.59</v>
+      </c>
+      <c r="D19">
+        <v>86168.59</v>
+      </c>
+      <c r="G19">
+        <v>482.95</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" ref="I19:I23" si="7">G19/D19*100</f>
+        <v>0.56047104867330422</v>
+      </c>
+      <c r="K19">
+        <v>119793.70000000003</v>
+      </c>
+      <c r="L19" s="1">
+        <v>129.28</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="6"/>
+        <v>0.1079188638467632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44272</v>
+      </c>
+      <c r="B20">
+        <v>101179.25</v>
+      </c>
+      <c r="C20">
+        <v>86771.38</v>
+      </c>
+      <c r="D20">
+        <v>86168.59</v>
+      </c>
+      <c r="G20">
+        <v>602.79</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="7"/>
+        <v>0.69954724801693979</v>
+      </c>
+      <c r="J20" s="1">
+        <v>158224.62</v>
+      </c>
+      <c r="K20">
+        <v>86816.8</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1098.74</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2655845412408657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44273</v>
+      </c>
+      <c r="B21">
+        <v>101783.73</v>
+      </c>
+      <c r="C21">
+        <v>86483.12</v>
+      </c>
+      <c r="D21">
+        <v>86771.38</v>
+      </c>
+      <c r="G21">
+        <v>603.51</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="7"/>
+        <v>0.69551734684869593</v>
+      </c>
+      <c r="J21" s="1">
+        <v>159255.79999999999</v>
+      </c>
+      <c r="K21">
+        <v>95976.9</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1028.8499999999999</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0719766943920881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44274</v>
+      </c>
+      <c r="B22">
+        <v>100001.12</v>
+      </c>
+      <c r="C22">
+        <v>84699.42</v>
+      </c>
+      <c r="D22">
+        <v>86483.12</v>
+      </c>
+      <c r="G22">
+        <v>-1782.69</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.0613155492077531</v>
+      </c>
+      <c r="J22" s="1">
+        <v>156767.73000000001</v>
+      </c>
+      <c r="K22">
+        <v>143030.29999999999</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-2493.06</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.7430292742167219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6"/>
+      <c r="B23">
+        <f>SUM(B18:B22)/5</f>
+        <v>100823.01999999999</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C18:C22)/5</f>
+        <v>86058.22</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D18:D22)/5</f>
+        <v>86352.054000000004</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F18:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G18:G22)</f>
+        <v>-2430.46</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H18:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.8145943117925136</v>
+      </c>
+      <c r="K23">
+        <f>SUM(K18:K22)/5</f>
+        <v>110794.4</v>
+      </c>
+      <c r="L23" s="1">
+        <f>SUM(L18:L22)</f>
+        <v>-2097.77</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.8933899186240462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6">
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6">
+        <v>44276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6">
+        <v>44277</v>
+      </c>
+      <c r="B26">
+        <v>100750.93</v>
+      </c>
+      <c r="C26">
+        <v>85446.16</v>
+      </c>
+      <c r="D26">
+        <v>84699.42</v>
+      </c>
+      <c r="G26">
+        <v>825.3</v>
+      </c>
+      <c r="I26" s="5">
+        <f>G26/D26*100</f>
+        <v>0.97438683759581823</v>
+      </c>
+      <c r="J26" s="1">
+        <v>178921.15</v>
+      </c>
+      <c r="K26">
+        <v>139330.6</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2167.1</v>
+      </c>
+      <c r="M26" s="5">
+        <f>L26/K26*100</f>
+        <v>1.5553654401832762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
+        <v>44278</v>
+      </c>
+      <c r="B27">
+        <v>100095.84</v>
+      </c>
+      <c r="C27">
+        <v>82616.759999999995</v>
+      </c>
+      <c r="D27">
+        <v>85446.16</v>
+      </c>
+      <c r="G27">
+        <v>-734.81</v>
+      </c>
+      <c r="I27" s="5">
+        <f>G27/D27*100</f>
+        <v>-0.85996842924246086</v>
+      </c>
+      <c r="J27" s="1">
+        <v>177161.7</v>
+      </c>
+      <c r="K27">
+        <v>170976.5</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-1737.1</v>
+      </c>
+      <c r="M27" s="5">
+        <f>L27/K27*100</f>
+        <v>-1.015987577240147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6">
+        <v>44279</v>
+      </c>
+      <c r="B28">
+        <v>98973.77</v>
+      </c>
+      <c r="C28">
+        <v>81493.539999999994</v>
+      </c>
+      <c r="D28">
+        <v>82616.759999999995</v>
+      </c>
+      <c r="G28">
+        <v>-1123.22</v>
+      </c>
+      <c r="I28" s="5">
+        <f>G28/D28*100</f>
+        <v>-1.3595546472652766</v>
+      </c>
+      <c r="J28" s="1">
+        <v>193698.86</v>
+      </c>
+      <c r="K28">
+        <v>168127.4</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-3425.1</v>
+      </c>
+      <c r="M28" s="5">
+        <f>L28/K28*100</f>
+        <v>-2.037205119451083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="6">
+        <v>44280</v>
+      </c>
+      <c r="B29">
+        <v>98987.89</v>
+      </c>
+      <c r="C29">
+        <v>74482.63</v>
+      </c>
+      <c r="D29">
+        <v>81493.539999999994</v>
+      </c>
+      <c r="G29">
+        <v>12.93</v>
+      </c>
+      <c r="I29" s="5">
+        <f>G29/D29*100</f>
+        <v>1.5866288297207362E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>193558.2</v>
+      </c>
+      <c r="K29">
+        <v>171719</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-105.7</v>
+      </c>
+      <c r="M29" s="5">
+        <f>L29/K29*100</f>
+        <v>-6.1554050512756309E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6">
+        <v>44281</v>
+      </c>
+      <c r="B30">
+        <v>80455.62</v>
+      </c>
+      <c r="C30">
+        <v>75948.679999999993</v>
+      </c>
+      <c r="D30">
+        <v>74482.63</v>
+      </c>
+      <c r="G30">
+        <v>1466.05</v>
+      </c>
+      <c r="I30" s="5">
+        <f>G30/D30*100</f>
+        <v>1.9683112693523308</v>
+      </c>
+      <c r="J30" s="1">
+        <v>237818.16</v>
+      </c>
+      <c r="K30">
+        <v>164466.70000000001</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4288.8999999999996</v>
+      </c>
+      <c r="M30" s="5">
+        <f>L30/K30*100</f>
+        <v>2.6077619360028499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6"/>
+      <c r="B31">
+        <f>SUM(B26:B30)/5</f>
+        <v>95852.81</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C26:C30)/5</f>
+        <v>79997.553999999989</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D26:D30)/5</f>
+        <v>81747.702000000005</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F26:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G26:G30)</f>
+        <v>446.24999999999989</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H26:H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" ref="I31" si="8">G31/D31*100</f>
+        <v>0.54588690456399602</v>
+      </c>
+      <c r="K31">
+        <f>SUM(K26:K30)/5</f>
+        <v>162924.03999999998</v>
+      </c>
+      <c r="L31" s="1">
+        <f>SUM(L26:L30)</f>
+        <v>1188.0999999999999</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" ref="M31" si="9">L31/K31*100</f>
+        <v>0.7292355382299629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6">
+        <v>44282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="6">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="6">
+        <v>44284</v>
+      </c>
+      <c r="B34">
+        <v>80623.28</v>
+      </c>
+      <c r="C34">
+        <v>76115.47</v>
+      </c>
+      <c r="D34">
+        <v>75948.679999999993</v>
+      </c>
+      <c r="G34">
+        <v>166.78</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" ref="I34:I38" si="10">G34/D34*100</f>
+        <v>0.21959565327534331</v>
+      </c>
+      <c r="J34" s="1">
+        <v>236449.43</v>
+      </c>
+      <c r="K34">
+        <v>178111.2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>-1355.5</v>
+      </c>
+      <c r="M34" s="5">
+        <f t="shared" ref="M34" si="11">L34/K34*100</f>
+        <v>-0.76104141682274884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="6">
+        <v>44285</v>
+      </c>
+      <c r="B35">
+        <v>81243.5</v>
+      </c>
+      <c r="C35">
+        <v>72230.64</v>
+      </c>
+      <c r="D35">
+        <v>76115.47</v>
+      </c>
+      <c r="G35">
+        <v>619.82000000000005</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="10"/>
+        <v>0.81431540789277146</v>
+      </c>
+      <c r="J35" s="1">
+        <v>238006.58</v>
+      </c>
+      <c r="K35">
+        <v>196525.1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1573.9</v>
+      </c>
+      <c r="M35" s="5">
+        <f>L35/K35*100</f>
+        <v>0.80086462238156864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="6">
+        <v>44286</v>
+      </c>
+      <c r="B36">
+        <v>80539.89</v>
+      </c>
+      <c r="C36">
+        <v>69870.09</v>
+      </c>
+      <c r="D36">
+        <v>72230.64</v>
+      </c>
+      <c r="G36">
+        <v>-703.92</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="10"/>
+        <v>-0.9745448745850791</v>
+      </c>
+      <c r="J36" s="1">
+        <v>235847.35</v>
+      </c>
+      <c r="K36">
+        <v>222700.7</v>
+      </c>
+      <c r="L36" s="1">
+        <v>-2148.4</v>
+      </c>
+      <c r="M36" s="5">
+        <f>L36/K36*100</f>
+        <v>-0.96470285005839673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="6">
+        <v>44287</v>
+      </c>
+      <c r="B37">
+        <v>81873.73</v>
+      </c>
+      <c r="C37">
+        <v>71203.61</v>
+      </c>
+      <c r="D37">
+        <v>69870.09</v>
+      </c>
+      <c r="G37">
+        <v>1333.52</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="10"/>
+        <v>1.9085706058200296</v>
+      </c>
+      <c r="J37" s="1">
+        <v>248497.97</v>
+      </c>
+      <c r="K37">
+        <v>220660.5</v>
+      </c>
+      <c r="L37" s="1">
+        <v>2657.8</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" ref="M37:M38" si="12">L37/K37*100</f>
+        <v>1.2044747474060833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="6">
+        <v>44288</v>
+      </c>
+      <c r="B38">
+        <v>82889.789999999994</v>
+      </c>
+      <c r="C38">
+        <v>69251.38</v>
+      </c>
+      <c r="D38">
+        <v>71203.61</v>
+      </c>
+      <c r="G38">
+        <v>1015.76</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4265568838433895</v>
+      </c>
+      <c r="J38" s="1">
+        <v>251400.16</v>
+      </c>
+      <c r="K38">
+        <v>220808.3</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2923.8</v>
+      </c>
+      <c r="M38" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3241350076061456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="6"/>
+      <c r="B39">
+        <f>SUM(B34:B38)/5</f>
+        <v>81434.037999999986</v>
+      </c>
+      <c r="C39">
+        <f>SUM(C34:C38)/5</f>
+        <v>71734.237999999998</v>
+      </c>
+      <c r="D39">
+        <f>SUM(D34:D38)/5</f>
+        <v>73073.698000000004</v>
+      </c>
+      <c r="F39">
+        <f>SUM(F34:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>SUM(G34:G38)</f>
+        <v>2431.96</v>
+      </c>
+      <c r="H39">
+        <f>SUM(H34:H38)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f>G39/D39*100</f>
+        <v>3.3280921406221977</v>
+      </c>
+      <c r="K39">
+        <f>SUM(K34:K38)/5</f>
+        <v>207761.16</v>
+      </c>
+      <c r="L39" s="1">
+        <f>SUM(L34:L38)</f>
+        <v>3651.6000000000004</v>
+      </c>
+      <c r="M39" s="5">
+        <f>L39/K39*100</f>
+        <v>1.7575951154681655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="6">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="6">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42">
+        <f>SUM(B2,B3,B4,B5,B6,B10,B11,B12,B13,B14,B18,B19,B20,B21,B22,B26,B27,B28,B29,B30,B34,B35,B36)/23</f>
+        <v>136296.40130434785</v>
+      </c>
+      <c r="C42">
+        <f>SUM(C2,C3,C4,C5,C6,C10,C11,C12,C13,C14,C18,C19,C20,C21,C22,C26,C27,C28,C29,C30,C34,C35,C36)/23</f>
+        <v>92815.037391304344</v>
+      </c>
+      <c r="D42">
+        <f>SUM(D2,D3,D4,D5,D6,D10,D11,D12,D13,D14,D18,D19,D20,D21,D22,D26,D27,D29,D28,D30,D34,D35,D36)/23</f>
+        <v>96627.344608695668</v>
+      </c>
+      <c r="G42">
+        <f>SUM(G2,G3,G4,G5,G6,G10,G11,G12,G13,G14,G18,G19,G20,G21,G22,G26,G27,G28,G29,G30,G34,G35,G36)</f>
+        <v>-7538.7100000000009</v>
+      </c>
+      <c r="H42">
+        <f>SUM(H37:H41)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <f>G42/D42*100</f>
+        <v>-7.80183914866846</v>
+      </c>
+      <c r="K42">
+        <f>SUM(K2,K3,K4,K5,K6,K10,K11,K12,K13,K14,K18,K19,K20,K21,K22,K26,K27,K28,K29,K30,K34,K35,K36)/23</f>
+        <v>105480.50869565218</v>
+      </c>
+      <c r="L42" s="1">
+        <f>SUM(L2,L3,L4,L5,L6,L10,L11,L12,L13,L14,L18,L19,L20,L21,L22,L26,L27,L28,L29,L30,L34,L35,L36)</f>
+        <v>-4965.0999999999995</v>
+      </c>
+      <c r="M42" s="5">
+        <f>L42/K42*100</f>
+        <v>-4.7071255736223581</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -2789,7 +3686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -3707,7 +4604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -4217,7 +5114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -4403,7 +5300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -4525,7 +5422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -4607,7 +5504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -4824,6 +5721,514 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="6">
+        <v>44348</v>
+      </c>
+      <c r="J2" s="1">
+        <v>369566.62</v>
+      </c>
+      <c r="K2" s="14">
+        <v>235801.1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2159.6</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6">
+        <v>44349</v>
+      </c>
+      <c r="J3" s="1">
+        <v>365120.57</v>
+      </c>
+      <c r="K3" s="14">
+        <v>296728</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-4436.1000000000004</v>
+      </c>
+      <c r="M3" s="5">
+        <v>-1.4950000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6">
+        <v>44350</v>
+      </c>
+      <c r="J4" s="1">
+        <v>363781.23</v>
+      </c>
+      <c r="K4" s="14">
+        <v>259382.2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1330.1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>-0.51280000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6">
+        <v>44351</v>
+      </c>
+      <c r="J5" s="1">
+        <v>366580.88</v>
+      </c>
+      <c r="K5" s="14">
+        <v>209187.4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2829.7</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1.3527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6">
+        <v>44354</v>
+      </c>
+      <c r="J6" s="1">
+        <v>418141.49</v>
+      </c>
+      <c r="K6" s="14">
+        <v>246536.6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1562.6</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.63380000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6">
+        <v>44355</v>
+      </c>
+      <c r="J7" s="1">
+        <v>414310.09</v>
+      </c>
+      <c r="K7" s="14">
+        <v>318721.40000000002</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-3812.1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>-1.1960999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6">
+        <v>44356</v>
+      </c>
+      <c r="J8" s="1">
+        <v>413741.94</v>
+      </c>
+      <c r="K8" s="14">
+        <v>324161.7</v>
+      </c>
+      <c r="L8" s="1">
+        <v>427.2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6">
+        <v>44357</v>
+      </c>
+      <c r="J9" s="1">
+        <v>417812.38</v>
+      </c>
+      <c r="K9" s="14">
+        <v>282917</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4087.1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1.4446000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6">
+        <v>44358</v>
+      </c>
+      <c r="J10" s="1">
+        <v>394905.9</v>
+      </c>
+      <c r="K10" s="14">
+        <v>322514</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-3902.2</v>
+      </c>
+      <c r="M10" s="5">
+        <v>-1.2099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6">
+        <v>44362</v>
+      </c>
+      <c r="J11" s="1">
+        <v>412797.08</v>
+      </c>
+      <c r="K11" s="14">
+        <v>329797.90000000002</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-2089.4</v>
+      </c>
+      <c r="M11" s="5">
+        <v>-0.63349999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="6">
+        <v>44363</v>
+      </c>
+      <c r="J12" s="1">
+        <v>400806.78</v>
+      </c>
+      <c r="K12" s="14">
+        <v>353970.5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-8960.5</v>
+      </c>
+      <c r="M12" s="5">
+        <v>-2.5314000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6">
+        <v>44364</v>
+      </c>
+      <c r="J13" s="1">
+        <v>408254.99</v>
+      </c>
+      <c r="K13" s="14">
+        <v>270435.7</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6487.1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2.3988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6">
+        <v>44365</v>
+      </c>
+      <c r="J14" s="1">
+        <v>412532.63</v>
+      </c>
+      <c r="K14" s="14">
+        <v>273539.59999999998</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2301.3000000000002</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.84130000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6">
+        <v>44368</v>
+      </c>
+      <c r="J15" s="1">
+        <v>412210.07</v>
+      </c>
+      <c r="K15">
+        <v>276387.59999999998</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-319.3</v>
+      </c>
+      <c r="M15">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6">
+        <v>44369</v>
+      </c>
+      <c r="J16" s="1">
+        <v>413594.91</v>
+      </c>
+      <c r="K16">
+        <v>319069.5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1400.4</v>
+      </c>
+      <c r="M16">
+        <v>0.43890000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="6">
+        <v>44370</v>
+      </c>
+      <c r="J17" s="1">
+        <v>416573.23</v>
+      </c>
+      <c r="K17">
+        <v>244798.4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3015</v>
+      </c>
+      <c r="M17">
+        <v>1.2316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="6">
+        <v>44371</v>
+      </c>
+      <c r="J18" s="1">
+        <v>413177.05</v>
+      </c>
+      <c r="K18">
+        <v>315915.2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-3368.2</v>
+      </c>
+      <c r="M18">
+        <v>-1.0662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6">
+        <v>44372</v>
+      </c>
+      <c r="J19" s="1">
+        <v>412872.75</v>
+      </c>
+      <c r="K19">
+        <v>319013.59999999998</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5398.4</v>
+      </c>
+      <c r="M19">
+        <v>1.6921999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="6">
+        <v>44375</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="1"/>
+      <c r="I20"/>
+      <c r="J20" s="1">
+        <v>421680.23</v>
+      </c>
+      <c r="K20">
+        <v>235082.9</v>
+      </c>
+      <c r="L20">
+        <v>3167.1</v>
+      </c>
+      <c r="M20">
+        <v>1.3472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6">
+        <v>44376</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1"/>
+      <c r="I21"/>
+      <c r="J21" s="1">
+        <v>420854.97</v>
+      </c>
+      <c r="K21">
+        <v>334427.98</v>
+      </c>
+      <c r="L21">
+        <v>-777.6</v>
+      </c>
+      <c r="M21">
+        <v>-0.23250000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="6">
+        <v>44377</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1"/>
+      <c r="I22"/>
+      <c r="J22" s="1">
+        <v>424153.89</v>
+      </c>
+      <c r="K22">
+        <v>281291</v>
+      </c>
+      <c r="L22">
+        <v>3372.42</v>
+      </c>
+      <c r="M22">
+        <v>1.1989000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6"/>
+      <c r="B23">
+        <f>SUM(B6:B10)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F6:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G6:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H6:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <f>AVERAGE(J2:J22)</f>
+        <v>404450.93714285712</v>
+      </c>
+      <c r="K23" s="1">
+        <f>AVERAGE(K2:K22)</f>
+        <v>288079.96571428579</v>
+      </c>
+      <c r="L23" s="1">
+        <f>SUM(L1:L22)</f>
+        <v>7212.42</v>
+      </c>
+      <c r="M23" s="5">
+        <f>L23/K23*100</f>
+        <v>2.5036173487861317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="L25">
+        <v>6522.77</v>
+      </c>
+      <c r="M25" s="1">
+        <f>AVERAGE(L25,L26,L27)</f>
+        <v>10335.52</v>
+      </c>
+      <c r="N25" s="1">
+        <f>AVERAGE(L25:L30)</f>
+        <v>3917.4199999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="L26">
+        <v>16134.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="L27">
+        <v>8349.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="L28" s="1">
+        <v>-11625.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="L29" s="1">
+        <v>-2946.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="L30" s="1">
+        <v>7069.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -4964,12 +6369,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J7" sqref="J7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5130,7 +6535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -5279,7 +6684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -5445,7 +6850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -5645,7 +7050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -6514,7 +7919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -7606,1182 +9011,4 @@
     <ignoredError sqref="G12" formula="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:M42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44256</v>
-      </c>
-      <c r="B2">
-        <v>235270.13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>144481.22</v>
-      </c>
-      <c r="D2" s="2">
-        <v>141884.51999999999</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2">
-        <v>2258.36</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:I6" si="0">G2/D2*100</f>
-        <v>1.5916887902922745</v>
-      </c>
-      <c r="K2">
-        <v>2744</v>
-      </c>
-      <c r="L2" s="1">
-        <v>85</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ref="M2:M7" si="1">L2/K2*100</f>
-        <v>3.0976676384839652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44257</v>
-      </c>
-      <c r="B3">
-        <v>233987.04</v>
-      </c>
-      <c r="C3">
-        <v>141545.63</v>
-      </c>
-      <c r="D3">
-        <v>144481.22</v>
-      </c>
-      <c r="G3">
-        <v>-1288.79</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.89201212448233747</v>
-      </c>
-      <c r="K3">
-        <v>9534.1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-53.55</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.56166811759893431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44258</v>
-      </c>
-      <c r="B4">
-        <v>235334.7</v>
-      </c>
-      <c r="C4">
-        <v>121781.53</v>
-      </c>
-      <c r="D4">
-        <v>141545.63</v>
-      </c>
-      <c r="G4">
-        <v>1341.73</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>0.94791340432057136</v>
-      </c>
-      <c r="K4">
-        <v>10594.1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>185.88</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7545615012129392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44259</v>
-      </c>
-      <c r="B5">
-        <v>231718.48</v>
-      </c>
-      <c r="C5">
-        <v>107799.67</v>
-      </c>
-      <c r="D5">
-        <v>121781.53</v>
-      </c>
-      <c r="G5">
-        <v>-3623.24</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.9751966492784248</v>
-      </c>
-      <c r="K5">
-        <v>33814.300000000003</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-334.41</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.98896029194748958</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44260</v>
-      </c>
-      <c r="B6">
-        <v>181291.19</v>
-      </c>
-      <c r="C6">
-        <v>107364.03</v>
-      </c>
-      <c r="D6">
-        <v>107799.67</v>
-      </c>
-      <c r="G6">
-        <v>-429.84</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.39873962508419547</v>
-      </c>
-      <c r="K6">
-        <v>41238.300000000003</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-420.61</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.0199499009416004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6"/>
-      <c r="B7">
-        <f>SUM(B2:B6)/5</f>
-        <v>223520.30800000002</v>
-      </c>
-      <c r="C7">
-        <f>SUM(C2:C6)/5</f>
-        <v>124594.416</v>
-      </c>
-      <c r="D7">
-        <f>SUM(D2:D6)/5</f>
-        <v>131498.51400000002</v>
-      </c>
-      <c r="F7">
-        <f>SUM(F2:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>SUM(G2:G6)</f>
-        <v>-1741.7799999999995</v>
-      </c>
-      <c r="H7">
-        <f>SUM(H2:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" ref="I7" si="2">G7/D7*100</f>
-        <v>-1.3245624965769569</v>
-      </c>
-      <c r="K7">
-        <f>SUM(K2:K6)/5</f>
-        <v>19584.96</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L2:L6)</f>
-        <v>-537.69000000000005</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.7454230184794866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6">
-        <v>44261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6">
-        <v>44263</v>
-      </c>
-      <c r="B10">
-        <v>177449.31</v>
-      </c>
-      <c r="C10">
-        <v>102570.05</v>
-      </c>
-      <c r="D10">
-        <v>124594.416</v>
-      </c>
-      <c r="G10">
-        <v>-3857.44</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" ref="I10:I15" si="3">G10/D10*100</f>
-        <v>-3.0959974963886023</v>
-      </c>
-      <c r="K10">
-        <v>57983.3</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-537.69000000000005</v>
-      </c>
-      <c r="M10" s="5">
-        <f>L10/K10*100</f>
-        <v>-0.92731872797857318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6">
-        <v>44264</v>
-      </c>
-      <c r="B11">
-        <v>174553.39</v>
-      </c>
-      <c r="C11">
-        <v>99669.3</v>
-      </c>
-      <c r="D11">
-        <v>102570.05</v>
-      </c>
-      <c r="G11">
-        <v>-2900.76</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.8280770068845635</v>
-      </c>
-      <c r="K11">
-        <v>65921</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-1745.37</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" ref="M11:M14" si="4">L11/K11*100</f>
-        <v>-2.6476691797757921</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6">
-        <v>44265</v>
-      </c>
-      <c r="B12">
-        <v>145172.67000000001</v>
-      </c>
-      <c r="C12">
-        <v>85578.68</v>
-      </c>
-      <c r="D12">
-        <v>99669.3</v>
-      </c>
-      <c r="G12">
-        <v>610.9</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="3"/>
-        <v>0.61292694942173764</v>
-      </c>
-      <c r="K12">
-        <v>65921</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-1047.8</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.5894783149527463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6">
-        <v>44266</v>
-      </c>
-      <c r="B13">
-        <v>147127.25</v>
-      </c>
-      <c r="C13">
-        <v>87730.34</v>
-      </c>
-      <c r="D13">
-        <v>85578.68</v>
-      </c>
-      <c r="G13">
-        <v>1951.65</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="3"/>
-        <v>2.2805329551706106</v>
-      </c>
-      <c r="K13">
-        <v>78588.2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>240.1</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="4"/>
-        <v>0.30551660427392408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6">
-        <v>44267</v>
-      </c>
-      <c r="B14">
-        <v>147127.25</v>
-      </c>
-      <c r="C14">
-        <v>87730.34</v>
-      </c>
-      <c r="D14">
-        <v>87730.34</v>
-      </c>
-      <c r="G14">
-        <v>300.25</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34224191995608361</v>
-      </c>
-      <c r="K14">
-        <v>93784.2</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1503.02</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6026366914682857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6"/>
-      <c r="B15">
-        <f>SUM(B10:B14)/5</f>
-        <v>158285.97399999999</v>
-      </c>
-      <c r="C15">
-        <f>SUM(C10:C14)/5</f>
-        <v>92655.741999999998</v>
-      </c>
-      <c r="D15">
-        <f>SUM(D10:D14)/5</f>
-        <v>100028.5572</v>
-      </c>
-      <c r="F15">
-        <f>SUM(F10:F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f>SUM(G10:G14)</f>
-        <v>-3895.4000000000015</v>
-      </c>
-      <c r="H15">
-        <f>SUM(H10:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="3"/>
-        <v>-3.8942879004157041</v>
-      </c>
-      <c r="K15">
-        <f>SUM(K10:K14)/5</f>
-        <v>72439.540000000008</v>
-      </c>
-      <c r="L15" s="1">
-        <f>SUM(L10:L14)</f>
-        <v>-1587.7399999999998</v>
-      </c>
-      <c r="M15" s="5">
-        <f>L15/K15*100</f>
-        <v>-2.1918140286368462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6">
-        <v>44268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6">
-        <v>44270</v>
-      </c>
-      <c r="B18">
-        <v>100575.5</v>
-      </c>
-      <c r="C18">
-        <v>86168.59</v>
-      </c>
-      <c r="D18">
-        <v>86168.59</v>
-      </c>
-      <c r="G18">
-        <v>-2337.02</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" ref="I18" si="5">G18/D18*100</f>
-        <v>-2.7121483593963882</v>
-      </c>
-      <c r="K18">
-        <v>108354.3</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-1861.58</v>
-      </c>
-      <c r="M18" s="5">
-        <f t="shared" ref="M18:M23" si="6">L18/K18*100</f>
-        <v>-1.7180490298954447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44271</v>
-      </c>
-      <c r="B19">
-        <v>100575.5</v>
-      </c>
-      <c r="C19">
-        <v>86168.59</v>
-      </c>
-      <c r="D19">
-        <v>86168.59</v>
-      </c>
-      <c r="G19">
-        <v>482.95</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" ref="I19:I23" si="7">G19/D19*100</f>
-        <v>0.56047104867330422</v>
-      </c>
-      <c r="K19">
-        <v>119793.70000000003</v>
-      </c>
-      <c r="L19" s="1">
-        <v>129.28</v>
-      </c>
-      <c r="M19" s="5">
-        <f t="shared" si="6"/>
-        <v>0.1079188638467632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>44272</v>
-      </c>
-      <c r="B20">
-        <v>101179.25</v>
-      </c>
-      <c r="C20">
-        <v>86771.38</v>
-      </c>
-      <c r="D20">
-        <v>86168.59</v>
-      </c>
-      <c r="G20">
-        <v>602.79</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="7"/>
-        <v>0.69954724801693979</v>
-      </c>
-      <c r="J20" s="1">
-        <v>158224.62</v>
-      </c>
-      <c r="K20">
-        <v>86816.8</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1098.74</v>
-      </c>
-      <c r="M20" s="5">
-        <f t="shared" si="6"/>
-        <v>1.2655845412408657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44273</v>
-      </c>
-      <c r="B21">
-        <v>101783.73</v>
-      </c>
-      <c r="C21">
-        <v>86483.12</v>
-      </c>
-      <c r="D21">
-        <v>86771.38</v>
-      </c>
-      <c r="G21">
-        <v>603.51</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="7"/>
-        <v>0.69551734684869593</v>
-      </c>
-      <c r="J21" s="1">
-        <v>159255.79999999999</v>
-      </c>
-      <c r="K21">
-        <v>95976.9</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1028.8499999999999</v>
-      </c>
-      <c r="M21" s="5">
-        <f t="shared" si="6"/>
-        <v>1.0719766943920881</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44274</v>
-      </c>
-      <c r="B22">
-        <v>100001.12</v>
-      </c>
-      <c r="C22">
-        <v>84699.42</v>
-      </c>
-      <c r="D22">
-        <v>86483.12</v>
-      </c>
-      <c r="G22">
-        <v>-1782.69</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.0613155492077531</v>
-      </c>
-      <c r="J22" s="1">
-        <v>156767.73000000001</v>
-      </c>
-      <c r="K22">
-        <v>143030.29999999999</v>
-      </c>
-      <c r="L22" s="1">
-        <v>-2493.06</v>
-      </c>
-      <c r="M22" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.7430292742167219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6"/>
-      <c r="B23">
-        <f>SUM(B18:B22)/5</f>
-        <v>100823.01999999999</v>
-      </c>
-      <c r="C23">
-        <f>SUM(C18:C22)/5</f>
-        <v>86058.22</v>
-      </c>
-      <c r="D23">
-        <f>SUM(D18:D22)/5</f>
-        <v>86352.054000000004</v>
-      </c>
-      <c r="F23">
-        <f>SUM(F18:F22)</f>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G18:G22)</f>
-        <v>-2430.46</v>
-      </c>
-      <c r="H23">
-        <f>SUM(H18:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.8145943117925136</v>
-      </c>
-      <c r="K23">
-        <f>SUM(K18:K22)/5</f>
-        <v>110794.4</v>
-      </c>
-      <c r="L23" s="1">
-        <f>SUM(L18:L22)</f>
-        <v>-2097.77</v>
-      </c>
-      <c r="M23" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.8933899186240462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6">
-        <v>44275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="6">
-        <v>44276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="6">
-        <v>44277</v>
-      </c>
-      <c r="B26">
-        <v>100750.93</v>
-      </c>
-      <c r="C26">
-        <v>85446.16</v>
-      </c>
-      <c r="D26">
-        <v>84699.42</v>
-      </c>
-      <c r="G26">
-        <v>825.3</v>
-      </c>
-      <c r="I26" s="5">
-        <f>G26/D26*100</f>
-        <v>0.97438683759581823</v>
-      </c>
-      <c r="J26" s="1">
-        <v>178921.15</v>
-      </c>
-      <c r="K26">
-        <v>139330.6</v>
-      </c>
-      <c r="L26" s="1">
-        <v>2167.1</v>
-      </c>
-      <c r="M26" s="5">
-        <f>L26/K26*100</f>
-        <v>1.5553654401832762</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="6">
-        <v>44278</v>
-      </c>
-      <c r="B27">
-        <v>100095.84</v>
-      </c>
-      <c r="C27">
-        <v>82616.759999999995</v>
-      </c>
-      <c r="D27">
-        <v>85446.16</v>
-      </c>
-      <c r="G27">
-        <v>-734.81</v>
-      </c>
-      <c r="I27" s="5">
-        <f>G27/D27*100</f>
-        <v>-0.85996842924246086</v>
-      </c>
-      <c r="J27" s="1">
-        <v>177161.7</v>
-      </c>
-      <c r="K27">
-        <v>170976.5</v>
-      </c>
-      <c r="L27" s="1">
-        <v>-1737.1</v>
-      </c>
-      <c r="M27" s="5">
-        <f>L27/K27*100</f>
-        <v>-1.015987577240147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="6">
-        <v>44279</v>
-      </c>
-      <c r="B28">
-        <v>98973.77</v>
-      </c>
-      <c r="C28">
-        <v>81493.539999999994</v>
-      </c>
-      <c r="D28">
-        <v>82616.759999999995</v>
-      </c>
-      <c r="G28">
-        <v>-1123.22</v>
-      </c>
-      <c r="I28" s="5">
-        <f>G28/D28*100</f>
-        <v>-1.3595546472652766</v>
-      </c>
-      <c r="J28" s="1">
-        <v>193698.86</v>
-      </c>
-      <c r="K28">
-        <v>168127.4</v>
-      </c>
-      <c r="L28" s="1">
-        <v>-3425.1</v>
-      </c>
-      <c r="M28" s="5">
-        <f>L28/K28*100</f>
-        <v>-2.037205119451083</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="6">
-        <v>44280</v>
-      </c>
-      <c r="B29">
-        <v>98987.89</v>
-      </c>
-      <c r="C29">
-        <v>74482.63</v>
-      </c>
-      <c r="D29">
-        <v>81493.539999999994</v>
-      </c>
-      <c r="G29">
-        <v>12.93</v>
-      </c>
-      <c r="I29" s="5">
-        <f>G29/D29*100</f>
-        <v>1.5866288297207362E-2</v>
-      </c>
-      <c r="J29" s="1">
-        <v>193558.2</v>
-      </c>
-      <c r="K29">
-        <v>171719</v>
-      </c>
-      <c r="L29" s="1">
-        <v>-105.7</v>
-      </c>
-      <c r="M29" s="5">
-        <f>L29/K29*100</f>
-        <v>-6.1554050512756309E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="6">
-        <v>44281</v>
-      </c>
-      <c r="B30">
-        <v>80455.62</v>
-      </c>
-      <c r="C30">
-        <v>75948.679999999993</v>
-      </c>
-      <c r="D30">
-        <v>74482.63</v>
-      </c>
-      <c r="G30">
-        <v>1466.05</v>
-      </c>
-      <c r="I30" s="5">
-        <f>G30/D30*100</f>
-        <v>1.9683112693523308</v>
-      </c>
-      <c r="J30" s="1">
-        <v>237818.16</v>
-      </c>
-      <c r="K30">
-        <v>164466.70000000001</v>
-      </c>
-      <c r="L30" s="1">
-        <v>4288.8999999999996</v>
-      </c>
-      <c r="M30" s="5">
-        <f>L30/K30*100</f>
-        <v>2.6077619360028499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="6"/>
-      <c r="B31">
-        <f>SUM(B26:B30)/5</f>
-        <v>95852.81</v>
-      </c>
-      <c r="C31">
-        <f>SUM(C26:C30)/5</f>
-        <v>79997.553999999989</v>
-      </c>
-      <c r="D31">
-        <f>SUM(D26:D30)/5</f>
-        <v>81747.702000000005</v>
-      </c>
-      <c r="F31">
-        <f>SUM(F26:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f>SUM(G26:G30)</f>
-        <v>446.24999999999989</v>
-      </c>
-      <c r="H31">
-        <f>SUM(H26:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" ref="I31" si="8">G31/D31*100</f>
-        <v>0.54588690456399602</v>
-      </c>
-      <c r="K31">
-        <f>SUM(K26:K30)/5</f>
-        <v>162924.03999999998</v>
-      </c>
-      <c r="L31" s="1">
-        <f>SUM(L26:L30)</f>
-        <v>1188.0999999999999</v>
-      </c>
-      <c r="M31" s="5">
-        <f t="shared" ref="M31" si="9">L31/K31*100</f>
-        <v>0.7292355382299629</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="6">
-        <v>44282</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="6">
-        <v>44283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="6">
-        <v>44284</v>
-      </c>
-      <c r="B34">
-        <v>80623.28</v>
-      </c>
-      <c r="C34">
-        <v>76115.47</v>
-      </c>
-      <c r="D34">
-        <v>75948.679999999993</v>
-      </c>
-      <c r="G34">
-        <v>166.78</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" ref="I34:I38" si="10">G34/D34*100</f>
-        <v>0.21959565327534331</v>
-      </c>
-      <c r="J34" s="1">
-        <v>236449.43</v>
-      </c>
-      <c r="K34">
-        <v>178111.2</v>
-      </c>
-      <c r="L34" s="1">
-        <v>-1355.5</v>
-      </c>
-      <c r="M34" s="5">
-        <f t="shared" ref="M34" si="11">L34/K34*100</f>
-        <v>-0.76104141682274884</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="6">
-        <v>44285</v>
-      </c>
-      <c r="B35">
-        <v>81243.5</v>
-      </c>
-      <c r="C35">
-        <v>72230.64</v>
-      </c>
-      <c r="D35">
-        <v>76115.47</v>
-      </c>
-      <c r="G35">
-        <v>619.82000000000005</v>
-      </c>
-      <c r="I35" s="5">
-        <f t="shared" si="10"/>
-        <v>0.81431540789277146</v>
-      </c>
-      <c r="J35" s="1">
-        <v>238006.58</v>
-      </c>
-      <c r="K35">
-        <v>196525.1</v>
-      </c>
-      <c r="L35" s="1">
-        <v>1573.9</v>
-      </c>
-      <c r="M35" s="5">
-        <f>L35/K35*100</f>
-        <v>0.80086462238156864</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="6">
-        <v>44286</v>
-      </c>
-      <c r="B36">
-        <v>80539.89</v>
-      </c>
-      <c r="C36">
-        <v>69870.09</v>
-      </c>
-      <c r="D36">
-        <v>72230.64</v>
-      </c>
-      <c r="G36">
-        <v>-703.92</v>
-      </c>
-      <c r="I36" s="5">
-        <f t="shared" si="10"/>
-        <v>-0.9745448745850791</v>
-      </c>
-      <c r="J36" s="1">
-        <v>235847.35</v>
-      </c>
-      <c r="K36">
-        <v>222700.7</v>
-      </c>
-      <c r="L36" s="1">
-        <v>-2148.4</v>
-      </c>
-      <c r="M36" s="5">
-        <f>L36/K36*100</f>
-        <v>-0.96470285005839673</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="6">
-        <v>44287</v>
-      </c>
-      <c r="B37">
-        <v>81873.73</v>
-      </c>
-      <c r="C37">
-        <v>71203.61</v>
-      </c>
-      <c r="D37">
-        <v>69870.09</v>
-      </c>
-      <c r="G37">
-        <v>1333.52</v>
-      </c>
-      <c r="I37" s="5">
-        <f t="shared" si="10"/>
-        <v>1.9085706058200296</v>
-      </c>
-      <c r="J37" s="1">
-        <v>248497.97</v>
-      </c>
-      <c r="K37">
-        <v>220660.5</v>
-      </c>
-      <c r="L37" s="1">
-        <v>2657.8</v>
-      </c>
-      <c r="M37" s="5">
-        <f t="shared" ref="M37:M38" si="12">L37/K37*100</f>
-        <v>1.2044747474060833</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="6">
-        <v>44288</v>
-      </c>
-      <c r="B38">
-        <v>82889.789999999994</v>
-      </c>
-      <c r="C38">
-        <v>69251.38</v>
-      </c>
-      <c r="D38">
-        <v>71203.61</v>
-      </c>
-      <c r="G38">
-        <v>1015.76</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="10"/>
-        <v>1.4265568838433895</v>
-      </c>
-      <c r="J38" s="1">
-        <v>251400.16</v>
-      </c>
-      <c r="K38">
-        <v>220808.3</v>
-      </c>
-      <c r="L38" s="1">
-        <v>2923.8</v>
-      </c>
-      <c r="M38" s="5">
-        <f t="shared" si="12"/>
-        <v>1.3241350076061456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="6"/>
-      <c r="B39">
-        <f>SUM(B34:B38)/5</f>
-        <v>81434.037999999986</v>
-      </c>
-      <c r="C39">
-        <f>SUM(C34:C38)/5</f>
-        <v>71734.237999999998</v>
-      </c>
-      <c r="D39">
-        <f>SUM(D34:D38)/5</f>
-        <v>73073.698000000004</v>
-      </c>
-      <c r="F39">
-        <f>SUM(F34:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f>SUM(G34:G38)</f>
-        <v>2431.96</v>
-      </c>
-      <c r="H39">
-        <f>SUM(H34:H38)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <f>G39/D39*100</f>
-        <v>3.3280921406221977</v>
-      </c>
-      <c r="K39">
-        <f>SUM(K34:K38)/5</f>
-        <v>207761.16</v>
-      </c>
-      <c r="L39" s="1">
-        <f>SUM(L34:L38)</f>
-        <v>3651.6000000000004</v>
-      </c>
-      <c r="M39" s="5">
-        <f>L39/K39*100</f>
-        <v>1.7575951154681655</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="6">
-        <v>44289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="6">
-        <v>44290</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="B42">
-        <f>SUM(B2,B3,B4,B5,B6,B10,B11,B12,B13,B14,B18,B19,B20,B21,B22,B26,B27,B28,B29,B30,B34,B35,B36)/23</f>
-        <v>136296.40130434785</v>
-      </c>
-      <c r="C42">
-        <f>SUM(C2,C3,C4,C5,C6,C10,C11,C12,C13,C14,C18,C19,C20,C21,C22,C26,C27,C28,C29,C30,C34,C35,C36)/23</f>
-        <v>92815.037391304344</v>
-      </c>
-      <c r="D42">
-        <f>SUM(D2,D3,D4,D5,D6,D10,D11,D12,D13,D14,D18,D19,D20,D21,D22,D26,D27,D29,D28,D30,D34,D35,D36)/23</f>
-        <v>96627.344608695668</v>
-      </c>
-      <c r="G42">
-        <f>SUM(G2,G3,G4,G5,G6,G10,G11,G12,G13,G14,G18,G19,G20,G21,G22,G26,G27,G28,G29,G30,G34,G35,G36)</f>
-        <v>-7538.7100000000009</v>
-      </c>
-      <c r="H42">
-        <f>SUM(H37:H41)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="5">
-        <f>G42/D42*100</f>
-        <v>-7.80183914866846</v>
-      </c>
-      <c r="K42">
-        <f>SUM(K2,K3,K4,K5,K6,K10,K11,K12,K13,K14,K18,K19,K20,K21,K22,K26,K27,K28,K29,K30,K34,K35,K36)/23</f>
-        <v>105480.50869565218</v>
-      </c>
-      <c r="L42" s="1">
-        <f>SUM(L2,L3,L4,L5,L6,L10,L11,L12,L13,L14,L18,L19,L20,L21,L22,L26,L27,L28,L29,L30,L34,L35,L36)</f>
-        <v>-4965.0999999999995</v>
-      </c>
-      <c r="M42" s="5">
-        <f>L42/K42*100</f>
-        <v>-4.7071255736223581</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,33 +4,37 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="71" sheetId="44" r:id="rId1"/>
-    <sheet name="6A" sheetId="40" r:id="rId2"/>
-    <sheet name="65" sheetId="43" r:id="rId3"/>
-    <sheet name="64" sheetId="42" r:id="rId4"/>
-    <sheet name="63" sheetId="41" r:id="rId5"/>
-    <sheet name="62" sheetId="39" r:id="rId6"/>
-    <sheet name="61" sheetId="38" r:id="rId7"/>
-    <sheet name="5" sheetId="37" r:id="rId8"/>
-    <sheet name="2104" sheetId="36" r:id="rId9"/>
-    <sheet name="2103" sheetId="33" r:id="rId10"/>
-    <sheet name="2102" sheetId="31" r:id="rId11"/>
-    <sheet name="2101" sheetId="26" r:id="rId12"/>
-    <sheet name="每月" sheetId="29" r:id="rId13"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId14"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId15"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId17"/>
+    <sheet name="7A" sheetId="48" r:id="rId1"/>
+    <sheet name="74" sheetId="47" r:id="rId2"/>
+    <sheet name="73" sheetId="46" r:id="rId3"/>
+    <sheet name="72" sheetId="45" r:id="rId4"/>
+    <sheet name="71" sheetId="44" r:id="rId5"/>
+    <sheet name="6A" sheetId="40" r:id="rId6"/>
+    <sheet name="65" sheetId="43" r:id="rId7"/>
+    <sheet name="64" sheetId="42" r:id="rId8"/>
+    <sheet name="63" sheetId="41" r:id="rId9"/>
+    <sheet name="62" sheetId="39" r:id="rId10"/>
+    <sheet name="61" sheetId="38" r:id="rId11"/>
+    <sheet name="5" sheetId="37" r:id="rId12"/>
+    <sheet name="2104" sheetId="36" r:id="rId13"/>
+    <sheet name="2103" sheetId="33" r:id="rId14"/>
+    <sheet name="2102" sheetId="31" r:id="rId15"/>
+    <sheet name="2101" sheetId="26" r:id="rId16"/>
+    <sheet name="每月" sheetId="29" r:id="rId17"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId18"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId19"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1736,10 +1740,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44378</v>
+      </c>
+      <c r="J2" s="1">
+        <v>400968.2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>221650.6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-3191.21</v>
+      </c>
+      <c r="M2" s="5">
+        <v>-1.4145000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44379</v>
+      </c>
+      <c r="J3" s="1">
+        <v>394703.57</v>
+      </c>
+      <c r="K3">
+        <v>282622.7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-6272.86</v>
+      </c>
+      <c r="M3">
+        <v>-2.2845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J4" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K4">
+        <v>190776</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M4">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J5" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K5">
+        <v>321998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M5">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J6" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K6">
+        <v>264214.08</v>
+      </c>
+      <c r="L6" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M6">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J7" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K7">
+        <v>298343.01</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M7">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J8" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K8">
+        <v>299620.11</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M8">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44389</v>
+      </c>
+      <c r="J9" s="1">
+        <v>399553.09</v>
+      </c>
+      <c r="K9">
+        <v>315114</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7444</v>
+      </c>
+      <c r="M9">
+        <v>2.3622999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44390</v>
+      </c>
+      <c r="J10" s="1">
+        <v>398533.05</v>
+      </c>
+      <c r="K10">
+        <v>266844</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-975</v>
+      </c>
+      <c r="M10">
+        <v>-0.3654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44391</v>
+      </c>
+      <c r="J11" s="1">
+        <v>395001.88</v>
+      </c>
+      <c r="K11">
+        <v>236228</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-3479</v>
+      </c>
+      <c r="M11">
+        <v>-1.4726999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44392</v>
+      </c>
+      <c r="J12" s="1">
+        <v>398680.85</v>
+      </c>
+      <c r="K12">
+        <v>178125</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3721</v>
+      </c>
+      <c r="M12">
+        <v>2.089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44393</v>
+      </c>
+      <c r="J13" s="1">
+        <v>215638.8</v>
+      </c>
+      <c r="K13">
+        <v>181630.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-6398</v>
+      </c>
+      <c r="M13">
+        <v>-3.5225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44396</v>
+      </c>
+      <c r="J14" s="1">
+        <v>391461.52</v>
+      </c>
+      <c r="K14">
+        <v>346936</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-735.7</v>
+      </c>
+      <c r="M14">
+        <v>-0.21210000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44397</v>
+      </c>
+      <c r="J15" s="1">
+        <v>381325.07</v>
+      </c>
+      <c r="K15">
+        <v>241558</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-86</v>
+      </c>
+      <c r="M15">
+        <v>-3.56E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44398</v>
+      </c>
+      <c r="J16" s="1">
+        <v>385281.95</v>
+      </c>
+      <c r="K16">
+        <v>248832</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3968</v>
+      </c>
+      <c r="M16">
+        <v>1.5947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44399</v>
+      </c>
+      <c r="J17" s="1">
+        <v>350182.62</v>
+      </c>
+      <c r="K17">
+        <v>260244.58</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1428</v>
+      </c>
+      <c r="M17">
+        <v>0.54869999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44400</v>
+      </c>
+      <c r="J18" s="1">
+        <v>321329.03999999998</v>
+      </c>
+      <c r="K18">
+        <v>291717.36</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-5033</v>
+      </c>
+      <c r="M18">
+        <v>-1.7253000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6"/>
+      <c r="B19">
+        <f>SUM(B2:B6)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>SUM(G2:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <f>AVERAGE(J2:J18)</f>
+        <v>375393.29705882352</v>
+      </c>
+      <c r="K19" s="1">
+        <f>AVERAGE(K2:K18)</f>
+        <v>261556.0905882353</v>
+      </c>
+      <c r="L19" s="1">
+        <f>SUM(L2:L18)</f>
+        <v>-1941.5699999999988</v>
+      </c>
+      <c r="M19" s="5">
+        <f>L19/K19*100</f>
+        <v>-0.74231496411857212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:M7"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1751,7 +2147,6 @@
     <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.08984375" customWidth="1"/>
     <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
     <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1792,120 +2187,107 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44375</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="1"/>
-      <c r="I2"/>
+        <v>44354</v>
+      </c>
       <c r="J2" s="1">
-        <v>421680.23</v>
+        <v>418141.49</v>
       </c>
       <c r="K2">
-        <v>235082.9</v>
-      </c>
-      <c r="L2">
-        <v>3167.1</v>
+        <v>246536.6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1562.6</v>
       </c>
       <c r="M2">
-        <v>1.3472</v>
+        <v>0.63380000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44376</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="1"/>
-      <c r="I3"/>
+        <v>44355</v>
+      </c>
       <c r="J3" s="1">
-        <v>420854.97</v>
+        <v>414310.09</v>
       </c>
       <c r="K3">
-        <v>334427.98</v>
-      </c>
-      <c r="L3">
-        <v>-777.6</v>
+        <v>318721.40000000002</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-3812.1</v>
       </c>
       <c r="M3">
-        <v>-0.23250000000000001</v>
+        <v>-1.1960999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44377</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="1"/>
-      <c r="I4"/>
+        <v>44356</v>
+      </c>
       <c r="J4" s="1">
-        <v>424153.89</v>
+        <v>413741.94</v>
       </c>
       <c r="K4">
-        <v>281291</v>
-      </c>
-      <c r="L4">
-        <v>3372.42</v>
+        <v>324161.7</v>
+      </c>
+      <c r="L4" s="1">
+        <v>427.2</v>
       </c>
       <c r="M4">
-        <v>1.1989000000000001</v>
+        <v>0.1318</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44378</v>
+        <v>44357</v>
       </c>
       <c r="J5" s="1">
-        <v>400968.2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>221650.6</v>
+        <v>417812.38</v>
+      </c>
+      <c r="K5">
+        <v>282917</v>
       </c>
       <c r="L5" s="1">
-        <v>-3191.21</v>
-      </c>
-      <c r="M5" s="5">
-        <v>-1.4145000000000001</v>
+        <v>4087.1</v>
+      </c>
+      <c r="M5">
+        <v>1.4446000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44379</v>
+        <v>44358</v>
       </c>
       <c r="J6" s="1">
-        <v>394703.57</v>
+        <v>394905.9</v>
       </c>
       <c r="K6">
-        <v>282622.7</v>
+        <v>322514</v>
       </c>
       <c r="L6" s="1">
-        <v>-6272.86</v>
+        <v>-3902.2</v>
       </c>
       <c r="M6">
-        <v>-2.2845</v>
+        <v>-1.2099</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="6"/>
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>412472.17199999996</v>
+        <v>411782.36</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>271015.03599999996</v>
+        <v>298970.14</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-3702.1499999999996</v>
+        <v>-1637.3999999999996</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-1.3660312190206303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6"/>
+        <v>-0.54768011280323836</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
@@ -1914,7 +2296,2170 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="6">
+        <v>44347</v>
+      </c>
+      <c r="C2">
+        <v>20384.36</v>
+      </c>
+      <c r="D2">
+        <v>20252.02</v>
+      </c>
+      <c r="G2">
+        <v>132.34</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="J2" s="1">
+        <v>367430.22</v>
+      </c>
+      <c r="K2">
+        <v>200865</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3330.1</v>
+      </c>
+      <c r="M2">
+        <v>1.6578999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6">
+        <v>44348</v>
+      </c>
+      <c r="J3" s="1">
+        <v>369566.62</v>
+      </c>
+      <c r="K3">
+        <v>235801.1</v>
+      </c>
+      <c r="L3">
+        <v>2159.6</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6">
+        <v>44349</v>
+      </c>
+      <c r="J4" s="1">
+        <v>365120.57</v>
+      </c>
+      <c r="K4">
+        <v>296728</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-4436.1000000000004</v>
+      </c>
+      <c r="M4">
+        <v>-1.4950000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6">
+        <v>44350</v>
+      </c>
+      <c r="J5" s="1">
+        <v>363781.23</v>
+      </c>
+      <c r="K5">
+        <v>259382.2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1330.1</v>
+      </c>
+      <c r="M5">
+        <v>-0.51280000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6">
+        <v>44351</v>
+      </c>
+      <c r="J6" s="1">
+        <v>366580.88</v>
+      </c>
+      <c r="K6">
+        <v>209187.4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2829.7</v>
+      </c>
+      <c r="M6">
+        <v>1.3527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6"/>
+      <c r="B7">
+        <f>SUM(B2:B6)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>132.34</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>SUM(J2:J6)/5</f>
+        <v>366495.90399999998</v>
+      </c>
+      <c r="K7">
+        <f>SUM(K2:K6)/5</f>
+        <v>240392.74</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L2:L6)</f>
+        <v>2553.1999999999994</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>1.062095302878115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="6">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6">
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6">
+        <v>44319</v>
+      </c>
+      <c r="J4"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6">
+        <v>44322</v>
+      </c>
+      <c r="C8">
+        <v>52744.99</v>
+      </c>
+      <c r="D8">
+        <v>53141.46</v>
+      </c>
+      <c r="G8">
+        <v>-396.48</v>
+      </c>
+      <c r="I8" s="5">
+        <v>-0.74609999999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>270816.58</v>
+      </c>
+      <c r="K8">
+        <v>211425.9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1195.3</v>
+      </c>
+      <c r="M8">
+        <v>-0.56540000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6">
+        <v>44323</v>
+      </c>
+      <c r="C9">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="D9">
+        <v>52744.99</v>
+      </c>
+      <c r="G9">
+        <v>-839.05</v>
+      </c>
+      <c r="I9" s="5">
+        <v>-1.5908</v>
+      </c>
+      <c r="J9" s="1">
+        <v>269379.71999999997</v>
+      </c>
+      <c r="K9">
+        <v>229187</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1411.4</v>
+      </c>
+      <c r="M9" s="5">
+        <v>-0.61580000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6"/>
+      <c r="C10">
+        <f>SUM(C6:C9)/2</f>
+        <v>52299.455000000002</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D6:D9)/2</f>
+        <v>52943.224999999999</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G6:G9)</f>
+        <v>-1235.53</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H8:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f>G10/D10*100</f>
+        <v>-2.3336885881054656</v>
+      </c>
+      <c r="J10">
+        <f>SUM(J6:J9)/2</f>
+        <v>270098.15000000002</v>
+      </c>
+      <c r="K10">
+        <f>SUM(K6:K9)/2</f>
+        <v>220306.45</v>
+      </c>
+      <c r="L10" s="1">
+        <f>SUM(L6:L9)</f>
+        <v>-2606.6999999999998</v>
+      </c>
+      <c r="M10" s="5">
+        <f>L10/K10*100</f>
+        <v>-1.1832154709950615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="6">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6">
+        <v>44326</v>
+      </c>
+      <c r="C13">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="D13">
+        <v>51599.76</v>
+      </c>
+      <c r="G13">
+        <v>-254.17</v>
+      </c>
+      <c r="I13" s="5">
+        <v>-0.49259999999999998</v>
+      </c>
+      <c r="J13" s="1">
+        <v>279653.94</v>
+      </c>
+      <c r="K13">
+        <v>230066.8</v>
+      </c>
+      <c r="L13" s="1">
+        <v>286.8</v>
+      </c>
+      <c r="M13">
+        <v>0.12470000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6">
+        <v>44327</v>
+      </c>
+      <c r="C14">
+        <v>46231.79</v>
+      </c>
+      <c r="D14">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="G14">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.1497</v>
+      </c>
+      <c r="J14">
+        <v>280255.06</v>
+      </c>
+      <c r="K14">
+        <v>237959.7</v>
+      </c>
+      <c r="L14" s="1">
+        <v>656.7</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6">
+        <v>44328</v>
+      </c>
+      <c r="C15">
+        <v>46542.3</v>
+      </c>
+      <c r="D15">
+        <v>46231.79</v>
+      </c>
+      <c r="G15">
+        <v>310.5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="J15" s="1">
+        <v>281489.68</v>
+      </c>
+      <c r="K15">
+        <v>245088.3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1235.0999999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.50390000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6">
+        <v>44329</v>
+      </c>
+      <c r="C16">
+        <v>45103.88</v>
+      </c>
+      <c r="D16">
+        <v>46542.3</v>
+      </c>
+      <c r="G16">
+        <v>-427.94</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-0.91949999999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>278597.86</v>
+      </c>
+      <c r="K16">
+        <v>235865.5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-2882.8</v>
+      </c>
+      <c r="M16" s="5">
+        <v>-1.2222</v>
+      </c>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44330</v>
+      </c>
+      <c r="C17">
+        <v>45914.8</v>
+      </c>
+      <c r="D17">
+        <v>45103.88</v>
+      </c>
+      <c r="G17">
+        <v>810.92</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1.7979000000000001</v>
+      </c>
+      <c r="J17" s="1">
+        <v>297075.5</v>
+      </c>
+      <c r="K17">
+        <v>254312.9</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4993</v>
+      </c>
+      <c r="M17">
+        <v>1.9633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6"/>
+      <c r="B18">
+        <f>SUM(B13:B17)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C13:C17)/5</f>
+        <v>47129.338000000003</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D13:D17)/5</f>
+        <v>48266.33</v>
+      </c>
+      <c r="F18">
+        <f>SUM(F13:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G13:G17)</f>
+        <v>516.96</v>
+      </c>
+      <c r="H18">
+        <f>SUM(H16:H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f>G18/D18*100</f>
+        <v>1.0710571945287741</v>
+      </c>
+      <c r="J18">
+        <f>SUM(J13:J17)/5</f>
+        <v>283414.408</v>
+      </c>
+      <c r="K18">
+        <f>SUM(K13:K17)/5</f>
+        <v>240658.63999999998</v>
+      </c>
+      <c r="L18" s="1">
+        <f>SUM(L13:L17)</f>
+        <v>4288.7999999999993</v>
+      </c>
+      <c r="M18" s="5">
+        <f>L18/K18*100</f>
+        <v>1.7821092980497186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44333</v>
+      </c>
+      <c r="C21">
+        <v>46705.27</v>
+      </c>
+      <c r="D21">
+        <v>45914.8</v>
+      </c>
+      <c r="G21">
+        <v>713.61</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1.5542</v>
+      </c>
+      <c r="J21" s="1">
+        <v>287180.42</v>
+      </c>
+      <c r="K21">
+        <v>223809.4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3361.6</v>
+      </c>
+      <c r="M21">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44334</v>
+      </c>
+      <c r="C22">
+        <v>42036.67</v>
+      </c>
+      <c r="D22">
+        <v>46705.27</v>
+      </c>
+      <c r="G22">
+        <v>-35.5</v>
+      </c>
+      <c r="I22" s="5">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>287508.09000000003</v>
+      </c>
+      <c r="K22">
+        <v>209781.2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>345.8</v>
+      </c>
+      <c r="M22">
+        <v>0.1648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44335</v>
+      </c>
+      <c r="C23">
+        <v>41928.78</v>
+      </c>
+      <c r="D23">
+        <v>42036.67</v>
+      </c>
+      <c r="G23">
+        <v>-107.89</v>
+      </c>
+      <c r="I23" s="5">
+        <v>-0.25669999999999998</v>
+      </c>
+      <c r="J23" s="1">
+        <v>286918.05</v>
+      </c>
+      <c r="K23">
+        <v>187404.9</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-576.79999999999995</v>
+      </c>
+      <c r="M23">
+        <v>-0.30780000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6">
+        <v>44336</v>
+      </c>
+      <c r="C24">
+        <v>41986.080000000002</v>
+      </c>
+      <c r="D24">
+        <v>41928.78</v>
+      </c>
+      <c r="G24">
+        <v>57.29</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.1366</v>
+      </c>
+      <c r="J24" s="1">
+        <v>287399.69</v>
+      </c>
+      <c r="K24">
+        <v>209008.7</v>
+      </c>
+      <c r="L24" s="1">
+        <v>494.8</v>
+      </c>
+      <c r="M24">
+        <v>0.23669999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6">
+        <v>44337</v>
+      </c>
+      <c r="C25">
+        <v>41495.85</v>
+      </c>
+      <c r="D25">
+        <v>41986.080000000002</v>
+      </c>
+      <c r="G25">
+        <v>-490.23</v>
+      </c>
+      <c r="I25" s="5">
+        <v>-1.1676</v>
+      </c>
+      <c r="J25" s="1">
+        <v>286188.42</v>
+      </c>
+      <c r="K25">
+        <v>250057.5</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-1197.8</v>
+      </c>
+      <c r="M25">
+        <v>-0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6"/>
+      <c r="B26">
+        <f>SUM(B21:B25)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C21:C25)/5</f>
+        <v>42830.53</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D21:D25)/5</f>
+        <v>43714.319999999992</v>
+      </c>
+      <c r="F26">
+        <f>SUM(F21:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>SUM(G21:G25)</f>
+        <v>137.27999999999997</v>
+      </c>
+      <c r="H26">
+        <f>SUM(H24:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f>G26/D26*100</f>
+        <v>0.31403896938120046</v>
+      </c>
+      <c r="J26">
+        <f>SUM(J21:J25)/5</f>
+        <v>287038.93400000001</v>
+      </c>
+      <c r="K26">
+        <f>SUM(K21:K25)/5</f>
+        <v>216012.34</v>
+      </c>
+      <c r="L26" s="1">
+        <f>SUM(L21:L25)</f>
+        <v>2427.6000000000004</v>
+      </c>
+      <c r="M26" s="5">
+        <f>L26/K26*100</f>
+        <v>1.1238246852008549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="6">
+        <v>44340</v>
+      </c>
+      <c r="C29">
+        <v>41767.35</v>
+      </c>
+      <c r="D29">
+        <v>41495.85</v>
+      </c>
+      <c r="G29">
+        <v>271.49</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>288233.01</v>
+      </c>
+      <c r="K29">
+        <v>218947.20000000001</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2057.6</v>
+      </c>
+      <c r="M29">
+        <v>0.93979999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6">
+        <v>44341</v>
+      </c>
+      <c r="C30">
+        <v>43060.94</v>
+      </c>
+      <c r="D30">
+        <v>41495.85</v>
+      </c>
+      <c r="G30">
+        <v>1294.31</v>
+      </c>
+      <c r="I30" s="5">
+        <v>3.1191</v>
+      </c>
+      <c r="J30" s="1">
+        <v>292592.21000000002</v>
+      </c>
+      <c r="K30">
+        <v>132408.4</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4431.1000000000004</v>
+      </c>
+      <c r="M30">
+        <v>3.3464999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6">
+        <v>44342</v>
+      </c>
+      <c r="C31">
+        <v>20204.55</v>
+      </c>
+      <c r="D31">
+        <v>43060.94</v>
+      </c>
+      <c r="G31">
+        <v>-115.24</v>
+      </c>
+      <c r="I31" s="5">
+        <v>-0.2676</v>
+      </c>
+      <c r="J31" s="1">
+        <v>292136.73</v>
+      </c>
+      <c r="K31">
+        <v>188449.3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-438</v>
+      </c>
+      <c r="M31">
+        <v>-0.2324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6">
+        <v>44343</v>
+      </c>
+      <c r="C32">
+        <v>20341.8</v>
+      </c>
+      <c r="D32">
+        <v>20204.55</v>
+      </c>
+      <c r="G32">
+        <v>139.37</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.68979999999999997</v>
+      </c>
+      <c r="J32" s="1">
+        <v>314726.03000000003</v>
+      </c>
+      <c r="K32">
+        <v>183115.3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2628.9</v>
+      </c>
+      <c r="M32">
+        <v>1.4357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6">
+        <v>44344</v>
+      </c>
+      <c r="C33">
+        <v>20252.02</v>
+      </c>
+      <c r="D33">
+        <v>20341.8</v>
+      </c>
+      <c r="G33">
+        <v>-89.79</v>
+      </c>
+      <c r="I33" s="5">
+        <v>-0.44140000000000001</v>
+      </c>
+      <c r="J33" s="1">
+        <v>314122.90999999997</v>
+      </c>
+      <c r="K33">
+        <v>251310.4</v>
+      </c>
+      <c r="L33" s="1">
+        <v>-585.9</v>
+      </c>
+      <c r="M33">
+        <v>-0.2331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6"/>
+      <c r="B34">
+        <f>SUM(B29:B33)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C29:C33)/5</f>
+        <v>29125.332000000002</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D29:D33)/5</f>
+        <v>33319.797999999995</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F29:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G29:G33)</f>
+        <v>1500.1399999999999</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H32:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f>G34/D34*100</f>
+        <v>4.5022481828971479</v>
+      </c>
+      <c r="J34">
+        <f>SUM(J29:J33)/5</f>
+        <v>300362.17799999996</v>
+      </c>
+      <c r="K34">
+        <f>SUM(K29:K33)/5</f>
+        <v>194846.12</v>
+      </c>
+      <c r="L34" s="1">
+        <f>SUM(L29:L33)</f>
+        <v>8093.7000000000007</v>
+      </c>
+      <c r="M34" s="5">
+        <f>L34/K34*100</f>
+        <v>4.1538933390102919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="6">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="6">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="6">
+        <v>44347</v>
+      </c>
+      <c r="C37">
+        <v>20384.36</v>
+      </c>
+      <c r="D37">
+        <v>20252.02</v>
+      </c>
+      <c r="G37">
+        <v>132.34</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="J37" s="1">
+        <v>367430.22</v>
+      </c>
+      <c r="K37">
+        <v>200865</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3330.1</v>
+      </c>
+      <c r="M37">
+        <v>1.6578999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="6"/>
+      <c r="C38">
+        <f>SUM(C8,C9,C13,C14,C15,C16,C17,C21,C22,C23,C24,C25,C29,C30,C31,C32,C33,C37)/17</f>
+        <v>42377.015882352949</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D8,D9,D13,D14,D15,D16,D17,D21,D22,D23,D24,D25,D29,D30,D31,D32,D33,D37)/17</f>
+        <v>44272.982941176466</v>
+      </c>
+      <c r="G38">
+        <f>SUM(G8,G9,G13,G14,G15,G16,G17,G21,G22,G23,G24,G25,G29,G30,G31,G32,G33,G37)</f>
+        <v>1051.1899999999998</v>
+      </c>
+      <c r="I38" s="5">
+        <f>G38/D38*100</f>
+        <v>2.3743374179161796</v>
+      </c>
+      <c r="K38">
+        <f>SUM(K8,K9,K13,K14,K15,K16,K17,K21,K22,K23,K24,K25,K29,K30,K31,K32,K33,K37)/18</f>
+        <v>216614.6333333333</v>
+      </c>
+      <c r="L38">
+        <f>SUM(L8,L9,L13,L14,L15,L16,L17,L21,L22,L23,L24,L25,L29,L30,L31,L32,L33,L37)</f>
+        <v>15533.500000000002</v>
+      </c>
+      <c r="M38" s="5">
+        <f>L38/K38*100</f>
+        <v>7.1710298427053036</v>
+      </c>
+      <c r="N38" s="12">
+        <f>G38+L38</f>
+        <v>16584.690000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44287</v>
+      </c>
+      <c r="B2">
+        <v>81873.73</v>
+      </c>
+      <c r="C2">
+        <v>71203.61</v>
+      </c>
+      <c r="D2">
+        <v>69870.09</v>
+      </c>
+      <c r="G2">
+        <v>1333.52</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I3" si="0">G2/D2*100</f>
+        <v>1.9085706058200296</v>
+      </c>
+      <c r="J2" s="1">
+        <v>248497.97</v>
+      </c>
+      <c r="K2">
+        <v>220660.5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2657.8</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ref="M2:M3" si="1">L2/K2*100</f>
+        <v>1.2044747474060833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44288</v>
+      </c>
+      <c r="B3">
+        <v>82889.789999999994</v>
+      </c>
+      <c r="C3">
+        <v>69251.38</v>
+      </c>
+      <c r="D3">
+        <v>71203.61</v>
+      </c>
+      <c r="G3">
+        <v>1015.76</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4265568838433895</v>
+      </c>
+      <c r="J3" s="1">
+        <v>251400.16</v>
+      </c>
+      <c r="K3">
+        <v>220808.3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2923.8</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3241350076061456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6"/>
+      <c r="B4">
+        <f>SUM(B2:B3)/2</f>
+        <v>82381.759999999995</v>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)/2</f>
+        <v>70227.494999999995</v>
+      </c>
+      <c r="D4">
+        <f>SUM(D2:D3)/2</f>
+        <v>70536.850000000006</v>
+      </c>
+      <c r="F4">
+        <f>SUM(F2:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>SUM(G2:G3)</f>
+        <v>2349.2799999999997</v>
+      </c>
+      <c r="H4">
+        <f>SUM(H2:H3)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f>G4/D4*100</f>
+        <v>3.330571183714611</v>
+      </c>
+      <c r="J4">
+        <f>SUM(J2,J3)/2</f>
+        <v>249949.065</v>
+      </c>
+      <c r="K4">
+        <f>SUM(K2:K3)/2</f>
+        <v>220734.4</v>
+      </c>
+      <c r="L4" s="1">
+        <f>SUM(L2:L3)</f>
+        <v>5581.6</v>
+      </c>
+      <c r="M4" s="5">
+        <f>L4/K4*100</f>
+        <v>2.5286498162497555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44292</v>
+      </c>
+      <c r="B8">
+        <v>82754.09</v>
+      </c>
+      <c r="C8">
+        <v>69114.460000000006</v>
+      </c>
+      <c r="D8">
+        <v>69251.38</v>
+      </c>
+      <c r="G8">
+        <v>-136.91999999999999</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" ref="I8" si="2">G8/D8*100</f>
+        <v>-0.19771447153832888</v>
+      </c>
+      <c r="J8" s="1">
+        <v>249950.07999999999</v>
+      </c>
+      <c r="K8">
+        <v>218557.1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1445.6</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" ref="M8:M11" si="3">L8/K8*100</f>
+        <v>-0.66142898125935967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44293</v>
+      </c>
+      <c r="B9">
+        <v>82142.600000000006</v>
+      </c>
+      <c r="C9">
+        <v>68502.69</v>
+      </c>
+      <c r="D9">
+        <v>69114.460000000006</v>
+      </c>
+      <c r="G9">
+        <v>-611.78</v>
+      </c>
+      <c r="I9" s="5">
+        <v>-0.88519999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>250295.26</v>
+      </c>
+      <c r="K9">
+        <v>228939.5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>364.4</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15916868867102443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44294</v>
+      </c>
+      <c r="B10">
+        <v>72315.02</v>
+      </c>
+      <c r="C10">
+        <v>66789.38</v>
+      </c>
+      <c r="D10">
+        <v>68502.69</v>
+      </c>
+      <c r="G10">
+        <v>172.1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="J10" s="1">
+        <v>249841.05</v>
+      </c>
+      <c r="K10">
+        <v>241206.6</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-431.9</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.17905811864186136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44295</v>
+      </c>
+      <c r="B11">
+        <v>71418.84</v>
+      </c>
+      <c r="C11">
+        <v>65892.83</v>
+      </c>
+      <c r="D11">
+        <v>66789.38</v>
+      </c>
+      <c r="G11">
+        <v>-894.93</v>
+      </c>
+      <c r="I11" s="5">
+        <v>-1.3399000000000001</v>
+      </c>
+      <c r="J11" s="1">
+        <v>247395.6</v>
+      </c>
+      <c r="K11">
+        <v>234575.4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-2446.65</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.0430121828631649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6"/>
+      <c r="B12">
+        <f>SUM(B8:B11)/4</f>
+        <v>77157.637500000012</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C8:C11)/4</f>
+        <v>67574.840000000011</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D8:D11)/4</f>
+        <v>68414.477500000008</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F10:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G8:G11)</f>
+        <v>-1471.5299999999997</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H10:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f>G12/D12*100</f>
+        <v>-2.1509043900832241</v>
+      </c>
+      <c r="J12">
+        <f>SUM(J8:J11)/4</f>
+        <v>249370.49749999997</v>
+      </c>
+      <c r="K12">
+        <f>SUM(K8:K11)/4</f>
+        <v>230819.65</v>
+      </c>
+      <c r="L12" s="1">
+        <f>SUM(L8:L11)</f>
+        <v>-3959.75</v>
+      </c>
+      <c r="M12" s="5">
+        <f>L12/K12*100</f>
+        <v>-1.7155168548258346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44298</v>
+      </c>
+      <c r="C15">
+        <v>64657.39</v>
+      </c>
+      <c r="D15">
+        <v>65892.83</v>
+      </c>
+      <c r="G15">
+        <v>-1235.45</v>
+      </c>
+      <c r="I15" s="5">
+        <v>-1.8749</v>
+      </c>
+      <c r="J15" s="1">
+        <v>243009.14</v>
+      </c>
+      <c r="K15">
+        <v>235464.5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-4387.1000000000004</v>
+      </c>
+      <c r="M15">
+        <v>-1.8632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44299</v>
+      </c>
+      <c r="C16">
+        <v>64450.32</v>
+      </c>
+      <c r="D16">
+        <v>64657.39</v>
+      </c>
+      <c r="G16">
+        <v>-207.07</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-0.32029999999999997</v>
+      </c>
+      <c r="J16" s="1">
+        <v>242582.7</v>
+      </c>
+      <c r="K16">
+        <v>225036</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-415.5</v>
+      </c>
+      <c r="M16">
+        <v>-0.18459999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44300</v>
+      </c>
+      <c r="C17">
+        <v>65162.16</v>
+      </c>
+      <c r="D17">
+        <v>64450.32</v>
+      </c>
+      <c r="G17">
+        <v>711.83</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1.1045</v>
+      </c>
+      <c r="J17" s="1">
+        <v>245637.69</v>
+      </c>
+      <c r="K17">
+        <v>223558.5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3066.5</v>
+      </c>
+      <c r="M17">
+        <v>1.3716999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44301</v>
+      </c>
+      <c r="C18">
+        <v>64805.83</v>
+      </c>
+      <c r="D18">
+        <v>65162.16</v>
+      </c>
+      <c r="G18">
+        <v>-356.34</v>
+      </c>
+      <c r="I18" s="5">
+        <v>-0.54690000000000005</v>
+      </c>
+      <c r="J18" s="1">
+        <v>243589.84</v>
+      </c>
+      <c r="K18">
+        <v>232982.6</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-2042.7</v>
+      </c>
+      <c r="M18">
+        <v>-0.87680000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44302</v>
+      </c>
+      <c r="C19">
+        <v>64855.11</v>
+      </c>
+      <c r="D19">
+        <v>64805.83</v>
+      </c>
+      <c r="G19">
+        <v>49.28</v>
+      </c>
+      <c r="I19" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>265543.67</v>
+      </c>
+      <c r="K19">
+        <v>234968.9</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1980.8</v>
+      </c>
+      <c r="M19">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6"/>
+      <c r="B20">
+        <f>SUM(B15:B19)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C15:C19)/5</f>
+        <v>64786.161999999997</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D15:D19)/5</f>
+        <v>64993.706000000006</v>
+      </c>
+      <c r="F20">
+        <f>SUM(F15:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>SUM(G15:G19)</f>
+        <v>-1037.75</v>
+      </c>
+      <c r="H20">
+        <f>SUM(H18:H19)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <f>G20/D20*100</f>
+        <v>-1.5966930705567088</v>
+      </c>
+      <c r="J20">
+        <f>SUM(J15:J19)/5</f>
+        <v>248072.60800000001</v>
+      </c>
+      <c r="K20">
+        <f>SUM(K15:K19)/5</f>
+        <v>230402.1</v>
+      </c>
+      <c r="L20" s="1">
+        <f>SUM(L15:L19)</f>
+        <v>-1798.0000000000002</v>
+      </c>
+      <c r="M20" s="5">
+        <f>L20/K20*100</f>
+        <v>-0.78037483165301014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44305</v>
+      </c>
+      <c r="B23">
+        <v>71733.67</v>
+      </c>
+      <c r="C23">
+        <v>66200.67</v>
+      </c>
+      <c r="D23">
+        <v>64855.11</v>
+      </c>
+      <c r="G23">
+        <v>1345.55</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2.0747</v>
+      </c>
+      <c r="J23" s="1">
+        <v>271999.55</v>
+      </c>
+      <c r="K23">
+        <v>176364.6</v>
+      </c>
+      <c r="L23" s="1">
+        <v>6540.4</v>
+      </c>
+      <c r="M23">
+        <v>3.7084999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6">
+        <v>44306</v>
+      </c>
+      <c r="B24">
+        <v>61621.15</v>
+      </c>
+      <c r="C24">
+        <v>57150.1</v>
+      </c>
+      <c r="D24">
+        <v>66200.67</v>
+      </c>
+      <c r="G24">
+        <v>-112.89</v>
+      </c>
+      <c r="I24" s="5">
+        <v>-0.17050000000000001</v>
+      </c>
+      <c r="J24" s="1">
+        <v>271106.71999999997</v>
+      </c>
+      <c r="K24">
+        <v>173467</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-893.96</v>
+      </c>
+      <c r="M24">
+        <v>-0.51529999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6">
+        <v>44307</v>
+      </c>
+      <c r="C25">
+        <v>57362.12</v>
+      </c>
+      <c r="D25">
+        <v>57150.1</v>
+      </c>
+      <c r="G25">
+        <v>212.01</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.371</v>
+      </c>
+      <c r="J25" s="1">
+        <v>281105.17</v>
+      </c>
+      <c r="K25">
+        <v>149788.29999999999</v>
+      </c>
+      <c r="L25" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="M25">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6">
+        <v>44308</v>
+      </c>
+      <c r="C26">
+        <v>54305.1</v>
+      </c>
+      <c r="D26">
+        <v>57362.12</v>
+      </c>
+      <c r="G26">
+        <v>163.34</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.2848</v>
+      </c>
+      <c r="J26" s="1">
+        <v>281383.8</v>
+      </c>
+      <c r="K26">
+        <v>147988</v>
+      </c>
+      <c r="L26" s="1">
+        <v>302.7</v>
+      </c>
+      <c r="M26">
+        <v>0.20449999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
+        <v>44309</v>
+      </c>
+      <c r="B27">
+        <v>62555.69</v>
+      </c>
+      <c r="C27">
+        <v>52832.54</v>
+      </c>
+      <c r="D27">
+        <v>54305.1</v>
+      </c>
+      <c r="G27">
+        <v>557.47</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1.0266</v>
+      </c>
+      <c r="J27" s="1">
+        <v>281829.95</v>
+      </c>
+      <c r="K27">
+        <v>160247.20000000001</v>
+      </c>
+      <c r="L27" s="1">
+        <v>456.2</v>
+      </c>
+      <c r="M27">
+        <v>0.28470000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6"/>
+      <c r="C28">
+        <f>SUM(C23:C27)/5</f>
+        <v>57570.105999999992</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D23:D27)/5</f>
+        <v>59974.619999999995</v>
+      </c>
+      <c r="F28">
+        <f>SUM(F23:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>SUM(G23:G27)</f>
+        <v>2165.4799999999996</v>
+      </c>
+      <c r="H28">
+        <f>SUM(H26:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <f>G28/D28*100</f>
+        <v>3.610660642785231</v>
+      </c>
+      <c r="J28">
+        <f>SUM(J23:J27)/5</f>
+        <v>277485.038</v>
+      </c>
+      <c r="K28">
+        <f>SUM(K23:K27)/5</f>
+        <v>161571.01999999996</v>
+      </c>
+      <c r="L28" s="1">
+        <f>SUM(L23:L27)</f>
+        <v>6418.6399999999994</v>
+      </c>
+      <c r="M28" s="5">
+        <f>L28/K28*100</f>
+        <v>3.9726431138455407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="6">
+        <v>44310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6">
+        <v>44312</v>
+      </c>
+      <c r="C31">
+        <v>52416.17</v>
+      </c>
+      <c r="D31">
+        <v>52832.54</v>
+      </c>
+      <c r="G31">
+        <v>-416.38</v>
+      </c>
+      <c r="I31" s="5">
+        <v>-0.78810000000000002</v>
+      </c>
+      <c r="J31" s="1">
+        <v>280973.92</v>
+      </c>
+      <c r="K31">
+        <v>159482.5</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-848.8</v>
+      </c>
+      <c r="M31">
+        <v>-0.53220000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6">
+        <v>44313</v>
+      </c>
+      <c r="C32">
+        <v>52416.17</v>
+      </c>
+      <c r="D32">
+        <v>52553.56</v>
+      </c>
+      <c r="G32">
+        <v>137.38</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.26140000000000002</v>
+      </c>
+      <c r="J32" s="1">
+        <v>280950.14</v>
+      </c>
+      <c r="K32">
+        <v>122029.7</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="M32" s="5">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6">
+        <v>44314</v>
+      </c>
+      <c r="C33">
+        <v>52946.96</v>
+      </c>
+      <c r="D33">
+        <v>52416.17</v>
+      </c>
+      <c r="G33">
+        <v>393.4</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="J33" s="1">
+        <v>281757.98</v>
+      </c>
+      <c r="K33">
+        <v>132110.9</v>
+      </c>
+      <c r="L33" s="1">
+        <v>811.7</v>
+      </c>
+      <c r="M33">
+        <v>0.61439999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6">
+        <v>44315</v>
+      </c>
+      <c r="C34">
+        <v>53293.86</v>
+      </c>
+      <c r="D34">
+        <v>52416.17</v>
+      </c>
+      <c r="G34">
+        <v>346.9</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="J34" s="1">
+        <v>273135.23</v>
+      </c>
+      <c r="K34">
+        <v>118045.6</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1366.93</v>
+      </c>
+      <c r="M34">
+        <v>1.1579999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="6">
+        <v>44316</v>
+      </c>
+      <c r="C35">
+        <v>53141.46</v>
+      </c>
+      <c r="D35">
+        <v>52946.96</v>
+      </c>
+      <c r="G35">
+        <v>-152.4</v>
+      </c>
+      <c r="I35" s="5">
+        <v>-0.2878</v>
+      </c>
+      <c r="J35" s="1">
+        <v>271971.20000000001</v>
+      </c>
+      <c r="K35">
+        <v>154999.20000000001</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-1144.9000000000001</v>
+      </c>
+      <c r="M35">
+        <v>-0.73860000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="C36">
+        <f>SUM(C31:C35)/5</f>
+        <v>52842.923999999999</v>
+      </c>
+      <c r="D36">
+        <f>SUM(D31:D35)/5</f>
+        <v>52633.08</v>
+      </c>
+      <c r="F36">
+        <f>SUM(F31:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>SUM(G31:G35)</f>
+        <v>308.89999999999998</v>
+      </c>
+      <c r="H36">
+        <f>SUM(H34:H35)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <f>G36/D36*100</f>
+        <v>0.58689326180417323</v>
+      </c>
+      <c r="J36">
+        <f>SUM(J31:J35)/5</f>
+        <v>277757.69400000002</v>
+      </c>
+      <c r="K36">
+        <f>SUM(K31:K35)/5</f>
+        <v>137333.57999999999</v>
+      </c>
+      <c r="L36" s="1">
+        <f>SUM(L31:L35)</f>
+        <v>181.43000000000006</v>
+      </c>
+      <c r="M36" s="5">
+        <f>L36/K36*100</f>
+        <v>0.13210898601784071</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="C38">
+        <f>SUM(C2,C3,C8,C9,C10,C11,C15,C16,C17,C18,C19,C23,C24,C25,C26,C27,C31,C32,C33,C34,C35)/21</f>
+        <v>61273.82428571429</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D2,D3,D8,D9,D10,D11,D15,D16,D17,D18,D19,D23,D24,D25,D26,D27,D31,D32,D33,D34,D35)/21</f>
+        <v>62035.173333333325</v>
+      </c>
+      <c r="G38">
+        <f>SUM(G2,G3,G8,G9,G10,G11,G15,G16,G17,G18,G19,G23,G24,G25,G26,G27,G31,G32,G33,G34,G35)</f>
+        <v>2314.3799999999997</v>
+      </c>
+      <c r="I38" s="5">
+        <f>G38/D38*100</f>
+        <v>3.730754466605827</v>
+      </c>
+      <c r="K38">
+        <f>SUM(K2,K3,K8,K9,K10,K11,K15,K16,K17,K18,K19,K23,K24,K25,K26,K27,K31,K32,K33,K34,K35)/21</f>
+        <v>191013.37619047621</v>
+      </c>
+      <c r="L38" s="1">
+        <f>SUM(L2,L3,L8,L9,L10,L11,L15,L16,L17,L18,L19,L23,L24,L25,L26,L27,L31,L32,L33,L34,L35)</f>
+        <v>6423.9199999999983</v>
+      </c>
+      <c r="M38" s="5">
+        <f>L38/K38*100</f>
+        <v>3.3630733763870775</v>
+      </c>
+      <c r="N38" s="12">
+        <f>G38+L38</f>
+        <v>8738.2999999999975</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="C42">
+        <v>8738.2999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="C43">
+        <v>-12503.81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="C44">
+        <v>1147.4000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="C45">
+        <v>6963.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="C46">
+        <v>13367.86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="C47">
+        <v>5046.6400000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="C48">
+        <v>4861.92</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49">
+        <v>-10652.23</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50">
+        <v>-163.32</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51">
+        <v>9587.07</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52">
+        <v>6641.03</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53">
+        <v>45.33</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54">
+        <v>2047.78</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55">
+        <v>-273.42</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56">
+        <v>-2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G12" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -3092,7 +5637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -3686,7 +6231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -4604,7 +7149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -5114,7 +7659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -5300,7 +7845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -5422,7 +7967,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44396</v>
+      </c>
+      <c r="J2" s="1">
+        <v>391461.52</v>
+      </c>
+      <c r="K2">
+        <v>346936</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-735.7</v>
+      </c>
+      <c r="M2">
+        <v>-0.21210000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44397</v>
+      </c>
+      <c r="J3" s="1">
+        <v>381325.07</v>
+      </c>
+      <c r="K3">
+        <v>241558</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-86</v>
+      </c>
+      <c r="M3">
+        <v>-3.56E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44398</v>
+      </c>
+      <c r="J4" s="1">
+        <v>385281.95</v>
+      </c>
+      <c r="K4">
+        <v>248832</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3968</v>
+      </c>
+      <c r="M4">
+        <v>1.5947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44399</v>
+      </c>
+      <c r="J5" s="1">
+        <v>350182.62</v>
+      </c>
+      <c r="K5">
+        <v>260244.58</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1428</v>
+      </c>
+      <c r="M5">
+        <v>0.54869999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44400</v>
+      </c>
+      <c r="J6" s="1">
+        <v>321329.03999999998</v>
+      </c>
+      <c r="K6">
+        <v>291717.36</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-5033</v>
+      </c>
+      <c r="M6">
+        <v>-1.7253000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>365916.04000000004</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>277857.58799999999</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-458.69999999999982</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-0.16508456843006922</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -5504,7 +8215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -5720,12 +8431,524 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44389</v>
+      </c>
+      <c r="J2" s="1">
+        <v>399553.09</v>
+      </c>
+      <c r="K2">
+        <v>315114</v>
+      </c>
+      <c r="L2" s="1">
+        <v>7444</v>
+      </c>
+      <c r="M2">
+        <v>2.3622999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44390</v>
+      </c>
+      <c r="J3" s="1">
+        <v>398533.05</v>
+      </c>
+      <c r="K3">
+        <v>266844</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-975</v>
+      </c>
+      <c r="M3">
+        <v>-0.3654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44391</v>
+      </c>
+      <c r="J4" s="1">
+        <v>395001.88</v>
+      </c>
+      <c r="K4">
+        <v>236228</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-3479</v>
+      </c>
+      <c r="M4">
+        <v>-1.4726999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44392</v>
+      </c>
+      <c r="J5" s="1">
+        <v>398680.85</v>
+      </c>
+      <c r="K5">
+        <v>178125</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3721</v>
+      </c>
+      <c r="M5">
+        <v>2.089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44393</v>
+      </c>
+      <c r="J6" s="1">
+        <v>215638.8</v>
+      </c>
+      <c r="K6">
+        <v>181630.1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-6398</v>
+      </c>
+      <c r="M6">
+        <v>-3.5225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>361481.53400000004</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>235588.22000000003</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>313</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>0.13285893496712184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J2" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K2">
+        <v>190776</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M2">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J3" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K3">
+        <v>321998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M3">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J4" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K4">
+        <v>264214.08</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M4">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J5" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K5">
+        <v>298343.01</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M5">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J6" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K6">
+        <v>299620.11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M6">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>389805.28200000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>274990.24000000005</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>7668.2</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>2.7885353312903027</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44375</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1"/>
+      <c r="I2"/>
+      <c r="J2" s="1">
+        <v>421680.23</v>
+      </c>
+      <c r="K2">
+        <v>235082.9</v>
+      </c>
+      <c r="L2">
+        <v>3167.1</v>
+      </c>
+      <c r="M2">
+        <v>1.3472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44376</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1"/>
+      <c r="I3"/>
+      <c r="J3" s="1">
+        <v>420854.97</v>
+      </c>
+      <c r="K3">
+        <v>334427.98</v>
+      </c>
+      <c r="L3">
+        <v>-777.6</v>
+      </c>
+      <c r="M3">
+        <v>-0.23250000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44377</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="1"/>
+      <c r="I4"/>
+      <c r="J4" s="1">
+        <v>424153.89</v>
+      </c>
+      <c r="K4">
+        <v>281291</v>
+      </c>
+      <c r="L4">
+        <v>3372.42</v>
+      </c>
+      <c r="M4">
+        <v>1.1989000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44378</v>
+      </c>
+      <c r="J5" s="1">
+        <v>400968.2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>221650.6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-3191.21</v>
+      </c>
+      <c r="M5" s="5">
+        <v>-1.4145000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44379</v>
+      </c>
+      <c r="J6" s="1">
+        <v>394703.57</v>
+      </c>
+      <c r="K6">
+        <v>282622.7</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-6272.86</v>
+      </c>
+      <c r="M6">
+        <v>-2.2845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6"/>
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>412472.17199999996</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>271015.03599999996</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-3702.1499999999996</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-1.3660312190206303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -6228,7 +9451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -6369,7 +9592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -6535,7 +9758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -6682,2333 +9905,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44354</v>
-      </c>
-      <c r="J2" s="1">
-        <v>418141.49</v>
-      </c>
-      <c r="K2">
-        <v>246536.6</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1562.6</v>
-      </c>
-      <c r="M2">
-        <v>0.63380000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44355</v>
-      </c>
-      <c r="J3" s="1">
-        <v>414310.09</v>
-      </c>
-      <c r="K3">
-        <v>318721.40000000002</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-3812.1</v>
-      </c>
-      <c r="M3">
-        <v>-1.1960999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44356</v>
-      </c>
-      <c r="J4" s="1">
-        <v>413741.94</v>
-      </c>
-      <c r="K4">
-        <v>324161.7</v>
-      </c>
-      <c r="L4" s="1">
-        <v>427.2</v>
-      </c>
-      <c r="M4">
-        <v>0.1318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44357</v>
-      </c>
-      <c r="J5" s="1">
-        <v>417812.38</v>
-      </c>
-      <c r="K5">
-        <v>282917</v>
-      </c>
-      <c r="L5" s="1">
-        <v>4087.1</v>
-      </c>
-      <c r="M5">
-        <v>1.4446000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44358</v>
-      </c>
-      <c r="J6" s="1">
-        <v>394905.9</v>
-      </c>
-      <c r="K6">
-        <v>322514</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-3902.2</v>
-      </c>
-      <c r="M6">
-        <v>-1.2099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6"/>
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>411782.36</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>298970.14</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-1637.3999999999996</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-0.54768011280323836</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="6">
-        <v>44347</v>
-      </c>
-      <c r="C2">
-        <v>20384.36</v>
-      </c>
-      <c r="D2">
-        <v>20252.02</v>
-      </c>
-      <c r="G2">
-        <v>132.34</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.65349999999999997</v>
-      </c>
-      <c r="J2" s="1">
-        <v>367430.22</v>
-      </c>
-      <c r="K2">
-        <v>200865</v>
-      </c>
-      <c r="L2" s="1">
-        <v>3330.1</v>
-      </c>
-      <c r="M2">
-        <v>1.6578999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="6">
-        <v>44348</v>
-      </c>
-      <c r="J3" s="1">
-        <v>369566.62</v>
-      </c>
-      <c r="K3">
-        <v>235801.1</v>
-      </c>
-      <c r="L3">
-        <v>2159.6</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0.91590000000000005</v>
-      </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6">
-        <v>44349</v>
-      </c>
-      <c r="J4" s="1">
-        <v>365120.57</v>
-      </c>
-      <c r="K4">
-        <v>296728</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-4436.1000000000004</v>
-      </c>
-      <c r="M4">
-        <v>-1.4950000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6">
-        <v>44350</v>
-      </c>
-      <c r="J5" s="1">
-        <v>363781.23</v>
-      </c>
-      <c r="K5">
-        <v>259382.2</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-1330.1</v>
-      </c>
-      <c r="M5">
-        <v>-0.51280000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="6">
-        <v>44351</v>
-      </c>
-      <c r="J6" s="1">
-        <v>366580.88</v>
-      </c>
-      <c r="K6">
-        <v>209187.4</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2829.7</v>
-      </c>
-      <c r="M6">
-        <v>1.3527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="6"/>
-      <c r="B7">
-        <f>SUM(B2:B6)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>SUM(F2:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>SUM(G2:G6)</f>
-        <v>132.34</v>
-      </c>
-      <c r="H7">
-        <f>SUM(H2:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>SUM(J2:J6)/5</f>
-        <v>366495.90399999998</v>
-      </c>
-      <c r="K7">
-        <f>SUM(K2:K6)/5</f>
-        <v>240392.74</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L2:L6)</f>
-        <v>2553.1999999999994</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>1.062095302878115</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="6">
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="6">
-        <v>44318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6">
-        <v>44319</v>
-      </c>
-      <c r="J4"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6">
-        <v>44320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="6">
-        <v>44321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6">
-        <v>44322</v>
-      </c>
-      <c r="C8">
-        <v>52744.99</v>
-      </c>
-      <c r="D8">
-        <v>53141.46</v>
-      </c>
-      <c r="G8">
-        <v>-396.48</v>
-      </c>
-      <c r="I8" s="5">
-        <v>-0.74609999999999999</v>
-      </c>
-      <c r="J8" s="1">
-        <v>270816.58</v>
-      </c>
-      <c r="K8">
-        <v>211425.9</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-1195.3</v>
-      </c>
-      <c r="M8">
-        <v>-0.56540000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6">
-        <v>44323</v>
-      </c>
-      <c r="C9">
-        <v>51853.919999999998</v>
-      </c>
-      <c r="D9">
-        <v>52744.99</v>
-      </c>
-      <c r="G9">
-        <v>-839.05</v>
-      </c>
-      <c r="I9" s="5">
-        <v>-1.5908</v>
-      </c>
-      <c r="J9" s="1">
-        <v>269379.71999999997</v>
-      </c>
-      <c r="K9">
-        <v>229187</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-1411.4</v>
-      </c>
-      <c r="M9" s="5">
-        <v>-0.61580000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="6"/>
-      <c r="C10">
-        <f>SUM(C6:C9)/2</f>
-        <v>52299.455000000002</v>
-      </c>
-      <c r="D10">
-        <f>SUM(D6:D9)/2</f>
-        <v>52943.224999999999</v>
-      </c>
-      <c r="G10">
-        <f>SUM(G6:G9)</f>
-        <v>-1235.53</v>
-      </c>
-      <c r="H10">
-        <f>SUM(H8:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <f>G10/D10*100</f>
-        <v>-2.3336885881054656</v>
-      </c>
-      <c r="J10">
-        <f>SUM(J6:J9)/2</f>
-        <v>270098.15000000002</v>
-      </c>
-      <c r="K10">
-        <f>SUM(K6:K9)/2</f>
-        <v>220306.45</v>
-      </c>
-      <c r="L10" s="1">
-        <f>SUM(L6:L9)</f>
-        <v>-2606.6999999999998</v>
-      </c>
-      <c r="M10" s="5">
-        <f>L10/K10*100</f>
-        <v>-1.1832154709950615</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6">
-        <v>44324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="6">
-        <v>44325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="6">
-        <v>44326</v>
-      </c>
-      <c r="C13">
-        <v>51853.919999999998</v>
-      </c>
-      <c r="D13">
-        <v>51599.76</v>
-      </c>
-      <c r="G13">
-        <v>-254.17</v>
-      </c>
-      <c r="I13" s="5">
-        <v>-0.49259999999999998</v>
-      </c>
-      <c r="J13" s="1">
-        <v>279653.94</v>
-      </c>
-      <c r="K13">
-        <v>230066.8</v>
-      </c>
-      <c r="L13" s="1">
-        <v>286.8</v>
-      </c>
-      <c r="M13">
-        <v>0.12470000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="6">
-        <v>44327</v>
-      </c>
-      <c r="C14">
-        <v>46231.79</v>
-      </c>
-      <c r="D14">
-        <v>51853.919999999998</v>
-      </c>
-      <c r="G14">
-        <v>77.650000000000006</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.1497</v>
-      </c>
-      <c r="J14">
-        <v>280255.06</v>
-      </c>
-      <c r="K14">
-        <v>237959.7</v>
-      </c>
-      <c r="L14" s="1">
-        <v>656.7</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="6">
-        <v>44328</v>
-      </c>
-      <c r="C15">
-        <v>46542.3</v>
-      </c>
-      <c r="D15">
-        <v>46231.79</v>
-      </c>
-      <c r="G15">
-        <v>310.5</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.67159999999999997</v>
-      </c>
-      <c r="J15" s="1">
-        <v>281489.68</v>
-      </c>
-      <c r="K15">
-        <v>245088.3</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1235.0999999999999</v>
-      </c>
-      <c r="M15">
-        <v>0.50390000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="6">
-        <v>44329</v>
-      </c>
-      <c r="C16">
-        <v>45103.88</v>
-      </c>
-      <c r="D16">
-        <v>46542.3</v>
-      </c>
-      <c r="G16">
-        <v>-427.94</v>
-      </c>
-      <c r="I16" s="5">
-        <v>-0.91949999999999998</v>
-      </c>
-      <c r="J16" s="1">
-        <v>278597.86</v>
-      </c>
-      <c r="K16">
-        <v>235865.5</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-2882.8</v>
-      </c>
-      <c r="M16" s="5">
-        <v>-1.2222</v>
-      </c>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44330</v>
-      </c>
-      <c r="C17">
-        <v>45914.8</v>
-      </c>
-      <c r="D17">
-        <v>45103.88</v>
-      </c>
-      <c r="G17">
-        <v>810.92</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1.7979000000000001</v>
-      </c>
-      <c r="J17" s="1">
-        <v>297075.5</v>
-      </c>
-      <c r="K17">
-        <v>254312.9</v>
-      </c>
-      <c r="L17" s="1">
-        <v>4993</v>
-      </c>
-      <c r="M17">
-        <v>1.9633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6"/>
-      <c r="B18">
-        <f>SUM(B13:B17)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <f>SUM(C13:C17)/5</f>
-        <v>47129.338000000003</v>
-      </c>
-      <c r="D18">
-        <f>SUM(D13:D17)/5</f>
-        <v>48266.33</v>
-      </c>
-      <c r="F18">
-        <f>SUM(F13:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f>SUM(G13:G17)</f>
-        <v>516.96</v>
-      </c>
-      <c r="H18">
-        <f>SUM(H16:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <f>G18/D18*100</f>
-        <v>1.0710571945287741</v>
-      </c>
-      <c r="J18">
-        <f>SUM(J13:J17)/5</f>
-        <v>283414.408</v>
-      </c>
-      <c r="K18">
-        <f>SUM(K13:K17)/5</f>
-        <v>240658.63999999998</v>
-      </c>
-      <c r="L18" s="1">
-        <f>SUM(L13:L17)</f>
-        <v>4288.7999999999993</v>
-      </c>
-      <c r="M18" s="5">
-        <f>L18/K18*100</f>
-        <v>1.7821092980497186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>44332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44333</v>
-      </c>
-      <c r="C21">
-        <v>46705.27</v>
-      </c>
-      <c r="D21">
-        <v>45914.8</v>
-      </c>
-      <c r="G21">
-        <v>713.61</v>
-      </c>
-      <c r="I21" s="5">
-        <v>1.5542</v>
-      </c>
-      <c r="J21" s="1">
-        <v>287180.42</v>
-      </c>
-      <c r="K21">
-        <v>223809.4</v>
-      </c>
-      <c r="L21" s="1">
-        <v>3361.6</v>
-      </c>
-      <c r="M21">
-        <v>1.502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44334</v>
-      </c>
-      <c r="C22">
-        <v>42036.67</v>
-      </c>
-      <c r="D22">
-        <v>46705.27</v>
-      </c>
-      <c r="G22">
-        <v>-35.5</v>
-      </c>
-      <c r="I22" s="5">
-        <v>-7.5999999999999998E-2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>287508.09000000003</v>
-      </c>
-      <c r="K22">
-        <v>209781.2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>345.8</v>
-      </c>
-      <c r="M22">
-        <v>0.1648</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6">
-        <v>44335</v>
-      </c>
-      <c r="C23">
-        <v>41928.78</v>
-      </c>
-      <c r="D23">
-        <v>42036.67</v>
-      </c>
-      <c r="G23">
-        <v>-107.89</v>
-      </c>
-      <c r="I23" s="5">
-        <v>-0.25669999999999998</v>
-      </c>
-      <c r="J23" s="1">
-        <v>286918.05</v>
-      </c>
-      <c r="K23">
-        <v>187404.9</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-576.79999999999995</v>
-      </c>
-      <c r="M23">
-        <v>-0.30780000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6">
-        <v>44336</v>
-      </c>
-      <c r="C24">
-        <v>41986.080000000002</v>
-      </c>
-      <c r="D24">
-        <v>41928.78</v>
-      </c>
-      <c r="G24">
-        <v>57.29</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0.1366</v>
-      </c>
-      <c r="J24" s="1">
-        <v>287399.69</v>
-      </c>
-      <c r="K24">
-        <v>209008.7</v>
-      </c>
-      <c r="L24" s="1">
-        <v>494.8</v>
-      </c>
-      <c r="M24">
-        <v>0.23669999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="6">
-        <v>44337</v>
-      </c>
-      <c r="C25">
-        <v>41495.85</v>
-      </c>
-      <c r="D25">
-        <v>41986.080000000002</v>
-      </c>
-      <c r="G25">
-        <v>-490.23</v>
-      </c>
-      <c r="I25" s="5">
-        <v>-1.1676</v>
-      </c>
-      <c r="J25" s="1">
-        <v>286188.42</v>
-      </c>
-      <c r="K25">
-        <v>250057.5</v>
-      </c>
-      <c r="L25" s="1">
-        <v>-1197.8</v>
-      </c>
-      <c r="M25">
-        <v>-0.47899999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="6"/>
-      <c r="B26">
-        <f>SUM(B21:B25)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <f>SUM(C21:C25)/5</f>
-        <v>42830.53</v>
-      </c>
-      <c r="D26">
-        <f>SUM(D21:D25)/5</f>
-        <v>43714.319999999992</v>
-      </c>
-      <c r="F26">
-        <f>SUM(F21:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f>SUM(G21:G25)</f>
-        <v>137.27999999999997</v>
-      </c>
-      <c r="H26">
-        <f>SUM(H24:H25)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <f>G26/D26*100</f>
-        <v>0.31403896938120046</v>
-      </c>
-      <c r="J26">
-        <f>SUM(J21:J25)/5</f>
-        <v>287038.93400000001</v>
-      </c>
-      <c r="K26">
-        <f>SUM(K21:K25)/5</f>
-        <v>216012.34</v>
-      </c>
-      <c r="L26" s="1">
-        <f>SUM(L21:L25)</f>
-        <v>2427.6000000000004</v>
-      </c>
-      <c r="M26" s="5">
-        <f>L26/K26*100</f>
-        <v>1.1238246852008549</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="6">
-        <v>44338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="6">
-        <v>44339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="6">
-        <v>44340</v>
-      </c>
-      <c r="C29">
-        <v>41767.35</v>
-      </c>
-      <c r="D29">
-        <v>41495.85</v>
-      </c>
-      <c r="G29">
-        <v>271.49</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0.65429999999999999</v>
-      </c>
-      <c r="J29" s="1">
-        <v>288233.01</v>
-      </c>
-      <c r="K29">
-        <v>218947.20000000001</v>
-      </c>
-      <c r="L29" s="1">
-        <v>2057.6</v>
-      </c>
-      <c r="M29">
-        <v>0.93979999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="6">
-        <v>44341</v>
-      </c>
-      <c r="C30">
-        <v>43060.94</v>
-      </c>
-      <c r="D30">
-        <v>41495.85</v>
-      </c>
-      <c r="G30">
-        <v>1294.31</v>
-      </c>
-      <c r="I30" s="5">
-        <v>3.1191</v>
-      </c>
-      <c r="J30" s="1">
-        <v>292592.21000000002</v>
-      </c>
-      <c r="K30">
-        <v>132408.4</v>
-      </c>
-      <c r="L30" s="1">
-        <v>4431.1000000000004</v>
-      </c>
-      <c r="M30">
-        <v>3.3464999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="6">
-        <v>44342</v>
-      </c>
-      <c r="C31">
-        <v>20204.55</v>
-      </c>
-      <c r="D31">
-        <v>43060.94</v>
-      </c>
-      <c r="G31">
-        <v>-115.24</v>
-      </c>
-      <c r="I31" s="5">
-        <v>-0.2676</v>
-      </c>
-      <c r="J31" s="1">
-        <v>292136.73</v>
-      </c>
-      <c r="K31">
-        <v>188449.3</v>
-      </c>
-      <c r="L31" s="1">
-        <v>-438</v>
-      </c>
-      <c r="M31">
-        <v>-0.2324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="6">
-        <v>44343</v>
-      </c>
-      <c r="C32">
-        <v>20341.8</v>
-      </c>
-      <c r="D32">
-        <v>20204.55</v>
-      </c>
-      <c r="G32">
-        <v>139.37</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0.68979999999999997</v>
-      </c>
-      <c r="J32" s="1">
-        <v>314726.03000000003</v>
-      </c>
-      <c r="K32">
-        <v>183115.3</v>
-      </c>
-      <c r="L32" s="1">
-        <v>2628.9</v>
-      </c>
-      <c r="M32">
-        <v>1.4357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="6">
-        <v>44344</v>
-      </c>
-      <c r="C33">
-        <v>20252.02</v>
-      </c>
-      <c r="D33">
-        <v>20341.8</v>
-      </c>
-      <c r="G33">
-        <v>-89.79</v>
-      </c>
-      <c r="I33" s="5">
-        <v>-0.44140000000000001</v>
-      </c>
-      <c r="J33" s="1">
-        <v>314122.90999999997</v>
-      </c>
-      <c r="K33">
-        <v>251310.4</v>
-      </c>
-      <c r="L33" s="1">
-        <v>-585.9</v>
-      </c>
-      <c r="M33">
-        <v>-0.2331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="6"/>
-      <c r="B34">
-        <f>SUM(B29:B33)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <f>SUM(C29:C33)/5</f>
-        <v>29125.332000000002</v>
-      </c>
-      <c r="D34">
-        <f>SUM(D29:D33)/5</f>
-        <v>33319.797999999995</v>
-      </c>
-      <c r="F34">
-        <f>SUM(F29:F33)</f>
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <f>SUM(G29:G33)</f>
-        <v>1500.1399999999999</v>
-      </c>
-      <c r="H34">
-        <f>SUM(H32:H33)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <f>G34/D34*100</f>
-        <v>4.5022481828971479</v>
-      </c>
-      <c r="J34">
-        <f>SUM(J29:J33)/5</f>
-        <v>300362.17799999996</v>
-      </c>
-      <c r="K34">
-        <f>SUM(K29:K33)/5</f>
-        <v>194846.12</v>
-      </c>
-      <c r="L34" s="1">
-        <f>SUM(L29:L33)</f>
-        <v>8093.7000000000007</v>
-      </c>
-      <c r="M34" s="5">
-        <f>L34/K34*100</f>
-        <v>4.1538933390102919</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="6">
-        <v>44345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="6">
-        <v>44346</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="6">
-        <v>44347</v>
-      </c>
-      <c r="C37">
-        <v>20384.36</v>
-      </c>
-      <c r="D37">
-        <v>20252.02</v>
-      </c>
-      <c r="G37">
-        <v>132.34</v>
-      </c>
-      <c r="I37" s="5">
-        <v>0.65349999999999997</v>
-      </c>
-      <c r="J37" s="1">
-        <v>367430.22</v>
-      </c>
-      <c r="K37">
-        <v>200865</v>
-      </c>
-      <c r="L37" s="1">
-        <v>3330.1</v>
-      </c>
-      <c r="M37">
-        <v>1.6578999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="6"/>
-      <c r="C38">
-        <f>SUM(C8,C9,C13,C14,C15,C16,C17,C21,C22,C23,C24,C25,C29,C30,C31,C32,C33,C37)/17</f>
-        <v>42377.015882352949</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D8,D9,D13,D14,D15,D16,D17,D21,D22,D23,D24,D25,D29,D30,D31,D32,D33,D37)/17</f>
-        <v>44272.982941176466</v>
-      </c>
-      <c r="G38">
-        <f>SUM(G8,G9,G13,G14,G15,G16,G17,G21,G22,G23,G24,G25,G29,G30,G31,G32,G33,G37)</f>
-        <v>1051.1899999999998</v>
-      </c>
-      <c r="I38" s="5">
-        <f>G38/D38*100</f>
-        <v>2.3743374179161796</v>
-      </c>
-      <c r="K38">
-        <f>SUM(K8,K9,K13,K14,K15,K16,K17,K21,K22,K23,K24,K25,K29,K30,K31,K32,K33,K37)/18</f>
-        <v>216614.6333333333</v>
-      </c>
-      <c r="L38">
-        <f>SUM(L8,L9,L13,L14,L15,L16,L17,L21,L22,L23,L24,L25,L29,L30,L31,L32,L33,L37)</f>
-        <v>15533.500000000002</v>
-      </c>
-      <c r="M38" s="5">
-        <f>L38/K38*100</f>
-        <v>7.1710298427053036</v>
-      </c>
-      <c r="N38" s="12">
-        <f>G38+L38</f>
-        <v>16584.690000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44287</v>
-      </c>
-      <c r="B2">
-        <v>81873.73</v>
-      </c>
-      <c r="C2">
-        <v>71203.61</v>
-      </c>
-      <c r="D2">
-        <v>69870.09</v>
-      </c>
-      <c r="G2">
-        <v>1333.52</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:I3" si="0">G2/D2*100</f>
-        <v>1.9085706058200296</v>
-      </c>
-      <c r="J2" s="1">
-        <v>248497.97</v>
-      </c>
-      <c r="K2">
-        <v>220660.5</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2657.8</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ref="M2:M3" si="1">L2/K2*100</f>
-        <v>1.2044747474060833</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44288</v>
-      </c>
-      <c r="B3">
-        <v>82889.789999999994</v>
-      </c>
-      <c r="C3">
-        <v>69251.38</v>
-      </c>
-      <c r="D3">
-        <v>71203.61</v>
-      </c>
-      <c r="G3">
-        <v>1015.76</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>1.4265568838433895</v>
-      </c>
-      <c r="J3" s="1">
-        <v>251400.16</v>
-      </c>
-      <c r="K3">
-        <v>220808.3</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2923.8</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" si="1"/>
-        <v>1.3241350076061456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6"/>
-      <c r="B4">
-        <f>SUM(B2:B3)/2</f>
-        <v>82381.759999999995</v>
-      </c>
-      <c r="C4">
-        <f>SUM(C2:C3)/2</f>
-        <v>70227.494999999995</v>
-      </c>
-      <c r="D4">
-        <f>SUM(D2:D3)/2</f>
-        <v>70536.850000000006</v>
-      </c>
-      <c r="F4">
-        <f>SUM(F2:F3)</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f>SUM(G2:G3)</f>
-        <v>2349.2799999999997</v>
-      </c>
-      <c r="H4">
-        <f>SUM(H2:H3)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <f>G4/D4*100</f>
-        <v>3.330571183714611</v>
-      </c>
-      <c r="J4">
-        <f>SUM(J2,J3)/2</f>
-        <v>249949.065</v>
-      </c>
-      <c r="K4">
-        <f>SUM(K2:K3)/2</f>
-        <v>220734.4</v>
-      </c>
-      <c r="L4" s="1">
-        <f>SUM(L2:L3)</f>
-        <v>5581.6</v>
-      </c>
-      <c r="M4" s="5">
-        <f>L4/K4*100</f>
-        <v>2.5286498162497555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6">
-        <v>44291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6">
-        <v>44292</v>
-      </c>
-      <c r="B8">
-        <v>82754.09</v>
-      </c>
-      <c r="C8">
-        <v>69114.460000000006</v>
-      </c>
-      <c r="D8">
-        <v>69251.38</v>
-      </c>
-      <c r="G8">
-        <v>-136.91999999999999</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" ref="I8" si="2">G8/D8*100</f>
-        <v>-0.19771447153832888</v>
-      </c>
-      <c r="J8" s="1">
-        <v>249950.07999999999</v>
-      </c>
-      <c r="K8">
-        <v>218557.1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-1445.6</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" ref="M8:M11" si="3">L8/K8*100</f>
-        <v>-0.66142898125935967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6">
-        <v>44293</v>
-      </c>
-      <c r="B9">
-        <v>82142.600000000006</v>
-      </c>
-      <c r="C9">
-        <v>68502.69</v>
-      </c>
-      <c r="D9">
-        <v>69114.460000000006</v>
-      </c>
-      <c r="G9">
-        <v>-611.78</v>
-      </c>
-      <c r="I9" s="5">
-        <v>-0.88519999999999999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>250295.26</v>
-      </c>
-      <c r="K9">
-        <v>228939.5</v>
-      </c>
-      <c r="L9" s="1">
-        <v>364.4</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="3"/>
-        <v>0.15916868867102443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6">
-        <v>44294</v>
-      </c>
-      <c r="B10">
-        <v>72315.02</v>
-      </c>
-      <c r="C10">
-        <v>66789.38</v>
-      </c>
-      <c r="D10">
-        <v>68502.69</v>
-      </c>
-      <c r="G10">
-        <v>172.1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.25119999999999998</v>
-      </c>
-      <c r="J10" s="1">
-        <v>249841.05</v>
-      </c>
-      <c r="K10">
-        <v>241206.6</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-431.9</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.17905811864186136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6">
-        <v>44295</v>
-      </c>
-      <c r="B11">
-        <v>71418.84</v>
-      </c>
-      <c r="C11">
-        <v>65892.83</v>
-      </c>
-      <c r="D11">
-        <v>66789.38</v>
-      </c>
-      <c r="G11">
-        <v>-894.93</v>
-      </c>
-      <c r="I11" s="5">
-        <v>-1.3399000000000001</v>
-      </c>
-      <c r="J11" s="1">
-        <v>247395.6</v>
-      </c>
-      <c r="K11">
-        <v>234575.4</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-2446.65</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.0430121828631649</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6"/>
-      <c r="B12">
-        <f>SUM(B8:B11)/4</f>
-        <v>77157.637500000012</v>
-      </c>
-      <c r="C12">
-        <f>SUM(C8:C11)/4</f>
-        <v>67574.840000000011</v>
-      </c>
-      <c r="D12">
-        <f>SUM(D8:D11)/4</f>
-        <v>68414.477500000008</v>
-      </c>
-      <c r="F12">
-        <f>SUM(F10:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f>SUM(G8:G11)</f>
-        <v>-1471.5299999999997</v>
-      </c>
-      <c r="H12">
-        <f>SUM(H10:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <f>G12/D12*100</f>
-        <v>-2.1509043900832241</v>
-      </c>
-      <c r="J12">
-        <f>SUM(J8:J11)/4</f>
-        <v>249370.49749999997</v>
-      </c>
-      <c r="K12">
-        <f>SUM(K8:K11)/4</f>
-        <v>230819.65</v>
-      </c>
-      <c r="L12" s="1">
-        <f>SUM(L8:L11)</f>
-        <v>-3959.75</v>
-      </c>
-      <c r="M12" s="5">
-        <f>L12/K12*100</f>
-        <v>-1.7155168548258346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6">
-        <v>44296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6">
-        <v>44297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6">
-        <v>44298</v>
-      </c>
-      <c r="C15">
-        <v>64657.39</v>
-      </c>
-      <c r="D15">
-        <v>65892.83</v>
-      </c>
-      <c r="G15">
-        <v>-1235.45</v>
-      </c>
-      <c r="I15" s="5">
-        <v>-1.8749</v>
-      </c>
-      <c r="J15" s="1">
-        <v>243009.14</v>
-      </c>
-      <c r="K15">
-        <v>235464.5</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-4387.1000000000004</v>
-      </c>
-      <c r="M15">
-        <v>-1.8632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6">
-        <v>44299</v>
-      </c>
-      <c r="C16">
-        <v>64450.32</v>
-      </c>
-      <c r="D16">
-        <v>64657.39</v>
-      </c>
-      <c r="G16">
-        <v>-207.07</v>
-      </c>
-      <c r="I16" s="5">
-        <v>-0.32029999999999997</v>
-      </c>
-      <c r="J16" s="1">
-        <v>242582.7</v>
-      </c>
-      <c r="K16">
-        <v>225036</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-415.5</v>
-      </c>
-      <c r="M16">
-        <v>-0.18459999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44300</v>
-      </c>
-      <c r="C17">
-        <v>65162.16</v>
-      </c>
-      <c r="D17">
-        <v>64450.32</v>
-      </c>
-      <c r="G17">
-        <v>711.83</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1.1045</v>
-      </c>
-      <c r="J17" s="1">
-        <v>245637.69</v>
-      </c>
-      <c r="K17">
-        <v>223558.5</v>
-      </c>
-      <c r="L17" s="1">
-        <v>3066.5</v>
-      </c>
-      <c r="M17">
-        <v>1.3716999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6">
-        <v>44301</v>
-      </c>
-      <c r="C18">
-        <v>64805.83</v>
-      </c>
-      <c r="D18">
-        <v>65162.16</v>
-      </c>
-      <c r="G18">
-        <v>-356.34</v>
-      </c>
-      <c r="I18" s="5">
-        <v>-0.54690000000000005</v>
-      </c>
-      <c r="J18" s="1">
-        <v>243589.84</v>
-      </c>
-      <c r="K18">
-        <v>232982.6</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-2042.7</v>
-      </c>
-      <c r="M18">
-        <v>-0.87680000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44302</v>
-      </c>
-      <c r="C19">
-        <v>64855.11</v>
-      </c>
-      <c r="D19">
-        <v>64805.83</v>
-      </c>
-      <c r="G19">
-        <v>49.28</v>
-      </c>
-      <c r="I19" s="5">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="J19" s="1">
-        <v>265543.67</v>
-      </c>
-      <c r="K19">
-        <v>234968.9</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1980.8</v>
-      </c>
-      <c r="M19">
-        <v>0.84299999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6"/>
-      <c r="B20">
-        <f>SUM(B15:B19)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <f>SUM(C15:C19)/5</f>
-        <v>64786.161999999997</v>
-      </c>
-      <c r="D20">
-        <f>SUM(D15:D19)/5</f>
-        <v>64993.706000000006</v>
-      </c>
-      <c r="F20">
-        <f>SUM(F15:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f>SUM(G15:G19)</f>
-        <v>-1037.75</v>
-      </c>
-      <c r="H20">
-        <f>SUM(H18:H19)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <f>G20/D20*100</f>
-        <v>-1.5966930705567088</v>
-      </c>
-      <c r="J20">
-        <f>SUM(J15:J19)/5</f>
-        <v>248072.60800000001</v>
-      </c>
-      <c r="K20">
-        <f>SUM(K15:K19)/5</f>
-        <v>230402.1</v>
-      </c>
-      <c r="L20" s="1">
-        <f>SUM(L15:L19)</f>
-        <v>-1798.0000000000002</v>
-      </c>
-      <c r="M20" s="5">
-        <f>L20/K20*100</f>
-        <v>-0.78037483165301014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6">
-        <v>44305</v>
-      </c>
-      <c r="B23">
-        <v>71733.67</v>
-      </c>
-      <c r="C23">
-        <v>66200.67</v>
-      </c>
-      <c r="D23">
-        <v>64855.11</v>
-      </c>
-      <c r="G23">
-        <v>1345.55</v>
-      </c>
-      <c r="I23" s="5">
-        <v>2.0747</v>
-      </c>
-      <c r="J23" s="1">
-        <v>271999.55</v>
-      </c>
-      <c r="K23">
-        <v>176364.6</v>
-      </c>
-      <c r="L23" s="1">
-        <v>6540.4</v>
-      </c>
-      <c r="M23">
-        <v>3.7084999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6">
-        <v>44306</v>
-      </c>
-      <c r="B24">
-        <v>61621.15</v>
-      </c>
-      <c r="C24">
-        <v>57150.1</v>
-      </c>
-      <c r="D24">
-        <v>66200.67</v>
-      </c>
-      <c r="G24">
-        <v>-112.89</v>
-      </c>
-      <c r="I24" s="5">
-        <v>-0.17050000000000001</v>
-      </c>
-      <c r="J24" s="1">
-        <v>271106.71999999997</v>
-      </c>
-      <c r="K24">
-        <v>173467</v>
-      </c>
-      <c r="L24" s="1">
-        <v>-893.96</v>
-      </c>
-      <c r="M24">
-        <v>-0.51529999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="6">
-        <v>44307</v>
-      </c>
-      <c r="C25">
-        <v>57362.12</v>
-      </c>
-      <c r="D25">
-        <v>57150.1</v>
-      </c>
-      <c r="G25">
-        <v>212.01</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0.371</v>
-      </c>
-      <c r="J25" s="1">
-        <v>281105.17</v>
-      </c>
-      <c r="K25">
-        <v>149788.29999999999</v>
-      </c>
-      <c r="L25" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="M25">
-        <v>8.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="6">
-        <v>44308</v>
-      </c>
-      <c r="C26">
-        <v>54305.1</v>
-      </c>
-      <c r="D26">
-        <v>57362.12</v>
-      </c>
-      <c r="G26">
-        <v>163.34</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0.2848</v>
-      </c>
-      <c r="J26" s="1">
-        <v>281383.8</v>
-      </c>
-      <c r="K26">
-        <v>147988</v>
-      </c>
-      <c r="L26" s="1">
-        <v>302.7</v>
-      </c>
-      <c r="M26">
-        <v>0.20449999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="6">
-        <v>44309</v>
-      </c>
-      <c r="B27">
-        <v>62555.69</v>
-      </c>
-      <c r="C27">
-        <v>52832.54</v>
-      </c>
-      <c r="D27">
-        <v>54305.1</v>
-      </c>
-      <c r="G27">
-        <v>557.47</v>
-      </c>
-      <c r="I27" s="5">
-        <v>1.0266</v>
-      </c>
-      <c r="J27" s="1">
-        <v>281829.95</v>
-      </c>
-      <c r="K27">
-        <v>160247.20000000001</v>
-      </c>
-      <c r="L27" s="1">
-        <v>456.2</v>
-      </c>
-      <c r="M27">
-        <v>0.28470000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="6"/>
-      <c r="C28">
-        <f>SUM(C23:C27)/5</f>
-        <v>57570.105999999992</v>
-      </c>
-      <c r="D28">
-        <f>SUM(D23:D27)/5</f>
-        <v>59974.619999999995</v>
-      </c>
-      <c r="F28">
-        <f>SUM(F23:F27)</f>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f>SUM(G23:G27)</f>
-        <v>2165.4799999999996</v>
-      </c>
-      <c r="H28">
-        <f>SUM(H26:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
-        <f>G28/D28*100</f>
-        <v>3.610660642785231</v>
-      </c>
-      <c r="J28">
-        <f>SUM(J23:J27)/5</f>
-        <v>277485.038</v>
-      </c>
-      <c r="K28">
-        <f>SUM(K23:K27)/5</f>
-        <v>161571.01999999996</v>
-      </c>
-      <c r="L28" s="1">
-        <f>SUM(L23:L27)</f>
-        <v>6418.6399999999994</v>
-      </c>
-      <c r="M28" s="5">
-        <f>L28/K28*100</f>
-        <v>3.9726431138455407</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="6">
-        <v>44310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="6">
-        <v>44311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="6">
-        <v>44312</v>
-      </c>
-      <c r="C31">
-        <v>52416.17</v>
-      </c>
-      <c r="D31">
-        <v>52832.54</v>
-      </c>
-      <c r="G31">
-        <v>-416.38</v>
-      </c>
-      <c r="I31" s="5">
-        <v>-0.78810000000000002</v>
-      </c>
-      <c r="J31" s="1">
-        <v>280973.92</v>
-      </c>
-      <c r="K31">
-        <v>159482.5</v>
-      </c>
-      <c r="L31" s="1">
-        <v>-848.8</v>
-      </c>
-      <c r="M31">
-        <v>-0.53220000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="6">
-        <v>44313</v>
-      </c>
-      <c r="C32">
-        <v>52416.17</v>
-      </c>
-      <c r="D32">
-        <v>52553.56</v>
-      </c>
-      <c r="G32">
-        <v>137.38</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0.26140000000000002</v>
-      </c>
-      <c r="J32" s="1">
-        <v>280950.14</v>
-      </c>
-      <c r="K32">
-        <v>122029.7</v>
-      </c>
-      <c r="L32" s="1">
-        <v>-3.5</v>
-      </c>
-      <c r="M32" s="5">
-        <v>-2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="6">
-        <v>44314</v>
-      </c>
-      <c r="C33">
-        <v>52946.96</v>
-      </c>
-      <c r="D33">
-        <v>52416.17</v>
-      </c>
-      <c r="G33">
-        <v>393.4</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0.75049999999999994</v>
-      </c>
-      <c r="J33" s="1">
-        <v>281757.98</v>
-      </c>
-      <c r="K33">
-        <v>132110.9</v>
-      </c>
-      <c r="L33" s="1">
-        <v>811.7</v>
-      </c>
-      <c r="M33">
-        <v>0.61439999999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="6">
-        <v>44315</v>
-      </c>
-      <c r="C34">
-        <v>53293.86</v>
-      </c>
-      <c r="D34">
-        <v>52416.17</v>
-      </c>
-      <c r="G34">
-        <v>346.9</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0.66180000000000005</v>
-      </c>
-      <c r="J34" s="1">
-        <v>273135.23</v>
-      </c>
-      <c r="K34">
-        <v>118045.6</v>
-      </c>
-      <c r="L34" s="1">
-        <v>1366.93</v>
-      </c>
-      <c r="M34">
-        <v>1.1579999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="6">
-        <v>44316</v>
-      </c>
-      <c r="C35">
-        <v>53141.46</v>
-      </c>
-      <c r="D35">
-        <v>52946.96</v>
-      </c>
-      <c r="G35">
-        <v>-152.4</v>
-      </c>
-      <c r="I35" s="5">
-        <v>-0.2878</v>
-      </c>
-      <c r="J35" s="1">
-        <v>271971.20000000001</v>
-      </c>
-      <c r="K35">
-        <v>154999.20000000001</v>
-      </c>
-      <c r="L35" s="1">
-        <v>-1144.9000000000001</v>
-      </c>
-      <c r="M35">
-        <v>-0.73860000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="C36">
-        <f>SUM(C31:C35)/5</f>
-        <v>52842.923999999999</v>
-      </c>
-      <c r="D36">
-        <f>SUM(D31:D35)/5</f>
-        <v>52633.08</v>
-      </c>
-      <c r="F36">
-        <f>SUM(F31:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <f>SUM(G31:G35)</f>
-        <v>308.89999999999998</v>
-      </c>
-      <c r="H36">
-        <f>SUM(H34:H35)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="5">
-        <f>G36/D36*100</f>
-        <v>0.58689326180417323</v>
-      </c>
-      <c r="J36">
-        <f>SUM(J31:J35)/5</f>
-        <v>277757.69400000002</v>
-      </c>
-      <c r="K36">
-        <f>SUM(K31:K35)/5</f>
-        <v>137333.57999999999</v>
-      </c>
-      <c r="L36" s="1">
-        <f>SUM(L31:L35)</f>
-        <v>181.43000000000006</v>
-      </c>
-      <c r="M36" s="5">
-        <f>L36/K36*100</f>
-        <v>0.13210898601784071</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="C38">
-        <f>SUM(C2,C3,C8,C9,C10,C11,C15,C16,C17,C18,C19,C23,C24,C25,C26,C27,C31,C32,C33,C34,C35)/21</f>
-        <v>61273.82428571429</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D2,D3,D8,D9,D10,D11,D15,D16,D17,D18,D19,D23,D24,D25,D26,D27,D31,D32,D33,D34,D35)/21</f>
-        <v>62035.173333333325</v>
-      </c>
-      <c r="G38">
-        <f>SUM(G2,G3,G8,G9,G10,G11,G15,G16,G17,G18,G19,G23,G24,G25,G26,G27,G31,G32,G33,G34,G35)</f>
-        <v>2314.3799999999997</v>
-      </c>
-      <c r="I38" s="5">
-        <f>G38/D38*100</f>
-        <v>3.730754466605827</v>
-      </c>
-      <c r="K38">
-        <f>SUM(K2,K3,K8,K9,K10,K11,K15,K16,K17,K18,K19,K23,K24,K25,K26,K27,K31,K32,K33,K34,K35)/21</f>
-        <v>191013.37619047621</v>
-      </c>
-      <c r="L38" s="1">
-        <f>SUM(L2,L3,L8,L9,L10,L11,L15,L16,L17,L18,L19,L23,L24,L25,L26,L27,L31,L32,L33,L34,L35)</f>
-        <v>6423.9199999999983</v>
-      </c>
-      <c r="M38" s="5">
-        <f>L38/K38*100</f>
-        <v>3.3630733763870775</v>
-      </c>
-      <c r="N38" s="12">
-        <f>G38+L38</f>
-        <v>8738.2999999999975</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="C42">
-        <v>8738.2999999999993</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="C43">
-        <v>-12503.81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="C44">
-        <v>1147.4000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="C45">
-        <v>6963.84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="C46">
-        <v>13367.86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="C47">
-        <v>5046.6400000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="C48">
-        <v>4861.92</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49">
-        <v>-10652.23</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50">
-        <v>-163.32</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51">
-        <v>9587.07</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52">
-        <v>6641.03</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53">
-        <v>45.33</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54">
-        <v>2047.78</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55">
-        <v>-273.42</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56">
-        <v>-2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="G12" formula="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,37 +4,38 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="7A" sheetId="48" r:id="rId1"/>
-    <sheet name="74" sheetId="47" r:id="rId2"/>
-    <sheet name="73" sheetId="46" r:id="rId3"/>
-    <sheet name="72" sheetId="45" r:id="rId4"/>
-    <sheet name="71" sheetId="44" r:id="rId5"/>
-    <sheet name="6A" sheetId="40" r:id="rId6"/>
+    <sheet name="75" sheetId="49" r:id="rId2"/>
+    <sheet name="74" sheetId="47" r:id="rId3"/>
+    <sheet name="73" sheetId="46" r:id="rId4"/>
+    <sheet name="72" sheetId="45" r:id="rId5"/>
+    <sheet name="71" sheetId="44" r:id="rId6"/>
     <sheet name="65" sheetId="43" r:id="rId7"/>
-    <sheet name="64" sheetId="42" r:id="rId8"/>
-    <sheet name="63" sheetId="41" r:id="rId9"/>
-    <sheet name="62" sheetId="39" r:id="rId10"/>
-    <sheet name="61" sheetId="38" r:id="rId11"/>
-    <sheet name="5" sheetId="37" r:id="rId12"/>
-    <sheet name="2104" sheetId="36" r:id="rId13"/>
-    <sheet name="2103" sheetId="33" r:id="rId14"/>
-    <sheet name="2102" sheetId="31" r:id="rId15"/>
-    <sheet name="2101" sheetId="26" r:id="rId16"/>
-    <sheet name="每月" sheetId="29" r:id="rId17"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId18"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId19"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId20"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId21"/>
+    <sheet name="6A" sheetId="40" r:id="rId8"/>
+    <sheet name="64" sheetId="42" r:id="rId9"/>
+    <sheet name="63" sheetId="41" r:id="rId10"/>
+    <sheet name="62" sheetId="39" r:id="rId11"/>
+    <sheet name="61" sheetId="38" r:id="rId12"/>
+    <sheet name="5" sheetId="37" r:id="rId13"/>
+    <sheet name="2104" sheetId="36" r:id="rId14"/>
+    <sheet name="2103" sheetId="33" r:id="rId15"/>
+    <sheet name="2102" sheetId="31" r:id="rId16"/>
+    <sheet name="2101" sheetId="26" r:id="rId17"/>
+    <sheet name="每月" sheetId="29" r:id="rId18"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId19"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId20"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId21"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1740,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2083,44 +2084,129 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="6"/>
-      <c r="B19">
-        <f>SUM(B2:B6)/5</f>
+      <c r="A19" s="6">
+        <v>44403</v>
+      </c>
+      <c r="J19" s="1">
+        <v>346532.81</v>
+      </c>
+      <c r="K19">
+        <v>341191.62</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-10790</v>
+      </c>
+      <c r="M19">
+        <v>-3.1623999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44404</v>
+      </c>
+      <c r="J20" s="1">
+        <v>350194.88</v>
+      </c>
+      <c r="K20">
+        <v>248836.5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-10497.8</v>
+      </c>
+      <c r="M20">
+        <v>-4.2187999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44405</v>
+      </c>
+      <c r="J21" s="1">
+        <v>297302.5</v>
+      </c>
+      <c r="K21">
+        <v>257045.36</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-1756.7</v>
+      </c>
+      <c r="M21">
+        <v>-0.68340000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44406</v>
+      </c>
+      <c r="J22" s="1">
+        <v>435117.81</v>
+      </c>
+      <c r="K22">
+        <v>278202.5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>16747</v>
+      </c>
+      <c r="M22">
+        <v>6.0197000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44407</v>
+      </c>
+      <c r="J23" s="1">
+        <v>411503.17</v>
+      </c>
+      <c r="K23">
+        <v>287799.21000000002</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-360</v>
+      </c>
+      <c r="M23">
+        <v>-0.12509999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6"/>
+      <c r="B24">
+        <f>SUM(B7:B11)/5</f>
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C24">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D24">
         <v>0</v>
       </c>
-      <c r="F19">
-        <f>SUM(F2:F6)</f>
+      <c r="F24">
+        <f>SUM(F7:F11)</f>
         <v>0</v>
       </c>
-      <c r="G19">
-        <f>SUM(G2:G6)</f>
+      <c r="G24">
+        <f>SUM(G7:G11)</f>
         <v>0</v>
       </c>
-      <c r="H19">
-        <f>SUM(H2:H6)</f>
+      <c r="H24">
+        <f>SUM(H7:H11)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="1">
-        <f>AVERAGE(J2:J18)</f>
-        <v>375393.29705882352</v>
-      </c>
-      <c r="K19" s="1">
-        <f>AVERAGE(K2:K18)</f>
-        <v>261556.0905882353</v>
-      </c>
-      <c r="L19" s="1">
-        <f>SUM(L2:L18)</f>
-        <v>-1941.5699999999988</v>
-      </c>
-      <c r="M19" s="5">
-        <f>L19/K19*100</f>
-        <v>-0.74231496411857212</v>
+      <c r="J24" s="1">
+        <f>AVERAGE(J2:J23)</f>
+        <v>373742.60090909083</v>
+      </c>
+      <c r="K24" s="1">
+        <f>AVERAGE(K2:K23)</f>
+        <v>266342.21500000003</v>
+      </c>
+      <c r="L24" s="1">
+        <f>SUM(L2:L23)</f>
+        <v>-8599.07</v>
+      </c>
+      <c r="M24" s="5">
+        <f>L24/K24*100</f>
+        <v>-3.2285794424289813</v>
       </c>
     </row>
   </sheetData>
@@ -2131,6 +2217,155 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44362</v>
+      </c>
+      <c r="J2" s="1">
+        <v>412797.08</v>
+      </c>
+      <c r="K2">
+        <v>329797.90000000002</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-2089.4</v>
+      </c>
+      <c r="M2">
+        <v>-0.63349999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44363</v>
+      </c>
+      <c r="J3" s="1">
+        <v>400806.78</v>
+      </c>
+      <c r="K3">
+        <v>353970.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-8960.5</v>
+      </c>
+      <c r="M3">
+        <v>-2.5314000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44364</v>
+      </c>
+      <c r="J4" s="1">
+        <v>408254.99</v>
+      </c>
+      <c r="K4">
+        <v>270435.7</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6487.1</v>
+      </c>
+      <c r="M4">
+        <v>2.3988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44365</v>
+      </c>
+      <c r="J5" s="1">
+        <v>412532.63</v>
+      </c>
+      <c r="K5">
+        <v>273539.59999999998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2301.3000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.84130000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6"/>
+      <c r="J6" s="1">
+        <f>AVERAGE(J2:J5)</f>
+        <v>408597.87</v>
+      </c>
+      <c r="K6" s="1">
+        <f>AVERAGE(K2:K5)</f>
+        <v>306935.92500000005</v>
+      </c>
+      <c r="L6" s="1">
+        <f>SUM(L1:L5)</f>
+        <v>-2261.4999999999991</v>
+      </c>
+      <c r="M6" s="5">
+        <f>L6/K6*100</f>
+        <v>-0.73679873087518144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -2296,7 +2531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -2496,7 +2731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -3365,7 +3600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -4459,7 +4694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -5637,7 +5872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -6231,7 +6466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -7149,7 +7384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -7659,7 +7894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -7845,134 +8080,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="5" max="5" width="12.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>861.52</v>
-      </c>
-      <c r="D2">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E2" s="8">
-        <f>D2*C2</f>
-        <v>961.45632000000012</v>
-      </c>
-      <c r="F2" s="9">
-        <f>E2-B2</f>
-        <v>-38.543679999999881</v>
-      </c>
-      <c r="H2">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-      <c r="I2">
-        <f>H2*C2</f>
-        <v>5.41256299844183</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3">
-        <v>2000</v>
-      </c>
-      <c r="C3">
-        <v>1744.1</v>
-      </c>
-      <c r="D3">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3" si="0">D3*C3</f>
-        <v>1946.4156</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3" si="1">E3-B3</f>
-        <v>-53.58439999999996</v>
-      </c>
-      <c r="H3">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3" si="2">H3*C3</f>
-        <v>10.957437001558171</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="E4" s="8"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="C6">
-        <f>SUM(C2:C4)</f>
-        <v>2605.62</v>
-      </c>
-      <c r="D6">
-        <v>3.3831000000000002</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" ref="E6" si="3">D6*C6</f>
-        <v>8815.0730220000005</v>
-      </c>
-      <c r="F6" s="9">
-        <v>16.37</v>
-      </c>
-      <c r="H6">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -8025,105 +8138,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="J2" s="1">
-        <v>391461.52</v>
+        <v>346532.81</v>
       </c>
       <c r="K2">
-        <v>346936</v>
+        <v>341191.62</v>
       </c>
       <c r="L2" s="1">
-        <v>-735.7</v>
+        <v>-10790</v>
       </c>
       <c r="M2">
-        <v>-0.21210000000000001</v>
+        <v>-3.1623999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44397</v>
+        <v>44404</v>
       </c>
       <c r="J3" s="1">
-        <v>381325.07</v>
+        <v>350194.88</v>
       </c>
       <c r="K3">
-        <v>241558</v>
+        <v>248836.5</v>
       </c>
       <c r="L3" s="1">
-        <v>-86</v>
+        <v>-10497.8</v>
       </c>
       <c r="M3">
-        <v>-3.56E-2</v>
+        <v>-4.2187999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="J4" s="1">
-        <v>385281.95</v>
+        <v>297302.5</v>
       </c>
       <c r="K4">
-        <v>248832</v>
+        <v>257045.36</v>
       </c>
       <c r="L4" s="1">
-        <v>3968</v>
+        <v>-1756.7</v>
       </c>
       <c r="M4">
-        <v>1.5947</v>
+        <v>-0.68340000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44399</v>
+        <v>44406</v>
       </c>
       <c r="J5" s="1">
-        <v>350182.62</v>
+        <v>435117.81</v>
       </c>
       <c r="K5">
-        <v>260244.58</v>
+        <v>278202.5</v>
       </c>
       <c r="L5" s="1">
-        <v>1428</v>
+        <v>16747</v>
       </c>
       <c r="M5">
-        <v>0.54869999999999997</v>
+        <v>6.0197000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44400</v>
+        <v>44407</v>
       </c>
       <c r="J6" s="1">
-        <v>321329.03999999998</v>
+        <v>411503.17</v>
       </c>
       <c r="K6">
-        <v>291717.36</v>
+        <v>287799.21000000002</v>
       </c>
       <c r="L6" s="1">
-        <v>-5033</v>
+        <v>-360</v>
       </c>
       <c r="M6">
-        <v>-1.7253000000000001</v>
+        <v>-0.12509999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>365916.04000000004</v>
+        <v>368130.234</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>277857.58799999999</v>
+        <v>282615.038</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-458.69999999999982</v>
+        <v>-6657.5</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-0.16508456843006922</v>
+        <v>-2.3556779027448638</v>
       </c>
     </row>
   </sheetData>
@@ -8134,6 +8247,128 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="5" max="5" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>861.52</v>
+      </c>
+      <c r="D2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E2" s="8">
+        <f>D2*C2</f>
+        <v>961.45632000000012</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2-B2</f>
+        <v>-38.543679999999881</v>
+      </c>
+      <c r="H2">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I2">
+        <f>H2*C2</f>
+        <v>5.41256299844183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>1744.1</v>
+      </c>
+      <c r="D3">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3" si="0">D3*C3</f>
+        <v>1946.4156</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3" si="1">E3-B3</f>
+        <v>-53.58439999999996</v>
+      </c>
+      <c r="H3">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3" si="2">H3*C3</f>
+        <v>10.957437001558171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6">
+        <f>SUM(C2:C4)</f>
+        <v>2605.62</v>
+      </c>
+      <c r="D6">
+        <v>3.3831000000000002</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" ref="E6" si="3">D6*C6</f>
+        <v>8815.0730220000005</v>
+      </c>
+      <c r="F6" s="9">
+        <v>16.37</v>
+      </c>
+      <c r="H6">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -8215,7 +8450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -8436,7 +8671,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="J7" sqref="J7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -8489,105 +8724,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="J2" s="1">
-        <v>399553.09</v>
+        <v>391461.52</v>
       </c>
       <c r="K2">
-        <v>315114</v>
+        <v>346936</v>
       </c>
       <c r="L2" s="1">
-        <v>7444</v>
+        <v>-735.7</v>
       </c>
       <c r="M2">
-        <v>2.3622999999999998</v>
+        <v>-0.21210000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44390</v>
+        <v>44397</v>
       </c>
       <c r="J3" s="1">
-        <v>398533.05</v>
+        <v>381325.07</v>
       </c>
       <c r="K3">
-        <v>266844</v>
+        <v>241558</v>
       </c>
       <c r="L3" s="1">
-        <v>-975</v>
+        <v>-86</v>
       </c>
       <c r="M3">
-        <v>-0.3654</v>
+        <v>-3.56E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="J4" s="1">
-        <v>395001.88</v>
+        <v>385281.95</v>
       </c>
       <c r="K4">
-        <v>236228</v>
+        <v>248832</v>
       </c>
       <c r="L4" s="1">
-        <v>-3479</v>
+        <v>3968</v>
       </c>
       <c r="M4">
-        <v>-1.4726999999999999</v>
+        <v>1.5947</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44392</v>
+        <v>44399</v>
       </c>
       <c r="J5" s="1">
-        <v>398680.85</v>
+        <v>350182.62</v>
       </c>
       <c r="K5">
-        <v>178125</v>
+        <v>260244.58</v>
       </c>
       <c r="L5" s="1">
-        <v>3721</v>
+        <v>1428</v>
       </c>
       <c r="M5">
-        <v>2.089</v>
+        <v>0.54869999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44393</v>
+        <v>44400</v>
       </c>
       <c r="J6" s="1">
-        <v>215638.8</v>
+        <v>321329.03999999998</v>
       </c>
       <c r="K6">
-        <v>181630.1</v>
+        <v>291717.36</v>
       </c>
       <c r="L6" s="1">
-        <v>-6398</v>
+        <v>-5033</v>
       </c>
       <c r="M6">
-        <v>-3.5225</v>
+        <v>-1.7253000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>361481.53400000004</v>
+        <v>365916.04000000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>235588.22000000003</v>
+        <v>277857.58799999999</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>313</v>
+        <v>-458.69999999999982</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>0.13285893496712184</v>
+        <v>-0.16508456843006922</v>
       </c>
     </row>
   </sheetData>
@@ -8655,105 +8890,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="J2" s="1">
-        <v>395945.96</v>
+        <v>399553.09</v>
       </c>
       <c r="K2">
-        <v>190776</v>
+        <v>315114</v>
       </c>
       <c r="L2" s="1">
-        <v>1045.7</v>
+        <v>7444</v>
       </c>
       <c r="M2">
-        <v>0.54810000000000003</v>
+        <v>2.3622999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="J3" s="1">
-        <v>392945.76</v>
+        <v>398533.05</v>
       </c>
       <c r="K3">
-        <v>321998</v>
+        <v>266844</v>
       </c>
       <c r="L3" s="1">
-        <v>-2720.9</v>
+        <v>-975</v>
       </c>
       <c r="M3">
-        <v>-0.84499999999999997</v>
+        <v>-0.3654</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44384</v>
+        <v>44391</v>
       </c>
       <c r="J4" s="1">
-        <v>401240.56</v>
+        <v>395001.88</v>
       </c>
       <c r="K4">
-        <v>264214.08</v>
+        <v>236228</v>
       </c>
       <c r="L4" s="1">
-        <v>8335</v>
+        <v>-3479</v>
       </c>
       <c r="M4">
-        <v>3.1545999999999998</v>
+        <v>-1.4726999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44385</v>
+        <v>44392</v>
       </c>
       <c r="J5" s="1">
-        <v>400854.3</v>
+        <v>398680.85</v>
       </c>
       <c r="K5">
-        <v>298343.01</v>
+        <v>178125</v>
       </c>
       <c r="L5" s="1">
-        <v>-344.6</v>
+        <v>3721</v>
       </c>
       <c r="M5">
-        <v>-0.11550000000000001</v>
+        <v>2.089</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44386</v>
+        <v>44393</v>
       </c>
       <c r="J6" s="1">
-        <v>358039.83</v>
+        <v>215638.8</v>
       </c>
       <c r="K6">
-        <v>299620.11</v>
+        <v>181630.1</v>
       </c>
       <c r="L6" s="1">
-        <v>1353</v>
+        <v>-6398</v>
       </c>
       <c r="M6">
-        <v>0.4516</v>
+        <v>-3.5225</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>389805.28200000001</v>
+        <v>361481.53400000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>274990.24000000005</v>
+        <v>235588.22000000003</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>7668.2</v>
+        <v>313</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>2.7885353312903027</v>
+        <v>0.13285893496712184</v>
       </c>
     </row>
   </sheetData>
@@ -8764,6 +8999,172 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J2" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K2">
+        <v>190776</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M2">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J3" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K3">
+        <v>321998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M3">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J4" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K4">
+        <v>264214.08</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M4">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J5" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K5">
+        <v>298343.01</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M5">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J6" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K6">
+        <v>299620.11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M6">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>389805.28200000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>274990.24000000005</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>7668.2</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>2.7885353312903027</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -8935,514 +9336,6 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="6">
-        <v>44348</v>
-      </c>
-      <c r="J2" s="1">
-        <v>369566.62</v>
-      </c>
-      <c r="K2" s="14">
-        <v>235801.1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2159.6</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.91590000000000005</v>
-      </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="6">
-        <v>44349</v>
-      </c>
-      <c r="J3" s="1">
-        <v>365120.57</v>
-      </c>
-      <c r="K3" s="14">
-        <v>296728</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-4436.1000000000004</v>
-      </c>
-      <c r="M3" s="5">
-        <v>-1.4950000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6">
-        <v>44350</v>
-      </c>
-      <c r="J4" s="1">
-        <v>363781.23</v>
-      </c>
-      <c r="K4" s="14">
-        <v>259382.2</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1330.1</v>
-      </c>
-      <c r="M4" s="5">
-        <v>-0.51280000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6">
-        <v>44351</v>
-      </c>
-      <c r="J5" s="1">
-        <v>366580.88</v>
-      </c>
-      <c r="K5" s="14">
-        <v>209187.4</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2829.7</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1.3527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="6">
-        <v>44354</v>
-      </c>
-      <c r="J6" s="1">
-        <v>418141.49</v>
-      </c>
-      <c r="K6" s="14">
-        <v>246536.6</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1562.6</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.63380000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="6">
-        <v>44355</v>
-      </c>
-      <c r="J7" s="1">
-        <v>414310.09</v>
-      </c>
-      <c r="K7" s="14">
-        <v>318721.40000000002</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-3812.1</v>
-      </c>
-      <c r="M7" s="5">
-        <v>-1.1960999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6">
-        <v>44356</v>
-      </c>
-      <c r="J8" s="1">
-        <v>413741.94</v>
-      </c>
-      <c r="K8" s="14">
-        <v>324161.7</v>
-      </c>
-      <c r="L8" s="1">
-        <v>427.2</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0.1318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6">
-        <v>44357</v>
-      </c>
-      <c r="J9" s="1">
-        <v>417812.38</v>
-      </c>
-      <c r="K9" s="14">
-        <v>282917</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4087.1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1.4446000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="6">
-        <v>44358</v>
-      </c>
-      <c r="J10" s="1">
-        <v>394905.9</v>
-      </c>
-      <c r="K10" s="14">
-        <v>322514</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-3902.2</v>
-      </c>
-      <c r="M10" s="5">
-        <v>-1.2099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6">
-        <v>44362</v>
-      </c>
-      <c r="J11" s="1">
-        <v>412797.08</v>
-      </c>
-      <c r="K11" s="14">
-        <v>329797.90000000002</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-2089.4</v>
-      </c>
-      <c r="M11" s="5">
-        <v>-0.63349999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="6">
-        <v>44363</v>
-      </c>
-      <c r="J12" s="1">
-        <v>400806.78</v>
-      </c>
-      <c r="K12" s="14">
-        <v>353970.5</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-8960.5</v>
-      </c>
-      <c r="M12" s="5">
-        <v>-2.5314000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="6">
-        <v>44364</v>
-      </c>
-      <c r="J13" s="1">
-        <v>408254.99</v>
-      </c>
-      <c r="K13" s="14">
-        <v>270435.7</v>
-      </c>
-      <c r="L13" s="1">
-        <v>6487.1</v>
-      </c>
-      <c r="M13" s="5">
-        <v>2.3988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="6">
-        <v>44365</v>
-      </c>
-      <c r="J14" s="1">
-        <v>412532.63</v>
-      </c>
-      <c r="K14" s="14">
-        <v>273539.59999999998</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2301.3000000000002</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.84130000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="6">
-        <v>44368</v>
-      </c>
-      <c r="J15" s="1">
-        <v>412210.07</v>
-      </c>
-      <c r="K15">
-        <v>276387.59999999998</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-319.3</v>
-      </c>
-      <c r="M15">
-        <v>-0.11550000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="6">
-        <v>44369</v>
-      </c>
-      <c r="J16" s="1">
-        <v>413594.91</v>
-      </c>
-      <c r="K16">
-        <v>319069.5</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1400.4</v>
-      </c>
-      <c r="M16">
-        <v>0.43890000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="6">
-        <v>44370</v>
-      </c>
-      <c r="J17" s="1">
-        <v>416573.23</v>
-      </c>
-      <c r="K17">
-        <v>244798.4</v>
-      </c>
-      <c r="L17" s="1">
-        <v>3015</v>
-      </c>
-      <c r="M17">
-        <v>1.2316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="6">
-        <v>44371</v>
-      </c>
-      <c r="J18" s="1">
-        <v>413177.05</v>
-      </c>
-      <c r="K18">
-        <v>315915.2</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-3368.2</v>
-      </c>
-      <c r="M18">
-        <v>-1.0662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="6">
-        <v>44372</v>
-      </c>
-      <c r="J19" s="1">
-        <v>412872.75</v>
-      </c>
-      <c r="K19">
-        <v>319013.59999999998</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5398.4</v>
-      </c>
-      <c r="M19">
-        <v>1.6921999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="6">
-        <v>44375</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="1"/>
-      <c r="I20"/>
-      <c r="J20" s="1">
-        <v>421680.23</v>
-      </c>
-      <c r="K20">
-        <v>235082.9</v>
-      </c>
-      <c r="L20">
-        <v>3167.1</v>
-      </c>
-      <c r="M20">
-        <v>1.3472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="6">
-        <v>44376</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="1"/>
-      <c r="I21"/>
-      <c r="J21" s="1">
-        <v>420854.97</v>
-      </c>
-      <c r="K21">
-        <v>334427.98</v>
-      </c>
-      <c r="L21">
-        <v>-777.6</v>
-      </c>
-      <c r="M21">
-        <v>-0.23250000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="6">
-        <v>44377</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="1"/>
-      <c r="I22"/>
-      <c r="J22" s="1">
-        <v>424153.89</v>
-      </c>
-      <c r="K22">
-        <v>281291</v>
-      </c>
-      <c r="L22">
-        <v>3372.42</v>
-      </c>
-      <c r="M22">
-        <v>1.1989000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="6"/>
-      <c r="B23">
-        <f>SUM(B6:B10)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f>SUM(F6:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G6:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f>SUM(H6:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <f>AVERAGE(J2:J22)</f>
-        <v>404450.93714285712</v>
-      </c>
-      <c r="K23" s="1">
-        <f>AVERAGE(K2:K22)</f>
-        <v>288079.96571428579</v>
-      </c>
-      <c r="L23" s="1">
-        <f>SUM(L1:L22)</f>
-        <v>7212.42</v>
-      </c>
-      <c r="M23" s="5">
-        <f>L23/K23*100</f>
-        <v>2.5036173487861317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="L25">
-        <v>6522.77</v>
-      </c>
-      <c r="M25" s="1">
-        <f>AVERAGE(L25,L26,L27)</f>
-        <v>10335.52</v>
-      </c>
-      <c r="N25" s="1">
-        <f>AVERAGE(L25:L30)</f>
-        <v>3917.4199999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="L26">
-        <v>16134.77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="L27">
-        <v>8349.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="L28" s="1">
-        <v>-11625.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="L29" s="1">
-        <v>-2946.04</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="L30" s="1">
-        <v>7069.1</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
@@ -9594,6 +9487,514 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="6">
+        <v>44348</v>
+      </c>
+      <c r="J2" s="1">
+        <v>369566.62</v>
+      </c>
+      <c r="K2" s="14">
+        <v>235801.1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2159.6</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6">
+        <v>44349</v>
+      </c>
+      <c r="J3" s="1">
+        <v>365120.57</v>
+      </c>
+      <c r="K3" s="14">
+        <v>296728</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-4436.1000000000004</v>
+      </c>
+      <c r="M3" s="5">
+        <v>-1.4950000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6">
+        <v>44350</v>
+      </c>
+      <c r="J4" s="1">
+        <v>363781.23</v>
+      </c>
+      <c r="K4" s="14">
+        <v>259382.2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1330.1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>-0.51280000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6">
+        <v>44351</v>
+      </c>
+      <c r="J5" s="1">
+        <v>366580.88</v>
+      </c>
+      <c r="K5" s="14">
+        <v>209187.4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2829.7</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1.3527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6">
+        <v>44354</v>
+      </c>
+      <c r="J6" s="1">
+        <v>418141.49</v>
+      </c>
+      <c r="K6" s="14">
+        <v>246536.6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1562.6</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.63380000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6">
+        <v>44355</v>
+      </c>
+      <c r="J7" s="1">
+        <v>414310.09</v>
+      </c>
+      <c r="K7" s="14">
+        <v>318721.40000000002</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-3812.1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>-1.1960999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6">
+        <v>44356</v>
+      </c>
+      <c r="J8" s="1">
+        <v>413741.94</v>
+      </c>
+      <c r="K8" s="14">
+        <v>324161.7</v>
+      </c>
+      <c r="L8" s="1">
+        <v>427.2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6">
+        <v>44357</v>
+      </c>
+      <c r="J9" s="1">
+        <v>417812.38</v>
+      </c>
+      <c r="K9" s="14">
+        <v>282917</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4087.1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1.4446000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6">
+        <v>44358</v>
+      </c>
+      <c r="J10" s="1">
+        <v>394905.9</v>
+      </c>
+      <c r="K10" s="14">
+        <v>322514</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-3902.2</v>
+      </c>
+      <c r="M10" s="5">
+        <v>-1.2099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6">
+        <v>44362</v>
+      </c>
+      <c r="J11" s="1">
+        <v>412797.08</v>
+      </c>
+      <c r="K11" s="14">
+        <v>329797.90000000002</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-2089.4</v>
+      </c>
+      <c r="M11" s="5">
+        <v>-0.63349999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="6">
+        <v>44363</v>
+      </c>
+      <c r="J12" s="1">
+        <v>400806.78</v>
+      </c>
+      <c r="K12" s="14">
+        <v>353970.5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-8960.5</v>
+      </c>
+      <c r="M12" s="5">
+        <v>-2.5314000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6">
+        <v>44364</v>
+      </c>
+      <c r="J13" s="1">
+        <v>408254.99</v>
+      </c>
+      <c r="K13" s="14">
+        <v>270435.7</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6487.1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2.3988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6">
+        <v>44365</v>
+      </c>
+      <c r="J14" s="1">
+        <v>412532.63</v>
+      </c>
+      <c r="K14" s="14">
+        <v>273539.59999999998</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2301.3000000000002</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.84130000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6">
+        <v>44368</v>
+      </c>
+      <c r="J15" s="1">
+        <v>412210.07</v>
+      </c>
+      <c r="K15">
+        <v>276387.59999999998</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-319.3</v>
+      </c>
+      <c r="M15">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6">
+        <v>44369</v>
+      </c>
+      <c r="J16" s="1">
+        <v>413594.91</v>
+      </c>
+      <c r="K16">
+        <v>319069.5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1400.4</v>
+      </c>
+      <c r="M16">
+        <v>0.43890000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="6">
+        <v>44370</v>
+      </c>
+      <c r="J17" s="1">
+        <v>416573.23</v>
+      </c>
+      <c r="K17">
+        <v>244798.4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3015</v>
+      </c>
+      <c r="M17">
+        <v>1.2316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="6">
+        <v>44371</v>
+      </c>
+      <c r="J18" s="1">
+        <v>413177.05</v>
+      </c>
+      <c r="K18">
+        <v>315915.2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-3368.2</v>
+      </c>
+      <c r="M18">
+        <v>-1.0662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6">
+        <v>44372</v>
+      </c>
+      <c r="J19" s="1">
+        <v>412872.75</v>
+      </c>
+      <c r="K19">
+        <v>319013.59999999998</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5398.4</v>
+      </c>
+      <c r="M19">
+        <v>1.6921999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="6">
+        <v>44375</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="1"/>
+      <c r="I20"/>
+      <c r="J20" s="1">
+        <v>421680.23</v>
+      </c>
+      <c r="K20">
+        <v>235082.9</v>
+      </c>
+      <c r="L20">
+        <v>3167.1</v>
+      </c>
+      <c r="M20">
+        <v>1.3472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6">
+        <v>44376</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1"/>
+      <c r="I21"/>
+      <c r="J21" s="1">
+        <v>420854.97</v>
+      </c>
+      <c r="K21">
+        <v>334427.98</v>
+      </c>
+      <c r="L21">
+        <v>-777.6</v>
+      </c>
+      <c r="M21">
+        <v>-0.23250000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="6">
+        <v>44377</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1"/>
+      <c r="I22"/>
+      <c r="J22" s="1">
+        <v>424153.89</v>
+      </c>
+      <c r="K22">
+        <v>281291</v>
+      </c>
+      <c r="L22">
+        <v>3372.42</v>
+      </c>
+      <c r="M22">
+        <v>1.1989000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6"/>
+      <c r="B23">
+        <f>SUM(B6:B10)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F6:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G6:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H6:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <f>AVERAGE(J2:J22)</f>
+        <v>404450.93714285712</v>
+      </c>
+      <c r="K23" s="1">
+        <f>AVERAGE(K2:K22)</f>
+        <v>288079.96571428579</v>
+      </c>
+      <c r="L23" s="1">
+        <f>SUM(L1:L22)</f>
+        <v>7212.42</v>
+      </c>
+      <c r="M23" s="5">
+        <f>L23/K23*100</f>
+        <v>2.5036173487861317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="L25">
+        <v>6522.77</v>
+      </c>
+      <c r="M25" s="1">
+        <f>AVERAGE(L25,L26,L27)</f>
+        <v>10335.52</v>
+      </c>
+      <c r="N25" s="1">
+        <f>AVERAGE(L25:L30)</f>
+        <v>3917.4199999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="L26">
+        <v>16134.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="L27">
+        <v>8349.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="L28" s="1">
+        <v>-11625.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="L29" s="1">
+        <v>-2946.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="L30" s="1">
+        <v>7069.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9756,153 +10157,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44362</v>
-      </c>
-      <c r="J2" s="1">
-        <v>412797.08</v>
-      </c>
-      <c r="K2">
-        <v>329797.90000000002</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-2089.4</v>
-      </c>
-      <c r="M2">
-        <v>-0.63349999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44363</v>
-      </c>
-      <c r="J3" s="1">
-        <v>400806.78</v>
-      </c>
-      <c r="K3">
-        <v>353970.5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-8960.5</v>
-      </c>
-      <c r="M3">
-        <v>-2.5314000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44364</v>
-      </c>
-      <c r="J4" s="1">
-        <v>408254.99</v>
-      </c>
-      <c r="K4">
-        <v>270435.7</v>
-      </c>
-      <c r="L4" s="1">
-        <v>6487.1</v>
-      </c>
-      <c r="M4">
-        <v>2.3988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44365</v>
-      </c>
-      <c r="J5" s="1">
-        <v>412532.63</v>
-      </c>
-      <c r="K5">
-        <v>273539.59999999998</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2301.3000000000002</v>
-      </c>
-      <c r="M5">
-        <v>0.84130000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6"/>
-      <c r="J6" s="1">
-        <f>AVERAGE(J2:J5)</f>
-        <v>408597.87</v>
-      </c>
-      <c r="K6" s="1">
-        <f>AVERAGE(K2:K5)</f>
-        <v>306935.92500000005</v>
-      </c>
-      <c r="L6" s="1">
-        <f>SUM(L1:L5)</f>
-        <v>-2261.4999999999991</v>
-      </c>
-      <c r="M6" s="5">
-        <f>L6/K6*100</f>
-        <v>-0.73679873087518144</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,38 +4,39 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="7A" sheetId="48" r:id="rId1"/>
-    <sheet name="75" sheetId="49" r:id="rId2"/>
-    <sheet name="74" sheetId="47" r:id="rId3"/>
-    <sheet name="73" sheetId="46" r:id="rId4"/>
-    <sheet name="72" sheetId="45" r:id="rId5"/>
-    <sheet name="71" sheetId="44" r:id="rId6"/>
-    <sheet name="65" sheetId="43" r:id="rId7"/>
-    <sheet name="6A" sheetId="40" r:id="rId8"/>
-    <sheet name="64" sheetId="42" r:id="rId9"/>
-    <sheet name="63" sheetId="41" r:id="rId10"/>
-    <sheet name="62" sheetId="39" r:id="rId11"/>
-    <sheet name="61" sheetId="38" r:id="rId12"/>
-    <sheet name="5" sheetId="37" r:id="rId13"/>
-    <sheet name="2104" sheetId="36" r:id="rId14"/>
-    <sheet name="2103" sheetId="33" r:id="rId15"/>
-    <sheet name="2102" sheetId="31" r:id="rId16"/>
-    <sheet name="2101" sheetId="26" r:id="rId17"/>
-    <sheet name="每月" sheetId="29" r:id="rId18"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId19"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId20"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId21"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId22"/>
+    <sheet name="81" sheetId="50" r:id="rId1"/>
+    <sheet name="7A" sheetId="48" r:id="rId2"/>
+    <sheet name="75" sheetId="49" r:id="rId3"/>
+    <sheet name="74" sheetId="47" r:id="rId4"/>
+    <sheet name="73" sheetId="46" r:id="rId5"/>
+    <sheet name="72" sheetId="45" r:id="rId6"/>
+    <sheet name="71" sheetId="44" r:id="rId7"/>
+    <sheet name="65" sheetId="43" r:id="rId8"/>
+    <sheet name="6A" sheetId="40" r:id="rId9"/>
+    <sheet name="64" sheetId="42" r:id="rId10"/>
+    <sheet name="63" sheetId="41" r:id="rId11"/>
+    <sheet name="62" sheetId="39" r:id="rId12"/>
+    <sheet name="61" sheetId="38" r:id="rId13"/>
+    <sheet name="5" sheetId="37" r:id="rId14"/>
+    <sheet name="2104" sheetId="36" r:id="rId15"/>
+    <sheet name="2103" sheetId="33" r:id="rId16"/>
+    <sheet name="2102" sheetId="31" r:id="rId17"/>
+    <sheet name="2101" sheetId="26" r:id="rId18"/>
+    <sheet name="每月" sheetId="29" r:id="rId19"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId20"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId21"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId22"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1741,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1754,9 +1755,10 @@
     <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
     <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1784,7 +1786,7 @@
       <c r="J1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1796,417 +1798,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44378</v>
+        <v>44410</v>
       </c>
       <c r="J2" s="1">
-        <v>400968.2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>221650.6</v>
+        <v>392126.02</v>
+      </c>
+      <c r="K2">
+        <v>320852.71999999997</v>
       </c>
       <c r="L2" s="1">
-        <v>-3191.21</v>
-      </c>
-      <c r="M2" s="5">
-        <v>-1.4145000000000001</v>
+        <v>-29.6</v>
+      </c>
+      <c r="M2">
+        <v>-9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44379</v>
+        <v>44411</v>
       </c>
       <c r="J3" s="1">
-        <v>394703.57</v>
+        <v>428982.28</v>
       </c>
       <c r="K3">
-        <v>282622.7</v>
+        <v>216964</v>
       </c>
       <c r="L3" s="1">
-        <v>-6272.86</v>
+        <v>-5543</v>
       </c>
       <c r="M3">
-        <v>-2.2845</v>
+        <v>-2.5548000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44382</v>
+        <v>44412</v>
       </c>
       <c r="J4" s="1">
-        <v>395945.96</v>
+        <v>407773.25</v>
       </c>
       <c r="K4">
-        <v>190776</v>
+        <v>157353</v>
       </c>
       <c r="L4" s="1">
-        <v>1045.7</v>
+        <v>2844</v>
       </c>
       <c r="M4">
-        <v>0.54810000000000003</v>
+        <v>1.8073999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44383</v>
+        <v>44413</v>
       </c>
       <c r="J5" s="1">
-        <v>392945.76</v>
+        <v>383514.64</v>
       </c>
       <c r="K5">
-        <v>321998</v>
+        <v>190161.02</v>
       </c>
       <c r="L5" s="1">
-        <v>-2720.9</v>
+        <v>-1180</v>
       </c>
       <c r="M5">
-        <v>-0.84499999999999997</v>
+        <v>-0.62050000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44384</v>
+        <v>44414</v>
       </c>
       <c r="J6" s="1">
-        <v>401240.56</v>
+        <v>398314.84</v>
       </c>
       <c r="K6">
-        <v>264214.08</v>
+        <v>247438.86</v>
       </c>
       <c r="L6" s="1">
-        <v>8335</v>
+        <v>218.8</v>
       </c>
       <c r="M6">
-        <v>3.1545999999999998</v>
+        <v>8.8400000000000006E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="6">
-        <v>44385</v>
-      </c>
       <c r="J7" s="1">
-        <v>400854.3</v>
-      </c>
-      <c r="K7">
-        <v>298343.01</v>
+        <f>AVERAGE(J2:J6)</f>
+        <v>402142.20600000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>226553.92</v>
       </c>
       <c r="L7" s="1">
-        <v>-344.6</v>
-      </c>
-      <c r="M7">
-        <v>-0.11550000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6">
-        <v>44386</v>
-      </c>
-      <c r="J8" s="1">
-        <v>358039.83</v>
-      </c>
-      <c r="K8">
-        <v>299620.11</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1353</v>
-      </c>
-      <c r="M8">
-        <v>0.4516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6">
-        <v>44389</v>
-      </c>
-      <c r="J9" s="1">
-        <v>399553.09</v>
-      </c>
-      <c r="K9">
-        <v>315114</v>
-      </c>
-      <c r="L9" s="1">
-        <v>7444</v>
-      </c>
-      <c r="M9">
-        <v>2.3622999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6">
-        <v>44390</v>
-      </c>
-      <c r="J10" s="1">
-        <v>398533.05</v>
-      </c>
-      <c r="K10">
-        <v>266844</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-975</v>
-      </c>
-      <c r="M10">
-        <v>-0.3654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6">
-        <v>44391</v>
-      </c>
-      <c r="J11" s="1">
-        <v>395001.88</v>
-      </c>
-      <c r="K11">
-        <v>236228</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-3479</v>
-      </c>
-      <c r="M11">
-        <v>-1.4726999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6">
-        <v>44392</v>
-      </c>
-      <c r="J12" s="1">
-        <v>398680.85</v>
-      </c>
-      <c r="K12">
-        <v>178125</v>
-      </c>
-      <c r="L12" s="1">
-        <v>3721</v>
-      </c>
-      <c r="M12">
-        <v>2.089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6">
-        <v>44393</v>
-      </c>
-      <c r="J13" s="1">
-        <v>215638.8</v>
-      </c>
-      <c r="K13">
-        <v>181630.1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-6398</v>
-      </c>
-      <c r="M13">
-        <v>-3.5225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6">
-        <v>44396</v>
-      </c>
-      <c r="J14" s="1">
-        <v>391461.52</v>
-      </c>
-      <c r="K14">
-        <v>346936</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-735.7</v>
-      </c>
-      <c r="M14">
-        <v>-0.21210000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6">
-        <v>44397</v>
-      </c>
-      <c r="J15" s="1">
-        <v>381325.07</v>
-      </c>
-      <c r="K15">
-        <v>241558</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-86</v>
-      </c>
-      <c r="M15">
-        <v>-3.56E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6">
-        <v>44398</v>
-      </c>
-      <c r="J16" s="1">
-        <v>385281.95</v>
-      </c>
-      <c r="K16">
-        <v>248832</v>
-      </c>
-      <c r="L16" s="1">
-        <v>3968</v>
-      </c>
-      <c r="M16">
-        <v>1.5947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44399</v>
-      </c>
-      <c r="J17" s="1">
-        <v>350182.62</v>
-      </c>
-      <c r="K17">
-        <v>260244.58</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1428</v>
-      </c>
-      <c r="M17">
-        <v>0.54869999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6">
-        <v>44400</v>
-      </c>
-      <c r="J18" s="1">
-        <v>321329.03999999998</v>
-      </c>
-      <c r="K18">
-        <v>291717.36</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-5033</v>
-      </c>
-      <c r="M18">
-        <v>-1.7253000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44403</v>
-      </c>
-      <c r="J19" s="1">
-        <v>346532.81</v>
-      </c>
-      <c r="K19">
-        <v>341191.62</v>
-      </c>
-      <c r="L19" s="1">
-        <v>-10790</v>
-      </c>
-      <c r="M19">
-        <v>-3.1623999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>44404</v>
-      </c>
-      <c r="J20" s="1">
-        <v>350194.88</v>
-      </c>
-      <c r="K20">
-        <v>248836.5</v>
-      </c>
-      <c r="L20" s="1">
-        <v>-10497.8</v>
-      </c>
-      <c r="M20">
-        <v>-4.2187999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44405</v>
-      </c>
-      <c r="J21" s="1">
-        <v>297302.5</v>
-      </c>
-      <c r="K21">
-        <v>257045.36</v>
-      </c>
-      <c r="L21" s="1">
-        <v>-1756.7</v>
-      </c>
-      <c r="M21">
-        <v>-0.68340000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44406</v>
-      </c>
-      <c r="J22" s="1">
-        <v>435117.81</v>
-      </c>
-      <c r="K22">
-        <v>278202.5</v>
-      </c>
-      <c r="L22" s="1">
-        <v>16747</v>
-      </c>
-      <c r="M22">
-        <v>6.0197000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6">
-        <v>44407</v>
-      </c>
-      <c r="J23" s="1">
-        <v>411503.17</v>
-      </c>
-      <c r="K23">
-        <v>287799.21000000002</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-360</v>
-      </c>
-      <c r="M23">
-        <v>-0.12509999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6"/>
-      <c r="B24">
-        <f>SUM(B7:B11)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f>SUM(F7:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f>SUM(G7:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f>SUM(H7:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <f>AVERAGE(J2:J23)</f>
-        <v>373742.60090909083</v>
-      </c>
-      <c r="K24" s="1">
-        <f>AVERAGE(K2:K23)</f>
-        <v>266342.21500000003</v>
-      </c>
-      <c r="L24" s="1">
-        <f>SUM(L2:L23)</f>
-        <v>-8599.07</v>
-      </c>
-      <c r="M24" s="5">
-        <f>L24/K24*100</f>
-        <v>-3.2285794424289813</v>
+        <f>SUM(L1:L6)</f>
+        <v>-3689.8</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-1.6286630573419343</v>
       </c>
     </row>
   </sheetData>
@@ -2217,6 +1907,172 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44368</v>
+      </c>
+      <c r="J2" s="1">
+        <v>412210.07</v>
+      </c>
+      <c r="K2">
+        <v>276387.59999999998</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-319.3</v>
+      </c>
+      <c r="M2">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44369</v>
+      </c>
+      <c r="J3" s="1">
+        <v>413594.91</v>
+      </c>
+      <c r="K3">
+        <v>319069.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1400.4</v>
+      </c>
+      <c r="M3">
+        <v>0.43890000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44370</v>
+      </c>
+      <c r="J4" s="1">
+        <v>416573.23</v>
+      </c>
+      <c r="K4">
+        <v>244798.4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3015</v>
+      </c>
+      <c r="M4">
+        <v>1.2316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44371</v>
+      </c>
+      <c r="J5" s="1">
+        <v>413177.05</v>
+      </c>
+      <c r="K5">
+        <v>315915.2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-3368.2</v>
+      </c>
+      <c r="M5">
+        <v>-1.0662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44372</v>
+      </c>
+      <c r="J6" s="1">
+        <v>412872.75</v>
+      </c>
+      <c r="K6">
+        <v>319013.59999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5398.4</v>
+      </c>
+      <c r="M6">
+        <v>1.6921999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6"/>
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>413685.60200000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>295036.86</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>6126.3</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>2.0764524134374263</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -2365,7 +2221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -2531,7 +2387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -2731,7 +2587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -3600,7 +3456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -4694,7 +4550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -5872,7 +5728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -6466,7 +6322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -7384,7 +7240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -7894,7 +7750,484 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44378</v>
+      </c>
+      <c r="J2" s="1">
+        <v>400968.2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>221650.6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-3191.21</v>
+      </c>
+      <c r="M2" s="5">
+        <v>-1.4145000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44379</v>
+      </c>
+      <c r="J3" s="1">
+        <v>394703.57</v>
+      </c>
+      <c r="K3">
+        <v>282622.7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-6272.86</v>
+      </c>
+      <c r="M3">
+        <v>-2.2845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J4" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K4">
+        <v>190776</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M4">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J5" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K5">
+        <v>321998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M5">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J6" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K6">
+        <v>264214.08</v>
+      </c>
+      <c r="L6" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M6">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J7" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K7">
+        <v>298343.01</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M7">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J8" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K8">
+        <v>299620.11</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M8">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44389</v>
+      </c>
+      <c r="J9" s="1">
+        <v>399553.09</v>
+      </c>
+      <c r="K9">
+        <v>315114</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7444</v>
+      </c>
+      <c r="M9">
+        <v>2.3622999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44390</v>
+      </c>
+      <c r="J10" s="1">
+        <v>398533.05</v>
+      </c>
+      <c r="K10">
+        <v>266844</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-975</v>
+      </c>
+      <c r="M10">
+        <v>-0.3654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44391</v>
+      </c>
+      <c r="J11" s="1">
+        <v>395001.88</v>
+      </c>
+      <c r="K11">
+        <v>236228</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-3479</v>
+      </c>
+      <c r="M11">
+        <v>-1.4726999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44392</v>
+      </c>
+      <c r="J12" s="1">
+        <v>398680.85</v>
+      </c>
+      <c r="K12">
+        <v>178125</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3721</v>
+      </c>
+      <c r="M12">
+        <v>2.089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44393</v>
+      </c>
+      <c r="J13" s="1">
+        <v>215638.8</v>
+      </c>
+      <c r="K13">
+        <v>181630.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-6398</v>
+      </c>
+      <c r="M13">
+        <v>-3.5225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44396</v>
+      </c>
+      <c r="J14" s="1">
+        <v>391461.52</v>
+      </c>
+      <c r="K14">
+        <v>346936</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-735.7</v>
+      </c>
+      <c r="M14">
+        <v>-0.21210000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44397</v>
+      </c>
+      <c r="J15" s="1">
+        <v>381325.07</v>
+      </c>
+      <c r="K15">
+        <v>241558</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-86</v>
+      </c>
+      <c r="M15">
+        <v>-3.56E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44398</v>
+      </c>
+      <c r="J16" s="1">
+        <v>385281.95</v>
+      </c>
+      <c r="K16">
+        <v>248832</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3968</v>
+      </c>
+      <c r="M16">
+        <v>1.5947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44399</v>
+      </c>
+      <c r="J17" s="1">
+        <v>350182.62</v>
+      </c>
+      <c r="K17">
+        <v>260244.58</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1428</v>
+      </c>
+      <c r="M17">
+        <v>0.54869999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44400</v>
+      </c>
+      <c r="J18" s="1">
+        <v>321329.03999999998</v>
+      </c>
+      <c r="K18">
+        <v>291717.36</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-5033</v>
+      </c>
+      <c r="M18">
+        <v>-1.7253000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44403</v>
+      </c>
+      <c r="J19" s="1">
+        <v>346532.81</v>
+      </c>
+      <c r="K19">
+        <v>341191.62</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-10790</v>
+      </c>
+      <c r="M19">
+        <v>-3.1623999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44404</v>
+      </c>
+      <c r="J20" s="1">
+        <v>350194.88</v>
+      </c>
+      <c r="K20">
+        <v>248836.5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-10497.8</v>
+      </c>
+      <c r="M20">
+        <v>-4.2187999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44405</v>
+      </c>
+      <c r="J21" s="1">
+        <v>297302.5</v>
+      </c>
+      <c r="K21">
+        <v>257045.36</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-1756.7</v>
+      </c>
+      <c r="M21">
+        <v>-0.68340000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44406</v>
+      </c>
+      <c r="J22" s="1">
+        <v>435117.81</v>
+      </c>
+      <c r="K22">
+        <v>278202.5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>16747</v>
+      </c>
+      <c r="M22">
+        <v>6.0197000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44407</v>
+      </c>
+      <c r="J23" s="1">
+        <v>411503.17</v>
+      </c>
+      <c r="K23">
+        <v>287799.21000000002</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-360</v>
+      </c>
+      <c r="M23">
+        <v>-0.12509999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6"/>
+      <c r="B24">
+        <f>SUM(B7:B11)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F7:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>SUM(G7:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>SUM(H7:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f>AVERAGE(J2:J23)</f>
+        <v>373742.60090909083</v>
+      </c>
+      <c r="K24" s="1">
+        <f>AVERAGE(K2:K23)</f>
+        <v>266342.21500000003</v>
+      </c>
+      <c r="L24" s="1">
+        <f>SUM(L2:L23)</f>
+        <v>-8599.07</v>
+      </c>
+      <c r="M24" s="5">
+        <f>L24/K24*100</f>
+        <v>-3.2285794424289813</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -8080,173 +8413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44403</v>
-      </c>
-      <c r="J2" s="1">
-        <v>346532.81</v>
-      </c>
-      <c r="K2">
-        <v>341191.62</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-10790</v>
-      </c>
-      <c r="M2">
-        <v>-3.1623999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44404</v>
-      </c>
-      <c r="J3" s="1">
-        <v>350194.88</v>
-      </c>
-      <c r="K3">
-        <v>248836.5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-10497.8</v>
-      </c>
-      <c r="M3">
-        <v>-4.2187999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44405</v>
-      </c>
-      <c r="J4" s="1">
-        <v>297302.5</v>
-      </c>
-      <c r="K4">
-        <v>257045.36</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1756.7</v>
-      </c>
-      <c r="M4">
-        <v>-0.68340000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44406</v>
-      </c>
-      <c r="J5" s="1">
-        <v>435117.81</v>
-      </c>
-      <c r="K5">
-        <v>278202.5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>16747</v>
-      </c>
-      <c r="M5">
-        <v>6.0197000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44407</v>
-      </c>
-      <c r="J6" s="1">
-        <v>411503.17</v>
-      </c>
-      <c r="K6">
-        <v>287799.21000000002</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-360</v>
-      </c>
-      <c r="M6">
-        <v>-0.12509999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>368130.234</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>282615.038</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-6657.5</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-2.3556779027448638</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -8368,7 +8535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -8450,7 +8617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -8724,105 +8891,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="J2" s="1">
-        <v>391461.52</v>
+        <v>346532.81</v>
       </c>
       <c r="K2">
-        <v>346936</v>
+        <v>341191.62</v>
       </c>
       <c r="L2" s="1">
-        <v>-735.7</v>
+        <v>-10790</v>
       </c>
       <c r="M2">
-        <v>-0.21210000000000001</v>
+        <v>-3.1623999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44397</v>
+        <v>44404</v>
       </c>
       <c r="J3" s="1">
-        <v>381325.07</v>
+        <v>350194.88</v>
       </c>
       <c r="K3">
-        <v>241558</v>
+        <v>248836.5</v>
       </c>
       <c r="L3" s="1">
-        <v>-86</v>
+        <v>-10497.8</v>
       </c>
       <c r="M3">
-        <v>-3.56E-2</v>
+        <v>-4.2187999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="J4" s="1">
-        <v>385281.95</v>
+        <v>297302.5</v>
       </c>
       <c r="K4">
-        <v>248832</v>
+        <v>257045.36</v>
       </c>
       <c r="L4" s="1">
-        <v>3968</v>
+        <v>-1756.7</v>
       </c>
       <c r="M4">
-        <v>1.5947</v>
+        <v>-0.68340000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44399</v>
+        <v>44406</v>
       </c>
       <c r="J5" s="1">
-        <v>350182.62</v>
+        <v>435117.81</v>
       </c>
       <c r="K5">
-        <v>260244.58</v>
+        <v>278202.5</v>
       </c>
       <c r="L5" s="1">
-        <v>1428</v>
+        <v>16747</v>
       </c>
       <c r="M5">
-        <v>0.54869999999999997</v>
+        <v>6.0197000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44400</v>
+        <v>44407</v>
       </c>
       <c r="J6" s="1">
-        <v>321329.03999999998</v>
+        <v>411503.17</v>
       </c>
       <c r="K6">
-        <v>291717.36</v>
+        <v>287799.21000000002</v>
       </c>
       <c r="L6" s="1">
-        <v>-5033</v>
+        <v>-360</v>
       </c>
       <c r="M6">
-        <v>-1.7253000000000001</v>
+        <v>-0.12509999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>365916.04000000004</v>
+        <v>368130.234</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>277857.58799999999</v>
+        <v>282615.038</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-458.69999999999982</v>
+        <v>-6657.5</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-0.16508456843006922</v>
+        <v>-2.3556779027448638</v>
       </c>
     </row>
   </sheetData>
@@ -8837,7 +9004,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="J7" sqref="J7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -8890,105 +9057,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="J2" s="1">
-        <v>399553.09</v>
+        <v>391461.52</v>
       </c>
       <c r="K2">
-        <v>315114</v>
+        <v>346936</v>
       </c>
       <c r="L2" s="1">
-        <v>7444</v>
+        <v>-735.7</v>
       </c>
       <c r="M2">
-        <v>2.3622999999999998</v>
+        <v>-0.21210000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44390</v>
+        <v>44397</v>
       </c>
       <c r="J3" s="1">
-        <v>398533.05</v>
+        <v>381325.07</v>
       </c>
       <c r="K3">
-        <v>266844</v>
+        <v>241558</v>
       </c>
       <c r="L3" s="1">
-        <v>-975</v>
+        <v>-86</v>
       </c>
       <c r="M3">
-        <v>-0.3654</v>
+        <v>-3.56E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="J4" s="1">
-        <v>395001.88</v>
+        <v>385281.95</v>
       </c>
       <c r="K4">
-        <v>236228</v>
+        <v>248832</v>
       </c>
       <c r="L4" s="1">
-        <v>-3479</v>
+        <v>3968</v>
       </c>
       <c r="M4">
-        <v>-1.4726999999999999</v>
+        <v>1.5947</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44392</v>
+        <v>44399</v>
       </c>
       <c r="J5" s="1">
-        <v>398680.85</v>
+        <v>350182.62</v>
       </c>
       <c r="K5">
-        <v>178125</v>
+        <v>260244.58</v>
       </c>
       <c r="L5" s="1">
-        <v>3721</v>
+        <v>1428</v>
       </c>
       <c r="M5">
-        <v>2.089</v>
+        <v>0.54869999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44393</v>
+        <v>44400</v>
       </c>
       <c r="J6" s="1">
-        <v>215638.8</v>
+        <v>321329.03999999998</v>
       </c>
       <c r="K6">
-        <v>181630.1</v>
+        <v>291717.36</v>
       </c>
       <c r="L6" s="1">
-        <v>-6398</v>
+        <v>-5033</v>
       </c>
       <c r="M6">
-        <v>-3.5225</v>
+        <v>-1.7253000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>361481.53400000004</v>
+        <v>365916.04000000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>235588.22000000003</v>
+        <v>277857.58799999999</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>313</v>
+        <v>-458.69999999999982</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>0.13285893496712184</v>
+        <v>-0.16508456843006922</v>
       </c>
     </row>
   </sheetData>
@@ -9056,105 +9223,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="J2" s="1">
-        <v>395945.96</v>
+        <v>399553.09</v>
       </c>
       <c r="K2">
-        <v>190776</v>
+        <v>315114</v>
       </c>
       <c r="L2" s="1">
-        <v>1045.7</v>
+        <v>7444</v>
       </c>
       <c r="M2">
-        <v>0.54810000000000003</v>
+        <v>2.3622999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="J3" s="1">
-        <v>392945.76</v>
+        <v>398533.05</v>
       </c>
       <c r="K3">
-        <v>321998</v>
+        <v>266844</v>
       </c>
       <c r="L3" s="1">
-        <v>-2720.9</v>
+        <v>-975</v>
       </c>
       <c r="M3">
-        <v>-0.84499999999999997</v>
+        <v>-0.3654</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44384</v>
+        <v>44391</v>
       </c>
       <c r="J4" s="1">
-        <v>401240.56</v>
+        <v>395001.88</v>
       </c>
       <c r="K4">
-        <v>264214.08</v>
+        <v>236228</v>
       </c>
       <c r="L4" s="1">
-        <v>8335</v>
+        <v>-3479</v>
       </c>
       <c r="M4">
-        <v>3.1545999999999998</v>
+        <v>-1.4726999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44385</v>
+        <v>44392</v>
       </c>
       <c r="J5" s="1">
-        <v>400854.3</v>
+        <v>398680.85</v>
       </c>
       <c r="K5">
-        <v>298343.01</v>
+        <v>178125</v>
       </c>
       <c r="L5" s="1">
-        <v>-344.6</v>
+        <v>3721</v>
       </c>
       <c r="M5">
-        <v>-0.11550000000000001</v>
+        <v>2.089</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44386</v>
+        <v>44393</v>
       </c>
       <c r="J6" s="1">
-        <v>358039.83</v>
+        <v>215638.8</v>
       </c>
       <c r="K6">
-        <v>299620.11</v>
+        <v>181630.1</v>
       </c>
       <c r="L6" s="1">
-        <v>1353</v>
+        <v>-6398</v>
       </c>
       <c r="M6">
-        <v>0.4516</v>
+        <v>-3.5225</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>389805.28200000001</v>
+        <v>361481.53400000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>274990.24000000005</v>
+        <v>235588.22000000003</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>7668.2</v>
+        <v>313</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>2.7885353312903027</v>
+        <v>0.13285893496712184</v>
       </c>
     </row>
   </sheetData>
@@ -9165,6 +9332,172 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J2" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K2">
+        <v>190776</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M2">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J3" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K3">
+        <v>321998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M3">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J4" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K4">
+        <v>264214.08</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M4">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J5" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K5">
+        <v>298343.01</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M5">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J6" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K6">
+        <v>299620.11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M6">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>389805.28200000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>274990.24000000005</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>7668.2</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>2.7885353312903027</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -9344,7 +9677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -9485,7 +9818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -9991,170 +10324,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44368</v>
-      </c>
-      <c r="J2" s="1">
-        <v>412210.07</v>
-      </c>
-      <c r="K2">
-        <v>276387.59999999998</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-319.3</v>
-      </c>
-      <c r="M2">
-        <v>-0.11550000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44369</v>
-      </c>
-      <c r="J3" s="1">
-        <v>413594.91</v>
-      </c>
-      <c r="K3">
-        <v>319069.5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1400.4</v>
-      </c>
-      <c r="M3">
-        <v>0.43890000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44370</v>
-      </c>
-      <c r="J4" s="1">
-        <v>416573.23</v>
-      </c>
-      <c r="K4">
-        <v>244798.4</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3015</v>
-      </c>
-      <c r="M4">
-        <v>1.2316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44371</v>
-      </c>
-      <c r="J5" s="1">
-        <v>413177.05</v>
-      </c>
-      <c r="K5">
-        <v>315915.2</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-3368.2</v>
-      </c>
-      <c r="M5">
-        <v>-1.0662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44372</v>
-      </c>
-      <c r="J6" s="1">
-        <v>412872.75</v>
-      </c>
-      <c r="K6">
-        <v>319013.59999999998</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5398.4</v>
-      </c>
-      <c r="M6">
-        <v>1.6921999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6"/>
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>413685.60200000001</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>295036.86</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>6126.3</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>2.0764524134374263</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -7,36 +7,37 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="81" sheetId="50" r:id="rId1"/>
-    <sheet name="7A" sheetId="48" r:id="rId2"/>
-    <sheet name="75" sheetId="49" r:id="rId3"/>
-    <sheet name="74" sheetId="47" r:id="rId4"/>
-    <sheet name="73" sheetId="46" r:id="rId5"/>
-    <sheet name="72" sheetId="45" r:id="rId6"/>
-    <sheet name="71" sheetId="44" r:id="rId7"/>
-    <sheet name="65" sheetId="43" r:id="rId8"/>
-    <sheet name="6A" sheetId="40" r:id="rId9"/>
-    <sheet name="64" sheetId="42" r:id="rId10"/>
-    <sheet name="63" sheetId="41" r:id="rId11"/>
-    <sheet name="62" sheetId="39" r:id="rId12"/>
-    <sheet name="61" sheetId="38" r:id="rId13"/>
-    <sheet name="5" sheetId="37" r:id="rId14"/>
-    <sheet name="2104" sheetId="36" r:id="rId15"/>
-    <sheet name="2103" sheetId="33" r:id="rId16"/>
-    <sheet name="2102" sheetId="31" r:id="rId17"/>
-    <sheet name="2101" sheetId="26" r:id="rId18"/>
-    <sheet name="每月" sheetId="29" r:id="rId19"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId20"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId21"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId22"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId23"/>
+    <sheet name="82" sheetId="51" r:id="rId1"/>
+    <sheet name="81" sheetId="50" r:id="rId2"/>
+    <sheet name="7A" sheetId="48" r:id="rId3"/>
+    <sheet name="75" sheetId="49" r:id="rId4"/>
+    <sheet name="74" sheetId="47" r:id="rId5"/>
+    <sheet name="73" sheetId="46" r:id="rId6"/>
+    <sheet name="72" sheetId="45" r:id="rId7"/>
+    <sheet name="71" sheetId="44" r:id="rId8"/>
+    <sheet name="65" sheetId="43" r:id="rId9"/>
+    <sheet name="6A" sheetId="40" r:id="rId10"/>
+    <sheet name="64" sheetId="42" r:id="rId11"/>
+    <sheet name="63" sheetId="41" r:id="rId12"/>
+    <sheet name="62" sheetId="39" r:id="rId13"/>
+    <sheet name="61" sheetId="38" r:id="rId14"/>
+    <sheet name="5" sheetId="37" r:id="rId15"/>
+    <sheet name="2104" sheetId="36" r:id="rId16"/>
+    <sheet name="2103" sheetId="33" r:id="rId17"/>
+    <sheet name="2102" sheetId="31" r:id="rId18"/>
+    <sheet name="2101" sheetId="26" r:id="rId19"/>
+    <sheet name="每月" sheetId="29" r:id="rId20"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId21"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId22"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId23"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1745,7 +1746,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1798,105 +1799,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="J2" s="1">
-        <v>392126.02</v>
+        <v>354194.04</v>
       </c>
       <c r="K2">
-        <v>320852.71999999997</v>
+        <v>279851.99</v>
       </c>
       <c r="L2" s="1">
-        <v>-29.6</v>
+        <v>-18.8</v>
       </c>
       <c r="M2">
-        <v>-9.1999999999999998E-3</v>
+        <v>-6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44411</v>
+        <v>44418</v>
       </c>
       <c r="J3" s="1">
-        <v>428982.28</v>
+        <v>411295.97</v>
       </c>
       <c r="K3">
-        <v>216964</v>
+        <v>334866</v>
       </c>
       <c r="L3" s="1">
-        <v>-5543</v>
+        <v>530</v>
       </c>
       <c r="M3">
-        <v>-2.5548000000000002</v>
+        <v>0.1583</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="J4" s="1">
-        <v>407773.25</v>
+        <v>411599.88</v>
       </c>
       <c r="K4">
-        <v>157353</v>
+        <v>299838.5</v>
       </c>
       <c r="L4" s="1">
-        <v>2844</v>
+        <v>307.5</v>
       </c>
       <c r="M4">
-        <v>1.8073999999999999</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44413</v>
+        <v>44420</v>
       </c>
       <c r="J5" s="1">
-        <v>383514.64</v>
+        <v>409679.53</v>
       </c>
       <c r="K5">
-        <v>190161.02</v>
+        <v>305083.5</v>
       </c>
       <c r="L5" s="1">
-        <v>-1180</v>
+        <v>-1920</v>
       </c>
       <c r="M5">
-        <v>-0.62050000000000005</v>
+        <v>-0.62929999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44414</v>
+        <v>44421</v>
       </c>
       <c r="J6" s="1">
-        <v>398314.84</v>
+        <v>401674.82</v>
       </c>
       <c r="K6">
-        <v>247438.86</v>
+        <v>312203.12</v>
       </c>
       <c r="L6" s="1">
-        <v>218.8</v>
+        <v>-2859.5</v>
       </c>
       <c r="M6">
-        <v>8.8400000000000006E-2</v>
+        <v>-0.91590000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>402142.20600000001</v>
+        <v>397688.84800000006</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>226553.92</v>
+        <v>306368.62199999997</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-3689.8</v>
+        <v>-3960.8</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-1.6286630573419343</v>
+        <v>-1.29282169111953</v>
       </c>
     </row>
   </sheetData>
@@ -1907,6 +1908,514 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="6">
+        <v>44348</v>
+      </c>
+      <c r="J2" s="1">
+        <v>369566.62</v>
+      </c>
+      <c r="K2" s="14">
+        <v>235801.1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2159.6</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6">
+        <v>44349</v>
+      </c>
+      <c r="J3" s="1">
+        <v>365120.57</v>
+      </c>
+      <c r="K3" s="14">
+        <v>296728</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-4436.1000000000004</v>
+      </c>
+      <c r="M3" s="5">
+        <v>-1.4950000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6">
+        <v>44350</v>
+      </c>
+      <c r="J4" s="1">
+        <v>363781.23</v>
+      </c>
+      <c r="K4" s="14">
+        <v>259382.2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1330.1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>-0.51280000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6">
+        <v>44351</v>
+      </c>
+      <c r="J5" s="1">
+        <v>366580.88</v>
+      </c>
+      <c r="K5" s="14">
+        <v>209187.4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2829.7</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1.3527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6">
+        <v>44354</v>
+      </c>
+      <c r="J6" s="1">
+        <v>418141.49</v>
+      </c>
+      <c r="K6" s="14">
+        <v>246536.6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1562.6</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.63380000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6">
+        <v>44355</v>
+      </c>
+      <c r="J7" s="1">
+        <v>414310.09</v>
+      </c>
+      <c r="K7" s="14">
+        <v>318721.40000000002</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-3812.1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>-1.1960999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6">
+        <v>44356</v>
+      </c>
+      <c r="J8" s="1">
+        <v>413741.94</v>
+      </c>
+      <c r="K8" s="14">
+        <v>324161.7</v>
+      </c>
+      <c r="L8" s="1">
+        <v>427.2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6">
+        <v>44357</v>
+      </c>
+      <c r="J9" s="1">
+        <v>417812.38</v>
+      </c>
+      <c r="K9" s="14">
+        <v>282917</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4087.1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1.4446000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6">
+        <v>44358</v>
+      </c>
+      <c r="J10" s="1">
+        <v>394905.9</v>
+      </c>
+      <c r="K10" s="14">
+        <v>322514</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-3902.2</v>
+      </c>
+      <c r="M10" s="5">
+        <v>-1.2099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6">
+        <v>44362</v>
+      </c>
+      <c r="J11" s="1">
+        <v>412797.08</v>
+      </c>
+      <c r="K11" s="14">
+        <v>329797.90000000002</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-2089.4</v>
+      </c>
+      <c r="M11" s="5">
+        <v>-0.63349999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="6">
+        <v>44363</v>
+      </c>
+      <c r="J12" s="1">
+        <v>400806.78</v>
+      </c>
+      <c r="K12" s="14">
+        <v>353970.5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-8960.5</v>
+      </c>
+      <c r="M12" s="5">
+        <v>-2.5314000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6">
+        <v>44364</v>
+      </c>
+      <c r="J13" s="1">
+        <v>408254.99</v>
+      </c>
+      <c r="K13" s="14">
+        <v>270435.7</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6487.1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2.3988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6">
+        <v>44365</v>
+      </c>
+      <c r="J14" s="1">
+        <v>412532.63</v>
+      </c>
+      <c r="K14" s="14">
+        <v>273539.59999999998</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2301.3000000000002</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.84130000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6">
+        <v>44368</v>
+      </c>
+      <c r="J15" s="1">
+        <v>412210.07</v>
+      </c>
+      <c r="K15">
+        <v>276387.59999999998</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-319.3</v>
+      </c>
+      <c r="M15">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6">
+        <v>44369</v>
+      </c>
+      <c r="J16" s="1">
+        <v>413594.91</v>
+      </c>
+      <c r="K16">
+        <v>319069.5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1400.4</v>
+      </c>
+      <c r="M16">
+        <v>0.43890000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="6">
+        <v>44370</v>
+      </c>
+      <c r="J17" s="1">
+        <v>416573.23</v>
+      </c>
+      <c r="K17">
+        <v>244798.4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3015</v>
+      </c>
+      <c r="M17">
+        <v>1.2316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="6">
+        <v>44371</v>
+      </c>
+      <c r="J18" s="1">
+        <v>413177.05</v>
+      </c>
+      <c r="K18">
+        <v>315915.2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-3368.2</v>
+      </c>
+      <c r="M18">
+        <v>-1.0662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6">
+        <v>44372</v>
+      </c>
+      <c r="J19" s="1">
+        <v>412872.75</v>
+      </c>
+      <c r="K19">
+        <v>319013.59999999998</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5398.4</v>
+      </c>
+      <c r="M19">
+        <v>1.6921999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="6">
+        <v>44375</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="1"/>
+      <c r="I20"/>
+      <c r="J20" s="1">
+        <v>421680.23</v>
+      </c>
+      <c r="K20">
+        <v>235082.9</v>
+      </c>
+      <c r="L20">
+        <v>3167.1</v>
+      </c>
+      <c r="M20">
+        <v>1.3472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6">
+        <v>44376</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1"/>
+      <c r="I21"/>
+      <c r="J21" s="1">
+        <v>420854.97</v>
+      </c>
+      <c r="K21">
+        <v>334427.98</v>
+      </c>
+      <c r="L21">
+        <v>-777.6</v>
+      </c>
+      <c r="M21">
+        <v>-0.23250000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="6">
+        <v>44377</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1"/>
+      <c r="I22"/>
+      <c r="J22" s="1">
+        <v>424153.89</v>
+      </c>
+      <c r="K22">
+        <v>281291</v>
+      </c>
+      <c r="L22">
+        <v>3372.42</v>
+      </c>
+      <c r="M22">
+        <v>1.1989000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6"/>
+      <c r="B23">
+        <f>SUM(B6:B10)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F6:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G6:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H6:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <f>AVERAGE(J2:J22)</f>
+        <v>404450.93714285712</v>
+      </c>
+      <c r="K23" s="1">
+        <f>AVERAGE(K2:K22)</f>
+        <v>288079.96571428579</v>
+      </c>
+      <c r="L23" s="1">
+        <f>SUM(L1:L22)</f>
+        <v>7212.42</v>
+      </c>
+      <c r="M23" s="5">
+        <f>L23/K23*100</f>
+        <v>2.5036173487861317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="L25">
+        <v>6522.77</v>
+      </c>
+      <c r="M25" s="1">
+        <f>AVERAGE(L25,L26,L27)</f>
+        <v>10335.52</v>
+      </c>
+      <c r="N25" s="1">
+        <f>AVERAGE(L25:L30)</f>
+        <v>3917.4199999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="L26">
+        <v>16134.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="L27">
+        <v>8349.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="L28" s="1">
+        <v>-11625.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="L29" s="1">
+        <v>-2946.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="L30" s="1">
+        <v>7069.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -2072,7 +2581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -2221,7 +2730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -2387,7 +2896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -2587,7 +3096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -3456,7 +3965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -4550,7 +5059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -5728,7 +6237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -6322,7 +6831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -7240,1600 +7749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.26953125" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>202012</v>
-      </c>
-      <c r="C1">
-        <v>202011</v>
-      </c>
-      <c r="D1">
-        <v>202010</v>
-      </c>
-      <c r="E1">
-        <v>201209</v>
-      </c>
-      <c r="F1">
-        <v>202008</v>
-      </c>
-      <c r="G1">
-        <v>202007</v>
-      </c>
-      <c r="H1">
-        <v>202006</v>
-      </c>
-      <c r="I1">
-        <v>202005</v>
-      </c>
-      <c r="J1">
-        <v>202004</v>
-      </c>
-      <c r="K1">
-        <v>201203</v>
-      </c>
-      <c r="L1">
-        <v>202002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>219702.3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>194008.42</v>
-      </c>
-      <c r="D2" s="1">
-        <v>188987.24</v>
-      </c>
-      <c r="E2" s="1">
-        <v>184099.85</v>
-      </c>
-      <c r="F2" s="1">
-        <v>164759.56</v>
-      </c>
-      <c r="G2" s="1">
-        <v>134926.57999999999</v>
-      </c>
-      <c r="H2" s="1">
-        <v>95661.82</v>
-      </c>
-      <c r="I2" s="1">
-        <v>79288.210000000006</v>
-      </c>
-      <c r="J2" s="1">
-        <v>54471.86</v>
-      </c>
-      <c r="K2" s="1">
-        <v>17124.080000000002</v>
-      </c>
-      <c r="L2" s="1">
-        <v>97.49</v>
-      </c>
-      <c r="N2" s="1">
-        <f>SUM(B2:L2)/10</f>
-        <v>133312.74100000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>194013.76</v>
-      </c>
-      <c r="C3" s="3">
-        <v>194008.42</v>
-      </c>
-      <c r="D3" s="3">
-        <v>188987.24</v>
-      </c>
-      <c r="E3" s="3">
-        <v>184099.85</v>
-      </c>
-      <c r="F3" s="3">
-        <v>164759.56</v>
-      </c>
-      <c r="G3" s="3">
-        <v>134926.57999999999</v>
-      </c>
-      <c r="H3" s="3">
-        <v>95661.82</v>
-      </c>
-      <c r="I3" s="3">
-        <v>79288.210000000006</v>
-      </c>
-      <c r="J3" s="3">
-        <v>54471.86</v>
-      </c>
-      <c r="K3" s="1">
-        <v>17300</v>
-      </c>
-      <c r="L3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>219211.26</v>
-      </c>
-      <c r="C4" s="1">
-        <v>146392.93</v>
-      </c>
-      <c r="D4" s="1">
-        <v>92495.26</v>
-      </c>
-      <c r="E4" s="1">
-        <v>162561.74</v>
-      </c>
-      <c r="F4" s="1">
-        <v>126237.95</v>
-      </c>
-      <c r="G4" s="1">
-        <v>98723.17</v>
-      </c>
-      <c r="H4" s="1">
-        <v>25782.74</v>
-      </c>
-      <c r="I4" s="1">
-        <v>32293.32</v>
-      </c>
-      <c r="J4" s="1">
-        <v>67600</v>
-      </c>
-      <c r="K4" s="1">
-        <v>17300</v>
-      </c>
-      <c r="L4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>207003.39</v>
-      </c>
-      <c r="C5" s="1">
-        <v>146418.4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>92469.79</v>
-      </c>
-      <c r="E5" s="1">
-        <v>132569.23000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>96241.66</v>
-      </c>
-      <c r="G5" s="1">
-        <v>69045.48</v>
-      </c>
-      <c r="H5" s="1">
-        <v>16050.17</v>
-      </c>
-      <c r="I5" s="1">
-        <v>7522.3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>32300</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" ref="B6:K6" si="0">B4-B5</f>
-        <v>12207.869999999995</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>-25.470000000001164</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>25.470000000001164</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>29992.50999999998</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>29996.289999999994</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>29677.690000000002</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>9732.5700000000015</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>24771.02</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="0"/>
-        <v>35300</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="0"/>
-        <v>17300</v>
-      </c>
-      <c r="L6" s="1">
-        <f>L4-L5</f>
-        <v>100</v>
-      </c>
-      <c r="N6" s="1">
-        <f>SUM(B6:L6)</f>
-        <v>189077.94999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>13486.01</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5046.6400000000003</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4861.92</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-10652.23</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-163.32</v>
-      </c>
-      <c r="G7" s="1">
-        <v>9587.07</v>
-      </c>
-      <c r="H7" s="1">
-        <v>6641.03</v>
-      </c>
-      <c r="I7" s="1">
-        <v>45.33</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2047.78</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-273.42</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <f>SUM(B7:M7)</f>
-        <v>30624.300000000003</v>
-      </c>
-      <c r="O7" s="1">
-        <f>SUM(B7,C7,D7)/3</f>
-        <v>7798.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6.23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.66</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.63</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-5.47</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7.64</v>
-      </c>
-      <c r="H8" s="1">
-        <v>7.46</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-1.58</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5.64</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.35</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-4.75</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.58</v>
-      </c>
-      <c r="G9" s="1">
-        <v>12.75</v>
-      </c>
-      <c r="H9" s="1">
-        <v>7.68</v>
-      </c>
-      <c r="I9" s="1">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6.14</v>
-      </c>
-      <c r="K9" s="1">
-        <v>-6.44</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-1.59</v>
-      </c>
-      <c r="M9" s="1">
-        <v>-2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="N12" s="1">
-        <v>189077.95</v>
-      </c>
-      <c r="O12">
-        <v>30624.35</v>
-      </c>
-      <c r="P12">
-        <f>O12/N12*100</f>
-        <v>16.196679729180477</v>
-      </c>
-      <c r="Q12">
-        <v>15.37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>202002</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>202003</v>
-      </c>
-      <c r="B18" s="1">
-        <v>-273.42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>202004</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2047.78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>202005</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45.33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>202006</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6641.03</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>202007</v>
-      </c>
-      <c r="B22" s="1">
-        <v>9587.07</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>202008</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-163.32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>202009</v>
-      </c>
-      <c r="B24" s="1">
-        <v>-10652.23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>202010</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4861.92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>202011</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5046.6400000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>202012</v>
-      </c>
-      <c r="B27" s="1">
-        <v>13486.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A17:Q27">
-    <sortCondition ref="A17:A27"/>
-  </sortState>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:M24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44378</v>
-      </c>
-      <c r="J2" s="1">
-        <v>400968.2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>221650.6</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-3191.21</v>
-      </c>
-      <c r="M2" s="5">
-        <v>-1.4145000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44379</v>
-      </c>
-      <c r="J3" s="1">
-        <v>394703.57</v>
-      </c>
-      <c r="K3">
-        <v>282622.7</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-6272.86</v>
-      </c>
-      <c r="M3">
-        <v>-2.2845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44382</v>
-      </c>
-      <c r="J4" s="1">
-        <v>395945.96</v>
-      </c>
-      <c r="K4">
-        <v>190776</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1045.7</v>
-      </c>
-      <c r="M4">
-        <v>0.54810000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44383</v>
-      </c>
-      <c r="J5" s="1">
-        <v>392945.76</v>
-      </c>
-      <c r="K5">
-        <v>321998</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-2720.9</v>
-      </c>
-      <c r="M5">
-        <v>-0.84499999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44384</v>
-      </c>
-      <c r="J6" s="1">
-        <v>401240.56</v>
-      </c>
-      <c r="K6">
-        <v>264214.08</v>
-      </c>
-      <c r="L6" s="1">
-        <v>8335</v>
-      </c>
-      <c r="M6">
-        <v>3.1545999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6">
-        <v>44385</v>
-      </c>
-      <c r="J7" s="1">
-        <v>400854.3</v>
-      </c>
-      <c r="K7">
-        <v>298343.01</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-344.6</v>
-      </c>
-      <c r="M7">
-        <v>-0.11550000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6">
-        <v>44386</v>
-      </c>
-      <c r="J8" s="1">
-        <v>358039.83</v>
-      </c>
-      <c r="K8">
-        <v>299620.11</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1353</v>
-      </c>
-      <c r="M8">
-        <v>0.4516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6">
-        <v>44389</v>
-      </c>
-      <c r="J9" s="1">
-        <v>399553.09</v>
-      </c>
-      <c r="K9">
-        <v>315114</v>
-      </c>
-      <c r="L9" s="1">
-        <v>7444</v>
-      </c>
-      <c r="M9">
-        <v>2.3622999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6">
-        <v>44390</v>
-      </c>
-      <c r="J10" s="1">
-        <v>398533.05</v>
-      </c>
-      <c r="K10">
-        <v>266844</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-975</v>
-      </c>
-      <c r="M10">
-        <v>-0.3654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6">
-        <v>44391</v>
-      </c>
-      <c r="J11" s="1">
-        <v>395001.88</v>
-      </c>
-      <c r="K11">
-        <v>236228</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-3479</v>
-      </c>
-      <c r="M11">
-        <v>-1.4726999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6">
-        <v>44392</v>
-      </c>
-      <c r="J12" s="1">
-        <v>398680.85</v>
-      </c>
-      <c r="K12">
-        <v>178125</v>
-      </c>
-      <c r="L12" s="1">
-        <v>3721</v>
-      </c>
-      <c r="M12">
-        <v>2.089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6">
-        <v>44393</v>
-      </c>
-      <c r="J13" s="1">
-        <v>215638.8</v>
-      </c>
-      <c r="K13">
-        <v>181630.1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-6398</v>
-      </c>
-      <c r="M13">
-        <v>-3.5225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6">
-        <v>44396</v>
-      </c>
-      <c r="J14" s="1">
-        <v>391461.52</v>
-      </c>
-      <c r="K14">
-        <v>346936</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-735.7</v>
-      </c>
-      <c r="M14">
-        <v>-0.21210000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6">
-        <v>44397</v>
-      </c>
-      <c r="J15" s="1">
-        <v>381325.07</v>
-      </c>
-      <c r="K15">
-        <v>241558</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-86</v>
-      </c>
-      <c r="M15">
-        <v>-3.56E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6">
-        <v>44398</v>
-      </c>
-      <c r="J16" s="1">
-        <v>385281.95</v>
-      </c>
-      <c r="K16">
-        <v>248832</v>
-      </c>
-      <c r="L16" s="1">
-        <v>3968</v>
-      </c>
-      <c r="M16">
-        <v>1.5947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44399</v>
-      </c>
-      <c r="J17" s="1">
-        <v>350182.62</v>
-      </c>
-      <c r="K17">
-        <v>260244.58</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1428</v>
-      </c>
-      <c r="M17">
-        <v>0.54869999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6">
-        <v>44400</v>
-      </c>
-      <c r="J18" s="1">
-        <v>321329.03999999998</v>
-      </c>
-      <c r="K18">
-        <v>291717.36</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-5033</v>
-      </c>
-      <c r="M18">
-        <v>-1.7253000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44403</v>
-      </c>
-      <c r="J19" s="1">
-        <v>346532.81</v>
-      </c>
-      <c r="K19">
-        <v>341191.62</v>
-      </c>
-      <c r="L19" s="1">
-        <v>-10790</v>
-      </c>
-      <c r="M19">
-        <v>-3.1623999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>44404</v>
-      </c>
-      <c r="J20" s="1">
-        <v>350194.88</v>
-      </c>
-      <c r="K20">
-        <v>248836.5</v>
-      </c>
-      <c r="L20" s="1">
-        <v>-10497.8</v>
-      </c>
-      <c r="M20">
-        <v>-4.2187999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44405</v>
-      </c>
-      <c r="J21" s="1">
-        <v>297302.5</v>
-      </c>
-      <c r="K21">
-        <v>257045.36</v>
-      </c>
-      <c r="L21" s="1">
-        <v>-1756.7</v>
-      </c>
-      <c r="M21">
-        <v>-0.68340000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44406</v>
-      </c>
-      <c r="J22" s="1">
-        <v>435117.81</v>
-      </c>
-      <c r="K22">
-        <v>278202.5</v>
-      </c>
-      <c r="L22" s="1">
-        <v>16747</v>
-      </c>
-      <c r="M22">
-        <v>6.0197000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6">
-        <v>44407</v>
-      </c>
-      <c r="J23" s="1">
-        <v>411503.17</v>
-      </c>
-      <c r="K23">
-        <v>287799.21000000002</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-360</v>
-      </c>
-      <c r="M23">
-        <v>-0.12509999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6"/>
-      <c r="B24">
-        <f>SUM(B7:B11)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f>SUM(F7:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f>SUM(G7:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f>SUM(H7:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <f>AVERAGE(J2:J23)</f>
-        <v>373742.60090909083</v>
-      </c>
-      <c r="K24" s="1">
-        <f>AVERAGE(K2:K23)</f>
-        <v>266342.21500000003</v>
-      </c>
-      <c r="L24" s="1">
-        <f>SUM(L2:L23)</f>
-        <v>-8599.07</v>
-      </c>
-      <c r="M24" s="5">
-        <f>L24/K24*100</f>
-        <v>-3.2285794424289813</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>186</v>
-      </c>
-      <c r="B2">
-        <v>0.05</v>
-      </c>
-      <c r="C2">
-        <f>A2*B2</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D2">
-        <v>500</v>
-      </c>
-      <c r="E2">
-        <f>D2-C2</f>
-        <v>490.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>363.01</v>
-      </c>
-      <c r="B3">
-        <v>0.05</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">A3*B3</f>
-        <v>18.150500000000001</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">D3-C3</f>
-        <v>981.84950000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>369.84</v>
-      </c>
-      <c r="B4">
-        <v>0.05</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>18.492000000000001</v>
-      </c>
-      <c r="D4">
-        <v>1000</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>981.50800000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>368.28</v>
-      </c>
-      <c r="B5">
-        <v>0.05</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>18.413999999999998</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>981.58600000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>816.75</v>
-      </c>
-      <c r="B6">
-        <v>0.05</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>40.837500000000006</v>
-      </c>
-      <c r="D6">
-        <v>2000</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>1959.1624999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>638.27</v>
-      </c>
-      <c r="B7">
-        <v>0.05</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>31.913499999999999</v>
-      </c>
-      <c r="D7">
-        <v>1500</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>1468.0864999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>421.67</v>
-      </c>
-      <c r="B8">
-        <v>0.05</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>21.083500000000001</v>
-      </c>
-      <c r="D8">
-        <v>1000</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>978.91650000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>631.91999999999996</v>
-      </c>
-      <c r="B9">
-        <v>0.05</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>31.596</v>
-      </c>
-      <c r="D9">
-        <v>1500</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>1468.404</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="5" max="5" width="12.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>861.52</v>
-      </c>
-      <c r="D2">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E2" s="8">
-        <f>D2*C2</f>
-        <v>961.45632000000012</v>
-      </c>
-      <c r="F2" s="9">
-        <f>E2-B2</f>
-        <v>-38.543679999999881</v>
-      </c>
-      <c r="H2">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-      <c r="I2">
-        <f>H2*C2</f>
-        <v>5.41256299844183</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3">
-        <v>2000</v>
-      </c>
-      <c r="C3">
-        <v>1744.1</v>
-      </c>
-      <c r="D3">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3" si="0">D3*C3</f>
-        <v>1946.4156</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3" si="1">E3-B3</f>
-        <v>-53.58439999999996</v>
-      </c>
-      <c r="H3">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3" si="2">H3*C3</f>
-        <v>10.957437001558171</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="E4" s="8"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="C6">
-        <f>SUM(C2:C4)</f>
-        <v>2605.62</v>
-      </c>
-      <c r="D6">
-        <v>3.3831000000000002</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" ref="E6" si="3">D6*C6</f>
-        <v>8815.0730220000005</v>
-      </c>
-      <c r="F6" s="9">
-        <v>16.37</v>
-      </c>
-      <c r="H6">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1">
-        <v>51300</v>
-      </c>
-      <c r="B1">
-        <v>5600</v>
-      </c>
-      <c r="C1">
-        <f>A1-B1</f>
-        <v>45700</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="H4" s="11"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="H13">
-        <v>4700</v>
-      </c>
-      <c r="K13">
-        <v>5100</v>
-      </c>
-      <c r="L13">
-        <v>7196.1</v>
-      </c>
-      <c r="M13">
-        <v>5100</v>
-      </c>
-      <c r="N13">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O13" s="1">
-        <f>M13*N13</f>
-        <v>7150.2</v>
-      </c>
-      <c r="P13" s="1">
-        <f>O13-L13</f>
-        <v>-45.900000000000546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="H14">
-        <v>2200</v>
-      </c>
-      <c r="K14">
-        <v>5500</v>
-      </c>
-      <c r="L14">
-        <v>7980.5</v>
-      </c>
-      <c r="M14">
-        <v>5500</v>
-      </c>
-      <c r="N14">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O19" si="0">M14*N14</f>
-        <v>7710.9999999999991</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" ref="P14:P19" si="1">O14-L14</f>
-        <v>-269.50000000000091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="H15">
-        <v>3400</v>
-      </c>
-      <c r="K15">
-        <v>5700</v>
-      </c>
-      <c r="L15">
-        <v>8367.6</v>
-      </c>
-      <c r="M15">
-        <v>5700</v>
-      </c>
-      <c r="N15">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>7991.4</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="1"/>
-        <v>-376.20000000000073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="H16">
-        <v>3000</v>
-      </c>
-      <c r="K16">
-        <v>5900</v>
-      </c>
-      <c r="L16">
-        <v>8796.9</v>
-      </c>
-      <c r="M16">
-        <v>5900</v>
-      </c>
-      <c r="N16">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>8271.7999999999993</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="1"/>
-        <v>-525.10000000000036</v>
-      </c>
-    </row>
-    <row r="17" spans="8:16">
-      <c r="H17">
-        <v>3800</v>
-      </c>
-      <c r="K17">
-        <v>5000</v>
-      </c>
-      <c r="L17">
-        <v>7505</v>
-      </c>
-      <c r="M17">
-        <v>5000</v>
-      </c>
-      <c r="N17">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>7010</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="1"/>
-        <v>-495</v>
-      </c>
-    </row>
-    <row r="18" spans="8:16">
-      <c r="H18">
-        <v>3000</v>
-      </c>
-      <c r="K18">
-        <v>5100</v>
-      </c>
-      <c r="L18">
-        <v>7706.1</v>
-      </c>
-      <c r="M18">
-        <v>5100</v>
-      </c>
-      <c r="N18">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>7150.2</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="1"/>
-        <v>-555.90000000000055</v>
-      </c>
-    </row>
-    <row r="19" spans="8:16">
-      <c r="K19">
-        <v>5100</v>
-      </c>
-      <c r="L19">
-        <v>7706.1</v>
-      </c>
-      <c r="M19">
-        <v>5100</v>
-      </c>
-      <c r="N19">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
-        <v>7150.2</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" si="1"/>
-        <v>-555.90000000000055</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -8891,105 +7807,1698 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="J2" s="1">
-        <v>346532.81</v>
+        <v>392126.02</v>
       </c>
       <c r="K2">
-        <v>341191.62</v>
+        <v>320852.71999999997</v>
       </c>
       <c r="L2" s="1">
-        <v>-10790</v>
+        <v>-29.6</v>
       </c>
       <c r="M2">
-        <v>-3.1623999999999999</v>
+        <v>-9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44404</v>
+        <v>44411</v>
       </c>
       <c r="J3" s="1">
-        <v>350194.88</v>
+        <v>428982.28</v>
       </c>
       <c r="K3">
-        <v>248836.5</v>
+        <v>216964</v>
       </c>
       <c r="L3" s="1">
-        <v>-10497.8</v>
+        <v>-5543</v>
       </c>
       <c r="M3">
-        <v>-4.2187999999999999</v>
+        <v>-2.5548000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="J4" s="1">
-        <v>297302.5</v>
+        <v>407773.25</v>
       </c>
       <c r="K4">
-        <v>257045.36</v>
+        <v>157353</v>
       </c>
       <c r="L4" s="1">
-        <v>-1756.7</v>
+        <v>2844</v>
       </c>
       <c r="M4">
-        <v>-0.68340000000000001</v>
+        <v>1.8073999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44406</v>
+        <v>44413</v>
       </c>
       <c r="J5" s="1">
-        <v>435117.81</v>
+        <v>383514.64</v>
       </c>
       <c r="K5">
-        <v>278202.5</v>
+        <v>190161.02</v>
       </c>
       <c r="L5" s="1">
-        <v>16747</v>
+        <v>-1180</v>
       </c>
       <c r="M5">
-        <v>6.0197000000000003</v>
+        <v>-0.62050000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44407</v>
+        <v>44414</v>
       </c>
       <c r="J6" s="1">
-        <v>411503.17</v>
+        <v>398314.84</v>
       </c>
       <c r="K6">
-        <v>287799.21000000002</v>
+        <v>247438.86</v>
       </c>
       <c r="L6" s="1">
-        <v>-360</v>
+        <v>218.8</v>
       </c>
       <c r="M6">
-        <v>-0.12509999999999999</v>
+        <v>8.8400000000000006E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>368130.234</v>
+        <v>402142.20600000001</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>282615.038</v>
+        <v>226553.92</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-6657.5</v>
+        <v>-3689.8</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-2.3556779027448638</v>
+        <v>-1.6286630573419343</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>202012</v>
+      </c>
+      <c r="C1">
+        <v>202011</v>
+      </c>
+      <c r="D1">
+        <v>202010</v>
+      </c>
+      <c r="E1">
+        <v>201209</v>
+      </c>
+      <c r="F1">
+        <v>202008</v>
+      </c>
+      <c r="G1">
+        <v>202007</v>
+      </c>
+      <c r="H1">
+        <v>202006</v>
+      </c>
+      <c r="I1">
+        <v>202005</v>
+      </c>
+      <c r="J1">
+        <v>202004</v>
+      </c>
+      <c r="K1">
+        <v>201203</v>
+      </c>
+      <c r="L1">
+        <v>202002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>219702.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>194008.42</v>
+      </c>
+      <c r="D2" s="1">
+        <v>188987.24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184099.85</v>
+      </c>
+      <c r="F2" s="1">
+        <v>164759.56</v>
+      </c>
+      <c r="G2" s="1">
+        <v>134926.57999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>95661.82</v>
+      </c>
+      <c r="I2" s="1">
+        <v>79288.210000000006</v>
+      </c>
+      <c r="J2" s="1">
+        <v>54471.86</v>
+      </c>
+      <c r="K2" s="1">
+        <v>17124.080000000002</v>
+      </c>
+      <c r="L2" s="1">
+        <v>97.49</v>
+      </c>
+      <c r="N2" s="1">
+        <f>SUM(B2:L2)/10</f>
+        <v>133312.74100000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>194013.76</v>
+      </c>
+      <c r="C3" s="3">
+        <v>194008.42</v>
+      </c>
+      <c r="D3" s="3">
+        <v>188987.24</v>
+      </c>
+      <c r="E3" s="3">
+        <v>184099.85</v>
+      </c>
+      <c r="F3" s="3">
+        <v>164759.56</v>
+      </c>
+      <c r="G3" s="3">
+        <v>134926.57999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>95661.82</v>
+      </c>
+      <c r="I3" s="3">
+        <v>79288.210000000006</v>
+      </c>
+      <c r="J3" s="3">
+        <v>54471.86</v>
+      </c>
+      <c r="K3" s="1">
+        <v>17300</v>
+      </c>
+      <c r="L3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>219211.26</v>
+      </c>
+      <c r="C4" s="1">
+        <v>146392.93</v>
+      </c>
+      <c r="D4" s="1">
+        <v>92495.26</v>
+      </c>
+      <c r="E4" s="1">
+        <v>162561.74</v>
+      </c>
+      <c r="F4" s="1">
+        <v>126237.95</v>
+      </c>
+      <c r="G4" s="1">
+        <v>98723.17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>25782.74</v>
+      </c>
+      <c r="I4" s="1">
+        <v>32293.32</v>
+      </c>
+      <c r="J4" s="1">
+        <v>67600</v>
+      </c>
+      <c r="K4" s="1">
+        <v>17300</v>
+      </c>
+      <c r="L4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>207003.39</v>
+      </c>
+      <c r="C5" s="1">
+        <v>146418.4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>92469.79</v>
+      </c>
+      <c r="E5" s="1">
+        <v>132569.23000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>96241.66</v>
+      </c>
+      <c r="G5" s="1">
+        <v>69045.48</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16050.17</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7522.3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>32300</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:K6" si="0">B4-B5</f>
+        <v>12207.869999999995</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>-25.470000000001164</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>25.470000000001164</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>29992.50999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>29996.289999999994</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>29677.690000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>9732.5700000000015</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>24771.02</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>35300</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>17300</v>
+      </c>
+      <c r="L6" s="1">
+        <f>L4-L5</f>
+        <v>100</v>
+      </c>
+      <c r="N6" s="1">
+        <f>SUM(B6:L6)</f>
+        <v>189077.94999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13486.01</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5046.6400000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4861.92</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-10652.23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-163.32</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9587.07</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6641.03</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45.33</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2047.78</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-273.42</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <f>SUM(B7:M7)</f>
+        <v>30624.300000000003</v>
+      </c>
+      <c r="O7" s="1">
+        <f>SUM(B7,C7,D7)/3</f>
+        <v>7798.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-5.47</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-1.58</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.64</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-4.75</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="G9" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7.68</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-6.44</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1.59</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="N12" s="1">
+        <v>189077.95</v>
+      </c>
+      <c r="O12">
+        <v>30624.35</v>
+      </c>
+      <c r="P12">
+        <f>O12/N12*100</f>
+        <v>16.196679729180477</v>
+      </c>
+      <c r="Q12">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>202002</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>202003</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-273.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>202004</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2047.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>202005</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>202006</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6641.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>202007</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9587.07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>202008</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-163.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>202009</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-10652.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>202010</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4861.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>202011</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5046.6400000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>202012</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13486.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A17:Q27">
+    <sortCondition ref="A17:A27"/>
+  </sortState>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>186</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+      <c r="C2">
+        <f>A2*B2</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>490.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>363.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="0">A3*B3</f>
+        <v>18.150500000000001</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="1">D3-C3</f>
+        <v>981.84950000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>369.84</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>18.492000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>981.50800000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>368.28</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>18.413999999999998</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>981.58600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>816.75</v>
+      </c>
+      <c r="B6">
+        <v>0.05</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>40.837500000000006</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1959.1624999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>638.27</v>
+      </c>
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>31.913499999999999</v>
+      </c>
+      <c r="D7">
+        <v>1500</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1468.0864999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>421.67</v>
+      </c>
+      <c r="B8">
+        <v>0.05</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>21.083500000000001</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>978.91650000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>631.91999999999996</v>
+      </c>
+      <c r="B9">
+        <v>0.05</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>31.596</v>
+      </c>
+      <c r="D9">
+        <v>1500</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1468.404</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="5" max="5" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>861.52</v>
+      </c>
+      <c r="D2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E2" s="8">
+        <f>D2*C2</f>
+        <v>961.45632000000012</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2-B2</f>
+        <v>-38.543679999999881</v>
+      </c>
+      <c r="H2">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I2">
+        <f>H2*C2</f>
+        <v>5.41256299844183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>1744.1</v>
+      </c>
+      <c r="D3">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3" si="0">D3*C3</f>
+        <v>1946.4156</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3" si="1">E3-B3</f>
+        <v>-53.58439999999996</v>
+      </c>
+      <c r="H3">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3" si="2">H3*C3</f>
+        <v>10.957437001558171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6">
+        <f>SUM(C2:C4)</f>
+        <v>2605.62</v>
+      </c>
+      <c r="D6">
+        <v>3.3831000000000002</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" ref="E6" si="3">D6*C6</f>
+        <v>8815.0730220000005</v>
+      </c>
+      <c r="F6" s="9">
+        <v>16.37</v>
+      </c>
+      <c r="H6">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1">
+        <v>51300</v>
+      </c>
+      <c r="B1">
+        <v>5600</v>
+      </c>
+      <c r="C1">
+        <f>A1-B1</f>
+        <v>45700</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="H13">
+        <v>4700</v>
+      </c>
+      <c r="K13">
+        <v>5100</v>
+      </c>
+      <c r="L13">
+        <v>7196.1</v>
+      </c>
+      <c r="M13">
+        <v>5100</v>
+      </c>
+      <c r="N13">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <f>M13*N13</f>
+        <v>7150.2</v>
+      </c>
+      <c r="P13" s="1">
+        <f>O13-L13</f>
+        <v>-45.900000000000546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="H14">
+        <v>2200</v>
+      </c>
+      <c r="K14">
+        <v>5500</v>
+      </c>
+      <c r="L14">
+        <v>7980.5</v>
+      </c>
+      <c r="M14">
+        <v>5500</v>
+      </c>
+      <c r="N14">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O19" si="0">M14*N14</f>
+        <v>7710.9999999999991</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" ref="P14:P19" si="1">O14-L14</f>
+        <v>-269.50000000000091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="H15">
+        <v>3400</v>
+      </c>
+      <c r="K15">
+        <v>5700</v>
+      </c>
+      <c r="L15">
+        <v>8367.6</v>
+      </c>
+      <c r="M15">
+        <v>5700</v>
+      </c>
+      <c r="N15">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>7991.4</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="1"/>
+        <v>-376.20000000000073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="H16">
+        <v>3000</v>
+      </c>
+      <c r="K16">
+        <v>5900</v>
+      </c>
+      <c r="L16">
+        <v>8796.9</v>
+      </c>
+      <c r="M16">
+        <v>5900</v>
+      </c>
+      <c r="N16">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>8271.7999999999993</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>-525.10000000000036</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16">
+      <c r="H17">
+        <v>3800</v>
+      </c>
+      <c r="K17">
+        <v>5000</v>
+      </c>
+      <c r="L17">
+        <v>7505</v>
+      </c>
+      <c r="M17">
+        <v>5000</v>
+      </c>
+      <c r="N17">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>7010</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="1"/>
+        <v>-495</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16">
+      <c r="H18">
+        <v>3000</v>
+      </c>
+      <c r="K18">
+        <v>5100</v>
+      </c>
+      <c r="L18">
+        <v>7706.1</v>
+      </c>
+      <c r="M18">
+        <v>5100</v>
+      </c>
+      <c r="N18">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>7150.2</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="1"/>
+        <v>-555.90000000000055</v>
+      </c>
+    </row>
+    <row r="19" spans="8:16">
+      <c r="K19">
+        <v>5100</v>
+      </c>
+      <c r="L19">
+        <v>7706.1</v>
+      </c>
+      <c r="M19">
+        <v>5100</v>
+      </c>
+      <c r="N19">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>7150.2</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="1"/>
+        <v>-555.90000000000055</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44378</v>
+      </c>
+      <c r="J2" s="1">
+        <v>400968.2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>221650.6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-3191.21</v>
+      </c>
+      <c r="M2" s="5">
+        <v>-1.4145000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44379</v>
+      </c>
+      <c r="J3" s="1">
+        <v>394703.57</v>
+      </c>
+      <c r="K3">
+        <v>282622.7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-6272.86</v>
+      </c>
+      <c r="M3">
+        <v>-2.2845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J4" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K4">
+        <v>190776</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M4">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J5" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K5">
+        <v>321998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M5">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J6" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K6">
+        <v>264214.08</v>
+      </c>
+      <c r="L6" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M6">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J7" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K7">
+        <v>298343.01</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M7">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J8" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K8">
+        <v>299620.11</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M8">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44389</v>
+      </c>
+      <c r="J9" s="1">
+        <v>399553.09</v>
+      </c>
+      <c r="K9">
+        <v>315114</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7444</v>
+      </c>
+      <c r="M9">
+        <v>2.3622999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44390</v>
+      </c>
+      <c r="J10" s="1">
+        <v>398533.05</v>
+      </c>
+      <c r="K10">
+        <v>266844</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-975</v>
+      </c>
+      <c r="M10">
+        <v>-0.3654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44391</v>
+      </c>
+      <c r="J11" s="1">
+        <v>395001.88</v>
+      </c>
+      <c r="K11">
+        <v>236228</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-3479</v>
+      </c>
+      <c r="M11">
+        <v>-1.4726999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44392</v>
+      </c>
+      <c r="J12" s="1">
+        <v>398680.85</v>
+      </c>
+      <c r="K12">
+        <v>178125</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3721</v>
+      </c>
+      <c r="M12">
+        <v>2.089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44393</v>
+      </c>
+      <c r="J13" s="1">
+        <v>215638.8</v>
+      </c>
+      <c r="K13">
+        <v>181630.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-6398</v>
+      </c>
+      <c r="M13">
+        <v>-3.5225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44396</v>
+      </c>
+      <c r="J14" s="1">
+        <v>391461.52</v>
+      </c>
+      <c r="K14">
+        <v>346936</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-735.7</v>
+      </c>
+      <c r="M14">
+        <v>-0.21210000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44397</v>
+      </c>
+      <c r="J15" s="1">
+        <v>381325.07</v>
+      </c>
+      <c r="K15">
+        <v>241558</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-86</v>
+      </c>
+      <c r="M15">
+        <v>-3.56E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44398</v>
+      </c>
+      <c r="J16" s="1">
+        <v>385281.95</v>
+      </c>
+      <c r="K16">
+        <v>248832</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3968</v>
+      </c>
+      <c r="M16">
+        <v>1.5947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44399</v>
+      </c>
+      <c r="J17" s="1">
+        <v>350182.62</v>
+      </c>
+      <c r="K17">
+        <v>260244.58</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1428</v>
+      </c>
+      <c r="M17">
+        <v>0.54869999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44400</v>
+      </c>
+      <c r="J18" s="1">
+        <v>321329.03999999998</v>
+      </c>
+      <c r="K18">
+        <v>291717.36</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-5033</v>
+      </c>
+      <c r="M18">
+        <v>-1.7253000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44403</v>
+      </c>
+      <c r="J19" s="1">
+        <v>346532.81</v>
+      </c>
+      <c r="K19">
+        <v>341191.62</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-10790</v>
+      </c>
+      <c r="M19">
+        <v>-3.1623999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44404</v>
+      </c>
+      <c r="J20" s="1">
+        <v>350194.88</v>
+      </c>
+      <c r="K20">
+        <v>248836.5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-10497.8</v>
+      </c>
+      <c r="M20">
+        <v>-4.2187999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44405</v>
+      </c>
+      <c r="J21" s="1">
+        <v>297302.5</v>
+      </c>
+      <c r="K21">
+        <v>257045.36</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-1756.7</v>
+      </c>
+      <c r="M21">
+        <v>-0.68340000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44406</v>
+      </c>
+      <c r="J22" s="1">
+        <v>435117.81</v>
+      </c>
+      <c r="K22">
+        <v>278202.5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>16747</v>
+      </c>
+      <c r="M22">
+        <v>6.0197000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44407</v>
+      </c>
+      <c r="J23" s="1">
+        <v>411503.17</v>
+      </c>
+      <c r="K23">
+        <v>287799.21000000002</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-360</v>
+      </c>
+      <c r="M23">
+        <v>-0.12509999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6"/>
+      <c r="B24">
+        <f>SUM(B7:B11)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F7:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>SUM(G7:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>SUM(H7:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f>AVERAGE(J2:J23)</f>
+        <v>373742.60090909083</v>
+      </c>
+      <c r="K24" s="1">
+        <f>AVERAGE(K2:K23)</f>
+        <v>266342.21500000003</v>
+      </c>
+      <c r="L24" s="1">
+        <f>SUM(L2:L23)</f>
+        <v>-8599.07</v>
+      </c>
+      <c r="M24" s="5">
+        <f>L24/K24*100</f>
+        <v>-3.2285794424289813</v>
       </c>
     </row>
   </sheetData>
@@ -9057,105 +9566,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="J2" s="1">
-        <v>391461.52</v>
+        <v>346532.81</v>
       </c>
       <c r="K2">
-        <v>346936</v>
+        <v>341191.62</v>
       </c>
       <c r="L2" s="1">
-        <v>-735.7</v>
+        <v>-10790</v>
       </c>
       <c r="M2">
-        <v>-0.21210000000000001</v>
+        <v>-3.1623999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44397</v>
+        <v>44404</v>
       </c>
       <c r="J3" s="1">
-        <v>381325.07</v>
+        <v>350194.88</v>
       </c>
       <c r="K3">
-        <v>241558</v>
+        <v>248836.5</v>
       </c>
       <c r="L3" s="1">
-        <v>-86</v>
+        <v>-10497.8</v>
       </c>
       <c r="M3">
-        <v>-3.56E-2</v>
+        <v>-4.2187999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="J4" s="1">
-        <v>385281.95</v>
+        <v>297302.5</v>
       </c>
       <c r="K4">
-        <v>248832</v>
+        <v>257045.36</v>
       </c>
       <c r="L4" s="1">
-        <v>3968</v>
+        <v>-1756.7</v>
       </c>
       <c r="M4">
-        <v>1.5947</v>
+        <v>-0.68340000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44399</v>
+        <v>44406</v>
       </c>
       <c r="J5" s="1">
-        <v>350182.62</v>
+        <v>435117.81</v>
       </c>
       <c r="K5">
-        <v>260244.58</v>
+        <v>278202.5</v>
       </c>
       <c r="L5" s="1">
-        <v>1428</v>
+        <v>16747</v>
       </c>
       <c r="M5">
-        <v>0.54869999999999997</v>
+        <v>6.0197000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44400</v>
+        <v>44407</v>
       </c>
       <c r="J6" s="1">
-        <v>321329.03999999998</v>
+        <v>411503.17</v>
       </c>
       <c r="K6">
-        <v>291717.36</v>
+        <v>287799.21000000002</v>
       </c>
       <c r="L6" s="1">
-        <v>-5033</v>
+        <v>-360</v>
       </c>
       <c r="M6">
-        <v>-1.7253000000000001</v>
+        <v>-0.12509999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>365916.04000000004</v>
+        <v>368130.234</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>277857.58799999999</v>
+        <v>282615.038</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-458.69999999999982</v>
+        <v>-6657.5</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-0.16508456843006922</v>
+        <v>-2.3556779027448638</v>
       </c>
     </row>
   </sheetData>
@@ -9170,7 +9679,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="J7" sqref="J7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -9223,105 +9732,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="J2" s="1">
-        <v>399553.09</v>
+        <v>391461.52</v>
       </c>
       <c r="K2">
-        <v>315114</v>
+        <v>346936</v>
       </c>
       <c r="L2" s="1">
-        <v>7444</v>
+        <v>-735.7</v>
       </c>
       <c r="M2">
-        <v>2.3622999999999998</v>
+        <v>-0.21210000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44390</v>
+        <v>44397</v>
       </c>
       <c r="J3" s="1">
-        <v>398533.05</v>
+        <v>381325.07</v>
       </c>
       <c r="K3">
-        <v>266844</v>
+        <v>241558</v>
       </c>
       <c r="L3" s="1">
-        <v>-975</v>
+        <v>-86</v>
       </c>
       <c r="M3">
-        <v>-0.3654</v>
+        <v>-3.56E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="J4" s="1">
-        <v>395001.88</v>
+        <v>385281.95</v>
       </c>
       <c r="K4">
-        <v>236228</v>
+        <v>248832</v>
       </c>
       <c r="L4" s="1">
-        <v>-3479</v>
+        <v>3968</v>
       </c>
       <c r="M4">
-        <v>-1.4726999999999999</v>
+        <v>1.5947</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44392</v>
+        <v>44399</v>
       </c>
       <c r="J5" s="1">
-        <v>398680.85</v>
+        <v>350182.62</v>
       </c>
       <c r="K5">
-        <v>178125</v>
+        <v>260244.58</v>
       </c>
       <c r="L5" s="1">
-        <v>3721</v>
+        <v>1428</v>
       </c>
       <c r="M5">
-        <v>2.089</v>
+        <v>0.54869999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44393</v>
+        <v>44400</v>
       </c>
       <c r="J6" s="1">
-        <v>215638.8</v>
+        <v>321329.03999999998</v>
       </c>
       <c r="K6">
-        <v>181630.1</v>
+        <v>291717.36</v>
       </c>
       <c r="L6" s="1">
-        <v>-6398</v>
+        <v>-5033</v>
       </c>
       <c r="M6">
-        <v>-3.5225</v>
+        <v>-1.7253000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>361481.53400000004</v>
+        <v>365916.04000000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>235588.22000000003</v>
+        <v>277857.58799999999</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>313</v>
+        <v>-458.69999999999982</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>0.13285893496712184</v>
+        <v>-0.16508456843006922</v>
       </c>
     </row>
   </sheetData>
@@ -9389,105 +9898,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="J2" s="1">
-        <v>395945.96</v>
+        <v>399553.09</v>
       </c>
       <c r="K2">
-        <v>190776</v>
+        <v>315114</v>
       </c>
       <c r="L2" s="1">
-        <v>1045.7</v>
+        <v>7444</v>
       </c>
       <c r="M2">
-        <v>0.54810000000000003</v>
+        <v>2.3622999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="J3" s="1">
-        <v>392945.76</v>
+        <v>398533.05</v>
       </c>
       <c r="K3">
-        <v>321998</v>
+        <v>266844</v>
       </c>
       <c r="L3" s="1">
-        <v>-2720.9</v>
+        <v>-975</v>
       </c>
       <c r="M3">
-        <v>-0.84499999999999997</v>
+        <v>-0.3654</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44384</v>
+        <v>44391</v>
       </c>
       <c r="J4" s="1">
-        <v>401240.56</v>
+        <v>395001.88</v>
       </c>
       <c r="K4">
-        <v>264214.08</v>
+        <v>236228</v>
       </c>
       <c r="L4" s="1">
-        <v>8335</v>
+        <v>-3479</v>
       </c>
       <c r="M4">
-        <v>3.1545999999999998</v>
+        <v>-1.4726999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44385</v>
+        <v>44392</v>
       </c>
       <c r="J5" s="1">
-        <v>400854.3</v>
+        <v>398680.85</v>
       </c>
       <c r="K5">
-        <v>298343.01</v>
+        <v>178125</v>
       </c>
       <c r="L5" s="1">
-        <v>-344.6</v>
+        <v>3721</v>
       </c>
       <c r="M5">
-        <v>-0.11550000000000001</v>
+        <v>2.089</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44386</v>
+        <v>44393</v>
       </c>
       <c r="J6" s="1">
-        <v>358039.83</v>
+        <v>215638.8</v>
       </c>
       <c r="K6">
-        <v>299620.11</v>
+        <v>181630.1</v>
       </c>
       <c r="L6" s="1">
-        <v>1353</v>
+        <v>-6398</v>
       </c>
       <c r="M6">
-        <v>0.4516</v>
+        <v>-3.5225</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>389805.28200000001</v>
+        <v>361481.53400000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>274990.24000000005</v>
+        <v>235588.22000000003</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>7668.2</v>
+        <v>313</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>2.7885353312903027</v>
+        <v>0.13285893496712184</v>
       </c>
     </row>
   </sheetData>
@@ -9498,6 +10007,172 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J2" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K2">
+        <v>190776</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M2">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J3" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K3">
+        <v>321998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M3">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J4" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K4">
+        <v>264214.08</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M4">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J5" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K5">
+        <v>298343.01</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M5">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J6" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K6">
+        <v>299620.11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M6">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>389805.28200000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>274990.24000000005</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>7668.2</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>2.7885353312903027</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -9677,7 +10352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -9816,512 +10491,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="6">
-        <v>44348</v>
-      </c>
-      <c r="J2" s="1">
-        <v>369566.62</v>
-      </c>
-      <c r="K2" s="14">
-        <v>235801.1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2159.6</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.91590000000000005</v>
-      </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="6">
-        <v>44349</v>
-      </c>
-      <c r="J3" s="1">
-        <v>365120.57</v>
-      </c>
-      <c r="K3" s="14">
-        <v>296728</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-4436.1000000000004</v>
-      </c>
-      <c r="M3" s="5">
-        <v>-1.4950000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6">
-        <v>44350</v>
-      </c>
-      <c r="J4" s="1">
-        <v>363781.23</v>
-      </c>
-      <c r="K4" s="14">
-        <v>259382.2</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1330.1</v>
-      </c>
-      <c r="M4" s="5">
-        <v>-0.51280000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6">
-        <v>44351</v>
-      </c>
-      <c r="J5" s="1">
-        <v>366580.88</v>
-      </c>
-      <c r="K5" s="14">
-        <v>209187.4</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2829.7</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1.3527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="6">
-        <v>44354</v>
-      </c>
-      <c r="J6" s="1">
-        <v>418141.49</v>
-      </c>
-      <c r="K6" s="14">
-        <v>246536.6</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1562.6</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.63380000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="6">
-        <v>44355</v>
-      </c>
-      <c r="J7" s="1">
-        <v>414310.09</v>
-      </c>
-      <c r="K7" s="14">
-        <v>318721.40000000002</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-3812.1</v>
-      </c>
-      <c r="M7" s="5">
-        <v>-1.1960999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6">
-        <v>44356</v>
-      </c>
-      <c r="J8" s="1">
-        <v>413741.94</v>
-      </c>
-      <c r="K8" s="14">
-        <v>324161.7</v>
-      </c>
-      <c r="L8" s="1">
-        <v>427.2</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0.1318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6">
-        <v>44357</v>
-      </c>
-      <c r="J9" s="1">
-        <v>417812.38</v>
-      </c>
-      <c r="K9" s="14">
-        <v>282917</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4087.1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1.4446000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="6">
-        <v>44358</v>
-      </c>
-      <c r="J10" s="1">
-        <v>394905.9</v>
-      </c>
-      <c r="K10" s="14">
-        <v>322514</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-3902.2</v>
-      </c>
-      <c r="M10" s="5">
-        <v>-1.2099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6">
-        <v>44362</v>
-      </c>
-      <c r="J11" s="1">
-        <v>412797.08</v>
-      </c>
-      <c r="K11" s="14">
-        <v>329797.90000000002</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-2089.4</v>
-      </c>
-      <c r="M11" s="5">
-        <v>-0.63349999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="6">
-        <v>44363</v>
-      </c>
-      <c r="J12" s="1">
-        <v>400806.78</v>
-      </c>
-      <c r="K12" s="14">
-        <v>353970.5</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-8960.5</v>
-      </c>
-      <c r="M12" s="5">
-        <v>-2.5314000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="6">
-        <v>44364</v>
-      </c>
-      <c r="J13" s="1">
-        <v>408254.99</v>
-      </c>
-      <c r="K13" s="14">
-        <v>270435.7</v>
-      </c>
-      <c r="L13" s="1">
-        <v>6487.1</v>
-      </c>
-      <c r="M13" s="5">
-        <v>2.3988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="6">
-        <v>44365</v>
-      </c>
-      <c r="J14" s="1">
-        <v>412532.63</v>
-      </c>
-      <c r="K14" s="14">
-        <v>273539.59999999998</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2301.3000000000002</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.84130000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="6">
-        <v>44368</v>
-      </c>
-      <c r="J15" s="1">
-        <v>412210.07</v>
-      </c>
-      <c r="K15">
-        <v>276387.59999999998</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-319.3</v>
-      </c>
-      <c r="M15">
-        <v>-0.11550000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="6">
-        <v>44369</v>
-      </c>
-      <c r="J16" s="1">
-        <v>413594.91</v>
-      </c>
-      <c r="K16">
-        <v>319069.5</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1400.4</v>
-      </c>
-      <c r="M16">
-        <v>0.43890000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="6">
-        <v>44370</v>
-      </c>
-      <c r="J17" s="1">
-        <v>416573.23</v>
-      </c>
-      <c r="K17">
-        <v>244798.4</v>
-      </c>
-      <c r="L17" s="1">
-        <v>3015</v>
-      </c>
-      <c r="M17">
-        <v>1.2316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="6">
-        <v>44371</v>
-      </c>
-      <c r="J18" s="1">
-        <v>413177.05</v>
-      </c>
-      <c r="K18">
-        <v>315915.2</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-3368.2</v>
-      </c>
-      <c r="M18">
-        <v>-1.0662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="6">
-        <v>44372</v>
-      </c>
-      <c r="J19" s="1">
-        <v>412872.75</v>
-      </c>
-      <c r="K19">
-        <v>319013.59999999998</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5398.4</v>
-      </c>
-      <c r="M19">
-        <v>1.6921999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="6">
-        <v>44375</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="1"/>
-      <c r="I20"/>
-      <c r="J20" s="1">
-        <v>421680.23</v>
-      </c>
-      <c r="K20">
-        <v>235082.9</v>
-      </c>
-      <c r="L20">
-        <v>3167.1</v>
-      </c>
-      <c r="M20">
-        <v>1.3472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="6">
-        <v>44376</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="1"/>
-      <c r="I21"/>
-      <c r="J21" s="1">
-        <v>420854.97</v>
-      </c>
-      <c r="K21">
-        <v>334427.98</v>
-      </c>
-      <c r="L21">
-        <v>-777.6</v>
-      </c>
-      <c r="M21">
-        <v>-0.23250000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="6">
-        <v>44377</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="1"/>
-      <c r="I22"/>
-      <c r="J22" s="1">
-        <v>424153.89</v>
-      </c>
-      <c r="K22">
-        <v>281291</v>
-      </c>
-      <c r="L22">
-        <v>3372.42</v>
-      </c>
-      <c r="M22">
-        <v>1.1989000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="6"/>
-      <c r="B23">
-        <f>SUM(B6:B10)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f>SUM(F6:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G6:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f>SUM(H6:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <f>AVERAGE(J2:J22)</f>
-        <v>404450.93714285712</v>
-      </c>
-      <c r="K23" s="1">
-        <f>AVERAGE(K2:K22)</f>
-        <v>288079.96571428579</v>
-      </c>
-      <c r="L23" s="1">
-        <f>SUM(L1:L22)</f>
-        <v>7212.42</v>
-      </c>
-      <c r="M23" s="5">
-        <f>L23/K23*100</f>
-        <v>2.5036173487861317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="L25">
-        <v>6522.77</v>
-      </c>
-      <c r="M25" s="1">
-        <f>AVERAGE(L25,L26,L27)</f>
-        <v>10335.52</v>
-      </c>
-      <c r="N25" s="1">
-        <f>AVERAGE(L25:L30)</f>
-        <v>3917.4199999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="L26">
-        <v>16134.77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="L27">
-        <v>8349.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="L28" s="1">
-        <v>-11625.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="L29" s="1">
-        <v>-2946.04</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="L30" s="1">
-        <v>7069.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -7,37 +7,39 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="82" sheetId="51" r:id="rId1"/>
-    <sheet name="81" sheetId="50" r:id="rId2"/>
-    <sheet name="7A" sheetId="48" r:id="rId3"/>
-    <sheet name="75" sheetId="49" r:id="rId4"/>
-    <sheet name="74" sheetId="47" r:id="rId5"/>
-    <sheet name="73" sheetId="46" r:id="rId6"/>
-    <sheet name="72" sheetId="45" r:id="rId7"/>
-    <sheet name="71" sheetId="44" r:id="rId8"/>
-    <sheet name="65" sheetId="43" r:id="rId9"/>
-    <sheet name="6A" sheetId="40" r:id="rId10"/>
-    <sheet name="64" sheetId="42" r:id="rId11"/>
-    <sheet name="63" sheetId="41" r:id="rId12"/>
-    <sheet name="62" sheetId="39" r:id="rId13"/>
-    <sheet name="61" sheetId="38" r:id="rId14"/>
-    <sheet name="5" sheetId="37" r:id="rId15"/>
-    <sheet name="2104" sheetId="36" r:id="rId16"/>
-    <sheet name="2103" sheetId="33" r:id="rId17"/>
-    <sheet name="2102" sheetId="31" r:id="rId18"/>
-    <sheet name="2101" sheetId="26" r:id="rId19"/>
-    <sheet name="每月" sheetId="29" r:id="rId20"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId21"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId22"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId23"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId24"/>
+    <sheet name="8A" sheetId="53" r:id="rId1"/>
+    <sheet name="83" sheetId="52" r:id="rId2"/>
+    <sheet name="82" sheetId="51" r:id="rId3"/>
+    <sheet name="81" sheetId="50" r:id="rId4"/>
+    <sheet name="7A" sheetId="48" r:id="rId5"/>
+    <sheet name="75" sheetId="49" r:id="rId6"/>
+    <sheet name="74" sheetId="47" r:id="rId7"/>
+    <sheet name="73" sheetId="46" r:id="rId8"/>
+    <sheet name="72" sheetId="45" r:id="rId9"/>
+    <sheet name="71" sheetId="44" r:id="rId10"/>
+    <sheet name="65" sheetId="43" r:id="rId11"/>
+    <sheet name="6A" sheetId="40" r:id="rId12"/>
+    <sheet name="64" sheetId="42" r:id="rId13"/>
+    <sheet name="63" sheetId="41" r:id="rId14"/>
+    <sheet name="62" sheetId="39" r:id="rId15"/>
+    <sheet name="61" sheetId="38" r:id="rId16"/>
+    <sheet name="5" sheetId="37" r:id="rId17"/>
+    <sheet name="2104" sheetId="36" r:id="rId18"/>
+    <sheet name="2103" sheetId="33" r:id="rId19"/>
+    <sheet name="2102" sheetId="31" r:id="rId20"/>
+    <sheet name="2101" sheetId="26" r:id="rId21"/>
+    <sheet name="每月" sheetId="29" r:id="rId22"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId23"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId24"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId25"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId26"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1743,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1799,105 +1801,275 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44417</v>
+        <v>44410</v>
       </c>
       <c r="J2" s="1">
-        <v>354194.04</v>
+        <v>392126.02</v>
       </c>
       <c r="K2">
-        <v>279851.99</v>
+        <v>320852.71999999997</v>
       </c>
       <c r="L2" s="1">
-        <v>-18.8</v>
+        <v>-29.6</v>
       </c>
       <c r="M2">
-        <v>-6.7000000000000002E-3</v>
+        <v>-9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44418</v>
+        <v>44411</v>
       </c>
       <c r="J3" s="1">
-        <v>411295.97</v>
+        <v>428982.28</v>
       </c>
       <c r="K3">
-        <v>334866</v>
+        <v>216964</v>
       </c>
       <c r="L3" s="1">
-        <v>530</v>
+        <v>-5543</v>
       </c>
       <c r="M3">
-        <v>0.1583</v>
+        <v>-2.5548000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44419</v>
+        <v>44412</v>
       </c>
       <c r="J4" s="1">
-        <v>411599.88</v>
+        <v>407773.25</v>
       </c>
       <c r="K4">
-        <v>299838.5</v>
+        <v>157353</v>
       </c>
       <c r="L4" s="1">
-        <v>307.5</v>
+        <v>2844</v>
       </c>
       <c r="M4">
-        <v>0.1026</v>
+        <v>1.8073999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44420</v>
+        <v>44413</v>
       </c>
       <c r="J5" s="1">
-        <v>409679.53</v>
+        <v>383514.64</v>
       </c>
       <c r="K5">
-        <v>305083.5</v>
+        <v>190161.02</v>
       </c>
       <c r="L5" s="1">
-        <v>-1920</v>
+        <v>-1180</v>
       </c>
       <c r="M5">
-        <v>-0.62929999999999997</v>
+        <v>-0.62050000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
+        <v>44414</v>
+      </c>
+      <c r="J6" s="1">
+        <v>398314.84</v>
+      </c>
+      <c r="K6">
+        <v>247438.86</v>
+      </c>
+      <c r="L6" s="1">
+        <v>218.8</v>
+      </c>
+      <c r="M6">
+        <v>8.8400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44417</v>
+      </c>
+      <c r="J7" s="1">
+        <v>354194.04</v>
+      </c>
+      <c r="K7">
+        <v>279851.99</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-18.8</v>
+      </c>
+      <c r="M7">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44418</v>
+      </c>
+      <c r="J8" s="1">
+        <v>411295.97</v>
+      </c>
+      <c r="K8">
+        <v>334866</v>
+      </c>
+      <c r="L8" s="1">
+        <v>530</v>
+      </c>
+      <c r="M8">
+        <v>0.1583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44419</v>
+      </c>
+      <c r="J9" s="1">
+        <v>411599.88</v>
+      </c>
+      <c r="K9">
+        <v>299838.5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>307.5</v>
+      </c>
+      <c r="M9">
+        <v>0.1026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44420</v>
+      </c>
+      <c r="J10" s="1">
+        <v>409679.53</v>
+      </c>
+      <c r="K10">
+        <v>305083.5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-1920</v>
+      </c>
+      <c r="M10">
+        <v>-0.62929999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
         <v>44421</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J11" s="1">
         <v>401674.82</v>
       </c>
-      <c r="K6">
+      <c r="K11">
         <v>312203.12</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L11" s="1">
         <v>-2859.5</v>
       </c>
-      <c r="M6">
+      <c r="M11">
         <v>-0.91590000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>397688.84800000006</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>306368.62199999997</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-3960.8</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-1.29282169111953</v>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44424</v>
+      </c>
+      <c r="J12" s="1">
+        <v>403321.06</v>
+      </c>
+      <c r="K12">
+        <v>303182</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-3462</v>
+      </c>
+      <c r="M12">
+        <v>-1.1418999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44425</v>
+      </c>
+      <c r="J13" s="1">
+        <v>395314.64</v>
+      </c>
+      <c r="K13">
+        <v>289618</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-7968.9</v>
+      </c>
+      <c r="M13">
+        <v>-2.7515000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44426</v>
+      </c>
+      <c r="J14" s="1">
+        <v>396758.63</v>
+      </c>
+      <c r="K14">
+        <v>245890</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1536</v>
+      </c>
+      <c r="M14">
+        <v>0.62470000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44427</v>
+      </c>
+      <c r="J15" s="1">
+        <v>317723.65999999997</v>
+      </c>
+      <c r="K15">
+        <v>247268.36</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1421.5</v>
+      </c>
+      <c r="M15">
+        <v>0.57489999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44428</v>
+      </c>
+      <c r="J16" s="1">
+        <v>353767.54</v>
+      </c>
+      <c r="K16">
+        <v>285639.59999999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-4326.3999999999996</v>
+      </c>
+      <c r="M16">
+        <v>-1.5145999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13">
+      <c r="J17" s="1">
+        <f>AVERAGE(J2:J16)</f>
+        <v>391069.38666666666</v>
+      </c>
+      <c r="K17" s="1">
+        <f>AVERAGE(K2:K16)</f>
+        <v>269080.71133333334</v>
+      </c>
+      <c r="L17" s="1">
+        <f>SUM(L2:L16)</f>
+        <v>-20450.400000000001</v>
+      </c>
+      <c r="M17" s="5">
+        <f>L17/K17*100</f>
+        <v>-7.6000988323040142</v>
       </c>
     </row>
   </sheetData>
@@ -1908,6 +2080,327 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44375</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1"/>
+      <c r="I2"/>
+      <c r="J2" s="1">
+        <v>421680.23</v>
+      </c>
+      <c r="K2">
+        <v>235082.9</v>
+      </c>
+      <c r="L2">
+        <v>3167.1</v>
+      </c>
+      <c r="M2">
+        <v>1.3472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44376</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1"/>
+      <c r="I3"/>
+      <c r="J3" s="1">
+        <v>420854.97</v>
+      </c>
+      <c r="K3">
+        <v>334427.98</v>
+      </c>
+      <c r="L3">
+        <v>-777.6</v>
+      </c>
+      <c r="M3">
+        <v>-0.23250000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44377</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="1"/>
+      <c r="I4"/>
+      <c r="J4" s="1">
+        <v>424153.89</v>
+      </c>
+      <c r="K4">
+        <v>281291</v>
+      </c>
+      <c r="L4">
+        <v>3372.42</v>
+      </c>
+      <c r="M4">
+        <v>1.1989000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44378</v>
+      </c>
+      <c r="J5" s="1">
+        <v>400968.2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>221650.6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-3191.21</v>
+      </c>
+      <c r="M5" s="5">
+        <v>-1.4145000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44379</v>
+      </c>
+      <c r="J6" s="1">
+        <v>394703.57</v>
+      </c>
+      <c r="K6">
+        <v>282622.7</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-6272.86</v>
+      </c>
+      <c r="M6">
+        <v>-2.2845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6"/>
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>412472.17199999996</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>271015.03599999996</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-3702.1499999999996</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-1.3660312190206303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44375</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1"/>
+      <c r="I2"/>
+      <c r="J2" s="1">
+        <v>421680.23</v>
+      </c>
+      <c r="K2">
+        <v>235082.9</v>
+      </c>
+      <c r="L2">
+        <v>3167.1</v>
+      </c>
+      <c r="M2">
+        <v>1.3472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44376</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1"/>
+      <c r="I3"/>
+      <c r="J3" s="1">
+        <v>420854.97</v>
+      </c>
+      <c r="K3">
+        <v>334427.98</v>
+      </c>
+      <c r="L3">
+        <v>-777.6</v>
+      </c>
+      <c r="M3">
+        <v>-0.23250000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44377</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="1"/>
+      <c r="I4"/>
+      <c r="J4" s="1">
+        <v>424153.89</v>
+      </c>
+      <c r="K4">
+        <v>281291</v>
+      </c>
+      <c r="L4">
+        <v>3372.42</v>
+      </c>
+      <c r="M4">
+        <v>1.1989000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="J5" s="1">
+        <f>AVERAGE(J2:J4)</f>
+        <v>422229.6966666666</v>
+      </c>
+      <c r="K5" s="1">
+        <f>AVERAGE(K2:K4)</f>
+        <v>283600.62666666665</v>
+      </c>
+      <c r="L5" s="1">
+        <f>SUM(L2:L4)</f>
+        <v>5761.92</v>
+      </c>
+      <c r="M5" s="5">
+        <f>L5/K5*100</f>
+        <v>2.0317021396332602</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -2415,7 +2908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -2581,7 +3074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -2730,7 +3223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -2896,7 +3389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -3096,7 +3589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -3965,7 +4458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -5059,7 +5552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -6237,7 +6730,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44424</v>
+      </c>
+      <c r="J2" s="1">
+        <v>403321.06</v>
+      </c>
+      <c r="K2">
+        <v>303182</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-3462</v>
+      </c>
+      <c r="M2">
+        <v>-1.1418999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44425</v>
+      </c>
+      <c r="J3" s="1">
+        <v>395314.64</v>
+      </c>
+      <c r="K3">
+        <v>289618</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-7968.9</v>
+      </c>
+      <c r="M3">
+        <v>-2.7515000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44426</v>
+      </c>
+      <c r="J4" s="1">
+        <v>396758.63</v>
+      </c>
+      <c r="K4">
+        <v>245890</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1536</v>
+      </c>
+      <c r="M4">
+        <v>0.62470000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44427</v>
+      </c>
+      <c r="J5" s="1">
+        <v>317723.65999999997</v>
+      </c>
+      <c r="K5">
+        <v>247268.36</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1421.5</v>
+      </c>
+      <c r="M5">
+        <v>0.57489999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44428</v>
+      </c>
+      <c r="J6" s="1">
+        <v>353767.54</v>
+      </c>
+      <c r="K6">
+        <v>285639.59999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-4326.3999999999996</v>
+      </c>
+      <c r="M6">
+        <v>-1.5145999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>373377.10600000003</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>274319.592</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-12799.8</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-4.6660174385211244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -6831,7 +7490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -7749,7 +8408,1932 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>202012</v>
+      </c>
+      <c r="C1">
+        <v>202011</v>
+      </c>
+      <c r="D1">
+        <v>202010</v>
+      </c>
+      <c r="E1">
+        <v>201209</v>
+      </c>
+      <c r="F1">
+        <v>202008</v>
+      </c>
+      <c r="G1">
+        <v>202007</v>
+      </c>
+      <c r="H1">
+        <v>202006</v>
+      </c>
+      <c r="I1">
+        <v>202005</v>
+      </c>
+      <c r="J1">
+        <v>202004</v>
+      </c>
+      <c r="K1">
+        <v>201203</v>
+      </c>
+      <c r="L1">
+        <v>202002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>219702.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>194008.42</v>
+      </c>
+      <c r="D2" s="1">
+        <v>188987.24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184099.85</v>
+      </c>
+      <c r="F2" s="1">
+        <v>164759.56</v>
+      </c>
+      <c r="G2" s="1">
+        <v>134926.57999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>95661.82</v>
+      </c>
+      <c r="I2" s="1">
+        <v>79288.210000000006</v>
+      </c>
+      <c r="J2" s="1">
+        <v>54471.86</v>
+      </c>
+      <c r="K2" s="1">
+        <v>17124.080000000002</v>
+      </c>
+      <c r="L2" s="1">
+        <v>97.49</v>
+      </c>
+      <c r="N2" s="1">
+        <f>SUM(B2:L2)/10</f>
+        <v>133312.74100000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>194013.76</v>
+      </c>
+      <c r="C3" s="3">
+        <v>194008.42</v>
+      </c>
+      <c r="D3" s="3">
+        <v>188987.24</v>
+      </c>
+      <c r="E3" s="3">
+        <v>184099.85</v>
+      </c>
+      <c r="F3" s="3">
+        <v>164759.56</v>
+      </c>
+      <c r="G3" s="3">
+        <v>134926.57999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>95661.82</v>
+      </c>
+      <c r="I3" s="3">
+        <v>79288.210000000006</v>
+      </c>
+      <c r="J3" s="3">
+        <v>54471.86</v>
+      </c>
+      <c r="K3" s="1">
+        <v>17300</v>
+      </c>
+      <c r="L3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>219211.26</v>
+      </c>
+      <c r="C4" s="1">
+        <v>146392.93</v>
+      </c>
+      <c r="D4" s="1">
+        <v>92495.26</v>
+      </c>
+      <c r="E4" s="1">
+        <v>162561.74</v>
+      </c>
+      <c r="F4" s="1">
+        <v>126237.95</v>
+      </c>
+      <c r="G4" s="1">
+        <v>98723.17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>25782.74</v>
+      </c>
+      <c r="I4" s="1">
+        <v>32293.32</v>
+      </c>
+      <c r="J4" s="1">
+        <v>67600</v>
+      </c>
+      <c r="K4" s="1">
+        <v>17300</v>
+      </c>
+      <c r="L4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>207003.39</v>
+      </c>
+      <c r="C5" s="1">
+        <v>146418.4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>92469.79</v>
+      </c>
+      <c r="E5" s="1">
+        <v>132569.23000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>96241.66</v>
+      </c>
+      <c r="G5" s="1">
+        <v>69045.48</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16050.17</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7522.3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>32300</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:K6" si="0">B4-B5</f>
+        <v>12207.869999999995</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>-25.470000000001164</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>25.470000000001164</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>29992.50999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>29996.289999999994</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>29677.690000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>9732.5700000000015</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>24771.02</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>35300</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>17300</v>
+      </c>
+      <c r="L6" s="1">
+        <f>L4-L5</f>
+        <v>100</v>
+      </c>
+      <c r="N6" s="1">
+        <f>SUM(B6:L6)</f>
+        <v>189077.94999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13486.01</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5046.6400000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4861.92</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-10652.23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-163.32</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9587.07</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6641.03</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45.33</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2047.78</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-273.42</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <f>SUM(B7:M7)</f>
+        <v>30624.300000000003</v>
+      </c>
+      <c r="O7" s="1">
+        <f>SUM(B7,C7,D7)/3</f>
+        <v>7798.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-5.47</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-1.58</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.64</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-4.75</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="G9" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7.68</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-6.44</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1.59</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="N12" s="1">
+        <v>189077.95</v>
+      </c>
+      <c r="O12">
+        <v>30624.35</v>
+      </c>
+      <c r="P12">
+        <f>O12/N12*100</f>
+        <v>16.196679729180477</v>
+      </c>
+      <c r="Q12">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>202002</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>202003</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-273.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>202004</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2047.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>202005</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>202006</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6641.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>202007</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9587.07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>202008</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-163.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>202009</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-10652.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>202010</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4861.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>202011</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5046.6400000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>202012</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13486.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A17:Q27">
+    <sortCondition ref="A17:A27"/>
+  </sortState>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>186</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+      <c r="C2">
+        <f>A2*B2</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>490.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>363.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="0">A3*B3</f>
+        <v>18.150500000000001</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="1">D3-C3</f>
+        <v>981.84950000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>369.84</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>18.492000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>981.50800000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>368.28</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>18.413999999999998</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>981.58600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>816.75</v>
+      </c>
+      <c r="B6">
+        <v>0.05</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>40.837500000000006</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1959.1624999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>638.27</v>
+      </c>
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>31.913499999999999</v>
+      </c>
+      <c r="D7">
+        <v>1500</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1468.0864999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>421.67</v>
+      </c>
+      <c r="B8">
+        <v>0.05</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>21.083500000000001</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>978.91650000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>631.91999999999996</v>
+      </c>
+      <c r="B9">
+        <v>0.05</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>31.596</v>
+      </c>
+      <c r="D9">
+        <v>1500</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1468.404</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="5" max="5" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>861.52</v>
+      </c>
+      <c r="D2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E2" s="8">
+        <f>D2*C2</f>
+        <v>961.45632000000012</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2-B2</f>
+        <v>-38.543679999999881</v>
+      </c>
+      <c r="H2">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I2">
+        <f>H2*C2</f>
+        <v>5.41256299844183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>1744.1</v>
+      </c>
+      <c r="D3">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3" si="0">D3*C3</f>
+        <v>1946.4156</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3" si="1">E3-B3</f>
+        <v>-53.58439999999996</v>
+      </c>
+      <c r="H3">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3" si="2">H3*C3</f>
+        <v>10.957437001558171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6">
+        <f>SUM(C2:C4)</f>
+        <v>2605.62</v>
+      </c>
+      <c r="D6">
+        <v>3.3831000000000002</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" ref="E6" si="3">D6*C6</f>
+        <v>8815.0730220000005</v>
+      </c>
+      <c r="F6" s="9">
+        <v>16.37</v>
+      </c>
+      <c r="H6">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1">
+        <v>51300</v>
+      </c>
+      <c r="B1">
+        <v>5600</v>
+      </c>
+      <c r="C1">
+        <f>A1-B1</f>
+        <v>45700</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="H13">
+        <v>4700</v>
+      </c>
+      <c r="K13">
+        <v>5100</v>
+      </c>
+      <c r="L13">
+        <v>7196.1</v>
+      </c>
+      <c r="M13">
+        <v>5100</v>
+      </c>
+      <c r="N13">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <f>M13*N13</f>
+        <v>7150.2</v>
+      </c>
+      <c r="P13" s="1">
+        <f>O13-L13</f>
+        <v>-45.900000000000546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="H14">
+        <v>2200</v>
+      </c>
+      <c r="K14">
+        <v>5500</v>
+      </c>
+      <c r="L14">
+        <v>7980.5</v>
+      </c>
+      <c r="M14">
+        <v>5500</v>
+      </c>
+      <c r="N14">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O19" si="0">M14*N14</f>
+        <v>7710.9999999999991</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" ref="P14:P19" si="1">O14-L14</f>
+        <v>-269.50000000000091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="H15">
+        <v>3400</v>
+      </c>
+      <c r="K15">
+        <v>5700</v>
+      </c>
+      <c r="L15">
+        <v>8367.6</v>
+      </c>
+      <c r="M15">
+        <v>5700</v>
+      </c>
+      <c r="N15">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>7991.4</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="1"/>
+        <v>-376.20000000000073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="H16">
+        <v>3000</v>
+      </c>
+      <c r="K16">
+        <v>5900</v>
+      </c>
+      <c r="L16">
+        <v>8796.9</v>
+      </c>
+      <c r="M16">
+        <v>5900</v>
+      </c>
+      <c r="N16">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>8271.7999999999993</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>-525.10000000000036</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16">
+      <c r="H17">
+        <v>3800</v>
+      </c>
+      <c r="K17">
+        <v>5000</v>
+      </c>
+      <c r="L17">
+        <v>7505</v>
+      </c>
+      <c r="M17">
+        <v>5000</v>
+      </c>
+      <c r="N17">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>7010</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="1"/>
+        <v>-495</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16">
+      <c r="H18">
+        <v>3000</v>
+      </c>
+      <c r="K18">
+        <v>5100</v>
+      </c>
+      <c r="L18">
+        <v>7706.1</v>
+      </c>
+      <c r="M18">
+        <v>5100</v>
+      </c>
+      <c r="N18">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>7150.2</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="1"/>
+        <v>-555.90000000000055</v>
+      </c>
+    </row>
+    <row r="19" spans="8:16">
+      <c r="K19">
+        <v>5100</v>
+      </c>
+      <c r="L19">
+        <v>7706.1</v>
+      </c>
+      <c r="M19">
+        <v>5100</v>
+      </c>
+      <c r="N19">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>7150.2</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="1"/>
+        <v>-555.90000000000055</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44417</v>
+      </c>
+      <c r="J2" s="1">
+        <v>354194.04</v>
+      </c>
+      <c r="K2">
+        <v>279851.99</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-18.8</v>
+      </c>
+      <c r="M2">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44418</v>
+      </c>
+      <c r="J3" s="1">
+        <v>411295.97</v>
+      </c>
+      <c r="K3">
+        <v>334866</v>
+      </c>
+      <c r="L3" s="1">
+        <v>530</v>
+      </c>
+      <c r="M3">
+        <v>0.1583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44419</v>
+      </c>
+      <c r="J4" s="1">
+        <v>411599.88</v>
+      </c>
+      <c r="K4">
+        <v>299838.5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>307.5</v>
+      </c>
+      <c r="M4">
+        <v>0.1026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44420</v>
+      </c>
+      <c r="J5" s="1">
+        <v>409679.53</v>
+      </c>
+      <c r="K5">
+        <v>305083.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1920</v>
+      </c>
+      <c r="M5">
+        <v>-0.62929999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44421</v>
+      </c>
+      <c r="J6" s="1">
+        <v>401674.82</v>
+      </c>
+      <c r="K6">
+        <v>312203.12</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-2859.5</v>
+      </c>
+      <c r="M6">
+        <v>-0.91590000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>397688.84800000006</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>306368.62199999997</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-3960.8</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-1.29282169111953</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44410</v>
+      </c>
+      <c r="J2" s="1">
+        <v>392126.02</v>
+      </c>
+      <c r="K2">
+        <v>320852.71999999997</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-29.6</v>
+      </c>
+      <c r="M2">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44411</v>
+      </c>
+      <c r="J3" s="1">
+        <v>428982.28</v>
+      </c>
+      <c r="K3">
+        <v>216964</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-5543</v>
+      </c>
+      <c r="M3">
+        <v>-2.5548000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44412</v>
+      </c>
+      <c r="J4" s="1">
+        <v>407773.25</v>
+      </c>
+      <c r="K4">
+        <v>157353</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2844</v>
+      </c>
+      <c r="M4">
+        <v>1.8073999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44413</v>
+      </c>
+      <c r="J5" s="1">
+        <v>383514.64</v>
+      </c>
+      <c r="K5">
+        <v>190161.02</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1180</v>
+      </c>
+      <c r="M5">
+        <v>-0.62050000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44414</v>
+      </c>
+      <c r="J6" s="1">
+        <v>398314.84</v>
+      </c>
+      <c r="K6">
+        <v>247438.86</v>
+      </c>
+      <c r="L6" s="1">
+        <v>218.8</v>
+      </c>
+      <c r="M6">
+        <v>8.8400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>402142.20600000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>226553.92</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-3689.8</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-1.6286630573419343</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44378</v>
+      </c>
+      <c r="J2" s="1">
+        <v>400968.2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>221650.6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-3191.21</v>
+      </c>
+      <c r="M2" s="5">
+        <v>-1.4145000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44379</v>
+      </c>
+      <c r="J3" s="1">
+        <v>394703.57</v>
+      </c>
+      <c r="K3">
+        <v>282622.7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-6272.86</v>
+      </c>
+      <c r="M3">
+        <v>-2.2845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J4" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K4">
+        <v>190776</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M4">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J5" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K5">
+        <v>321998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M5">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J6" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K6">
+        <v>264214.08</v>
+      </c>
+      <c r="L6" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M6">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J7" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K7">
+        <v>298343.01</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M7">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J8" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K8">
+        <v>299620.11</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M8">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44389</v>
+      </c>
+      <c r="J9" s="1">
+        <v>399553.09</v>
+      </c>
+      <c r="K9">
+        <v>315114</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7444</v>
+      </c>
+      <c r="M9">
+        <v>2.3622999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44390</v>
+      </c>
+      <c r="J10" s="1">
+        <v>398533.05</v>
+      </c>
+      <c r="K10">
+        <v>266844</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-975</v>
+      </c>
+      <c r="M10">
+        <v>-0.3654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44391</v>
+      </c>
+      <c r="J11" s="1">
+        <v>395001.88</v>
+      </c>
+      <c r="K11">
+        <v>236228</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-3479</v>
+      </c>
+      <c r="M11">
+        <v>-1.4726999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44392</v>
+      </c>
+      <c r="J12" s="1">
+        <v>398680.85</v>
+      </c>
+      <c r="K12">
+        <v>178125</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3721</v>
+      </c>
+      <c r="M12">
+        <v>2.089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44393</v>
+      </c>
+      <c r="J13" s="1">
+        <v>215638.8</v>
+      </c>
+      <c r="K13">
+        <v>181630.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-6398</v>
+      </c>
+      <c r="M13">
+        <v>-3.5225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44396</v>
+      </c>
+      <c r="J14" s="1">
+        <v>391461.52</v>
+      </c>
+      <c r="K14">
+        <v>346936</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-735.7</v>
+      </c>
+      <c r="M14">
+        <v>-0.21210000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44397</v>
+      </c>
+      <c r="J15" s="1">
+        <v>381325.07</v>
+      </c>
+      <c r="K15">
+        <v>241558</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-86</v>
+      </c>
+      <c r="M15">
+        <v>-3.56E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44398</v>
+      </c>
+      <c r="J16" s="1">
+        <v>385281.95</v>
+      </c>
+      <c r="K16">
+        <v>248832</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3968</v>
+      </c>
+      <c r="M16">
+        <v>1.5947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44399</v>
+      </c>
+      <c r="J17" s="1">
+        <v>350182.62</v>
+      </c>
+      <c r="K17">
+        <v>260244.58</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1428</v>
+      </c>
+      <c r="M17">
+        <v>0.54869999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44400</v>
+      </c>
+      <c r="J18" s="1">
+        <v>321329.03999999998</v>
+      </c>
+      <c r="K18">
+        <v>291717.36</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-5033</v>
+      </c>
+      <c r="M18">
+        <v>-1.7253000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44403</v>
+      </c>
+      <c r="J19" s="1">
+        <v>346532.81</v>
+      </c>
+      <c r="K19">
+        <v>341191.62</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-10790</v>
+      </c>
+      <c r="M19">
+        <v>-3.1623999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44404</v>
+      </c>
+      <c r="J20" s="1">
+        <v>350194.88</v>
+      </c>
+      <c r="K20">
+        <v>248836.5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-10497.8</v>
+      </c>
+      <c r="M20">
+        <v>-4.2187999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44405</v>
+      </c>
+      <c r="J21" s="1">
+        <v>297302.5</v>
+      </c>
+      <c r="K21">
+        <v>257045.36</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-1756.7</v>
+      </c>
+      <c r="M21">
+        <v>-0.68340000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44406</v>
+      </c>
+      <c r="J22" s="1">
+        <v>435117.81</v>
+      </c>
+      <c r="K22">
+        <v>278202.5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>16747</v>
+      </c>
+      <c r="M22">
+        <v>6.0197000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44407</v>
+      </c>
+      <c r="J23" s="1">
+        <v>411503.17</v>
+      </c>
+      <c r="K23">
+        <v>287799.21000000002</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-360</v>
+      </c>
+      <c r="M23">
+        <v>-0.12509999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6"/>
+      <c r="B24">
+        <f>SUM(B7:B11)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F7:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>SUM(G7:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>SUM(H7:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f>AVERAGE(J2:J23)</f>
+        <v>373742.60090909083</v>
+      </c>
+      <c r="K24" s="1">
+        <f>AVERAGE(K2:K23)</f>
+        <v>266342.21500000003</v>
+      </c>
+      <c r="L24" s="1">
+        <f>SUM(L2:L23)</f>
+        <v>-8599.07</v>
+      </c>
+      <c r="M24" s="5">
+        <f>L24/K24*100</f>
+        <v>-3.2285794424289813</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -7807,105 +10391,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="J2" s="1">
-        <v>392126.02</v>
+        <v>346532.81</v>
       </c>
       <c r="K2">
-        <v>320852.71999999997</v>
+        <v>341191.62</v>
       </c>
       <c r="L2" s="1">
-        <v>-29.6</v>
+        <v>-10790</v>
       </c>
       <c r="M2">
-        <v>-9.1999999999999998E-3</v>
+        <v>-3.1623999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44411</v>
+        <v>44404</v>
       </c>
       <c r="J3" s="1">
-        <v>428982.28</v>
+        <v>350194.88</v>
       </c>
       <c r="K3">
-        <v>216964</v>
+        <v>248836.5</v>
       </c>
       <c r="L3" s="1">
-        <v>-5543</v>
+        <v>-10497.8</v>
       </c>
       <c r="M3">
-        <v>-2.5548000000000002</v>
+        <v>-4.2187999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44412</v>
+        <v>44405</v>
       </c>
       <c r="J4" s="1">
-        <v>407773.25</v>
+        <v>297302.5</v>
       </c>
       <c r="K4">
-        <v>157353</v>
+        <v>257045.36</v>
       </c>
       <c r="L4" s="1">
-        <v>2844</v>
+        <v>-1756.7</v>
       </c>
       <c r="M4">
-        <v>1.8073999999999999</v>
+        <v>-0.68340000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44413</v>
+        <v>44406</v>
       </c>
       <c r="J5" s="1">
-        <v>383514.64</v>
+        <v>435117.81</v>
       </c>
       <c r="K5">
-        <v>190161.02</v>
+        <v>278202.5</v>
       </c>
       <c r="L5" s="1">
-        <v>-1180</v>
+        <v>16747</v>
       </c>
       <c r="M5">
-        <v>-0.62050000000000005</v>
+        <v>6.0197000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44414</v>
+        <v>44407</v>
       </c>
       <c r="J6" s="1">
-        <v>398314.84</v>
+        <v>411503.17</v>
       </c>
       <c r="K6">
-        <v>247438.86</v>
+        <v>287799.21000000002</v>
       </c>
       <c r="L6" s="1">
-        <v>218.8</v>
+        <v>-360</v>
       </c>
       <c r="M6">
-        <v>8.8400000000000006E-2</v>
+        <v>-0.12509999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>402142.20600000001</v>
+        <v>368130.234</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>226553.92</v>
+        <v>282615.038</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-3689.8</v>
+        <v>-6657.5</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-1.6286630573419343</v>
+        <v>-2.3556779027448638</v>
       </c>
     </row>
   </sheetData>
@@ -7915,1600 +10499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.26953125" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>202012</v>
-      </c>
-      <c r="C1">
-        <v>202011</v>
-      </c>
-      <c r="D1">
-        <v>202010</v>
-      </c>
-      <c r="E1">
-        <v>201209</v>
-      </c>
-      <c r="F1">
-        <v>202008</v>
-      </c>
-      <c r="G1">
-        <v>202007</v>
-      </c>
-      <c r="H1">
-        <v>202006</v>
-      </c>
-      <c r="I1">
-        <v>202005</v>
-      </c>
-      <c r="J1">
-        <v>202004</v>
-      </c>
-      <c r="K1">
-        <v>201203</v>
-      </c>
-      <c r="L1">
-        <v>202002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>219702.3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>194008.42</v>
-      </c>
-      <c r="D2" s="1">
-        <v>188987.24</v>
-      </c>
-      <c r="E2" s="1">
-        <v>184099.85</v>
-      </c>
-      <c r="F2" s="1">
-        <v>164759.56</v>
-      </c>
-      <c r="G2" s="1">
-        <v>134926.57999999999</v>
-      </c>
-      <c r="H2" s="1">
-        <v>95661.82</v>
-      </c>
-      <c r="I2" s="1">
-        <v>79288.210000000006</v>
-      </c>
-      <c r="J2" s="1">
-        <v>54471.86</v>
-      </c>
-      <c r="K2" s="1">
-        <v>17124.080000000002</v>
-      </c>
-      <c r="L2" s="1">
-        <v>97.49</v>
-      </c>
-      <c r="N2" s="1">
-        <f>SUM(B2:L2)/10</f>
-        <v>133312.74100000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>194013.76</v>
-      </c>
-      <c r="C3" s="3">
-        <v>194008.42</v>
-      </c>
-      <c r="D3" s="3">
-        <v>188987.24</v>
-      </c>
-      <c r="E3" s="3">
-        <v>184099.85</v>
-      </c>
-      <c r="F3" s="3">
-        <v>164759.56</v>
-      </c>
-      <c r="G3" s="3">
-        <v>134926.57999999999</v>
-      </c>
-      <c r="H3" s="3">
-        <v>95661.82</v>
-      </c>
-      <c r="I3" s="3">
-        <v>79288.210000000006</v>
-      </c>
-      <c r="J3" s="3">
-        <v>54471.86</v>
-      </c>
-      <c r="K3" s="1">
-        <v>17300</v>
-      </c>
-      <c r="L3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>219211.26</v>
-      </c>
-      <c r="C4" s="1">
-        <v>146392.93</v>
-      </c>
-      <c r="D4" s="1">
-        <v>92495.26</v>
-      </c>
-      <c r="E4" s="1">
-        <v>162561.74</v>
-      </c>
-      <c r="F4" s="1">
-        <v>126237.95</v>
-      </c>
-      <c r="G4" s="1">
-        <v>98723.17</v>
-      </c>
-      <c r="H4" s="1">
-        <v>25782.74</v>
-      </c>
-      <c r="I4" s="1">
-        <v>32293.32</v>
-      </c>
-      <c r="J4" s="1">
-        <v>67600</v>
-      </c>
-      <c r="K4" s="1">
-        <v>17300</v>
-      </c>
-      <c r="L4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>207003.39</v>
-      </c>
-      <c r="C5" s="1">
-        <v>146418.4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>92469.79</v>
-      </c>
-      <c r="E5" s="1">
-        <v>132569.23000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>96241.66</v>
-      </c>
-      <c r="G5" s="1">
-        <v>69045.48</v>
-      </c>
-      <c r="H5" s="1">
-        <v>16050.17</v>
-      </c>
-      <c r="I5" s="1">
-        <v>7522.3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>32300</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" ref="B6:K6" si="0">B4-B5</f>
-        <v>12207.869999999995</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>-25.470000000001164</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>25.470000000001164</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>29992.50999999998</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>29996.289999999994</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>29677.690000000002</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>9732.5700000000015</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>24771.02</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="0"/>
-        <v>35300</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="0"/>
-        <v>17300</v>
-      </c>
-      <c r="L6" s="1">
-        <f>L4-L5</f>
-        <v>100</v>
-      </c>
-      <c r="N6" s="1">
-        <f>SUM(B6:L6)</f>
-        <v>189077.94999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>13486.01</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5046.6400000000003</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4861.92</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-10652.23</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-163.32</v>
-      </c>
-      <c r="G7" s="1">
-        <v>9587.07</v>
-      </c>
-      <c r="H7" s="1">
-        <v>6641.03</v>
-      </c>
-      <c r="I7" s="1">
-        <v>45.33</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2047.78</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-273.42</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <f>SUM(B7:M7)</f>
-        <v>30624.300000000003</v>
-      </c>
-      <c r="O7" s="1">
-        <f>SUM(B7,C7,D7)/3</f>
-        <v>7798.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6.23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.66</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.63</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-5.47</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7.64</v>
-      </c>
-      <c r="H8" s="1">
-        <v>7.46</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-1.58</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5.64</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.35</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-4.75</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.58</v>
-      </c>
-      <c r="G9" s="1">
-        <v>12.75</v>
-      </c>
-      <c r="H9" s="1">
-        <v>7.68</v>
-      </c>
-      <c r="I9" s="1">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6.14</v>
-      </c>
-      <c r="K9" s="1">
-        <v>-6.44</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-1.59</v>
-      </c>
-      <c r="M9" s="1">
-        <v>-2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="N12" s="1">
-        <v>189077.95</v>
-      </c>
-      <c r="O12">
-        <v>30624.35</v>
-      </c>
-      <c r="P12">
-        <f>O12/N12*100</f>
-        <v>16.196679729180477</v>
-      </c>
-      <c r="Q12">
-        <v>15.37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>202002</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>202003</v>
-      </c>
-      <c r="B18" s="1">
-        <v>-273.42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>202004</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2047.78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>202005</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45.33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>202006</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6641.03</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>202007</v>
-      </c>
-      <c r="B22" s="1">
-        <v>9587.07</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>202008</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-163.32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>202009</v>
-      </c>
-      <c r="B24" s="1">
-        <v>-10652.23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>202010</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4861.92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>202011</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5046.6400000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>202012</v>
-      </c>
-      <c r="B27" s="1">
-        <v>13486.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A17:Q27">
-    <sortCondition ref="A17:A27"/>
-  </sortState>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>186</v>
-      </c>
-      <c r="B2">
-        <v>0.05</v>
-      </c>
-      <c r="C2">
-        <f>A2*B2</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D2">
-        <v>500</v>
-      </c>
-      <c r="E2">
-        <f>D2-C2</f>
-        <v>490.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>363.01</v>
-      </c>
-      <c r="B3">
-        <v>0.05</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">A3*B3</f>
-        <v>18.150500000000001</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">D3-C3</f>
-        <v>981.84950000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>369.84</v>
-      </c>
-      <c r="B4">
-        <v>0.05</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>18.492000000000001</v>
-      </c>
-      <c r="D4">
-        <v>1000</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>981.50800000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>368.28</v>
-      </c>
-      <c r="B5">
-        <v>0.05</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>18.413999999999998</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>981.58600000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>816.75</v>
-      </c>
-      <c r="B6">
-        <v>0.05</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>40.837500000000006</v>
-      </c>
-      <c r="D6">
-        <v>2000</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>1959.1624999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>638.27</v>
-      </c>
-      <c r="B7">
-        <v>0.05</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>31.913499999999999</v>
-      </c>
-      <c r="D7">
-        <v>1500</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>1468.0864999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>421.67</v>
-      </c>
-      <c r="B8">
-        <v>0.05</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>21.083500000000001</v>
-      </c>
-      <c r="D8">
-        <v>1000</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>978.91650000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>631.91999999999996</v>
-      </c>
-      <c r="B9">
-        <v>0.05</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>31.596</v>
-      </c>
-      <c r="D9">
-        <v>1500</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>1468.404</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="5" max="5" width="12.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>861.52</v>
-      </c>
-      <c r="D2">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E2" s="8">
-        <f>D2*C2</f>
-        <v>961.45632000000012</v>
-      </c>
-      <c r="F2" s="9">
-        <f>E2-B2</f>
-        <v>-38.543679999999881</v>
-      </c>
-      <c r="H2">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-      <c r="I2">
-        <f>H2*C2</f>
-        <v>5.41256299844183</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3">
-        <v>2000</v>
-      </c>
-      <c r="C3">
-        <v>1744.1</v>
-      </c>
-      <c r="D3">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3" si="0">D3*C3</f>
-        <v>1946.4156</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3" si="1">E3-B3</f>
-        <v>-53.58439999999996</v>
-      </c>
-      <c r="H3">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3" si="2">H3*C3</f>
-        <v>10.957437001558171</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="E4" s="8"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="C6">
-        <f>SUM(C2:C4)</f>
-        <v>2605.62</v>
-      </c>
-      <c r="D6">
-        <v>3.3831000000000002</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" ref="E6" si="3">D6*C6</f>
-        <v>8815.0730220000005</v>
-      </c>
-      <c r="F6" s="9">
-        <v>16.37</v>
-      </c>
-      <c r="H6">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1">
-        <v>51300</v>
-      </c>
-      <c r="B1">
-        <v>5600</v>
-      </c>
-      <c r="C1">
-        <f>A1-B1</f>
-        <v>45700</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="H4" s="11"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="H13">
-        <v>4700</v>
-      </c>
-      <c r="K13">
-        <v>5100</v>
-      </c>
-      <c r="L13">
-        <v>7196.1</v>
-      </c>
-      <c r="M13">
-        <v>5100</v>
-      </c>
-      <c r="N13">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O13" s="1">
-        <f>M13*N13</f>
-        <v>7150.2</v>
-      </c>
-      <c r="P13" s="1">
-        <f>O13-L13</f>
-        <v>-45.900000000000546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="H14">
-        <v>2200</v>
-      </c>
-      <c r="K14">
-        <v>5500</v>
-      </c>
-      <c r="L14">
-        <v>7980.5</v>
-      </c>
-      <c r="M14">
-        <v>5500</v>
-      </c>
-      <c r="N14">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O19" si="0">M14*N14</f>
-        <v>7710.9999999999991</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" ref="P14:P19" si="1">O14-L14</f>
-        <v>-269.50000000000091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="H15">
-        <v>3400</v>
-      </c>
-      <c r="K15">
-        <v>5700</v>
-      </c>
-      <c r="L15">
-        <v>8367.6</v>
-      </c>
-      <c r="M15">
-        <v>5700</v>
-      </c>
-      <c r="N15">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>7991.4</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="1"/>
-        <v>-376.20000000000073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="H16">
-        <v>3000</v>
-      </c>
-      <c r="K16">
-        <v>5900</v>
-      </c>
-      <c r="L16">
-        <v>8796.9</v>
-      </c>
-      <c r="M16">
-        <v>5900</v>
-      </c>
-      <c r="N16">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>8271.7999999999993</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="1"/>
-        <v>-525.10000000000036</v>
-      </c>
-    </row>
-    <row r="17" spans="8:16">
-      <c r="H17">
-        <v>3800</v>
-      </c>
-      <c r="K17">
-        <v>5000</v>
-      </c>
-      <c r="L17">
-        <v>7505</v>
-      </c>
-      <c r="M17">
-        <v>5000</v>
-      </c>
-      <c r="N17">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>7010</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="1"/>
-        <v>-495</v>
-      </c>
-    </row>
-    <row r="18" spans="8:16">
-      <c r="H18">
-        <v>3000</v>
-      </c>
-      <c r="K18">
-        <v>5100</v>
-      </c>
-      <c r="L18">
-        <v>7706.1</v>
-      </c>
-      <c r="M18">
-        <v>5100</v>
-      </c>
-      <c r="N18">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>7150.2</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="1"/>
-        <v>-555.90000000000055</v>
-      </c>
-    </row>
-    <row r="19" spans="8:16">
-      <c r="K19">
-        <v>5100</v>
-      </c>
-      <c r="L19">
-        <v>7706.1</v>
-      </c>
-      <c r="M19">
-        <v>5100</v>
-      </c>
-      <c r="N19">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
-        <v>7150.2</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" si="1"/>
-        <v>-555.90000000000055</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:M24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44378</v>
-      </c>
-      <c r="J2" s="1">
-        <v>400968.2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>221650.6</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-3191.21</v>
-      </c>
-      <c r="M2" s="5">
-        <v>-1.4145000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44379</v>
-      </c>
-      <c r="J3" s="1">
-        <v>394703.57</v>
-      </c>
-      <c r="K3">
-        <v>282622.7</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-6272.86</v>
-      </c>
-      <c r="M3">
-        <v>-2.2845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44382</v>
-      </c>
-      <c r="J4" s="1">
-        <v>395945.96</v>
-      </c>
-      <c r="K4">
-        <v>190776</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1045.7</v>
-      </c>
-      <c r="M4">
-        <v>0.54810000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44383</v>
-      </c>
-      <c r="J5" s="1">
-        <v>392945.76</v>
-      </c>
-      <c r="K5">
-        <v>321998</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-2720.9</v>
-      </c>
-      <c r="M5">
-        <v>-0.84499999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44384</v>
-      </c>
-      <c r="J6" s="1">
-        <v>401240.56</v>
-      </c>
-      <c r="K6">
-        <v>264214.08</v>
-      </c>
-      <c r="L6" s="1">
-        <v>8335</v>
-      </c>
-      <c r="M6">
-        <v>3.1545999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6">
-        <v>44385</v>
-      </c>
-      <c r="J7" s="1">
-        <v>400854.3</v>
-      </c>
-      <c r="K7">
-        <v>298343.01</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-344.6</v>
-      </c>
-      <c r="M7">
-        <v>-0.11550000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6">
-        <v>44386</v>
-      </c>
-      <c r="J8" s="1">
-        <v>358039.83</v>
-      </c>
-      <c r="K8">
-        <v>299620.11</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1353</v>
-      </c>
-      <c r="M8">
-        <v>0.4516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6">
-        <v>44389</v>
-      </c>
-      <c r="J9" s="1">
-        <v>399553.09</v>
-      </c>
-      <c r="K9">
-        <v>315114</v>
-      </c>
-      <c r="L9" s="1">
-        <v>7444</v>
-      </c>
-      <c r="M9">
-        <v>2.3622999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6">
-        <v>44390</v>
-      </c>
-      <c r="J10" s="1">
-        <v>398533.05</v>
-      </c>
-      <c r="K10">
-        <v>266844</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-975</v>
-      </c>
-      <c r="M10">
-        <v>-0.3654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6">
-        <v>44391</v>
-      </c>
-      <c r="J11" s="1">
-        <v>395001.88</v>
-      </c>
-      <c r="K11">
-        <v>236228</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-3479</v>
-      </c>
-      <c r="M11">
-        <v>-1.4726999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6">
-        <v>44392</v>
-      </c>
-      <c r="J12" s="1">
-        <v>398680.85</v>
-      </c>
-      <c r="K12">
-        <v>178125</v>
-      </c>
-      <c r="L12" s="1">
-        <v>3721</v>
-      </c>
-      <c r="M12">
-        <v>2.089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6">
-        <v>44393</v>
-      </c>
-      <c r="J13" s="1">
-        <v>215638.8</v>
-      </c>
-      <c r="K13">
-        <v>181630.1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-6398</v>
-      </c>
-      <c r="M13">
-        <v>-3.5225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6">
-        <v>44396</v>
-      </c>
-      <c r="J14" s="1">
-        <v>391461.52</v>
-      </c>
-      <c r="K14">
-        <v>346936</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-735.7</v>
-      </c>
-      <c r="M14">
-        <v>-0.21210000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6">
-        <v>44397</v>
-      </c>
-      <c r="J15" s="1">
-        <v>381325.07</v>
-      </c>
-      <c r="K15">
-        <v>241558</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-86</v>
-      </c>
-      <c r="M15">
-        <v>-3.56E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6">
-        <v>44398</v>
-      </c>
-      <c r="J16" s="1">
-        <v>385281.95</v>
-      </c>
-      <c r="K16">
-        <v>248832</v>
-      </c>
-      <c r="L16" s="1">
-        <v>3968</v>
-      </c>
-      <c r="M16">
-        <v>1.5947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44399</v>
-      </c>
-      <c r="J17" s="1">
-        <v>350182.62</v>
-      </c>
-      <c r="K17">
-        <v>260244.58</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1428</v>
-      </c>
-      <c r="M17">
-        <v>0.54869999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6">
-        <v>44400</v>
-      </c>
-      <c r="J18" s="1">
-        <v>321329.03999999998</v>
-      </c>
-      <c r="K18">
-        <v>291717.36</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-5033</v>
-      </c>
-      <c r="M18">
-        <v>-1.7253000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44403</v>
-      </c>
-      <c r="J19" s="1">
-        <v>346532.81</v>
-      </c>
-      <c r="K19">
-        <v>341191.62</v>
-      </c>
-      <c r="L19" s="1">
-        <v>-10790</v>
-      </c>
-      <c r="M19">
-        <v>-3.1623999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>44404</v>
-      </c>
-      <c r="J20" s="1">
-        <v>350194.88</v>
-      </c>
-      <c r="K20">
-        <v>248836.5</v>
-      </c>
-      <c r="L20" s="1">
-        <v>-10497.8</v>
-      </c>
-      <c r="M20">
-        <v>-4.2187999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44405</v>
-      </c>
-      <c r="J21" s="1">
-        <v>297302.5</v>
-      </c>
-      <c r="K21">
-        <v>257045.36</v>
-      </c>
-      <c r="L21" s="1">
-        <v>-1756.7</v>
-      </c>
-      <c r="M21">
-        <v>-0.68340000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44406</v>
-      </c>
-      <c r="J22" s="1">
-        <v>435117.81</v>
-      </c>
-      <c r="K22">
-        <v>278202.5</v>
-      </c>
-      <c r="L22" s="1">
-        <v>16747</v>
-      </c>
-      <c r="M22">
-        <v>6.0197000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6">
-        <v>44407</v>
-      </c>
-      <c r="J23" s="1">
-        <v>411503.17</v>
-      </c>
-      <c r="K23">
-        <v>287799.21000000002</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-360</v>
-      </c>
-      <c r="M23">
-        <v>-0.12509999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6"/>
-      <c r="B24">
-        <f>SUM(B7:B11)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f>SUM(F7:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f>SUM(G7:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f>SUM(H7:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <f>AVERAGE(J2:J23)</f>
-        <v>373742.60090909083</v>
-      </c>
-      <c r="K24" s="1">
-        <f>AVERAGE(K2:K23)</f>
-        <v>266342.21500000003</v>
-      </c>
-      <c r="L24" s="1">
-        <f>SUM(L2:L23)</f>
-        <v>-8599.07</v>
-      </c>
-      <c r="M24" s="5">
-        <f>L24/K24*100</f>
-        <v>-3.2285794424289813</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -9566,105 +10557,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44403</v>
+        <v>44396</v>
       </c>
       <c r="J2" s="1">
-        <v>346532.81</v>
+        <v>391461.52</v>
       </c>
       <c r="K2">
-        <v>341191.62</v>
+        <v>346936</v>
       </c>
       <c r="L2" s="1">
-        <v>-10790</v>
+        <v>-735.7</v>
       </c>
       <c r="M2">
-        <v>-3.1623999999999999</v>
+        <v>-0.21210000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44404</v>
+        <v>44397</v>
       </c>
       <c r="J3" s="1">
-        <v>350194.88</v>
+        <v>381325.07</v>
       </c>
       <c r="K3">
-        <v>248836.5</v>
+        <v>241558</v>
       </c>
       <c r="L3" s="1">
-        <v>-10497.8</v>
+        <v>-86</v>
       </c>
       <c r="M3">
-        <v>-4.2187999999999999</v>
+        <v>-3.56E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44405</v>
+        <v>44398</v>
       </c>
       <c r="J4" s="1">
-        <v>297302.5</v>
+        <v>385281.95</v>
       </c>
       <c r="K4">
-        <v>257045.36</v>
+        <v>248832</v>
       </c>
       <c r="L4" s="1">
-        <v>-1756.7</v>
+        <v>3968</v>
       </c>
       <c r="M4">
-        <v>-0.68340000000000001</v>
+        <v>1.5947</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44406</v>
+        <v>44399</v>
       </c>
       <c r="J5" s="1">
-        <v>435117.81</v>
+        <v>350182.62</v>
       </c>
       <c r="K5">
-        <v>278202.5</v>
+        <v>260244.58</v>
       </c>
       <c r="L5" s="1">
-        <v>16747</v>
+        <v>1428</v>
       </c>
       <c r="M5">
-        <v>6.0197000000000003</v>
+        <v>0.54869999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44407</v>
+        <v>44400</v>
       </c>
       <c r="J6" s="1">
-        <v>411503.17</v>
+        <v>321329.03999999998</v>
       </c>
       <c r="K6">
-        <v>287799.21000000002</v>
+        <v>291717.36</v>
       </c>
       <c r="L6" s="1">
-        <v>-360</v>
+        <v>-5033</v>
       </c>
       <c r="M6">
-        <v>-0.12509999999999999</v>
+        <v>-1.7253000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>368130.234</v>
+        <v>365916.04000000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>282615.038</v>
+        <v>277857.58799999999</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-6657.5</v>
+        <v>-458.69999999999982</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-2.3556779027448638</v>
+        <v>-0.16508456843006922</v>
       </c>
     </row>
   </sheetData>
@@ -9674,173 +10665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44396</v>
-      </c>
-      <c r="J2" s="1">
-        <v>391461.52</v>
-      </c>
-      <c r="K2">
-        <v>346936</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-735.7</v>
-      </c>
-      <c r="M2">
-        <v>-0.21210000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44397</v>
-      </c>
-      <c r="J3" s="1">
-        <v>381325.07</v>
-      </c>
-      <c r="K3">
-        <v>241558</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-86</v>
-      </c>
-      <c r="M3">
-        <v>-3.56E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44398</v>
-      </c>
-      <c r="J4" s="1">
-        <v>385281.95</v>
-      </c>
-      <c r="K4">
-        <v>248832</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3968</v>
-      </c>
-      <c r="M4">
-        <v>1.5947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44399</v>
-      </c>
-      <c r="J5" s="1">
-        <v>350182.62</v>
-      </c>
-      <c r="K5">
-        <v>260244.58</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1428</v>
-      </c>
-      <c r="M5">
-        <v>0.54869999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44400</v>
-      </c>
-      <c r="J6" s="1">
-        <v>321329.03999999998</v>
-      </c>
-      <c r="K6">
-        <v>291717.36</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-5033</v>
-      </c>
-      <c r="M6">
-        <v>-1.7253000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>365916.04000000004</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>277857.58799999999</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-458.69999999999982</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-0.16508456843006922</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -10006,7 +10831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -10170,325 +10995,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44375</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="1"/>
-      <c r="I2"/>
-      <c r="J2" s="1">
-        <v>421680.23</v>
-      </c>
-      <c r="K2">
-        <v>235082.9</v>
-      </c>
-      <c r="L2">
-        <v>3167.1</v>
-      </c>
-      <c r="M2">
-        <v>1.3472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44376</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="1"/>
-      <c r="I3"/>
-      <c r="J3" s="1">
-        <v>420854.97</v>
-      </c>
-      <c r="K3">
-        <v>334427.98</v>
-      </c>
-      <c r="L3">
-        <v>-777.6</v>
-      </c>
-      <c r="M3">
-        <v>-0.23250000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44377</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="1"/>
-      <c r="I4"/>
-      <c r="J4" s="1">
-        <v>424153.89</v>
-      </c>
-      <c r="K4">
-        <v>281291</v>
-      </c>
-      <c r="L4">
-        <v>3372.42</v>
-      </c>
-      <c r="M4">
-        <v>1.1989000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44378</v>
-      </c>
-      <c r="J5" s="1">
-        <v>400968.2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>221650.6</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-3191.21</v>
-      </c>
-      <c r="M5" s="5">
-        <v>-1.4145000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44379</v>
-      </c>
-      <c r="J6" s="1">
-        <v>394703.57</v>
-      </c>
-      <c r="K6">
-        <v>282622.7</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-6272.86</v>
-      </c>
-      <c r="M6">
-        <v>-2.2845</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6"/>
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>412472.17199999996</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>271015.03599999996</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-3702.1499999999996</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-1.3660312190206303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44375</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="1"/>
-      <c r="I2"/>
-      <c r="J2" s="1">
-        <v>421680.23</v>
-      </c>
-      <c r="K2">
-        <v>235082.9</v>
-      </c>
-      <c r="L2">
-        <v>3167.1</v>
-      </c>
-      <c r="M2">
-        <v>1.3472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44376</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="1"/>
-      <c r="I3"/>
-      <c r="J3" s="1">
-        <v>420854.97</v>
-      </c>
-      <c r="K3">
-        <v>334427.98</v>
-      </c>
-      <c r="L3">
-        <v>-777.6</v>
-      </c>
-      <c r="M3">
-        <v>-0.23250000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44377</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="1"/>
-      <c r="I4"/>
-      <c r="J4" s="1">
-        <v>424153.89</v>
-      </c>
-      <c r="K4">
-        <v>281291</v>
-      </c>
-      <c r="L4">
-        <v>3372.42</v>
-      </c>
-      <c r="M4">
-        <v>1.1989000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="J5" s="1">
-        <f>AVERAGE(J2:J4)</f>
-        <v>422229.6966666666</v>
-      </c>
-      <c r="K5" s="1">
-        <f>AVERAGE(K2:K4)</f>
-        <v>283600.62666666665</v>
-      </c>
-      <c r="L5" s="1">
-        <f>SUM(L2:L4)</f>
-        <v>5761.92</v>
-      </c>
-      <c r="M5" s="5">
-        <f>L5/K5*100</f>
-        <v>2.0317021396332602</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,42 +4,43 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8A" sheetId="53" r:id="rId1"/>
-    <sheet name="83" sheetId="52" r:id="rId2"/>
-    <sheet name="82" sheetId="51" r:id="rId3"/>
-    <sheet name="81" sheetId="50" r:id="rId4"/>
-    <sheet name="7A" sheetId="48" r:id="rId5"/>
-    <sheet name="75" sheetId="49" r:id="rId6"/>
-    <sheet name="74" sheetId="47" r:id="rId7"/>
-    <sheet name="73" sheetId="46" r:id="rId8"/>
-    <sheet name="72" sheetId="45" r:id="rId9"/>
-    <sheet name="71" sheetId="44" r:id="rId10"/>
-    <sheet name="65" sheetId="43" r:id="rId11"/>
-    <sheet name="6A" sheetId="40" r:id="rId12"/>
-    <sheet name="64" sheetId="42" r:id="rId13"/>
-    <sheet name="63" sheetId="41" r:id="rId14"/>
-    <sheet name="62" sheetId="39" r:id="rId15"/>
-    <sheet name="61" sheetId="38" r:id="rId16"/>
-    <sheet name="5" sheetId="37" r:id="rId17"/>
-    <sheet name="2104" sheetId="36" r:id="rId18"/>
-    <sheet name="2103" sheetId="33" r:id="rId19"/>
-    <sheet name="2102" sheetId="31" r:id="rId20"/>
-    <sheet name="2101" sheetId="26" r:id="rId21"/>
-    <sheet name="每月" sheetId="29" r:id="rId22"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId23"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId24"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId25"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId26"/>
+    <sheet name="84" sheetId="54" r:id="rId2"/>
+    <sheet name="83" sheetId="52" r:id="rId3"/>
+    <sheet name="82" sheetId="51" r:id="rId4"/>
+    <sheet name="81" sheetId="50" r:id="rId5"/>
+    <sheet name="7A" sheetId="48" r:id="rId6"/>
+    <sheet name="75" sheetId="49" r:id="rId7"/>
+    <sheet name="74" sheetId="47" r:id="rId8"/>
+    <sheet name="73" sheetId="46" r:id="rId9"/>
+    <sheet name="72" sheetId="45" r:id="rId10"/>
+    <sheet name="71" sheetId="44" r:id="rId11"/>
+    <sheet name="65" sheetId="43" r:id="rId12"/>
+    <sheet name="6A" sheetId="40" r:id="rId13"/>
+    <sheet name="64" sheetId="42" r:id="rId14"/>
+    <sheet name="63" sheetId="41" r:id="rId15"/>
+    <sheet name="62" sheetId="39" r:id="rId16"/>
+    <sheet name="61" sheetId="38" r:id="rId17"/>
+    <sheet name="5" sheetId="37" r:id="rId18"/>
+    <sheet name="2104" sheetId="36" r:id="rId19"/>
+    <sheet name="2103" sheetId="33" r:id="rId20"/>
+    <sheet name="2102" sheetId="31" r:id="rId21"/>
+    <sheet name="2101" sheetId="26" r:id="rId22"/>
+    <sheet name="每月" sheetId="29" r:id="rId23"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId24"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId25"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId26"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId27"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1745,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2054,22 +2055,107 @@
         <v>-1.5145999999999999</v>
       </c>
     </row>
-    <row r="17" spans="10:13">
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44431</v>
+      </c>
       <c r="J17" s="1">
-        <f>AVERAGE(J2:J16)</f>
-        <v>391069.38666666666</v>
-      </c>
-      <c r="K17" s="1">
-        <f>AVERAGE(K2:K16)</f>
-        <v>269080.71133333334</v>
+        <v>260975.73</v>
+      </c>
+      <c r="K17">
+        <v>218346.4</v>
       </c>
       <c r="L17" s="1">
-        <f>SUM(L2:L16)</f>
-        <v>-20450.400000000001</v>
-      </c>
-      <c r="M17" s="5">
-        <f>L17/K17*100</f>
-        <v>-7.6000988323040142</v>
+        <v>7254.8</v>
+      </c>
+      <c r="M17">
+        <v>3.3226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44432</v>
+      </c>
+      <c r="J18" s="1">
+        <v>238907.54</v>
+      </c>
+      <c r="K18">
+        <v>198768.7</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4851.3</v>
+      </c>
+      <c r="M18">
+        <v>2.4407000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44433</v>
+      </c>
+      <c r="J19" s="1">
+        <v>367314.17</v>
+      </c>
+      <c r="K19">
+        <v>165377.5</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1569.8</v>
+      </c>
+      <c r="M19">
+        <v>0.94920000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44434</v>
+      </c>
+      <c r="J20" s="1">
+        <v>219219.5</v>
+      </c>
+      <c r="K20">
+        <v>183110.91</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-2242</v>
+      </c>
+      <c r="M20">
+        <v>-1.2243999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44435</v>
+      </c>
+      <c r="J21" s="1">
+        <v>354935.94</v>
+      </c>
+      <c r="K21">
+        <v>236698</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1110</v>
+      </c>
+      <c r="M21">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="J22" s="1">
+        <f>AVERAGE(J2:J21)</f>
+        <v>365369.68400000001</v>
+      </c>
+      <c r="K22" s="1">
+        <f>AVERAGE(K2:K21)</f>
+        <v>251925.60900000003</v>
+      </c>
+      <c r="L22" s="1">
+        <f>SUM(L2:L21)</f>
+        <v>-7906.5000000000036</v>
+      </c>
+      <c r="M22" s="5">
+        <f>L22/K22*100</f>
+        <v>-3.1384264709666745</v>
       </c>
     </row>
   </sheetData>
@@ -2080,6 +2166,172 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J2" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K2">
+        <v>190776</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M2">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J3" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K3">
+        <v>321998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M3">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J4" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K4">
+        <v>264214.08</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M4">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J5" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K5">
+        <v>298343.01</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M5">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J6" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K6">
+        <v>299620.11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M6">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>389805.28200000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>274990.24000000005</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>7668.2</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>2.7885353312903027</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -2259,7 +2511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -2400,7 +2652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -2908,7 +3160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -3074,7 +3326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -3223,7 +3475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -3389,7 +3641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -3589,7 +3841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -4458,7 +4710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -5552,7 +5804,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44431</v>
+      </c>
+      <c r="J2" s="1">
+        <v>260975.73</v>
+      </c>
+      <c r="K2">
+        <v>218346.4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>7254.8</v>
+      </c>
+      <c r="M2">
+        <v>3.3226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44432</v>
+      </c>
+      <c r="J3" s="1">
+        <v>238907.54</v>
+      </c>
+      <c r="K3">
+        <v>198768.7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4851.3</v>
+      </c>
+      <c r="M3">
+        <v>2.4407000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44433</v>
+      </c>
+      <c r="J4" s="1">
+        <v>367314.17</v>
+      </c>
+      <c r="K4">
+        <v>165377.5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1569.8</v>
+      </c>
+      <c r="M4">
+        <v>0.94920000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44434</v>
+      </c>
+      <c r="J5" s="1">
+        <v>219219.5</v>
+      </c>
+      <c r="K5">
+        <v>183110.91</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-2242</v>
+      </c>
+      <c r="M5">
+        <v>-1.2243999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44435</v>
+      </c>
+      <c r="J6" s="1">
+        <v>354935.94</v>
+      </c>
+      <c r="K6">
+        <v>236698</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1110</v>
+      </c>
+      <c r="M6">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>288270.576</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>200460.302</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>12543.9</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>6.2575481902646235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -6730,173 +7148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44424</v>
-      </c>
-      <c r="J2" s="1">
-        <v>403321.06</v>
-      </c>
-      <c r="K2">
-        <v>303182</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-3462</v>
-      </c>
-      <c r="M2">
-        <v>-1.1418999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44425</v>
-      </c>
-      <c r="J3" s="1">
-        <v>395314.64</v>
-      </c>
-      <c r="K3">
-        <v>289618</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-7968.9</v>
-      </c>
-      <c r="M3">
-        <v>-2.7515000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44426</v>
-      </c>
-      <c r="J4" s="1">
-        <v>396758.63</v>
-      </c>
-      <c r="K4">
-        <v>245890</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1536</v>
-      </c>
-      <c r="M4">
-        <v>0.62470000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44427</v>
-      </c>
-      <c r="J5" s="1">
-        <v>317723.65999999997</v>
-      </c>
-      <c r="K5">
-        <v>247268.36</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1421.5</v>
-      </c>
-      <c r="M5">
-        <v>0.57489999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44428</v>
-      </c>
-      <c r="J6" s="1">
-        <v>353767.54</v>
-      </c>
-      <c r="K6">
-        <v>285639.59999999998</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-4326.3999999999996</v>
-      </c>
-      <c r="M6">
-        <v>-1.5145999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>373377.10600000003</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>274319.592</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-12799.8</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-4.6660174385211244</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -7490,7 +7742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -8408,7 +8660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -8918,7 +9170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -9104,7 +9356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -9226,7 +9478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -9308,7 +9560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -9582,105 +9834,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="J2" s="1">
-        <v>354194.04</v>
+        <v>403321.06</v>
       </c>
       <c r="K2">
-        <v>279851.99</v>
+        <v>303182</v>
       </c>
       <c r="L2" s="1">
-        <v>-18.8</v>
+        <v>-3462</v>
       </c>
       <c r="M2">
-        <v>-6.7000000000000002E-3</v>
+        <v>-1.1418999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44418</v>
+        <v>44425</v>
       </c>
       <c r="J3" s="1">
-        <v>411295.97</v>
+        <v>395314.64</v>
       </c>
       <c r="K3">
-        <v>334866</v>
+        <v>289618</v>
       </c>
       <c r="L3" s="1">
-        <v>530</v>
+        <v>-7968.9</v>
       </c>
       <c r="M3">
-        <v>0.1583</v>
+        <v>-2.7515000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="J4" s="1">
-        <v>411599.88</v>
+        <v>396758.63</v>
       </c>
       <c r="K4">
-        <v>299838.5</v>
+        <v>245890</v>
       </c>
       <c r="L4" s="1">
-        <v>307.5</v>
+        <v>1536</v>
       </c>
       <c r="M4">
-        <v>0.1026</v>
+        <v>0.62470000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="J5" s="1">
-        <v>409679.53</v>
+        <v>317723.65999999997</v>
       </c>
       <c r="K5">
-        <v>305083.5</v>
+        <v>247268.36</v>
       </c>
       <c r="L5" s="1">
-        <v>-1920</v>
+        <v>1421.5</v>
       </c>
       <c r="M5">
-        <v>-0.62929999999999997</v>
+        <v>0.57489999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44421</v>
+        <v>44428</v>
       </c>
       <c r="J6" s="1">
-        <v>401674.82</v>
+        <v>353767.54</v>
       </c>
       <c r="K6">
-        <v>312203.12</v>
+        <v>285639.59999999998</v>
       </c>
       <c r="L6" s="1">
-        <v>-2859.5</v>
+        <v>-4326.3999999999996</v>
       </c>
       <c r="M6">
-        <v>-0.91590000000000005</v>
+        <v>-1.5145999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>397688.84800000006</v>
+        <v>373377.10600000003</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>306368.62199999997</v>
+        <v>274319.592</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-3960.8</v>
+        <v>-12799.8</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-1.29282169111953</v>
+        <v>-4.6660174385211244</v>
       </c>
     </row>
   </sheetData>
@@ -9748,105 +10000,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="J2" s="1">
-        <v>392126.02</v>
+        <v>354194.04</v>
       </c>
       <c r="K2">
-        <v>320852.71999999997</v>
+        <v>279851.99</v>
       </c>
       <c r="L2" s="1">
-        <v>-29.6</v>
+        <v>-18.8</v>
       </c>
       <c r="M2">
-        <v>-9.1999999999999998E-3</v>
+        <v>-6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44411</v>
+        <v>44418</v>
       </c>
       <c r="J3" s="1">
-        <v>428982.28</v>
+        <v>411295.97</v>
       </c>
       <c r="K3">
-        <v>216964</v>
+        <v>334866</v>
       </c>
       <c r="L3" s="1">
-        <v>-5543</v>
+        <v>530</v>
       </c>
       <c r="M3">
-        <v>-2.5548000000000002</v>
+        <v>0.1583</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="J4" s="1">
-        <v>407773.25</v>
+        <v>411599.88</v>
       </c>
       <c r="K4">
-        <v>157353</v>
+        <v>299838.5</v>
       </c>
       <c r="L4" s="1">
-        <v>2844</v>
+        <v>307.5</v>
       </c>
       <c r="M4">
-        <v>1.8073999999999999</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44413</v>
+        <v>44420</v>
       </c>
       <c r="J5" s="1">
-        <v>383514.64</v>
+        <v>409679.53</v>
       </c>
       <c r="K5">
-        <v>190161.02</v>
+        <v>305083.5</v>
       </c>
       <c r="L5" s="1">
-        <v>-1180</v>
+        <v>-1920</v>
       </c>
       <c r="M5">
-        <v>-0.62050000000000005</v>
+        <v>-0.62929999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44414</v>
+        <v>44421</v>
       </c>
       <c r="J6" s="1">
-        <v>398314.84</v>
+        <v>401674.82</v>
       </c>
       <c r="K6">
-        <v>247438.86</v>
+        <v>312203.12</v>
       </c>
       <c r="L6" s="1">
-        <v>218.8</v>
+        <v>-2859.5</v>
       </c>
       <c r="M6">
-        <v>8.8400000000000006E-2</v>
+        <v>-0.91590000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>402142.20600000001</v>
+        <v>397688.84800000006</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>226553.92</v>
+        <v>306368.62199999997</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-3689.8</v>
+        <v>-3960.8</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-1.6286630573419343</v>
+        <v>-1.29282169111953</v>
       </c>
     </row>
   </sheetData>
@@ -9857,6 +10109,172 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44410</v>
+      </c>
+      <c r="J2" s="1">
+        <v>392126.02</v>
+      </c>
+      <c r="K2">
+        <v>320852.71999999997</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-29.6</v>
+      </c>
+      <c r="M2">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44411</v>
+      </c>
+      <c r="J3" s="1">
+        <v>428982.28</v>
+      </c>
+      <c r="K3">
+        <v>216964</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-5543</v>
+      </c>
+      <c r="M3">
+        <v>-2.5548000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44412</v>
+      </c>
+      <c r="J4" s="1">
+        <v>407773.25</v>
+      </c>
+      <c r="K4">
+        <v>157353</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2844</v>
+      </c>
+      <c r="M4">
+        <v>1.8073999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44413</v>
+      </c>
+      <c r="J5" s="1">
+        <v>383514.64</v>
+      </c>
+      <c r="K5">
+        <v>190161.02</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1180</v>
+      </c>
+      <c r="M5">
+        <v>-0.62050000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44414</v>
+      </c>
+      <c r="J6" s="1">
+        <v>398314.84</v>
+      </c>
+      <c r="K6">
+        <v>247438.86</v>
+      </c>
+      <c r="L6" s="1">
+        <v>218.8</v>
+      </c>
+      <c r="M6">
+        <v>8.8400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>402142.20600000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>226553.92</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-3689.8</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-1.6286630573419343</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -10324,172 +10742,6 @@
       <c r="M24" s="5">
         <f>L24/K24*100</f>
         <v>-3.2285794424289813</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44403</v>
-      </c>
-      <c r="J2" s="1">
-        <v>346532.81</v>
-      </c>
-      <c r="K2">
-        <v>341191.62</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-10790</v>
-      </c>
-      <c r="M2">
-        <v>-3.1623999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44404</v>
-      </c>
-      <c r="J3" s="1">
-        <v>350194.88</v>
-      </c>
-      <c r="K3">
-        <v>248836.5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-10497.8</v>
-      </c>
-      <c r="M3">
-        <v>-4.2187999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44405</v>
-      </c>
-      <c r="J4" s="1">
-        <v>297302.5</v>
-      </c>
-      <c r="K4">
-        <v>257045.36</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1756.7</v>
-      </c>
-      <c r="M4">
-        <v>-0.68340000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44406</v>
-      </c>
-      <c r="J5" s="1">
-        <v>435117.81</v>
-      </c>
-      <c r="K5">
-        <v>278202.5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>16747</v>
-      </c>
-      <c r="M5">
-        <v>6.0197000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44407</v>
-      </c>
-      <c r="J6" s="1">
-        <v>411503.17</v>
-      </c>
-      <c r="K6">
-        <v>287799.21000000002</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-360</v>
-      </c>
-      <c r="M6">
-        <v>-0.12509999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>368130.234</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>282615.038</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-6657.5</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-2.3556779027448638</v>
       </c>
     </row>
   </sheetData>
@@ -10557,105 +10809,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="J2" s="1">
-        <v>391461.52</v>
+        <v>346532.81</v>
       </c>
       <c r="K2">
-        <v>346936</v>
+        <v>341191.62</v>
       </c>
       <c r="L2" s="1">
-        <v>-735.7</v>
+        <v>-10790</v>
       </c>
       <c r="M2">
-        <v>-0.21210000000000001</v>
+        <v>-3.1623999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44397</v>
+        <v>44404</v>
       </c>
       <c r="J3" s="1">
-        <v>381325.07</v>
+        <v>350194.88</v>
       </c>
       <c r="K3">
-        <v>241558</v>
+        <v>248836.5</v>
       </c>
       <c r="L3" s="1">
-        <v>-86</v>
+        <v>-10497.8</v>
       </c>
       <c r="M3">
-        <v>-3.56E-2</v>
+        <v>-4.2187999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="J4" s="1">
-        <v>385281.95</v>
+        <v>297302.5</v>
       </c>
       <c r="K4">
-        <v>248832</v>
+        <v>257045.36</v>
       </c>
       <c r="L4" s="1">
-        <v>3968</v>
+        <v>-1756.7</v>
       </c>
       <c r="M4">
-        <v>1.5947</v>
+        <v>-0.68340000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44399</v>
+        <v>44406</v>
       </c>
       <c r="J5" s="1">
-        <v>350182.62</v>
+        <v>435117.81</v>
       </c>
       <c r="K5">
-        <v>260244.58</v>
+        <v>278202.5</v>
       </c>
       <c r="L5" s="1">
-        <v>1428</v>
+        <v>16747</v>
       </c>
       <c r="M5">
-        <v>0.54869999999999997</v>
+        <v>6.0197000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44400</v>
+        <v>44407</v>
       </c>
       <c r="J6" s="1">
-        <v>321329.03999999998</v>
+        <v>411503.17</v>
       </c>
       <c r="K6">
-        <v>291717.36</v>
+        <v>287799.21000000002</v>
       </c>
       <c r="L6" s="1">
-        <v>-5033</v>
+        <v>-360</v>
       </c>
       <c r="M6">
-        <v>-1.7253000000000001</v>
+        <v>-0.12509999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>365916.04000000004</v>
+        <v>368130.234</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>277857.58799999999</v>
+        <v>282615.038</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-458.69999999999982</v>
+        <v>-6657.5</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-0.16508456843006922</v>
+        <v>-2.3556779027448638</v>
       </c>
     </row>
   </sheetData>
@@ -10670,7 +10922,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="J7" sqref="J7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -10723,105 +10975,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="J2" s="1">
-        <v>399553.09</v>
+        <v>391461.52</v>
       </c>
       <c r="K2">
-        <v>315114</v>
+        <v>346936</v>
       </c>
       <c r="L2" s="1">
-        <v>7444</v>
+        <v>-735.7</v>
       </c>
       <c r="M2">
-        <v>2.3622999999999998</v>
+        <v>-0.21210000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44390</v>
+        <v>44397</v>
       </c>
       <c r="J3" s="1">
-        <v>398533.05</v>
+        <v>381325.07</v>
       </c>
       <c r="K3">
-        <v>266844</v>
+        <v>241558</v>
       </c>
       <c r="L3" s="1">
-        <v>-975</v>
+        <v>-86</v>
       </c>
       <c r="M3">
-        <v>-0.3654</v>
+        <v>-3.56E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="J4" s="1">
-        <v>395001.88</v>
+        <v>385281.95</v>
       </c>
       <c r="K4">
-        <v>236228</v>
+        <v>248832</v>
       </c>
       <c r="L4" s="1">
-        <v>-3479</v>
+        <v>3968</v>
       </c>
       <c r="M4">
-        <v>-1.4726999999999999</v>
+        <v>1.5947</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44392</v>
+        <v>44399</v>
       </c>
       <c r="J5" s="1">
-        <v>398680.85</v>
+        <v>350182.62</v>
       </c>
       <c r="K5">
-        <v>178125</v>
+        <v>260244.58</v>
       </c>
       <c r="L5" s="1">
-        <v>3721</v>
+        <v>1428</v>
       </c>
       <c r="M5">
-        <v>2.089</v>
+        <v>0.54869999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44393</v>
+        <v>44400</v>
       </c>
       <c r="J6" s="1">
-        <v>215638.8</v>
+        <v>321329.03999999998</v>
       </c>
       <c r="K6">
-        <v>181630.1</v>
+        <v>291717.36</v>
       </c>
       <c r="L6" s="1">
-        <v>-6398</v>
+        <v>-5033</v>
       </c>
       <c r="M6">
-        <v>-3.5225</v>
+        <v>-1.7253000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>361481.53400000004</v>
+        <v>365916.04000000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>235588.22000000003</v>
+        <v>277857.58799999999</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>313</v>
+        <v>-458.69999999999982</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>0.13285893496712184</v>
+        <v>-0.16508456843006922</v>
       </c>
     </row>
   </sheetData>
@@ -10889,105 +11141,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="J2" s="1">
-        <v>395945.96</v>
+        <v>399553.09</v>
       </c>
       <c r="K2">
-        <v>190776</v>
+        <v>315114</v>
       </c>
       <c r="L2" s="1">
-        <v>1045.7</v>
+        <v>7444</v>
       </c>
       <c r="M2">
-        <v>0.54810000000000003</v>
+        <v>2.3622999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="J3" s="1">
-        <v>392945.76</v>
+        <v>398533.05</v>
       </c>
       <c r="K3">
-        <v>321998</v>
+        <v>266844</v>
       </c>
       <c r="L3" s="1">
-        <v>-2720.9</v>
+        <v>-975</v>
       </c>
       <c r="M3">
-        <v>-0.84499999999999997</v>
+        <v>-0.3654</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44384</v>
+        <v>44391</v>
       </c>
       <c r="J4" s="1">
-        <v>401240.56</v>
+        <v>395001.88</v>
       </c>
       <c r="K4">
-        <v>264214.08</v>
+        <v>236228</v>
       </c>
       <c r="L4" s="1">
-        <v>8335</v>
+        <v>-3479</v>
       </c>
       <c r="M4">
-        <v>3.1545999999999998</v>
+        <v>-1.4726999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44385</v>
+        <v>44392</v>
       </c>
       <c r="J5" s="1">
-        <v>400854.3</v>
+        <v>398680.85</v>
       </c>
       <c r="K5">
-        <v>298343.01</v>
+        <v>178125</v>
       </c>
       <c r="L5" s="1">
-        <v>-344.6</v>
+        <v>3721</v>
       </c>
       <c r="M5">
-        <v>-0.11550000000000001</v>
+        <v>2.089</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44386</v>
+        <v>44393</v>
       </c>
       <c r="J6" s="1">
-        <v>358039.83</v>
+        <v>215638.8</v>
       </c>
       <c r="K6">
-        <v>299620.11</v>
+        <v>181630.1</v>
       </c>
       <c r="L6" s="1">
-        <v>1353</v>
+        <v>-6398</v>
       </c>
       <c r="M6">
-        <v>0.4516</v>
+        <v>-3.5225</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>389805.28200000001</v>
+        <v>361481.53400000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>274990.24000000005</v>
+        <v>235588.22000000003</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>7668.2</v>
+        <v>313</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>2.7885353312903027</v>
+        <v>0.13285893496712184</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,43 +4,44 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="8A" sheetId="53" r:id="rId1"/>
-    <sheet name="84" sheetId="54" r:id="rId2"/>
-    <sheet name="83" sheetId="52" r:id="rId3"/>
-    <sheet name="82" sheetId="51" r:id="rId4"/>
-    <sheet name="81" sheetId="50" r:id="rId5"/>
-    <sheet name="7A" sheetId="48" r:id="rId6"/>
-    <sheet name="75" sheetId="49" r:id="rId7"/>
-    <sheet name="74" sheetId="47" r:id="rId8"/>
-    <sheet name="73" sheetId="46" r:id="rId9"/>
-    <sheet name="72" sheetId="45" r:id="rId10"/>
-    <sheet name="71" sheetId="44" r:id="rId11"/>
-    <sheet name="65" sheetId="43" r:id="rId12"/>
-    <sheet name="6A" sheetId="40" r:id="rId13"/>
-    <sheet name="64" sheetId="42" r:id="rId14"/>
-    <sheet name="63" sheetId="41" r:id="rId15"/>
-    <sheet name="62" sheetId="39" r:id="rId16"/>
-    <sheet name="61" sheetId="38" r:id="rId17"/>
-    <sheet name="5" sheetId="37" r:id="rId18"/>
-    <sheet name="2104" sheetId="36" r:id="rId19"/>
-    <sheet name="2103" sheetId="33" r:id="rId20"/>
-    <sheet name="2102" sheetId="31" r:id="rId21"/>
-    <sheet name="2101" sheetId="26" r:id="rId22"/>
-    <sheet name="每月" sheetId="29" r:id="rId23"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId24"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId25"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId26"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId27"/>
+    <sheet name="85" sheetId="55" r:id="rId2"/>
+    <sheet name="84" sheetId="54" r:id="rId3"/>
+    <sheet name="83" sheetId="52" r:id="rId4"/>
+    <sheet name="82" sheetId="51" r:id="rId5"/>
+    <sheet name="81" sheetId="50" r:id="rId6"/>
+    <sheet name="7A" sheetId="48" r:id="rId7"/>
+    <sheet name="75" sheetId="49" r:id="rId8"/>
+    <sheet name="74" sheetId="47" r:id="rId9"/>
+    <sheet name="73" sheetId="46" r:id="rId10"/>
+    <sheet name="72" sheetId="45" r:id="rId11"/>
+    <sheet name="71" sheetId="44" r:id="rId12"/>
+    <sheet name="65" sheetId="43" r:id="rId13"/>
+    <sheet name="6A" sheetId="40" r:id="rId14"/>
+    <sheet name="64" sheetId="42" r:id="rId15"/>
+    <sheet name="63" sheetId="41" r:id="rId16"/>
+    <sheet name="62" sheetId="39" r:id="rId17"/>
+    <sheet name="61" sheetId="38" r:id="rId18"/>
+    <sheet name="5" sheetId="37" r:id="rId19"/>
+    <sheet name="2104" sheetId="36" r:id="rId20"/>
+    <sheet name="2103" sheetId="33" r:id="rId21"/>
+    <sheet name="2102" sheetId="31" r:id="rId22"/>
+    <sheet name="2101" sheetId="26" r:id="rId23"/>
+    <sheet name="每月" sheetId="29" r:id="rId24"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId25"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId26"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId27"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId28"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1746,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2141,21 +2142,55 @@
       </c>
     </row>
     <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44438</v>
+      </c>
       <c r="J22" s="1">
-        <f>AVERAGE(J2:J21)</f>
-        <v>365369.68400000001</v>
-      </c>
-      <c r="K22" s="1">
-        <f>AVERAGE(K2:K21)</f>
-        <v>251925.60900000003</v>
+        <v>291161.09000000003</v>
+      </c>
+      <c r="K22">
+        <v>268589.53000000003</v>
       </c>
       <c r="L22" s="1">
-        <f>SUM(L2:L21)</f>
-        <v>-7906.5000000000036</v>
-      </c>
-      <c r="M22" s="5">
-        <f>L22/K22*100</f>
-        <v>-3.1384264709666745</v>
+        <v>720</v>
+      </c>
+      <c r="M22">
+        <v>0.2681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44439</v>
+      </c>
+      <c r="J23" s="1">
+        <v>365933.92</v>
+      </c>
+      <c r="K23">
+        <v>229250</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-818.5</v>
+      </c>
+      <c r="M23">
+        <v>-0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="J24" s="1">
+        <f>AVERAGE(J2:J23)</f>
+        <v>362022.2131818182</v>
+      </c>
+      <c r="K24" s="1">
+        <f>AVERAGE(K2:K23)</f>
+        <v>251652.35045454549</v>
+      </c>
+      <c r="L24" s="1">
+        <f>SUM(L2:L23)</f>
+        <v>-8005.0000000000036</v>
+      </c>
+      <c r="M24" s="5">
+        <f>L24/K24*100</f>
+        <v>-3.1809756537306417</v>
       </c>
     </row>
   </sheetData>
@@ -2223,105 +2258,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="J2" s="1">
-        <v>395945.96</v>
+        <v>399553.09</v>
       </c>
       <c r="K2">
-        <v>190776</v>
+        <v>315114</v>
       </c>
       <c r="L2" s="1">
-        <v>1045.7</v>
+        <v>7444</v>
       </c>
       <c r="M2">
-        <v>0.54810000000000003</v>
+        <v>2.3622999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="J3" s="1">
-        <v>392945.76</v>
+        <v>398533.05</v>
       </c>
       <c r="K3">
-        <v>321998</v>
+        <v>266844</v>
       </c>
       <c r="L3" s="1">
-        <v>-2720.9</v>
+        <v>-975</v>
       </c>
       <c r="M3">
-        <v>-0.84499999999999997</v>
+        <v>-0.3654</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44384</v>
+        <v>44391</v>
       </c>
       <c r="J4" s="1">
-        <v>401240.56</v>
+        <v>395001.88</v>
       </c>
       <c r="K4">
-        <v>264214.08</v>
+        <v>236228</v>
       </c>
       <c r="L4" s="1">
-        <v>8335</v>
+        <v>-3479</v>
       </c>
       <c r="M4">
-        <v>3.1545999999999998</v>
+        <v>-1.4726999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44385</v>
+        <v>44392</v>
       </c>
       <c r="J5" s="1">
-        <v>400854.3</v>
+        <v>398680.85</v>
       </c>
       <c r="K5">
-        <v>298343.01</v>
+        <v>178125</v>
       </c>
       <c r="L5" s="1">
-        <v>-344.6</v>
+        <v>3721</v>
       </c>
       <c r="M5">
-        <v>-0.11550000000000001</v>
+        <v>2.089</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44386</v>
+        <v>44393</v>
       </c>
       <c r="J6" s="1">
-        <v>358039.83</v>
+        <v>215638.8</v>
       </c>
       <c r="K6">
-        <v>299620.11</v>
+        <v>181630.1</v>
       </c>
       <c r="L6" s="1">
-        <v>1353</v>
+        <v>-6398</v>
       </c>
       <c r="M6">
-        <v>0.4516</v>
+        <v>-3.5225</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>389805.28200000001</v>
+        <v>361481.53400000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>274990.24000000005</v>
+        <v>235588.22000000003</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>7668.2</v>
+        <v>313</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>2.7885353312903027</v>
+        <v>0.13285893496712184</v>
       </c>
     </row>
   </sheetData>
@@ -2332,6 +2367,172 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J2" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K2">
+        <v>190776</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M2">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J3" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K3">
+        <v>321998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M3">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J4" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K4">
+        <v>264214.08</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M4">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J5" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K5">
+        <v>298343.01</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M5">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J6" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K6">
+        <v>299620.11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M6">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>389805.28200000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>274990.24000000005</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>7668.2</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>2.7885353312903027</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -2511,7 +2712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -2652,7 +2853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -3160,7 +3361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -3326,7 +3527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -3475,7 +3676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -3641,7 +3842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -3841,7 +4042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -4710,7 +4911,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44438</v>
+      </c>
+      <c r="J2" s="1">
+        <v>291161.09000000003</v>
+      </c>
+      <c r="K2">
+        <v>268589.53000000003</v>
+      </c>
+      <c r="L2" s="1">
+        <v>720</v>
+      </c>
+      <c r="M2">
+        <v>0.2681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44439</v>
+      </c>
+      <c r="J3" s="1">
+        <v>365933.92</v>
+      </c>
+      <c r="K3">
+        <v>229250</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-818.5</v>
+      </c>
+      <c r="M3">
+        <v>-0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44440</v>
+      </c>
+      <c r="J4" s="1">
+        <v>367517.73</v>
+      </c>
+      <c r="K4">
+        <v>235760</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1636.5</v>
+      </c>
+      <c r="M4">
+        <v>0.69410000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44441</v>
+      </c>
+      <c r="J5" s="1">
+        <v>317929.12</v>
+      </c>
+      <c r="K5">
+        <v>256454.57</v>
+      </c>
+      <c r="L5" s="1">
+        <v>747.5</v>
+      </c>
+      <c r="M5">
+        <v>0.29149999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44442</v>
+      </c>
+      <c r="J6" s="1">
+        <v>358800.82</v>
+      </c>
+      <c r="K6">
+        <v>253946</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1575.9</v>
+      </c>
+      <c r="M6">
+        <v>-0.62060000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>340268.53599999996</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>248800.02000000002</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>709.59999999999991</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>0.28520898028866709</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -5804,173 +6171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44431</v>
-      </c>
-      <c r="J2" s="1">
-        <v>260975.73</v>
-      </c>
-      <c r="K2">
-        <v>218346.4</v>
-      </c>
-      <c r="L2" s="1">
-        <v>7254.8</v>
-      </c>
-      <c r="M2">
-        <v>3.3226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44432</v>
-      </c>
-      <c r="J3" s="1">
-        <v>238907.54</v>
-      </c>
-      <c r="K3">
-        <v>198768.7</v>
-      </c>
-      <c r="L3" s="1">
-        <v>4851.3</v>
-      </c>
-      <c r="M3">
-        <v>2.4407000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44433</v>
-      </c>
-      <c r="J4" s="1">
-        <v>367314.17</v>
-      </c>
-      <c r="K4">
-        <v>165377.5</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1569.8</v>
-      </c>
-      <c r="M4">
-        <v>0.94920000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44434</v>
-      </c>
-      <c r="J5" s="1">
-        <v>219219.5</v>
-      </c>
-      <c r="K5">
-        <v>183110.91</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-2242</v>
-      </c>
-      <c r="M5">
-        <v>-1.2243999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44435</v>
-      </c>
-      <c r="J6" s="1">
-        <v>354935.94</v>
-      </c>
-      <c r="K6">
-        <v>236698</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1110</v>
-      </c>
-      <c r="M6">
-        <v>0.46899999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>288270.576</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>200460.302</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>12543.9</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>6.2575481902646235</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -7148,7 +7349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -7742,7 +7943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -8660,7 +8861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -9170,7 +9371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -9356,7 +9557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -9478,7 +9679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -9560,7 +9761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -9781,7 +9982,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="J7" sqref="J7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -9834,105 +10035,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44424</v>
+        <v>44431</v>
       </c>
       <c r="J2" s="1">
-        <v>403321.06</v>
+        <v>260975.73</v>
       </c>
       <c r="K2">
-        <v>303182</v>
+        <v>218346.4</v>
       </c>
       <c r="L2" s="1">
-        <v>-3462</v>
+        <v>7254.8</v>
       </c>
       <c r="M2">
-        <v>-1.1418999999999999</v>
+        <v>3.3226</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44425</v>
+        <v>44432</v>
       </c>
       <c r="J3" s="1">
-        <v>395314.64</v>
+        <v>238907.54</v>
       </c>
       <c r="K3">
-        <v>289618</v>
+        <v>198768.7</v>
       </c>
       <c r="L3" s="1">
-        <v>-7968.9</v>
+        <v>4851.3</v>
       </c>
       <c r="M3">
-        <v>-2.7515000000000001</v>
+        <v>2.4407000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="J4" s="1">
-        <v>396758.63</v>
+        <v>367314.17</v>
       </c>
       <c r="K4">
-        <v>245890</v>
+        <v>165377.5</v>
       </c>
       <c r="L4" s="1">
-        <v>1536</v>
+        <v>1569.8</v>
       </c>
       <c r="M4">
-        <v>0.62470000000000003</v>
+        <v>0.94920000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44427</v>
+        <v>44434</v>
       </c>
       <c r="J5" s="1">
-        <v>317723.65999999997</v>
+        <v>219219.5</v>
       </c>
       <c r="K5">
-        <v>247268.36</v>
+        <v>183110.91</v>
       </c>
       <c r="L5" s="1">
-        <v>1421.5</v>
+        <v>-2242</v>
       </c>
       <c r="M5">
-        <v>0.57489999999999997</v>
+        <v>-1.2243999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44428</v>
+        <v>44435</v>
       </c>
       <c r="J6" s="1">
-        <v>353767.54</v>
+        <v>354935.94</v>
       </c>
       <c r="K6">
-        <v>285639.59999999998</v>
+        <v>236698</v>
       </c>
       <c r="L6" s="1">
-        <v>-4326.3999999999996</v>
+        <v>1110</v>
       </c>
       <c r="M6">
-        <v>-1.5145999999999999</v>
+        <v>0.46899999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>373377.10600000003</v>
+        <v>288270.576</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>274319.592</v>
+        <v>200460.302</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-12799.8</v>
+        <v>12543.9</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-4.6660174385211244</v>
+        <v>6.2575481902646235</v>
       </c>
     </row>
   </sheetData>
@@ -10000,105 +10201,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="J2" s="1">
-        <v>354194.04</v>
+        <v>403321.06</v>
       </c>
       <c r="K2">
-        <v>279851.99</v>
+        <v>303182</v>
       </c>
       <c r="L2" s="1">
-        <v>-18.8</v>
+        <v>-3462</v>
       </c>
       <c r="M2">
-        <v>-6.7000000000000002E-3</v>
+        <v>-1.1418999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44418</v>
+        <v>44425</v>
       </c>
       <c r="J3" s="1">
-        <v>411295.97</v>
+        <v>395314.64</v>
       </c>
       <c r="K3">
-        <v>334866</v>
+        <v>289618</v>
       </c>
       <c r="L3" s="1">
-        <v>530</v>
+        <v>-7968.9</v>
       </c>
       <c r="M3">
-        <v>0.1583</v>
+        <v>-2.7515000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="J4" s="1">
-        <v>411599.88</v>
+        <v>396758.63</v>
       </c>
       <c r="K4">
-        <v>299838.5</v>
+        <v>245890</v>
       </c>
       <c r="L4" s="1">
-        <v>307.5</v>
+        <v>1536</v>
       </c>
       <c r="M4">
-        <v>0.1026</v>
+        <v>0.62470000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="J5" s="1">
-        <v>409679.53</v>
+        <v>317723.65999999997</v>
       </c>
       <c r="K5">
-        <v>305083.5</v>
+        <v>247268.36</v>
       </c>
       <c r="L5" s="1">
-        <v>-1920</v>
+        <v>1421.5</v>
       </c>
       <c r="M5">
-        <v>-0.62929999999999997</v>
+        <v>0.57489999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44421</v>
+        <v>44428</v>
       </c>
       <c r="J6" s="1">
-        <v>401674.82</v>
+        <v>353767.54</v>
       </c>
       <c r="K6">
-        <v>312203.12</v>
+        <v>285639.59999999998</v>
       </c>
       <c r="L6" s="1">
-        <v>-2859.5</v>
+        <v>-4326.3999999999996</v>
       </c>
       <c r="M6">
-        <v>-0.91590000000000005</v>
+        <v>-1.5145999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>397688.84800000006</v>
+        <v>373377.10600000003</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>306368.62199999997</v>
+        <v>274319.592</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-3960.8</v>
+        <v>-12799.8</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-1.29282169111953</v>
+        <v>-4.6660174385211244</v>
       </c>
     </row>
   </sheetData>
@@ -10166,105 +10367,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="J2" s="1">
-        <v>392126.02</v>
+        <v>354194.04</v>
       </c>
       <c r="K2">
-        <v>320852.71999999997</v>
+        <v>279851.99</v>
       </c>
       <c r="L2" s="1">
-        <v>-29.6</v>
+        <v>-18.8</v>
       </c>
       <c r="M2">
-        <v>-9.1999999999999998E-3</v>
+        <v>-6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44411</v>
+        <v>44418</v>
       </c>
       <c r="J3" s="1">
-        <v>428982.28</v>
+        <v>411295.97</v>
       </c>
       <c r="K3">
-        <v>216964</v>
+        <v>334866</v>
       </c>
       <c r="L3" s="1">
-        <v>-5543</v>
+        <v>530</v>
       </c>
       <c r="M3">
-        <v>-2.5548000000000002</v>
+        <v>0.1583</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="J4" s="1">
-        <v>407773.25</v>
+        <v>411599.88</v>
       </c>
       <c r="K4">
-        <v>157353</v>
+        <v>299838.5</v>
       </c>
       <c r="L4" s="1">
-        <v>2844</v>
+        <v>307.5</v>
       </c>
       <c r="M4">
-        <v>1.8073999999999999</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44413</v>
+        <v>44420</v>
       </c>
       <c r="J5" s="1">
-        <v>383514.64</v>
+        <v>409679.53</v>
       </c>
       <c r="K5">
-        <v>190161.02</v>
+        <v>305083.5</v>
       </c>
       <c r="L5" s="1">
-        <v>-1180</v>
+        <v>-1920</v>
       </c>
       <c r="M5">
-        <v>-0.62050000000000005</v>
+        <v>-0.62929999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44414</v>
+        <v>44421</v>
       </c>
       <c r="J6" s="1">
-        <v>398314.84</v>
+        <v>401674.82</v>
       </c>
       <c r="K6">
-        <v>247438.86</v>
+        <v>312203.12</v>
       </c>
       <c r="L6" s="1">
-        <v>218.8</v>
+        <v>-2859.5</v>
       </c>
       <c r="M6">
-        <v>8.8400000000000006E-2</v>
+        <v>-0.91590000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>402142.20600000001</v>
+        <v>397688.84800000006</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>226553.92</v>
+        <v>306368.62199999997</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-3689.8</v>
+        <v>-3960.8</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-1.6286630573419343</v>
+        <v>-1.29282169111953</v>
       </c>
     </row>
   </sheetData>
@@ -10275,6 +10476,172 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44410</v>
+      </c>
+      <c r="J2" s="1">
+        <v>392126.02</v>
+      </c>
+      <c r="K2">
+        <v>320852.71999999997</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-29.6</v>
+      </c>
+      <c r="M2">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44411</v>
+      </c>
+      <c r="J3" s="1">
+        <v>428982.28</v>
+      </c>
+      <c r="K3">
+        <v>216964</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-5543</v>
+      </c>
+      <c r="M3">
+        <v>-2.5548000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44412</v>
+      </c>
+      <c r="J4" s="1">
+        <v>407773.25</v>
+      </c>
+      <c r="K4">
+        <v>157353</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2844</v>
+      </c>
+      <c r="M4">
+        <v>1.8073999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44413</v>
+      </c>
+      <c r="J5" s="1">
+        <v>383514.64</v>
+      </c>
+      <c r="K5">
+        <v>190161.02</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1180</v>
+      </c>
+      <c r="M5">
+        <v>-0.62050000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44414</v>
+      </c>
+      <c r="J6" s="1">
+        <v>398314.84</v>
+      </c>
+      <c r="K6">
+        <v>247438.86</v>
+      </c>
+      <c r="L6" s="1">
+        <v>218.8</v>
+      </c>
+      <c r="M6">
+        <v>8.8400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>402142.20600000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>226553.92</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-3689.8</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-1.6286630573419343</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -10742,172 +11109,6 @@
       <c r="M24" s="5">
         <f>L24/K24*100</f>
         <v>-3.2285794424289813</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44403</v>
-      </c>
-      <c r="J2" s="1">
-        <v>346532.81</v>
-      </c>
-      <c r="K2">
-        <v>341191.62</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-10790</v>
-      </c>
-      <c r="M2">
-        <v>-3.1623999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44404</v>
-      </c>
-      <c r="J3" s="1">
-        <v>350194.88</v>
-      </c>
-      <c r="K3">
-        <v>248836.5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-10497.8</v>
-      </c>
-      <c r="M3">
-        <v>-4.2187999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44405</v>
-      </c>
-      <c r="J4" s="1">
-        <v>297302.5</v>
-      </c>
-      <c r="K4">
-        <v>257045.36</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1756.7</v>
-      </c>
-      <c r="M4">
-        <v>-0.68340000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44406</v>
-      </c>
-      <c r="J5" s="1">
-        <v>435117.81</v>
-      </c>
-      <c r="K5">
-        <v>278202.5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>16747</v>
-      </c>
-      <c r="M5">
-        <v>6.0197000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44407</v>
-      </c>
-      <c r="J6" s="1">
-        <v>411503.17</v>
-      </c>
-      <c r="K6">
-        <v>287799.21000000002</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-360</v>
-      </c>
-      <c r="M6">
-        <v>-0.12509999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>368130.234</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>282615.038</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-6657.5</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-2.3556779027448638</v>
       </c>
     </row>
   </sheetData>
@@ -10975,105 +11176,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="J2" s="1">
-        <v>391461.52</v>
+        <v>346532.81</v>
       </c>
       <c r="K2">
-        <v>346936</v>
+        <v>341191.62</v>
       </c>
       <c r="L2" s="1">
-        <v>-735.7</v>
+        <v>-10790</v>
       </c>
       <c r="M2">
-        <v>-0.21210000000000001</v>
+        <v>-3.1623999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44397</v>
+        <v>44404</v>
       </c>
       <c r="J3" s="1">
-        <v>381325.07</v>
+        <v>350194.88</v>
       </c>
       <c r="K3">
-        <v>241558</v>
+        <v>248836.5</v>
       </c>
       <c r="L3" s="1">
-        <v>-86</v>
+        <v>-10497.8</v>
       </c>
       <c r="M3">
-        <v>-3.56E-2</v>
+        <v>-4.2187999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="J4" s="1">
-        <v>385281.95</v>
+        <v>297302.5</v>
       </c>
       <c r="K4">
-        <v>248832</v>
+        <v>257045.36</v>
       </c>
       <c r="L4" s="1">
-        <v>3968</v>
+        <v>-1756.7</v>
       </c>
       <c r="M4">
-        <v>1.5947</v>
+        <v>-0.68340000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44399</v>
+        <v>44406</v>
       </c>
       <c r="J5" s="1">
-        <v>350182.62</v>
+        <v>435117.81</v>
       </c>
       <c r="K5">
-        <v>260244.58</v>
+        <v>278202.5</v>
       </c>
       <c r="L5" s="1">
-        <v>1428</v>
+        <v>16747</v>
       </c>
       <c r="M5">
-        <v>0.54869999999999997</v>
+        <v>6.0197000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44400</v>
+        <v>44407</v>
       </c>
       <c r="J6" s="1">
-        <v>321329.03999999998</v>
+        <v>411503.17</v>
       </c>
       <c r="K6">
-        <v>291717.36</v>
+        <v>287799.21000000002</v>
       </c>
       <c r="L6" s="1">
-        <v>-5033</v>
+        <v>-360</v>
       </c>
       <c r="M6">
-        <v>-1.7253000000000001</v>
+        <v>-0.12509999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>365916.04000000004</v>
+        <v>368130.234</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>277857.58799999999</v>
+        <v>282615.038</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-458.69999999999982</v>
+        <v>-6657.5</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-0.16508456843006922</v>
+        <v>-2.3556779027448638</v>
       </c>
     </row>
   </sheetData>
@@ -11088,7 +11289,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="J7" sqref="J7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -11141,105 +11342,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="J2" s="1">
-        <v>399553.09</v>
+        <v>391461.52</v>
       </c>
       <c r="K2">
-        <v>315114</v>
+        <v>346936</v>
       </c>
       <c r="L2" s="1">
-        <v>7444</v>
+        <v>-735.7</v>
       </c>
       <c r="M2">
-        <v>2.3622999999999998</v>
+        <v>-0.21210000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44390</v>
+        <v>44397</v>
       </c>
       <c r="J3" s="1">
-        <v>398533.05</v>
+        <v>381325.07</v>
       </c>
       <c r="K3">
-        <v>266844</v>
+        <v>241558</v>
       </c>
       <c r="L3" s="1">
-        <v>-975</v>
+        <v>-86</v>
       </c>
       <c r="M3">
-        <v>-0.3654</v>
+        <v>-3.56E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="J4" s="1">
-        <v>395001.88</v>
+        <v>385281.95</v>
       </c>
       <c r="K4">
-        <v>236228</v>
+        <v>248832</v>
       </c>
       <c r="L4" s="1">
-        <v>-3479</v>
+        <v>3968</v>
       </c>
       <c r="M4">
-        <v>-1.4726999999999999</v>
+        <v>1.5947</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44392</v>
+        <v>44399</v>
       </c>
       <c r="J5" s="1">
-        <v>398680.85</v>
+        <v>350182.62</v>
       </c>
       <c r="K5">
-        <v>178125</v>
+        <v>260244.58</v>
       </c>
       <c r="L5" s="1">
-        <v>3721</v>
+        <v>1428</v>
       </c>
       <c r="M5">
-        <v>2.089</v>
+        <v>0.54869999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44393</v>
+        <v>44400</v>
       </c>
       <c r="J6" s="1">
-        <v>215638.8</v>
+        <v>321329.03999999998</v>
       </c>
       <c r="K6">
-        <v>181630.1</v>
+        <v>291717.36</v>
       </c>
       <c r="L6" s="1">
-        <v>-6398</v>
+        <v>-5033</v>
       </c>
       <c r="M6">
-        <v>-3.5225</v>
+        <v>-1.7253000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>361481.53400000004</v>
+        <v>365916.04000000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>235588.22000000003</v>
+        <v>277857.58799999999</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>313</v>
+        <v>-458.69999999999982</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>0.13285893496712184</v>
+        <v>-0.16508456843006922</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,44 +4,47 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="8A" sheetId="53" r:id="rId1"/>
-    <sheet name="85" sheetId="55" r:id="rId2"/>
-    <sheet name="84" sheetId="54" r:id="rId3"/>
-    <sheet name="83" sheetId="52" r:id="rId4"/>
-    <sheet name="82" sheetId="51" r:id="rId5"/>
-    <sheet name="81" sheetId="50" r:id="rId6"/>
-    <sheet name="7A" sheetId="48" r:id="rId7"/>
-    <sheet name="75" sheetId="49" r:id="rId8"/>
-    <sheet name="74" sheetId="47" r:id="rId9"/>
-    <sheet name="73" sheetId="46" r:id="rId10"/>
-    <sheet name="72" sheetId="45" r:id="rId11"/>
-    <sheet name="71" sheetId="44" r:id="rId12"/>
-    <sheet name="65" sheetId="43" r:id="rId13"/>
-    <sheet name="6A" sheetId="40" r:id="rId14"/>
-    <sheet name="64" sheetId="42" r:id="rId15"/>
-    <sheet name="63" sheetId="41" r:id="rId16"/>
-    <sheet name="62" sheetId="39" r:id="rId17"/>
-    <sheet name="61" sheetId="38" r:id="rId18"/>
-    <sheet name="5" sheetId="37" r:id="rId19"/>
-    <sheet name="2104" sheetId="36" r:id="rId20"/>
-    <sheet name="2103" sheetId="33" r:id="rId21"/>
-    <sheet name="2102" sheetId="31" r:id="rId22"/>
-    <sheet name="2101" sheetId="26" r:id="rId23"/>
-    <sheet name="每月" sheetId="29" r:id="rId24"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId25"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId26"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId27"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId28"/>
+    <sheet name="9A" sheetId="57" r:id="rId1"/>
+    <sheet name="92" sheetId="58" r:id="rId2"/>
+    <sheet name="91" sheetId="56" r:id="rId3"/>
+    <sheet name="8A" sheetId="53" r:id="rId4"/>
+    <sheet name="85" sheetId="55" r:id="rId5"/>
+    <sheet name="84" sheetId="54" r:id="rId6"/>
+    <sheet name="83" sheetId="52" r:id="rId7"/>
+    <sheet name="82" sheetId="51" r:id="rId8"/>
+    <sheet name="81" sheetId="50" r:id="rId9"/>
+    <sheet name="7A" sheetId="48" r:id="rId10"/>
+    <sheet name="75" sheetId="49" r:id="rId11"/>
+    <sheet name="74" sheetId="47" r:id="rId12"/>
+    <sheet name="73" sheetId="46" r:id="rId13"/>
+    <sheet name="72" sheetId="45" r:id="rId14"/>
+    <sheet name="71" sheetId="44" r:id="rId15"/>
+    <sheet name="65" sheetId="43" r:id="rId16"/>
+    <sheet name="6A" sheetId="40" r:id="rId17"/>
+    <sheet name="64" sheetId="42" r:id="rId18"/>
+    <sheet name="63" sheetId="41" r:id="rId19"/>
+    <sheet name="62" sheetId="39" r:id="rId20"/>
+    <sheet name="61" sheetId="38" r:id="rId21"/>
+    <sheet name="5" sheetId="37" r:id="rId22"/>
+    <sheet name="2104" sheetId="36" r:id="rId23"/>
+    <sheet name="2103" sheetId="33" r:id="rId24"/>
+    <sheet name="2102" sheetId="31" r:id="rId25"/>
+    <sheet name="2101" sheetId="26" r:id="rId26"/>
+    <sheet name="每月" sheetId="29" r:id="rId27"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId28"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId29"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId30"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId31"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1747,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1803,394 +1806,156 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44410</v>
+        <v>44440</v>
       </c>
       <c r="J2" s="1">
-        <v>392126.02</v>
+        <v>367517.73</v>
       </c>
       <c r="K2">
-        <v>320852.71999999997</v>
+        <v>235760</v>
       </c>
       <c r="L2" s="1">
-        <v>-29.6</v>
+        <v>1636.5</v>
       </c>
       <c r="M2">
-        <v>-9.1999999999999998E-3</v>
+        <v>0.69410000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44411</v>
+        <v>44441</v>
       </c>
       <c r="J3" s="1">
-        <v>428982.28</v>
+        <v>317929.12</v>
       </c>
       <c r="K3">
-        <v>216964</v>
+        <v>256454.57</v>
       </c>
       <c r="L3" s="1">
-        <v>-5543</v>
+        <v>747.5</v>
       </c>
       <c r="M3">
-        <v>-2.5548000000000002</v>
+        <v>0.29149999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44412</v>
+        <v>44442</v>
       </c>
       <c r="J4" s="1">
-        <v>407773.25</v>
+        <v>358800.82</v>
       </c>
       <c r="K4">
-        <v>157353</v>
+        <v>253946</v>
       </c>
       <c r="L4" s="1">
-        <v>2844</v>
+        <v>-1575.9</v>
       </c>
       <c r="M4">
-        <v>1.8073999999999999</v>
+        <v>-0.62060000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44413</v>
+        <v>44445</v>
       </c>
       <c r="J5" s="1">
-        <v>383514.64</v>
+        <v>361852.28</v>
       </c>
       <c r="K5">
-        <v>190161.02</v>
+        <v>264602.5</v>
       </c>
       <c r="L5" s="1">
-        <v>-1180</v>
+        <v>3461.5</v>
       </c>
       <c r="M5">
-        <v>-0.62050000000000005</v>
+        <v>1.3082</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44414</v>
+        <v>44446</v>
       </c>
       <c r="J6" s="1">
-        <v>398314.84</v>
+        <v>372951.23</v>
       </c>
       <c r="K6">
-        <v>247438.86</v>
+        <v>191255</v>
       </c>
       <c r="L6" s="1">
-        <v>218.8</v>
+        <v>3021</v>
       </c>
       <c r="M6">
-        <v>8.8400000000000006E-2</v>
+        <v>1.5795999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="6">
-        <v>44417</v>
+        <v>44447</v>
       </c>
       <c r="J7" s="1">
-        <v>354194.04</v>
+        <v>347440.9</v>
       </c>
       <c r="K7">
-        <v>279851.99</v>
+        <v>209946.1</v>
       </c>
       <c r="L7" s="1">
-        <v>-18.8</v>
+        <v>-1293</v>
       </c>
       <c r="M7">
-        <v>-6.7000000000000002E-3</v>
+        <v>-0.6159</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6">
-        <v>44418</v>
+        <v>44448</v>
       </c>
       <c r="J8" s="1">
-        <v>411295.97</v>
+        <v>373576.8</v>
       </c>
       <c r="K8">
-        <v>334866</v>
+        <v>260258</v>
       </c>
       <c r="L8" s="1">
-        <v>530</v>
+        <v>1944.3</v>
       </c>
       <c r="M8">
-        <v>0.1583</v>
+        <v>0.74709999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="6">
-        <v>44419</v>
+        <v>44449</v>
       </c>
       <c r="J9" s="1">
-        <v>411599.88</v>
+        <v>361293.45</v>
       </c>
       <c r="K9">
-        <v>299838.5</v>
+        <v>282141.32</v>
       </c>
       <c r="L9" s="1">
-        <v>307.5</v>
+        <v>1932</v>
       </c>
       <c r="M9">
-        <v>0.1026</v>
+        <v>0.68479999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="6">
-        <v>44420</v>
-      </c>
       <c r="J10" s="1">
-        <v>409679.53</v>
-      </c>
-      <c r="K10">
-        <v>305083.5</v>
+        <f>AVERAGE(J2:J9)</f>
+        <v>357670.29125000001</v>
+      </c>
+      <c r="K10" s="1">
+        <f>AVERAGE(K2:K9)</f>
+        <v>244295.43625000003</v>
       </c>
       <c r="L10" s="1">
-        <v>-1920</v>
-      </c>
-      <c r="M10">
-        <v>-0.62929999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6">
-        <v>44421</v>
-      </c>
-      <c r="J11" s="1">
-        <v>401674.82</v>
-      </c>
-      <c r="K11">
-        <v>312203.12</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-2859.5</v>
-      </c>
-      <c r="M11">
-        <v>-0.91590000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6">
-        <v>44424</v>
-      </c>
-      <c r="J12" s="1">
-        <v>403321.06</v>
-      </c>
-      <c r="K12">
-        <v>303182</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-3462</v>
-      </c>
-      <c r="M12">
-        <v>-1.1418999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6">
-        <v>44425</v>
-      </c>
-      <c r="J13" s="1">
-        <v>395314.64</v>
-      </c>
-      <c r="K13">
-        <v>289618</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-7968.9</v>
-      </c>
-      <c r="M13">
-        <v>-2.7515000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6">
-        <v>44426</v>
-      </c>
-      <c r="J14" s="1">
-        <v>396758.63</v>
-      </c>
-      <c r="K14">
-        <v>245890</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1536</v>
-      </c>
-      <c r="M14">
-        <v>0.62470000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6">
-        <v>44427</v>
-      </c>
-      <c r="J15" s="1">
-        <v>317723.65999999997</v>
-      </c>
-      <c r="K15">
-        <v>247268.36</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1421.5</v>
-      </c>
-      <c r="M15">
-        <v>0.57489999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6">
-        <v>44428</v>
-      </c>
-      <c r="J16" s="1">
-        <v>353767.54</v>
-      </c>
-      <c r="K16">
-        <v>285639.59999999998</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-4326.3999999999996</v>
-      </c>
-      <c r="M16">
-        <v>-1.5145999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44431</v>
-      </c>
-      <c r="J17" s="1">
-        <v>260975.73</v>
-      </c>
-      <c r="K17">
-        <v>218346.4</v>
-      </c>
-      <c r="L17" s="1">
-        <v>7254.8</v>
-      </c>
-      <c r="M17">
-        <v>3.3226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6">
-        <v>44432</v>
-      </c>
-      <c r="J18" s="1">
-        <v>238907.54</v>
-      </c>
-      <c r="K18">
-        <v>198768.7</v>
-      </c>
-      <c r="L18" s="1">
-        <v>4851.3</v>
-      </c>
-      <c r="M18">
-        <v>2.4407000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44433</v>
-      </c>
-      <c r="J19" s="1">
-        <v>367314.17</v>
-      </c>
-      <c r="K19">
-        <v>165377.5</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1569.8</v>
-      </c>
-      <c r="M19">
-        <v>0.94920000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>44434</v>
-      </c>
-      <c r="J20" s="1">
-        <v>219219.5</v>
-      </c>
-      <c r="K20">
-        <v>183110.91</v>
-      </c>
-      <c r="L20" s="1">
-        <v>-2242</v>
-      </c>
-      <c r="M20">
-        <v>-1.2243999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44435</v>
-      </c>
-      <c r="J21" s="1">
-        <v>354935.94</v>
-      </c>
-      <c r="K21">
-        <v>236698</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1110</v>
-      </c>
-      <c r="M21">
-        <v>0.46899999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44438</v>
-      </c>
-      <c r="J22" s="1">
-        <v>291161.09000000003</v>
-      </c>
-      <c r="K22">
-        <v>268589.53000000003</v>
-      </c>
-      <c r="L22" s="1">
-        <v>720</v>
-      </c>
-      <c r="M22">
-        <v>0.2681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6">
-        <v>44439</v>
-      </c>
-      <c r="J23" s="1">
-        <v>365933.92</v>
-      </c>
-      <c r="K23">
-        <v>229250</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-818.5</v>
-      </c>
-      <c r="M23">
-        <v>-0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="J24" s="1">
-        <f>AVERAGE(J2:J23)</f>
-        <v>362022.2131818182</v>
-      </c>
-      <c r="K24" s="1">
-        <f>AVERAGE(K2:K23)</f>
-        <v>251652.35045454549</v>
-      </c>
-      <c r="L24" s="1">
-        <f>SUM(L2:L23)</f>
-        <v>-8005.0000000000036</v>
-      </c>
-      <c r="M24" s="5">
-        <f>L24/K24*100</f>
-        <v>-3.1809756537306417</v>
+        <f>SUM(L2:L9)</f>
+        <v>9873.9000000000015</v>
+      </c>
+      <c r="M10" s="5">
+        <f>L10/K10*100</f>
+        <v>4.0417865153631176</v>
       </c>
     </row>
   </sheetData>
@@ -2201,6 +1966,815 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44378</v>
+      </c>
+      <c r="J2" s="1">
+        <v>400968.2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>221650.6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-3191.21</v>
+      </c>
+      <c r="M2" s="5">
+        <v>-1.4145000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44379</v>
+      </c>
+      <c r="J3" s="1">
+        <v>394703.57</v>
+      </c>
+      <c r="K3">
+        <v>282622.7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-6272.86</v>
+      </c>
+      <c r="M3">
+        <v>-2.2845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J4" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K4">
+        <v>190776</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M4">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J5" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K5">
+        <v>321998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M5">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J6" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K6">
+        <v>264214.08</v>
+      </c>
+      <c r="L6" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M6">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J7" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K7">
+        <v>298343.01</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M7">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J8" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K8">
+        <v>299620.11</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M8">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44389</v>
+      </c>
+      <c r="J9" s="1">
+        <v>399553.09</v>
+      </c>
+      <c r="K9">
+        <v>315114</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7444</v>
+      </c>
+      <c r="M9">
+        <v>2.3622999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44390</v>
+      </c>
+      <c r="J10" s="1">
+        <v>398533.05</v>
+      </c>
+      <c r="K10">
+        <v>266844</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-975</v>
+      </c>
+      <c r="M10">
+        <v>-0.3654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44391</v>
+      </c>
+      <c r="J11" s="1">
+        <v>395001.88</v>
+      </c>
+      <c r="K11">
+        <v>236228</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-3479</v>
+      </c>
+      <c r="M11">
+        <v>-1.4726999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44392</v>
+      </c>
+      <c r="J12" s="1">
+        <v>398680.85</v>
+      </c>
+      <c r="K12">
+        <v>178125</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3721</v>
+      </c>
+      <c r="M12">
+        <v>2.089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44393</v>
+      </c>
+      <c r="J13" s="1">
+        <v>215638.8</v>
+      </c>
+      <c r="K13">
+        <v>181630.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-6398</v>
+      </c>
+      <c r="M13">
+        <v>-3.5225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44396</v>
+      </c>
+      <c r="J14" s="1">
+        <v>391461.52</v>
+      </c>
+      <c r="K14">
+        <v>346936</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-735.7</v>
+      </c>
+      <c r="M14">
+        <v>-0.21210000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44397</v>
+      </c>
+      <c r="J15" s="1">
+        <v>381325.07</v>
+      </c>
+      <c r="K15">
+        <v>241558</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-86</v>
+      </c>
+      <c r="M15">
+        <v>-3.56E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44398</v>
+      </c>
+      <c r="J16" s="1">
+        <v>385281.95</v>
+      </c>
+      <c r="K16">
+        <v>248832</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3968</v>
+      </c>
+      <c r="M16">
+        <v>1.5947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44399</v>
+      </c>
+      <c r="J17" s="1">
+        <v>350182.62</v>
+      </c>
+      <c r="K17">
+        <v>260244.58</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1428</v>
+      </c>
+      <c r="M17">
+        <v>0.54869999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44400</v>
+      </c>
+      <c r="J18" s="1">
+        <v>321329.03999999998</v>
+      </c>
+      <c r="K18">
+        <v>291717.36</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-5033</v>
+      </c>
+      <c r="M18">
+        <v>-1.7253000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44403</v>
+      </c>
+      <c r="J19" s="1">
+        <v>346532.81</v>
+      </c>
+      <c r="K19">
+        <v>341191.62</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-10790</v>
+      </c>
+      <c r="M19">
+        <v>-3.1623999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44404</v>
+      </c>
+      <c r="J20" s="1">
+        <v>350194.88</v>
+      </c>
+      <c r="K20">
+        <v>248836.5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-10497.8</v>
+      </c>
+      <c r="M20">
+        <v>-4.2187999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44405</v>
+      </c>
+      <c r="J21" s="1">
+        <v>297302.5</v>
+      </c>
+      <c r="K21">
+        <v>257045.36</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-1756.7</v>
+      </c>
+      <c r="M21">
+        <v>-0.68340000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44406</v>
+      </c>
+      <c r="J22" s="1">
+        <v>435117.81</v>
+      </c>
+      <c r="K22">
+        <v>278202.5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>16747</v>
+      </c>
+      <c r="M22">
+        <v>6.0197000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44407</v>
+      </c>
+      <c r="J23" s="1">
+        <v>411503.17</v>
+      </c>
+      <c r="K23">
+        <v>287799.21000000002</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-360</v>
+      </c>
+      <c r="M23">
+        <v>-0.12509999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6"/>
+      <c r="B24">
+        <f>SUM(B7:B11)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F7:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>SUM(G7:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>SUM(H7:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f>AVERAGE(J2:J23)</f>
+        <v>373742.60090909083</v>
+      </c>
+      <c r="K24" s="1">
+        <f>AVERAGE(K2:K23)</f>
+        <v>266342.21500000003</v>
+      </c>
+      <c r="L24" s="1">
+        <f>SUM(L2:L23)</f>
+        <v>-8599.07</v>
+      </c>
+      <c r="M24" s="5">
+        <f>L24/K24*100</f>
+        <v>-3.2285794424289813</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44403</v>
+      </c>
+      <c r="J2" s="1">
+        <v>346532.81</v>
+      </c>
+      <c r="K2">
+        <v>341191.62</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-10790</v>
+      </c>
+      <c r="M2">
+        <v>-3.1623999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44404</v>
+      </c>
+      <c r="J3" s="1">
+        <v>350194.88</v>
+      </c>
+      <c r="K3">
+        <v>248836.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-10497.8</v>
+      </c>
+      <c r="M3">
+        <v>-4.2187999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44405</v>
+      </c>
+      <c r="J4" s="1">
+        <v>297302.5</v>
+      </c>
+      <c r="K4">
+        <v>257045.36</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1756.7</v>
+      </c>
+      <c r="M4">
+        <v>-0.68340000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44406</v>
+      </c>
+      <c r="J5" s="1">
+        <v>435117.81</v>
+      </c>
+      <c r="K5">
+        <v>278202.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>16747</v>
+      </c>
+      <c r="M5">
+        <v>6.0197000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44407</v>
+      </c>
+      <c r="J6" s="1">
+        <v>411503.17</v>
+      </c>
+      <c r="K6">
+        <v>287799.21000000002</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-360</v>
+      </c>
+      <c r="M6">
+        <v>-0.12509999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>368130.234</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>282615.038</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-6657.5</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-2.3556779027448638</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44396</v>
+      </c>
+      <c r="J2" s="1">
+        <v>391461.52</v>
+      </c>
+      <c r="K2">
+        <v>346936</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-735.7</v>
+      </c>
+      <c r="M2">
+        <v>-0.21210000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44397</v>
+      </c>
+      <c r="J3" s="1">
+        <v>381325.07</v>
+      </c>
+      <c r="K3">
+        <v>241558</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-86</v>
+      </c>
+      <c r="M3">
+        <v>-3.56E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44398</v>
+      </c>
+      <c r="J4" s="1">
+        <v>385281.95</v>
+      </c>
+      <c r="K4">
+        <v>248832</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3968</v>
+      </c>
+      <c r="M4">
+        <v>1.5947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44399</v>
+      </c>
+      <c r="J5" s="1">
+        <v>350182.62</v>
+      </c>
+      <c r="K5">
+        <v>260244.58</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1428</v>
+      </c>
+      <c r="M5">
+        <v>0.54869999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44400</v>
+      </c>
+      <c r="J6" s="1">
+        <v>321329.03999999998</v>
+      </c>
+      <c r="K6">
+        <v>291717.36</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-5033</v>
+      </c>
+      <c r="M6">
+        <v>-1.7253000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>365916.04000000004</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>277857.58799999999</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-458.69999999999982</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-0.16508456843006922</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -2366,7 +2940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -2532,7 +3106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -2712,7 +3286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -2853,7 +3427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -3361,7 +3935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -3527,7 +4101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -3676,7 +4250,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44452</v>
+      </c>
+      <c r="J2" s="1">
+        <v>368109.64</v>
+      </c>
+      <c r="K2">
+        <v>260459.5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-2054</v>
+      </c>
+      <c r="M2">
+        <v>-0.78859999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44453</v>
+      </c>
+      <c r="J3" s="1">
+        <v>370218.14</v>
+      </c>
+      <c r="K3">
+        <v>270648.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-3078.4</v>
+      </c>
+      <c r="M3">
+        <v>-1.1374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44454</v>
+      </c>
+      <c r="J4" s="1">
+        <v>358116.94</v>
+      </c>
+      <c r="K4">
+        <v>242750.5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1413.5</v>
+      </c>
+      <c r="M4">
+        <v>-0.58230000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44455</v>
+      </c>
+      <c r="J5" s="1">
+        <v>353615.06</v>
+      </c>
+      <c r="K5">
+        <v>268136.81</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-5246</v>
+      </c>
+      <c r="M5">
+        <v>-1.9564999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44456</v>
+      </c>
+      <c r="J6" s="1">
+        <v>365133.37</v>
+      </c>
+      <c r="K6">
+        <v>277863</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1682</v>
+      </c>
+      <c r="M6">
+        <v>0.60529999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>363038.63</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>263971.66200000001</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-10109.9</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-3.8299186827107223</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -3842,7 +4582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -4042,7 +4782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -4911,173 +5651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44438</v>
-      </c>
-      <c r="J2" s="1">
-        <v>291161.09000000003</v>
-      </c>
-      <c r="K2">
-        <v>268589.53000000003</v>
-      </c>
-      <c r="L2" s="1">
-        <v>720</v>
-      </c>
-      <c r="M2">
-        <v>0.2681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44439</v>
-      </c>
-      <c r="J3" s="1">
-        <v>365933.92</v>
-      </c>
-      <c r="K3">
-        <v>229250</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-818.5</v>
-      </c>
-      <c r="M3">
-        <v>-0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44440</v>
-      </c>
-      <c r="J4" s="1">
-        <v>367517.73</v>
-      </c>
-      <c r="K4">
-        <v>235760</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1636.5</v>
-      </c>
-      <c r="M4">
-        <v>0.69410000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44441</v>
-      </c>
-      <c r="J5" s="1">
-        <v>317929.12</v>
-      </c>
-      <c r="K5">
-        <v>256454.57</v>
-      </c>
-      <c r="L5" s="1">
-        <v>747.5</v>
-      </c>
-      <c r="M5">
-        <v>0.29149999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44442</v>
-      </c>
-      <c r="J6" s="1">
-        <v>358800.82</v>
-      </c>
-      <c r="K6">
-        <v>253946</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-1575.9</v>
-      </c>
-      <c r="M6">
-        <v>-0.62060000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>340268.53599999996</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>248800.02000000002</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>709.59999999999991</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>0.28520898028866709</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -6171,7 +6745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -7349,7 +7923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -7943,7 +8517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -8861,7 +9435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -9371,7 +9945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -9557,7 +10131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -9670,304 +10244,6 @@
       <c r="H6">
         <f>F6/C6</f>
         <v>6.282573821201864E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1">
-        <v>51300</v>
-      </c>
-      <c r="B1">
-        <v>5600</v>
-      </c>
-      <c r="C1">
-        <f>A1-B1</f>
-        <v>45700</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="H4" s="11"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="H13">
-        <v>4700</v>
-      </c>
-      <c r="K13">
-        <v>5100</v>
-      </c>
-      <c r="L13">
-        <v>7196.1</v>
-      </c>
-      <c r="M13">
-        <v>5100</v>
-      </c>
-      <c r="N13">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O13" s="1">
-        <f>M13*N13</f>
-        <v>7150.2</v>
-      </c>
-      <c r="P13" s="1">
-        <f>O13-L13</f>
-        <v>-45.900000000000546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="H14">
-        <v>2200</v>
-      </c>
-      <c r="K14">
-        <v>5500</v>
-      </c>
-      <c r="L14">
-        <v>7980.5</v>
-      </c>
-      <c r="M14">
-        <v>5500</v>
-      </c>
-      <c r="N14">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O19" si="0">M14*N14</f>
-        <v>7710.9999999999991</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" ref="P14:P19" si="1">O14-L14</f>
-        <v>-269.50000000000091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="H15">
-        <v>3400</v>
-      </c>
-      <c r="K15">
-        <v>5700</v>
-      </c>
-      <c r="L15">
-        <v>8367.6</v>
-      </c>
-      <c r="M15">
-        <v>5700</v>
-      </c>
-      <c r="N15">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>7991.4</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="1"/>
-        <v>-376.20000000000073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="H16">
-        <v>3000</v>
-      </c>
-      <c r="K16">
-        <v>5900</v>
-      </c>
-      <c r="L16">
-        <v>8796.9</v>
-      </c>
-      <c r="M16">
-        <v>5900</v>
-      </c>
-      <c r="N16">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>8271.7999999999993</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="1"/>
-        <v>-525.10000000000036</v>
-      </c>
-    </row>
-    <row r="17" spans="8:16">
-      <c r="H17">
-        <v>3800</v>
-      </c>
-      <c r="K17">
-        <v>5000</v>
-      </c>
-      <c r="L17">
-        <v>7505</v>
-      </c>
-      <c r="M17">
-        <v>5000</v>
-      </c>
-      <c r="N17">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>7010</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="1"/>
-        <v>-495</v>
-      </c>
-    </row>
-    <row r="18" spans="8:16">
-      <c r="H18">
-        <v>3000</v>
-      </c>
-      <c r="K18">
-        <v>5100</v>
-      </c>
-      <c r="L18">
-        <v>7706.1</v>
-      </c>
-      <c r="M18">
-        <v>5100</v>
-      </c>
-      <c r="N18">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>7150.2</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="1"/>
-        <v>-555.90000000000055</v>
-      </c>
-    </row>
-    <row r="19" spans="8:16">
-      <c r="K19">
-        <v>5100</v>
-      </c>
-      <c r="L19">
-        <v>7706.1</v>
-      </c>
-      <c r="M19">
-        <v>5100</v>
-      </c>
-      <c r="N19">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
-        <v>7150.2</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" si="1"/>
-        <v>-555.90000000000055</v>
       </c>
     </row>
   </sheetData>
@@ -10035,105 +10311,403 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44431</v>
+        <v>44445</v>
       </c>
       <c r="J2" s="1">
-        <v>260975.73</v>
+        <v>361852.28</v>
       </c>
       <c r="K2">
-        <v>218346.4</v>
+        <v>264602.5</v>
       </c>
       <c r="L2" s="1">
-        <v>7254.8</v>
+        <v>3461.5</v>
       </c>
       <c r="M2">
-        <v>3.3226</v>
+        <v>1.3082</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44432</v>
+        <v>44446</v>
       </c>
       <c r="J3" s="1">
-        <v>238907.54</v>
+        <v>372951.23</v>
       </c>
       <c r="K3">
-        <v>198768.7</v>
+        <v>191255</v>
       </c>
       <c r="L3" s="1">
-        <v>4851.3</v>
+        <v>3021</v>
       </c>
       <c r="M3">
-        <v>2.4407000000000001</v>
+        <v>1.5795999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44433</v>
+        <v>44447</v>
       </c>
       <c r="J4" s="1">
-        <v>367314.17</v>
+        <v>347440.9</v>
       </c>
       <c r="K4">
-        <v>165377.5</v>
+        <v>209946.1</v>
       </c>
       <c r="L4" s="1">
-        <v>1569.8</v>
+        <v>-1293</v>
       </c>
       <c r="M4">
-        <v>0.94920000000000004</v>
+        <v>-0.6159</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44434</v>
+        <v>44448</v>
       </c>
       <c r="J5" s="1">
-        <v>219219.5</v>
+        <v>373576.8</v>
       </c>
       <c r="K5">
-        <v>183110.91</v>
+        <v>260258</v>
       </c>
       <c r="L5" s="1">
-        <v>-2242</v>
+        <v>1944.3</v>
       </c>
       <c r="M5">
-        <v>-1.2243999999999999</v>
+        <v>0.74709999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44435</v>
+        <v>44449</v>
       </c>
       <c r="J6" s="1">
-        <v>354935.94</v>
+        <v>361293.45</v>
       </c>
       <c r="K6">
-        <v>236698</v>
+        <v>282141.32</v>
       </c>
       <c r="L6" s="1">
-        <v>1110</v>
+        <v>1932</v>
       </c>
       <c r="M6">
-        <v>0.46899999999999997</v>
+        <v>0.68479999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>288270.576</v>
+        <v>363422.93200000003</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>200460.302</v>
+        <v>241640.58399999997</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>12543.9</v>
+        <v>9065.7999999999993</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>6.2575481902646235</v>
+        <v>3.7517704393563291</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1">
+        <v>51300</v>
+      </c>
+      <c r="B1">
+        <v>5600</v>
+      </c>
+      <c r="C1">
+        <f>A1-B1</f>
+        <v>45700</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="H13">
+        <v>4700</v>
+      </c>
+      <c r="K13">
+        <v>5100</v>
+      </c>
+      <c r="L13">
+        <v>7196.1</v>
+      </c>
+      <c r="M13">
+        <v>5100</v>
+      </c>
+      <c r="N13">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <f>M13*N13</f>
+        <v>7150.2</v>
+      </c>
+      <c r="P13" s="1">
+        <f>O13-L13</f>
+        <v>-45.900000000000546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="H14">
+        <v>2200</v>
+      </c>
+      <c r="K14">
+        <v>5500</v>
+      </c>
+      <c r="L14">
+        <v>7980.5</v>
+      </c>
+      <c r="M14">
+        <v>5500</v>
+      </c>
+      <c r="N14">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O19" si="0">M14*N14</f>
+        <v>7710.9999999999991</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" ref="P14:P19" si="1">O14-L14</f>
+        <v>-269.50000000000091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="H15">
+        <v>3400</v>
+      </c>
+      <c r="K15">
+        <v>5700</v>
+      </c>
+      <c r="L15">
+        <v>8367.6</v>
+      </c>
+      <c r="M15">
+        <v>5700</v>
+      </c>
+      <c r="N15">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>7991.4</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="1"/>
+        <v>-376.20000000000073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="H16">
+        <v>3000</v>
+      </c>
+      <c r="K16">
+        <v>5900</v>
+      </c>
+      <c r="L16">
+        <v>8796.9</v>
+      </c>
+      <c r="M16">
+        <v>5900</v>
+      </c>
+      <c r="N16">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>8271.7999999999993</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>-525.10000000000036</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16">
+      <c r="H17">
+        <v>3800</v>
+      </c>
+      <c r="K17">
+        <v>5000</v>
+      </c>
+      <c r="L17">
+        <v>7505</v>
+      </c>
+      <c r="M17">
+        <v>5000</v>
+      </c>
+      <c r="N17">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>7010</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="1"/>
+        <v>-495</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16">
+      <c r="H18">
+        <v>3000</v>
+      </c>
+      <c r="K18">
+        <v>5100</v>
+      </c>
+      <c r="L18">
+        <v>7706.1</v>
+      </c>
+      <c r="M18">
+        <v>5100</v>
+      </c>
+      <c r="N18">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>7150.2</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="1"/>
+        <v>-555.90000000000055</v>
+      </c>
+    </row>
+    <row r="19" spans="8:16">
+      <c r="K19">
+        <v>5100</v>
+      </c>
+      <c r="L19">
+        <v>7706.1</v>
+      </c>
+      <c r="M19">
+        <v>5100</v>
+      </c>
+      <c r="N19">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>7150.2</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="1"/>
+        <v>-555.90000000000055</v>
       </c>
     </row>
   </sheetData>
@@ -10144,6 +10718,793 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44410</v>
+      </c>
+      <c r="J2" s="1">
+        <v>392126.02</v>
+      </c>
+      <c r="K2">
+        <v>320852.71999999997</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-29.6</v>
+      </c>
+      <c r="M2">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44411</v>
+      </c>
+      <c r="J3" s="1">
+        <v>428982.28</v>
+      </c>
+      <c r="K3">
+        <v>216964</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-5543</v>
+      </c>
+      <c r="M3">
+        <v>-2.5548000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44412</v>
+      </c>
+      <c r="J4" s="1">
+        <v>407773.25</v>
+      </c>
+      <c r="K4">
+        <v>157353</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2844</v>
+      </c>
+      <c r="M4">
+        <v>1.8073999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44413</v>
+      </c>
+      <c r="J5" s="1">
+        <v>383514.64</v>
+      </c>
+      <c r="K5">
+        <v>190161.02</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1180</v>
+      </c>
+      <c r="M5">
+        <v>-0.62050000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44414</v>
+      </c>
+      <c r="J6" s="1">
+        <v>398314.84</v>
+      </c>
+      <c r="K6">
+        <v>247438.86</v>
+      </c>
+      <c r="L6" s="1">
+        <v>218.8</v>
+      </c>
+      <c r="M6">
+        <v>8.8400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44417</v>
+      </c>
+      <c r="J7" s="1">
+        <v>354194.04</v>
+      </c>
+      <c r="K7">
+        <v>279851.99</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-18.8</v>
+      </c>
+      <c r="M7">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44418</v>
+      </c>
+      <c r="J8" s="1">
+        <v>411295.97</v>
+      </c>
+      <c r="K8">
+        <v>334866</v>
+      </c>
+      <c r="L8" s="1">
+        <v>530</v>
+      </c>
+      <c r="M8">
+        <v>0.1583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44419</v>
+      </c>
+      <c r="J9" s="1">
+        <v>411599.88</v>
+      </c>
+      <c r="K9">
+        <v>299838.5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>307.5</v>
+      </c>
+      <c r="M9">
+        <v>0.1026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44420</v>
+      </c>
+      <c r="J10" s="1">
+        <v>409679.53</v>
+      </c>
+      <c r="K10">
+        <v>305083.5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-1920</v>
+      </c>
+      <c r="M10">
+        <v>-0.62929999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44421</v>
+      </c>
+      <c r="J11" s="1">
+        <v>401674.82</v>
+      </c>
+      <c r="K11">
+        <v>312203.12</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-2859.5</v>
+      </c>
+      <c r="M11">
+        <v>-0.91590000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44424</v>
+      </c>
+      <c r="J12" s="1">
+        <v>403321.06</v>
+      </c>
+      <c r="K12">
+        <v>303182</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-3462</v>
+      </c>
+      <c r="M12">
+        <v>-1.1418999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44425</v>
+      </c>
+      <c r="J13" s="1">
+        <v>395314.64</v>
+      </c>
+      <c r="K13">
+        <v>289618</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-7968.9</v>
+      </c>
+      <c r="M13">
+        <v>-2.7515000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44426</v>
+      </c>
+      <c r="J14" s="1">
+        <v>396758.63</v>
+      </c>
+      <c r="K14">
+        <v>245890</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1536</v>
+      </c>
+      <c r="M14">
+        <v>0.62470000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44427</v>
+      </c>
+      <c r="J15" s="1">
+        <v>317723.65999999997</v>
+      </c>
+      <c r="K15">
+        <v>247268.36</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1421.5</v>
+      </c>
+      <c r="M15">
+        <v>0.57489999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44428</v>
+      </c>
+      <c r="J16" s="1">
+        <v>353767.54</v>
+      </c>
+      <c r="K16">
+        <v>285639.59999999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-4326.3999999999996</v>
+      </c>
+      <c r="M16">
+        <v>-1.5145999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44431</v>
+      </c>
+      <c r="J17" s="1">
+        <v>260975.73</v>
+      </c>
+      <c r="K17">
+        <v>218346.4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>7254.8</v>
+      </c>
+      <c r="M17">
+        <v>3.3226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44432</v>
+      </c>
+      <c r="J18" s="1">
+        <v>238907.54</v>
+      </c>
+      <c r="K18">
+        <v>198768.7</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4851.3</v>
+      </c>
+      <c r="M18">
+        <v>2.4407000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44433</v>
+      </c>
+      <c r="J19" s="1">
+        <v>367314.17</v>
+      </c>
+      <c r="K19">
+        <v>165377.5</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1569.8</v>
+      </c>
+      <c r="M19">
+        <v>0.94920000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44434</v>
+      </c>
+      <c r="J20" s="1">
+        <v>219219.5</v>
+      </c>
+      <c r="K20">
+        <v>183110.91</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-2242</v>
+      </c>
+      <c r="M20">
+        <v>-1.2243999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44435</v>
+      </c>
+      <c r="J21" s="1">
+        <v>354935.94</v>
+      </c>
+      <c r="K21">
+        <v>236698</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1110</v>
+      </c>
+      <c r="M21">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44438</v>
+      </c>
+      <c r="J22" s="1">
+        <v>291161.09000000003</v>
+      </c>
+      <c r="K22">
+        <v>268589.53000000003</v>
+      </c>
+      <c r="L22" s="1">
+        <v>720</v>
+      </c>
+      <c r="M22">
+        <v>0.2681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44439</v>
+      </c>
+      <c r="J23" s="1">
+        <v>365933.92</v>
+      </c>
+      <c r="K23">
+        <v>229250</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-818.5</v>
+      </c>
+      <c r="M23">
+        <v>-0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="J24" s="1">
+        <f>AVERAGE(J2:J23)</f>
+        <v>362022.2131818182</v>
+      </c>
+      <c r="K24" s="1">
+        <f>AVERAGE(K2:K23)</f>
+        <v>251652.35045454549</v>
+      </c>
+      <c r="L24" s="1">
+        <f>SUM(L2:L23)</f>
+        <v>-8005.0000000000036</v>
+      </c>
+      <c r="M24" s="5">
+        <f>L24/K24*100</f>
+        <v>-3.1809756537306417</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44438</v>
+      </c>
+      <c r="J2" s="1">
+        <v>291161.09000000003</v>
+      </c>
+      <c r="K2">
+        <v>268589.53000000003</v>
+      </c>
+      <c r="L2" s="1">
+        <v>720</v>
+      </c>
+      <c r="M2">
+        <v>0.2681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44439</v>
+      </c>
+      <c r="J3" s="1">
+        <v>365933.92</v>
+      </c>
+      <c r="K3">
+        <v>229250</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-818.5</v>
+      </c>
+      <c r="M3">
+        <v>-0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44440</v>
+      </c>
+      <c r="J4" s="1">
+        <v>367517.73</v>
+      </c>
+      <c r="K4">
+        <v>235760</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1636.5</v>
+      </c>
+      <c r="M4">
+        <v>0.69410000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44441</v>
+      </c>
+      <c r="J5" s="1">
+        <v>317929.12</v>
+      </c>
+      <c r="K5">
+        <v>256454.57</v>
+      </c>
+      <c r="L5" s="1">
+        <v>747.5</v>
+      </c>
+      <c r="M5">
+        <v>0.29149999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44442</v>
+      </c>
+      <c r="J6" s="1">
+        <v>358800.82</v>
+      </c>
+      <c r="K6">
+        <v>253946</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1575.9</v>
+      </c>
+      <c r="M6">
+        <v>-0.62060000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>340268.53599999996</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>248800.02000000002</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>709.59999999999991</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>0.28520898028866709</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44431</v>
+      </c>
+      <c r="J2" s="1">
+        <v>260975.73</v>
+      </c>
+      <c r="K2">
+        <v>218346.4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>7254.8</v>
+      </c>
+      <c r="M2">
+        <v>3.3226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44432</v>
+      </c>
+      <c r="J3" s="1">
+        <v>238907.54</v>
+      </c>
+      <c r="K3">
+        <v>198768.7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4851.3</v>
+      </c>
+      <c r="M3">
+        <v>2.4407000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44433</v>
+      </c>
+      <c r="J4" s="1">
+        <v>367314.17</v>
+      </c>
+      <c r="K4">
+        <v>165377.5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1569.8</v>
+      </c>
+      <c r="M4">
+        <v>0.94920000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44434</v>
+      </c>
+      <c r="J5" s="1">
+        <v>219219.5</v>
+      </c>
+      <c r="K5">
+        <v>183110.91</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-2242</v>
+      </c>
+      <c r="M5">
+        <v>-1.2243999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44435</v>
+      </c>
+      <c r="J6" s="1">
+        <v>354935.94</v>
+      </c>
+      <c r="K6">
+        <v>236698</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1110</v>
+      </c>
+      <c r="M6">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>288270.576</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>200460.302</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>12543.9</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>6.2575481902646235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -10309,7 +11670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -10475,7 +11836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -10639,813 +12000,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44378</v>
-      </c>
-      <c r="J2" s="1">
-        <v>400968.2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>221650.6</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-3191.21</v>
-      </c>
-      <c r="M2" s="5">
-        <v>-1.4145000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44379</v>
-      </c>
-      <c r="J3" s="1">
-        <v>394703.57</v>
-      </c>
-      <c r="K3">
-        <v>282622.7</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-6272.86</v>
-      </c>
-      <c r="M3">
-        <v>-2.2845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44382</v>
-      </c>
-      <c r="J4" s="1">
-        <v>395945.96</v>
-      </c>
-      <c r="K4">
-        <v>190776</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1045.7</v>
-      </c>
-      <c r="M4">
-        <v>0.54810000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44383</v>
-      </c>
-      <c r="J5" s="1">
-        <v>392945.76</v>
-      </c>
-      <c r="K5">
-        <v>321998</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-2720.9</v>
-      </c>
-      <c r="M5">
-        <v>-0.84499999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44384</v>
-      </c>
-      <c r="J6" s="1">
-        <v>401240.56</v>
-      </c>
-      <c r="K6">
-        <v>264214.08</v>
-      </c>
-      <c r="L6" s="1">
-        <v>8335</v>
-      </c>
-      <c r="M6">
-        <v>3.1545999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6">
-        <v>44385</v>
-      </c>
-      <c r="J7" s="1">
-        <v>400854.3</v>
-      </c>
-      <c r="K7">
-        <v>298343.01</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-344.6</v>
-      </c>
-      <c r="M7">
-        <v>-0.11550000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6">
-        <v>44386</v>
-      </c>
-      <c r="J8" s="1">
-        <v>358039.83</v>
-      </c>
-      <c r="K8">
-        <v>299620.11</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1353</v>
-      </c>
-      <c r="M8">
-        <v>0.4516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6">
-        <v>44389</v>
-      </c>
-      <c r="J9" s="1">
-        <v>399553.09</v>
-      </c>
-      <c r="K9">
-        <v>315114</v>
-      </c>
-      <c r="L9" s="1">
-        <v>7444</v>
-      </c>
-      <c r="M9">
-        <v>2.3622999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6">
-        <v>44390</v>
-      </c>
-      <c r="J10" s="1">
-        <v>398533.05</v>
-      </c>
-      <c r="K10">
-        <v>266844</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-975</v>
-      </c>
-      <c r="M10">
-        <v>-0.3654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6">
-        <v>44391</v>
-      </c>
-      <c r="J11" s="1">
-        <v>395001.88</v>
-      </c>
-      <c r="K11">
-        <v>236228</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-3479</v>
-      </c>
-      <c r="M11">
-        <v>-1.4726999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6">
-        <v>44392</v>
-      </c>
-      <c r="J12" s="1">
-        <v>398680.85</v>
-      </c>
-      <c r="K12">
-        <v>178125</v>
-      </c>
-      <c r="L12" s="1">
-        <v>3721</v>
-      </c>
-      <c r="M12">
-        <v>2.089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6">
-        <v>44393</v>
-      </c>
-      <c r="J13" s="1">
-        <v>215638.8</v>
-      </c>
-      <c r="K13">
-        <v>181630.1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-6398</v>
-      </c>
-      <c r="M13">
-        <v>-3.5225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6">
-        <v>44396</v>
-      </c>
-      <c r="J14" s="1">
-        <v>391461.52</v>
-      </c>
-      <c r="K14">
-        <v>346936</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-735.7</v>
-      </c>
-      <c r="M14">
-        <v>-0.21210000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6">
-        <v>44397</v>
-      </c>
-      <c r="J15" s="1">
-        <v>381325.07</v>
-      </c>
-      <c r="K15">
-        <v>241558</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-86</v>
-      </c>
-      <c r="M15">
-        <v>-3.56E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6">
-        <v>44398</v>
-      </c>
-      <c r="J16" s="1">
-        <v>385281.95</v>
-      </c>
-      <c r="K16">
-        <v>248832</v>
-      </c>
-      <c r="L16" s="1">
-        <v>3968</v>
-      </c>
-      <c r="M16">
-        <v>1.5947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44399</v>
-      </c>
-      <c r="J17" s="1">
-        <v>350182.62</v>
-      </c>
-      <c r="K17">
-        <v>260244.58</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1428</v>
-      </c>
-      <c r="M17">
-        <v>0.54869999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6">
-        <v>44400</v>
-      </c>
-      <c r="J18" s="1">
-        <v>321329.03999999998</v>
-      </c>
-      <c r="K18">
-        <v>291717.36</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-5033</v>
-      </c>
-      <c r="M18">
-        <v>-1.7253000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44403</v>
-      </c>
-      <c r="J19" s="1">
-        <v>346532.81</v>
-      </c>
-      <c r="K19">
-        <v>341191.62</v>
-      </c>
-      <c r="L19" s="1">
-        <v>-10790</v>
-      </c>
-      <c r="M19">
-        <v>-3.1623999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>44404</v>
-      </c>
-      <c r="J20" s="1">
-        <v>350194.88</v>
-      </c>
-      <c r="K20">
-        <v>248836.5</v>
-      </c>
-      <c r="L20" s="1">
-        <v>-10497.8</v>
-      </c>
-      <c r="M20">
-        <v>-4.2187999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44405</v>
-      </c>
-      <c r="J21" s="1">
-        <v>297302.5</v>
-      </c>
-      <c r="K21">
-        <v>257045.36</v>
-      </c>
-      <c r="L21" s="1">
-        <v>-1756.7</v>
-      </c>
-      <c r="M21">
-        <v>-0.68340000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44406</v>
-      </c>
-      <c r="J22" s="1">
-        <v>435117.81</v>
-      </c>
-      <c r="K22">
-        <v>278202.5</v>
-      </c>
-      <c r="L22" s="1">
-        <v>16747</v>
-      </c>
-      <c r="M22">
-        <v>6.0197000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6">
-        <v>44407</v>
-      </c>
-      <c r="J23" s="1">
-        <v>411503.17</v>
-      </c>
-      <c r="K23">
-        <v>287799.21000000002</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-360</v>
-      </c>
-      <c r="M23">
-        <v>-0.12509999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6"/>
-      <c r="B24">
-        <f>SUM(B7:B11)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f>SUM(F7:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f>SUM(G7:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f>SUM(H7:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <f>AVERAGE(J2:J23)</f>
-        <v>373742.60090909083</v>
-      </c>
-      <c r="K24" s="1">
-        <f>AVERAGE(K2:K23)</f>
-        <v>266342.21500000003</v>
-      </c>
-      <c r="L24" s="1">
-        <f>SUM(L2:L23)</f>
-        <v>-8599.07</v>
-      </c>
-      <c r="M24" s="5">
-        <f>L24/K24*100</f>
-        <v>-3.2285794424289813</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44403</v>
-      </c>
-      <c r="J2" s="1">
-        <v>346532.81</v>
-      </c>
-      <c r="K2">
-        <v>341191.62</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-10790</v>
-      </c>
-      <c r="M2">
-        <v>-3.1623999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44404</v>
-      </c>
-      <c r="J3" s="1">
-        <v>350194.88</v>
-      </c>
-      <c r="K3">
-        <v>248836.5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-10497.8</v>
-      </c>
-      <c r="M3">
-        <v>-4.2187999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44405</v>
-      </c>
-      <c r="J4" s="1">
-        <v>297302.5</v>
-      </c>
-      <c r="K4">
-        <v>257045.36</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1756.7</v>
-      </c>
-      <c r="M4">
-        <v>-0.68340000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44406</v>
-      </c>
-      <c r="J5" s="1">
-        <v>435117.81</v>
-      </c>
-      <c r="K5">
-        <v>278202.5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>16747</v>
-      </c>
-      <c r="M5">
-        <v>6.0197000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44407</v>
-      </c>
-      <c r="J6" s="1">
-        <v>411503.17</v>
-      </c>
-      <c r="K6">
-        <v>287799.21000000002</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-360</v>
-      </c>
-      <c r="M6">
-        <v>-0.12509999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>368130.234</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>282615.038</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-6657.5</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-2.3556779027448638</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44396</v>
-      </c>
-      <c r="J2" s="1">
-        <v>391461.52</v>
-      </c>
-      <c r="K2">
-        <v>346936</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-735.7</v>
-      </c>
-      <c r="M2">
-        <v>-0.21210000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44397</v>
-      </c>
-      <c r="J3" s="1">
-        <v>381325.07</v>
-      </c>
-      <c r="K3">
-        <v>241558</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-86</v>
-      </c>
-      <c r="M3">
-        <v>-3.56E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44398</v>
-      </c>
-      <c r="J4" s="1">
-        <v>385281.95</v>
-      </c>
-      <c r="K4">
-        <v>248832</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3968</v>
-      </c>
-      <c r="M4">
-        <v>1.5947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44399</v>
-      </c>
-      <c r="J5" s="1">
-        <v>350182.62</v>
-      </c>
-      <c r="K5">
-        <v>260244.58</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1428</v>
-      </c>
-      <c r="M5">
-        <v>0.54869999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44400</v>
-      </c>
-      <c r="J6" s="1">
-        <v>321329.03999999998</v>
-      </c>
-      <c r="K6">
-        <v>291717.36</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-5033</v>
-      </c>
-      <c r="M6">
-        <v>-1.7253000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>365916.04000000004</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>277857.58799999999</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-458.69999999999982</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-0.16508456843006922</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,47 +4,48 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="9A" sheetId="57" r:id="rId1"/>
-    <sheet name="92" sheetId="58" r:id="rId2"/>
-    <sheet name="91" sheetId="56" r:id="rId3"/>
-    <sheet name="8A" sheetId="53" r:id="rId4"/>
-    <sheet name="85" sheetId="55" r:id="rId5"/>
-    <sheet name="84" sheetId="54" r:id="rId6"/>
-    <sheet name="83" sheetId="52" r:id="rId7"/>
-    <sheet name="82" sheetId="51" r:id="rId8"/>
-    <sheet name="81" sheetId="50" r:id="rId9"/>
-    <sheet name="7A" sheetId="48" r:id="rId10"/>
-    <sheet name="75" sheetId="49" r:id="rId11"/>
-    <sheet name="74" sheetId="47" r:id="rId12"/>
-    <sheet name="73" sheetId="46" r:id="rId13"/>
-    <sheet name="72" sheetId="45" r:id="rId14"/>
-    <sheet name="71" sheetId="44" r:id="rId15"/>
-    <sheet name="65" sheetId="43" r:id="rId16"/>
-    <sheet name="6A" sheetId="40" r:id="rId17"/>
-    <sheet name="64" sheetId="42" r:id="rId18"/>
-    <sheet name="63" sheetId="41" r:id="rId19"/>
-    <sheet name="62" sheetId="39" r:id="rId20"/>
-    <sheet name="61" sheetId="38" r:id="rId21"/>
-    <sheet name="5" sheetId="37" r:id="rId22"/>
-    <sheet name="2104" sheetId="36" r:id="rId23"/>
-    <sheet name="2103" sheetId="33" r:id="rId24"/>
-    <sheet name="2102" sheetId="31" r:id="rId25"/>
-    <sheet name="2101" sheetId="26" r:id="rId26"/>
-    <sheet name="每月" sheetId="29" r:id="rId27"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId28"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId29"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId30"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId31"/>
+    <sheet name="93" sheetId="59" r:id="rId1"/>
+    <sheet name="9A" sheetId="57" r:id="rId2"/>
+    <sheet name="92" sheetId="58" r:id="rId3"/>
+    <sheet name="91" sheetId="56" r:id="rId4"/>
+    <sheet name="8A" sheetId="53" r:id="rId5"/>
+    <sheet name="85" sheetId="55" r:id="rId6"/>
+    <sheet name="84" sheetId="54" r:id="rId7"/>
+    <sheet name="83" sheetId="52" r:id="rId8"/>
+    <sheet name="82" sheetId="51" r:id="rId9"/>
+    <sheet name="81" sheetId="50" r:id="rId10"/>
+    <sheet name="7A" sheetId="48" r:id="rId11"/>
+    <sheet name="75" sheetId="49" r:id="rId12"/>
+    <sheet name="74" sheetId="47" r:id="rId13"/>
+    <sheet name="73" sheetId="46" r:id="rId14"/>
+    <sheet name="72" sheetId="45" r:id="rId15"/>
+    <sheet name="71" sheetId="44" r:id="rId16"/>
+    <sheet name="65" sheetId="43" r:id="rId17"/>
+    <sheet name="6A" sheetId="40" r:id="rId18"/>
+    <sheet name="64" sheetId="42" r:id="rId19"/>
+    <sheet name="63" sheetId="41" r:id="rId20"/>
+    <sheet name="62" sheetId="39" r:id="rId21"/>
+    <sheet name="61" sheetId="38" r:id="rId22"/>
+    <sheet name="5" sheetId="37" r:id="rId23"/>
+    <sheet name="2104" sheetId="36" r:id="rId24"/>
+    <sheet name="2103" sheetId="33" r:id="rId25"/>
+    <sheet name="2102" sheetId="31" r:id="rId26"/>
+    <sheet name="2101" sheetId="26" r:id="rId27"/>
+    <sheet name="每月" sheetId="29" r:id="rId28"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId29"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId30"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId31"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId32"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1750,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1806,156 +1807,71 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44440</v>
+        <v>44461</v>
       </c>
       <c r="J2" s="1">
-        <v>367517.73</v>
+        <v>364068.29</v>
       </c>
       <c r="K2">
-        <v>235760</v>
+        <v>267125</v>
       </c>
       <c r="L2" s="1">
-        <v>1636.5</v>
+        <v>-1035.3</v>
       </c>
       <c r="M2">
-        <v>0.69410000000000005</v>
+        <v>-0.3876</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44441</v>
+        <v>44462</v>
       </c>
       <c r="J3" s="1">
-        <v>317929.12</v>
+        <v>356036.91</v>
       </c>
       <c r="K3">
-        <v>256454.57</v>
+        <v>224443</v>
       </c>
       <c r="L3" s="1">
-        <v>747.5</v>
+        <v>536.5</v>
       </c>
       <c r="M3">
-        <v>0.29149999999999998</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44442</v>
+        <v>44463</v>
       </c>
       <c r="J4" s="1">
-        <v>358800.82</v>
+        <v>352780.53</v>
       </c>
       <c r="K4">
-        <v>253946</v>
+        <v>251107.21</v>
       </c>
       <c r="L4" s="1">
-        <v>-1575.9</v>
+        <v>-1849</v>
       </c>
       <c r="M4">
-        <v>-0.62060000000000004</v>
+        <v>-0.73629999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44445</v>
-      </c>
       <c r="J5" s="1">
-        <v>361852.28</v>
-      </c>
-      <c r="K5">
-        <v>264602.5</v>
+        <f>AVERAGE(J2:J4)</f>
+        <v>357628.57666666666</v>
+      </c>
+      <c r="K5" s="1">
+        <f>AVERAGE(K2:K4)</f>
+        <v>247558.40333333332</v>
       </c>
       <c r="L5" s="1">
-        <v>3461.5</v>
-      </c>
-      <c r="M5">
-        <v>1.3082</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44446</v>
-      </c>
-      <c r="J6" s="1">
-        <v>372951.23</v>
-      </c>
-      <c r="K6">
-        <v>191255</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3021</v>
-      </c>
-      <c r="M6">
-        <v>1.5795999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6">
-        <v>44447</v>
-      </c>
-      <c r="J7" s="1">
-        <v>347440.9</v>
-      </c>
-      <c r="K7">
-        <v>209946.1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-1293</v>
-      </c>
-      <c r="M7">
-        <v>-0.6159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6">
-        <v>44448</v>
-      </c>
-      <c r="J8" s="1">
-        <v>373576.8</v>
-      </c>
-      <c r="K8">
-        <v>260258</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1944.3</v>
-      </c>
-      <c r="M8">
-        <v>0.74709999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6">
-        <v>44449</v>
-      </c>
-      <c r="J9" s="1">
-        <v>361293.45</v>
-      </c>
-      <c r="K9">
-        <v>282141.32</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1932</v>
-      </c>
-      <c r="M9">
-        <v>0.68479999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="J10" s="1">
-        <f>AVERAGE(J2:J9)</f>
-        <v>357670.29125000001</v>
-      </c>
-      <c r="K10" s="1">
-        <f>AVERAGE(K2:K9)</f>
-        <v>244295.43625000003</v>
-      </c>
-      <c r="L10" s="1">
-        <f>SUM(L2:L9)</f>
-        <v>9873.9000000000015</v>
-      </c>
-      <c r="M10" s="5">
-        <f>L10/K10*100</f>
-        <v>4.0417865153631176</v>
+        <f>SUM(L2:L4)</f>
+        <v>-2347.8000000000002</v>
+      </c>
+      <c r="M5" s="5">
+        <f>L5/K5*100</f>
+        <v>-0.94838226793647806</v>
       </c>
     </row>
   </sheetData>
@@ -1966,6 +1882,172 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44410</v>
+      </c>
+      <c r="J2" s="1">
+        <v>392126.02</v>
+      </c>
+      <c r="K2">
+        <v>320852.71999999997</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-29.6</v>
+      </c>
+      <c r="M2">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44411</v>
+      </c>
+      <c r="J3" s="1">
+        <v>428982.28</v>
+      </c>
+      <c r="K3">
+        <v>216964</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-5543</v>
+      </c>
+      <c r="M3">
+        <v>-2.5548000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44412</v>
+      </c>
+      <c r="J4" s="1">
+        <v>407773.25</v>
+      </c>
+      <c r="K4">
+        <v>157353</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2844</v>
+      </c>
+      <c r="M4">
+        <v>1.8073999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44413</v>
+      </c>
+      <c r="J5" s="1">
+        <v>383514.64</v>
+      </c>
+      <c r="K5">
+        <v>190161.02</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1180</v>
+      </c>
+      <c r="M5">
+        <v>-0.62050000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44414</v>
+      </c>
+      <c r="J6" s="1">
+        <v>398314.84</v>
+      </c>
+      <c r="K6">
+        <v>247438.86</v>
+      </c>
+      <c r="L6" s="1">
+        <v>218.8</v>
+      </c>
+      <c r="M6">
+        <v>8.8400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>402142.20600000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>226553.92</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-3689.8</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-1.6286630573419343</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -2433,172 +2515,6 @@
       <c r="M24" s="5">
         <f>L24/K24*100</f>
         <v>-3.2285794424289813</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44403</v>
-      </c>
-      <c r="J2" s="1">
-        <v>346532.81</v>
-      </c>
-      <c r="K2">
-        <v>341191.62</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-10790</v>
-      </c>
-      <c r="M2">
-        <v>-3.1623999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44404</v>
-      </c>
-      <c r="J3" s="1">
-        <v>350194.88</v>
-      </c>
-      <c r="K3">
-        <v>248836.5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-10497.8</v>
-      </c>
-      <c r="M3">
-        <v>-4.2187999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44405</v>
-      </c>
-      <c r="J4" s="1">
-        <v>297302.5</v>
-      </c>
-      <c r="K4">
-        <v>257045.36</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1756.7</v>
-      </c>
-      <c r="M4">
-        <v>-0.68340000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44406</v>
-      </c>
-      <c r="J5" s="1">
-        <v>435117.81</v>
-      </c>
-      <c r="K5">
-        <v>278202.5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>16747</v>
-      </c>
-      <c r="M5">
-        <v>6.0197000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44407</v>
-      </c>
-      <c r="J6" s="1">
-        <v>411503.17</v>
-      </c>
-      <c r="K6">
-        <v>287799.21000000002</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-360</v>
-      </c>
-      <c r="M6">
-        <v>-0.12509999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>368130.234</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>282615.038</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-6657.5</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-2.3556779027448638</v>
       </c>
     </row>
   </sheetData>
@@ -2666,105 +2582,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="J2" s="1">
-        <v>391461.52</v>
+        <v>346532.81</v>
       </c>
       <c r="K2">
-        <v>346936</v>
+        <v>341191.62</v>
       </c>
       <c r="L2" s="1">
-        <v>-735.7</v>
+        <v>-10790</v>
       </c>
       <c r="M2">
-        <v>-0.21210000000000001</v>
+        <v>-3.1623999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44397</v>
+        <v>44404</v>
       </c>
       <c r="J3" s="1">
-        <v>381325.07</v>
+        <v>350194.88</v>
       </c>
       <c r="K3">
-        <v>241558</v>
+        <v>248836.5</v>
       </c>
       <c r="L3" s="1">
-        <v>-86</v>
+        <v>-10497.8</v>
       </c>
       <c r="M3">
-        <v>-3.56E-2</v>
+        <v>-4.2187999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="J4" s="1">
-        <v>385281.95</v>
+        <v>297302.5</v>
       </c>
       <c r="K4">
-        <v>248832</v>
+        <v>257045.36</v>
       </c>
       <c r="L4" s="1">
-        <v>3968</v>
+        <v>-1756.7</v>
       </c>
       <c r="M4">
-        <v>1.5947</v>
+        <v>-0.68340000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44399</v>
+        <v>44406</v>
       </c>
       <c r="J5" s="1">
-        <v>350182.62</v>
+        <v>435117.81</v>
       </c>
       <c r="K5">
-        <v>260244.58</v>
+        <v>278202.5</v>
       </c>
       <c r="L5" s="1">
-        <v>1428</v>
+        <v>16747</v>
       </c>
       <c r="M5">
-        <v>0.54869999999999997</v>
+        <v>6.0197000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44400</v>
+        <v>44407</v>
       </c>
       <c r="J6" s="1">
-        <v>321329.03999999998</v>
+        <v>411503.17</v>
       </c>
       <c r="K6">
-        <v>291717.36</v>
+        <v>287799.21000000002</v>
       </c>
       <c r="L6" s="1">
-        <v>-5033</v>
+        <v>-360</v>
       </c>
       <c r="M6">
-        <v>-1.7253000000000001</v>
+        <v>-0.12509999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>365916.04000000004</v>
+        <v>368130.234</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>277857.58799999999</v>
+        <v>282615.038</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-458.69999999999982</v>
+        <v>-6657.5</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-0.16508456843006922</v>
+        <v>-2.3556779027448638</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2695,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="J7" sqref="J7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2832,105 +2748,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="J2" s="1">
-        <v>399553.09</v>
+        <v>391461.52</v>
       </c>
       <c r="K2">
-        <v>315114</v>
+        <v>346936</v>
       </c>
       <c r="L2" s="1">
-        <v>7444</v>
+        <v>-735.7</v>
       </c>
       <c r="M2">
-        <v>2.3622999999999998</v>
+        <v>-0.21210000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44390</v>
+        <v>44397</v>
       </c>
       <c r="J3" s="1">
-        <v>398533.05</v>
+        <v>381325.07</v>
       </c>
       <c r="K3">
-        <v>266844</v>
+        <v>241558</v>
       </c>
       <c r="L3" s="1">
-        <v>-975</v>
+        <v>-86</v>
       </c>
       <c r="M3">
-        <v>-0.3654</v>
+        <v>-3.56E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="J4" s="1">
-        <v>395001.88</v>
+        <v>385281.95</v>
       </c>
       <c r="K4">
-        <v>236228</v>
+        <v>248832</v>
       </c>
       <c r="L4" s="1">
-        <v>-3479</v>
+        <v>3968</v>
       </c>
       <c r="M4">
-        <v>-1.4726999999999999</v>
+        <v>1.5947</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44392</v>
+        <v>44399</v>
       </c>
       <c r="J5" s="1">
-        <v>398680.85</v>
+        <v>350182.62</v>
       </c>
       <c r="K5">
-        <v>178125</v>
+        <v>260244.58</v>
       </c>
       <c r="L5" s="1">
-        <v>3721</v>
+        <v>1428</v>
       </c>
       <c r="M5">
-        <v>2.089</v>
+        <v>0.54869999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44393</v>
+        <v>44400</v>
       </c>
       <c r="J6" s="1">
-        <v>215638.8</v>
+        <v>321329.03999999998</v>
       </c>
       <c r="K6">
-        <v>181630.1</v>
+        <v>291717.36</v>
       </c>
       <c r="L6" s="1">
-        <v>-6398</v>
+        <v>-5033</v>
       </c>
       <c r="M6">
-        <v>-3.5225</v>
+        <v>-1.7253000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>361481.53400000004</v>
+        <v>365916.04000000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>235588.22000000003</v>
+        <v>277857.58799999999</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>313</v>
+        <v>-458.69999999999982</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>0.13285893496712184</v>
+        <v>-0.16508456843006922</v>
       </c>
     </row>
   </sheetData>
@@ -2998,105 +2914,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="J2" s="1">
-        <v>395945.96</v>
+        <v>399553.09</v>
       </c>
       <c r="K2">
-        <v>190776</v>
+        <v>315114</v>
       </c>
       <c r="L2" s="1">
-        <v>1045.7</v>
+        <v>7444</v>
       </c>
       <c r="M2">
-        <v>0.54810000000000003</v>
+        <v>2.3622999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="J3" s="1">
-        <v>392945.76</v>
+        <v>398533.05</v>
       </c>
       <c r="K3">
-        <v>321998</v>
+        <v>266844</v>
       </c>
       <c r="L3" s="1">
-        <v>-2720.9</v>
+        <v>-975</v>
       </c>
       <c r="M3">
-        <v>-0.84499999999999997</v>
+        <v>-0.3654</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44384</v>
+        <v>44391</v>
       </c>
       <c r="J4" s="1">
-        <v>401240.56</v>
+        <v>395001.88</v>
       </c>
       <c r="K4">
-        <v>264214.08</v>
+        <v>236228</v>
       </c>
       <c r="L4" s="1">
-        <v>8335</v>
+        <v>-3479</v>
       </c>
       <c r="M4">
-        <v>3.1545999999999998</v>
+        <v>-1.4726999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44385</v>
+        <v>44392</v>
       </c>
       <c r="J5" s="1">
-        <v>400854.3</v>
+        <v>398680.85</v>
       </c>
       <c r="K5">
-        <v>298343.01</v>
+        <v>178125</v>
       </c>
       <c r="L5" s="1">
-        <v>-344.6</v>
+        <v>3721</v>
       </c>
       <c r="M5">
-        <v>-0.11550000000000001</v>
+        <v>2.089</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44386</v>
+        <v>44393</v>
       </c>
       <c r="J6" s="1">
-        <v>358039.83</v>
+        <v>215638.8</v>
       </c>
       <c r="K6">
-        <v>299620.11</v>
+        <v>181630.1</v>
       </c>
       <c r="L6" s="1">
-        <v>1353</v>
+        <v>-6398</v>
       </c>
       <c r="M6">
-        <v>0.4516</v>
+        <v>-3.5225</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>389805.28200000001</v>
+        <v>361481.53400000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>274990.24000000005</v>
+        <v>235588.22000000003</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>7668.2</v>
+        <v>313</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>2.7885353312903027</v>
+        <v>0.13285893496712184</v>
       </c>
     </row>
   </sheetData>
@@ -3107,6 +3023,172 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J2" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K2">
+        <v>190776</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M2">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J3" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K3">
+        <v>321998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M3">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J4" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K4">
+        <v>264214.08</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M4">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J5" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K5">
+        <v>298343.01</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M5">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J6" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K6">
+        <v>299620.11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M6">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>389805.28200000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>274990.24000000005</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>7668.2</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>2.7885353312903027</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -3286,7 +3368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -3427,7 +3509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -3935,7 +4017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -4101,7 +4183,224 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44440</v>
+      </c>
+      <c r="J2" s="1">
+        <v>367517.73</v>
+      </c>
+      <c r="K2">
+        <v>235760</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1636.5</v>
+      </c>
+      <c r="M2">
+        <v>0.69410000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44441</v>
+      </c>
+      <c r="J3" s="1">
+        <v>317929.12</v>
+      </c>
+      <c r="K3">
+        <v>256454.57</v>
+      </c>
+      <c r="L3" s="1">
+        <v>747.5</v>
+      </c>
+      <c r="M3">
+        <v>0.29149999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44442</v>
+      </c>
+      <c r="J4" s="1">
+        <v>358800.82</v>
+      </c>
+      <c r="K4">
+        <v>253946</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1575.9</v>
+      </c>
+      <c r="M4">
+        <v>-0.62060000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44445</v>
+      </c>
+      <c r="J5" s="1">
+        <v>361852.28</v>
+      </c>
+      <c r="K5">
+        <v>264602.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3461.5</v>
+      </c>
+      <c r="M5">
+        <v>1.3082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44446</v>
+      </c>
+      <c r="J6" s="1">
+        <v>372951.23</v>
+      </c>
+      <c r="K6">
+        <v>191255</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3021</v>
+      </c>
+      <c r="M6">
+        <v>1.5795999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44447</v>
+      </c>
+      <c r="J7" s="1">
+        <v>347440.9</v>
+      </c>
+      <c r="K7">
+        <v>209946.1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-1293</v>
+      </c>
+      <c r="M7">
+        <v>-0.6159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44448</v>
+      </c>
+      <c r="J8" s="1">
+        <v>373576.8</v>
+      </c>
+      <c r="K8">
+        <v>260258</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1944.3</v>
+      </c>
+      <c r="M8">
+        <v>0.74709999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44449</v>
+      </c>
+      <c r="J9" s="1">
+        <v>361293.45</v>
+      </c>
+      <c r="K9">
+        <v>282141.32</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1932</v>
+      </c>
+      <c r="M9">
+        <v>0.68479999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="J10" s="1">
+        <f>AVERAGE(J2:J9)</f>
+        <v>357670.29125000001</v>
+      </c>
+      <c r="K10" s="1">
+        <f>AVERAGE(K2:K9)</f>
+        <v>244295.43625000003</v>
+      </c>
+      <c r="L10" s="1">
+        <f>SUM(L2:L9)</f>
+        <v>9873.9000000000015</v>
+      </c>
+      <c r="M10" s="5">
+        <f>L10/K10*100</f>
+        <v>4.0417865153631176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -4250,173 +4549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44452</v>
-      </c>
-      <c r="J2" s="1">
-        <v>368109.64</v>
-      </c>
-      <c r="K2">
-        <v>260459.5</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-2054</v>
-      </c>
-      <c r="M2">
-        <v>-0.78859999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44453</v>
-      </c>
-      <c r="J3" s="1">
-        <v>370218.14</v>
-      </c>
-      <c r="K3">
-        <v>270648.5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-3078.4</v>
-      </c>
-      <c r="M3">
-        <v>-1.1374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44454</v>
-      </c>
-      <c r="J4" s="1">
-        <v>358116.94</v>
-      </c>
-      <c r="K4">
-        <v>242750.5</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1413.5</v>
-      </c>
-      <c r="M4">
-        <v>-0.58230000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44455</v>
-      </c>
-      <c r="J5" s="1">
-        <v>353615.06</v>
-      </c>
-      <c r="K5">
-        <v>268136.81</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-5246</v>
-      </c>
-      <c r="M5">
-        <v>-1.9564999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44456</v>
-      </c>
-      <c r="J6" s="1">
-        <v>365133.37</v>
-      </c>
-      <c r="K6">
-        <v>277863</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1682</v>
-      </c>
-      <c r="M6">
-        <v>0.60529999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>363038.63</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>263971.66200000001</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-10109.9</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-3.8299186827107223</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -4582,7 +4715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -4782,7 +4915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -5651,7 +5784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -6745,7 +6878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -7923,7 +8056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -8517,7 +8650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -9435,7 +9568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -9945,7 +10078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -10122,128 +10255,6 @@
       <c r="E9">
         <f t="shared" si="1"/>
         <v>1468.404</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="5" max="5" width="12.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>861.52</v>
-      </c>
-      <c r="D2">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E2" s="8">
-        <f>D2*C2</f>
-        <v>961.45632000000012</v>
-      </c>
-      <c r="F2" s="9">
-        <f>E2-B2</f>
-        <v>-38.543679999999881</v>
-      </c>
-      <c r="H2">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-      <c r="I2">
-        <f>H2*C2</f>
-        <v>5.41256299844183</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3">
-        <v>2000</v>
-      </c>
-      <c r="C3">
-        <v>1744.1</v>
-      </c>
-      <c r="D3">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3" si="0">D3*C3</f>
-        <v>1946.4156</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3" si="1">E3-B3</f>
-        <v>-53.58439999999996</v>
-      </c>
-      <c r="H3">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3" si="2">H3*C3</f>
-        <v>10.957437001558171</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="E4" s="8"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="C6">
-        <f>SUM(C2:C4)</f>
-        <v>2605.62</v>
-      </c>
-      <c r="D6">
-        <v>3.3831000000000002</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" ref="E6" si="3">D6*C6</f>
-        <v>8815.0730220000005</v>
-      </c>
-      <c r="F6" s="9">
-        <v>16.37</v>
-      </c>
-      <c r="H6">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
       </c>
     </row>
   </sheetData>
@@ -10311,105 +10322,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44445</v>
+        <v>44452</v>
       </c>
       <c r="J2" s="1">
-        <v>361852.28</v>
+        <v>368109.64</v>
       </c>
       <c r="K2">
-        <v>264602.5</v>
+        <v>260459.5</v>
       </c>
       <c r="L2" s="1">
-        <v>3461.5</v>
+        <v>-2054</v>
       </c>
       <c r="M2">
-        <v>1.3082</v>
+        <v>-0.78859999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44446</v>
+        <v>44453</v>
       </c>
       <c r="J3" s="1">
-        <v>372951.23</v>
+        <v>370218.14</v>
       </c>
       <c r="K3">
-        <v>191255</v>
+        <v>270648.5</v>
       </c>
       <c r="L3" s="1">
-        <v>3021</v>
+        <v>-3078.4</v>
       </c>
       <c r="M3">
-        <v>1.5795999999999999</v>
+        <v>-1.1374</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="J4" s="1">
-        <v>347440.9</v>
+        <v>358116.94</v>
       </c>
       <c r="K4">
-        <v>209946.1</v>
+        <v>242750.5</v>
       </c>
       <c r="L4" s="1">
-        <v>-1293</v>
+        <v>-1413.5</v>
       </c>
       <c r="M4">
-        <v>-0.6159</v>
+        <v>-0.58230000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44448</v>
+        <v>44455</v>
       </c>
       <c r="J5" s="1">
-        <v>373576.8</v>
+        <v>353615.06</v>
       </c>
       <c r="K5">
-        <v>260258</v>
+        <v>268136.81</v>
       </c>
       <c r="L5" s="1">
-        <v>1944.3</v>
+        <v>-5246</v>
       </c>
       <c r="M5">
-        <v>0.74709999999999999</v>
+        <v>-1.9564999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44449</v>
+        <v>44456</v>
       </c>
       <c r="J6" s="1">
-        <v>361293.45</v>
+        <v>365133.37</v>
       </c>
       <c r="K6">
-        <v>282141.32</v>
+        <v>277863</v>
       </c>
       <c r="L6" s="1">
-        <v>1932</v>
+        <v>1682</v>
       </c>
       <c r="M6">
-        <v>0.68479999999999996</v>
+        <v>0.60529999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>363422.93200000003</v>
+        <v>363038.63</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>241640.58399999997</v>
+        <v>263971.66200000001</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>9065.7999999999993</v>
+        <v>-10109.9</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>3.7517704393563291</v>
+        <v>-3.8299186827107223</v>
       </c>
     </row>
   </sheetData>
@@ -10420,6 +10431,128 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="5" max="5" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>861.52</v>
+      </c>
+      <c r="D2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E2" s="8">
+        <f>D2*C2</f>
+        <v>961.45632000000012</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2-B2</f>
+        <v>-38.543679999999881</v>
+      </c>
+      <c r="H2">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I2">
+        <f>H2*C2</f>
+        <v>5.41256299844183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>1744.1</v>
+      </c>
+      <c r="D3">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3" si="0">D3*C3</f>
+        <v>1946.4156</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3" si="1">E3-B3</f>
+        <v>-53.58439999999996</v>
+      </c>
+      <c r="H3">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3" si="2">H3*C3</f>
+        <v>10.957437001558171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6">
+        <f>SUM(C2:C4)</f>
+        <v>2605.62</v>
+      </c>
+      <c r="D6">
+        <v>3.3831000000000002</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" ref="E6" si="3">D6*C6</f>
+        <v>8815.0730220000005</v>
+      </c>
+      <c r="F6" s="9">
+        <v>16.37</v>
+      </c>
+      <c r="H6">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -10501,7 +10634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -10718,6 +10851,172 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44445</v>
+      </c>
+      <c r="J2" s="1">
+        <v>361852.28</v>
+      </c>
+      <c r="K2">
+        <v>264602.5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3461.5</v>
+      </c>
+      <c r="M2">
+        <v>1.3082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44446</v>
+      </c>
+      <c r="J3" s="1">
+        <v>372951.23</v>
+      </c>
+      <c r="K3">
+        <v>191255</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3021</v>
+      </c>
+      <c r="M3">
+        <v>1.5795999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44447</v>
+      </c>
+      <c r="J4" s="1">
+        <v>347440.9</v>
+      </c>
+      <c r="K4">
+        <v>209946.1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1293</v>
+      </c>
+      <c r="M4">
+        <v>-0.6159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44448</v>
+      </c>
+      <c r="J5" s="1">
+        <v>373576.8</v>
+      </c>
+      <c r="K5">
+        <v>260258</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1944.3</v>
+      </c>
+      <c r="M5">
+        <v>0.74709999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44449</v>
+      </c>
+      <c r="J6" s="1">
+        <v>361293.45</v>
+      </c>
+      <c r="K6">
+        <v>282141.32</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1932</v>
+      </c>
+      <c r="M6">
+        <v>0.68479999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>363422.93200000003</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>241640.58399999997</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>9065.7999999999993</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>3.7517704393563291</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -11172,7 +11471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -11338,7 +11637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -11495,172 +11794,6 @@
       <c r="M7" s="5">
         <f>L7/K7*100</f>
         <v>6.2575481902646235</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44424</v>
-      </c>
-      <c r="J2" s="1">
-        <v>403321.06</v>
-      </c>
-      <c r="K2">
-        <v>303182</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-3462</v>
-      </c>
-      <c r="M2">
-        <v>-1.1418999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44425</v>
-      </c>
-      <c r="J3" s="1">
-        <v>395314.64</v>
-      </c>
-      <c r="K3">
-        <v>289618</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-7968.9</v>
-      </c>
-      <c r="M3">
-        <v>-2.7515000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44426</v>
-      </c>
-      <c r="J4" s="1">
-        <v>396758.63</v>
-      </c>
-      <c r="K4">
-        <v>245890</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1536</v>
-      </c>
-      <c r="M4">
-        <v>0.62470000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44427</v>
-      </c>
-      <c r="J5" s="1">
-        <v>317723.65999999997</v>
-      </c>
-      <c r="K5">
-        <v>247268.36</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1421.5</v>
-      </c>
-      <c r="M5">
-        <v>0.57489999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44428</v>
-      </c>
-      <c r="J6" s="1">
-        <v>353767.54</v>
-      </c>
-      <c r="K6">
-        <v>285639.59999999998</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-4326.3999999999996</v>
-      </c>
-      <c r="M6">
-        <v>-1.5145999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>373377.10600000003</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>274319.592</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-12799.8</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-4.6660174385211244</v>
       </c>
     </row>
   </sheetData>
@@ -11728,105 +11861,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="J2" s="1">
-        <v>354194.04</v>
+        <v>403321.06</v>
       </c>
       <c r="K2">
-        <v>279851.99</v>
+        <v>303182</v>
       </c>
       <c r="L2" s="1">
-        <v>-18.8</v>
+        <v>-3462</v>
       </c>
       <c r="M2">
-        <v>-6.7000000000000002E-3</v>
+        <v>-1.1418999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44418</v>
+        <v>44425</v>
       </c>
       <c r="J3" s="1">
-        <v>411295.97</v>
+        <v>395314.64</v>
       </c>
       <c r="K3">
-        <v>334866</v>
+        <v>289618</v>
       </c>
       <c r="L3" s="1">
-        <v>530</v>
+        <v>-7968.9</v>
       </c>
       <c r="M3">
-        <v>0.1583</v>
+        <v>-2.7515000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="J4" s="1">
-        <v>411599.88</v>
+        <v>396758.63</v>
       </c>
       <c r="K4">
-        <v>299838.5</v>
+        <v>245890</v>
       </c>
       <c r="L4" s="1">
-        <v>307.5</v>
+        <v>1536</v>
       </c>
       <c r="M4">
-        <v>0.1026</v>
+        <v>0.62470000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="J5" s="1">
-        <v>409679.53</v>
+        <v>317723.65999999997</v>
       </c>
       <c r="K5">
-        <v>305083.5</v>
+        <v>247268.36</v>
       </c>
       <c r="L5" s="1">
-        <v>-1920</v>
+        <v>1421.5</v>
       </c>
       <c r="M5">
-        <v>-0.62929999999999997</v>
+        <v>0.57489999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44421</v>
+        <v>44428</v>
       </c>
       <c r="J6" s="1">
-        <v>401674.82</v>
+        <v>353767.54</v>
       </c>
       <c r="K6">
-        <v>312203.12</v>
+        <v>285639.59999999998</v>
       </c>
       <c r="L6" s="1">
-        <v>-2859.5</v>
+        <v>-4326.3999999999996</v>
       </c>
       <c r="M6">
-        <v>-0.91590000000000005</v>
+        <v>-1.5145999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>397688.84800000006</v>
+        <v>373377.10600000003</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>306368.62199999997</v>
+        <v>274319.592</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-3960.8</v>
+        <v>-12799.8</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-1.29282169111953</v>
+        <v>-4.6660174385211244</v>
       </c>
     </row>
   </sheetData>
@@ -11894,105 +12027,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="J2" s="1">
-        <v>392126.02</v>
+        <v>354194.04</v>
       </c>
       <c r="K2">
-        <v>320852.71999999997</v>
+        <v>279851.99</v>
       </c>
       <c r="L2" s="1">
-        <v>-29.6</v>
+        <v>-18.8</v>
       </c>
       <c r="M2">
-        <v>-9.1999999999999998E-3</v>
+        <v>-6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44411</v>
+        <v>44418</v>
       </c>
       <c r="J3" s="1">
-        <v>428982.28</v>
+        <v>411295.97</v>
       </c>
       <c r="K3">
-        <v>216964</v>
+        <v>334866</v>
       </c>
       <c r="L3" s="1">
-        <v>-5543</v>
+        <v>530</v>
       </c>
       <c r="M3">
-        <v>-2.5548000000000002</v>
+        <v>0.1583</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="J4" s="1">
-        <v>407773.25</v>
+        <v>411599.88</v>
       </c>
       <c r="K4">
-        <v>157353</v>
+        <v>299838.5</v>
       </c>
       <c r="L4" s="1">
-        <v>2844</v>
+        <v>307.5</v>
       </c>
       <c r="M4">
-        <v>1.8073999999999999</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44413</v>
+        <v>44420</v>
       </c>
       <c r="J5" s="1">
-        <v>383514.64</v>
+        <v>409679.53</v>
       </c>
       <c r="K5">
-        <v>190161.02</v>
+        <v>305083.5</v>
       </c>
       <c r="L5" s="1">
-        <v>-1180</v>
+        <v>-1920</v>
       </c>
       <c r="M5">
-        <v>-0.62050000000000005</v>
+        <v>-0.62929999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44414</v>
+        <v>44421</v>
       </c>
       <c r="J6" s="1">
-        <v>398314.84</v>
+        <v>401674.82</v>
       </c>
       <c r="K6">
-        <v>247438.86</v>
+        <v>312203.12</v>
       </c>
       <c r="L6" s="1">
-        <v>218.8</v>
+        <v>-2859.5</v>
       </c>
       <c r="M6">
-        <v>8.8400000000000006E-2</v>
+        <v>-0.91590000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>402142.20600000001</v>
+        <v>397688.84800000006</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>226553.92</v>
+        <v>306368.62199999997</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-3689.8</v>
+        <v>-3960.8</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-1.6286630573419343</v>
+        <v>-1.29282169111953</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -7,45 +7,46 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="93" sheetId="59" r:id="rId1"/>
-    <sheet name="9A" sheetId="57" r:id="rId2"/>
-    <sheet name="92" sheetId="58" r:id="rId3"/>
-    <sheet name="91" sheetId="56" r:id="rId4"/>
-    <sheet name="8A" sheetId="53" r:id="rId5"/>
-    <sheet name="85" sheetId="55" r:id="rId6"/>
-    <sheet name="84" sheetId="54" r:id="rId7"/>
-    <sheet name="83" sheetId="52" r:id="rId8"/>
-    <sheet name="82" sheetId="51" r:id="rId9"/>
-    <sheet name="81" sheetId="50" r:id="rId10"/>
-    <sheet name="7A" sheetId="48" r:id="rId11"/>
-    <sheet name="75" sheetId="49" r:id="rId12"/>
-    <sheet name="74" sheetId="47" r:id="rId13"/>
-    <sheet name="73" sheetId="46" r:id="rId14"/>
-    <sheet name="72" sheetId="45" r:id="rId15"/>
-    <sheet name="71" sheetId="44" r:id="rId16"/>
-    <sheet name="65" sheetId="43" r:id="rId17"/>
-    <sheet name="6A" sheetId="40" r:id="rId18"/>
-    <sheet name="64" sheetId="42" r:id="rId19"/>
-    <sheet name="63" sheetId="41" r:id="rId20"/>
-    <sheet name="62" sheetId="39" r:id="rId21"/>
-    <sheet name="61" sheetId="38" r:id="rId22"/>
-    <sheet name="5" sheetId="37" r:id="rId23"/>
-    <sheet name="2104" sheetId="36" r:id="rId24"/>
-    <sheet name="2103" sheetId="33" r:id="rId25"/>
-    <sheet name="2102" sheetId="31" r:id="rId26"/>
-    <sheet name="2101" sheetId="26" r:id="rId27"/>
-    <sheet name="每月" sheetId="29" r:id="rId28"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId29"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId30"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId31"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId32"/>
+    <sheet name="9A" sheetId="57" r:id="rId1"/>
+    <sheet name="94" sheetId="60" r:id="rId2"/>
+    <sheet name="93" sheetId="59" r:id="rId3"/>
+    <sheet name="92" sheetId="58" r:id="rId4"/>
+    <sheet name="91" sheetId="56" r:id="rId5"/>
+    <sheet name="8A" sheetId="53" r:id="rId6"/>
+    <sheet name="85" sheetId="55" r:id="rId7"/>
+    <sheet name="84" sheetId="54" r:id="rId8"/>
+    <sheet name="83" sheetId="52" r:id="rId9"/>
+    <sheet name="82" sheetId="51" r:id="rId10"/>
+    <sheet name="81" sheetId="50" r:id="rId11"/>
+    <sheet name="7A" sheetId="48" r:id="rId12"/>
+    <sheet name="75" sheetId="49" r:id="rId13"/>
+    <sheet name="74" sheetId="47" r:id="rId14"/>
+    <sheet name="73" sheetId="46" r:id="rId15"/>
+    <sheet name="72" sheetId="45" r:id="rId16"/>
+    <sheet name="71" sheetId="44" r:id="rId17"/>
+    <sheet name="65" sheetId="43" r:id="rId18"/>
+    <sheet name="6A" sheetId="40" r:id="rId19"/>
+    <sheet name="64" sheetId="42" r:id="rId20"/>
+    <sheet name="63" sheetId="41" r:id="rId21"/>
+    <sheet name="62" sheetId="39" r:id="rId22"/>
+    <sheet name="61" sheetId="38" r:id="rId23"/>
+    <sheet name="5" sheetId="37" r:id="rId24"/>
+    <sheet name="2104" sheetId="36" r:id="rId25"/>
+    <sheet name="2103" sheetId="33" r:id="rId26"/>
+    <sheet name="2102" sheetId="31" r:id="rId27"/>
+    <sheet name="2101" sheetId="26" r:id="rId28"/>
+    <sheet name="每月" sheetId="29" r:id="rId29"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId30"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId31"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId32"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId33"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="42">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1751,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J22" sqref="J22:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1807,71 +1808,360 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44461</v>
+        <v>44440</v>
       </c>
       <c r="J2" s="1">
-        <v>364068.29</v>
+        <v>367517.73</v>
       </c>
       <c r="K2">
-        <v>267125</v>
+        <v>235760</v>
       </c>
       <c r="L2" s="1">
-        <v>-1035.3</v>
+        <v>1636.5</v>
       </c>
       <c r="M2">
-        <v>-0.3876</v>
+        <v>0.69410000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44462</v>
+        <v>44441</v>
       </c>
       <c r="J3" s="1">
-        <v>356036.91</v>
+        <v>317929.12</v>
       </c>
       <c r="K3">
-        <v>224443</v>
+        <v>256454.57</v>
       </c>
       <c r="L3" s="1">
-        <v>536.5</v>
+        <v>747.5</v>
       </c>
       <c r="M3">
-        <v>0.23899999999999999</v>
+        <v>0.29149999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
+        <v>44442</v>
+      </c>
+      <c r="J4" s="1">
+        <v>358800.82</v>
+      </c>
+      <c r="K4">
+        <v>253946</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1575.9</v>
+      </c>
+      <c r="M4">
+        <v>-0.62060000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44445</v>
+      </c>
+      <c r="J5" s="1">
+        <v>361852.28</v>
+      </c>
+      <c r="K5">
+        <v>264602.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3461.5</v>
+      </c>
+      <c r="M5">
+        <v>1.3082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44446</v>
+      </c>
+      <c r="J6" s="1">
+        <v>372951.23</v>
+      </c>
+      <c r="K6">
+        <v>191255</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3021</v>
+      </c>
+      <c r="M6">
+        <v>1.5795999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44447</v>
+      </c>
+      <c r="J7" s="1">
+        <v>347440.9</v>
+      </c>
+      <c r="K7">
+        <v>209946.1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-1293</v>
+      </c>
+      <c r="M7">
+        <v>-0.6159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44448</v>
+      </c>
+      <c r="J8" s="1">
+        <v>373576.8</v>
+      </c>
+      <c r="K8">
+        <v>260258</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1944.3</v>
+      </c>
+      <c r="M8">
+        <v>0.74709999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44449</v>
+      </c>
+      <c r="J9" s="1">
+        <v>361293.45</v>
+      </c>
+      <c r="K9">
+        <v>282141.32</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1932</v>
+      </c>
+      <c r="M9">
+        <v>0.68479999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44452</v>
+      </c>
+      <c r="J10" s="1">
+        <v>368109.64</v>
+      </c>
+      <c r="K10">
+        <v>260459.5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-2054</v>
+      </c>
+      <c r="M10">
+        <v>-0.78859999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44453</v>
+      </c>
+      <c r="J11" s="1">
+        <v>370218.14</v>
+      </c>
+      <c r="K11">
+        <v>270648.5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-3078.4</v>
+      </c>
+      <c r="M11">
+        <v>-1.1374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44454</v>
+      </c>
+      <c r="J12" s="1">
+        <v>358116.94</v>
+      </c>
+      <c r="K12">
+        <v>242750.5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1413.5</v>
+      </c>
+      <c r="M12">
+        <v>-0.58230000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44455</v>
+      </c>
+      <c r="J13" s="1">
+        <v>353615.06</v>
+      </c>
+      <c r="K13">
+        <v>268136.81</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-5246</v>
+      </c>
+      <c r="M13">
+        <v>-1.9564999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44456</v>
+      </c>
+      <c r="J14" s="1">
+        <v>365133.37</v>
+      </c>
+      <c r="K14">
+        <v>277863</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1682</v>
+      </c>
+      <c r="M14">
+        <v>0.60529999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44461</v>
+      </c>
+      <c r="J15" s="1">
+        <v>364068.29</v>
+      </c>
+      <c r="K15">
+        <v>267125</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-1035.3</v>
+      </c>
+      <c r="M15">
+        <v>-0.3876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44462</v>
+      </c>
+      <c r="J16" s="1">
+        <v>356036.91</v>
+      </c>
+      <c r="K16">
+        <v>224443</v>
+      </c>
+      <c r="L16" s="1">
+        <v>536.5</v>
+      </c>
+      <c r="M16">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
         <v>44463</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J17" s="1">
         <v>352780.53</v>
       </c>
-      <c r="K4">
+      <c r="K17">
         <v>251107.21</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L17" s="1">
         <v>-1849</v>
       </c>
-      <c r="M4">
+      <c r="M17">
         <v>-0.73629999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="J5" s="1">
-        <f>AVERAGE(J2:J4)</f>
-        <v>357628.57666666666</v>
-      </c>
-      <c r="K5" s="1">
-        <f>AVERAGE(K2:K4)</f>
-        <v>247558.40333333332</v>
-      </c>
-      <c r="L5" s="1">
-        <f>SUM(L2:L4)</f>
-        <v>-2347.8000000000002</v>
-      </c>
-      <c r="M5" s="5">
-        <f>L5/K5*100</f>
-        <v>-0.94838226793647806</v>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44466</v>
+      </c>
+      <c r="J18" s="1">
+        <v>361199.81</v>
+      </c>
+      <c r="K18">
+        <v>142731</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-1348</v>
+      </c>
+      <c r="M18">
+        <v>-0.94440000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44467</v>
+      </c>
+      <c r="J19" s="1">
+        <v>360933.74</v>
+      </c>
+      <c r="K19">
+        <v>102952</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-197.8</v>
+      </c>
+      <c r="M19">
+        <v>-0.19209999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44468</v>
+      </c>
+      <c r="J20" s="1">
+        <v>347427.41</v>
+      </c>
+      <c r="K20">
+        <v>144187</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-3506.1</v>
+      </c>
+      <c r="M20">
+        <v>-2.4316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44469</v>
+      </c>
+      <c r="J21" s="1">
+        <v>359636.87</v>
+      </c>
+      <c r="K21">
+        <v>234513</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2176</v>
+      </c>
+      <c r="M21">
+        <v>0.92789999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="J22" s="1">
+        <f>AVERAGE(J2:J21)</f>
+        <v>358931.95200000005</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGE(K2:K21)</f>
+        <v>232064.00049999999</v>
+      </c>
+      <c r="L22" s="1">
+        <f>SUM(L2:L21)</f>
+        <v>-5459.6999999999989</v>
+      </c>
+      <c r="M22" s="5">
+        <f>L22/K22*100</f>
+        <v>-2.3526699480473705</v>
       </c>
     </row>
   </sheetData>
@@ -1939,105 +2229,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="J2" s="1">
-        <v>392126.02</v>
+        <v>354194.04</v>
       </c>
       <c r="K2">
-        <v>320852.71999999997</v>
+        <v>279851.99</v>
       </c>
       <c r="L2" s="1">
-        <v>-29.6</v>
+        <v>-18.8</v>
       </c>
       <c r="M2">
-        <v>-9.1999999999999998E-3</v>
+        <v>-6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44411</v>
+        <v>44418</v>
       </c>
       <c r="J3" s="1">
-        <v>428982.28</v>
+        <v>411295.97</v>
       </c>
       <c r="K3">
-        <v>216964</v>
+        <v>334866</v>
       </c>
       <c r="L3" s="1">
-        <v>-5543</v>
+        <v>530</v>
       </c>
       <c r="M3">
-        <v>-2.5548000000000002</v>
+        <v>0.1583</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="J4" s="1">
-        <v>407773.25</v>
+        <v>411599.88</v>
       </c>
       <c r="K4">
-        <v>157353</v>
+        <v>299838.5</v>
       </c>
       <c r="L4" s="1">
-        <v>2844</v>
+        <v>307.5</v>
       </c>
       <c r="M4">
-        <v>1.8073999999999999</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44413</v>
+        <v>44420</v>
       </c>
       <c r="J5" s="1">
-        <v>383514.64</v>
+        <v>409679.53</v>
       </c>
       <c r="K5">
-        <v>190161.02</v>
+        <v>305083.5</v>
       </c>
       <c r="L5" s="1">
-        <v>-1180</v>
+        <v>-1920</v>
       </c>
       <c r="M5">
-        <v>-0.62050000000000005</v>
+        <v>-0.62929999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44414</v>
+        <v>44421</v>
       </c>
       <c r="J6" s="1">
-        <v>398314.84</v>
+        <v>401674.82</v>
       </c>
       <c r="K6">
-        <v>247438.86</v>
+        <v>312203.12</v>
       </c>
       <c r="L6" s="1">
-        <v>218.8</v>
+        <v>-2859.5</v>
       </c>
       <c r="M6">
-        <v>8.8400000000000006E-2</v>
+        <v>-0.91590000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>402142.20600000001</v>
+        <v>397688.84800000006</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>226553.92</v>
+        <v>306368.62199999997</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-3689.8</v>
+        <v>-3960.8</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-1.6286630573419343</v>
+        <v>-1.29282169111953</v>
       </c>
     </row>
   </sheetData>
@@ -2048,483 +2338,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44378</v>
-      </c>
-      <c r="J2" s="1">
-        <v>400968.2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>221650.6</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-3191.21</v>
-      </c>
-      <c r="M2" s="5">
-        <v>-1.4145000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44379</v>
-      </c>
-      <c r="J3" s="1">
-        <v>394703.57</v>
-      </c>
-      <c r="K3">
-        <v>282622.7</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-6272.86</v>
-      </c>
-      <c r="M3">
-        <v>-2.2845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44382</v>
-      </c>
-      <c r="J4" s="1">
-        <v>395945.96</v>
-      </c>
-      <c r="K4">
-        <v>190776</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1045.7</v>
-      </c>
-      <c r="M4">
-        <v>0.54810000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44383</v>
-      </c>
-      <c r="J5" s="1">
-        <v>392945.76</v>
-      </c>
-      <c r="K5">
-        <v>321998</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-2720.9</v>
-      </c>
-      <c r="M5">
-        <v>-0.84499999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44384</v>
-      </c>
-      <c r="J6" s="1">
-        <v>401240.56</v>
-      </c>
-      <c r="K6">
-        <v>264214.08</v>
-      </c>
-      <c r="L6" s="1">
-        <v>8335</v>
-      </c>
-      <c r="M6">
-        <v>3.1545999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6">
-        <v>44385</v>
-      </c>
-      <c r="J7" s="1">
-        <v>400854.3</v>
-      </c>
-      <c r="K7">
-        <v>298343.01</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-344.6</v>
-      </c>
-      <c r="M7">
-        <v>-0.11550000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6">
-        <v>44386</v>
-      </c>
-      <c r="J8" s="1">
-        <v>358039.83</v>
-      </c>
-      <c r="K8">
-        <v>299620.11</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1353</v>
-      </c>
-      <c r="M8">
-        <v>0.4516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6">
-        <v>44389</v>
-      </c>
-      <c r="J9" s="1">
-        <v>399553.09</v>
-      </c>
-      <c r="K9">
-        <v>315114</v>
-      </c>
-      <c r="L9" s="1">
-        <v>7444</v>
-      </c>
-      <c r="M9">
-        <v>2.3622999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6">
-        <v>44390</v>
-      </c>
-      <c r="J10" s="1">
-        <v>398533.05</v>
-      </c>
-      <c r="K10">
-        <v>266844</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-975</v>
-      </c>
-      <c r="M10">
-        <v>-0.3654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6">
-        <v>44391</v>
-      </c>
-      <c r="J11" s="1">
-        <v>395001.88</v>
-      </c>
-      <c r="K11">
-        <v>236228</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-3479</v>
-      </c>
-      <c r="M11">
-        <v>-1.4726999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6">
-        <v>44392</v>
-      </c>
-      <c r="J12" s="1">
-        <v>398680.85</v>
-      </c>
-      <c r="K12">
-        <v>178125</v>
-      </c>
-      <c r="L12" s="1">
-        <v>3721</v>
-      </c>
-      <c r="M12">
-        <v>2.089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6">
-        <v>44393</v>
-      </c>
-      <c r="J13" s="1">
-        <v>215638.8</v>
-      </c>
-      <c r="K13">
-        <v>181630.1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-6398</v>
-      </c>
-      <c r="M13">
-        <v>-3.5225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6">
-        <v>44396</v>
-      </c>
-      <c r="J14" s="1">
-        <v>391461.52</v>
-      </c>
-      <c r="K14">
-        <v>346936</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-735.7</v>
-      </c>
-      <c r="M14">
-        <v>-0.21210000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6">
-        <v>44397</v>
-      </c>
-      <c r="J15" s="1">
-        <v>381325.07</v>
-      </c>
-      <c r="K15">
-        <v>241558</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-86</v>
-      </c>
-      <c r="M15">
-        <v>-3.56E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6">
-        <v>44398</v>
-      </c>
-      <c r="J16" s="1">
-        <v>385281.95</v>
-      </c>
-      <c r="K16">
-        <v>248832</v>
-      </c>
-      <c r="L16" s="1">
-        <v>3968</v>
-      </c>
-      <c r="M16">
-        <v>1.5947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44399</v>
-      </c>
-      <c r="J17" s="1">
-        <v>350182.62</v>
-      </c>
-      <c r="K17">
-        <v>260244.58</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1428</v>
-      </c>
-      <c r="M17">
-        <v>0.54869999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6">
-        <v>44400</v>
-      </c>
-      <c r="J18" s="1">
-        <v>321329.03999999998</v>
-      </c>
-      <c r="K18">
-        <v>291717.36</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-5033</v>
-      </c>
-      <c r="M18">
-        <v>-1.7253000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44403</v>
-      </c>
-      <c r="J19" s="1">
-        <v>346532.81</v>
-      </c>
-      <c r="K19">
-        <v>341191.62</v>
-      </c>
-      <c r="L19" s="1">
-        <v>-10790</v>
-      </c>
-      <c r="M19">
-        <v>-3.1623999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>44404</v>
-      </c>
-      <c r="J20" s="1">
-        <v>350194.88</v>
-      </c>
-      <c r="K20">
-        <v>248836.5</v>
-      </c>
-      <c r="L20" s="1">
-        <v>-10497.8</v>
-      </c>
-      <c r="M20">
-        <v>-4.2187999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44405</v>
-      </c>
-      <c r="J21" s="1">
-        <v>297302.5</v>
-      </c>
-      <c r="K21">
-        <v>257045.36</v>
-      </c>
-      <c r="L21" s="1">
-        <v>-1756.7</v>
-      </c>
-      <c r="M21">
-        <v>-0.68340000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44406</v>
-      </c>
-      <c r="J22" s="1">
-        <v>435117.81</v>
-      </c>
-      <c r="K22">
-        <v>278202.5</v>
-      </c>
-      <c r="L22" s="1">
-        <v>16747</v>
-      </c>
-      <c r="M22">
-        <v>6.0197000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6">
-        <v>44407</v>
-      </c>
-      <c r="J23" s="1">
-        <v>411503.17</v>
-      </c>
-      <c r="K23">
-        <v>287799.21000000002</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-360</v>
-      </c>
-      <c r="M23">
-        <v>-0.12509999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6"/>
-      <c r="B24">
-        <f>SUM(B7:B11)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f>SUM(F7:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f>SUM(G7:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f>SUM(H7:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <f>AVERAGE(J2:J23)</f>
-        <v>373742.60090909083</v>
-      </c>
-      <c r="K24" s="1">
-        <f>AVERAGE(K2:K23)</f>
-        <v>266342.21500000003</v>
-      </c>
-      <c r="L24" s="1">
-        <f>SUM(L2:L23)</f>
-        <v>-8599.07</v>
-      </c>
-      <c r="M24" s="5">
-        <f>L24/K24*100</f>
-        <v>-3.2285794424289813</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -2582,105 +2395,582 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="J2" s="1">
-        <v>346532.81</v>
+        <v>392126.02</v>
       </c>
       <c r="K2">
-        <v>341191.62</v>
+        <v>320852.71999999997</v>
       </c>
       <c r="L2" s="1">
-        <v>-10790</v>
+        <v>-29.6</v>
       </c>
       <c r="M2">
-        <v>-3.1623999999999999</v>
+        <v>-9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44404</v>
+        <v>44411</v>
       </c>
       <c r="J3" s="1">
-        <v>350194.88</v>
+        <v>428982.28</v>
       </c>
       <c r="K3">
-        <v>248836.5</v>
+        <v>216964</v>
       </c>
       <c r="L3" s="1">
-        <v>-10497.8</v>
+        <v>-5543</v>
       </c>
       <c r="M3">
-        <v>-4.2187999999999999</v>
+        <v>-2.5548000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="J4" s="1">
-        <v>297302.5</v>
+        <v>407773.25</v>
       </c>
       <c r="K4">
-        <v>257045.36</v>
+        <v>157353</v>
       </c>
       <c r="L4" s="1">
-        <v>-1756.7</v>
+        <v>2844</v>
       </c>
       <c r="M4">
-        <v>-0.68340000000000001</v>
+        <v>1.8073999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44406</v>
+        <v>44413</v>
       </c>
       <c r="J5" s="1">
-        <v>435117.81</v>
+        <v>383514.64</v>
       </c>
       <c r="K5">
-        <v>278202.5</v>
+        <v>190161.02</v>
       </c>
       <c r="L5" s="1">
-        <v>16747</v>
+        <v>-1180</v>
       </c>
       <c r="M5">
-        <v>6.0197000000000003</v>
+        <v>-0.62050000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44407</v>
+        <v>44414</v>
       </c>
       <c r="J6" s="1">
-        <v>411503.17</v>
+        <v>398314.84</v>
       </c>
       <c r="K6">
-        <v>287799.21000000002</v>
+        <v>247438.86</v>
       </c>
       <c r="L6" s="1">
-        <v>-360</v>
+        <v>218.8</v>
       </c>
       <c r="M6">
-        <v>-0.12509999999999999</v>
+        <v>8.8400000000000006E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>368130.234</v>
+        <v>402142.20600000001</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>282615.038</v>
+        <v>226553.92</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-6657.5</v>
+        <v>-3689.8</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-2.3556779027448638</v>
+        <v>-1.6286630573419343</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44378</v>
+      </c>
+      <c r="J2" s="1">
+        <v>400968.2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>221650.6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-3191.21</v>
+      </c>
+      <c r="M2" s="5">
+        <v>-1.4145000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44379</v>
+      </c>
+      <c r="J3" s="1">
+        <v>394703.57</v>
+      </c>
+      <c r="K3">
+        <v>282622.7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-6272.86</v>
+      </c>
+      <c r="M3">
+        <v>-2.2845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J4" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K4">
+        <v>190776</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M4">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J5" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K5">
+        <v>321998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M5">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J6" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K6">
+        <v>264214.08</v>
+      </c>
+      <c r="L6" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M6">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J7" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K7">
+        <v>298343.01</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M7">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J8" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K8">
+        <v>299620.11</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M8">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44389</v>
+      </c>
+      <c r="J9" s="1">
+        <v>399553.09</v>
+      </c>
+      <c r="K9">
+        <v>315114</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7444</v>
+      </c>
+      <c r="M9">
+        <v>2.3622999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44390</v>
+      </c>
+      <c r="J10" s="1">
+        <v>398533.05</v>
+      </c>
+      <c r="K10">
+        <v>266844</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-975</v>
+      </c>
+      <c r="M10">
+        <v>-0.3654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44391</v>
+      </c>
+      <c r="J11" s="1">
+        <v>395001.88</v>
+      </c>
+      <c r="K11">
+        <v>236228</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-3479</v>
+      </c>
+      <c r="M11">
+        <v>-1.4726999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44392</v>
+      </c>
+      <c r="J12" s="1">
+        <v>398680.85</v>
+      </c>
+      <c r="K12">
+        <v>178125</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3721</v>
+      </c>
+      <c r="M12">
+        <v>2.089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44393</v>
+      </c>
+      <c r="J13" s="1">
+        <v>215638.8</v>
+      </c>
+      <c r="K13">
+        <v>181630.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-6398</v>
+      </c>
+      <c r="M13">
+        <v>-3.5225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44396</v>
+      </c>
+      <c r="J14" s="1">
+        <v>391461.52</v>
+      </c>
+      <c r="K14">
+        <v>346936</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-735.7</v>
+      </c>
+      <c r="M14">
+        <v>-0.21210000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44397</v>
+      </c>
+      <c r="J15" s="1">
+        <v>381325.07</v>
+      </c>
+      <c r="K15">
+        <v>241558</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-86</v>
+      </c>
+      <c r="M15">
+        <v>-3.56E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44398</v>
+      </c>
+      <c r="J16" s="1">
+        <v>385281.95</v>
+      </c>
+      <c r="K16">
+        <v>248832</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3968</v>
+      </c>
+      <c r="M16">
+        <v>1.5947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44399</v>
+      </c>
+      <c r="J17" s="1">
+        <v>350182.62</v>
+      </c>
+      <c r="K17">
+        <v>260244.58</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1428</v>
+      </c>
+      <c r="M17">
+        <v>0.54869999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44400</v>
+      </c>
+      <c r="J18" s="1">
+        <v>321329.03999999998</v>
+      </c>
+      <c r="K18">
+        <v>291717.36</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-5033</v>
+      </c>
+      <c r="M18">
+        <v>-1.7253000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44403</v>
+      </c>
+      <c r="J19" s="1">
+        <v>346532.81</v>
+      </c>
+      <c r="K19">
+        <v>341191.62</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-10790</v>
+      </c>
+      <c r="M19">
+        <v>-3.1623999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44404</v>
+      </c>
+      <c r="J20" s="1">
+        <v>350194.88</v>
+      </c>
+      <c r="K20">
+        <v>248836.5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-10497.8</v>
+      </c>
+      <c r="M20">
+        <v>-4.2187999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44405</v>
+      </c>
+      <c r="J21" s="1">
+        <v>297302.5</v>
+      </c>
+      <c r="K21">
+        <v>257045.36</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-1756.7</v>
+      </c>
+      <c r="M21">
+        <v>-0.68340000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44406</v>
+      </c>
+      <c r="J22" s="1">
+        <v>435117.81</v>
+      </c>
+      <c r="K22">
+        <v>278202.5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>16747</v>
+      </c>
+      <c r="M22">
+        <v>6.0197000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44407</v>
+      </c>
+      <c r="J23" s="1">
+        <v>411503.17</v>
+      </c>
+      <c r="K23">
+        <v>287799.21000000002</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-360</v>
+      </c>
+      <c r="M23">
+        <v>-0.12509999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6"/>
+      <c r="B24">
+        <f>SUM(B7:B11)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F7:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>SUM(G7:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>SUM(H7:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f>AVERAGE(J2:J23)</f>
+        <v>373742.60090909083</v>
+      </c>
+      <c r="K24" s="1">
+        <f>AVERAGE(K2:K23)</f>
+        <v>266342.21500000003</v>
+      </c>
+      <c r="L24" s="1">
+        <f>SUM(L2:L23)</f>
+        <v>-8599.07</v>
+      </c>
+      <c r="M24" s="5">
+        <f>L24/K24*100</f>
+        <v>-3.2285794424289813</v>
       </c>
     </row>
   </sheetData>
@@ -2748,105 +3038,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="J2" s="1">
-        <v>391461.52</v>
+        <v>346532.81</v>
       </c>
       <c r="K2">
-        <v>346936</v>
+        <v>341191.62</v>
       </c>
       <c r="L2" s="1">
-        <v>-735.7</v>
+        <v>-10790</v>
       </c>
       <c r="M2">
-        <v>-0.21210000000000001</v>
+        <v>-3.1623999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44397</v>
+        <v>44404</v>
       </c>
       <c r="J3" s="1">
-        <v>381325.07</v>
+        <v>350194.88</v>
       </c>
       <c r="K3">
-        <v>241558</v>
+        <v>248836.5</v>
       </c>
       <c r="L3" s="1">
-        <v>-86</v>
+        <v>-10497.8</v>
       </c>
       <c r="M3">
-        <v>-3.56E-2</v>
+        <v>-4.2187999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="J4" s="1">
-        <v>385281.95</v>
+        <v>297302.5</v>
       </c>
       <c r="K4">
-        <v>248832</v>
+        <v>257045.36</v>
       </c>
       <c r="L4" s="1">
-        <v>3968</v>
+        <v>-1756.7</v>
       </c>
       <c r="M4">
-        <v>1.5947</v>
+        <v>-0.68340000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44399</v>
+        <v>44406</v>
       </c>
       <c r="J5" s="1">
-        <v>350182.62</v>
+        <v>435117.81</v>
       </c>
       <c r="K5">
-        <v>260244.58</v>
+        <v>278202.5</v>
       </c>
       <c r="L5" s="1">
-        <v>1428</v>
+        <v>16747</v>
       </c>
       <c r="M5">
-        <v>0.54869999999999997</v>
+        <v>6.0197000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44400</v>
+        <v>44407</v>
       </c>
       <c r="J6" s="1">
-        <v>321329.03999999998</v>
+        <v>411503.17</v>
       </c>
       <c r="K6">
-        <v>291717.36</v>
+        <v>287799.21000000002</v>
       </c>
       <c r="L6" s="1">
-        <v>-5033</v>
+        <v>-360</v>
       </c>
       <c r="M6">
-        <v>-1.7253000000000001</v>
+        <v>-0.12509999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>365916.04000000004</v>
+        <v>368130.234</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>277857.58799999999</v>
+        <v>282615.038</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-458.69999999999982</v>
+        <v>-6657.5</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-0.16508456843006922</v>
+        <v>-2.3556779027448638</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +3151,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="J7" sqref="J7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2914,105 +3204,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="J2" s="1">
-        <v>399553.09</v>
+        <v>391461.52</v>
       </c>
       <c r="K2">
-        <v>315114</v>
+        <v>346936</v>
       </c>
       <c r="L2" s="1">
-        <v>7444</v>
+        <v>-735.7</v>
       </c>
       <c r="M2">
-        <v>2.3622999999999998</v>
+        <v>-0.21210000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44390</v>
+        <v>44397</v>
       </c>
       <c r="J3" s="1">
-        <v>398533.05</v>
+        <v>381325.07</v>
       </c>
       <c r="K3">
-        <v>266844</v>
+        <v>241558</v>
       </c>
       <c r="L3" s="1">
-        <v>-975</v>
+        <v>-86</v>
       </c>
       <c r="M3">
-        <v>-0.3654</v>
+        <v>-3.56E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="J4" s="1">
-        <v>395001.88</v>
+        <v>385281.95</v>
       </c>
       <c r="K4">
-        <v>236228</v>
+        <v>248832</v>
       </c>
       <c r="L4" s="1">
-        <v>-3479</v>
+        <v>3968</v>
       </c>
       <c r="M4">
-        <v>-1.4726999999999999</v>
+        <v>1.5947</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44392</v>
+        <v>44399</v>
       </c>
       <c r="J5" s="1">
-        <v>398680.85</v>
+        <v>350182.62</v>
       </c>
       <c r="K5">
-        <v>178125</v>
+        <v>260244.58</v>
       </c>
       <c r="L5" s="1">
-        <v>3721</v>
+        <v>1428</v>
       </c>
       <c r="M5">
-        <v>2.089</v>
+        <v>0.54869999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44393</v>
+        <v>44400</v>
       </c>
       <c r="J6" s="1">
-        <v>215638.8</v>
+        <v>321329.03999999998</v>
       </c>
       <c r="K6">
-        <v>181630.1</v>
+        <v>291717.36</v>
       </c>
       <c r="L6" s="1">
-        <v>-6398</v>
+        <v>-5033</v>
       </c>
       <c r="M6">
-        <v>-3.5225</v>
+        <v>-1.7253000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>361481.53400000004</v>
+        <v>365916.04000000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>235588.22000000003</v>
+        <v>277857.58799999999</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>313</v>
+        <v>-458.69999999999982</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>0.13285893496712184</v>
+        <v>-0.16508456843006922</v>
       </c>
     </row>
   </sheetData>
@@ -3080,105 +3370,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="J2" s="1">
-        <v>395945.96</v>
+        <v>399553.09</v>
       </c>
       <c r="K2">
-        <v>190776</v>
+        <v>315114</v>
       </c>
       <c r="L2" s="1">
-        <v>1045.7</v>
+        <v>7444</v>
       </c>
       <c r="M2">
-        <v>0.54810000000000003</v>
+        <v>2.3622999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="J3" s="1">
-        <v>392945.76</v>
+        <v>398533.05</v>
       </c>
       <c r="K3">
-        <v>321998</v>
+        <v>266844</v>
       </c>
       <c r="L3" s="1">
-        <v>-2720.9</v>
+        <v>-975</v>
       </c>
       <c r="M3">
-        <v>-0.84499999999999997</v>
+        <v>-0.3654</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44384</v>
+        <v>44391</v>
       </c>
       <c r="J4" s="1">
-        <v>401240.56</v>
+        <v>395001.88</v>
       </c>
       <c r="K4">
-        <v>264214.08</v>
+        <v>236228</v>
       </c>
       <c r="L4" s="1">
-        <v>8335</v>
+        <v>-3479</v>
       </c>
       <c r="M4">
-        <v>3.1545999999999998</v>
+        <v>-1.4726999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44385</v>
+        <v>44392</v>
       </c>
       <c r="J5" s="1">
-        <v>400854.3</v>
+        <v>398680.85</v>
       </c>
       <c r="K5">
-        <v>298343.01</v>
+        <v>178125</v>
       </c>
       <c r="L5" s="1">
-        <v>-344.6</v>
+        <v>3721</v>
       </c>
       <c r="M5">
-        <v>-0.11550000000000001</v>
+        <v>2.089</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44386</v>
+        <v>44393</v>
       </c>
       <c r="J6" s="1">
-        <v>358039.83</v>
+        <v>215638.8</v>
       </c>
       <c r="K6">
-        <v>299620.11</v>
+        <v>181630.1</v>
       </c>
       <c r="L6" s="1">
-        <v>1353</v>
+        <v>-6398</v>
       </c>
       <c r="M6">
-        <v>0.4516</v>
+        <v>-3.5225</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>389805.28200000001</v>
+        <v>361481.53400000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>274990.24000000005</v>
+        <v>235588.22000000003</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>7668.2</v>
+        <v>313</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>2.7885353312903027</v>
+        <v>0.13285893496712184</v>
       </c>
     </row>
   </sheetData>
@@ -3189,6 +3479,172 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J2" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K2">
+        <v>190776</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M2">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J3" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K3">
+        <v>321998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M3">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J4" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K4">
+        <v>264214.08</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M4">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J5" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K5">
+        <v>298343.01</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M5">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J6" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K6">
+        <v>299620.11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M6">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>389805.28200000001</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>274990.24000000005</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>7668.2</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>2.7885353312903027</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -3368,7 +3824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -3509,7 +3965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -4017,7 +4473,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44466</v>
+      </c>
+      <c r="J2" s="1">
+        <v>361199.81</v>
+      </c>
+      <c r="K2">
+        <v>142731</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1348</v>
+      </c>
+      <c r="M2">
+        <v>-0.94440000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44467</v>
+      </c>
+      <c r="J3" s="1">
+        <v>360933.74</v>
+      </c>
+      <c r="K3">
+        <v>102952</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-197.8</v>
+      </c>
+      <c r="M3">
+        <v>-0.19209999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44468</v>
+      </c>
+      <c r="J4" s="1">
+        <v>347427.41</v>
+      </c>
+      <c r="K4">
+        <v>144187</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-3506.1</v>
+      </c>
+      <c r="M4">
+        <v>-2.4316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44469</v>
+      </c>
+      <c r="J5" s="1">
+        <v>359636.87</v>
+      </c>
+      <c r="K5">
+        <v>234513</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2176</v>
+      </c>
+      <c r="M5">
+        <v>0.92789999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="J6" s="1">
+        <f>AVERAGE(J2:J5)</f>
+        <v>357299.45750000002</v>
+      </c>
+      <c r="K6" s="1">
+        <f>AVERAGE(K2:K5)</f>
+        <v>156095.75</v>
+      </c>
+      <c r="L6" s="1">
+        <f>SUM(L2:L5)</f>
+        <v>-2875.8999999999996</v>
+      </c>
+      <c r="M6" s="5">
+        <f>L6/K6*100</f>
+        <v>-1.8423948121585627</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -4183,224 +4788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44440</v>
-      </c>
-      <c r="J2" s="1">
-        <v>367517.73</v>
-      </c>
-      <c r="K2">
-        <v>235760</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1636.5</v>
-      </c>
-      <c r="M2">
-        <v>0.69410000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44441</v>
-      </c>
-      <c r="J3" s="1">
-        <v>317929.12</v>
-      </c>
-      <c r="K3">
-        <v>256454.57</v>
-      </c>
-      <c r="L3" s="1">
-        <v>747.5</v>
-      </c>
-      <c r="M3">
-        <v>0.29149999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44442</v>
-      </c>
-      <c r="J4" s="1">
-        <v>358800.82</v>
-      </c>
-      <c r="K4">
-        <v>253946</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1575.9</v>
-      </c>
-      <c r="M4">
-        <v>-0.62060000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44445</v>
-      </c>
-      <c r="J5" s="1">
-        <v>361852.28</v>
-      </c>
-      <c r="K5">
-        <v>264602.5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>3461.5</v>
-      </c>
-      <c r="M5">
-        <v>1.3082</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44446</v>
-      </c>
-      <c r="J6" s="1">
-        <v>372951.23</v>
-      </c>
-      <c r="K6">
-        <v>191255</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3021</v>
-      </c>
-      <c r="M6">
-        <v>1.5795999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6">
-        <v>44447</v>
-      </c>
-      <c r="J7" s="1">
-        <v>347440.9</v>
-      </c>
-      <c r="K7">
-        <v>209946.1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-1293</v>
-      </c>
-      <c r="M7">
-        <v>-0.6159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6">
-        <v>44448</v>
-      </c>
-      <c r="J8" s="1">
-        <v>373576.8</v>
-      </c>
-      <c r="K8">
-        <v>260258</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1944.3</v>
-      </c>
-      <c r="M8">
-        <v>0.74709999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6">
-        <v>44449</v>
-      </c>
-      <c r="J9" s="1">
-        <v>361293.45</v>
-      </c>
-      <c r="K9">
-        <v>282141.32</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1932</v>
-      </c>
-      <c r="M9">
-        <v>0.68479999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="J10" s="1">
-        <f>AVERAGE(J2:J9)</f>
-        <v>357670.29125000001</v>
-      </c>
-      <c r="K10" s="1">
-        <f>AVERAGE(K2:K9)</f>
-        <v>244295.43625000003</v>
-      </c>
-      <c r="L10" s="1">
-        <f>SUM(L2:L9)</f>
-        <v>9873.9000000000015</v>
-      </c>
-      <c r="M10" s="5">
-        <f>L10/K10*100</f>
-        <v>4.0417865153631176</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -4549,7 +4937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -4715,7 +5103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -4915,7 +5303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -5784,7 +6172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -6878,7 +7266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -8056,7 +8444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -8650,7 +9038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -9568,7 +9956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -10078,7 +10466,139 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44461</v>
+      </c>
+      <c r="J2" s="1">
+        <v>364068.29</v>
+      </c>
+      <c r="K2">
+        <v>267125</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1035.3</v>
+      </c>
+      <c r="M2">
+        <v>-0.3876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44462</v>
+      </c>
+      <c r="J3" s="1">
+        <v>356036.91</v>
+      </c>
+      <c r="K3">
+        <v>224443</v>
+      </c>
+      <c r="L3" s="1">
+        <v>536.5</v>
+      </c>
+      <c r="M3">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44463</v>
+      </c>
+      <c r="J4" s="1">
+        <v>352780.53</v>
+      </c>
+      <c r="K4">
+        <v>251107.21</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1849</v>
+      </c>
+      <c r="M4">
+        <v>-0.73629999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="J5" s="1">
+        <f>AVERAGE(J2:J4)</f>
+        <v>357628.57666666666</v>
+      </c>
+      <c r="K5" s="1">
+        <f>AVERAGE(K2:K4)</f>
+        <v>247558.40333333332</v>
+      </c>
+      <c r="L5" s="1">
+        <f>SUM(L2:L4)</f>
+        <v>-2347.8000000000002</v>
+      </c>
+      <c r="M5" s="5">
+        <f>L5/K5*100</f>
+        <v>-0.94838226793647806</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -10264,7 +10784,593 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="5" max="5" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>861.52</v>
+      </c>
+      <c r="D2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E2" s="8">
+        <f>D2*C2</f>
+        <v>961.45632000000012</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2-B2</f>
+        <v>-38.543679999999881</v>
+      </c>
+      <c r="H2">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I2">
+        <f>H2*C2</f>
+        <v>5.41256299844183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>1744.1</v>
+      </c>
+      <c r="D3">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3" si="0">D3*C3</f>
+        <v>1946.4156</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3" si="1">E3-B3</f>
+        <v>-53.58439999999996</v>
+      </c>
+      <c r="H3">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3" si="2">H3*C3</f>
+        <v>10.957437001558171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6">
+        <f>SUM(C2:C4)</f>
+        <v>2605.62</v>
+      </c>
+      <c r="D6">
+        <v>3.3831000000000002</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" ref="E6" si="3">D6*C6</f>
+        <v>8815.0730220000005</v>
+      </c>
+      <c r="F6" s="9">
+        <v>16.37</v>
+      </c>
+      <c r="H6">
+        <f>F6/C6</f>
+        <v>6.282573821201864E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1">
+        <v>51300</v>
+      </c>
+      <c r="B1">
+        <v>5600</v>
+      </c>
+      <c r="C1">
+        <f>A1-B1</f>
+        <v>45700</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="H13">
+        <v>4700</v>
+      </c>
+      <c r="K13">
+        <v>5100</v>
+      </c>
+      <c r="L13">
+        <v>7196.1</v>
+      </c>
+      <c r="M13">
+        <v>5100</v>
+      </c>
+      <c r="N13">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <f>M13*N13</f>
+        <v>7150.2</v>
+      </c>
+      <c r="P13" s="1">
+        <f>O13-L13</f>
+        <v>-45.900000000000546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="H14">
+        <v>2200</v>
+      </c>
+      <c r="K14">
+        <v>5500</v>
+      </c>
+      <c r="L14">
+        <v>7980.5</v>
+      </c>
+      <c r="M14">
+        <v>5500</v>
+      </c>
+      <c r="N14">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O19" si="0">M14*N14</f>
+        <v>7710.9999999999991</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" ref="P14:P19" si="1">O14-L14</f>
+        <v>-269.50000000000091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="H15">
+        <v>3400</v>
+      </c>
+      <c r="K15">
+        <v>5700</v>
+      </c>
+      <c r="L15">
+        <v>8367.6</v>
+      </c>
+      <c r="M15">
+        <v>5700</v>
+      </c>
+      <c r="N15">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>7991.4</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="1"/>
+        <v>-376.20000000000073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="H16">
+        <v>3000</v>
+      </c>
+      <c r="K16">
+        <v>5900</v>
+      </c>
+      <c r="L16">
+        <v>8796.9</v>
+      </c>
+      <c r="M16">
+        <v>5900</v>
+      </c>
+      <c r="N16">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>8271.7999999999993</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>-525.10000000000036</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16">
+      <c r="H17">
+        <v>3800</v>
+      </c>
+      <c r="K17">
+        <v>5000</v>
+      </c>
+      <c r="L17">
+        <v>7505</v>
+      </c>
+      <c r="M17">
+        <v>5000</v>
+      </c>
+      <c r="N17">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>7010</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="1"/>
+        <v>-495</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16">
+      <c r="H18">
+        <v>3000</v>
+      </c>
+      <c r="K18">
+        <v>5100</v>
+      </c>
+      <c r="L18">
+        <v>7706.1</v>
+      </c>
+      <c r="M18">
+        <v>5100</v>
+      </c>
+      <c r="N18">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>7150.2</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="1"/>
+        <v>-555.90000000000055</v>
+      </c>
+    </row>
+    <row r="19" spans="8:16">
+      <c r="K19">
+        <v>5100</v>
+      </c>
+      <c r="L19">
+        <v>7706.1</v>
+      </c>
+      <c r="M19">
+        <v>5100</v>
+      </c>
+      <c r="N19">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>7150.2</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="1"/>
+        <v>-555.90000000000055</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44452</v>
+      </c>
+      <c r="J2" s="1">
+        <v>368109.64</v>
+      </c>
+      <c r="K2">
+        <v>260459.5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-2054</v>
+      </c>
+      <c r="M2">
+        <v>-0.78859999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44453</v>
+      </c>
+      <c r="J3" s="1">
+        <v>370218.14</v>
+      </c>
+      <c r="K3">
+        <v>270648.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-3078.4</v>
+      </c>
+      <c r="M3">
+        <v>-1.1374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44454</v>
+      </c>
+      <c r="J4" s="1">
+        <v>358116.94</v>
+      </c>
+      <c r="K4">
+        <v>242750.5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1413.5</v>
+      </c>
+      <c r="M4">
+        <v>-0.58230000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44455</v>
+      </c>
+      <c r="J5" s="1">
+        <v>353615.06</v>
+      </c>
+      <c r="K5">
+        <v>268136.81</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-5246</v>
+      </c>
+      <c r="M5">
+        <v>-1.9564999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44456</v>
+      </c>
+      <c r="J6" s="1">
+        <v>365133.37</v>
+      </c>
+      <c r="K6">
+        <v>277863</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1682</v>
+      </c>
+      <c r="M6">
+        <v>0.60529999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>363038.63</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>263971.66200000001</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-10109.9</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-3.8299186827107223</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -10322,105 +11428,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44452</v>
+        <v>44445</v>
       </c>
       <c r="J2" s="1">
-        <v>368109.64</v>
+        <v>361852.28</v>
       </c>
       <c r="K2">
-        <v>260459.5</v>
+        <v>264602.5</v>
       </c>
       <c r="L2" s="1">
-        <v>-2054</v>
+        <v>3461.5</v>
       </c>
       <c r="M2">
-        <v>-0.78859999999999997</v>
+        <v>1.3082</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44453</v>
+        <v>44446</v>
       </c>
       <c r="J3" s="1">
-        <v>370218.14</v>
+        <v>372951.23</v>
       </c>
       <c r="K3">
-        <v>270648.5</v>
+        <v>191255</v>
       </c>
       <c r="L3" s="1">
-        <v>-3078.4</v>
+        <v>3021</v>
       </c>
       <c r="M3">
-        <v>-1.1374</v>
+        <v>1.5795999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44454</v>
+        <v>44447</v>
       </c>
       <c r="J4" s="1">
-        <v>358116.94</v>
+        <v>347440.9</v>
       </c>
       <c r="K4">
-        <v>242750.5</v>
+        <v>209946.1</v>
       </c>
       <c r="L4" s="1">
-        <v>-1413.5</v>
+        <v>-1293</v>
       </c>
       <c r="M4">
-        <v>-0.58230000000000004</v>
+        <v>-0.6159</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44455</v>
+        <v>44448</v>
       </c>
       <c r="J5" s="1">
-        <v>353615.06</v>
+        <v>373576.8</v>
       </c>
       <c r="K5">
-        <v>268136.81</v>
+        <v>260258</v>
       </c>
       <c r="L5" s="1">
-        <v>-5246</v>
+        <v>1944.3</v>
       </c>
       <c r="M5">
-        <v>-1.9564999999999999</v>
+        <v>0.74709999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44456</v>
+        <v>44449</v>
       </c>
       <c r="J6" s="1">
-        <v>365133.37</v>
+        <v>361293.45</v>
       </c>
       <c r="K6">
-        <v>277863</v>
+        <v>282141.32</v>
       </c>
       <c r="L6" s="1">
-        <v>1682</v>
+        <v>1932</v>
       </c>
       <c r="M6">
-        <v>0.60529999999999995</v>
+        <v>0.68479999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>363038.63</v>
+        <v>363422.93200000003</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>263971.66200000001</v>
+        <v>241640.58399999997</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-10109.9</v>
+        <v>9065.7999999999993</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-3.8299186827107223</v>
+        <v>3.7517704393563291</v>
       </c>
     </row>
   </sheetData>
@@ -10430,119 +11536,452 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I6"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" width="12.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="2" t="s">
-        <v>23</v>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>861.52</v>
-      </c>
-      <c r="D2">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E2" s="8">
-        <f>D2*C2</f>
-        <v>961.45632000000012</v>
-      </c>
-      <c r="F2" s="9">
-        <f>E2-B2</f>
-        <v>-38.543679999999881</v>
-      </c>
-      <c r="H2">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-      <c r="I2">
-        <f>H2*C2</f>
-        <v>5.41256299844183</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3">
-        <v>2000</v>
-      </c>
-      <c r="C3">
-        <v>1744.1</v>
-      </c>
-      <c r="D3">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3" si="0">D3*C3</f>
-        <v>1946.4156</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3" si="1">E3-B3</f>
-        <v>-53.58439999999996</v>
-      </c>
-      <c r="H3">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3" si="2">H3*C3</f>
-        <v>10.957437001558171</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="E4" s="8"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="C6">
-        <f>SUM(C2:C4)</f>
-        <v>2605.62</v>
-      </c>
-      <c r="D6">
-        <v>3.3831000000000002</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" ref="E6" si="3">D6*C6</f>
-        <v>8815.0730220000005</v>
-      </c>
-      <c r="F6" s="9">
-        <v>16.37</v>
-      </c>
-      <c r="H6">
-        <f>F6/C6</f>
-        <v>6.282573821201864E-3</v>
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44410</v>
+      </c>
+      <c r="J2" s="1">
+        <v>392126.02</v>
+      </c>
+      <c r="K2">
+        <v>320852.71999999997</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-29.6</v>
+      </c>
+      <c r="M2">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44411</v>
+      </c>
+      <c r="J3" s="1">
+        <v>428982.28</v>
+      </c>
+      <c r="K3">
+        <v>216964</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-5543</v>
+      </c>
+      <c r="M3">
+        <v>-2.5548000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44412</v>
+      </c>
+      <c r="J4" s="1">
+        <v>407773.25</v>
+      </c>
+      <c r="K4">
+        <v>157353</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2844</v>
+      </c>
+      <c r="M4">
+        <v>1.8073999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44413</v>
+      </c>
+      <c r="J5" s="1">
+        <v>383514.64</v>
+      </c>
+      <c r="K5">
+        <v>190161.02</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1180</v>
+      </c>
+      <c r="M5">
+        <v>-0.62050000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44414</v>
+      </c>
+      <c r="J6" s="1">
+        <v>398314.84</v>
+      </c>
+      <c r="K6">
+        <v>247438.86</v>
+      </c>
+      <c r="L6" s="1">
+        <v>218.8</v>
+      </c>
+      <c r="M6">
+        <v>8.8400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44417</v>
+      </c>
+      <c r="J7" s="1">
+        <v>354194.04</v>
+      </c>
+      <c r="K7">
+        <v>279851.99</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-18.8</v>
+      </c>
+      <c r="M7">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44418</v>
+      </c>
+      <c r="J8" s="1">
+        <v>411295.97</v>
+      </c>
+      <c r="K8">
+        <v>334866</v>
+      </c>
+      <c r="L8" s="1">
+        <v>530</v>
+      </c>
+      <c r="M8">
+        <v>0.1583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44419</v>
+      </c>
+      <c r="J9" s="1">
+        <v>411599.88</v>
+      </c>
+      <c r="K9">
+        <v>299838.5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>307.5</v>
+      </c>
+      <c r="M9">
+        <v>0.1026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44420</v>
+      </c>
+      <c r="J10" s="1">
+        <v>409679.53</v>
+      </c>
+      <c r="K10">
+        <v>305083.5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-1920</v>
+      </c>
+      <c r="M10">
+        <v>-0.62929999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44421</v>
+      </c>
+      <c r="J11" s="1">
+        <v>401674.82</v>
+      </c>
+      <c r="K11">
+        <v>312203.12</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-2859.5</v>
+      </c>
+      <c r="M11">
+        <v>-0.91590000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44424</v>
+      </c>
+      <c r="J12" s="1">
+        <v>403321.06</v>
+      </c>
+      <c r="K12">
+        <v>303182</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-3462</v>
+      </c>
+      <c r="M12">
+        <v>-1.1418999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44425</v>
+      </c>
+      <c r="J13" s="1">
+        <v>395314.64</v>
+      </c>
+      <c r="K13">
+        <v>289618</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-7968.9</v>
+      </c>
+      <c r="M13">
+        <v>-2.7515000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44426</v>
+      </c>
+      <c r="J14" s="1">
+        <v>396758.63</v>
+      </c>
+      <c r="K14">
+        <v>245890</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1536</v>
+      </c>
+      <c r="M14">
+        <v>0.62470000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44427</v>
+      </c>
+      <c r="J15" s="1">
+        <v>317723.65999999997</v>
+      </c>
+      <c r="K15">
+        <v>247268.36</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1421.5</v>
+      </c>
+      <c r="M15">
+        <v>0.57489999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44428</v>
+      </c>
+      <c r="J16" s="1">
+        <v>353767.54</v>
+      </c>
+      <c r="K16">
+        <v>285639.59999999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-4326.3999999999996</v>
+      </c>
+      <c r="M16">
+        <v>-1.5145999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44431</v>
+      </c>
+      <c r="J17" s="1">
+        <v>260975.73</v>
+      </c>
+      <c r="K17">
+        <v>218346.4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>7254.8</v>
+      </c>
+      <c r="M17">
+        <v>3.3226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44432</v>
+      </c>
+      <c r="J18" s="1">
+        <v>238907.54</v>
+      </c>
+      <c r="K18">
+        <v>198768.7</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4851.3</v>
+      </c>
+      <c r="M18">
+        <v>2.4407000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44433</v>
+      </c>
+      <c r="J19" s="1">
+        <v>367314.17</v>
+      </c>
+      <c r="K19">
+        <v>165377.5</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1569.8</v>
+      </c>
+      <c r="M19">
+        <v>0.94920000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44434</v>
+      </c>
+      <c r="J20" s="1">
+        <v>219219.5</v>
+      </c>
+      <c r="K20">
+        <v>183110.91</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-2242</v>
+      </c>
+      <c r="M20">
+        <v>-1.2243999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44435</v>
+      </c>
+      <c r="J21" s="1">
+        <v>354935.94</v>
+      </c>
+      <c r="K21">
+        <v>236698</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1110</v>
+      </c>
+      <c r="M21">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44438</v>
+      </c>
+      <c r="J22" s="1">
+        <v>291161.09000000003</v>
+      </c>
+      <c r="K22">
+        <v>268589.53000000003</v>
+      </c>
+      <c r="L22" s="1">
+        <v>720</v>
+      </c>
+      <c r="M22">
+        <v>0.2681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44439</v>
+      </c>
+      <c r="J23" s="1">
+        <v>365933.92</v>
+      </c>
+      <c r="K23">
+        <v>229250</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-818.5</v>
+      </c>
+      <c r="M23">
+        <v>-0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="J24" s="1">
+        <f>AVERAGE(J2:J23)</f>
+        <v>362022.2131818182</v>
+      </c>
+      <c r="K24" s="1">
+        <f>AVERAGE(K2:K23)</f>
+        <v>251652.35045454549</v>
+      </c>
+      <c r="L24" s="1">
+        <f>SUM(L2:L23)</f>
+        <v>-8005.0000000000036</v>
+      </c>
+      <c r="M24" s="5">
+        <f>L24/K24*100</f>
+        <v>-3.1809756537306417</v>
       </c>
     </row>
   </sheetData>
@@ -10552,79 +11991,163 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44438</v>
+      </c>
+      <c r="J2" s="1">
+        <v>291161.09000000003</v>
+      </c>
+      <c r="K2">
+        <v>268589.53000000003</v>
+      </c>
+      <c r="L2" s="1">
+        <v>720</v>
+      </c>
+      <c r="M2">
+        <v>0.2681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44439</v>
+      </c>
+      <c r="J3" s="1">
+        <v>365933.92</v>
+      </c>
+      <c r="K3">
+        <v>229250</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-818.5</v>
+      </c>
+      <c r="M3">
+        <v>-0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44440</v>
+      </c>
+      <c r="J4" s="1">
+        <v>367517.73</v>
+      </c>
+      <c r="K4">
+        <v>235760</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1636.5</v>
+      </c>
+      <c r="M4">
+        <v>0.69410000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44441</v>
+      </c>
+      <c r="J5" s="1">
+        <v>317929.12</v>
+      </c>
+      <c r="K5">
+        <v>256454.57</v>
+      </c>
+      <c r="L5" s="1">
+        <v>747.5</v>
+      </c>
+      <c r="M5">
+        <v>0.29149999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44442</v>
+      </c>
+      <c r="J6" s="1">
+        <v>358800.82</v>
+      </c>
+      <c r="K6">
+        <v>253946</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1575.9</v>
+      </c>
+      <c r="M6">
+        <v>-0.62060000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>340268.53599999996</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>248800.02000000002</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>709.59999999999991</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>0.28520898028866709</v>
       </c>
     </row>
   </sheetData>
@@ -10634,223 +12157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1">
-        <v>51300</v>
-      </c>
-      <c r="B1">
-        <v>5600</v>
-      </c>
-      <c r="C1">
-        <f>A1-B1</f>
-        <v>45700</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="H4" s="11"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="H13">
-        <v>4700</v>
-      </c>
-      <c r="K13">
-        <v>5100</v>
-      </c>
-      <c r="L13">
-        <v>7196.1</v>
-      </c>
-      <c r="M13">
-        <v>5100</v>
-      </c>
-      <c r="N13">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O13" s="1">
-        <f>M13*N13</f>
-        <v>7150.2</v>
-      </c>
-      <c r="P13" s="1">
-        <f>O13-L13</f>
-        <v>-45.900000000000546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="H14">
-        <v>2200</v>
-      </c>
-      <c r="K14">
-        <v>5500</v>
-      </c>
-      <c r="L14">
-        <v>7980.5</v>
-      </c>
-      <c r="M14">
-        <v>5500</v>
-      </c>
-      <c r="N14">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O19" si="0">M14*N14</f>
-        <v>7710.9999999999991</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" ref="P14:P19" si="1">O14-L14</f>
-        <v>-269.50000000000091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="H15">
-        <v>3400</v>
-      </c>
-      <c r="K15">
-        <v>5700</v>
-      </c>
-      <c r="L15">
-        <v>8367.6</v>
-      </c>
-      <c r="M15">
-        <v>5700</v>
-      </c>
-      <c r="N15">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>7991.4</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="1"/>
-        <v>-376.20000000000073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="H16">
-        <v>3000</v>
-      </c>
-      <c r="K16">
-        <v>5900</v>
-      </c>
-      <c r="L16">
-        <v>8796.9</v>
-      </c>
-      <c r="M16">
-        <v>5900</v>
-      </c>
-      <c r="N16">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>8271.7999999999993</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="1"/>
-        <v>-525.10000000000036</v>
-      </c>
-    </row>
-    <row r="17" spans="8:16">
-      <c r="H17">
-        <v>3800</v>
-      </c>
-      <c r="K17">
-        <v>5000</v>
-      </c>
-      <c r="L17">
-        <v>7505</v>
-      </c>
-      <c r="M17">
-        <v>5000</v>
-      </c>
-      <c r="N17">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>7010</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="1"/>
-        <v>-495</v>
-      </c>
-    </row>
-    <row r="18" spans="8:16">
-      <c r="H18">
-        <v>3000</v>
-      </c>
-      <c r="K18">
-        <v>5100</v>
-      </c>
-      <c r="L18">
-        <v>7706.1</v>
-      </c>
-      <c r="M18">
-        <v>5100</v>
-      </c>
-      <c r="N18">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>7150.2</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="1"/>
-        <v>-555.90000000000055</v>
-      </c>
-    </row>
-    <row r="19" spans="8:16">
-      <c r="K19">
-        <v>5100</v>
-      </c>
-      <c r="L19">
-        <v>7706.1</v>
-      </c>
-      <c r="M19">
-        <v>5100</v>
-      </c>
-      <c r="N19">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
-        <v>7150.2</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" si="1"/>
-        <v>-555.90000000000055</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -10908,793 +12215,6 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44445</v>
-      </c>
-      <c r="J2" s="1">
-        <v>361852.28</v>
-      </c>
-      <c r="K2">
-        <v>264602.5</v>
-      </c>
-      <c r="L2" s="1">
-        <v>3461.5</v>
-      </c>
-      <c r="M2">
-        <v>1.3082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44446</v>
-      </c>
-      <c r="J3" s="1">
-        <v>372951.23</v>
-      </c>
-      <c r="K3">
-        <v>191255</v>
-      </c>
-      <c r="L3" s="1">
-        <v>3021</v>
-      </c>
-      <c r="M3">
-        <v>1.5795999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44447</v>
-      </c>
-      <c r="J4" s="1">
-        <v>347440.9</v>
-      </c>
-      <c r="K4">
-        <v>209946.1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1293</v>
-      </c>
-      <c r="M4">
-        <v>-0.6159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44448</v>
-      </c>
-      <c r="J5" s="1">
-        <v>373576.8</v>
-      </c>
-      <c r="K5">
-        <v>260258</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1944.3</v>
-      </c>
-      <c r="M5">
-        <v>0.74709999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44449</v>
-      </c>
-      <c r="J6" s="1">
-        <v>361293.45</v>
-      </c>
-      <c r="K6">
-        <v>282141.32</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1932</v>
-      </c>
-      <c r="M6">
-        <v>0.68479999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>363422.93200000003</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>241640.58399999997</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>9065.7999999999993</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>3.7517704393563291</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44410</v>
-      </c>
-      <c r="J2" s="1">
-        <v>392126.02</v>
-      </c>
-      <c r="K2">
-        <v>320852.71999999997</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-29.6</v>
-      </c>
-      <c r="M2">
-        <v>-9.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44411</v>
-      </c>
-      <c r="J3" s="1">
-        <v>428982.28</v>
-      </c>
-      <c r="K3">
-        <v>216964</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-5543</v>
-      </c>
-      <c r="M3">
-        <v>-2.5548000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44412</v>
-      </c>
-      <c r="J4" s="1">
-        <v>407773.25</v>
-      </c>
-      <c r="K4">
-        <v>157353</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2844</v>
-      </c>
-      <c r="M4">
-        <v>1.8073999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44413</v>
-      </c>
-      <c r="J5" s="1">
-        <v>383514.64</v>
-      </c>
-      <c r="K5">
-        <v>190161.02</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-1180</v>
-      </c>
-      <c r="M5">
-        <v>-0.62050000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44414</v>
-      </c>
-      <c r="J6" s="1">
-        <v>398314.84</v>
-      </c>
-      <c r="K6">
-        <v>247438.86</v>
-      </c>
-      <c r="L6" s="1">
-        <v>218.8</v>
-      </c>
-      <c r="M6">
-        <v>8.8400000000000006E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6">
-        <v>44417</v>
-      </c>
-      <c r="J7" s="1">
-        <v>354194.04</v>
-      </c>
-      <c r="K7">
-        <v>279851.99</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-18.8</v>
-      </c>
-      <c r="M7">
-        <v>-6.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6">
-        <v>44418</v>
-      </c>
-      <c r="J8" s="1">
-        <v>411295.97</v>
-      </c>
-      <c r="K8">
-        <v>334866</v>
-      </c>
-      <c r="L8" s="1">
-        <v>530</v>
-      </c>
-      <c r="M8">
-        <v>0.1583</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6">
-        <v>44419</v>
-      </c>
-      <c r="J9" s="1">
-        <v>411599.88</v>
-      </c>
-      <c r="K9">
-        <v>299838.5</v>
-      </c>
-      <c r="L9" s="1">
-        <v>307.5</v>
-      </c>
-      <c r="M9">
-        <v>0.1026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6">
-        <v>44420</v>
-      </c>
-      <c r="J10" s="1">
-        <v>409679.53</v>
-      </c>
-      <c r="K10">
-        <v>305083.5</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-1920</v>
-      </c>
-      <c r="M10">
-        <v>-0.62929999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6">
-        <v>44421</v>
-      </c>
-      <c r="J11" s="1">
-        <v>401674.82</v>
-      </c>
-      <c r="K11">
-        <v>312203.12</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-2859.5</v>
-      </c>
-      <c r="M11">
-        <v>-0.91590000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6">
-        <v>44424</v>
-      </c>
-      <c r="J12" s="1">
-        <v>403321.06</v>
-      </c>
-      <c r="K12">
-        <v>303182</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-3462</v>
-      </c>
-      <c r="M12">
-        <v>-1.1418999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6">
-        <v>44425</v>
-      </c>
-      <c r="J13" s="1">
-        <v>395314.64</v>
-      </c>
-      <c r="K13">
-        <v>289618</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-7968.9</v>
-      </c>
-      <c r="M13">
-        <v>-2.7515000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6">
-        <v>44426</v>
-      </c>
-      <c r="J14" s="1">
-        <v>396758.63</v>
-      </c>
-      <c r="K14">
-        <v>245890</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1536</v>
-      </c>
-      <c r="M14">
-        <v>0.62470000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6">
-        <v>44427</v>
-      </c>
-      <c r="J15" s="1">
-        <v>317723.65999999997</v>
-      </c>
-      <c r="K15">
-        <v>247268.36</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1421.5</v>
-      </c>
-      <c r="M15">
-        <v>0.57489999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6">
-        <v>44428</v>
-      </c>
-      <c r="J16" s="1">
-        <v>353767.54</v>
-      </c>
-      <c r="K16">
-        <v>285639.59999999998</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-4326.3999999999996</v>
-      </c>
-      <c r="M16">
-        <v>-1.5145999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44431</v>
-      </c>
-      <c r="J17" s="1">
-        <v>260975.73</v>
-      </c>
-      <c r="K17">
-        <v>218346.4</v>
-      </c>
-      <c r="L17" s="1">
-        <v>7254.8</v>
-      </c>
-      <c r="M17">
-        <v>3.3226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6">
-        <v>44432</v>
-      </c>
-      <c r="J18" s="1">
-        <v>238907.54</v>
-      </c>
-      <c r="K18">
-        <v>198768.7</v>
-      </c>
-      <c r="L18" s="1">
-        <v>4851.3</v>
-      </c>
-      <c r="M18">
-        <v>2.4407000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44433</v>
-      </c>
-      <c r="J19" s="1">
-        <v>367314.17</v>
-      </c>
-      <c r="K19">
-        <v>165377.5</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1569.8</v>
-      </c>
-      <c r="M19">
-        <v>0.94920000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>44434</v>
-      </c>
-      <c r="J20" s="1">
-        <v>219219.5</v>
-      </c>
-      <c r="K20">
-        <v>183110.91</v>
-      </c>
-      <c r="L20" s="1">
-        <v>-2242</v>
-      </c>
-      <c r="M20">
-        <v>-1.2243999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44435</v>
-      </c>
-      <c r="J21" s="1">
-        <v>354935.94</v>
-      </c>
-      <c r="K21">
-        <v>236698</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1110</v>
-      </c>
-      <c r="M21">
-        <v>0.46899999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44438</v>
-      </c>
-      <c r="J22" s="1">
-        <v>291161.09000000003</v>
-      </c>
-      <c r="K22">
-        <v>268589.53000000003</v>
-      </c>
-      <c r="L22" s="1">
-        <v>720</v>
-      </c>
-      <c r="M22">
-        <v>0.2681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6">
-        <v>44439</v>
-      </c>
-      <c r="J23" s="1">
-        <v>365933.92</v>
-      </c>
-      <c r="K23">
-        <v>229250</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-818.5</v>
-      </c>
-      <c r="M23">
-        <v>-0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="J24" s="1">
-        <f>AVERAGE(J2:J23)</f>
-        <v>362022.2131818182</v>
-      </c>
-      <c r="K24" s="1">
-        <f>AVERAGE(K2:K23)</f>
-        <v>251652.35045454549</v>
-      </c>
-      <c r="L24" s="1">
-        <f>SUM(L2:L23)</f>
-        <v>-8005.0000000000036</v>
-      </c>
-      <c r="M24" s="5">
-        <f>L24/K24*100</f>
-        <v>-3.1809756537306417</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44438</v>
-      </c>
-      <c r="J2" s="1">
-        <v>291161.09000000003</v>
-      </c>
-      <c r="K2">
-        <v>268589.53000000003</v>
-      </c>
-      <c r="L2" s="1">
-        <v>720</v>
-      </c>
-      <c r="M2">
-        <v>0.2681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44439</v>
-      </c>
-      <c r="J3" s="1">
-        <v>365933.92</v>
-      </c>
-      <c r="K3">
-        <v>229250</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-818.5</v>
-      </c>
-      <c r="M3">
-        <v>-0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44440</v>
-      </c>
-      <c r="J4" s="1">
-        <v>367517.73</v>
-      </c>
-      <c r="K4">
-        <v>235760</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1636.5</v>
-      </c>
-      <c r="M4">
-        <v>0.69410000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44441</v>
-      </c>
-      <c r="J5" s="1">
-        <v>317929.12</v>
-      </c>
-      <c r="K5">
-        <v>256454.57</v>
-      </c>
-      <c r="L5" s="1">
-        <v>747.5</v>
-      </c>
-      <c r="M5">
-        <v>0.29149999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44442</v>
-      </c>
-      <c r="J6" s="1">
-        <v>358800.82</v>
-      </c>
-      <c r="K6">
-        <v>253946</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-1575.9</v>
-      </c>
-      <c r="M6">
-        <v>-0.62060000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>340268.53599999996</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>248800.02000000002</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>709.59999999999991</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>0.28520898028866709</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
         <v>44431</v>
       </c>
       <c r="J2" s="1">
@@ -11794,172 +12314,6 @@
       <c r="M7" s="5">
         <f>L7/K7*100</f>
         <v>6.2575481902646235</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44424</v>
-      </c>
-      <c r="J2" s="1">
-        <v>403321.06</v>
-      </c>
-      <c r="K2">
-        <v>303182</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-3462</v>
-      </c>
-      <c r="M2">
-        <v>-1.1418999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44425</v>
-      </c>
-      <c r="J3" s="1">
-        <v>395314.64</v>
-      </c>
-      <c r="K3">
-        <v>289618</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-7968.9</v>
-      </c>
-      <c r="M3">
-        <v>-2.7515000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44426</v>
-      </c>
-      <c r="J4" s="1">
-        <v>396758.63</v>
-      </c>
-      <c r="K4">
-        <v>245890</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1536</v>
-      </c>
-      <c r="M4">
-        <v>0.62470000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44427</v>
-      </c>
-      <c r="J5" s="1">
-        <v>317723.65999999997</v>
-      </c>
-      <c r="K5">
-        <v>247268.36</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1421.5</v>
-      </c>
-      <c r="M5">
-        <v>0.57489999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44428</v>
-      </c>
-      <c r="J6" s="1">
-        <v>353767.54</v>
-      </c>
-      <c r="K6">
-        <v>285639.59999999998</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-4326.3999999999996</v>
-      </c>
-      <c r="M6">
-        <v>-1.5145999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>373377.10600000003</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>274319.592</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-12799.8</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-4.6660174385211244</v>
       </c>
     </row>
   </sheetData>
@@ -12027,105 +12381,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="J2" s="1">
-        <v>354194.04</v>
+        <v>403321.06</v>
       </c>
       <c r="K2">
-        <v>279851.99</v>
+        <v>303182</v>
       </c>
       <c r="L2" s="1">
-        <v>-18.8</v>
+        <v>-3462</v>
       </c>
       <c r="M2">
-        <v>-6.7000000000000002E-3</v>
+        <v>-1.1418999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44418</v>
+        <v>44425</v>
       </c>
       <c r="J3" s="1">
-        <v>411295.97</v>
+        <v>395314.64</v>
       </c>
       <c r="K3">
-        <v>334866</v>
+        <v>289618</v>
       </c>
       <c r="L3" s="1">
-        <v>530</v>
+        <v>-7968.9</v>
       </c>
       <c r="M3">
-        <v>0.1583</v>
+        <v>-2.7515000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="J4" s="1">
-        <v>411599.88</v>
+        <v>396758.63</v>
       </c>
       <c r="K4">
-        <v>299838.5</v>
+        <v>245890</v>
       </c>
       <c r="L4" s="1">
-        <v>307.5</v>
+        <v>1536</v>
       </c>
       <c r="M4">
-        <v>0.1026</v>
+        <v>0.62470000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="J5" s="1">
-        <v>409679.53</v>
+        <v>317723.65999999997</v>
       </c>
       <c r="K5">
-        <v>305083.5</v>
+        <v>247268.36</v>
       </c>
       <c r="L5" s="1">
-        <v>-1920</v>
+        <v>1421.5</v>
       </c>
       <c r="M5">
-        <v>-0.62929999999999997</v>
+        <v>0.57489999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44421</v>
+        <v>44428</v>
       </c>
       <c r="J6" s="1">
-        <v>401674.82</v>
+        <v>353767.54</v>
       </c>
       <c r="K6">
-        <v>312203.12</v>
+        <v>285639.59999999998</v>
       </c>
       <c r="L6" s="1">
-        <v>-2859.5</v>
+        <v>-4326.3999999999996</v>
       </c>
       <c r="M6">
-        <v>-0.91590000000000005</v>
+        <v>-1.5145999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>397688.84800000006</v>
+        <v>373377.10600000003</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>306368.62199999997</v>
+        <v>274319.592</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-3960.8</v>
+        <v>-12799.8</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-1.29282169111953</v>
+        <v>-4.6660174385211244</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="9A" sheetId="57" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="每日时间表" sheetId="34" r:id="rId17"/>
     <sheet name="Sheet1" sheetId="35" r:id="rId18"/>
     <sheet name="突破均线" sheetId="61" r:id="rId19"/>
+    <sheet name="Sheet2" sheetId="62" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -341,10 +342,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1373,7 +1375,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1420,6 +1422,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7177,7 +7182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
@@ -8397,6 +8402,7 @@
   </sortState>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8546,6 +8552,214 @@
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1">
+        <v>155072479</v>
+      </c>
+      <c r="B1">
+        <v>-1.56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>-114022514</v>
+      </c>
+      <c r="B2">
+        <v>-6.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>-123379854</v>
+      </c>
+      <c r="B3">
+        <v>-7.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <f>SUM(A1:A3)</f>
+        <v>-82329889</v>
+      </c>
+      <c r="B4">
+        <f>SUM(B1:B3)</f>
+        <v>-14.950000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>203022496</v>
+      </c>
+      <c r="B5">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>-88051632</v>
+      </c>
+      <c r="B6">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>-385797216</v>
+      </c>
+      <c r="B7">
+        <v>-7.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>15386976</v>
+      </c>
+      <c r="B8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>65884096</v>
+      </c>
+      <c r="B9">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>37173808</v>
+      </c>
+      <c r="B10">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>155514936</v>
+      </c>
+      <c r="B11">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>-72129216</v>
+      </c>
+      <c r="B12">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>-288373872</v>
+      </c>
+      <c r="B13">
+        <v>-9.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>62353616</v>
+      </c>
+      <c r="B14">
+        <v>5.54</v>
+      </c>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>257055552</v>
+      </c>
+      <c r="B15">
+        <v>5.5</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>-170167090</v>
+      </c>
+      <c r="B16">
+        <v>-2.81</v>
+      </c>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>27510336</v>
+      </c>
+      <c r="B17">
+        <v>1.78</v>
+      </c>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>-216076416</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>-217860711</v>
+      </c>
+      <c r="B19">
+        <v>-6.83</v>
+      </c>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <f>SUM(A1:A19)</f>
+        <v>-779214115</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B1:B19)</f>
+        <v>-28.42</v>
+      </c>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="I25" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="9A" sheetId="57" r:id="rId1"/>
@@ -6964,211 +6964,787 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
+    <col min="16" max="16" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1">
-        <v>51300</v>
-      </c>
-      <c r="B1">
-        <v>5600</v>
-      </c>
-      <c r="C1">
-        <f>A1-B1</f>
-        <v>45700</v>
-      </c>
+    <row r="1" spans="1:17">
       <c r="F1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="H4" s="11"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>5.52</v>
+      </c>
+      <c r="B2">
+        <v>22.02</v>
+      </c>
+      <c r="C2">
+        <v>0.84</v>
+      </c>
+      <c r="D2">
+        <v>-13</v>
+      </c>
+      <c r="E2">
+        <v>-10.11</v>
+      </c>
+      <c r="F2">
+        <f>B2*1+C2*1+D2*0.8+E2*0.6</f>
+        <v>6.3939999999999992</v>
+      </c>
+      <c r="H2">
+        <f>IF(E2&lt;-10,E2*1.4,E2*0.6)</f>
+        <v>-14.153999999999998</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2">
+        <f>B2*1.2+C2*1.2+D2*1.2+H2</f>
+        <v>-2.3219999999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>6.47</v>
+      </c>
+      <c r="B3">
+        <v>19.82</v>
+      </c>
+      <c r="C3">
+        <v>-0.02</v>
+      </c>
+      <c r="D3">
+        <v>-10</v>
+      </c>
+      <c r="E3">
+        <v>-9.3800000000000008</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F27" si="0">B3*1+C3*1+D3*0.8+E3*0.6</f>
+        <v>6.1720000000000006</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H27" si="1">IF(E3&lt;-10,E3*1.4,E3*0.6)</f>
+        <v>-5.6280000000000001</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3">
+        <f t="shared" ref="J3:J27" si="2">B3*1.2+C3*1.2+D3*1.2+H3</f>
+        <v>6.1319999999999979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>4.43</v>
+      </c>
+      <c r="B4">
+        <v>12.48</v>
+      </c>
+      <c r="C4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D4">
+        <v>-7</v>
+      </c>
+      <c r="E4">
+        <v>-7.98</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4.3120000000000012</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-4.7880000000000003</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>4.452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>4.12</v>
+      </c>
+      <c r="B5">
+        <v>7.75</v>
+      </c>
+      <c r="C5">
+        <v>0.66</v>
+      </c>
+      <c r="D5">
+        <v>-5</v>
+      </c>
+      <c r="E5">
+        <v>-3.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2.31</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-2.1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>1.9919999999999987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>4.12</v>
+      </c>
+      <c r="B6">
+        <v>10.46</v>
+      </c>
+      <c r="C6">
+        <v>2.06</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
+        <v>-6.71</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.6940000000000008</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-4.0259999999999998</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>3.7980000000000018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>7.91</v>
+      </c>
+      <c r="B7">
+        <v>13.47</v>
+      </c>
+      <c r="C7">
+        <v>1.05</v>
+      </c>
+      <c r="D7">
+        <v>-13</v>
+      </c>
+      <c r="E7">
+        <v>-1.2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000012</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-0.72</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>1.1040000000000034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>0.38</v>
+      </c>
+      <c r="B8">
+        <v>15.88</v>
+      </c>
+      <c r="C8">
+        <v>-6.45</v>
+      </c>
+      <c r="D8">
+        <v>-6</v>
+      </c>
+      <c r="E8">
+        <v>-3.02</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.8179999999999992</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-1.8119999999999998</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>2.3040000000000016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>5.83</v>
+      </c>
+      <c r="B9">
+        <v>5.92</v>
+      </c>
+      <c r="C9">
+        <v>3.39</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>-7.32</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3.3180000000000005</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-4.3920000000000003</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>9.75</v>
+      </c>
+      <c r="B10">
+        <v>14.68</v>
+      </c>
+      <c r="C10">
+        <v>-1.91</v>
+      </c>
+      <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10">
+        <v>-8.19</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-4.9139999999999997</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>-0.11</v>
+      </c>
+      <c r="B11">
+        <v>-0.27</v>
+      </c>
+      <c r="C11">
+        <v>4.03</v>
+      </c>
+      <c r="D11">
+        <v>-6</v>
+      </c>
+      <c r="E11">
+        <v>1.95</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999945</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.17</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>-1.5179999999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>2.29</v>
+      </c>
+      <c r="B12">
+        <v>10.15</v>
+      </c>
+      <c r="C12">
+        <v>-0.8</v>
+      </c>
+      <c r="D12">
+        <v>-5</v>
+      </c>
+      <c r="E12">
+        <v>-3.95</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2.9799999999999995</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>-2.37</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>2.8499999999999988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>-0.85</v>
+      </c>
+      <c r="C13">
+        <v>10.82</v>
+      </c>
+      <c r="D13">
+        <v>-4</v>
+      </c>
+      <c r="E13">
+        <v>-5.53</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3.4520000000000004</v>
+      </c>
       <c r="H13">
-        <v>4700</v>
-      </c>
-      <c r="K13">
-        <v>5100</v>
-      </c>
-      <c r="L13">
-        <v>7196.1</v>
-      </c>
-      <c r="M13">
-        <v>5100</v>
-      </c>
-      <c r="N13">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O13" s="1">
-        <f>M13*N13</f>
-        <v>7150.2</v>
-      </c>
-      <c r="P13" s="1">
-        <f>O13-L13</f>
-        <v>-45.900000000000546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <f t="shared" si="1"/>
+        <v>-3.3180000000000001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>3.8460000000000005</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="B14">
+        <v>10.11</v>
+      </c>
+      <c r="C14">
+        <v>4.55</v>
+      </c>
+      <c r="D14">
+        <v>-5</v>
+      </c>
+      <c r="E14">
+        <v>-9.2899999999999991</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>5.0860000000000012</v>
+      </c>
       <c r="H14">
-        <v>2200</v>
-      </c>
-      <c r="K14">
-        <v>5500</v>
-      </c>
-      <c r="L14">
-        <v>7980.5</v>
-      </c>
-      <c r="M14">
-        <v>5500</v>
-      </c>
-      <c r="N14">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O19" si="0">M14*N14</f>
-        <v>7710.9999999999991</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" ref="P14:P19" si="1">O14-L14</f>
-        <v>-269.50000000000091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <f t="shared" si="1"/>
+        <v>-5.573999999999999</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>6.0179999999999998</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="B15">
+        <v>8.83</v>
+      </c>
+      <c r="C15">
+        <v>0.82</v>
+      </c>
+      <c r="D15">
+        <v>-2</v>
+      </c>
+      <c r="E15">
+        <v>-7.53</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3.5320000000000009</v>
+      </c>
       <c r="H15">
-        <v>3400</v>
-      </c>
-      <c r="K15">
-        <v>5700</v>
-      </c>
-      <c r="L15">
-        <v>8367.6</v>
-      </c>
-      <c r="M15">
-        <v>5700</v>
-      </c>
-      <c r="N15">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>-4.5179999999999998</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>4.6619999999999999</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>5.09</v>
+      </c>
+      <c r="B16">
+        <v>7.55</v>
+      </c>
+      <c r="C16">
+        <v>0.53</v>
+      </c>
+      <c r="D16">
+        <v>-5</v>
+      </c>
+      <c r="E16">
+        <v>-3.07</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
-        <v>7991.4</v>
-      </c>
-      <c r="P15" s="1">
+        <v>2.2380000000000004</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>-376.20000000000073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="H16">
-        <v>3000</v>
-      </c>
-      <c r="K16">
-        <v>5900</v>
-      </c>
-      <c r="L16">
-        <v>8796.9</v>
-      </c>
-      <c r="M16">
-        <v>5900</v>
-      </c>
-      <c r="N16">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O16">
+        <v>-1.8419999999999999</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>1.8539999999999981</v>
+      </c>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>3.36</v>
+      </c>
+      <c r="B17">
+        <v>-0.62</v>
+      </c>
+      <c r="C17">
+        <v>3.97</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>-7.5</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>8271.7999999999993</v>
-      </c>
-      <c r="P16" s="1">
+        <v>2.0500000000000007</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
-        <v>-525.10000000000036</v>
-      </c>
-    </row>
-    <row r="17" spans="8:16">
-      <c r="H17">
-        <v>3800</v>
-      </c>
-      <c r="K17">
-        <v>5000</v>
-      </c>
-      <c r="L17">
-        <v>7505</v>
-      </c>
-      <c r="M17">
-        <v>5000</v>
-      </c>
-      <c r="N17">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O17">
+        <v>-4.5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>4.32</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>3.69</v>
+      </c>
+      <c r="B18">
+        <v>19.77</v>
+      </c>
+      <c r="C18">
+        <v>0.79</v>
+      </c>
+      <c r="D18">
+        <v>-7</v>
+      </c>
+      <c r="E18">
+        <v>-13.47</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
-        <v>7010</v>
-      </c>
-      <c r="P17" s="1">
+        <v>6.8779999999999966</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
-        <v>-495</v>
-      </c>
-    </row>
-    <row r="18" spans="8:16">
-      <c r="H18">
-        <v>3000</v>
-      </c>
-      <c r="K18">
-        <v>5100</v>
-      </c>
-      <c r="L18">
-        <v>7706.1</v>
-      </c>
-      <c r="M18">
-        <v>5100</v>
-      </c>
-      <c r="N18">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O18">
+        <v>-18.858000000000001</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>-2.5860000000000021</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>4.17</v>
+      </c>
+      <c r="B19">
+        <v>5.99</v>
+      </c>
+      <c r="C19">
+        <v>2.9</v>
+      </c>
+      <c r="D19">
+        <v>-3</v>
+      </c>
+      <c r="E19">
+        <v>-6.35</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
-        <v>7150.2</v>
-      </c>
-      <c r="P18" s="1">
+        <v>2.6800000000000006</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="1"/>
-        <v>-555.90000000000055</v>
-      </c>
-    </row>
-    <row r="19" spans="8:16">
-      <c r="K19">
-        <v>5100</v>
-      </c>
-      <c r="L19">
-        <v>7706.1</v>
-      </c>
-      <c r="M19">
-        <v>5100</v>
-      </c>
-      <c r="N19">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="O19">
+        <v>-3.8099999999999996</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>3.258</v>
+      </c>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="B20">
+        <v>9.32</v>
+      </c>
+      <c r="C20">
+        <v>1.44</v>
+      </c>
+      <c r="D20">
+        <v>-5</v>
+      </c>
+      <c r="E20">
+        <v>-5.65</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
-        <v>7150.2</v>
-      </c>
-      <c r="P19" s="1">
+        <v>3.3699999999999997</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="1"/>
-        <v>-555.90000000000055</v>
+        <v>-3.39</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>3.5219999999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>10.02</v>
+      </c>
+      <c r="B21">
+        <v>13.02</v>
+      </c>
+      <c r="C21">
+        <v>-3.27</v>
+      </c>
+      <c r="D21">
+        <v>-4</v>
+      </c>
+      <c r="E21">
+        <v>-5.78</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>3.0819999999999999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>-3.468</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>3.4319999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>6.54</v>
+      </c>
+      <c r="B22">
+        <v>8.01</v>
+      </c>
+      <c r="C22">
+        <v>6.01</v>
+      </c>
+      <c r="D22">
+        <v>-2</v>
+      </c>
+      <c r="E22">
+        <v>-11.55</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>5.4899999999999993</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>-16.170000000000002</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>-1.746000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>6.87</v>
+      </c>
+      <c r="B23">
+        <v>8.25</v>
+      </c>
+      <c r="C23">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D23">
+        <v>-3</v>
+      </c>
+      <c r="E23">
+        <v>-8.93</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>4.6019999999999994</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>-5.3579999999999997</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>5.8740000000000014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>6.95</v>
+      </c>
+      <c r="B24">
+        <v>10.99</v>
+      </c>
+      <c r="C24">
+        <v>1.42</v>
+      </c>
+      <c r="D24">
+        <v>-6</v>
+      </c>
+      <c r="E24">
+        <v>-6.73</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>3.5719999999999992</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>-4.0380000000000003</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>3.6540000000000017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>1.19</v>
+      </c>
+      <c r="B25">
+        <v>7.29</v>
+      </c>
+      <c r="C25">
+        <v>-0.82</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>-5.86</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>-3.516</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>3.0479999999999992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>-1.56</v>
+      </c>
+      <c r="B26">
+        <v>0.43</v>
+      </c>
+      <c r="C26">
+        <v>5.55</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>-12.65</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>3.99</v>
+      </c>
+      <c r="H26">
+        <f>IF(E26&lt;-10,E26*1.4,E26*0.6)</f>
+        <v>-17.71</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>-2.1340000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>3.88</v>
+      </c>
+      <c r="B27">
+        <v>2.58</v>
+      </c>
+      <c r="C27">
+        <v>-0.52</v>
+      </c>
+      <c r="D27">
+        <v>-3</v>
+      </c>
+      <c r="E27">
+        <v>0.51</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>-3.4000000000000308E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>-0.82199999999999962</v>
       </c>
     </row>
   </sheetData>
@@ -8559,7 +9135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -8760,6 +9336,7 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -4,35 +4,36 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="102" sheetId="65" r:id="rId1"/>
-    <sheet name="101" sheetId="64" r:id="rId2"/>
-    <sheet name="9A" sheetId="57" r:id="rId3"/>
-    <sheet name="8A" sheetId="53" r:id="rId4"/>
-    <sheet name="7A" sheetId="48" r:id="rId5"/>
-    <sheet name="6A" sheetId="40" r:id="rId6"/>
-    <sheet name="5" sheetId="37" r:id="rId7"/>
-    <sheet name="2104" sheetId="36" r:id="rId8"/>
-    <sheet name="2103" sheetId="33" r:id="rId9"/>
-    <sheet name="2102" sheetId="31" r:id="rId10"/>
-    <sheet name="2101" sheetId="26" r:id="rId11"/>
-    <sheet name="每月" sheetId="29" r:id="rId12"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId13"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId14"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId16"/>
-    <sheet name="突破均线" sheetId="61" r:id="rId17"/>
-    <sheet name="Sheet2" sheetId="62" r:id="rId18"/>
-    <sheet name="k线" sheetId="63" r:id="rId19"/>
+    <sheet name="103" sheetId="66" r:id="rId1"/>
+    <sheet name="102" sheetId="65" r:id="rId2"/>
+    <sheet name="101" sheetId="64" r:id="rId3"/>
+    <sheet name="9A" sheetId="57" r:id="rId4"/>
+    <sheet name="8A" sheetId="53" r:id="rId5"/>
+    <sheet name="7A" sheetId="48" r:id="rId6"/>
+    <sheet name="6A" sheetId="40" r:id="rId7"/>
+    <sheet name="5" sheetId="37" r:id="rId8"/>
+    <sheet name="2104" sheetId="36" r:id="rId9"/>
+    <sheet name="2103" sheetId="33" r:id="rId10"/>
+    <sheet name="2102" sheetId="31" r:id="rId11"/>
+    <sheet name="2101" sheetId="26" r:id="rId12"/>
+    <sheet name="每月" sheetId="29" r:id="rId13"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId14"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId15"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId17"/>
+    <sheet name="突破均线" sheetId="61" r:id="rId18"/>
+    <sheet name="Sheet2" sheetId="62" r:id="rId19"/>
+    <sheet name="k线" sheetId="63" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="94">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1945,14 +1946,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
@@ -1999,105 +1999,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44452</v>
+        <v>44487</v>
       </c>
       <c r="J2" s="1">
-        <v>332610.81</v>
+        <v>358155.17</v>
       </c>
       <c r="K2">
-        <v>251446</v>
+        <v>298049</v>
       </c>
       <c r="L2" s="1">
-        <v>-712</v>
+        <v>1777</v>
       </c>
       <c r="M2">
-        <v>-0.28320000000000001</v>
+        <v>0.59619999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44453</v>
+        <v>44488</v>
       </c>
       <c r="J3" s="1">
-        <v>352917.5</v>
+        <v>360576.05</v>
       </c>
       <c r="K3">
-        <v>179388</v>
+        <v>292304</v>
       </c>
       <c r="L3" s="1">
-        <v>-3766</v>
+        <v>2425</v>
       </c>
       <c r="M3">
-        <v>-2.0994000000000002</v>
+        <v>0.8296</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44454</v>
+        <v>44489</v>
       </c>
       <c r="J4" s="1">
-        <v>229949.15</v>
+        <v>360894.69</v>
       </c>
       <c r="K4">
-        <v>203432.16</v>
+        <v>283096</v>
       </c>
       <c r="L4" s="1">
-        <v>4142</v>
+        <v>400</v>
       </c>
       <c r="M4">
-        <v>2.0360999999999998</v>
+        <v>0.14130000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44455</v>
+        <v>44490</v>
       </c>
       <c r="J5" s="1">
-        <v>354131.97</v>
+        <v>360309.38</v>
       </c>
       <c r="K5">
-        <v>315077</v>
+        <v>257240</v>
       </c>
       <c r="L5" s="1">
-        <v>-2743</v>
+        <v>-517.6</v>
       </c>
       <c r="M5">
-        <v>-0.87060000000000004</v>
+        <v>-0.20119999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44456</v>
+        <v>44491</v>
       </c>
       <c r="J6" s="1">
-        <v>338172.81</v>
+        <v>338667.31</v>
       </c>
       <c r="K6">
-        <v>303730</v>
+        <v>257383</v>
       </c>
       <c r="L6" s="1">
-        <v>2419</v>
+        <v>-1612</v>
       </c>
       <c r="M6">
-        <v>0.7964</v>
+        <v>-0.62629999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>321556.44800000003</v>
+        <v>355720.52</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>250614.63200000004</v>
+        <v>277614.40000000002</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-660</v>
+        <v>2472.4</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-0.26335254040554179</v>
+        <v>0.89058780812522698</v>
       </c>
     </row>
   </sheetData>
@@ -2108,6 +2108,1184 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:M42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44256</v>
+      </c>
+      <c r="B2">
+        <v>235270.13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>144481.22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>141884.51999999999</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2">
+        <v>2258.36</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I6" si="0">G2/D2*100</f>
+        <v>1.5916887902922745</v>
+      </c>
+      <c r="K2">
+        <v>2744</v>
+      </c>
+      <c r="L2" s="1">
+        <v>85</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ref="M2:M7" si="1">L2/K2*100</f>
+        <v>3.0976676384839652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44257</v>
+      </c>
+      <c r="B3">
+        <v>233987.04</v>
+      </c>
+      <c r="C3">
+        <v>141545.63</v>
+      </c>
+      <c r="D3">
+        <v>144481.22</v>
+      </c>
+      <c r="G3">
+        <v>-1288.79</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.89201212448233747</v>
+      </c>
+      <c r="K3">
+        <v>9534.1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-53.55</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.56166811759893431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44258</v>
+      </c>
+      <c r="B4">
+        <v>235334.7</v>
+      </c>
+      <c r="C4">
+        <v>121781.53</v>
+      </c>
+      <c r="D4">
+        <v>141545.63</v>
+      </c>
+      <c r="G4">
+        <v>1341.73</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.94791340432057136</v>
+      </c>
+      <c r="K4">
+        <v>10594.1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>185.88</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7545615012129392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44259</v>
+      </c>
+      <c r="B5">
+        <v>231718.48</v>
+      </c>
+      <c r="C5">
+        <v>107799.67</v>
+      </c>
+      <c r="D5">
+        <v>121781.53</v>
+      </c>
+      <c r="G5">
+        <v>-3623.24</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.9751966492784248</v>
+      </c>
+      <c r="K5">
+        <v>33814.300000000003</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-334.41</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.98896029194748958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44260</v>
+      </c>
+      <c r="B6">
+        <v>181291.19</v>
+      </c>
+      <c r="C6">
+        <v>107364.03</v>
+      </c>
+      <c r="D6">
+        <v>107799.67</v>
+      </c>
+      <c r="G6">
+        <v>-429.84</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.39873962508419547</v>
+      </c>
+      <c r="K6">
+        <v>41238.300000000003</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-420.61</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.0199499009416004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6"/>
+      <c r="B7">
+        <f>SUM(B2:B6)/5</f>
+        <v>223520.30800000002</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)/5</f>
+        <v>124594.416</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)/5</f>
+        <v>131498.51400000002</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>-1741.7799999999995</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" ref="I7" si="2">G7/D7*100</f>
+        <v>-1.3245624965769569</v>
+      </c>
+      <c r="K7">
+        <f>SUM(K2:K6)/5</f>
+        <v>19584.96</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L2:L6)</f>
+        <v>-537.69000000000005</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.7454230184794866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44263</v>
+      </c>
+      <c r="B10">
+        <v>177449.31</v>
+      </c>
+      <c r="C10">
+        <v>102570.05</v>
+      </c>
+      <c r="D10">
+        <v>124594.416</v>
+      </c>
+      <c r="G10">
+        <v>-3857.44</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10:I15" si="3">G10/D10*100</f>
+        <v>-3.0959974963886023</v>
+      </c>
+      <c r="K10">
+        <v>57983.3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-537.69000000000005</v>
+      </c>
+      <c r="M10" s="5">
+        <f>L10/K10*100</f>
+        <v>-0.92731872797857318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44264</v>
+      </c>
+      <c r="B11">
+        <v>174553.39</v>
+      </c>
+      <c r="C11">
+        <v>99669.3</v>
+      </c>
+      <c r="D11">
+        <v>102570.05</v>
+      </c>
+      <c r="G11">
+        <v>-2900.76</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.8280770068845635</v>
+      </c>
+      <c r="K11">
+        <v>65921</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1745.37</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" ref="M11:M14" si="4">L11/K11*100</f>
+        <v>-2.6476691797757921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44265</v>
+      </c>
+      <c r="B12">
+        <v>145172.67000000001</v>
+      </c>
+      <c r="C12">
+        <v>85578.68</v>
+      </c>
+      <c r="D12">
+        <v>99669.3</v>
+      </c>
+      <c r="G12">
+        <v>610.9</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.61292694942173764</v>
+      </c>
+      <c r="K12">
+        <v>65921</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1047.8</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.5894783149527463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44266</v>
+      </c>
+      <c r="B13">
+        <v>147127.25</v>
+      </c>
+      <c r="C13">
+        <v>87730.34</v>
+      </c>
+      <c r="D13">
+        <v>85578.68</v>
+      </c>
+      <c r="G13">
+        <v>1951.65</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2805329551706106</v>
+      </c>
+      <c r="K13">
+        <v>78588.2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>240.1</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="4"/>
+        <v>0.30551660427392408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44267</v>
+      </c>
+      <c r="B14">
+        <v>147127.25</v>
+      </c>
+      <c r="C14">
+        <v>87730.34</v>
+      </c>
+      <c r="D14">
+        <v>87730.34</v>
+      </c>
+      <c r="G14">
+        <v>300.25</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="3"/>
+        <v>0.34224191995608361</v>
+      </c>
+      <c r="K14">
+        <v>93784.2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1503.02</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6026366914682857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6"/>
+      <c r="B15">
+        <f>SUM(B10:B14)/5</f>
+        <v>158285.97399999999</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C10:C14)/5</f>
+        <v>92655.741999999998</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D10:D14)/5</f>
+        <v>100028.5572</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F10:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G10:G14)</f>
+        <v>-3895.4000000000015</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H10:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.8942879004157041</v>
+      </c>
+      <c r="K15">
+        <f>SUM(K10:K14)/5</f>
+        <v>72439.540000000008</v>
+      </c>
+      <c r="L15" s="1">
+        <f>SUM(L10:L14)</f>
+        <v>-1587.7399999999998</v>
+      </c>
+      <c r="M15" s="5">
+        <f>L15/K15*100</f>
+        <v>-2.1918140286368462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44270</v>
+      </c>
+      <c r="B18">
+        <v>100575.5</v>
+      </c>
+      <c r="C18">
+        <v>86168.59</v>
+      </c>
+      <c r="D18">
+        <v>86168.59</v>
+      </c>
+      <c r="G18">
+        <v>-2337.02</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" ref="I18" si="5">G18/D18*100</f>
+        <v>-2.7121483593963882</v>
+      </c>
+      <c r="K18">
+        <v>108354.3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-1861.58</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" ref="M18:M23" si="6">L18/K18*100</f>
+        <v>-1.7180490298954447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44271</v>
+      </c>
+      <c r="B19">
+        <v>100575.5</v>
+      </c>
+      <c r="C19">
+        <v>86168.59</v>
+      </c>
+      <c r="D19">
+        <v>86168.59</v>
+      </c>
+      <c r="G19">
+        <v>482.95</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" ref="I19:I23" si="7">G19/D19*100</f>
+        <v>0.56047104867330422</v>
+      </c>
+      <c r="K19">
+        <v>119793.70000000003</v>
+      </c>
+      <c r="L19" s="1">
+        <v>129.28</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="6"/>
+        <v>0.1079188638467632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44272</v>
+      </c>
+      <c r="B20">
+        <v>101179.25</v>
+      </c>
+      <c r="C20">
+        <v>86771.38</v>
+      </c>
+      <c r="D20">
+        <v>86168.59</v>
+      </c>
+      <c r="G20">
+        <v>602.79</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="7"/>
+        <v>0.69954724801693979</v>
+      </c>
+      <c r="J20" s="1">
+        <v>158224.62</v>
+      </c>
+      <c r="K20">
+        <v>86816.8</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1098.74</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2655845412408657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44273</v>
+      </c>
+      <c r="B21">
+        <v>101783.73</v>
+      </c>
+      <c r="C21">
+        <v>86483.12</v>
+      </c>
+      <c r="D21">
+        <v>86771.38</v>
+      </c>
+      <c r="G21">
+        <v>603.51</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="7"/>
+        <v>0.69551734684869593</v>
+      </c>
+      <c r="J21" s="1">
+        <v>159255.79999999999</v>
+      </c>
+      <c r="K21">
+        <v>95976.9</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1028.8499999999999</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0719766943920881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44274</v>
+      </c>
+      <c r="B22">
+        <v>100001.12</v>
+      </c>
+      <c r="C22">
+        <v>84699.42</v>
+      </c>
+      <c r="D22">
+        <v>86483.12</v>
+      </c>
+      <c r="G22">
+        <v>-1782.69</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.0613155492077531</v>
+      </c>
+      <c r="J22" s="1">
+        <v>156767.73000000001</v>
+      </c>
+      <c r="K22">
+        <v>143030.29999999999</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-2493.06</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.7430292742167219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6"/>
+      <c r="B23">
+        <f>SUM(B18:B22)/5</f>
+        <v>100823.01999999999</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C18:C22)/5</f>
+        <v>86058.22</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D18:D22)/5</f>
+        <v>86352.054000000004</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F18:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G18:G22)</f>
+        <v>-2430.46</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H18:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.8145943117925136</v>
+      </c>
+      <c r="K23">
+        <f>SUM(K18:K22)/5</f>
+        <v>110794.4</v>
+      </c>
+      <c r="L23" s="1">
+        <f>SUM(L18:L22)</f>
+        <v>-2097.77</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.8933899186240462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6">
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6">
+        <v>44276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6">
+        <v>44277</v>
+      </c>
+      <c r="B26">
+        <v>100750.93</v>
+      </c>
+      <c r="C26">
+        <v>85446.16</v>
+      </c>
+      <c r="D26">
+        <v>84699.42</v>
+      </c>
+      <c r="G26">
+        <v>825.3</v>
+      </c>
+      <c r="I26" s="5">
+        <f>G26/D26*100</f>
+        <v>0.97438683759581823</v>
+      </c>
+      <c r="J26" s="1">
+        <v>178921.15</v>
+      </c>
+      <c r="K26">
+        <v>139330.6</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2167.1</v>
+      </c>
+      <c r="M26" s="5">
+        <f>L26/K26*100</f>
+        <v>1.5553654401832762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
+        <v>44278</v>
+      </c>
+      <c r="B27">
+        <v>100095.84</v>
+      </c>
+      <c r="C27">
+        <v>82616.759999999995</v>
+      </c>
+      <c r="D27">
+        <v>85446.16</v>
+      </c>
+      <c r="G27">
+        <v>-734.81</v>
+      </c>
+      <c r="I27" s="5">
+        <f>G27/D27*100</f>
+        <v>-0.85996842924246086</v>
+      </c>
+      <c r="J27" s="1">
+        <v>177161.7</v>
+      </c>
+      <c r="K27">
+        <v>170976.5</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-1737.1</v>
+      </c>
+      <c r="M27" s="5">
+        <f>L27/K27*100</f>
+        <v>-1.015987577240147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6">
+        <v>44279</v>
+      </c>
+      <c r="B28">
+        <v>98973.77</v>
+      </c>
+      <c r="C28">
+        <v>81493.539999999994</v>
+      </c>
+      <c r="D28">
+        <v>82616.759999999995</v>
+      </c>
+      <c r="G28">
+        <v>-1123.22</v>
+      </c>
+      <c r="I28" s="5">
+        <f>G28/D28*100</f>
+        <v>-1.3595546472652766</v>
+      </c>
+      <c r="J28" s="1">
+        <v>193698.86</v>
+      </c>
+      <c r="K28">
+        <v>168127.4</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-3425.1</v>
+      </c>
+      <c r="M28" s="5">
+        <f>L28/K28*100</f>
+        <v>-2.037205119451083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="6">
+        <v>44280</v>
+      </c>
+      <c r="B29">
+        <v>98987.89</v>
+      </c>
+      <c r="C29">
+        <v>74482.63</v>
+      </c>
+      <c r="D29">
+        <v>81493.539999999994</v>
+      </c>
+      <c r="G29">
+        <v>12.93</v>
+      </c>
+      <c r="I29" s="5">
+        <f>G29/D29*100</f>
+        <v>1.5866288297207362E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>193558.2</v>
+      </c>
+      <c r="K29">
+        <v>171719</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-105.7</v>
+      </c>
+      <c r="M29" s="5">
+        <f>L29/K29*100</f>
+        <v>-6.1554050512756309E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6">
+        <v>44281</v>
+      </c>
+      <c r="B30">
+        <v>80455.62</v>
+      </c>
+      <c r="C30">
+        <v>75948.679999999993</v>
+      </c>
+      <c r="D30">
+        <v>74482.63</v>
+      </c>
+      <c r="G30">
+        <v>1466.05</v>
+      </c>
+      <c r="I30" s="5">
+        <f>G30/D30*100</f>
+        <v>1.9683112693523308</v>
+      </c>
+      <c r="J30" s="1">
+        <v>237818.16</v>
+      </c>
+      <c r="K30">
+        <v>164466.70000000001</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4288.8999999999996</v>
+      </c>
+      <c r="M30" s="5">
+        <f>L30/K30*100</f>
+        <v>2.6077619360028499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6"/>
+      <c r="B31">
+        <f>SUM(B26:B30)/5</f>
+        <v>95852.81</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C26:C30)/5</f>
+        <v>79997.553999999989</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D26:D30)/5</f>
+        <v>81747.702000000005</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F26:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G26:G30)</f>
+        <v>446.24999999999989</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H26:H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" ref="I31" si="8">G31/D31*100</f>
+        <v>0.54588690456399602</v>
+      </c>
+      <c r="K31">
+        <f>SUM(K26:K30)/5</f>
+        <v>162924.03999999998</v>
+      </c>
+      <c r="L31" s="1">
+        <f>SUM(L26:L30)</f>
+        <v>1188.0999999999999</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" ref="M31" si="9">L31/K31*100</f>
+        <v>0.7292355382299629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6">
+        <v>44282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="6">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="6">
+        <v>44284</v>
+      </c>
+      <c r="B34">
+        <v>80623.28</v>
+      </c>
+      <c r="C34">
+        <v>76115.47</v>
+      </c>
+      <c r="D34">
+        <v>75948.679999999993</v>
+      </c>
+      <c r="G34">
+        <v>166.78</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" ref="I34:I38" si="10">G34/D34*100</f>
+        <v>0.21959565327534331</v>
+      </c>
+      <c r="J34" s="1">
+        <v>236449.43</v>
+      </c>
+      <c r="K34">
+        <v>178111.2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>-1355.5</v>
+      </c>
+      <c r="M34" s="5">
+        <f t="shared" ref="M34" si="11">L34/K34*100</f>
+        <v>-0.76104141682274884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="6">
+        <v>44285</v>
+      </c>
+      <c r="B35">
+        <v>81243.5</v>
+      </c>
+      <c r="C35">
+        <v>72230.64</v>
+      </c>
+      <c r="D35">
+        <v>76115.47</v>
+      </c>
+      <c r="G35">
+        <v>619.82000000000005</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="10"/>
+        <v>0.81431540789277146</v>
+      </c>
+      <c r="J35" s="1">
+        <v>238006.58</v>
+      </c>
+      <c r="K35">
+        <v>196525.1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1573.9</v>
+      </c>
+      <c r="M35" s="5">
+        <f>L35/K35*100</f>
+        <v>0.80086462238156864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="6">
+        <v>44286</v>
+      </c>
+      <c r="B36">
+        <v>80539.89</v>
+      </c>
+      <c r="C36">
+        <v>69870.09</v>
+      </c>
+      <c r="D36">
+        <v>72230.64</v>
+      </c>
+      <c r="G36">
+        <v>-703.92</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="10"/>
+        <v>-0.9745448745850791</v>
+      </c>
+      <c r="J36" s="1">
+        <v>235847.35</v>
+      </c>
+      <c r="K36">
+        <v>222700.7</v>
+      </c>
+      <c r="L36" s="1">
+        <v>-2148.4</v>
+      </c>
+      <c r="M36" s="5">
+        <f>L36/K36*100</f>
+        <v>-0.96470285005839673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="6">
+        <v>44287</v>
+      </c>
+      <c r="B37">
+        <v>81873.73</v>
+      </c>
+      <c r="C37">
+        <v>71203.61</v>
+      </c>
+      <c r="D37">
+        <v>69870.09</v>
+      </c>
+      <c r="G37">
+        <v>1333.52</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="10"/>
+        <v>1.9085706058200296</v>
+      </c>
+      <c r="J37" s="1">
+        <v>248497.97</v>
+      </c>
+      <c r="K37">
+        <v>220660.5</v>
+      </c>
+      <c r="L37" s="1">
+        <v>2657.8</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" ref="M37:M38" si="12">L37/K37*100</f>
+        <v>1.2044747474060833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="6">
+        <v>44288</v>
+      </c>
+      <c r="B38">
+        <v>82889.789999999994</v>
+      </c>
+      <c r="C38">
+        <v>69251.38</v>
+      </c>
+      <c r="D38">
+        <v>71203.61</v>
+      </c>
+      <c r="G38">
+        <v>1015.76</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4265568838433895</v>
+      </c>
+      <c r="J38" s="1">
+        <v>251400.16</v>
+      </c>
+      <c r="K38">
+        <v>220808.3</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2923.8</v>
+      </c>
+      <c r="M38" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3241350076061456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="6"/>
+      <c r="B39">
+        <f>SUM(B34:B38)/5</f>
+        <v>81434.037999999986</v>
+      </c>
+      <c r="C39">
+        <f>SUM(C34:C38)/5</f>
+        <v>71734.237999999998</v>
+      </c>
+      <c r="D39">
+        <f>SUM(D34:D38)/5</f>
+        <v>73073.698000000004</v>
+      </c>
+      <c r="F39">
+        <f>SUM(F34:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>SUM(G34:G38)</f>
+        <v>2431.96</v>
+      </c>
+      <c r="H39">
+        <f>SUM(H34:H38)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f>G39/D39*100</f>
+        <v>3.3280921406221977</v>
+      </c>
+      <c r="K39">
+        <f>SUM(K34:K38)/5</f>
+        <v>207761.16</v>
+      </c>
+      <c r="L39" s="1">
+        <f>SUM(L34:L38)</f>
+        <v>3651.6000000000004</v>
+      </c>
+      <c r="M39" s="5">
+        <f>L39/K39*100</f>
+        <v>1.7575951154681655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="6">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="6">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42">
+        <f>SUM(B2,B3,B4,B5,B6,B10,B11,B12,B13,B14,B18,B19,B20,B21,B22,B26,B27,B28,B29,B30,B34,B35,B36)/23</f>
+        <v>136296.40130434785</v>
+      </c>
+      <c r="C42">
+        <f>SUM(C2,C3,C4,C5,C6,C10,C11,C12,C13,C14,C18,C19,C20,C21,C22,C26,C27,C28,C29,C30,C34,C35,C36)/23</f>
+        <v>92815.037391304344</v>
+      </c>
+      <c r="D42">
+        <f>SUM(D2,D3,D4,D5,D6,D10,D11,D12,D13,D14,D18,D19,D20,D21,D22,D26,D27,D29,D28,D30,D34,D35,D36)/23</f>
+        <v>96627.344608695668</v>
+      </c>
+      <c r="G42">
+        <f>SUM(G2,G3,G4,G5,G6,G10,G11,G12,G13,G14,G18,G19,G20,G21,G22,G26,G27,G28,G29,G30,G34,G35,G36)</f>
+        <v>-7538.7100000000009</v>
+      </c>
+      <c r="H42">
+        <f>SUM(H37:H41)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <f>G42/D42*100</f>
+        <v>-7.80183914866846</v>
+      </c>
+      <c r="K42">
+        <f>SUM(K2,K3,K4,K5,K6,K10,K11,K12,K13,K14,K18,K19,K20,K21,K22,K26,K27,K28,K29,K30,K34,K35,K36)/23</f>
+        <v>105480.50869565218</v>
+      </c>
+      <c r="L42" s="1">
+        <f>SUM(L2,L3,L4,L5,L6,L10,L11,L12,L13,L14,L18,L19,L20,L21,L22,L26,L27,L28,L29,L30,L34,L35,L36)</f>
+        <v>-4965.0999999999995</v>
+      </c>
+      <c r="M42" s="5">
+        <f>L42/K42*100</f>
+        <v>-4.7071255736223581</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -2701,7 +3879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -3619,7 +4797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -4129,7 +5307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -4315,7 +5493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -4437,7 +5615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -4519,7 +5697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -5311,7 +6489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I54"/>
   <sheetViews>
@@ -6539,7 +7717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -6748,7 +7926,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44452</v>
+      </c>
+      <c r="J2" s="1">
+        <v>332610.81</v>
+      </c>
+      <c r="K2">
+        <v>251446</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-712</v>
+      </c>
+      <c r="M2">
+        <v>-0.28320000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44453</v>
+      </c>
+      <c r="J3" s="1">
+        <v>352917.5</v>
+      </c>
+      <c r="K3">
+        <v>179388</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-3766</v>
+      </c>
+      <c r="M3">
+        <v>-2.0994000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44454</v>
+      </c>
+      <c r="J4" s="1">
+        <v>229949.15</v>
+      </c>
+      <c r="K4">
+        <v>203432.16</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4142</v>
+      </c>
+      <c r="M4">
+        <v>2.0360999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44455</v>
+      </c>
+      <c r="J5" s="1">
+        <v>354131.97</v>
+      </c>
+      <c r="K5">
+        <v>315077</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-2743</v>
+      </c>
+      <c r="M5">
+        <v>-0.87060000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44456</v>
+      </c>
+      <c r="J6" s="1">
+        <v>338172.81</v>
+      </c>
+      <c r="K6">
+        <v>303730</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2419</v>
+      </c>
+      <c r="M6">
+        <v>0.7964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>321556.44800000003</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>250614.63200000004</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-660</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-0.26335254040554179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V2"/>
   <sheetViews>
@@ -6914,10 +8258,11 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -7014,7 +8359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M22"/>
   <sheetViews>
@@ -7435,11 +8780,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -7890,7 +9235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -8367,7 +9712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -8875,7 +10220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -9744,7 +11089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -10836,1182 +12181,4 @@
     <ignoredError sqref="G12" formula="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:M42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44256</v>
-      </c>
-      <c r="B2">
-        <v>235270.13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>144481.22</v>
-      </c>
-      <c r="D2" s="2">
-        <v>141884.51999999999</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2">
-        <v>2258.36</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:I6" si="0">G2/D2*100</f>
-        <v>1.5916887902922745</v>
-      </c>
-      <c r="K2">
-        <v>2744</v>
-      </c>
-      <c r="L2" s="1">
-        <v>85</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ref="M2:M7" si="1">L2/K2*100</f>
-        <v>3.0976676384839652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44257</v>
-      </c>
-      <c r="B3">
-        <v>233987.04</v>
-      </c>
-      <c r="C3">
-        <v>141545.63</v>
-      </c>
-      <c r="D3">
-        <v>144481.22</v>
-      </c>
-      <c r="G3">
-        <v>-1288.79</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.89201212448233747</v>
-      </c>
-      <c r="K3">
-        <v>9534.1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-53.55</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.56166811759893431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44258</v>
-      </c>
-      <c r="B4">
-        <v>235334.7</v>
-      </c>
-      <c r="C4">
-        <v>121781.53</v>
-      </c>
-      <c r="D4">
-        <v>141545.63</v>
-      </c>
-      <c r="G4">
-        <v>1341.73</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>0.94791340432057136</v>
-      </c>
-      <c r="K4">
-        <v>10594.1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>185.88</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7545615012129392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44259</v>
-      </c>
-      <c r="B5">
-        <v>231718.48</v>
-      </c>
-      <c r="C5">
-        <v>107799.67</v>
-      </c>
-      <c r="D5">
-        <v>121781.53</v>
-      </c>
-      <c r="G5">
-        <v>-3623.24</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.9751966492784248</v>
-      </c>
-      <c r="K5">
-        <v>33814.300000000003</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-334.41</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.98896029194748958</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44260</v>
-      </c>
-      <c r="B6">
-        <v>181291.19</v>
-      </c>
-      <c r="C6">
-        <v>107364.03</v>
-      </c>
-      <c r="D6">
-        <v>107799.67</v>
-      </c>
-      <c r="G6">
-        <v>-429.84</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.39873962508419547</v>
-      </c>
-      <c r="K6">
-        <v>41238.300000000003</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-420.61</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.0199499009416004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6"/>
-      <c r="B7">
-        <f>SUM(B2:B6)/5</f>
-        <v>223520.30800000002</v>
-      </c>
-      <c r="C7">
-        <f>SUM(C2:C6)/5</f>
-        <v>124594.416</v>
-      </c>
-      <c r="D7">
-        <f>SUM(D2:D6)/5</f>
-        <v>131498.51400000002</v>
-      </c>
-      <c r="F7">
-        <f>SUM(F2:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>SUM(G2:G6)</f>
-        <v>-1741.7799999999995</v>
-      </c>
-      <c r="H7">
-        <f>SUM(H2:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" ref="I7" si="2">G7/D7*100</f>
-        <v>-1.3245624965769569</v>
-      </c>
-      <c r="K7">
-        <f>SUM(K2:K6)/5</f>
-        <v>19584.96</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L2:L6)</f>
-        <v>-537.69000000000005</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.7454230184794866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6">
-        <v>44261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6">
-        <v>44263</v>
-      </c>
-      <c r="B10">
-        <v>177449.31</v>
-      </c>
-      <c r="C10">
-        <v>102570.05</v>
-      </c>
-      <c r="D10">
-        <v>124594.416</v>
-      </c>
-      <c r="G10">
-        <v>-3857.44</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" ref="I10:I15" si="3">G10/D10*100</f>
-        <v>-3.0959974963886023</v>
-      </c>
-      <c r="K10">
-        <v>57983.3</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-537.69000000000005</v>
-      </c>
-      <c r="M10" s="5">
-        <f>L10/K10*100</f>
-        <v>-0.92731872797857318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6">
-        <v>44264</v>
-      </c>
-      <c r="B11">
-        <v>174553.39</v>
-      </c>
-      <c r="C11">
-        <v>99669.3</v>
-      </c>
-      <c r="D11">
-        <v>102570.05</v>
-      </c>
-      <c r="G11">
-        <v>-2900.76</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.8280770068845635</v>
-      </c>
-      <c r="K11">
-        <v>65921</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-1745.37</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" ref="M11:M14" si="4">L11/K11*100</f>
-        <v>-2.6476691797757921</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6">
-        <v>44265</v>
-      </c>
-      <c r="B12">
-        <v>145172.67000000001</v>
-      </c>
-      <c r="C12">
-        <v>85578.68</v>
-      </c>
-      <c r="D12">
-        <v>99669.3</v>
-      </c>
-      <c r="G12">
-        <v>610.9</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="3"/>
-        <v>0.61292694942173764</v>
-      </c>
-      <c r="K12">
-        <v>65921</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-1047.8</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.5894783149527463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6">
-        <v>44266</v>
-      </c>
-      <c r="B13">
-        <v>147127.25</v>
-      </c>
-      <c r="C13">
-        <v>87730.34</v>
-      </c>
-      <c r="D13">
-        <v>85578.68</v>
-      </c>
-      <c r="G13">
-        <v>1951.65</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="3"/>
-        <v>2.2805329551706106</v>
-      </c>
-      <c r="K13">
-        <v>78588.2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>240.1</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="4"/>
-        <v>0.30551660427392408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6">
-        <v>44267</v>
-      </c>
-      <c r="B14">
-        <v>147127.25</v>
-      </c>
-      <c r="C14">
-        <v>87730.34</v>
-      </c>
-      <c r="D14">
-        <v>87730.34</v>
-      </c>
-      <c r="G14">
-        <v>300.25</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34224191995608361</v>
-      </c>
-      <c r="K14">
-        <v>93784.2</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1503.02</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6026366914682857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6"/>
-      <c r="B15">
-        <f>SUM(B10:B14)/5</f>
-        <v>158285.97399999999</v>
-      </c>
-      <c r="C15">
-        <f>SUM(C10:C14)/5</f>
-        <v>92655.741999999998</v>
-      </c>
-      <c r="D15">
-        <f>SUM(D10:D14)/5</f>
-        <v>100028.5572</v>
-      </c>
-      <c r="F15">
-        <f>SUM(F10:F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f>SUM(G10:G14)</f>
-        <v>-3895.4000000000015</v>
-      </c>
-      <c r="H15">
-        <f>SUM(H10:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="3"/>
-        <v>-3.8942879004157041</v>
-      </c>
-      <c r="K15">
-        <f>SUM(K10:K14)/5</f>
-        <v>72439.540000000008</v>
-      </c>
-      <c r="L15" s="1">
-        <f>SUM(L10:L14)</f>
-        <v>-1587.7399999999998</v>
-      </c>
-      <c r="M15" s="5">
-        <f>L15/K15*100</f>
-        <v>-2.1918140286368462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6">
-        <v>44268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6">
-        <v>44270</v>
-      </c>
-      <c r="B18">
-        <v>100575.5</v>
-      </c>
-      <c r="C18">
-        <v>86168.59</v>
-      </c>
-      <c r="D18">
-        <v>86168.59</v>
-      </c>
-      <c r="G18">
-        <v>-2337.02</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" ref="I18" si="5">G18/D18*100</f>
-        <v>-2.7121483593963882</v>
-      </c>
-      <c r="K18">
-        <v>108354.3</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-1861.58</v>
-      </c>
-      <c r="M18" s="5">
-        <f t="shared" ref="M18:M23" si="6">L18/K18*100</f>
-        <v>-1.7180490298954447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44271</v>
-      </c>
-      <c r="B19">
-        <v>100575.5</v>
-      </c>
-      <c r="C19">
-        <v>86168.59</v>
-      </c>
-      <c r="D19">
-        <v>86168.59</v>
-      </c>
-      <c r="G19">
-        <v>482.95</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" ref="I19:I23" si="7">G19/D19*100</f>
-        <v>0.56047104867330422</v>
-      </c>
-      <c r="K19">
-        <v>119793.70000000003</v>
-      </c>
-      <c r="L19" s="1">
-        <v>129.28</v>
-      </c>
-      <c r="M19" s="5">
-        <f t="shared" si="6"/>
-        <v>0.1079188638467632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>44272</v>
-      </c>
-      <c r="B20">
-        <v>101179.25</v>
-      </c>
-      <c r="C20">
-        <v>86771.38</v>
-      </c>
-      <c r="D20">
-        <v>86168.59</v>
-      </c>
-      <c r="G20">
-        <v>602.79</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="7"/>
-        <v>0.69954724801693979</v>
-      </c>
-      <c r="J20" s="1">
-        <v>158224.62</v>
-      </c>
-      <c r="K20">
-        <v>86816.8</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1098.74</v>
-      </c>
-      <c r="M20" s="5">
-        <f t="shared" si="6"/>
-        <v>1.2655845412408657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44273</v>
-      </c>
-      <c r="B21">
-        <v>101783.73</v>
-      </c>
-      <c r="C21">
-        <v>86483.12</v>
-      </c>
-      <c r="D21">
-        <v>86771.38</v>
-      </c>
-      <c r="G21">
-        <v>603.51</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="7"/>
-        <v>0.69551734684869593</v>
-      </c>
-      <c r="J21" s="1">
-        <v>159255.79999999999</v>
-      </c>
-      <c r="K21">
-        <v>95976.9</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1028.8499999999999</v>
-      </c>
-      <c r="M21" s="5">
-        <f t="shared" si="6"/>
-        <v>1.0719766943920881</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44274</v>
-      </c>
-      <c r="B22">
-        <v>100001.12</v>
-      </c>
-      <c r="C22">
-        <v>84699.42</v>
-      </c>
-      <c r="D22">
-        <v>86483.12</v>
-      </c>
-      <c r="G22">
-        <v>-1782.69</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.0613155492077531</v>
-      </c>
-      <c r="J22" s="1">
-        <v>156767.73000000001</v>
-      </c>
-      <c r="K22">
-        <v>143030.29999999999</v>
-      </c>
-      <c r="L22" s="1">
-        <v>-2493.06</v>
-      </c>
-      <c r="M22" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.7430292742167219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6"/>
-      <c r="B23">
-        <f>SUM(B18:B22)/5</f>
-        <v>100823.01999999999</v>
-      </c>
-      <c r="C23">
-        <f>SUM(C18:C22)/5</f>
-        <v>86058.22</v>
-      </c>
-      <c r="D23">
-        <f>SUM(D18:D22)/5</f>
-        <v>86352.054000000004</v>
-      </c>
-      <c r="F23">
-        <f>SUM(F18:F22)</f>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G18:G22)</f>
-        <v>-2430.46</v>
-      </c>
-      <c r="H23">
-        <f>SUM(H18:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.8145943117925136</v>
-      </c>
-      <c r="K23">
-        <f>SUM(K18:K22)/5</f>
-        <v>110794.4</v>
-      </c>
-      <c r="L23" s="1">
-        <f>SUM(L18:L22)</f>
-        <v>-2097.77</v>
-      </c>
-      <c r="M23" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.8933899186240462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6">
-        <v>44275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="6">
-        <v>44276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="6">
-        <v>44277</v>
-      </c>
-      <c r="B26">
-        <v>100750.93</v>
-      </c>
-      <c r="C26">
-        <v>85446.16</v>
-      </c>
-      <c r="D26">
-        <v>84699.42</v>
-      </c>
-      <c r="G26">
-        <v>825.3</v>
-      </c>
-      <c r="I26" s="5">
-        <f>G26/D26*100</f>
-        <v>0.97438683759581823</v>
-      </c>
-      <c r="J26" s="1">
-        <v>178921.15</v>
-      </c>
-      <c r="K26">
-        <v>139330.6</v>
-      </c>
-      <c r="L26" s="1">
-        <v>2167.1</v>
-      </c>
-      <c r="M26" s="5">
-        <f>L26/K26*100</f>
-        <v>1.5553654401832762</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="6">
-        <v>44278</v>
-      </c>
-      <c r="B27">
-        <v>100095.84</v>
-      </c>
-      <c r="C27">
-        <v>82616.759999999995</v>
-      </c>
-      <c r="D27">
-        <v>85446.16</v>
-      </c>
-      <c r="G27">
-        <v>-734.81</v>
-      </c>
-      <c r="I27" s="5">
-        <f>G27/D27*100</f>
-        <v>-0.85996842924246086</v>
-      </c>
-      <c r="J27" s="1">
-        <v>177161.7</v>
-      </c>
-      <c r="K27">
-        <v>170976.5</v>
-      </c>
-      <c r="L27" s="1">
-        <v>-1737.1</v>
-      </c>
-      <c r="M27" s="5">
-        <f>L27/K27*100</f>
-        <v>-1.015987577240147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="6">
-        <v>44279</v>
-      </c>
-      <c r="B28">
-        <v>98973.77</v>
-      </c>
-      <c r="C28">
-        <v>81493.539999999994</v>
-      </c>
-      <c r="D28">
-        <v>82616.759999999995</v>
-      </c>
-      <c r="G28">
-        <v>-1123.22</v>
-      </c>
-      <c r="I28" s="5">
-        <f>G28/D28*100</f>
-        <v>-1.3595546472652766</v>
-      </c>
-      <c r="J28" s="1">
-        <v>193698.86</v>
-      </c>
-      <c r="K28">
-        <v>168127.4</v>
-      </c>
-      <c r="L28" s="1">
-        <v>-3425.1</v>
-      </c>
-      <c r="M28" s="5">
-        <f>L28/K28*100</f>
-        <v>-2.037205119451083</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="6">
-        <v>44280</v>
-      </c>
-      <c r="B29">
-        <v>98987.89</v>
-      </c>
-      <c r="C29">
-        <v>74482.63</v>
-      </c>
-      <c r="D29">
-        <v>81493.539999999994</v>
-      </c>
-      <c r="G29">
-        <v>12.93</v>
-      </c>
-      <c r="I29" s="5">
-        <f>G29/D29*100</f>
-        <v>1.5866288297207362E-2</v>
-      </c>
-      <c r="J29" s="1">
-        <v>193558.2</v>
-      </c>
-      <c r="K29">
-        <v>171719</v>
-      </c>
-      <c r="L29" s="1">
-        <v>-105.7</v>
-      </c>
-      <c r="M29" s="5">
-        <f>L29/K29*100</f>
-        <v>-6.1554050512756309E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="6">
-        <v>44281</v>
-      </c>
-      <c r="B30">
-        <v>80455.62</v>
-      </c>
-      <c r="C30">
-        <v>75948.679999999993</v>
-      </c>
-      <c r="D30">
-        <v>74482.63</v>
-      </c>
-      <c r="G30">
-        <v>1466.05</v>
-      </c>
-      <c r="I30" s="5">
-        <f>G30/D30*100</f>
-        <v>1.9683112693523308</v>
-      </c>
-      <c r="J30" s="1">
-        <v>237818.16</v>
-      </c>
-      <c r="K30">
-        <v>164466.70000000001</v>
-      </c>
-      <c r="L30" s="1">
-        <v>4288.8999999999996</v>
-      </c>
-      <c r="M30" s="5">
-        <f>L30/K30*100</f>
-        <v>2.6077619360028499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="6"/>
-      <c r="B31">
-        <f>SUM(B26:B30)/5</f>
-        <v>95852.81</v>
-      </c>
-      <c r="C31">
-        <f>SUM(C26:C30)/5</f>
-        <v>79997.553999999989</v>
-      </c>
-      <c r="D31">
-        <f>SUM(D26:D30)/5</f>
-        <v>81747.702000000005</v>
-      </c>
-      <c r="F31">
-        <f>SUM(F26:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f>SUM(G26:G30)</f>
-        <v>446.24999999999989</v>
-      </c>
-      <c r="H31">
-        <f>SUM(H26:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" ref="I31" si="8">G31/D31*100</f>
-        <v>0.54588690456399602</v>
-      </c>
-      <c r="K31">
-        <f>SUM(K26:K30)/5</f>
-        <v>162924.03999999998</v>
-      </c>
-      <c r="L31" s="1">
-        <f>SUM(L26:L30)</f>
-        <v>1188.0999999999999</v>
-      </c>
-      <c r="M31" s="5">
-        <f t="shared" ref="M31" si="9">L31/K31*100</f>
-        <v>0.7292355382299629</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="6">
-        <v>44282</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="6">
-        <v>44283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="6">
-        <v>44284</v>
-      </c>
-      <c r="B34">
-        <v>80623.28</v>
-      </c>
-      <c r="C34">
-        <v>76115.47</v>
-      </c>
-      <c r="D34">
-        <v>75948.679999999993</v>
-      </c>
-      <c r="G34">
-        <v>166.78</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" ref="I34:I38" si="10">G34/D34*100</f>
-        <v>0.21959565327534331</v>
-      </c>
-      <c r="J34" s="1">
-        <v>236449.43</v>
-      </c>
-      <c r="K34">
-        <v>178111.2</v>
-      </c>
-      <c r="L34" s="1">
-        <v>-1355.5</v>
-      </c>
-      <c r="M34" s="5">
-        <f t="shared" ref="M34" si="11">L34/K34*100</f>
-        <v>-0.76104141682274884</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="6">
-        <v>44285</v>
-      </c>
-      <c r="B35">
-        <v>81243.5</v>
-      </c>
-      <c r="C35">
-        <v>72230.64</v>
-      </c>
-      <c r="D35">
-        <v>76115.47</v>
-      </c>
-      <c r="G35">
-        <v>619.82000000000005</v>
-      </c>
-      <c r="I35" s="5">
-        <f t="shared" si="10"/>
-        <v>0.81431540789277146</v>
-      </c>
-      <c r="J35" s="1">
-        <v>238006.58</v>
-      </c>
-      <c r="K35">
-        <v>196525.1</v>
-      </c>
-      <c r="L35" s="1">
-        <v>1573.9</v>
-      </c>
-      <c r="M35" s="5">
-        <f>L35/K35*100</f>
-        <v>0.80086462238156864</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="6">
-        <v>44286</v>
-      </c>
-      <c r="B36">
-        <v>80539.89</v>
-      </c>
-      <c r="C36">
-        <v>69870.09</v>
-      </c>
-      <c r="D36">
-        <v>72230.64</v>
-      </c>
-      <c r="G36">
-        <v>-703.92</v>
-      </c>
-      <c r="I36" s="5">
-        <f t="shared" si="10"/>
-        <v>-0.9745448745850791</v>
-      </c>
-      <c r="J36" s="1">
-        <v>235847.35</v>
-      </c>
-      <c r="K36">
-        <v>222700.7</v>
-      </c>
-      <c r="L36" s="1">
-        <v>-2148.4</v>
-      </c>
-      <c r="M36" s="5">
-        <f>L36/K36*100</f>
-        <v>-0.96470285005839673</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="6">
-        <v>44287</v>
-      </c>
-      <c r="B37">
-        <v>81873.73</v>
-      </c>
-      <c r="C37">
-        <v>71203.61</v>
-      </c>
-      <c r="D37">
-        <v>69870.09</v>
-      </c>
-      <c r="G37">
-        <v>1333.52</v>
-      </c>
-      <c r="I37" s="5">
-        <f t="shared" si="10"/>
-        <v>1.9085706058200296</v>
-      </c>
-      <c r="J37" s="1">
-        <v>248497.97</v>
-      </c>
-      <c r="K37">
-        <v>220660.5</v>
-      </c>
-      <c r="L37" s="1">
-        <v>2657.8</v>
-      </c>
-      <c r="M37" s="5">
-        <f t="shared" ref="M37:M38" si="12">L37/K37*100</f>
-        <v>1.2044747474060833</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="6">
-        <v>44288</v>
-      </c>
-      <c r="B38">
-        <v>82889.789999999994</v>
-      </c>
-      <c r="C38">
-        <v>69251.38</v>
-      </c>
-      <c r="D38">
-        <v>71203.61</v>
-      </c>
-      <c r="G38">
-        <v>1015.76</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="10"/>
-        <v>1.4265568838433895</v>
-      </c>
-      <c r="J38" s="1">
-        <v>251400.16</v>
-      </c>
-      <c r="K38">
-        <v>220808.3</v>
-      </c>
-      <c r="L38" s="1">
-        <v>2923.8</v>
-      </c>
-      <c r="M38" s="5">
-        <f t="shared" si="12"/>
-        <v>1.3241350076061456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="6"/>
-      <c r="B39">
-        <f>SUM(B34:B38)/5</f>
-        <v>81434.037999999986</v>
-      </c>
-      <c r="C39">
-        <f>SUM(C34:C38)/5</f>
-        <v>71734.237999999998</v>
-      </c>
-      <c r="D39">
-        <f>SUM(D34:D38)/5</f>
-        <v>73073.698000000004</v>
-      </c>
-      <c r="F39">
-        <f>SUM(F34:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f>SUM(G34:G38)</f>
-        <v>2431.96</v>
-      </c>
-      <c r="H39">
-        <f>SUM(H34:H38)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <f>G39/D39*100</f>
-        <v>3.3280921406221977</v>
-      </c>
-      <c r="K39">
-        <f>SUM(K34:K38)/5</f>
-        <v>207761.16</v>
-      </c>
-      <c r="L39" s="1">
-        <f>SUM(L34:L38)</f>
-        <v>3651.6000000000004</v>
-      </c>
-      <c r="M39" s="5">
-        <f>L39/K39*100</f>
-        <v>1.7575951154681655</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="6">
-        <v>44289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="6">
-        <v>44290</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="B42">
-        <f>SUM(B2,B3,B4,B5,B6,B10,B11,B12,B13,B14,B18,B19,B20,B21,B22,B26,B27,B28,B29,B30,B34,B35,B36)/23</f>
-        <v>136296.40130434785</v>
-      </c>
-      <c r="C42">
-        <f>SUM(C2,C3,C4,C5,C6,C10,C11,C12,C13,C14,C18,C19,C20,C21,C22,C26,C27,C28,C29,C30,C34,C35,C36)/23</f>
-        <v>92815.037391304344</v>
-      </c>
-      <c r="D42">
-        <f>SUM(D2,D3,D4,D5,D6,D10,D11,D12,D13,D14,D18,D19,D20,D21,D22,D26,D27,D29,D28,D30,D34,D35,D36)/23</f>
-        <v>96627.344608695668</v>
-      </c>
-      <c r="G42">
-        <f>SUM(G2,G3,G4,G5,G6,G10,G11,G12,G13,G14,G18,G19,G20,G21,G22,G26,G27,G28,G29,G30,G34,G35,G36)</f>
-        <v>-7538.7100000000009</v>
-      </c>
-      <c r="H42">
-        <f>SUM(H37:H41)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="5">
-        <f>G42/D42*100</f>
-        <v>-7.80183914866846</v>
-      </c>
-      <c r="K42">
-        <f>SUM(K2,K3,K4,K5,K6,K10,K11,K12,K13,K14,K18,K19,K20,K21,K22,K26,K27,K28,K29,K30,K34,K35,K36)/23</f>
-        <v>105480.50869565218</v>
-      </c>
-      <c r="L42" s="1">
-        <f>SUM(L2,L3,L4,L5,L6,L10,L11,L12,L13,L14,L18,L19,L20,L21,L22,L26,L27,L28,L29,L30,L34,L35,L36)</f>
-        <v>-4965.0999999999995</v>
-      </c>
-      <c r="M42" s="5">
-        <f>L42/K42*100</f>
-        <v>-4.7071255736223581</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -7,33 +7,35 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="103" sheetId="66" r:id="rId1"/>
-    <sheet name="102" sheetId="65" r:id="rId2"/>
-    <sheet name="101" sheetId="64" r:id="rId3"/>
-    <sheet name="9A" sheetId="57" r:id="rId4"/>
-    <sheet name="8A" sheetId="53" r:id="rId5"/>
-    <sheet name="7A" sheetId="48" r:id="rId6"/>
-    <sheet name="6A" sheetId="40" r:id="rId7"/>
-    <sheet name="5" sheetId="37" r:id="rId8"/>
-    <sheet name="2104" sheetId="36" r:id="rId9"/>
-    <sheet name="2103" sheetId="33" r:id="rId10"/>
-    <sheet name="2102" sheetId="31" r:id="rId11"/>
-    <sheet name="2101" sheetId="26" r:id="rId12"/>
-    <sheet name="每月" sheetId="29" r:id="rId13"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId14"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId15"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId17"/>
-    <sheet name="突破均线" sheetId="61" r:id="rId18"/>
-    <sheet name="Sheet2" sheetId="62" r:id="rId19"/>
-    <sheet name="k线" sheetId="63" r:id="rId20"/>
+    <sheet name="10A" sheetId="68" r:id="rId1"/>
+    <sheet name="104" sheetId="67" r:id="rId2"/>
+    <sheet name="103" sheetId="66" r:id="rId3"/>
+    <sheet name="102" sheetId="65" r:id="rId4"/>
+    <sheet name="101" sheetId="64" r:id="rId5"/>
+    <sheet name="9A" sheetId="57" r:id="rId6"/>
+    <sheet name="8A" sheetId="53" r:id="rId7"/>
+    <sheet name="7A" sheetId="48" r:id="rId8"/>
+    <sheet name="6A" sheetId="40" r:id="rId9"/>
+    <sheet name="5" sheetId="37" r:id="rId10"/>
+    <sheet name="2104" sheetId="36" r:id="rId11"/>
+    <sheet name="2103" sheetId="33" r:id="rId12"/>
+    <sheet name="2102" sheetId="31" r:id="rId13"/>
+    <sheet name="2101" sheetId="26" r:id="rId14"/>
+    <sheet name="每月" sheetId="29" r:id="rId15"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId16"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId17"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId19"/>
+    <sheet name="突破均线" sheetId="61" r:id="rId20"/>
+    <sheet name="Sheet2" sheetId="62" r:id="rId21"/>
+    <sheet name="k线" sheetId="63" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="94">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1944,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1999,105 +2001,292 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44487</v>
+        <v>44477</v>
       </c>
       <c r="J2" s="1">
-        <v>358155.17</v>
+        <v>323455.99</v>
       </c>
       <c r="K2">
-        <v>298049</v>
+        <v>252443.34</v>
       </c>
       <c r="L2" s="1">
-        <v>1777</v>
+        <v>-1974</v>
       </c>
       <c r="M2">
-        <v>0.59619999999999995</v>
+        <v>-0.78200000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44488</v>
+        <v>44480</v>
       </c>
       <c r="J3" s="1">
-        <v>360576.05</v>
+        <v>332610.81</v>
       </c>
       <c r="K3">
-        <v>292304</v>
+        <v>251446</v>
       </c>
       <c r="L3" s="1">
-        <v>2425</v>
+        <v>-712</v>
       </c>
       <c r="M3">
-        <v>0.8296</v>
+        <v>-0.28320000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44489</v>
+        <v>44481</v>
       </c>
       <c r="J4" s="1">
-        <v>360894.69</v>
+        <v>352917.5</v>
       </c>
       <c r="K4">
-        <v>283096</v>
+        <v>179388</v>
       </c>
       <c r="L4" s="1">
-        <v>400</v>
+        <v>-3766</v>
       </c>
       <c r="M4">
-        <v>0.14130000000000001</v>
+        <v>-2.0994000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44490</v>
+        <v>44482</v>
       </c>
       <c r="J5" s="1">
-        <v>360309.38</v>
+        <v>229949.15</v>
       </c>
       <c r="K5">
-        <v>257240</v>
+        <v>203432.16</v>
       </c>
       <c r="L5" s="1">
-        <v>-517.6</v>
+        <v>4142</v>
       </c>
       <c r="M5">
-        <v>-0.20119999999999999</v>
+        <v>2.0360999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
+        <v>44483</v>
+      </c>
+      <c r="J6" s="1">
+        <v>354131.97</v>
+      </c>
+      <c r="K6">
+        <v>315077</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-2743</v>
+      </c>
+      <c r="M6">
+        <v>-0.87060000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44484</v>
+      </c>
+      <c r="J7" s="1">
+        <v>338172.81</v>
+      </c>
+      <c r="K7">
+        <v>303730</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2419</v>
+      </c>
+      <c r="M7">
+        <v>0.7964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44487</v>
+      </c>
+      <c r="J8" s="1">
+        <v>358155.17</v>
+      </c>
+      <c r="K8">
+        <v>298049</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1777</v>
+      </c>
+      <c r="M8">
+        <v>0.59619999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44488</v>
+      </c>
+      <c r="J9" s="1">
+        <v>360576.05</v>
+      </c>
+      <c r="K9">
+        <v>292304</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2425</v>
+      </c>
+      <c r="M9">
+        <v>0.8296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44489</v>
+      </c>
+      <c r="J10" s="1">
+        <v>360894.69</v>
+      </c>
+      <c r="K10">
+        <v>283096</v>
+      </c>
+      <c r="L10" s="1">
+        <v>400</v>
+      </c>
+      <c r="M10">
+        <v>0.14130000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44490</v>
+      </c>
+      <c r="J11" s="1">
+        <v>360309.38</v>
+      </c>
+      <c r="K11">
+        <v>257240</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-517.6</v>
+      </c>
+      <c r="M11">
+        <v>-0.20119999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
         <v>44491</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J12" s="1">
         <v>338667.31</v>
       </c>
-      <c r="K6">
+      <c r="K12">
         <v>257383</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L12" s="1">
         <v>-1612</v>
       </c>
-      <c r="M6">
+      <c r="M12">
         <v>-0.62629999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>355720.52</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>277614.40000000002</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>2472.4</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>0.89058780812522698</v>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44494</v>
+      </c>
+      <c r="J13" s="1">
+        <v>339257.77</v>
+      </c>
+      <c r="K13">
+        <v>215621</v>
+      </c>
+      <c r="L13" s="1">
+        <v>645</v>
+      </c>
+      <c r="M13">
+        <v>0.29909999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44495</v>
+      </c>
+      <c r="J14" s="1">
+        <v>338342.83</v>
+      </c>
+      <c r="K14">
+        <v>169375</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-876</v>
+      </c>
+      <c r="M14">
+        <v>-0.51719999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44496</v>
+      </c>
+      <c r="J15" s="1">
+        <v>308338.65000000002</v>
+      </c>
+      <c r="K15">
+        <v>186015.06</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-3338</v>
+      </c>
+      <c r="M15">
+        <v>-1.7945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44497</v>
+      </c>
+      <c r="J16" s="1">
+        <v>286133.12</v>
+      </c>
+      <c r="K16">
+        <v>231928.44</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-720</v>
+      </c>
+      <c r="M16">
+        <v>-0.31040000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44498</v>
+      </c>
+      <c r="J17" s="1">
+        <v>338548.51</v>
+      </c>
+      <c r="K17">
+        <v>288085</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5283</v>
+      </c>
+      <c r="M17">
+        <v>1.8338000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="J18" s="1">
+        <f>AVERAGE(J2:J17)</f>
+        <v>332528.856875</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE(K2:K17)</f>
+        <v>249038.3125</v>
+      </c>
+      <c r="L18" s="1">
+        <f>SUM(L2:L17)</f>
+        <v>832.39999999999964</v>
+      </c>
+      <c r="M18" s="5">
+        <f>L18/K18*100</f>
+        <v>0.33424575987680594</v>
       </c>
     </row>
   </sheetData>
@@ -2108,6 +2297,1969 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="6">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6">
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6">
+        <v>44319</v>
+      </c>
+      <c r="J4"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6">
+        <v>44322</v>
+      </c>
+      <c r="C8">
+        <v>52744.99</v>
+      </c>
+      <c r="D8">
+        <v>53141.46</v>
+      </c>
+      <c r="G8">
+        <v>-396.48</v>
+      </c>
+      <c r="I8" s="5">
+        <v>-0.74609999999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>270816.58</v>
+      </c>
+      <c r="K8">
+        <v>211425.9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1195.3</v>
+      </c>
+      <c r="M8">
+        <v>-0.56540000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6">
+        <v>44323</v>
+      </c>
+      <c r="C9">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="D9">
+        <v>52744.99</v>
+      </c>
+      <c r="G9">
+        <v>-839.05</v>
+      </c>
+      <c r="I9" s="5">
+        <v>-1.5908</v>
+      </c>
+      <c r="J9" s="1">
+        <v>269379.71999999997</v>
+      </c>
+      <c r="K9">
+        <v>229187</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1411.4</v>
+      </c>
+      <c r="M9" s="5">
+        <v>-0.61580000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6"/>
+      <c r="C10">
+        <f>SUM(C6:C9)/2</f>
+        <v>52299.455000000002</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D6:D9)/2</f>
+        <v>52943.224999999999</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G6:G9)</f>
+        <v>-1235.53</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H8:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f>G10/D10*100</f>
+        <v>-2.3336885881054656</v>
+      </c>
+      <c r="J10">
+        <f>SUM(J6:J9)/2</f>
+        <v>270098.15000000002</v>
+      </c>
+      <c r="K10">
+        <f>SUM(K6:K9)/2</f>
+        <v>220306.45</v>
+      </c>
+      <c r="L10" s="1">
+        <f>SUM(L6:L9)</f>
+        <v>-2606.6999999999998</v>
+      </c>
+      <c r="M10" s="5">
+        <f>L10/K10*100</f>
+        <v>-1.1832154709950615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="6">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6">
+        <v>44326</v>
+      </c>
+      <c r="C13">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="D13">
+        <v>51599.76</v>
+      </c>
+      <c r="G13">
+        <v>-254.17</v>
+      </c>
+      <c r="I13" s="5">
+        <v>-0.49259999999999998</v>
+      </c>
+      <c r="J13" s="1">
+        <v>279653.94</v>
+      </c>
+      <c r="K13">
+        <v>230066.8</v>
+      </c>
+      <c r="L13" s="1">
+        <v>286.8</v>
+      </c>
+      <c r="M13">
+        <v>0.12470000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6">
+        <v>44327</v>
+      </c>
+      <c r="C14">
+        <v>46231.79</v>
+      </c>
+      <c r="D14">
+        <v>51853.919999999998</v>
+      </c>
+      <c r="G14">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.1497</v>
+      </c>
+      <c r="J14">
+        <v>280255.06</v>
+      </c>
+      <c r="K14">
+        <v>237959.7</v>
+      </c>
+      <c r="L14" s="1">
+        <v>656.7</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6">
+        <v>44328</v>
+      </c>
+      <c r="C15">
+        <v>46542.3</v>
+      </c>
+      <c r="D15">
+        <v>46231.79</v>
+      </c>
+      <c r="G15">
+        <v>310.5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="J15" s="1">
+        <v>281489.68</v>
+      </c>
+      <c r="K15">
+        <v>245088.3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1235.0999999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.50390000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6">
+        <v>44329</v>
+      </c>
+      <c r="C16">
+        <v>45103.88</v>
+      </c>
+      <c r="D16">
+        <v>46542.3</v>
+      </c>
+      <c r="G16">
+        <v>-427.94</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-0.91949999999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>278597.86</v>
+      </c>
+      <c r="K16">
+        <v>235865.5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-2882.8</v>
+      </c>
+      <c r="M16" s="5">
+        <v>-1.2222</v>
+      </c>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44330</v>
+      </c>
+      <c r="C17">
+        <v>45914.8</v>
+      </c>
+      <c r="D17">
+        <v>45103.88</v>
+      </c>
+      <c r="G17">
+        <v>810.92</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1.7979000000000001</v>
+      </c>
+      <c r="J17" s="1">
+        <v>297075.5</v>
+      </c>
+      <c r="K17">
+        <v>254312.9</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4993</v>
+      </c>
+      <c r="M17">
+        <v>1.9633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6"/>
+      <c r="B18">
+        <f>SUM(B13:B17)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C13:C17)/5</f>
+        <v>47129.338000000003</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D13:D17)/5</f>
+        <v>48266.33</v>
+      </c>
+      <c r="F18">
+        <f>SUM(F13:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G13:G17)</f>
+        <v>516.96</v>
+      </c>
+      <c r="H18">
+        <f>SUM(H16:H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f>G18/D18*100</f>
+        <v>1.0710571945287741</v>
+      </c>
+      <c r="J18">
+        <f>SUM(J13:J17)/5</f>
+        <v>283414.408</v>
+      </c>
+      <c r="K18">
+        <f>SUM(K13:K17)/5</f>
+        <v>240658.63999999998</v>
+      </c>
+      <c r="L18" s="1">
+        <f>SUM(L13:L17)</f>
+        <v>4288.7999999999993</v>
+      </c>
+      <c r="M18" s="5">
+        <f>L18/K18*100</f>
+        <v>1.7821092980497186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44333</v>
+      </c>
+      <c r="C21">
+        <v>46705.27</v>
+      </c>
+      <c r="D21">
+        <v>45914.8</v>
+      </c>
+      <c r="G21">
+        <v>713.61</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1.5542</v>
+      </c>
+      <c r="J21" s="1">
+        <v>287180.42</v>
+      </c>
+      <c r="K21">
+        <v>223809.4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3361.6</v>
+      </c>
+      <c r="M21">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44334</v>
+      </c>
+      <c r="C22">
+        <v>42036.67</v>
+      </c>
+      <c r="D22">
+        <v>46705.27</v>
+      </c>
+      <c r="G22">
+        <v>-35.5</v>
+      </c>
+      <c r="I22" s="5">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>287508.09000000003</v>
+      </c>
+      <c r="K22">
+        <v>209781.2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>345.8</v>
+      </c>
+      <c r="M22">
+        <v>0.1648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44335</v>
+      </c>
+      <c r="C23">
+        <v>41928.78</v>
+      </c>
+      <c r="D23">
+        <v>42036.67</v>
+      </c>
+      <c r="G23">
+        <v>-107.89</v>
+      </c>
+      <c r="I23" s="5">
+        <v>-0.25669999999999998</v>
+      </c>
+      <c r="J23" s="1">
+        <v>286918.05</v>
+      </c>
+      <c r="K23">
+        <v>187404.9</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-576.79999999999995</v>
+      </c>
+      <c r="M23">
+        <v>-0.30780000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6">
+        <v>44336</v>
+      </c>
+      <c r="C24">
+        <v>41986.080000000002</v>
+      </c>
+      <c r="D24">
+        <v>41928.78</v>
+      </c>
+      <c r="G24">
+        <v>57.29</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.1366</v>
+      </c>
+      <c r="J24" s="1">
+        <v>287399.69</v>
+      </c>
+      <c r="K24">
+        <v>209008.7</v>
+      </c>
+      <c r="L24" s="1">
+        <v>494.8</v>
+      </c>
+      <c r="M24">
+        <v>0.23669999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6">
+        <v>44337</v>
+      </c>
+      <c r="C25">
+        <v>41495.85</v>
+      </c>
+      <c r="D25">
+        <v>41986.080000000002</v>
+      </c>
+      <c r="G25">
+        <v>-490.23</v>
+      </c>
+      <c r="I25" s="5">
+        <v>-1.1676</v>
+      </c>
+      <c r="J25" s="1">
+        <v>286188.42</v>
+      </c>
+      <c r="K25">
+        <v>250057.5</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-1197.8</v>
+      </c>
+      <c r="M25">
+        <v>-0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6"/>
+      <c r="B26">
+        <f>SUM(B21:B25)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C21:C25)/5</f>
+        <v>42830.53</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D21:D25)/5</f>
+        <v>43714.319999999992</v>
+      </c>
+      <c r="F26">
+        <f>SUM(F21:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>SUM(G21:G25)</f>
+        <v>137.27999999999997</v>
+      </c>
+      <c r="H26">
+        <f>SUM(H24:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f>G26/D26*100</f>
+        <v>0.31403896938120046</v>
+      </c>
+      <c r="J26">
+        <f>SUM(J21:J25)/5</f>
+        <v>287038.93400000001</v>
+      </c>
+      <c r="K26">
+        <f>SUM(K21:K25)/5</f>
+        <v>216012.34</v>
+      </c>
+      <c r="L26" s="1">
+        <f>SUM(L21:L25)</f>
+        <v>2427.6000000000004</v>
+      </c>
+      <c r="M26" s="5">
+        <f>L26/K26*100</f>
+        <v>1.1238246852008549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="6">
+        <v>44340</v>
+      </c>
+      <c r="C29">
+        <v>41767.35</v>
+      </c>
+      <c r="D29">
+        <v>41495.85</v>
+      </c>
+      <c r="G29">
+        <v>271.49</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>288233.01</v>
+      </c>
+      <c r="K29">
+        <v>218947.20000000001</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2057.6</v>
+      </c>
+      <c r="M29">
+        <v>0.93979999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6">
+        <v>44341</v>
+      </c>
+      <c r="C30">
+        <v>43060.94</v>
+      </c>
+      <c r="D30">
+        <v>41495.85</v>
+      </c>
+      <c r="G30">
+        <v>1294.31</v>
+      </c>
+      <c r="I30" s="5">
+        <v>3.1191</v>
+      </c>
+      <c r="J30" s="1">
+        <v>292592.21000000002</v>
+      </c>
+      <c r="K30">
+        <v>132408.4</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4431.1000000000004</v>
+      </c>
+      <c r="M30">
+        <v>3.3464999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6">
+        <v>44342</v>
+      </c>
+      <c r="C31">
+        <v>20204.55</v>
+      </c>
+      <c r="D31">
+        <v>43060.94</v>
+      </c>
+      <c r="G31">
+        <v>-115.24</v>
+      </c>
+      <c r="I31" s="5">
+        <v>-0.2676</v>
+      </c>
+      <c r="J31" s="1">
+        <v>292136.73</v>
+      </c>
+      <c r="K31">
+        <v>188449.3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-438</v>
+      </c>
+      <c r="M31">
+        <v>-0.2324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6">
+        <v>44343</v>
+      </c>
+      <c r="C32">
+        <v>20341.8</v>
+      </c>
+      <c r="D32">
+        <v>20204.55</v>
+      </c>
+      <c r="G32">
+        <v>139.37</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.68979999999999997</v>
+      </c>
+      <c r="J32" s="1">
+        <v>314726.03000000003</v>
+      </c>
+      <c r="K32">
+        <v>183115.3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2628.9</v>
+      </c>
+      <c r="M32">
+        <v>1.4357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6">
+        <v>44344</v>
+      </c>
+      <c r="C33">
+        <v>20252.02</v>
+      </c>
+      <c r="D33">
+        <v>20341.8</v>
+      </c>
+      <c r="G33">
+        <v>-89.79</v>
+      </c>
+      <c r="I33" s="5">
+        <v>-0.44140000000000001</v>
+      </c>
+      <c r="J33" s="1">
+        <v>314122.90999999997</v>
+      </c>
+      <c r="K33">
+        <v>251310.4</v>
+      </c>
+      <c r="L33" s="1">
+        <v>-585.9</v>
+      </c>
+      <c r="M33">
+        <v>-0.2331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6"/>
+      <c r="B34">
+        <f>SUM(B29:B33)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C29:C33)/5</f>
+        <v>29125.332000000002</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D29:D33)/5</f>
+        <v>33319.797999999995</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F29:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G29:G33)</f>
+        <v>1500.1399999999999</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H32:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f>G34/D34*100</f>
+        <v>4.5022481828971479</v>
+      </c>
+      <c r="J34">
+        <f>SUM(J29:J33)/5</f>
+        <v>300362.17799999996</v>
+      </c>
+      <c r="K34">
+        <f>SUM(K29:K33)/5</f>
+        <v>194846.12</v>
+      </c>
+      <c r="L34" s="1">
+        <f>SUM(L29:L33)</f>
+        <v>8093.7000000000007</v>
+      </c>
+      <c r="M34" s="5">
+        <f>L34/K34*100</f>
+        <v>4.1538933390102919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="6">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="6">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="6">
+        <v>44347</v>
+      </c>
+      <c r="C37">
+        <v>20384.36</v>
+      </c>
+      <c r="D37">
+        <v>20252.02</v>
+      </c>
+      <c r="G37">
+        <v>132.34</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="J37" s="1">
+        <v>367430.22</v>
+      </c>
+      <c r="K37">
+        <v>200865</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3330.1</v>
+      </c>
+      <c r="M37">
+        <v>1.6578999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="6"/>
+      <c r="C38">
+        <f>SUM(C8,C9,C13,C14,C15,C16,C17,C21,C22,C23,C24,C25,C29,C30,C31,C32,C33,C37)/17</f>
+        <v>42377.015882352949</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D8,D9,D13,D14,D15,D16,D17,D21,D22,D23,D24,D25,D29,D30,D31,D32,D33,D37)/17</f>
+        <v>44272.982941176466</v>
+      </c>
+      <c r="G38">
+        <f>SUM(G8,G9,G13,G14,G15,G16,G17,G21,G22,G23,G24,G25,G29,G30,G31,G32,G33,G37)</f>
+        <v>1051.1899999999998</v>
+      </c>
+      <c r="I38" s="5">
+        <f>G38/D38*100</f>
+        <v>2.3743374179161796</v>
+      </c>
+      <c r="K38">
+        <f>SUM(K8,K9,K13,K14,K15,K16,K17,K21,K22,K23,K24,K25,K29,K30,K31,K32,K33,K37)/18</f>
+        <v>216614.6333333333</v>
+      </c>
+      <c r="L38">
+        <f>SUM(L8,L9,L13,L14,L15,L16,L17,L21,L22,L23,L24,L25,L29,L30,L31,L32,L33,L37)</f>
+        <v>15533.500000000002</v>
+      </c>
+      <c r="M38" s="5">
+        <f>L38/K38*100</f>
+        <v>7.1710298427053036</v>
+      </c>
+      <c r="N38" s="12">
+        <f>G38+L38</f>
+        <v>16584.690000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44287</v>
+      </c>
+      <c r="B2">
+        <v>81873.73</v>
+      </c>
+      <c r="C2">
+        <v>71203.61</v>
+      </c>
+      <c r="D2">
+        <v>69870.09</v>
+      </c>
+      <c r="G2">
+        <v>1333.52</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I3" si="0">G2/D2*100</f>
+        <v>1.9085706058200296</v>
+      </c>
+      <c r="J2" s="1">
+        <v>248497.97</v>
+      </c>
+      <c r="K2">
+        <v>220660.5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2657.8</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ref="M2:M3" si="1">L2/K2*100</f>
+        <v>1.2044747474060833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44288</v>
+      </c>
+      <c r="B3">
+        <v>82889.789999999994</v>
+      </c>
+      <c r="C3">
+        <v>69251.38</v>
+      </c>
+      <c r="D3">
+        <v>71203.61</v>
+      </c>
+      <c r="G3">
+        <v>1015.76</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4265568838433895</v>
+      </c>
+      <c r="J3" s="1">
+        <v>251400.16</v>
+      </c>
+      <c r="K3">
+        <v>220808.3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2923.8</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3241350076061456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6"/>
+      <c r="B4">
+        <f>SUM(B2:B3)/2</f>
+        <v>82381.759999999995</v>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)/2</f>
+        <v>70227.494999999995</v>
+      </c>
+      <c r="D4">
+        <f>SUM(D2:D3)/2</f>
+        <v>70536.850000000006</v>
+      </c>
+      <c r="F4">
+        <f>SUM(F2:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>SUM(G2:G3)</f>
+        <v>2349.2799999999997</v>
+      </c>
+      <c r="H4">
+        <f>SUM(H2:H3)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f>G4/D4*100</f>
+        <v>3.330571183714611</v>
+      </c>
+      <c r="J4">
+        <f>SUM(J2,J3)/2</f>
+        <v>249949.065</v>
+      </c>
+      <c r="K4">
+        <f>SUM(K2:K3)/2</f>
+        <v>220734.4</v>
+      </c>
+      <c r="L4" s="1">
+        <f>SUM(L2:L3)</f>
+        <v>5581.6</v>
+      </c>
+      <c r="M4" s="5">
+        <f>L4/K4*100</f>
+        <v>2.5286498162497555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44292</v>
+      </c>
+      <c r="B8">
+        <v>82754.09</v>
+      </c>
+      <c r="C8">
+        <v>69114.460000000006</v>
+      </c>
+      <c r="D8">
+        <v>69251.38</v>
+      </c>
+      <c r="G8">
+        <v>-136.91999999999999</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" ref="I8" si="2">G8/D8*100</f>
+        <v>-0.19771447153832888</v>
+      </c>
+      <c r="J8" s="1">
+        <v>249950.07999999999</v>
+      </c>
+      <c r="K8">
+        <v>218557.1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1445.6</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" ref="M8:M11" si="3">L8/K8*100</f>
+        <v>-0.66142898125935967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44293</v>
+      </c>
+      <c r="B9">
+        <v>82142.600000000006</v>
+      </c>
+      <c r="C9">
+        <v>68502.69</v>
+      </c>
+      <c r="D9">
+        <v>69114.460000000006</v>
+      </c>
+      <c r="G9">
+        <v>-611.78</v>
+      </c>
+      <c r="I9" s="5">
+        <v>-0.88519999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>250295.26</v>
+      </c>
+      <c r="K9">
+        <v>228939.5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>364.4</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15916868867102443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44294</v>
+      </c>
+      <c r="B10">
+        <v>72315.02</v>
+      </c>
+      <c r="C10">
+        <v>66789.38</v>
+      </c>
+      <c r="D10">
+        <v>68502.69</v>
+      </c>
+      <c r="G10">
+        <v>172.1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="J10" s="1">
+        <v>249841.05</v>
+      </c>
+      <c r="K10">
+        <v>241206.6</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-431.9</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.17905811864186136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44295</v>
+      </c>
+      <c r="B11">
+        <v>71418.84</v>
+      </c>
+      <c r="C11">
+        <v>65892.83</v>
+      </c>
+      <c r="D11">
+        <v>66789.38</v>
+      </c>
+      <c r="G11">
+        <v>-894.93</v>
+      </c>
+      <c r="I11" s="5">
+        <v>-1.3399000000000001</v>
+      </c>
+      <c r="J11" s="1">
+        <v>247395.6</v>
+      </c>
+      <c r="K11">
+        <v>234575.4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-2446.65</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.0430121828631649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6"/>
+      <c r="B12">
+        <f>SUM(B8:B11)/4</f>
+        <v>77157.637500000012</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C8:C11)/4</f>
+        <v>67574.840000000011</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D8:D11)/4</f>
+        <v>68414.477500000008</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F10:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G8:G11)</f>
+        <v>-1471.5299999999997</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H10:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f>G12/D12*100</f>
+        <v>-2.1509043900832241</v>
+      </c>
+      <c r="J12">
+        <f>SUM(J8:J11)/4</f>
+        <v>249370.49749999997</v>
+      </c>
+      <c r="K12">
+        <f>SUM(K8:K11)/4</f>
+        <v>230819.65</v>
+      </c>
+      <c r="L12" s="1">
+        <f>SUM(L8:L11)</f>
+        <v>-3959.75</v>
+      </c>
+      <c r="M12" s="5">
+        <f>L12/K12*100</f>
+        <v>-1.7155168548258346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44298</v>
+      </c>
+      <c r="C15">
+        <v>64657.39</v>
+      </c>
+      <c r="D15">
+        <v>65892.83</v>
+      </c>
+      <c r="G15">
+        <v>-1235.45</v>
+      </c>
+      <c r="I15" s="5">
+        <v>-1.8749</v>
+      </c>
+      <c r="J15" s="1">
+        <v>243009.14</v>
+      </c>
+      <c r="K15">
+        <v>235464.5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-4387.1000000000004</v>
+      </c>
+      <c r="M15">
+        <v>-1.8632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44299</v>
+      </c>
+      <c r="C16">
+        <v>64450.32</v>
+      </c>
+      <c r="D16">
+        <v>64657.39</v>
+      </c>
+      <c r="G16">
+        <v>-207.07</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-0.32029999999999997</v>
+      </c>
+      <c r="J16" s="1">
+        <v>242582.7</v>
+      </c>
+      <c r="K16">
+        <v>225036</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-415.5</v>
+      </c>
+      <c r="M16">
+        <v>-0.18459999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44300</v>
+      </c>
+      <c r="C17">
+        <v>65162.16</v>
+      </c>
+      <c r="D17">
+        <v>64450.32</v>
+      </c>
+      <c r="G17">
+        <v>711.83</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1.1045</v>
+      </c>
+      <c r="J17" s="1">
+        <v>245637.69</v>
+      </c>
+      <c r="K17">
+        <v>223558.5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3066.5</v>
+      </c>
+      <c r="M17">
+        <v>1.3716999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44301</v>
+      </c>
+      <c r="C18">
+        <v>64805.83</v>
+      </c>
+      <c r="D18">
+        <v>65162.16</v>
+      </c>
+      <c r="G18">
+        <v>-356.34</v>
+      </c>
+      <c r="I18" s="5">
+        <v>-0.54690000000000005</v>
+      </c>
+      <c r="J18" s="1">
+        <v>243589.84</v>
+      </c>
+      <c r="K18">
+        <v>232982.6</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-2042.7</v>
+      </c>
+      <c r="M18">
+        <v>-0.87680000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44302</v>
+      </c>
+      <c r="C19">
+        <v>64855.11</v>
+      </c>
+      <c r="D19">
+        <v>64805.83</v>
+      </c>
+      <c r="G19">
+        <v>49.28</v>
+      </c>
+      <c r="I19" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>265543.67</v>
+      </c>
+      <c r="K19">
+        <v>234968.9</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1980.8</v>
+      </c>
+      <c r="M19">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6"/>
+      <c r="B20">
+        <f>SUM(B15:B19)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C15:C19)/5</f>
+        <v>64786.161999999997</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D15:D19)/5</f>
+        <v>64993.706000000006</v>
+      </c>
+      <c r="F20">
+        <f>SUM(F15:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>SUM(G15:G19)</f>
+        <v>-1037.75</v>
+      </c>
+      <c r="H20">
+        <f>SUM(H18:H19)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <f>G20/D20*100</f>
+        <v>-1.5966930705567088</v>
+      </c>
+      <c r="J20">
+        <f>SUM(J15:J19)/5</f>
+        <v>248072.60800000001</v>
+      </c>
+      <c r="K20">
+        <f>SUM(K15:K19)/5</f>
+        <v>230402.1</v>
+      </c>
+      <c r="L20" s="1">
+        <f>SUM(L15:L19)</f>
+        <v>-1798.0000000000002</v>
+      </c>
+      <c r="M20" s="5">
+        <f>L20/K20*100</f>
+        <v>-0.78037483165301014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44305</v>
+      </c>
+      <c r="B23">
+        <v>71733.67</v>
+      </c>
+      <c r="C23">
+        <v>66200.67</v>
+      </c>
+      <c r="D23">
+        <v>64855.11</v>
+      </c>
+      <c r="G23">
+        <v>1345.55</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2.0747</v>
+      </c>
+      <c r="J23" s="1">
+        <v>271999.55</v>
+      </c>
+      <c r="K23">
+        <v>176364.6</v>
+      </c>
+      <c r="L23" s="1">
+        <v>6540.4</v>
+      </c>
+      <c r="M23">
+        <v>3.7084999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6">
+        <v>44306</v>
+      </c>
+      <c r="B24">
+        <v>61621.15</v>
+      </c>
+      <c r="C24">
+        <v>57150.1</v>
+      </c>
+      <c r="D24">
+        <v>66200.67</v>
+      </c>
+      <c r="G24">
+        <v>-112.89</v>
+      </c>
+      <c r="I24" s="5">
+        <v>-0.17050000000000001</v>
+      </c>
+      <c r="J24" s="1">
+        <v>271106.71999999997</v>
+      </c>
+      <c r="K24">
+        <v>173467</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-893.96</v>
+      </c>
+      <c r="M24">
+        <v>-0.51529999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6">
+        <v>44307</v>
+      </c>
+      <c r="C25">
+        <v>57362.12</v>
+      </c>
+      <c r="D25">
+        <v>57150.1</v>
+      </c>
+      <c r="G25">
+        <v>212.01</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.371</v>
+      </c>
+      <c r="J25" s="1">
+        <v>281105.17</v>
+      </c>
+      <c r="K25">
+        <v>149788.29999999999</v>
+      </c>
+      <c r="L25" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="M25">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6">
+        <v>44308</v>
+      </c>
+      <c r="C26">
+        <v>54305.1</v>
+      </c>
+      <c r="D26">
+        <v>57362.12</v>
+      </c>
+      <c r="G26">
+        <v>163.34</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.2848</v>
+      </c>
+      <c r="J26" s="1">
+        <v>281383.8</v>
+      </c>
+      <c r="K26">
+        <v>147988</v>
+      </c>
+      <c r="L26" s="1">
+        <v>302.7</v>
+      </c>
+      <c r="M26">
+        <v>0.20449999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
+        <v>44309</v>
+      </c>
+      <c r="B27">
+        <v>62555.69</v>
+      </c>
+      <c r="C27">
+        <v>52832.54</v>
+      </c>
+      <c r="D27">
+        <v>54305.1</v>
+      </c>
+      <c r="G27">
+        <v>557.47</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1.0266</v>
+      </c>
+      <c r="J27" s="1">
+        <v>281829.95</v>
+      </c>
+      <c r="K27">
+        <v>160247.20000000001</v>
+      </c>
+      <c r="L27" s="1">
+        <v>456.2</v>
+      </c>
+      <c r="M27">
+        <v>0.28470000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6"/>
+      <c r="C28">
+        <f>SUM(C23:C27)/5</f>
+        <v>57570.105999999992</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D23:D27)/5</f>
+        <v>59974.619999999995</v>
+      </c>
+      <c r="F28">
+        <f>SUM(F23:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>SUM(G23:G27)</f>
+        <v>2165.4799999999996</v>
+      </c>
+      <c r="H28">
+        <f>SUM(H26:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <f>G28/D28*100</f>
+        <v>3.610660642785231</v>
+      </c>
+      <c r="J28">
+        <f>SUM(J23:J27)/5</f>
+        <v>277485.038</v>
+      </c>
+      <c r="K28">
+        <f>SUM(K23:K27)/5</f>
+        <v>161571.01999999996</v>
+      </c>
+      <c r="L28" s="1">
+        <f>SUM(L23:L27)</f>
+        <v>6418.6399999999994</v>
+      </c>
+      <c r="M28" s="5">
+        <f>L28/K28*100</f>
+        <v>3.9726431138455407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="6">
+        <v>44310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6">
+        <v>44312</v>
+      </c>
+      <c r="C31">
+        <v>52416.17</v>
+      </c>
+      <c r="D31">
+        <v>52832.54</v>
+      </c>
+      <c r="G31">
+        <v>-416.38</v>
+      </c>
+      <c r="I31" s="5">
+        <v>-0.78810000000000002</v>
+      </c>
+      <c r="J31" s="1">
+        <v>280973.92</v>
+      </c>
+      <c r="K31">
+        <v>159482.5</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-848.8</v>
+      </c>
+      <c r="M31">
+        <v>-0.53220000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6">
+        <v>44313</v>
+      </c>
+      <c r="C32">
+        <v>52416.17</v>
+      </c>
+      <c r="D32">
+        <v>52553.56</v>
+      </c>
+      <c r="G32">
+        <v>137.38</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.26140000000000002</v>
+      </c>
+      <c r="J32" s="1">
+        <v>280950.14</v>
+      </c>
+      <c r="K32">
+        <v>122029.7</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="M32" s="5">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6">
+        <v>44314</v>
+      </c>
+      <c r="C33">
+        <v>52946.96</v>
+      </c>
+      <c r="D33">
+        <v>52416.17</v>
+      </c>
+      <c r="G33">
+        <v>393.4</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="J33" s="1">
+        <v>281757.98</v>
+      </c>
+      <c r="K33">
+        <v>132110.9</v>
+      </c>
+      <c r="L33" s="1">
+        <v>811.7</v>
+      </c>
+      <c r="M33">
+        <v>0.61439999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6">
+        <v>44315</v>
+      </c>
+      <c r="C34">
+        <v>53293.86</v>
+      </c>
+      <c r="D34">
+        <v>52416.17</v>
+      </c>
+      <c r="G34">
+        <v>346.9</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="J34" s="1">
+        <v>273135.23</v>
+      </c>
+      <c r="K34">
+        <v>118045.6</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1366.93</v>
+      </c>
+      <c r="M34">
+        <v>1.1579999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="6">
+        <v>44316</v>
+      </c>
+      <c r="C35">
+        <v>53141.46</v>
+      </c>
+      <c r="D35">
+        <v>52946.96</v>
+      </c>
+      <c r="G35">
+        <v>-152.4</v>
+      </c>
+      <c r="I35" s="5">
+        <v>-0.2878</v>
+      </c>
+      <c r="J35" s="1">
+        <v>271971.20000000001</v>
+      </c>
+      <c r="K35">
+        <v>154999.20000000001</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-1144.9000000000001</v>
+      </c>
+      <c r="M35">
+        <v>-0.73860000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="C36">
+        <f>SUM(C31:C35)/5</f>
+        <v>52842.923999999999</v>
+      </c>
+      <c r="D36">
+        <f>SUM(D31:D35)/5</f>
+        <v>52633.08</v>
+      </c>
+      <c r="F36">
+        <f>SUM(F31:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>SUM(G31:G35)</f>
+        <v>308.89999999999998</v>
+      </c>
+      <c r="H36">
+        <f>SUM(H34:H35)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <f>G36/D36*100</f>
+        <v>0.58689326180417323</v>
+      </c>
+      <c r="J36">
+        <f>SUM(J31:J35)/5</f>
+        <v>277757.69400000002</v>
+      </c>
+      <c r="K36">
+        <f>SUM(K31:K35)/5</f>
+        <v>137333.57999999999</v>
+      </c>
+      <c r="L36" s="1">
+        <f>SUM(L31:L35)</f>
+        <v>181.43000000000006</v>
+      </c>
+      <c r="M36" s="5">
+        <f>L36/K36*100</f>
+        <v>0.13210898601784071</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="C38">
+        <f>SUM(C2,C3,C8,C9,C10,C11,C15,C16,C17,C18,C19,C23,C24,C25,C26,C27,C31,C32,C33,C34,C35)/21</f>
+        <v>61273.82428571429</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D2,D3,D8,D9,D10,D11,D15,D16,D17,D18,D19,D23,D24,D25,D26,D27,D31,D32,D33,D34,D35)/21</f>
+        <v>62035.173333333325</v>
+      </c>
+      <c r="G38">
+        <f>SUM(G2,G3,G8,G9,G10,G11,G15,G16,G17,G18,G19,G23,G24,G25,G26,G27,G31,G32,G33,G34,G35)</f>
+        <v>2314.3799999999997</v>
+      </c>
+      <c r="I38" s="5">
+        <f>G38/D38*100</f>
+        <v>3.730754466605827</v>
+      </c>
+      <c r="K38">
+        <f>SUM(K2,K3,K8,K9,K10,K11,K15,K16,K17,K18,K19,K23,K24,K25,K26,K27,K31,K32,K33,K34,K35)/21</f>
+        <v>191013.37619047621</v>
+      </c>
+      <c r="L38" s="1">
+        <f>SUM(L2,L3,L8,L9,L10,L11,L15,L16,L17,L18,L19,L23,L24,L25,L26,L27,L31,L32,L33,L34,L35)</f>
+        <v>6423.9199999999983</v>
+      </c>
+      <c r="M38" s="5">
+        <f>L38/K38*100</f>
+        <v>3.3630733763870775</v>
+      </c>
+      <c r="N38" s="12">
+        <f>G38+L38</f>
+        <v>8738.2999999999975</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="C42">
+        <v>8738.2999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="C43">
+        <v>-12503.81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="C44">
+        <v>1147.4000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="C45">
+        <v>6963.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="C46">
+        <v>13367.86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="C47">
+        <v>5046.6400000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="C48">
+        <v>4861.92</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49">
+        <v>-10652.23</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50">
+        <v>-163.32</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51">
+        <v>9587.07</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52">
+        <v>6641.03</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53">
+        <v>45.33</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54">
+        <v>2047.78</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55">
+        <v>-273.42</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56">
+        <v>-2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G12" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -3285,7 +5437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -3879,7 +6031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -4797,7 +6949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -5307,7 +7459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -5493,7 +7645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -5615,7 +7767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -5697,7 +7849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -6489,7 +8641,172 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44494</v>
+      </c>
+      <c r="J2" s="1">
+        <v>339257.77</v>
+      </c>
+      <c r="K2">
+        <v>215621</v>
+      </c>
+      <c r="L2" s="1">
+        <v>645</v>
+      </c>
+      <c r="M2">
+        <v>0.29909999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44495</v>
+      </c>
+      <c r="J3" s="1">
+        <v>338342.83</v>
+      </c>
+      <c r="K3">
+        <v>169375</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-876</v>
+      </c>
+      <c r="M3">
+        <v>-0.51719999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44496</v>
+      </c>
+      <c r="J4" s="1">
+        <v>308338.65000000002</v>
+      </c>
+      <c r="K4">
+        <v>186015.06</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-3338</v>
+      </c>
+      <c r="M4">
+        <v>-1.7945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44497</v>
+      </c>
+      <c r="J5" s="1">
+        <v>286133.12</v>
+      </c>
+      <c r="K5">
+        <v>231928.44</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-720</v>
+      </c>
+      <c r="M5">
+        <v>-0.31040000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44498</v>
+      </c>
+      <c r="J6" s="1">
+        <v>338548.51</v>
+      </c>
+      <c r="K6">
+        <v>288085</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5283</v>
+      </c>
+      <c r="M6">
+        <v>1.8338000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>322124.17600000004</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>218204.9</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>994</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>0.45553514151148766</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I54"/>
   <sheetViews>
@@ -7717,7 +10034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -7926,173 +10243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44452</v>
-      </c>
-      <c r="J2" s="1">
-        <v>332610.81</v>
-      </c>
-      <c r="K2">
-        <v>251446</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-712</v>
-      </c>
-      <c r="M2">
-        <v>-0.28320000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44453</v>
-      </c>
-      <c r="J3" s="1">
-        <v>352917.5</v>
-      </c>
-      <c r="K3">
-        <v>179388</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-3766</v>
-      </c>
-      <c r="M3">
-        <v>-2.0994000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44454</v>
-      </c>
-      <c r="J4" s="1">
-        <v>229949.15</v>
-      </c>
-      <c r="K4">
-        <v>203432.16</v>
-      </c>
-      <c r="L4" s="1">
-        <v>4142</v>
-      </c>
-      <c r="M4">
-        <v>2.0360999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44455</v>
-      </c>
-      <c r="J5" s="1">
-        <v>354131.97</v>
-      </c>
-      <c r="K5">
-        <v>315077</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-2743</v>
-      </c>
-      <c r="M5">
-        <v>-0.87060000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44456</v>
-      </c>
-      <c r="J6" s="1">
-        <v>338172.81</v>
-      </c>
-      <c r="K6">
-        <v>303730</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2419</v>
-      </c>
-      <c r="M6">
-        <v>0.7964</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>321556.44800000003</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>250614.63200000004</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>-660</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>-0.26335254040554179</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V2"/>
   <sheetViews>
@@ -8264,6 +10415,336 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44487</v>
+      </c>
+      <c r="J2" s="1">
+        <v>358155.17</v>
+      </c>
+      <c r="K2">
+        <v>298049</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1777</v>
+      </c>
+      <c r="M2">
+        <v>0.59619999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44488</v>
+      </c>
+      <c r="J3" s="1">
+        <v>360576.05</v>
+      </c>
+      <c r="K3">
+        <v>292304</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2425</v>
+      </c>
+      <c r="M3">
+        <v>0.8296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44489</v>
+      </c>
+      <c r="J4" s="1">
+        <v>360894.69</v>
+      </c>
+      <c r="K4">
+        <v>283096</v>
+      </c>
+      <c r="L4" s="1">
+        <v>400</v>
+      </c>
+      <c r="M4">
+        <v>0.14130000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44490</v>
+      </c>
+      <c r="J5" s="1">
+        <v>360309.38</v>
+      </c>
+      <c r="K5">
+        <v>257240</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-517.6</v>
+      </c>
+      <c r="M5">
+        <v>-0.20119999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44491</v>
+      </c>
+      <c r="J6" s="1">
+        <v>338667.31</v>
+      </c>
+      <c r="K6">
+        <v>257383</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1612</v>
+      </c>
+      <c r="M6">
+        <v>-0.62629999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>355720.52</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>277614.40000000002</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>2472.4</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>0.89058780812522698</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44480</v>
+      </c>
+      <c r="J2" s="1">
+        <v>332610.81</v>
+      </c>
+      <c r="K2">
+        <v>251446</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-712</v>
+      </c>
+      <c r="M2">
+        <v>-0.28320000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44481</v>
+      </c>
+      <c r="J3" s="1">
+        <v>352917.5</v>
+      </c>
+      <c r="K3">
+        <v>179388</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-3766</v>
+      </c>
+      <c r="M3">
+        <v>-2.0994000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44482</v>
+      </c>
+      <c r="J4" s="1">
+        <v>229949.15</v>
+      </c>
+      <c r="K4">
+        <v>203432.16</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4142</v>
+      </c>
+      <c r="M4">
+        <v>2.0360999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44483</v>
+      </c>
+      <c r="J5" s="1">
+        <v>354131.97</v>
+      </c>
+      <c r="K5">
+        <v>315077</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-2743</v>
+      </c>
+      <c r="M5">
+        <v>-0.87060000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44484</v>
+      </c>
+      <c r="J6" s="1">
+        <v>338172.81</v>
+      </c>
+      <c r="K6">
+        <v>303730</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2419</v>
+      </c>
+      <c r="M6">
+        <v>0.7964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>321556.44800000003</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>250614.63200000004</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-660</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-0.26335254040554179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8359,12 +10840,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="J22" sqref="J22:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -8780,7 +11261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -9235,7 +11716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -9712,7 +12193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -10218,1967 +12699,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="6">
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="6">
-        <v>44318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6">
-        <v>44319</v>
-      </c>
-      <c r="J4"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6">
-        <v>44320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="6">
-        <v>44321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6">
-        <v>44322</v>
-      </c>
-      <c r="C8">
-        <v>52744.99</v>
-      </c>
-      <c r="D8">
-        <v>53141.46</v>
-      </c>
-      <c r="G8">
-        <v>-396.48</v>
-      </c>
-      <c r="I8" s="5">
-        <v>-0.74609999999999999</v>
-      </c>
-      <c r="J8" s="1">
-        <v>270816.58</v>
-      </c>
-      <c r="K8">
-        <v>211425.9</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-1195.3</v>
-      </c>
-      <c r="M8">
-        <v>-0.56540000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6">
-        <v>44323</v>
-      </c>
-      <c r="C9">
-        <v>51853.919999999998</v>
-      </c>
-      <c r="D9">
-        <v>52744.99</v>
-      </c>
-      <c r="G9">
-        <v>-839.05</v>
-      </c>
-      <c r="I9" s="5">
-        <v>-1.5908</v>
-      </c>
-      <c r="J9" s="1">
-        <v>269379.71999999997</v>
-      </c>
-      <c r="K9">
-        <v>229187</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-1411.4</v>
-      </c>
-      <c r="M9" s="5">
-        <v>-0.61580000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="6"/>
-      <c r="C10">
-        <f>SUM(C6:C9)/2</f>
-        <v>52299.455000000002</v>
-      </c>
-      <c r="D10">
-        <f>SUM(D6:D9)/2</f>
-        <v>52943.224999999999</v>
-      </c>
-      <c r="G10">
-        <f>SUM(G6:G9)</f>
-        <v>-1235.53</v>
-      </c>
-      <c r="H10">
-        <f>SUM(H8:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <f>G10/D10*100</f>
-        <v>-2.3336885881054656</v>
-      </c>
-      <c r="J10">
-        <f>SUM(J6:J9)/2</f>
-        <v>270098.15000000002</v>
-      </c>
-      <c r="K10">
-        <f>SUM(K6:K9)/2</f>
-        <v>220306.45</v>
-      </c>
-      <c r="L10" s="1">
-        <f>SUM(L6:L9)</f>
-        <v>-2606.6999999999998</v>
-      </c>
-      <c r="M10" s="5">
-        <f>L10/K10*100</f>
-        <v>-1.1832154709950615</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6">
-        <v>44324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="6">
-        <v>44325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="6">
-        <v>44326</v>
-      </c>
-      <c r="C13">
-        <v>51853.919999999998</v>
-      </c>
-      <c r="D13">
-        <v>51599.76</v>
-      </c>
-      <c r="G13">
-        <v>-254.17</v>
-      </c>
-      <c r="I13" s="5">
-        <v>-0.49259999999999998</v>
-      </c>
-      <c r="J13" s="1">
-        <v>279653.94</v>
-      </c>
-      <c r="K13">
-        <v>230066.8</v>
-      </c>
-      <c r="L13" s="1">
-        <v>286.8</v>
-      </c>
-      <c r="M13">
-        <v>0.12470000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="6">
-        <v>44327</v>
-      </c>
-      <c r="C14">
-        <v>46231.79</v>
-      </c>
-      <c r="D14">
-        <v>51853.919999999998</v>
-      </c>
-      <c r="G14">
-        <v>77.650000000000006</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.1497</v>
-      </c>
-      <c r="J14">
-        <v>280255.06</v>
-      </c>
-      <c r="K14">
-        <v>237959.7</v>
-      </c>
-      <c r="L14" s="1">
-        <v>656.7</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="6">
-        <v>44328</v>
-      </c>
-      <c r="C15">
-        <v>46542.3</v>
-      </c>
-      <c r="D15">
-        <v>46231.79</v>
-      </c>
-      <c r="G15">
-        <v>310.5</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.67159999999999997</v>
-      </c>
-      <c r="J15" s="1">
-        <v>281489.68</v>
-      </c>
-      <c r="K15">
-        <v>245088.3</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1235.0999999999999</v>
-      </c>
-      <c r="M15">
-        <v>0.50390000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="6">
-        <v>44329</v>
-      </c>
-      <c r="C16">
-        <v>45103.88</v>
-      </c>
-      <c r="D16">
-        <v>46542.3</v>
-      </c>
-      <c r="G16">
-        <v>-427.94</v>
-      </c>
-      <c r="I16" s="5">
-        <v>-0.91949999999999998</v>
-      </c>
-      <c r="J16" s="1">
-        <v>278597.86</v>
-      </c>
-      <c r="K16">
-        <v>235865.5</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-2882.8</v>
-      </c>
-      <c r="M16" s="5">
-        <v>-1.2222</v>
-      </c>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44330</v>
-      </c>
-      <c r="C17">
-        <v>45914.8</v>
-      </c>
-      <c r="D17">
-        <v>45103.88</v>
-      </c>
-      <c r="G17">
-        <v>810.92</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1.7979000000000001</v>
-      </c>
-      <c r="J17" s="1">
-        <v>297075.5</v>
-      </c>
-      <c r="K17">
-        <v>254312.9</v>
-      </c>
-      <c r="L17" s="1">
-        <v>4993</v>
-      </c>
-      <c r="M17">
-        <v>1.9633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6"/>
-      <c r="B18">
-        <f>SUM(B13:B17)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <f>SUM(C13:C17)/5</f>
-        <v>47129.338000000003</v>
-      </c>
-      <c r="D18">
-        <f>SUM(D13:D17)/5</f>
-        <v>48266.33</v>
-      </c>
-      <c r="F18">
-        <f>SUM(F13:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f>SUM(G13:G17)</f>
-        <v>516.96</v>
-      </c>
-      <c r="H18">
-        <f>SUM(H16:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <f>G18/D18*100</f>
-        <v>1.0710571945287741</v>
-      </c>
-      <c r="J18">
-        <f>SUM(J13:J17)/5</f>
-        <v>283414.408</v>
-      </c>
-      <c r="K18">
-        <f>SUM(K13:K17)/5</f>
-        <v>240658.63999999998</v>
-      </c>
-      <c r="L18" s="1">
-        <f>SUM(L13:L17)</f>
-        <v>4288.7999999999993</v>
-      </c>
-      <c r="M18" s="5">
-        <f>L18/K18*100</f>
-        <v>1.7821092980497186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>44332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44333</v>
-      </c>
-      <c r="C21">
-        <v>46705.27</v>
-      </c>
-      <c r="D21">
-        <v>45914.8</v>
-      </c>
-      <c r="G21">
-        <v>713.61</v>
-      </c>
-      <c r="I21" s="5">
-        <v>1.5542</v>
-      </c>
-      <c r="J21" s="1">
-        <v>287180.42</v>
-      </c>
-      <c r="K21">
-        <v>223809.4</v>
-      </c>
-      <c r="L21" s="1">
-        <v>3361.6</v>
-      </c>
-      <c r="M21">
-        <v>1.502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44334</v>
-      </c>
-      <c r="C22">
-        <v>42036.67</v>
-      </c>
-      <c r="D22">
-        <v>46705.27</v>
-      </c>
-      <c r="G22">
-        <v>-35.5</v>
-      </c>
-      <c r="I22" s="5">
-        <v>-7.5999999999999998E-2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>287508.09000000003</v>
-      </c>
-      <c r="K22">
-        <v>209781.2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>345.8</v>
-      </c>
-      <c r="M22">
-        <v>0.1648</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6">
-        <v>44335</v>
-      </c>
-      <c r="C23">
-        <v>41928.78</v>
-      </c>
-      <c r="D23">
-        <v>42036.67</v>
-      </c>
-      <c r="G23">
-        <v>-107.89</v>
-      </c>
-      <c r="I23" s="5">
-        <v>-0.25669999999999998</v>
-      </c>
-      <c r="J23" s="1">
-        <v>286918.05</v>
-      </c>
-      <c r="K23">
-        <v>187404.9</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-576.79999999999995</v>
-      </c>
-      <c r="M23">
-        <v>-0.30780000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6">
-        <v>44336</v>
-      </c>
-      <c r="C24">
-        <v>41986.080000000002</v>
-      </c>
-      <c r="D24">
-        <v>41928.78</v>
-      </c>
-      <c r="G24">
-        <v>57.29</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0.1366</v>
-      </c>
-      <c r="J24" s="1">
-        <v>287399.69</v>
-      </c>
-      <c r="K24">
-        <v>209008.7</v>
-      </c>
-      <c r="L24" s="1">
-        <v>494.8</v>
-      </c>
-      <c r="M24">
-        <v>0.23669999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="6">
-        <v>44337</v>
-      </c>
-      <c r="C25">
-        <v>41495.85</v>
-      </c>
-      <c r="D25">
-        <v>41986.080000000002</v>
-      </c>
-      <c r="G25">
-        <v>-490.23</v>
-      </c>
-      <c r="I25" s="5">
-        <v>-1.1676</v>
-      </c>
-      <c r="J25" s="1">
-        <v>286188.42</v>
-      </c>
-      <c r="K25">
-        <v>250057.5</v>
-      </c>
-      <c r="L25" s="1">
-        <v>-1197.8</v>
-      </c>
-      <c r="M25">
-        <v>-0.47899999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="6"/>
-      <c r="B26">
-        <f>SUM(B21:B25)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <f>SUM(C21:C25)/5</f>
-        <v>42830.53</v>
-      </c>
-      <c r="D26">
-        <f>SUM(D21:D25)/5</f>
-        <v>43714.319999999992</v>
-      </c>
-      <c r="F26">
-        <f>SUM(F21:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f>SUM(G21:G25)</f>
-        <v>137.27999999999997</v>
-      </c>
-      <c r="H26">
-        <f>SUM(H24:H25)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <f>G26/D26*100</f>
-        <v>0.31403896938120046</v>
-      </c>
-      <c r="J26">
-        <f>SUM(J21:J25)/5</f>
-        <v>287038.93400000001</v>
-      </c>
-      <c r="K26">
-        <f>SUM(K21:K25)/5</f>
-        <v>216012.34</v>
-      </c>
-      <c r="L26" s="1">
-        <f>SUM(L21:L25)</f>
-        <v>2427.6000000000004</v>
-      </c>
-      <c r="M26" s="5">
-        <f>L26/K26*100</f>
-        <v>1.1238246852008549</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="6">
-        <v>44338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="6">
-        <v>44339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="6">
-        <v>44340</v>
-      </c>
-      <c r="C29">
-        <v>41767.35</v>
-      </c>
-      <c r="D29">
-        <v>41495.85</v>
-      </c>
-      <c r="G29">
-        <v>271.49</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0.65429999999999999</v>
-      </c>
-      <c r="J29" s="1">
-        <v>288233.01</v>
-      </c>
-      <c r="K29">
-        <v>218947.20000000001</v>
-      </c>
-      <c r="L29" s="1">
-        <v>2057.6</v>
-      </c>
-      <c r="M29">
-        <v>0.93979999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="6">
-        <v>44341</v>
-      </c>
-      <c r="C30">
-        <v>43060.94</v>
-      </c>
-      <c r="D30">
-        <v>41495.85</v>
-      </c>
-      <c r="G30">
-        <v>1294.31</v>
-      </c>
-      <c r="I30" s="5">
-        <v>3.1191</v>
-      </c>
-      <c r="J30" s="1">
-        <v>292592.21000000002</v>
-      </c>
-      <c r="K30">
-        <v>132408.4</v>
-      </c>
-      <c r="L30" s="1">
-        <v>4431.1000000000004</v>
-      </c>
-      <c r="M30">
-        <v>3.3464999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="6">
-        <v>44342</v>
-      </c>
-      <c r="C31">
-        <v>20204.55</v>
-      </c>
-      <c r="D31">
-        <v>43060.94</v>
-      </c>
-      <c r="G31">
-        <v>-115.24</v>
-      </c>
-      <c r="I31" s="5">
-        <v>-0.2676</v>
-      </c>
-      <c r="J31" s="1">
-        <v>292136.73</v>
-      </c>
-      <c r="K31">
-        <v>188449.3</v>
-      </c>
-      <c r="L31" s="1">
-        <v>-438</v>
-      </c>
-      <c r="M31">
-        <v>-0.2324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="6">
-        <v>44343</v>
-      </c>
-      <c r="C32">
-        <v>20341.8</v>
-      </c>
-      <c r="D32">
-        <v>20204.55</v>
-      </c>
-      <c r="G32">
-        <v>139.37</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0.68979999999999997</v>
-      </c>
-      <c r="J32" s="1">
-        <v>314726.03000000003</v>
-      </c>
-      <c r="K32">
-        <v>183115.3</v>
-      </c>
-      <c r="L32" s="1">
-        <v>2628.9</v>
-      </c>
-      <c r="M32">
-        <v>1.4357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="6">
-        <v>44344</v>
-      </c>
-      <c r="C33">
-        <v>20252.02</v>
-      </c>
-      <c r="D33">
-        <v>20341.8</v>
-      </c>
-      <c r="G33">
-        <v>-89.79</v>
-      </c>
-      <c r="I33" s="5">
-        <v>-0.44140000000000001</v>
-      </c>
-      <c r="J33" s="1">
-        <v>314122.90999999997</v>
-      </c>
-      <c r="K33">
-        <v>251310.4</v>
-      </c>
-      <c r="L33" s="1">
-        <v>-585.9</v>
-      </c>
-      <c r="M33">
-        <v>-0.2331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="6"/>
-      <c r="B34">
-        <f>SUM(B29:B33)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <f>SUM(C29:C33)/5</f>
-        <v>29125.332000000002</v>
-      </c>
-      <c r="D34">
-        <f>SUM(D29:D33)/5</f>
-        <v>33319.797999999995</v>
-      </c>
-      <c r="F34">
-        <f>SUM(F29:F33)</f>
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <f>SUM(G29:G33)</f>
-        <v>1500.1399999999999</v>
-      </c>
-      <c r="H34">
-        <f>SUM(H32:H33)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <f>G34/D34*100</f>
-        <v>4.5022481828971479</v>
-      </c>
-      <c r="J34">
-        <f>SUM(J29:J33)/5</f>
-        <v>300362.17799999996</v>
-      </c>
-      <c r="K34">
-        <f>SUM(K29:K33)/5</f>
-        <v>194846.12</v>
-      </c>
-      <c r="L34" s="1">
-        <f>SUM(L29:L33)</f>
-        <v>8093.7000000000007</v>
-      </c>
-      <c r="M34" s="5">
-        <f>L34/K34*100</f>
-        <v>4.1538933390102919</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="6">
-        <v>44345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="6">
-        <v>44346</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="6">
-        <v>44347</v>
-      </c>
-      <c r="C37">
-        <v>20384.36</v>
-      </c>
-      <c r="D37">
-        <v>20252.02</v>
-      </c>
-      <c r="G37">
-        <v>132.34</v>
-      </c>
-      <c r="I37" s="5">
-        <v>0.65349999999999997</v>
-      </c>
-      <c r="J37" s="1">
-        <v>367430.22</v>
-      </c>
-      <c r="K37">
-        <v>200865</v>
-      </c>
-      <c r="L37" s="1">
-        <v>3330.1</v>
-      </c>
-      <c r="M37">
-        <v>1.6578999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="6"/>
-      <c r="C38">
-        <f>SUM(C8,C9,C13,C14,C15,C16,C17,C21,C22,C23,C24,C25,C29,C30,C31,C32,C33,C37)/17</f>
-        <v>42377.015882352949</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D8,D9,D13,D14,D15,D16,D17,D21,D22,D23,D24,D25,D29,D30,D31,D32,D33,D37)/17</f>
-        <v>44272.982941176466</v>
-      </c>
-      <c r="G38">
-        <f>SUM(G8,G9,G13,G14,G15,G16,G17,G21,G22,G23,G24,G25,G29,G30,G31,G32,G33,G37)</f>
-        <v>1051.1899999999998</v>
-      </c>
-      <c r="I38" s="5">
-        <f>G38/D38*100</f>
-        <v>2.3743374179161796</v>
-      </c>
-      <c r="K38">
-        <f>SUM(K8,K9,K13,K14,K15,K16,K17,K21,K22,K23,K24,K25,K29,K30,K31,K32,K33,K37)/18</f>
-        <v>216614.6333333333</v>
-      </c>
-      <c r="L38">
-        <f>SUM(L8,L9,L13,L14,L15,L16,L17,L21,L22,L23,L24,L25,L29,L30,L31,L32,L33,L37)</f>
-        <v>15533.500000000002</v>
-      </c>
-      <c r="M38" s="5">
-        <f>L38/K38*100</f>
-        <v>7.1710298427053036</v>
-      </c>
-      <c r="N38" s="12">
-        <f>G38+L38</f>
-        <v>16584.690000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44287</v>
-      </c>
-      <c r="B2">
-        <v>81873.73</v>
-      </c>
-      <c r="C2">
-        <v>71203.61</v>
-      </c>
-      <c r="D2">
-        <v>69870.09</v>
-      </c>
-      <c r="G2">
-        <v>1333.52</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:I3" si="0">G2/D2*100</f>
-        <v>1.9085706058200296</v>
-      </c>
-      <c r="J2" s="1">
-        <v>248497.97</v>
-      </c>
-      <c r="K2">
-        <v>220660.5</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2657.8</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ref="M2:M3" si="1">L2/K2*100</f>
-        <v>1.2044747474060833</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44288</v>
-      </c>
-      <c r="B3">
-        <v>82889.789999999994</v>
-      </c>
-      <c r="C3">
-        <v>69251.38</v>
-      </c>
-      <c r="D3">
-        <v>71203.61</v>
-      </c>
-      <c r="G3">
-        <v>1015.76</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>1.4265568838433895</v>
-      </c>
-      <c r="J3" s="1">
-        <v>251400.16</v>
-      </c>
-      <c r="K3">
-        <v>220808.3</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2923.8</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" si="1"/>
-        <v>1.3241350076061456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6"/>
-      <c r="B4">
-        <f>SUM(B2:B3)/2</f>
-        <v>82381.759999999995</v>
-      </c>
-      <c r="C4">
-        <f>SUM(C2:C3)/2</f>
-        <v>70227.494999999995</v>
-      </c>
-      <c r="D4">
-        <f>SUM(D2:D3)/2</f>
-        <v>70536.850000000006</v>
-      </c>
-      <c r="F4">
-        <f>SUM(F2:F3)</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f>SUM(G2:G3)</f>
-        <v>2349.2799999999997</v>
-      </c>
-      <c r="H4">
-        <f>SUM(H2:H3)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <f>G4/D4*100</f>
-        <v>3.330571183714611</v>
-      </c>
-      <c r="J4">
-        <f>SUM(J2,J3)/2</f>
-        <v>249949.065</v>
-      </c>
-      <c r="K4">
-        <f>SUM(K2:K3)/2</f>
-        <v>220734.4</v>
-      </c>
-      <c r="L4" s="1">
-        <f>SUM(L2:L3)</f>
-        <v>5581.6</v>
-      </c>
-      <c r="M4" s="5">
-        <f>L4/K4*100</f>
-        <v>2.5286498162497555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6">
-        <v>44291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6">
-        <v>44292</v>
-      </c>
-      <c r="B8">
-        <v>82754.09</v>
-      </c>
-      <c r="C8">
-        <v>69114.460000000006</v>
-      </c>
-      <c r="D8">
-        <v>69251.38</v>
-      </c>
-      <c r="G8">
-        <v>-136.91999999999999</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" ref="I8" si="2">G8/D8*100</f>
-        <v>-0.19771447153832888</v>
-      </c>
-      <c r="J8" s="1">
-        <v>249950.07999999999</v>
-      </c>
-      <c r="K8">
-        <v>218557.1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-1445.6</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" ref="M8:M11" si="3">L8/K8*100</f>
-        <v>-0.66142898125935967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6">
-        <v>44293</v>
-      </c>
-      <c r="B9">
-        <v>82142.600000000006</v>
-      </c>
-      <c r="C9">
-        <v>68502.69</v>
-      </c>
-      <c r="D9">
-        <v>69114.460000000006</v>
-      </c>
-      <c r="G9">
-        <v>-611.78</v>
-      </c>
-      <c r="I9" s="5">
-        <v>-0.88519999999999999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>250295.26</v>
-      </c>
-      <c r="K9">
-        <v>228939.5</v>
-      </c>
-      <c r="L9" s="1">
-        <v>364.4</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="3"/>
-        <v>0.15916868867102443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6">
-        <v>44294</v>
-      </c>
-      <c r="B10">
-        <v>72315.02</v>
-      </c>
-      <c r="C10">
-        <v>66789.38</v>
-      </c>
-      <c r="D10">
-        <v>68502.69</v>
-      </c>
-      <c r="G10">
-        <v>172.1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.25119999999999998</v>
-      </c>
-      <c r="J10" s="1">
-        <v>249841.05</v>
-      </c>
-      <c r="K10">
-        <v>241206.6</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-431.9</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.17905811864186136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6">
-        <v>44295</v>
-      </c>
-      <c r="B11">
-        <v>71418.84</v>
-      </c>
-      <c r="C11">
-        <v>65892.83</v>
-      </c>
-      <c r="D11">
-        <v>66789.38</v>
-      </c>
-      <c r="G11">
-        <v>-894.93</v>
-      </c>
-      <c r="I11" s="5">
-        <v>-1.3399000000000001</v>
-      </c>
-      <c r="J11" s="1">
-        <v>247395.6</v>
-      </c>
-      <c r="K11">
-        <v>234575.4</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-2446.65</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.0430121828631649</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6"/>
-      <c r="B12">
-        <f>SUM(B8:B11)/4</f>
-        <v>77157.637500000012</v>
-      </c>
-      <c r="C12">
-        <f>SUM(C8:C11)/4</f>
-        <v>67574.840000000011</v>
-      </c>
-      <c r="D12">
-        <f>SUM(D8:D11)/4</f>
-        <v>68414.477500000008</v>
-      </c>
-      <c r="F12">
-        <f>SUM(F10:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f>SUM(G8:G11)</f>
-        <v>-1471.5299999999997</v>
-      </c>
-      <c r="H12">
-        <f>SUM(H10:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <f>G12/D12*100</f>
-        <v>-2.1509043900832241</v>
-      </c>
-      <c r="J12">
-        <f>SUM(J8:J11)/4</f>
-        <v>249370.49749999997</v>
-      </c>
-      <c r="K12">
-        <f>SUM(K8:K11)/4</f>
-        <v>230819.65</v>
-      </c>
-      <c r="L12" s="1">
-        <f>SUM(L8:L11)</f>
-        <v>-3959.75</v>
-      </c>
-      <c r="M12" s="5">
-        <f>L12/K12*100</f>
-        <v>-1.7155168548258346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6">
-        <v>44296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6">
-        <v>44297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6">
-        <v>44298</v>
-      </c>
-      <c r="C15">
-        <v>64657.39</v>
-      </c>
-      <c r="D15">
-        <v>65892.83</v>
-      </c>
-      <c r="G15">
-        <v>-1235.45</v>
-      </c>
-      <c r="I15" s="5">
-        <v>-1.8749</v>
-      </c>
-      <c r="J15" s="1">
-        <v>243009.14</v>
-      </c>
-      <c r="K15">
-        <v>235464.5</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-4387.1000000000004</v>
-      </c>
-      <c r="M15">
-        <v>-1.8632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6">
-        <v>44299</v>
-      </c>
-      <c r="C16">
-        <v>64450.32</v>
-      </c>
-      <c r="D16">
-        <v>64657.39</v>
-      </c>
-      <c r="G16">
-        <v>-207.07</v>
-      </c>
-      <c r="I16" s="5">
-        <v>-0.32029999999999997</v>
-      </c>
-      <c r="J16" s="1">
-        <v>242582.7</v>
-      </c>
-      <c r="K16">
-        <v>225036</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-415.5</v>
-      </c>
-      <c r="M16">
-        <v>-0.18459999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44300</v>
-      </c>
-      <c r="C17">
-        <v>65162.16</v>
-      </c>
-      <c r="D17">
-        <v>64450.32</v>
-      </c>
-      <c r="G17">
-        <v>711.83</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1.1045</v>
-      </c>
-      <c r="J17" s="1">
-        <v>245637.69</v>
-      </c>
-      <c r="K17">
-        <v>223558.5</v>
-      </c>
-      <c r="L17" s="1">
-        <v>3066.5</v>
-      </c>
-      <c r="M17">
-        <v>1.3716999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6">
-        <v>44301</v>
-      </c>
-      <c r="C18">
-        <v>64805.83</v>
-      </c>
-      <c r="D18">
-        <v>65162.16</v>
-      </c>
-      <c r="G18">
-        <v>-356.34</v>
-      </c>
-      <c r="I18" s="5">
-        <v>-0.54690000000000005</v>
-      </c>
-      <c r="J18" s="1">
-        <v>243589.84</v>
-      </c>
-      <c r="K18">
-        <v>232982.6</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-2042.7</v>
-      </c>
-      <c r="M18">
-        <v>-0.87680000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>44302</v>
-      </c>
-      <c r="C19">
-        <v>64855.11</v>
-      </c>
-      <c r="D19">
-        <v>64805.83</v>
-      </c>
-      <c r="G19">
-        <v>49.28</v>
-      </c>
-      <c r="I19" s="5">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="J19" s="1">
-        <v>265543.67</v>
-      </c>
-      <c r="K19">
-        <v>234968.9</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1980.8</v>
-      </c>
-      <c r="M19">
-        <v>0.84299999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6"/>
-      <c r="B20">
-        <f>SUM(B15:B19)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <f>SUM(C15:C19)/5</f>
-        <v>64786.161999999997</v>
-      </c>
-      <c r="D20">
-        <f>SUM(D15:D19)/5</f>
-        <v>64993.706000000006</v>
-      </c>
-      <c r="F20">
-        <f>SUM(F15:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f>SUM(G15:G19)</f>
-        <v>-1037.75</v>
-      </c>
-      <c r="H20">
-        <f>SUM(H18:H19)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <f>G20/D20*100</f>
-        <v>-1.5966930705567088</v>
-      </c>
-      <c r="J20">
-        <f>SUM(J15:J19)/5</f>
-        <v>248072.60800000001</v>
-      </c>
-      <c r="K20">
-        <f>SUM(K15:K19)/5</f>
-        <v>230402.1</v>
-      </c>
-      <c r="L20" s="1">
-        <f>SUM(L15:L19)</f>
-        <v>-1798.0000000000002</v>
-      </c>
-      <c r="M20" s="5">
-        <f>L20/K20*100</f>
-        <v>-0.78037483165301014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>44303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>44304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6">
-        <v>44305</v>
-      </c>
-      <c r="B23">
-        <v>71733.67</v>
-      </c>
-      <c r="C23">
-        <v>66200.67</v>
-      </c>
-      <c r="D23">
-        <v>64855.11</v>
-      </c>
-      <c r="G23">
-        <v>1345.55</v>
-      </c>
-      <c r="I23" s="5">
-        <v>2.0747</v>
-      </c>
-      <c r="J23" s="1">
-        <v>271999.55</v>
-      </c>
-      <c r="K23">
-        <v>176364.6</v>
-      </c>
-      <c r="L23" s="1">
-        <v>6540.4</v>
-      </c>
-      <c r="M23">
-        <v>3.7084999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6">
-        <v>44306</v>
-      </c>
-      <c r="B24">
-        <v>61621.15</v>
-      </c>
-      <c r="C24">
-        <v>57150.1</v>
-      </c>
-      <c r="D24">
-        <v>66200.67</v>
-      </c>
-      <c r="G24">
-        <v>-112.89</v>
-      </c>
-      <c r="I24" s="5">
-        <v>-0.17050000000000001</v>
-      </c>
-      <c r="J24" s="1">
-        <v>271106.71999999997</v>
-      </c>
-      <c r="K24">
-        <v>173467</v>
-      </c>
-      <c r="L24" s="1">
-        <v>-893.96</v>
-      </c>
-      <c r="M24">
-        <v>-0.51529999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="6">
-        <v>44307</v>
-      </c>
-      <c r="C25">
-        <v>57362.12</v>
-      </c>
-      <c r="D25">
-        <v>57150.1</v>
-      </c>
-      <c r="G25">
-        <v>212.01</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0.371</v>
-      </c>
-      <c r="J25" s="1">
-        <v>281105.17</v>
-      </c>
-      <c r="K25">
-        <v>149788.29999999999</v>
-      </c>
-      <c r="L25" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="M25">
-        <v>8.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="6">
-        <v>44308</v>
-      </c>
-      <c r="C26">
-        <v>54305.1</v>
-      </c>
-      <c r="D26">
-        <v>57362.12</v>
-      </c>
-      <c r="G26">
-        <v>163.34</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0.2848</v>
-      </c>
-      <c r="J26" s="1">
-        <v>281383.8</v>
-      </c>
-      <c r="K26">
-        <v>147988</v>
-      </c>
-      <c r="L26" s="1">
-        <v>302.7</v>
-      </c>
-      <c r="M26">
-        <v>0.20449999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="6">
-        <v>44309</v>
-      </c>
-      <c r="B27">
-        <v>62555.69</v>
-      </c>
-      <c r="C27">
-        <v>52832.54</v>
-      </c>
-      <c r="D27">
-        <v>54305.1</v>
-      </c>
-      <c r="G27">
-        <v>557.47</v>
-      </c>
-      <c r="I27" s="5">
-        <v>1.0266</v>
-      </c>
-      <c r="J27" s="1">
-        <v>281829.95</v>
-      </c>
-      <c r="K27">
-        <v>160247.20000000001</v>
-      </c>
-      <c r="L27" s="1">
-        <v>456.2</v>
-      </c>
-      <c r="M27">
-        <v>0.28470000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="6"/>
-      <c r="C28">
-        <f>SUM(C23:C27)/5</f>
-        <v>57570.105999999992</v>
-      </c>
-      <c r="D28">
-        <f>SUM(D23:D27)/5</f>
-        <v>59974.619999999995</v>
-      </c>
-      <c r="F28">
-        <f>SUM(F23:F27)</f>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f>SUM(G23:G27)</f>
-        <v>2165.4799999999996</v>
-      </c>
-      <c r="H28">
-        <f>SUM(H26:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
-        <f>G28/D28*100</f>
-        <v>3.610660642785231</v>
-      </c>
-      <c r="J28">
-        <f>SUM(J23:J27)/5</f>
-        <v>277485.038</v>
-      </c>
-      <c r="K28">
-        <f>SUM(K23:K27)/5</f>
-        <v>161571.01999999996</v>
-      </c>
-      <c r="L28" s="1">
-        <f>SUM(L23:L27)</f>
-        <v>6418.6399999999994</v>
-      </c>
-      <c r="M28" s="5">
-        <f>L28/K28*100</f>
-        <v>3.9726431138455407</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="6">
-        <v>44310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="6">
-        <v>44311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="6">
-        <v>44312</v>
-      </c>
-      <c r="C31">
-        <v>52416.17</v>
-      </c>
-      <c r="D31">
-        <v>52832.54</v>
-      </c>
-      <c r="G31">
-        <v>-416.38</v>
-      </c>
-      <c r="I31" s="5">
-        <v>-0.78810000000000002</v>
-      </c>
-      <c r="J31" s="1">
-        <v>280973.92</v>
-      </c>
-      <c r="K31">
-        <v>159482.5</v>
-      </c>
-      <c r="L31" s="1">
-        <v>-848.8</v>
-      </c>
-      <c r="M31">
-        <v>-0.53220000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="6">
-        <v>44313</v>
-      </c>
-      <c r="C32">
-        <v>52416.17</v>
-      </c>
-      <c r="D32">
-        <v>52553.56</v>
-      </c>
-      <c r="G32">
-        <v>137.38</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0.26140000000000002</v>
-      </c>
-      <c r="J32" s="1">
-        <v>280950.14</v>
-      </c>
-      <c r="K32">
-        <v>122029.7</v>
-      </c>
-      <c r="L32" s="1">
-        <v>-3.5</v>
-      </c>
-      <c r="M32" s="5">
-        <v>-2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="6">
-        <v>44314</v>
-      </c>
-      <c r="C33">
-        <v>52946.96</v>
-      </c>
-      <c r="D33">
-        <v>52416.17</v>
-      </c>
-      <c r="G33">
-        <v>393.4</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0.75049999999999994</v>
-      </c>
-      <c r="J33" s="1">
-        <v>281757.98</v>
-      </c>
-      <c r="K33">
-        <v>132110.9</v>
-      </c>
-      <c r="L33" s="1">
-        <v>811.7</v>
-      </c>
-      <c r="M33">
-        <v>0.61439999999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="6">
-        <v>44315</v>
-      </c>
-      <c r="C34">
-        <v>53293.86</v>
-      </c>
-      <c r="D34">
-        <v>52416.17</v>
-      </c>
-      <c r="G34">
-        <v>346.9</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0.66180000000000005</v>
-      </c>
-      <c r="J34" s="1">
-        <v>273135.23</v>
-      </c>
-      <c r="K34">
-        <v>118045.6</v>
-      </c>
-      <c r="L34" s="1">
-        <v>1366.93</v>
-      </c>
-      <c r="M34">
-        <v>1.1579999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="6">
-        <v>44316</v>
-      </c>
-      <c r="C35">
-        <v>53141.46</v>
-      </c>
-      <c r="D35">
-        <v>52946.96</v>
-      </c>
-      <c r="G35">
-        <v>-152.4</v>
-      </c>
-      <c r="I35" s="5">
-        <v>-0.2878</v>
-      </c>
-      <c r="J35" s="1">
-        <v>271971.20000000001</v>
-      </c>
-      <c r="K35">
-        <v>154999.20000000001</v>
-      </c>
-      <c r="L35" s="1">
-        <v>-1144.9000000000001</v>
-      </c>
-      <c r="M35">
-        <v>-0.73860000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="C36">
-        <f>SUM(C31:C35)/5</f>
-        <v>52842.923999999999</v>
-      </c>
-      <c r="D36">
-        <f>SUM(D31:D35)/5</f>
-        <v>52633.08</v>
-      </c>
-      <c r="F36">
-        <f>SUM(F31:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <f>SUM(G31:G35)</f>
-        <v>308.89999999999998</v>
-      </c>
-      <c r="H36">
-        <f>SUM(H34:H35)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="5">
-        <f>G36/D36*100</f>
-        <v>0.58689326180417323</v>
-      </c>
-      <c r="J36">
-        <f>SUM(J31:J35)/5</f>
-        <v>277757.69400000002</v>
-      </c>
-      <c r="K36">
-        <f>SUM(K31:K35)/5</f>
-        <v>137333.57999999999</v>
-      </c>
-      <c r="L36" s="1">
-        <f>SUM(L31:L35)</f>
-        <v>181.43000000000006</v>
-      </c>
-      <c r="M36" s="5">
-        <f>L36/K36*100</f>
-        <v>0.13210898601784071</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="C38">
-        <f>SUM(C2,C3,C8,C9,C10,C11,C15,C16,C17,C18,C19,C23,C24,C25,C26,C27,C31,C32,C33,C34,C35)/21</f>
-        <v>61273.82428571429</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D2,D3,D8,D9,D10,D11,D15,D16,D17,D18,D19,D23,D24,D25,D26,D27,D31,D32,D33,D34,D35)/21</f>
-        <v>62035.173333333325</v>
-      </c>
-      <c r="G38">
-        <f>SUM(G2,G3,G8,G9,G10,G11,G15,G16,G17,G18,G19,G23,G24,G25,G26,G27,G31,G32,G33,G34,G35)</f>
-        <v>2314.3799999999997</v>
-      </c>
-      <c r="I38" s="5">
-        <f>G38/D38*100</f>
-        <v>3.730754466605827</v>
-      </c>
-      <c r="K38">
-        <f>SUM(K2,K3,K8,K9,K10,K11,K15,K16,K17,K18,K19,K23,K24,K25,K26,K27,K31,K32,K33,K34,K35)/21</f>
-        <v>191013.37619047621</v>
-      </c>
-      <c r="L38" s="1">
-        <f>SUM(L2,L3,L8,L9,L10,L11,L15,L16,L17,L18,L19,L23,L24,L25,L26,L27,L31,L32,L33,L34,L35)</f>
-        <v>6423.9199999999983</v>
-      </c>
-      <c r="M38" s="5">
-        <f>L38/K38*100</f>
-        <v>3.3630733763870775</v>
-      </c>
-      <c r="N38" s="12">
-        <f>G38+L38</f>
-        <v>8738.2999999999975</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="C42">
-        <v>8738.2999999999993</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="C43">
-        <v>-12503.81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="C44">
-        <v>1147.4000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="C45">
-        <v>6963.84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="C46">
-        <v>13367.86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="C47">
-        <v>5046.6400000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="C48">
-        <v>4861.92</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49">
-        <v>-10652.23</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50">
-        <v>-163.32</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51">
-        <v>9587.07</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52">
-        <v>6641.03</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53">
-        <v>45.33</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54">
-        <v>2047.78</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55">
-        <v>-273.42</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56">
-        <v>-2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="G12" formula="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -7,35 +7,36 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="10A" sheetId="68" r:id="rId1"/>
-    <sheet name="104" sheetId="67" r:id="rId2"/>
-    <sheet name="103" sheetId="66" r:id="rId3"/>
-    <sheet name="102" sheetId="65" r:id="rId4"/>
-    <sheet name="101" sheetId="64" r:id="rId5"/>
-    <sheet name="9A" sheetId="57" r:id="rId6"/>
-    <sheet name="8A" sheetId="53" r:id="rId7"/>
-    <sheet name="7A" sheetId="48" r:id="rId8"/>
-    <sheet name="6A" sheetId="40" r:id="rId9"/>
-    <sheet name="5" sheetId="37" r:id="rId10"/>
-    <sheet name="2104" sheetId="36" r:id="rId11"/>
-    <sheet name="2103" sheetId="33" r:id="rId12"/>
-    <sheet name="2102" sheetId="31" r:id="rId13"/>
-    <sheet name="2101" sheetId="26" r:id="rId14"/>
-    <sheet name="每月" sheetId="29" r:id="rId15"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId16"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId17"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId18"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId19"/>
-    <sheet name="突破均线" sheetId="61" r:id="rId20"/>
-    <sheet name="Sheet2" sheetId="62" r:id="rId21"/>
-    <sheet name="k线" sheetId="63" r:id="rId22"/>
+    <sheet name="1101" sheetId="69" r:id="rId1"/>
+    <sheet name="10A" sheetId="68" r:id="rId2"/>
+    <sheet name="104" sheetId="67" r:id="rId3"/>
+    <sheet name="103" sheetId="66" r:id="rId4"/>
+    <sheet name="102" sheetId="65" r:id="rId5"/>
+    <sheet name="101" sheetId="64" r:id="rId6"/>
+    <sheet name="9A" sheetId="57" r:id="rId7"/>
+    <sheet name="8A" sheetId="53" r:id="rId8"/>
+    <sheet name="7A" sheetId="48" r:id="rId9"/>
+    <sheet name="6A" sheetId="40" r:id="rId10"/>
+    <sheet name="5" sheetId="37" r:id="rId11"/>
+    <sheet name="2104" sheetId="36" r:id="rId12"/>
+    <sheet name="2103" sheetId="33" r:id="rId13"/>
+    <sheet name="2102" sheetId="31" r:id="rId14"/>
+    <sheet name="2101" sheetId="26" r:id="rId15"/>
+    <sheet name="每月" sheetId="29" r:id="rId16"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId17"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId18"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId20"/>
+    <sheet name="突破均线" sheetId="61" r:id="rId21"/>
+    <sheet name="Sheet2" sheetId="62" r:id="rId22"/>
+    <sheet name="k线" sheetId="63" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="94">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1946,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2001,292 +2002,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44477</v>
+        <v>44501</v>
       </c>
       <c r="J2" s="1">
-        <v>323455.99</v>
+        <v>336413.7</v>
       </c>
       <c r="K2">
-        <v>252443.34</v>
+        <v>303014</v>
       </c>
       <c r="L2" s="1">
-        <v>-1974</v>
+        <v>-2098</v>
       </c>
       <c r="M2">
-        <v>-0.78200000000000003</v>
+        <v>-0.69240000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44480</v>
+        <v>44502</v>
       </c>
       <c r="J3" s="1">
-        <v>332610.81</v>
+        <v>337771.53</v>
       </c>
       <c r="K3">
-        <v>251446</v>
+        <v>306959</v>
       </c>
       <c r="L3" s="1">
-        <v>-712</v>
+        <v>1474</v>
       </c>
       <c r="M3">
-        <v>-0.28320000000000001</v>
+        <v>0.48020000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44481</v>
+        <v>44503</v>
       </c>
       <c r="J4" s="1">
-        <v>352917.5</v>
+        <v>337368.69</v>
       </c>
       <c r="K4">
-        <v>179388</v>
+        <v>312788</v>
       </c>
       <c r="L4" s="1">
-        <v>-3766</v>
+        <v>604</v>
       </c>
       <c r="M4">
-        <v>-2.0994000000000002</v>
+        <v>0.19309999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44482</v>
+        <v>44504</v>
       </c>
       <c r="J5" s="1">
-        <v>229949.15</v>
+        <v>310247.15000000002</v>
       </c>
       <c r="K5">
-        <v>203432.16</v>
+        <v>306966</v>
       </c>
       <c r="L5" s="1">
-        <v>4142</v>
+        <v>1903</v>
       </c>
       <c r="M5">
-        <v>2.0360999999999998</v>
+        <v>0.61990000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44483</v>
+        <v>44505</v>
       </c>
       <c r="J6" s="1">
-        <v>354131.97</v>
+        <v>339282.19</v>
       </c>
       <c r="K6">
-        <v>315077</v>
+        <v>318683</v>
       </c>
       <c r="L6" s="1">
-        <v>-2743</v>
+        <v>-1942</v>
       </c>
       <c r="M6">
-        <v>-0.87060000000000004</v>
+        <v>-0.60940000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="6">
-        <v>44484</v>
-      </c>
       <c r="J7" s="1">
-        <v>338172.81</v>
-      </c>
-      <c r="K7">
-        <v>303730</v>
+        <f>AVERAGE(J2:J6)</f>
+        <v>332216.65199999994</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>309682</v>
       </c>
       <c r="L7" s="1">
-        <v>2419</v>
-      </c>
-      <c r="M7">
-        <v>0.7964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6">
-        <v>44487</v>
-      </c>
-      <c r="J8" s="1">
-        <v>358155.17</v>
-      </c>
-      <c r="K8">
-        <v>298049</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1777</v>
-      </c>
-      <c r="M8">
-        <v>0.59619999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6">
-        <v>44488</v>
-      </c>
-      <c r="J9" s="1">
-        <v>360576.05</v>
-      </c>
-      <c r="K9">
-        <v>292304</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2425</v>
-      </c>
-      <c r="M9">
-        <v>0.8296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6">
-        <v>44489</v>
-      </c>
-      <c r="J10" s="1">
-        <v>360894.69</v>
-      </c>
-      <c r="K10">
-        <v>283096</v>
-      </c>
-      <c r="L10" s="1">
-        <v>400</v>
-      </c>
-      <c r="M10">
-        <v>0.14130000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6">
-        <v>44490</v>
-      </c>
-      <c r="J11" s="1">
-        <v>360309.38</v>
-      </c>
-      <c r="K11">
-        <v>257240</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-517.6</v>
-      </c>
-      <c r="M11">
-        <v>-0.20119999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6">
-        <v>44491</v>
-      </c>
-      <c r="J12" s="1">
-        <v>338667.31</v>
-      </c>
-      <c r="K12">
-        <v>257383</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-1612</v>
-      </c>
-      <c r="M12">
-        <v>-0.62629999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6">
-        <v>44494</v>
-      </c>
-      <c r="J13" s="1">
-        <v>339257.77</v>
-      </c>
-      <c r="K13">
-        <v>215621</v>
-      </c>
-      <c r="L13" s="1">
-        <v>645</v>
-      </c>
-      <c r="M13">
-        <v>0.29909999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6">
-        <v>44495</v>
-      </c>
-      <c r="J14" s="1">
-        <v>338342.83</v>
-      </c>
-      <c r="K14">
-        <v>169375</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-876</v>
-      </c>
-      <c r="M14">
-        <v>-0.51719999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6">
-        <v>44496</v>
-      </c>
-      <c r="J15" s="1">
-        <v>308338.65000000002</v>
-      </c>
-      <c r="K15">
-        <v>186015.06</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-3338</v>
-      </c>
-      <c r="M15">
-        <v>-1.7945</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6">
-        <v>44497</v>
-      </c>
-      <c r="J16" s="1">
-        <v>286133.12</v>
-      </c>
-      <c r="K16">
-        <v>231928.44</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-720</v>
-      </c>
-      <c r="M16">
-        <v>-0.31040000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>44498</v>
-      </c>
-      <c r="J17" s="1">
-        <v>338548.51</v>
-      </c>
-      <c r="K17">
-        <v>288085</v>
-      </c>
-      <c r="L17" s="1">
-        <v>5283</v>
-      </c>
-      <c r="M17">
-        <v>1.8338000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="J18" s="1">
-        <f>AVERAGE(J2:J17)</f>
-        <v>332528.856875</v>
-      </c>
-      <c r="K18">
-        <f>AVERAGE(K2:K17)</f>
-        <v>249038.3125</v>
-      </c>
-      <c r="L18" s="1">
-        <f>SUM(L2:L17)</f>
-        <v>832.39999999999964</v>
-      </c>
-      <c r="M18" s="5">
-        <f>L18/K18*100</f>
-        <v>0.33424575987680594</v>
+        <f>SUM(L1:L6)</f>
+        <v>-59</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-1.9051801525435771E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2297,6 +2111,514 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="6">
+        <v>44348</v>
+      </c>
+      <c r="J2" s="1">
+        <v>369566.62</v>
+      </c>
+      <c r="K2" s="14">
+        <v>235801.1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2159.6</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6">
+        <v>44349</v>
+      </c>
+      <c r="J3" s="1">
+        <v>365120.57</v>
+      </c>
+      <c r="K3" s="14">
+        <v>296728</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-4436.1000000000004</v>
+      </c>
+      <c r="M3" s="5">
+        <v>-1.4950000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6">
+        <v>44350</v>
+      </c>
+      <c r="J4" s="1">
+        <v>363781.23</v>
+      </c>
+      <c r="K4" s="14">
+        <v>259382.2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1330.1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>-0.51280000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6">
+        <v>44351</v>
+      </c>
+      <c r="J5" s="1">
+        <v>366580.88</v>
+      </c>
+      <c r="K5" s="14">
+        <v>209187.4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2829.7</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1.3527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6">
+        <v>44354</v>
+      </c>
+      <c r="J6" s="1">
+        <v>418141.49</v>
+      </c>
+      <c r="K6" s="14">
+        <v>246536.6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1562.6</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.63380000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6">
+        <v>44355</v>
+      </c>
+      <c r="J7" s="1">
+        <v>414310.09</v>
+      </c>
+      <c r="K7" s="14">
+        <v>318721.40000000002</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-3812.1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>-1.1960999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6">
+        <v>44356</v>
+      </c>
+      <c r="J8" s="1">
+        <v>413741.94</v>
+      </c>
+      <c r="K8" s="14">
+        <v>324161.7</v>
+      </c>
+      <c r="L8" s="1">
+        <v>427.2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6">
+        <v>44357</v>
+      </c>
+      <c r="J9" s="1">
+        <v>417812.38</v>
+      </c>
+      <c r="K9" s="14">
+        <v>282917</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4087.1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1.4446000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6">
+        <v>44358</v>
+      </c>
+      <c r="J10" s="1">
+        <v>394905.9</v>
+      </c>
+      <c r="K10" s="14">
+        <v>322514</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-3902.2</v>
+      </c>
+      <c r="M10" s="5">
+        <v>-1.2099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6">
+        <v>44362</v>
+      </c>
+      <c r="J11" s="1">
+        <v>412797.08</v>
+      </c>
+      <c r="K11" s="14">
+        <v>329797.90000000002</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-2089.4</v>
+      </c>
+      <c r="M11" s="5">
+        <v>-0.63349999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="6">
+        <v>44363</v>
+      </c>
+      <c r="J12" s="1">
+        <v>400806.78</v>
+      </c>
+      <c r="K12" s="14">
+        <v>353970.5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-8960.5</v>
+      </c>
+      <c r="M12" s="5">
+        <v>-2.5314000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6">
+        <v>44364</v>
+      </c>
+      <c r="J13" s="1">
+        <v>408254.99</v>
+      </c>
+      <c r="K13" s="14">
+        <v>270435.7</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6487.1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2.3988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6">
+        <v>44365</v>
+      </c>
+      <c r="J14" s="1">
+        <v>412532.63</v>
+      </c>
+      <c r="K14" s="14">
+        <v>273539.59999999998</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2301.3000000000002</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.84130000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6">
+        <v>44368</v>
+      </c>
+      <c r="J15" s="1">
+        <v>412210.07</v>
+      </c>
+      <c r="K15">
+        <v>276387.59999999998</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-319.3</v>
+      </c>
+      <c r="M15">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6">
+        <v>44369</v>
+      </c>
+      <c r="J16" s="1">
+        <v>413594.91</v>
+      </c>
+      <c r="K16">
+        <v>319069.5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1400.4</v>
+      </c>
+      <c r="M16">
+        <v>0.43890000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="6">
+        <v>44370</v>
+      </c>
+      <c r="J17" s="1">
+        <v>416573.23</v>
+      </c>
+      <c r="K17">
+        <v>244798.4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3015</v>
+      </c>
+      <c r="M17">
+        <v>1.2316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="6">
+        <v>44371</v>
+      </c>
+      <c r="J18" s="1">
+        <v>413177.05</v>
+      </c>
+      <c r="K18">
+        <v>315915.2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-3368.2</v>
+      </c>
+      <c r="M18">
+        <v>-1.0662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6">
+        <v>44372</v>
+      </c>
+      <c r="J19" s="1">
+        <v>412872.75</v>
+      </c>
+      <c r="K19">
+        <v>319013.59999999998</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5398.4</v>
+      </c>
+      <c r="M19">
+        <v>1.6921999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="6">
+        <v>44375</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="1"/>
+      <c r="I20"/>
+      <c r="J20" s="1">
+        <v>421680.23</v>
+      </c>
+      <c r="K20">
+        <v>235082.9</v>
+      </c>
+      <c r="L20">
+        <v>3167.1</v>
+      </c>
+      <c r="M20">
+        <v>1.3472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6">
+        <v>44376</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1"/>
+      <c r="I21"/>
+      <c r="J21" s="1">
+        <v>420854.97</v>
+      </c>
+      <c r="K21">
+        <v>334427.98</v>
+      </c>
+      <c r="L21">
+        <v>-777.6</v>
+      </c>
+      <c r="M21">
+        <v>-0.23250000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="6">
+        <v>44377</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1"/>
+      <c r="I22"/>
+      <c r="J22" s="1">
+        <v>424153.89</v>
+      </c>
+      <c r="K22">
+        <v>281291</v>
+      </c>
+      <c r="L22">
+        <v>3372.42</v>
+      </c>
+      <c r="M22">
+        <v>1.1989000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6"/>
+      <c r="B23">
+        <f>SUM(B6:B10)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F6:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G6:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H6:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <f>AVERAGE(J2:J22)</f>
+        <v>404450.93714285712</v>
+      </c>
+      <c r="K23" s="1">
+        <f>AVERAGE(K2:K22)</f>
+        <v>288079.96571428579</v>
+      </c>
+      <c r="L23" s="1">
+        <f>SUM(L1:L22)</f>
+        <v>7212.42</v>
+      </c>
+      <c r="M23" s="5">
+        <f>L23/K23*100</f>
+        <v>2.5036173487861317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="L25">
+        <v>6522.77</v>
+      </c>
+      <c r="M25" s="1">
+        <f>AVERAGE(L25,L26,L27)</f>
+        <v>10335.52</v>
+      </c>
+      <c r="N25" s="1">
+        <f>AVERAGE(L25:L30)</f>
+        <v>3917.4199999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="L26">
+        <v>16134.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="L27">
+        <v>8349.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="L28" s="1">
+        <v>-11625.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="L29" s="1">
+        <v>-2946.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="L30" s="1">
+        <v>7069.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -3165,7 +3487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -4259,7 +4581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -5437,7 +5759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -6031,7 +6353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -6949,7 +7271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -7459,7 +7781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -7645,7 +7967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -7767,7 +8089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7849,7 +8171,359 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44477</v>
+      </c>
+      <c r="J2" s="1">
+        <v>323455.99</v>
+      </c>
+      <c r="K2">
+        <v>252443.34</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1974</v>
+      </c>
+      <c r="M2">
+        <v>-0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44480</v>
+      </c>
+      <c r="J3" s="1">
+        <v>332610.81</v>
+      </c>
+      <c r="K3">
+        <v>251446</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-712</v>
+      </c>
+      <c r="M3">
+        <v>-0.28320000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44481</v>
+      </c>
+      <c r="J4" s="1">
+        <v>352917.5</v>
+      </c>
+      <c r="K4">
+        <v>179388</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-3766</v>
+      </c>
+      <c r="M4">
+        <v>-2.0994000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44482</v>
+      </c>
+      <c r="J5" s="1">
+        <v>229949.15</v>
+      </c>
+      <c r="K5">
+        <v>203432.16</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4142</v>
+      </c>
+      <c r="M5">
+        <v>2.0360999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44483</v>
+      </c>
+      <c r="J6" s="1">
+        <v>354131.97</v>
+      </c>
+      <c r="K6">
+        <v>315077</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-2743</v>
+      </c>
+      <c r="M6">
+        <v>-0.87060000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44484</v>
+      </c>
+      <c r="J7" s="1">
+        <v>338172.81</v>
+      </c>
+      <c r="K7">
+        <v>303730</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2419</v>
+      </c>
+      <c r="M7">
+        <v>0.7964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44487</v>
+      </c>
+      <c r="J8" s="1">
+        <v>358155.17</v>
+      </c>
+      <c r="K8">
+        <v>298049</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1777</v>
+      </c>
+      <c r="M8">
+        <v>0.59619999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44488</v>
+      </c>
+      <c r="J9" s="1">
+        <v>360576.05</v>
+      </c>
+      <c r="K9">
+        <v>292304</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2425</v>
+      </c>
+      <c r="M9">
+        <v>0.8296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44489</v>
+      </c>
+      <c r="J10" s="1">
+        <v>360894.69</v>
+      </c>
+      <c r="K10">
+        <v>283096</v>
+      </c>
+      <c r="L10" s="1">
+        <v>400</v>
+      </c>
+      <c r="M10">
+        <v>0.14130000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44490</v>
+      </c>
+      <c r="J11" s="1">
+        <v>360309.38</v>
+      </c>
+      <c r="K11">
+        <v>257240</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-517.6</v>
+      </c>
+      <c r="M11">
+        <v>-0.20119999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44491</v>
+      </c>
+      <c r="J12" s="1">
+        <v>338667.31</v>
+      </c>
+      <c r="K12">
+        <v>257383</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1612</v>
+      </c>
+      <c r="M12">
+        <v>-0.62629999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44494</v>
+      </c>
+      <c r="J13" s="1">
+        <v>339257.77</v>
+      </c>
+      <c r="K13">
+        <v>215621</v>
+      </c>
+      <c r="L13" s="1">
+        <v>645</v>
+      </c>
+      <c r="M13">
+        <v>0.29909999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44495</v>
+      </c>
+      <c r="J14" s="1">
+        <v>338342.83</v>
+      </c>
+      <c r="K14">
+        <v>169375</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-876</v>
+      </c>
+      <c r="M14">
+        <v>-0.51719999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44496</v>
+      </c>
+      <c r="J15" s="1">
+        <v>308338.65000000002</v>
+      </c>
+      <c r="K15">
+        <v>186015.06</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-3338</v>
+      </c>
+      <c r="M15">
+        <v>-1.7945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44497</v>
+      </c>
+      <c r="J16" s="1">
+        <v>286133.12</v>
+      </c>
+      <c r="K16">
+        <v>231928.44</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-720</v>
+      </c>
+      <c r="M16">
+        <v>-0.31040000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44498</v>
+      </c>
+      <c r="J17" s="1">
+        <v>338548.51</v>
+      </c>
+      <c r="K17">
+        <v>288085</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5283</v>
+      </c>
+      <c r="M17">
+        <v>1.8338000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="J18" s="1">
+        <f>AVERAGE(J2:J17)</f>
+        <v>332528.856875</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE(K2:K17)</f>
+        <v>249038.3125</v>
+      </c>
+      <c r="L18" s="1">
+        <f>SUM(L2:L17)</f>
+        <v>832.39999999999964</v>
+      </c>
+      <c r="M18" s="5">
+        <f>L18/K18*100</f>
+        <v>0.33424575987680594</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -8641,172 +9315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6">
-        <v>44494</v>
-      </c>
-      <c r="J2" s="1">
-        <v>339257.77</v>
-      </c>
-      <c r="K2">
-        <v>215621</v>
-      </c>
-      <c r="L2" s="1">
-        <v>645</v>
-      </c>
-      <c r="M2">
-        <v>0.29909999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>44495</v>
-      </c>
-      <c r="J3" s="1">
-        <v>338342.83</v>
-      </c>
-      <c r="K3">
-        <v>169375</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-876</v>
-      </c>
-      <c r="M3">
-        <v>-0.51719999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6">
-        <v>44496</v>
-      </c>
-      <c r="J4" s="1">
-        <v>308338.65000000002</v>
-      </c>
-      <c r="K4">
-        <v>186015.06</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-3338</v>
-      </c>
-      <c r="M4">
-        <v>-1.7945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6">
-        <v>44497</v>
-      </c>
-      <c r="J5" s="1">
-        <v>286133.12</v>
-      </c>
-      <c r="K5">
-        <v>231928.44</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-720</v>
-      </c>
-      <c r="M5">
-        <v>-0.31040000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6">
-        <v>44498</v>
-      </c>
-      <c r="J6" s="1">
-        <v>338548.51</v>
-      </c>
-      <c r="K6">
-        <v>288085</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5283</v>
-      </c>
-      <c r="M6">
-        <v>1.8338000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>AVERAGE(J2:J6)</f>
-        <v>322124.17600000004</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(K2:K6)</f>
-        <v>218204.9</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(L1:L6)</f>
-        <v>994</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7/K7*100</f>
-        <v>0.45553514151148766</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I54"/>
   <sheetViews>
@@ -10034,7 +10543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -10243,7 +10752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V2"/>
   <sheetViews>
@@ -10470,105 +10979,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44487</v>
+        <v>44494</v>
       </c>
       <c r="J2" s="1">
-        <v>358155.17</v>
+        <v>339257.77</v>
       </c>
       <c r="K2">
-        <v>298049</v>
+        <v>215621</v>
       </c>
       <c r="L2" s="1">
-        <v>1777</v>
+        <v>645</v>
       </c>
       <c r="M2">
-        <v>0.59619999999999995</v>
+        <v>0.29909999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44488</v>
+        <v>44495</v>
       </c>
       <c r="J3" s="1">
-        <v>360576.05</v>
+        <v>338342.83</v>
       </c>
       <c r="K3">
-        <v>292304</v>
+        <v>169375</v>
       </c>
       <c r="L3" s="1">
-        <v>2425</v>
+        <v>-876</v>
       </c>
       <c r="M3">
-        <v>0.8296</v>
+        <v>-0.51719999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="J4" s="1">
-        <v>360894.69</v>
+        <v>308338.65000000002</v>
       </c>
       <c r="K4">
-        <v>283096</v>
+        <v>186015.06</v>
       </c>
       <c r="L4" s="1">
-        <v>400</v>
+        <v>-3338</v>
       </c>
       <c r="M4">
-        <v>0.14130000000000001</v>
+        <v>-1.7945</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44490</v>
+        <v>44497</v>
       </c>
       <c r="J5" s="1">
-        <v>360309.38</v>
+        <v>286133.12</v>
       </c>
       <c r="K5">
-        <v>257240</v>
+        <v>231928.44</v>
       </c>
       <c r="L5" s="1">
-        <v>-517.6</v>
+        <v>-720</v>
       </c>
       <c r="M5">
-        <v>-0.20119999999999999</v>
+        <v>-0.31040000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44491</v>
+        <v>44498</v>
       </c>
       <c r="J6" s="1">
-        <v>338667.31</v>
+        <v>338548.51</v>
       </c>
       <c r="K6">
-        <v>257383</v>
+        <v>288085</v>
       </c>
       <c r="L6" s="1">
-        <v>-1612</v>
+        <v>5283</v>
       </c>
       <c r="M6">
-        <v>-0.62629999999999997</v>
+        <v>1.8338000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>355720.52</v>
+        <v>322124.17600000004</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>277614.40000000002</v>
+        <v>218204.9</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>2472.4</v>
+        <v>994</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>0.89058780812522698</v>
+        <v>0.45553514151148766</v>
       </c>
     </row>
   </sheetData>
@@ -10635,105 +11144,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44480</v>
+        <v>44487</v>
       </c>
       <c r="J2" s="1">
-        <v>332610.81</v>
+        <v>358155.17</v>
       </c>
       <c r="K2">
-        <v>251446</v>
+        <v>298049</v>
       </c>
       <c r="L2" s="1">
-        <v>-712</v>
+        <v>1777</v>
       </c>
       <c r="M2">
-        <v>-0.28320000000000001</v>
+        <v>0.59619999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44481</v>
+        <v>44488</v>
       </c>
       <c r="J3" s="1">
-        <v>352917.5</v>
+        <v>360576.05</v>
       </c>
       <c r="K3">
-        <v>179388</v>
+        <v>292304</v>
       </c>
       <c r="L3" s="1">
-        <v>-3766</v>
+        <v>2425</v>
       </c>
       <c r="M3">
-        <v>-2.0994000000000002</v>
+        <v>0.8296</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="J4" s="1">
-        <v>229949.15</v>
+        <v>360894.69</v>
       </c>
       <c r="K4">
-        <v>203432.16</v>
+        <v>283096</v>
       </c>
       <c r="L4" s="1">
-        <v>4142</v>
+        <v>400</v>
       </c>
       <c r="M4">
-        <v>2.0360999999999998</v>
+        <v>0.14130000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="J5" s="1">
-        <v>354131.97</v>
+        <v>360309.38</v>
       </c>
       <c r="K5">
-        <v>315077</v>
+        <v>257240</v>
       </c>
       <c r="L5" s="1">
-        <v>-2743</v>
+        <v>-517.6</v>
       </c>
       <c r="M5">
-        <v>-0.87060000000000004</v>
+        <v>-0.20119999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44484</v>
+        <v>44491</v>
       </c>
       <c r="J6" s="1">
-        <v>338172.81</v>
+        <v>338667.31</v>
       </c>
       <c r="K6">
-        <v>303730</v>
+        <v>257383</v>
       </c>
       <c r="L6" s="1">
-        <v>2419</v>
+        <v>-1612</v>
       </c>
       <c r="M6">
-        <v>0.7964</v>
+        <v>-0.62629999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>321556.44800000003</v>
+        <v>355720.52</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>250614.63200000004</v>
+        <v>277614.40000000002</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-660</v>
+        <v>2472.4</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-0.26335254040554179</v>
+        <v>0.89058780812522698</v>
       </c>
     </row>
   </sheetData>
@@ -10744,6 +11253,171 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44480</v>
+      </c>
+      <c r="J2" s="1">
+        <v>332610.81</v>
+      </c>
+      <c r="K2">
+        <v>251446</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-712</v>
+      </c>
+      <c r="M2">
+        <v>-0.28320000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44481</v>
+      </c>
+      <c r="J3" s="1">
+        <v>352917.5</v>
+      </c>
+      <c r="K3">
+        <v>179388</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-3766</v>
+      </c>
+      <c r="M3">
+        <v>-2.0994000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44482</v>
+      </c>
+      <c r="J4" s="1">
+        <v>229949.15</v>
+      </c>
+      <c r="K4">
+        <v>203432.16</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4142</v>
+      </c>
+      <c r="M4">
+        <v>2.0360999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44483</v>
+      </c>
+      <c r="J5" s="1">
+        <v>354131.97</v>
+      </c>
+      <c r="K5">
+        <v>315077</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-2743</v>
+      </c>
+      <c r="M5">
+        <v>-0.87060000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44484</v>
+      </c>
+      <c r="J6" s="1">
+        <v>338172.81</v>
+      </c>
+      <c r="K6">
+        <v>303730</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2419</v>
+      </c>
+      <c r="M6">
+        <v>0.7964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>321556.44800000003</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>250614.63200000004</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-660</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-0.26335254040554179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -10840,7 +11514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M22"/>
   <sheetViews>
@@ -11261,7 +11935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -11716,7 +12390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -12191,512 +12865,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="6">
-        <v>44348</v>
-      </c>
-      <c r="J2" s="1">
-        <v>369566.62</v>
-      </c>
-      <c r="K2" s="14">
-        <v>235801.1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2159.6</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.91590000000000005</v>
-      </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="6">
-        <v>44349</v>
-      </c>
-      <c r="J3" s="1">
-        <v>365120.57</v>
-      </c>
-      <c r="K3" s="14">
-        <v>296728</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-4436.1000000000004</v>
-      </c>
-      <c r="M3" s="5">
-        <v>-1.4950000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6">
-        <v>44350</v>
-      </c>
-      <c r="J4" s="1">
-        <v>363781.23</v>
-      </c>
-      <c r="K4" s="14">
-        <v>259382.2</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1330.1</v>
-      </c>
-      <c r="M4" s="5">
-        <v>-0.51280000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6">
-        <v>44351</v>
-      </c>
-      <c r="J5" s="1">
-        <v>366580.88</v>
-      </c>
-      <c r="K5" s="14">
-        <v>209187.4</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2829.7</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1.3527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="6">
-        <v>44354</v>
-      </c>
-      <c r="J6" s="1">
-        <v>418141.49</v>
-      </c>
-      <c r="K6" s="14">
-        <v>246536.6</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1562.6</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.63380000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="6">
-        <v>44355</v>
-      </c>
-      <c r="J7" s="1">
-        <v>414310.09</v>
-      </c>
-      <c r="K7" s="14">
-        <v>318721.40000000002</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-3812.1</v>
-      </c>
-      <c r="M7" s="5">
-        <v>-1.1960999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6">
-        <v>44356</v>
-      </c>
-      <c r="J8" s="1">
-        <v>413741.94</v>
-      </c>
-      <c r="K8" s="14">
-        <v>324161.7</v>
-      </c>
-      <c r="L8" s="1">
-        <v>427.2</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0.1318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6">
-        <v>44357</v>
-      </c>
-      <c r="J9" s="1">
-        <v>417812.38</v>
-      </c>
-      <c r="K9" s="14">
-        <v>282917</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4087.1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1.4446000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="6">
-        <v>44358</v>
-      </c>
-      <c r="J10" s="1">
-        <v>394905.9</v>
-      </c>
-      <c r="K10" s="14">
-        <v>322514</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-3902.2</v>
-      </c>
-      <c r="M10" s="5">
-        <v>-1.2099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6">
-        <v>44362</v>
-      </c>
-      <c r="J11" s="1">
-        <v>412797.08</v>
-      </c>
-      <c r="K11" s="14">
-        <v>329797.90000000002</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-2089.4</v>
-      </c>
-      <c r="M11" s="5">
-        <v>-0.63349999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="6">
-        <v>44363</v>
-      </c>
-      <c r="J12" s="1">
-        <v>400806.78</v>
-      </c>
-      <c r="K12" s="14">
-        <v>353970.5</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-8960.5</v>
-      </c>
-      <c r="M12" s="5">
-        <v>-2.5314000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="6">
-        <v>44364</v>
-      </c>
-      <c r="J13" s="1">
-        <v>408254.99</v>
-      </c>
-      <c r="K13" s="14">
-        <v>270435.7</v>
-      </c>
-      <c r="L13" s="1">
-        <v>6487.1</v>
-      </c>
-      <c r="M13" s="5">
-        <v>2.3988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="6">
-        <v>44365</v>
-      </c>
-      <c r="J14" s="1">
-        <v>412532.63</v>
-      </c>
-      <c r="K14" s="14">
-        <v>273539.59999999998</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2301.3000000000002</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.84130000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="6">
-        <v>44368</v>
-      </c>
-      <c r="J15" s="1">
-        <v>412210.07</v>
-      </c>
-      <c r="K15">
-        <v>276387.59999999998</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-319.3</v>
-      </c>
-      <c r="M15">
-        <v>-0.11550000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="6">
-        <v>44369</v>
-      </c>
-      <c r="J16" s="1">
-        <v>413594.91</v>
-      </c>
-      <c r="K16">
-        <v>319069.5</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1400.4</v>
-      </c>
-      <c r="M16">
-        <v>0.43890000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="6">
-        <v>44370</v>
-      </c>
-      <c r="J17" s="1">
-        <v>416573.23</v>
-      </c>
-      <c r="K17">
-        <v>244798.4</v>
-      </c>
-      <c r="L17" s="1">
-        <v>3015</v>
-      </c>
-      <c r="M17">
-        <v>1.2316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="6">
-        <v>44371</v>
-      </c>
-      <c r="J18" s="1">
-        <v>413177.05</v>
-      </c>
-      <c r="K18">
-        <v>315915.2</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-3368.2</v>
-      </c>
-      <c r="M18">
-        <v>-1.0662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="6">
-        <v>44372</v>
-      </c>
-      <c r="J19" s="1">
-        <v>412872.75</v>
-      </c>
-      <c r="K19">
-        <v>319013.59999999998</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5398.4</v>
-      </c>
-      <c r="M19">
-        <v>1.6921999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="6">
-        <v>44375</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="1"/>
-      <c r="I20"/>
-      <c r="J20" s="1">
-        <v>421680.23</v>
-      </c>
-      <c r="K20">
-        <v>235082.9</v>
-      </c>
-      <c r="L20">
-        <v>3167.1</v>
-      </c>
-      <c r="M20">
-        <v>1.3472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="6">
-        <v>44376</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="1"/>
-      <c r="I21"/>
-      <c r="J21" s="1">
-        <v>420854.97</v>
-      </c>
-      <c r="K21">
-        <v>334427.98</v>
-      </c>
-      <c r="L21">
-        <v>-777.6</v>
-      </c>
-      <c r="M21">
-        <v>-0.23250000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="6">
-        <v>44377</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="1"/>
-      <c r="I22"/>
-      <c r="J22" s="1">
-        <v>424153.89</v>
-      </c>
-      <c r="K22">
-        <v>281291</v>
-      </c>
-      <c r="L22">
-        <v>3372.42</v>
-      </c>
-      <c r="M22">
-        <v>1.1989000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="6"/>
-      <c r="B23">
-        <f>SUM(B6:B10)/5</f>
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f>SUM(F6:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G6:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f>SUM(H6:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <f>AVERAGE(J2:J22)</f>
-        <v>404450.93714285712</v>
-      </c>
-      <c r="K23" s="1">
-        <f>AVERAGE(K2:K22)</f>
-        <v>288079.96571428579</v>
-      </c>
-      <c r="L23" s="1">
-        <f>SUM(L1:L22)</f>
-        <v>7212.42</v>
-      </c>
-      <c r="M23" s="5">
-        <f>L23/K23*100</f>
-        <v>2.5036173487861317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="L25">
-        <v>6522.77</v>
-      </c>
-      <c r="M25" s="1">
-        <f>AVERAGE(L25,L26,L27)</f>
-        <v>10335.52</v>
-      </c>
-      <c r="N25" s="1">
-        <f>AVERAGE(L25:L30)</f>
-        <v>3917.4199999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="L26">
-        <v>16134.77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="L27">
-        <v>8349.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="L28" s="1">
-        <v>-11625.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="L29" s="1">
-        <v>-2946.04</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="L30" s="1">
-        <v>7069.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/java/ttjj/doc/ttjj.xlsx
+++ b/src/main/java/ttjj/doc/ttjj.xlsx
@@ -7,36 +7,37 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="1101" sheetId="69" r:id="rId1"/>
-    <sheet name="10A" sheetId="68" r:id="rId2"/>
-    <sheet name="104" sheetId="67" r:id="rId3"/>
-    <sheet name="103" sheetId="66" r:id="rId4"/>
-    <sheet name="102" sheetId="65" r:id="rId5"/>
-    <sheet name="101" sheetId="64" r:id="rId6"/>
-    <sheet name="9A" sheetId="57" r:id="rId7"/>
-    <sheet name="8A" sheetId="53" r:id="rId8"/>
-    <sheet name="7A" sheetId="48" r:id="rId9"/>
-    <sheet name="6A" sheetId="40" r:id="rId10"/>
-    <sheet name="5" sheetId="37" r:id="rId11"/>
-    <sheet name="2104" sheetId="36" r:id="rId12"/>
-    <sheet name="2103" sheetId="33" r:id="rId13"/>
-    <sheet name="2102" sheetId="31" r:id="rId14"/>
-    <sheet name="2101" sheetId="26" r:id="rId15"/>
-    <sheet name="每月" sheetId="29" r:id="rId16"/>
-    <sheet name="分红计算" sheetId="30" r:id="rId17"/>
-    <sheet name="赎回中" sheetId="32" r:id="rId18"/>
-    <sheet name="每日时间表" sheetId="34" r:id="rId19"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId20"/>
-    <sheet name="突破均线" sheetId="61" r:id="rId21"/>
-    <sheet name="Sheet2" sheetId="62" r:id="rId22"/>
-    <sheet name="k线" sheetId="63" r:id="rId23"/>
+    <sheet name="1102" sheetId="70" r:id="rId1"/>
+    <sheet name="1101" sheetId="69" r:id="rId2"/>
+    <sheet name="10A" sheetId="68" r:id="rId3"/>
+    <sheet name="104" sheetId="67" r:id="rId4"/>
+    <sheet name="103" sheetId="66" r:id="rId5"/>
+    <sheet name="102" sheetId="65" r:id="rId6"/>
+    <sheet name="101" sheetId="64" r:id="rId7"/>
+    <sheet name="9A" sheetId="57" r:id="rId8"/>
+    <sheet name="8A" sheetId="53" r:id="rId9"/>
+    <sheet name="7A" sheetId="48" r:id="rId10"/>
+    <sheet name="6A" sheetId="40" r:id="rId11"/>
+    <sheet name="5" sheetId="37" r:id="rId12"/>
+    <sheet name="2104" sheetId="36" r:id="rId13"/>
+    <sheet name="2103" sheetId="33" r:id="rId14"/>
+    <sheet name="2102" sheetId="31" r:id="rId15"/>
+    <sheet name="2101" sheetId="26" r:id="rId16"/>
+    <sheet name="每月" sheetId="29" r:id="rId17"/>
+    <sheet name="分红计算" sheetId="30" r:id="rId18"/>
+    <sheet name="赎回中" sheetId="32" r:id="rId19"/>
+    <sheet name="每日时间表" sheetId="34" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId21"/>
+    <sheet name="突破均线" sheetId="61" r:id="rId22"/>
+    <sheet name="Sheet2" sheetId="62" r:id="rId23"/>
+    <sheet name="k线" sheetId="63" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="94">
   <si>
     <t>月份</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -1950,7 +1951,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2002,105 +2003,105 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6">
-        <v>44501</v>
+        <v>44508</v>
       </c>
       <c r="J2" s="1">
-        <v>336413.7</v>
+        <v>339664.9</v>
       </c>
       <c r="K2">
-        <v>303014</v>
+        <v>309609</v>
       </c>
       <c r="L2" s="1">
-        <v>-2098</v>
+        <v>459</v>
       </c>
       <c r="M2">
-        <v>-0.69240000000000002</v>
+        <v>0.14829999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6">
-        <v>44502</v>
+        <v>44509</v>
       </c>
       <c r="J3" s="1">
-        <v>337771.53</v>
+        <v>340222.85</v>
       </c>
       <c r="K3">
-        <v>306959</v>
+        <v>252342</v>
       </c>
       <c r="L3" s="1">
-        <v>1474</v>
+        <v>588</v>
       </c>
       <c r="M3">
-        <v>0.48020000000000002</v>
+        <v>0.23300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="J4" s="1">
-        <v>337368.69</v>
+        <v>290805.40999999997</v>
       </c>
       <c r="K4">
-        <v>312788</v>
+        <v>272189</v>
       </c>
       <c r="L4" s="1">
-        <v>604</v>
+        <v>-108</v>
       </c>
       <c r="M4">
-        <v>0.19309999999999999</v>
+        <v>-3.9699999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6">
-        <v>44504</v>
+        <v>44511</v>
       </c>
       <c r="J5" s="1">
-        <v>310247.15000000002</v>
+        <v>347352.65</v>
       </c>
       <c r="K5">
-        <v>306966</v>
+        <v>312022</v>
       </c>
       <c r="L5" s="1">
-        <v>1903</v>
+        <v>7291.2</v>
       </c>
       <c r="M5">
-        <v>0.61990000000000001</v>
+        <v>2.3368000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6">
-        <v>44505</v>
+        <v>44512</v>
       </c>
       <c r="J6" s="1">
-        <v>339282.19</v>
+        <v>344989.24</v>
       </c>
       <c r="K6">
-        <v>318683</v>
+        <v>242428</v>
       </c>
       <c r="L6" s="1">
-        <v>-1942</v>
+        <v>-2264</v>
       </c>
       <c r="M6">
-        <v>-0.60940000000000005</v>
+        <v>-0.93389999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="1">
         <f>AVERAGE(J2:J6)</f>
-        <v>332216.65199999994</v>
+        <v>332607.01</v>
       </c>
       <c r="K7" s="1">
         <f>AVERAGE(K2:K6)</f>
-        <v>309682</v>
+        <v>277718</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(L1:L6)</f>
-        <v>-59</v>
+        <v>5966.2000000000007</v>
       </c>
       <c r="M7" s="5">
         <f>L7/K7*100</f>
-        <v>-1.9051801525435771E-2</v>
+        <v>2.1482943129361445</v>
       </c>
     </row>
   </sheetData>
@@ -2111,6 +2112,483 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44378</v>
+      </c>
+      <c r="J2" s="1">
+        <v>400968.2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>221650.6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-3191.21</v>
+      </c>
+      <c r="M2" s="5">
+        <v>-1.4145000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44379</v>
+      </c>
+      <c r="J3" s="1">
+        <v>394703.57</v>
+      </c>
+      <c r="K3">
+        <v>282622.7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-6272.86</v>
+      </c>
+      <c r="M3">
+        <v>-2.2845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J4" s="1">
+        <v>395945.96</v>
+      </c>
+      <c r="K4">
+        <v>190776</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1045.7</v>
+      </c>
+      <c r="M4">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J5" s="1">
+        <v>392945.76</v>
+      </c>
+      <c r="K5">
+        <v>321998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-2720.9</v>
+      </c>
+      <c r="M5">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J6" s="1">
+        <v>401240.56</v>
+      </c>
+      <c r="K6">
+        <v>264214.08</v>
+      </c>
+      <c r="L6" s="1">
+        <v>8335</v>
+      </c>
+      <c r="M6">
+        <v>3.1545999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>44385</v>
+      </c>
+      <c r="J7" s="1">
+        <v>400854.3</v>
+      </c>
+      <c r="K7">
+        <v>298343.01</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-344.6</v>
+      </c>
+      <c r="M7">
+        <v>-0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>44386</v>
+      </c>
+      <c r="J8" s="1">
+        <v>358039.83</v>
+      </c>
+      <c r="K8">
+        <v>299620.11</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1353</v>
+      </c>
+      <c r="M8">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>44389</v>
+      </c>
+      <c r="J9" s="1">
+        <v>399553.09</v>
+      </c>
+      <c r="K9">
+        <v>315114</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7444</v>
+      </c>
+      <c r="M9">
+        <v>2.3622999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>44390</v>
+      </c>
+      <c r="J10" s="1">
+        <v>398533.05</v>
+      </c>
+      <c r="K10">
+        <v>266844</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-975</v>
+      </c>
+      <c r="M10">
+        <v>-0.3654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>44391</v>
+      </c>
+      <c r="J11" s="1">
+        <v>395001.88</v>
+      </c>
+      <c r="K11">
+        <v>236228</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-3479</v>
+      </c>
+      <c r="M11">
+        <v>-1.4726999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>44392</v>
+      </c>
+      <c r="J12" s="1">
+        <v>398680.85</v>
+      </c>
+      <c r="K12">
+        <v>178125</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3721</v>
+      </c>
+      <c r="M12">
+        <v>2.089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>44393</v>
+      </c>
+      <c r="J13" s="1">
+        <v>215638.8</v>
+      </c>
+      <c r="K13">
+        <v>181630.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-6398</v>
+      </c>
+      <c r="M13">
+        <v>-3.5225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>44396</v>
+      </c>
+      <c r="J14" s="1">
+        <v>391461.52</v>
+      </c>
+      <c r="K14">
+        <v>346936</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-735.7</v>
+      </c>
+      <c r="M14">
+        <v>-0.21210000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>44397</v>
+      </c>
+      <c r="J15" s="1">
+        <v>381325.07</v>
+      </c>
+      <c r="K15">
+        <v>241558</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-86</v>
+      </c>
+      <c r="M15">
+        <v>-3.56E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>44398</v>
+      </c>
+      <c r="J16" s="1">
+        <v>385281.95</v>
+      </c>
+      <c r="K16">
+        <v>248832</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3968</v>
+      </c>
+      <c r="M16">
+        <v>1.5947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>44399</v>
+      </c>
+      <c r="J17" s="1">
+        <v>350182.62</v>
+      </c>
+      <c r="K17">
+        <v>260244.58</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1428</v>
+      </c>
+      <c r="M17">
+        <v>0.54869999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>44400</v>
+      </c>
+      <c r="J18" s="1">
+        <v>321329.03999999998</v>
+      </c>
+      <c r="K18">
+        <v>291717.36</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-5033</v>
+      </c>
+      <c r="M18">
+        <v>-1.7253000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>44403</v>
+      </c>
+      <c r="J19" s="1">
+        <v>346532.81</v>
+      </c>
+      <c r="K19">
+        <v>341191.62</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-10790</v>
+      </c>
+      <c r="M19">
+        <v>-3.1623999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>44404</v>
+      </c>
+      <c r="J20" s="1">
+        <v>350194.88</v>
+      </c>
+      <c r="K20">
+        <v>248836.5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-10497.8</v>
+      </c>
+      <c r="M20">
+        <v>-4.2187999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>44405</v>
+      </c>
+      <c r="J21" s="1">
+        <v>297302.5</v>
+      </c>
+      <c r="K21">
+        <v>257045.36</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-1756.7</v>
+      </c>
+      <c r="M21">
+        <v>-0.68340000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>44406</v>
+      </c>
+      <c r="J22" s="1">
+        <v>435117.81</v>
+      </c>
+      <c r="K22">
+        <v>278202.5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>16747</v>
+      </c>
+      <c r="M22">
+        <v>6.0197000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>44407</v>
+      </c>
+      <c r="J23" s="1">
+        <v>411503.17</v>
+      </c>
+      <c r="K23">
+        <v>287799.21000000002</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-360</v>
+      </c>
+      <c r="M23">
+        <v>-0.12509999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6"/>
+      <c r="B24">
+        <f>SUM(B7:B11)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F7:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>SUM(G7:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>SUM(H7:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f>AVERAGE(J2:J23)</f>
+        <v>373742.60090909083</v>
+      </c>
+      <c r="K24" s="1">
+        <f>AVERAGE(K2:K23)</f>
+        <v>266342.21500000003</v>
+      </c>
+      <c r="L24" s="1">
+        <f>SUM(L2:L23)</f>
+        <v>-8599.07</v>
+      </c>
+      <c r="M24" s="5">
+        <f>L24/K24*100</f>
+        <v>-3.2285794424289813</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -2618,7 +3096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -3487,7 +3965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
@@ -4581,7 +5059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -5759,7 +6237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -6353,7 +6831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -7271,7 +7749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -7781,7 +8259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -7967,7 +8445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -8089,7 +8567,172 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
+        <v>44501</v>
+      </c>
+      <c r="J2" s="1">
+        <v>336413.7</v>
+      </c>
+      <c r="K2">
+        <v>303014</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-2098</v>
+      </c>
+      <c r="M2">
+        <v>-0.69240000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>44502</v>
+      </c>
+      <c r="J3" s="1">
+        <v>337771.53</v>
+      </c>
+      <c r="K3">
+        <v>306959</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1474</v>
+      </c>
+      <c r="M3">
+        <v>0.48020000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>44503</v>
+      </c>
+      <c r="J4" s="1">
+        <v>337368.69</v>
+      </c>
+      <c r="K4">
+        <v>312788</v>
+      </c>
+      <c r="L4" s="1">
+        <v>604</v>
+      </c>
+      <c r="M4">
+        <v>0.19309999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>44504</v>
+      </c>
+      <c r="J5" s="1">
+        <v>310247.15000000002</v>
+      </c>
+      <c r="K5">
+        <v>306966</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1903</v>
+      </c>
+      <c r="M5">
+        <v>0.61990000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>44505</v>
+      </c>
+      <c r="J6" s="1">
+        <v>339282.19</v>
+      </c>
+      <c r="K6">
+        <v>318683</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1942</v>
+      </c>
+      <c r="M6">
+        <v>-0.60940000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>AVERAGE(J2:J6)</f>
+        <v>332216.65199999994</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K2:K6)</f>
+        <v>309682</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(L1:L6)</f>
+        <v>-59</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7*100</f>
+        <v>-1.9051801525435771E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -8171,7 +8814,2406 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
+    <col min="16" max="16" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="F1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>5.52</v>
+      </c>
+      <c r="B2">
+        <v>22.02</v>
+      </c>
+      <c r="C2">
+        <v>0.84</v>
+      </c>
+      <c r="D2">
+        <v>-13</v>
+      </c>
+      <c r="E2">
+        <v>-10.11</v>
+      </c>
+      <c r="F2">
+        <f>B2*1+C2*1+D2*0.8+E2*0.6</f>
+        <v>6.3939999999999992</v>
+      </c>
+      <c r="H2">
+        <f>IF(E2&lt;-10,E2*1.4,E2*0.6)</f>
+        <v>-14.153999999999998</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2">
+        <f>B2*1.2+C2*1.2+D2*1.2+H2</f>
+        <v>-2.3219999999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>6.47</v>
+      </c>
+      <c r="B3">
+        <v>19.82</v>
+      </c>
+      <c r="C3">
+        <v>-0.02</v>
+      </c>
+      <c r="D3">
+        <v>-10</v>
+      </c>
+      <c r="E3">
+        <v>-9.3800000000000008</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F27" si="0">B3*1+C3*1+D3*0.8+E3*0.6</f>
+        <v>6.1720000000000006</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H27" si="1">IF(E3&lt;-10,E3*1.4,E3*0.6)</f>
+        <v>-5.6280000000000001</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3">
+        <f t="shared" ref="J3:J27" si="2">B3*1.2+C3*1.2+D3*1.2+H3</f>
+        <v>6.1319999999999979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>4.43</v>
+      </c>
+      <c r="B4">
+        <v>12.48</v>
+      </c>
+      <c r="C4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D4">
+        <v>-7</v>
+      </c>
+      <c r="E4">
+        <v>-7.98</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4.3120000000000012</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-4.7880000000000003</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>4.452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>4.12</v>
+      </c>
+      <c r="B5">
+        <v>7.75</v>
+      </c>
+      <c r="C5">
+        <v>0.66</v>
+      </c>
+      <c r="D5">
+        <v>-5</v>
+      </c>
+      <c r="E5">
+        <v>-3.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2.31</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-2.1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>1.9919999999999987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>4.12</v>
+      </c>
+      <c r="B6">
+        <v>10.46</v>
+      </c>
+      <c r="C6">
+        <v>2.06</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
+        <v>-6.71</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.6940000000000008</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-4.0259999999999998</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>3.7980000000000018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>7.91</v>
+      </c>
+      <c r="B7">
+        <v>13.47</v>
+      </c>
+      <c r="C7">
+        <v>1.05</v>
+      </c>
+      <c r="D7">
+        <v>-13</v>
+      </c>
+      <c r="E7">
+        <v>-1.2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000012</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-0.72</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>1.1040000000000034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>0.38</v>
+      </c>
+      <c r="B8">
+        <v>15.88</v>
+      </c>
+      <c r="C8">
+        <v>-6.45</v>
+      </c>
+      <c r="D8">
+        <v>-6</v>
+      </c>
+      <c r="E8">
+        <v>-3.02</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.8179999999999992</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-1.8119999999999998</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>2.3040000000000016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>5.83</v>
+      </c>
+      <c r="B9">
+        <v>5.92</v>
+      </c>
+      <c r="C9">
+        <v>3.39</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>-7.32</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3.3180000000000005</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-4.3920000000000003</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>9.75</v>
+      </c>
+      <c r="B10">
+        <v>14.68</v>
+      </c>
+      <c r="C10">
+        <v>-1.91</v>
+      </c>
+      <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10">
+        <v>-8.19</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-4.9139999999999997</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="11"